--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0D90F2-D938-44DF-A1DC-58150CA9E8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA7625-B285-4395-A75D-B9323A8B79E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="215">
   <si>
     <t>##var</t>
   </si>
@@ -207,10 +207,6 @@
   </si>
   <si>
     <t>max_adap</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_pool_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -378,12 +374,372 @@
     <t>类型（指挥/技能）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>喷射火焰|大地之力|毒牙|冲击|挥爪</t>
+  </si>
+  <si>
+    <t>光合作用|鞭打|扎根|守护</t>
+  </si>
+  <si>
+    <t>火焰冲|电流猛扑|迅雷|冲击|快速攻击</t>
+  </si>
+  <si>
+    <t>喙啄|暴风|起风|冲击|快速攻击</t>
+  </si>
+  <si>
+    <t>冲浪|电流猛扑|滚动|冲击|守护</t>
+  </si>
+  <si>
+    <t>冲浪|水柱冲击|吞吐|电流猛扑|冲击</t>
+  </si>
+  <si>
+    <t>喷射火焰|火焰冲|吐火|冲击|快速攻击|挥爪</t>
+  </si>
+  <si>
+    <t>轰隆隆隆隆|电流猛扑|冲击|守护|快速攻击</t>
+  </si>
+  <si>
+    <t>放电|咚咚锵|毒牙|快速攻击</t>
+  </si>
+  <si>
+    <t>电闪雷鸣|暴风|狂风|快速攻击</t>
+  </si>
+  <si>
+    <t>放电|电闪雷鸣|闪电飞盘|守护|快速攻击</t>
+  </si>
+  <si>
+    <t>skill_pool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲浪</t>
+  </si>
+  <si>
+    <t>水柱冲击</t>
+  </si>
+  <si>
+    <t>水流喷射</t>
+  </si>
+  <si>
+    <t>吞吐</t>
+  </si>
+  <si>
+    <t>喷射火焰</t>
+  </si>
+  <si>
+    <t>火焰冲</t>
+  </si>
+  <si>
+    <t>大地之力</t>
+  </si>
+  <si>
+    <t>吐火</t>
+  </si>
+  <si>
+    <t>光合作用</t>
+  </si>
+  <si>
+    <t>鞭打</t>
+  </si>
+  <si>
+    <t>扎根</t>
+  </si>
+  <si>
+    <t>轰隆隆隆隆</t>
+  </si>
+  <si>
+    <t>放电</t>
+  </si>
+  <si>
+    <t>电流猛扑</t>
+  </si>
+  <si>
+    <t>电闪雷鸣</t>
+  </si>
+  <si>
+    <t>迅雷</t>
+  </si>
+  <si>
+    <t>咚咚锵</t>
+  </si>
+  <si>
+    <t>闪电飞盘</t>
+  </si>
+  <si>
+    <t>喙啄</t>
+  </si>
+  <si>
+    <t>暴风</t>
+  </si>
+  <si>
+    <t>起风</t>
+  </si>
+  <si>
+    <t>狂风</t>
+  </si>
+  <si>
+    <t>毒牙</t>
+  </si>
+  <si>
+    <t>滚动</t>
+  </si>
+  <si>
+    <t>冲击</t>
+  </si>
+  <si>
+    <t>守护</t>
+  </si>
+  <si>
+    <t>快速攻击</t>
+  </si>
+  <si>
+    <t>挥爪</t>
+  </si>
+  <si>
+    <t>操控着惊涛骇浪拍击对手。</t>
+  </si>
+  <si>
+    <t>技能优先度：1。快速地吐出水柱喷向对手。</t>
+  </si>
+  <si>
+    <t>技能优先度：2。控制周围的水流涌向对手。</t>
+  </si>
+  <si>
+    <t>吞下对手，然后再将其吐出来。有40%的几率会使对手弃置2张牌。</t>
+  </si>
+  <si>
+    <t>喷射出高温的火柱袭击敌人。</t>
+  </si>
+  <si>
+    <t>凝聚全身的火焰快速地冲向对手。将自己的速度提高10点。</t>
+  </si>
+  <si>
+    <t>从地面中爆发出灼热的岩浆袭击对手。</t>
+  </si>
+  <si>
+    <t>从体内吐出火焰席卷敌人。满血时会造成1.5倍伤害。</t>
+  </si>
+  <si>
+    <t>恢复最大生命值的20%。</t>
+  </si>
+  <si>
+    <t>舞动长长的鞭子击打对手。</t>
+  </si>
+  <si>
+    <t>将自己的根伸入地下，然后突然袭击敌人。将自己的速度降低10点。</t>
+  </si>
+  <si>
+    <t>不管不顾地向前冲击，自己也会受到造成的伤害的50%的伤害。处于草地战场时，招式威力增加30点。</t>
+  </si>
+  <si>
+    <t>将自己身体里的电流释放出去。使用后自己会变成普通属性。</t>
+  </si>
+  <si>
+    <t>身体上布满电流，猛然向敌人扑过去。用自己的防御力代替攻击力进行伤害计算。</t>
+  </si>
+  <si>
+    <t>引动雷电共同攻击。有40%的几率不会造成伤害。</t>
+  </si>
+  <si>
+    <t>技能优先度：3。如同闪电一样迅速攻击。</t>
+  </si>
+  <si>
+    <t>将电流像音乐一样有节奏地发射出来。可能会造成1~3次伤害。</t>
+  </si>
+  <si>
+    <t>闪电如同飞盘一样发射出去。将自己的速度提高10点。</t>
+  </si>
+  <si>
+    <t>用自己尖锐的喙敲击敌人的脑袋。有20%的几率造成1.5倍伤害。</t>
+  </si>
+  <si>
+    <t>利用气旋形成猛烈地风暴席卷敌人。</t>
+  </si>
+  <si>
+    <t>挂起猛烈的风。接下来3回合中，将己方选手的速度提高10点，敌方选手的速度降低10点。</t>
+  </si>
+  <si>
+    <t>空气中的气流与身体产生共鸣，进而引发强劲的风。将自己的速度降低20点。</t>
+  </si>
+  <si>
+    <t>伸出锋利的毒牙撕咬对手。</t>
+  </si>
+  <si>
+    <t>将自己的身体滚成一个球，一边喷洒毒液一边保护自己。将自己的防御力增加10点。</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>利用身体优势撞向对手。</t>
+  </si>
+  <si>
+    <t>技能优先度：5。在自己面前张开屏障保护自己，本回合不会受到伤害。</t>
+  </si>
+  <si>
+    <t>技能优先度：1。迅速地攻向敌人。</t>
+  </si>
+  <si>
+    <t>挥舞爪子快速进攻。可能会造成0~5次伤害。</t>
+  </si>
+  <si>
+    <t>伤害值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage_point</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起猛攻</t>
+  </si>
+  <si>
+    <t>消耗。将己方选手的攻击力提高20点。此效果无视最大攻击力。</t>
+  </si>
+  <si>
+    <t>防守</t>
+  </si>
+  <si>
+    <t>消耗。将己方选手的防御力提高20点。此效果无视最大防御力。</t>
+  </si>
+  <si>
+    <t>加速</t>
+  </si>
+  <si>
+    <t>消耗。将己方选手的速度提高10点。此效果无视最大速度。</t>
+  </si>
+  <si>
+    <t>寻找弱点</t>
+  </si>
+  <si>
+    <t>己方选手下一次使用技能造成伤害变为1.5倍。</t>
+  </si>
+  <si>
+    <t>快躲开</t>
+  </si>
+  <si>
+    <t>己方选手下一次被技能攻击时有60%的几率不会受到伤害。</t>
+  </si>
+  <si>
+    <t>站起来</t>
+  </si>
+  <si>
+    <t>己方选手本回合中不会被击败，最小生命值改为1。</t>
+  </si>
+  <si>
+    <t>接触地面</t>
+  </si>
+  <si>
+    <t>己方选手本回合中被电属性技能攻击时不会受到伤害。</t>
+  </si>
+  <si>
+    <t>疗伤药膏</t>
+  </si>
+  <si>
+    <t>己方选手恢复50点生命值。</t>
+  </si>
+  <si>
+    <t>高级疗伤药膏</t>
+  </si>
+  <si>
+    <t>消耗。己方选手恢复100点生命值。</t>
+  </si>
+  <si>
+    <t>滑轮技巧</t>
+  </si>
+  <si>
+    <t>己方选手下一次使用技能必定优先攻击。</t>
+  </si>
+  <si>
+    <t>重整思路</t>
+  </si>
+  <si>
+    <t>弃置所有手牌，然后抽取等量手牌。</t>
+  </si>
+  <si>
+    <t>战斗灵感</t>
+  </si>
+  <si>
+    <t>消耗。抽三张牌。</t>
+  </si>
+  <si>
+    <t>规避弱点</t>
+  </si>
+  <si>
+    <t>己方选手本回合中受到的伤害变为0.5倍。</t>
+  </si>
+  <si>
+    <t>喝茶</t>
+  </si>
+  <si>
+    <t>消耗。本回合中双方玩家都不能使用牌，己方选手恢复50点生命值。</t>
+  </si>
+  <si>
+    <t>大口喝水</t>
+  </si>
+  <si>
+    <t>己方选手本回合中被水属性技能攻击时不会受到伤害。</t>
+  </si>
+  <si>
+    <t>忍耐高温</t>
+  </si>
+  <si>
+    <t>己方选手本回合中被火属性技能攻击时不会受到伤害。</t>
+  </si>
+  <si>
+    <t>身体坚硬</t>
+  </si>
+  <si>
+    <t>己方选手本回合中被草属性技能攻击时不会受到伤害。</t>
+  </si>
+  <si>
+    <t>重心降低</t>
+  </si>
+  <si>
+    <t>己方选手本回合中被风属性技能攻击时不会受到伤害。</t>
+  </si>
+  <si>
+    <t>划破皮肤</t>
+  </si>
+  <si>
+    <t>己方选手本回合中被毒属性技能攻击时不会受到伤害。己方选手失去50点生命。</t>
+  </si>
+  <si>
+    <t>仔细观察</t>
+  </si>
+  <si>
+    <t>己方选手下一次使用技能造成伤害无视敌方选手的防御力和适应力。</t>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲浪|水柱冲击|水流喷射|暴风|冲击|守护</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(array#sep=|),ActiveSkillEnum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,8 +794,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,6 +858,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,7 +951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -640,6 +1009,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -924,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -936,7 +1312,7 @@
     <col min="12" max="12" width="11.875" customWidth="1"/>
     <col min="13" max="13" width="9.625" customWidth="1"/>
     <col min="15" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="10.5" customWidth="1"/>
+    <col min="16" max="16" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -950,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>3</v>
@@ -986,7 +1362,7 @@
         <v>54</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1014,13 +1390,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>15</v>
@@ -1056,7 +1432,7 @@
         <v>44</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>44</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1090,7 +1466,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>12</v>
@@ -1134,7 +1510,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>28</v>
@@ -1169,14 +1545,16 @@
       <c r="O6" s="7">
         <v>30</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="P6" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>30</v>
@@ -1211,7 +1589,9 @@
       <c r="O7" s="7">
         <v>10</v>
       </c>
-      <c r="P7" s="2"/>
+      <c r="P7" s="23" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -1219,7 +1599,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1254,14 +1634,16 @@
       <c r="O8" s="7">
         <v>40</v>
       </c>
-      <c r="P8" s="2"/>
+      <c r="P8" s="23" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>33</v>
@@ -1296,14 +1678,16 @@
       <c r="O9" s="7">
         <v>10</v>
       </c>
-      <c r="P9" s="2"/>
+      <c r="P9" s="23" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>35</v>
@@ -1338,14 +1722,16 @@
       <c r="O10" s="7">
         <v>30</v>
       </c>
-      <c r="P10" s="2"/>
+      <c r="P10" s="23" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -1380,14 +1766,16 @@
       <c r="O11" s="7">
         <v>50</v>
       </c>
-      <c r="P11" s="2"/>
+      <c r="P11" s="23" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
@@ -1422,14 +1810,16 @@
       <c r="O12" s="7">
         <v>50</v>
       </c>
-      <c r="P12" s="2"/>
+      <c r="P12" s="23" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>30</v>
@@ -1464,14 +1854,16 @@
       <c r="O13" s="7">
         <v>25</v>
       </c>
-      <c r="P13" s="2"/>
+      <c r="P13" s="23" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>9</v>
@@ -1506,14 +1898,16 @@
       <c r="O14" s="7">
         <v>20</v>
       </c>
-      <c r="P14" s="2"/>
+      <c r="P14" s="23" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>33</v>
@@ -1548,14 +1942,16 @@
       <c r="O15" s="7">
         <v>20</v>
       </c>
-      <c r="P15" s="2"/>
+      <c r="P15" s="23" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>35</v>
@@ -1590,14 +1986,16 @@
       <c r="O16" s="7">
         <v>50</v>
       </c>
-      <c r="P16" s="2"/>
+      <c r="P16" s="23" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>33</v>
@@ -1632,7 +2030,9 @@
       <c r="O17" s="7">
         <v>35</v>
       </c>
-      <c r="P17" s="2"/>
+      <c r="P17" s="23" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="18" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -1654,7 +2054,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1668,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1689,7 +2089,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1707,7 +2107,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1715,7 +2115,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1723,7 +2123,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1754,82 +2154,917 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EAF9C4-2658-4956-B74D-AC38757BD377}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="70.25" customWidth="1"/>
     <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>83</v>
+      <c r="C1" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>5</v>
+        <v>83</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="F5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" t="s">
+        <v>210</v>
+      </c>
+      <c r="F18" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" t="s">
+        <v>210</v>
+      </c>
+      <c r="F25" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" t="s">
+        <v>211</v>
+      </c>
+      <c r="F35" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" t="s">
+        <v>211</v>
+      </c>
+      <c r="F39" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" t="s">
+        <v>211</v>
+      </c>
+      <c r="F40" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" t="s">
+        <v>211</v>
+      </c>
+      <c r="F44" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" t="s">
+        <v>211</v>
+      </c>
+      <c r="F45" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E47" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E48" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E49" t="s">
+        <v>211</v>
+      </c>
+      <c r="F49" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E50" t="s">
+        <v>211</v>
+      </c>
+      <c r="F50" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" t="s">
+        <v>211</v>
+      </c>
+      <c r="F51" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E52" t="s">
+        <v>211</v>
+      </c>
+      <c r="F52" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" t="s">
+        <v>211</v>
+      </c>
+      <c r="F53" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E54" t="s">
+        <v>211</v>
+      </c>
+      <c r="F54" s="25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1875,7 +3110,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>5</v>
@@ -1890,109 +3125,109 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D16" s="20"/>
     </row>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA7625-B285-4395-A75D-B9323A8B79E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC70F7AD-AC47-42D4-9CE2-CBBDDF88A599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="216">
   <si>
     <t>##var</t>
   </si>
@@ -732,6 +732,10 @@
   </si>
   <si>
     <t>(array#sep=|),ActiveSkillEnum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -802,7 +806,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -863,7 +867,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,7 +961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1012,10 +1022,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -1300,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -2154,10 +2167,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EAF9C4-2658-4956-B74D-AC38757BD377}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2167,9 +2180,10 @@
     <col min="4" max="4" width="70.25" customWidth="1"/>
     <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2188,15 +2202,18 @@
       <c r="F1" s="19" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
@@ -2215,15 +2232,18 @@
       <c r="F3" s="19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>56</v>
       </c>
@@ -2243,7 +2263,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>110</v>
       </c>
@@ -2259,8 +2279,11 @@
       <c r="F6" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>111</v>
       </c>
@@ -2276,8 +2299,11 @@
       <c r="F7" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>112</v>
       </c>
@@ -2294,7 +2320,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>113</v>
       </c>
@@ -2311,7 +2337,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>114</v>
       </c>
@@ -2328,7 +2354,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>115</v>
       </c>
@@ -2345,7 +2371,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>116</v>
       </c>
@@ -2362,7 +2388,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>117</v>
       </c>
@@ -2379,7 +2405,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>118</v>
       </c>
@@ -2396,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>119</v>
       </c>
@@ -2413,7 +2439,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>120</v>
       </c>
@@ -2430,7 +2456,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>121</v>
       </c>
@@ -2447,7 +2473,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>122</v>
       </c>
@@ -2464,7 +2490,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>123</v>
       </c>
@@ -2481,7 +2507,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>124</v>
       </c>
@@ -2498,7 +2524,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>125</v>
       </c>
@@ -2514,8 +2540,11 @@
       <c r="F21" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>126</v>
       </c>
@@ -2532,7 +2561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>127</v>
       </c>
@@ -2549,7 +2578,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>128</v>
       </c>
@@ -2566,7 +2595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>129</v>
       </c>
@@ -2583,7 +2612,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>130</v>
       </c>
@@ -2600,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>131</v>
       </c>
@@ -2617,7 +2646,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>132</v>
       </c>
@@ -2634,7 +2663,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>133</v>
       </c>
@@ -2651,7 +2680,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>134</v>
       </c>
@@ -2668,7 +2697,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>135</v>
       </c>
@@ -2684,8 +2713,11 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>136</v>
       </c>
@@ -2701,8 +2733,11 @@
       <c r="F32" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>137</v>
       </c>
@@ -2719,19 +2754,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -2740,15 +2777,15 @@
       <c r="E35" t="s">
         <v>211</v>
       </c>
-      <c r="F35" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -2757,15 +2794,15 @@
       <c r="E36" t="s">
         <v>211</v>
       </c>
-      <c r="F36" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2774,15 +2811,15 @@
       <c r="E37" t="s">
         <v>211</v>
       </c>
-      <c r="F37" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -2791,15 +2828,15 @@
       <c r="E38" t="s">
         <v>211</v>
       </c>
-      <c r="F38" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -2808,15 +2845,15 @@
       <c r="E39" t="s">
         <v>211</v>
       </c>
-      <c r="F39" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -2825,15 +2862,15 @@
       <c r="E40" t="s">
         <v>211</v>
       </c>
-      <c r="F40" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -2842,15 +2879,15 @@
       <c r="E41" t="s">
         <v>211</v>
       </c>
-      <c r="F41" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -2859,15 +2896,15 @@
       <c r="E42" t="s">
         <v>211</v>
       </c>
-      <c r="F42" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -2876,15 +2913,15 @@
       <c r="E43" t="s">
         <v>211</v>
       </c>
-      <c r="F43" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -2893,15 +2930,15 @@
       <c r="E44" t="s">
         <v>211</v>
       </c>
-      <c r="F44" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -2910,15 +2947,15 @@
       <c r="E45" t="s">
         <v>211</v>
       </c>
-      <c r="F45" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -2927,15 +2964,15 @@
       <c r="E46" t="s">
         <v>211</v>
       </c>
-      <c r="F46" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -2944,15 +2981,15 @@
       <c r="E47" t="s">
         <v>211</v>
       </c>
-      <c r="F47" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -2961,7 +2998,7 @@
       <c r="E48" t="s">
         <v>211</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F48" s="24">
         <v>0</v>
       </c>
     </row>
@@ -2969,7 +3006,7 @@
       <c r="B49" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -2978,7 +3015,7 @@
       <c r="E49" t="s">
         <v>211</v>
       </c>
-      <c r="F49" s="25">
+      <c r="F49" s="24">
         <v>0</v>
       </c>
     </row>
@@ -2986,7 +3023,7 @@
       <c r="B50" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -2995,7 +3032,7 @@
       <c r="E50" t="s">
         <v>211</v>
       </c>
-      <c r="F50" s="25">
+      <c r="F50" s="24">
         <v>0</v>
       </c>
     </row>
@@ -3003,7 +3040,7 @@
       <c r="B51" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -3012,7 +3049,7 @@
       <c r="E51" t="s">
         <v>211</v>
       </c>
-      <c r="F51" s="25">
+      <c r="F51" s="24">
         <v>0</v>
       </c>
     </row>
@@ -3020,7 +3057,7 @@
       <c r="B52" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -3029,7 +3066,7 @@
       <c r="E52" t="s">
         <v>211</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F52" s="24">
         <v>0</v>
       </c>
     </row>
@@ -3037,7 +3074,7 @@
       <c r="B53" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -3046,7 +3083,7 @@
       <c r="E53" t="s">
         <v>211</v>
       </c>
-      <c r="F53" s="25">
+      <c r="F53" s="24">
         <v>0</v>
       </c>
     </row>
@@ -3054,7 +3091,7 @@
       <c r="B54" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -3063,7 +3100,7 @@
       <c r="E54" t="s">
         <v>211</v>
       </c>
-      <c r="F54" s="25">
+      <c r="F54" s="24">
         <v>0</v>
       </c>
     </row>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC70F7AD-AC47-42D4-9CE2-CBBDDF88A599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6347191A-C2F5-4E1A-A334-17CCF5BD0A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
     <sheet name="element_fit_table" sheetId="4" r:id="rId2"/>
     <sheet name="active_skill_table" sheetId="2" r:id="rId3"/>
-    <sheet name="passive_skill_table" sheetId="3" r:id="rId4"/>
+    <sheet name="battle_environment_table" sheetId="5" r:id="rId4"/>
+    <sheet name="passive_skill_table" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="219">
   <si>
     <t>##var</t>
   </si>
@@ -736,6 +737,18 @@
   </si>
   <si>
     <t>priority</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleEnvironmentEnum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab_path</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -961,7 +974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1026,9 +1039,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -2169,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EAF9C4-2658-4956-B74D-AC38757BD377}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2761,7 +2773,7 @@
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="27"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3111,6 +3123,81 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B49333-CD56-4B78-8DEC-7A5175D9F18B}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E367935-1FED-4A35-BA8B-10AAC5D93D09}">
   <dimension ref="A1:D16"/>
   <sheetViews>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6347191A-C2F5-4E1A-A334-17CCF5BD0A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD3B430-1D6F-4513-B879-7620C72D5DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="254">
   <si>
     <t>##var</t>
   </si>
@@ -596,24 +596,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>发起猛攻</t>
-  </si>
-  <si>
-    <t>消耗。将己方选手的攻击力提高20点。此效果无视最大攻击力。</t>
-  </si>
-  <si>
-    <t>防守</t>
-  </si>
-  <si>
-    <t>消耗。将己方选手的防御力提高20点。此效果无视最大防御力。</t>
-  </si>
-  <si>
-    <t>加速</t>
-  </si>
-  <si>
-    <t>消耗。将己方选手的速度提高10点。此效果无视最大速度。</t>
-  </si>
-  <si>
     <t>寻找弱点</t>
   </si>
   <si>
@@ -629,24 +611,9 @@
     <t>站起来</t>
   </si>
   <si>
-    <t>己方选手本回合中不会被击败，最小生命值改为1。</t>
-  </si>
-  <si>
-    <t>接触地面</t>
-  </si>
-  <si>
-    <t>己方选手本回合中被电属性技能攻击时不会受到伤害。</t>
-  </si>
-  <si>
     <t>疗伤药膏</t>
   </si>
   <si>
-    <t>己方选手恢复50点生命值。</t>
-  </si>
-  <si>
-    <t>高级疗伤药膏</t>
-  </si>
-  <si>
     <t>消耗。己方选手恢复100点生命值。</t>
   </si>
   <si>
@@ -680,46 +647,6 @@
     <t>消耗。本回合中双方玩家都不能使用牌，己方选手恢复50点生命值。</t>
   </si>
   <si>
-    <t>大口喝水</t>
-  </si>
-  <si>
-    <t>己方选手本回合中被水属性技能攻击时不会受到伤害。</t>
-  </si>
-  <si>
-    <t>忍耐高温</t>
-  </si>
-  <si>
-    <t>己方选手本回合中被火属性技能攻击时不会受到伤害。</t>
-  </si>
-  <si>
-    <t>身体坚硬</t>
-  </si>
-  <si>
-    <t>己方选手本回合中被草属性技能攻击时不会受到伤害。</t>
-  </si>
-  <si>
-    <t>重心降低</t>
-  </si>
-  <si>
-    <t>己方选手本回合中被风属性技能攻击时不会受到伤害。</t>
-  </si>
-  <si>
-    <t>划破皮肤</t>
-  </si>
-  <si>
-    <t>己方选手本回合中被毒属性技能攻击时不会受到伤害。己方选手失去50点生命。</t>
-  </si>
-  <si>
-    <t>仔细观察</t>
-  </si>
-  <si>
-    <t>己方选手下一次使用技能造成伤害无视敌方选手的防御力和适应力。</t>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>指挥</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -750,6 +677,184 @@
   <si>
     <t>草地</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化技能</t>
+  </si>
+  <si>
+    <t>伤害技能</t>
+  </si>
+  <si>
+    <t>伤害技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方选手本回合中不会被击败，最小生命值为1。</t>
+  </si>
+  <si>
+    <t>龙之返照</t>
+  </si>
+  <si>
+    <t>己方选手恢复若干点生命，直到满血；己方回合结束时，受到等量伤害。从牌组中抽取一张“水流喷射”；如果牌组中没有“水流喷射”，你抽一张牌。</t>
+  </si>
+  <si>
+    <t>竖起逆鳞</t>
+  </si>
+  <si>
+    <t>消耗。本回合中，己方选手不会受到己方卡牌造成伤害。</t>
+  </si>
+  <si>
+    <t>海洋的宝藏</t>
+  </si>
+  <si>
+    <t>如果己方选手处于满血状态，己方选手下一次使用技能造成伤害变为2倍；否则你抽两张牌。</t>
+  </si>
+  <si>
+    <t>击打地面</t>
+  </si>
+  <si>
+    <t>消耗手牌中的所有技能牌。每消耗一张技能牌，己方选手下一次造成的伤害便增加80点。</t>
+  </si>
+  <si>
+    <t>共鸣</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“大地之力”；如果牌组中的技能牌数量不大于4张，向你的牌组中添加一张“大地之力”。</t>
+  </si>
+  <si>
+    <t>生命绽放</t>
+  </si>
+  <si>
+    <t>如果己方选手的适应力不小于50点，己方选手下一次使用技能造成的伤害变为2倍；否则恢复50点生命值。</t>
+  </si>
+  <si>
+    <t>种树</t>
+  </si>
+  <si>
+    <t>消耗。如果己方选手的速度小于20，己方选手的适应力增加10点，最多可以叠加到20点，并且不计入己方选手的最大适应力。然后结束当前回合。</t>
+  </si>
+  <si>
+    <t>穷追猛打</t>
+  </si>
+  <si>
+    <t>消耗。从牌组中抽取一张“迅雷”，己方选手下一次使用技能造成的伤害变为X倍，X为该技能的技能优先级。</t>
+  </si>
+  <si>
+    <t>后继有力</t>
+  </si>
+  <si>
+    <t>本回合中，己方选手下一次使用技能卡后，回合不会结束，并且可以额外使用一张卡牌。</t>
+  </si>
+  <si>
+    <t>偷吃</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“喙啄”。本回合中，己方选手使用“喙啄”时，对手弃置一张手牌。</t>
+  </si>
+  <si>
+    <t>吹飞</t>
+  </si>
+  <si>
+    <t>消耗。双方玩家各弃置两张手牌，然后若对手的手牌数量不大于0，直接击败敌方选手。然后结束当前回合。</t>
+  </si>
+  <si>
+    <t>涂毒</t>
+  </si>
+  <si>
+    <t>己方选手下一次受到伤害时，敌方选手也会受到等量伤害。</t>
+  </si>
+  <si>
+    <t>下毒</t>
+  </si>
+  <si>
+    <t>给对方手牌中的三张牌“下毒”。对方使用或弃置被下毒的牌时，敌方选手受到100点伤害，此伤害无视防御力和适应力。</t>
+  </si>
+  <si>
+    <t>张开大嘴</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“吞吐”。己方选手下一次使用技能的追加效果几率改为100%。</t>
+  </si>
+  <si>
+    <t>咽下去</t>
+  </si>
+  <si>
+    <t>本回合中，消耗对手弃置的牌。</t>
+  </si>
+  <si>
+    <t>压制</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“吐火”。己方选手下一次使用技能效果不好时，将伤害倍率改为1.5。</t>
+  </si>
+  <si>
+    <t>永不停歇</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“轰隆隆隆隆”。己方选手下一次使用技能时，用该选手的速度代替攻击力进行伤害计算。</t>
+  </si>
+  <si>
+    <t>掌握节奏</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“咚咚锵”。己方选手下一次使用技能时，必定会造成最多次伤害。</t>
+  </si>
+  <si>
+    <t>风之语</t>
+  </si>
+  <si>
+    <t>本回合中，对手弃置手牌时，你抽取等量的牌。</t>
+  </si>
+  <si>
+    <t>呼啸而过</t>
+  </si>
+  <si>
+    <t>本回合中，己方选手下一次使用风属性技能时，该选手的速度提高20点。</t>
+  </si>
+  <si>
+    <t>晶体化</t>
+  </si>
+  <si>
+    <t>消耗。本回合中，己方选手属性发生变化时，会保留原本的属性。</t>
+  </si>
+  <si>
+    <t>战术规划</t>
+  </si>
+  <si>
+    <t>消耗。从你的牌库中抽取两张指挥牌。</t>
+  </si>
+  <si>
+    <t>挥洒草种</t>
+  </si>
+  <si>
+    <t>消耗。将本局对战的战场改为草地。</t>
+  </si>
+  <si>
+    <t>扬沙</t>
+  </si>
+  <si>
+    <t>消耗。将本局对战的战场改为沙漠。</t>
+  </si>
+  <si>
+    <t>喷水</t>
+  </si>
+  <si>
+    <t>消耗。将本局对战的战场改为海洋。</t>
+  </si>
+  <si>
+    <t>轮转</t>
+  </si>
+  <si>
+    <t>消耗。选择一名其他己方选手，更换当前选手下场，并更换该选手上场。</t>
+  </si>
+  <si>
+    <t>保时捷的赞助</t>
+  </si>
+  <si>
+    <t>感谢保时捷对本次比赛的大力支持！抽牌直到你的手牌数量达到上限。【特殊：此牌不计入指挥牌上限，不能被交换，并且在牌组中只有一张。】</t>
+  </si>
+  <si>
+    <t>指挥</t>
   </si>
 </sst>
 </file>
@@ -819,7 +924,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -887,6 +992,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF258"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,7 +1085,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1035,12 +1146,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -1457,7 +1571,7 @@
         <v>44</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1571,7 +1685,7 @@
         <v>30</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2179,10 +2293,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EAF9C4-2658-4956-B74D-AC38757BD377}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2192,7 +2306,7 @@
     <col min="4" max="4" width="70.25" customWidth="1"/>
     <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="9" style="26"/>
+    <col min="7" max="7" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2214,8 +2328,8 @@
       <c r="F1" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>215</v>
+      <c r="G1" s="24" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2244,7 +2358,7 @@
       <c r="F3" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2286,12 +2400,12 @@
         <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F6" s="1">
         <v>90</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <v>1</v>
       </c>
     </row>
@@ -2306,12 +2420,12 @@
         <v>139</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F7" s="1">
         <v>50</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <v>2</v>
       </c>
     </row>
@@ -2326,7 +2440,7 @@
         <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F8" s="1">
         <v>60</v>
@@ -2343,7 +2457,7 @@
         <v>141</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F9" s="1">
         <v>40</v>
@@ -2360,7 +2474,7 @@
         <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F10" s="1">
         <v>90</v>
@@ -2377,7 +2491,7 @@
         <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F11" s="1">
         <v>60</v>
@@ -2394,7 +2508,7 @@
         <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F12" s="1">
         <v>110</v>
@@ -2411,7 +2525,7 @@
         <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F13" s="1">
         <v>80</v>
@@ -2428,7 +2542,7 @@
         <v>146</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2445,7 +2559,7 @@
         <v>147</v>
       </c>
       <c r="E15" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F15" s="1">
         <v>70</v>
@@ -2462,7 +2576,7 @@
         <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F16" s="1">
         <v>100</v>
@@ -2479,7 +2593,7 @@
         <v>149</v>
       </c>
       <c r="E17" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F17" s="1">
         <v>90</v>
@@ -2496,7 +2610,7 @@
         <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F18" s="1">
         <v>110</v>
@@ -2513,7 +2627,7 @@
         <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F19" s="1">
         <v>60</v>
@@ -2530,7 +2644,7 @@
         <v>152</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F20" s="1">
         <v>120</v>
@@ -2547,12 +2661,12 @@
         <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F21" s="1">
         <v>50</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="25">
         <v>3</v>
       </c>
     </row>
@@ -2567,7 +2681,7 @@
         <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F22" s="1">
         <v>30</v>
@@ -2584,7 +2698,7 @@
         <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F23" s="1">
         <v>80</v>
@@ -2601,7 +2715,7 @@
         <v>156</v>
       </c>
       <c r="E24" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F24" s="1">
         <v>60</v>
@@ -2618,7 +2732,7 @@
         <v>157</v>
       </c>
       <c r="E25" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F25" s="1">
         <v>90</v>
@@ -2635,7 +2749,7 @@
         <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2652,7 +2766,7 @@
         <v>159</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F27" s="1">
         <v>110</v>
@@ -2669,7 +2783,7 @@
         <v>160</v>
       </c>
       <c r="E28" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F28" s="1">
         <v>70</v>
@@ -2686,7 +2800,7 @@
         <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F29" s="1">
         <v>60</v>
@@ -2703,7 +2817,7 @@
         <v>163</v>
       </c>
       <c r="E30" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F30" s="1">
         <v>60</v>
@@ -2720,12 +2834,12 @@
         <v>164</v>
       </c>
       <c r="E31" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="25">
         <v>5</v>
       </c>
     </row>
@@ -2740,12 +2854,12 @@
         <v>165</v>
       </c>
       <c r="E32" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F32" s="1">
         <v>50</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="25">
         <v>1</v>
       </c>
     </row>
@@ -2760,360 +2874,629 @@
         <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F33" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" t="s">
+        <v>253</v>
+      </c>
+      <c r="F36" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E37" t="s">
+        <v>253</v>
+      </c>
+      <c r="F37" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F39" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" t="s">
+        <v>253</v>
+      </c>
+      <c r="F40" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" t="s">
+        <v>253</v>
+      </c>
+      <c r="F42" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" t="s">
+        <v>253</v>
+      </c>
+      <c r="F43" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" t="s">
+        <v>253</v>
+      </c>
+      <c r="F45" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46" t="s">
+        <v>253</v>
+      </c>
+      <c r="F46" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E48" t="s">
+        <v>253</v>
+      </c>
+      <c r="F48" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" t="s">
+        <v>253</v>
+      </c>
+      <c r="F49" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E35" t="s">
-        <v>211</v>
-      </c>
-      <c r="F35" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E36" t="s">
-        <v>211</v>
-      </c>
-      <c r="F36" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E37" t="s">
-        <v>211</v>
-      </c>
-      <c r="F37" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E38" t="s">
-        <v>211</v>
-      </c>
-      <c r="F38" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E39" t="s">
-        <v>211</v>
-      </c>
-      <c r="F39" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E40" t="s">
-        <v>211</v>
-      </c>
-      <c r="F40" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F41" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E42" t="s">
-        <v>211</v>
-      </c>
-      <c r="F42" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="E50" t="s">
         <v>187</v>
       </c>
-      <c r="E43" t="s">
-        <v>211</v>
-      </c>
-      <c r="F43" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
+      <c r="F50" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="C44" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E44" t="s">
-        <v>211</v>
-      </c>
-      <c r="F44" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E45" t="s">
-        <v>211</v>
-      </c>
-      <c r="F45" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E46" t="s">
-        <v>211</v>
-      </c>
-      <c r="F46" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" t="s">
-        <v>211</v>
-      </c>
-      <c r="F47" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E48" t="s">
-        <v>211</v>
-      </c>
-      <c r="F48" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E49" t="s">
-        <v>211</v>
-      </c>
-      <c r="F49" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E50" t="s">
-        <v>211</v>
-      </c>
-      <c r="F50" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>203</v>
+      <c r="D51" s="23" t="s">
+        <v>214</v>
       </c>
       <c r="E51" t="s">
-        <v>211</v>
-      </c>
-      <c r="F51" s="24">
+        <v>253</v>
+      </c>
+      <c r="F51" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>205</v>
+      <c r="B52" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>216</v>
       </c>
       <c r="E52" t="s">
-        <v>211</v>
-      </c>
-      <c r="F52" s="24">
+        <v>253</v>
+      </c>
+      <c r="F52" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>207</v>
+      <c r="B53" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>218</v>
       </c>
       <c r="E53" t="s">
-        <v>211</v>
-      </c>
-      <c r="F53" s="24">
+        <v>187</v>
+      </c>
+      <c r="F53" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>209</v>
+      <c r="B54" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>211</v>
-      </c>
-      <c r="F54" s="24">
-        <v>0</v>
+        <v>253</v>
+      </c>
+      <c r="F54" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" t="s">
+        <v>253</v>
+      </c>
+      <c r="F55" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" t="s">
+        <v>253</v>
+      </c>
+      <c r="F57" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="E58" t="s">
+        <v>253</v>
+      </c>
+      <c r="F58" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="E59" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E60" t="s">
+        <v>253</v>
+      </c>
+      <c r="F60" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E61" t="s">
+        <v>253</v>
+      </c>
+      <c r="F61" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E63" t="s">
+        <v>253</v>
+      </c>
+      <c r="F63" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="E64" t="s">
+        <v>253</v>
+      </c>
+      <c r="F64" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="E66" t="s">
+        <v>253</v>
+      </c>
+      <c r="F66" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E67" t="s">
+        <v>253</v>
+      </c>
+      <c r="F67" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="E68" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="E69" t="s">
+        <v>253</v>
+      </c>
+      <c r="F69" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="E70" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3126,7 +3509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B49333-CD56-4B78-8DEC-7A5175D9F18B}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3146,7 +3529,7 @@
         <v>82</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3161,7 +3544,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>169</v>
@@ -3187,7 +3570,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C6" s="1"/>
     </row>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD3B430-1D6F-4513-B879-7620C72D5DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C782CA-BBF9-446A-99E1-8D6D64D78379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="256">
   <si>
     <t>##var</t>
   </si>
@@ -855,6 +855,14 @@
   </si>
   <si>
     <t>指挥</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -924,7 +932,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -998,6 +1006,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF258"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,7 +1105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1152,9 +1172,23 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -2296,7 +2330,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2309,7 +2343,7 @@
     <col min="7" max="7" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2331,15 +2365,18 @@
       <c r="G1" s="24" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
@@ -2361,15 +2398,18 @@
       <c r="G3" s="24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>56</v>
       </c>
@@ -2389,64 +2429,73 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="33">
         <v>90</v>
       </c>
       <c r="G6" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="33">
         <v>50</v>
       </c>
       <c r="G7" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="33">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>113</v>
       </c>
@@ -2462,25 +2511,31 @@
       <c r="F9" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="33">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>115</v>
       </c>
@@ -2496,25 +2551,31 @@
       <c r="F11" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="33">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>117</v>
       </c>
@@ -2530,42 +2591,52 @@
       <c r="F13" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="F14" s="31">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="33">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>120</v>
       </c>
@@ -2581,8 +2652,11 @@
       <c r="F16" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>121</v>
       </c>
@@ -2598,8 +2672,11 @@
       <c r="F17" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>122</v>
       </c>
@@ -2615,8 +2692,11 @@
       <c r="F18" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>123</v>
       </c>
@@ -2632,45 +2712,54 @@
       <c r="F19" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="33">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="H20">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="33">
         <v>50</v>
       </c>
       <c r="G21" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>126</v>
       </c>
@@ -2686,8 +2775,11 @@
       <c r="F22" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>127</v>
       </c>
@@ -2703,8 +2795,11 @@
       <c r="F23" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>128</v>
       </c>
@@ -2720,42 +2815,52 @@
       <c r="F24" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="33">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="31">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>131</v>
       </c>
@@ -2771,25 +2876,31 @@
       <c r="F27" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="33">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>133</v>
       </c>
@@ -2805,61 +2916,74 @@
       <c r="F29" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="33">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="31">
         <v>0</v>
       </c>
       <c r="G31" s="25">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="33">
         <v>50</v>
       </c>
       <c r="G32" s="25">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>1</v>
       </c>
     </row>
@@ -2878,6 +3002,9 @@
       </c>
       <c r="F33" s="1">
         <v>20</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C782CA-BBF9-446A-99E1-8D6D64D78379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4D131E-4418-4594-A73B-EC2F82AF4C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -932,7 +932,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1021,6 +1021,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -1105,7 +1111,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1189,6 +1195,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -2329,7 +2342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EAF9C4-2658-4956-B74D-AC38757BD377}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -3636,8 +3649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B49333-CD56-4B78-8DEC-7A5175D9F18B}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3696,10 +3709,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD92C5-9F20-441D-9EE2-8A6253BC99BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="4"/>
+    <workbookView xWindow="3525" yWindow="2205" windowWidth="15540" windowHeight="12930" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -826,14 +832,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,151 +877,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,25 +892,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,19 +922,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,7 +964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,180 +1000,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1384,253 +1078,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1679,8 +1137,8 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1724,68 +1182,29 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00F43308"/>
-      <color rgb="00FF8680"/>
+      <color rgb="FFF43308"/>
+      <color rgb="FFFF8680"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2043,30 +1462,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="4" width="21.6296296296296" customWidth="1"/>
+    <col min="3" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="11.8796296296296" customWidth="1"/>
-    <col min="13" max="13" width="9.62962962962963" customWidth="1"/>
-    <col min="15" max="15" width="11.6296296296296" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="9.625" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
     <col min="16" max="16" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2116,7 +1535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2136,7 +1555,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2186,7 +1605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -2206,7 +1625,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" ht="14.55" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>24</v>
       </c>
@@ -2256,7 +1675,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" ht="14.55" spans="2:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
         <v>40</v>
       </c>
@@ -2303,7 +1722,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" ht="14.55" spans="2:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
@@ -2350,7 +1769,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" ht="14.55" spans="2:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>48</v>
       </c>
@@ -2397,7 +1816,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" ht="14.55" spans="2:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
@@ -2444,7 +1863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" ht="14.55" spans="2:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
@@ -2491,7 +1910,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" ht="14.55" spans="2:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>60</v>
       </c>
@@ -2538,7 +1957,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" ht="14.55" spans="2:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>64</v>
       </c>
@@ -2585,7 +2004,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" ht="14.55" spans="2:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>67</v>
       </c>
@@ -2632,7 +2051,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" ht="14.55" spans="2:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>70</v>
       </c>
@@ -2679,7 +2098,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" ht="14.55" spans="2:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>73</v>
       </c>
@@ -2726,7 +2145,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" ht="14.55" spans="2:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>76</v>
       </c>
@@ -2773,7 +2192,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" ht="14.55" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
@@ -2820,37 +2239,36 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" ht="14.55" spans="2:2">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" ht="14.55" spans="2:2">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="16"/>
     </row>
-    <row r="20" ht="14.55" spans="2:2">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -2861,14 +2279,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>16</v>
       </c>
@@ -2879,14 +2297,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
     </row>
-    <row r="5" ht="14.55" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>24</v>
       </c>
@@ -2897,7 +2315,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" ht="14.55" spans="2:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
         <v>42</v>
       </c>
@@ -2905,7 +2323,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" ht="14.55" spans="2:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>46</v>
       </c>
@@ -2913,7 +2331,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
         <v>50</v>
       </c>
@@ -2921,7 +2339,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
         <v>54</v>
       </c>
@@ -2929,7 +2347,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="16" t="s">
         <v>58</v>
       </c>
@@ -2937,7 +2355,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="16" t="s">
         <v>62</v>
       </c>
@@ -2946,31 +2364,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="20.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="70.25" customWidth="1"/>
-    <col min="5" max="5" width="23.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2996,14 +2413,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -3029,14 +2446,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -3056,7 +2473,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" ht="14.55" spans="2:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>105</v>
       </c>
@@ -3076,7 +2493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="14.55" spans="2:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>108</v>
       </c>
@@ -3099,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="14.55" spans="2:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>110</v>
       </c>
@@ -3122,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>112</v>
       </c>
@@ -3142,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="14.55" spans="2:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>114</v>
       </c>
@@ -3162,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="14.55" spans="2:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>116</v>
       </c>
@@ -3182,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="14.55" spans="2:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>118</v>
       </c>
@@ -3202,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="14.55" spans="2:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>120</v>
       </c>
@@ -3222,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="14.55" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="18" t="s">
         <v>122</v>
@@ -3243,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="14.55" spans="2:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>125</v>
       </c>
@@ -3263,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="14.55" spans="2:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>127</v>
       </c>
@@ -3283,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="14.55" spans="2:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>129</v>
       </c>
@@ -3303,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="14.55" spans="2:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>131</v>
       </c>
@@ -3323,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="14.55" spans="2:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>133</v>
       </c>
@@ -3343,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="14.55" spans="2:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="13" t="s">
         <v>135</v>
       </c>
@@ -3363,7 +2780,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" ht="14.55" spans="2:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
         <v>137</v>
       </c>
@@ -3386,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="14.55" spans="2:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>139</v>
       </c>
@@ -3406,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="14.55" spans="2:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>141</v>
       </c>
@@ -3426,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="14.55" spans="2:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>143</v>
       </c>
@@ -3446,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="14.55" spans="2:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="13" t="s">
         <v>145</v>
       </c>
@@ -3466,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="14.55" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="18" t="s">
         <v>147</v>
@@ -3487,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="14.55" spans="2:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>149</v>
       </c>
@@ -3507,7 +2924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="14.55" spans="2:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>151</v>
       </c>
@@ -3527,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="14.55" spans="2:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>153</v>
       </c>
@@ -3547,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="14.55" spans="2:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="13" t="s">
         <v>155</v>
       </c>
@@ -3567,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="14.55" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="B31" s="18" t="s">
         <v>158</v>
@@ -3591,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" ht="14.55" spans="2:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>160</v>
       </c>
@@ -3614,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" ht="14.55" spans="2:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>162</v>
       </c>
@@ -3634,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="14.55" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -3644,7 +3061,7 @@
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
     </row>
-    <row r="35" ht="14.55" spans="2:6">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>164</v>
       </c>
@@ -3661,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="14.55" spans="2:6">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="21" t="s">
         <v>168</v>
       </c>
@@ -3678,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="14.55" spans="2:6">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="21" t="s">
         <v>170</v>
       </c>
@@ -3695,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="14.55" spans="2:6">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="21" t="s">
         <v>172</v>
       </c>
@@ -3712,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="14.55" spans="2:6">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="21" t="s">
         <v>174</v>
       </c>
@@ -3729,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="14.55" spans="2:6">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="21" t="s">
         <v>176</v>
       </c>
@@ -3746,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="14.55" spans="2:6">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="21" t="s">
         <v>178</v>
       </c>
@@ -3763,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="14.55" spans="2:6">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="21" t="s">
         <v>180</v>
       </c>
@@ -3780,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="14.55" spans="2:6">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="21" t="s">
         <v>182</v>
       </c>
@@ -3797,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="14.55" spans="2:6">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="21" t="s">
         <v>184</v>
       </c>
@@ -3814,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="14.55" spans="2:6">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="21" t="s">
         <v>186</v>
       </c>
@@ -3831,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="14.55" spans="2:6">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="21" t="s">
         <v>188</v>
       </c>
@@ -3848,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="14.55" spans="2:6">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="21" t="s">
         <v>190</v>
       </c>
@@ -3865,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="14.55" spans="2:6">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="21" t="s">
         <v>192</v>
       </c>
@@ -3882,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="14.55" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="21" t="s">
         <v>194</v>
       </c>
@@ -3899,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="14.55" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="21" t="s">
         <v>196</v>
       </c>
@@ -3916,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="14.55" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="21" t="s">
         <v>198</v>
       </c>
@@ -3933,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="14.55" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="21" t="s">
         <v>200</v>
       </c>
@@ -3950,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="14.55" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="21" t="s">
         <v>202</v>
       </c>
@@ -3967,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="14.55" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="21" t="s">
         <v>204</v>
       </c>
@@ -3984,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="14.55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="21" t="s">
         <v>206</v>
       </c>
@@ -4001,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="14.55" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="21" t="s">
         <v>208</v>
       </c>
@@ -4018,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="14.55" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="21" t="s">
         <v>210</v>
       </c>
@@ -4035,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="14.55" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="21" t="s">
         <v>212</v>
       </c>
@@ -4052,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="14.55" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="21" t="s">
         <v>214</v>
       </c>
@@ -4069,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="14.55" spans="2:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="21" t="s">
         <v>216</v>
       </c>
@@ -4086,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="14.55" spans="2:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" s="21" t="s">
         <v>218</v>
       </c>
@@ -4103,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="14.55" spans="2:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="21" t="s">
         <v>220</v>
       </c>
@@ -4120,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="14.55" spans="2:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="21" t="s">
         <v>222</v>
       </c>
@@ -4137,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="14.55" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="21" t="s">
         <v>224</v>
       </c>
@@ -4154,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" ht="14.55" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="21" t="s">
         <v>226</v>
       </c>
@@ -4171,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="14.55" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="21" t="s">
         <v>228</v>
       </c>
@@ -4188,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="14.55" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="21" t="s">
         <v>230</v>
       </c>
@@ -4205,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="14.55" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="21" t="s">
         <v>232</v>
       </c>
@@ -4222,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" ht="14.55" spans="2:6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="21" t="s">
         <v>234</v>
       </c>
@@ -4239,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="14.55" spans="2:5">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" s="23" t="s">
         <v>236</v>
       </c>
@@ -4254,26 +3671,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4287,14 +3703,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4308,14 +3724,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" ht="14.55" spans="1:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -4323,61 +3739,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="14.55" spans="2:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>240</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>242</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4388,14 +3803,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4406,123 +3821,123 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="14.55" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" ht="14.55" spans="2:4">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="41" t="s">
         <v>245</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" ht="14.55" spans="2:4">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="41" t="s">
         <v>246</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" ht="14.55" spans="2:4">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="41" t="s">
         <v>247</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" ht="14.55" spans="2:4">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="41" t="s">
         <v>248</v>
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" ht="14.55" spans="2:4">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="41" t="s">
         <v>249</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" ht="14.55" spans="2:4">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="41" t="s">
         <v>250</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" ht="14.55" spans="2:4">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="41" t="s">
         <v>251</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" ht="14.55" spans="2:4">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="41" t="s">
         <v>252</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" ht="14.55" spans="2:4">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="41" t="s">
         <v>253</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" ht="14.55" spans="2:4">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="41" t="s">
         <v>254</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" ht="14.55" spans="2:4">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="41" t="s">
         <v>255</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" ht="14.55" spans="2:4">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="41" t="s">
         <v>256</v>
       </c>
       <c r="D16" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD92C5-9F20-441D-9EE2-8A6253BC99BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBD9FD9-4CDA-4CDA-826A-A64CCFC755E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="2205" windowWidth="15540" windowHeight="12930" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -2373,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2986,25 +2986,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F31" s="19">
-        <v>0</v>
-      </c>
-      <c r="G31" s="11">
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
         <v>5</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3782,7 +3782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBD9FD9-4CDA-4CDA-826A-A64CCFC755E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B128FC-1932-463B-A0D5-57940CE57094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2373,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2540,19 +2540,19 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="6">
         <v>40</v>
       </c>
       <c r="H9">
@@ -2580,19 +2580,19 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="6">
         <v>60</v>
       </c>
       <c r="H11">

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B128FC-1932-463B-A0D5-57940CE57094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -805,7 +799,7 @@
     <t>噼啪小将使用电属性技能时，攻击力会增加10点，最多可以叠加到30点，并且不计入噼啪小将的最大攻击力。</t>
   </si>
   <si>
-    <t>疾风之翼使用风属性技能时，必定优先行动。</t>
+    <t>疾风之翼使用风属性技能时，技能优先度+1。</t>
   </si>
   <si>
     <t>毒宝宝使用毒属性技能后，会恢复此次造成伤害的30%的生命值。</t>
@@ -832,17 +826,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -877,13 +870,137 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,25 +1009,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,19 +1045,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,7 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39994506668294322"/>
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,12 +1117,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1078,38 +1363,276 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1118,6 +1641,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
@@ -1128,17 +1654,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1146,10 +1669,10 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1164,13 +1687,13 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,29 +1705,68 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFF43308"/>
-      <color rgb="FFFF8680"/>
+      <color rgb="00F43308"/>
+      <color rgb="00FF8680"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1462,30 +2024,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="4" width="21.625" customWidth="1"/>
+    <col min="3" max="4" width="21.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="9.625" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="11.8796296296296" customWidth="1"/>
+    <col min="13" max="13" width="9.62962962962963" customWidth="1"/>
+    <col min="15" max="15" width="11.6296296296296" customWidth="1"/>
     <col min="16" max="16" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +2097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +2117,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1605,7 +2167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1625,7 +2187,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" ht="14.55" spans="1:16">
       <c r="A5" s="26" t="s">
         <v>24</v>
       </c>
@@ -1675,14 +2237,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" ht="14.55" spans="2:16">
       <c r="B6" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="16" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="32" t="s">
@@ -1718,21 +2280,21 @@
       <c r="O6" s="40">
         <v>30</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+    <row r="7" ht="14.55" spans="2:16">
+      <c r="B7" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F7" s="33">
@@ -1765,21 +2327,21 @@
       <c r="O7" s="40">
         <v>10</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+    <row r="8" ht="14.55" spans="2:16">
+      <c r="B8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="33">
@@ -1812,21 +2374,21 @@
       <c r="O8" s="40">
         <v>40</v>
       </c>
-      <c r="P8" s="21" t="s">
+      <c r="P8" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+    <row r="9" ht="14.55" spans="2:16">
+      <c r="B9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="33">
@@ -1859,21 +2421,21 @@
       <c r="O9" s="40">
         <v>10</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+    <row r="10" ht="14.55" spans="2:16">
+      <c r="B10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="33">
@@ -1906,21 +2468,21 @@
       <c r="O10" s="40">
         <v>30</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="P10" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+    <row r="11" ht="14.55" spans="2:16">
+      <c r="B11" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>62</v>
       </c>
       <c r="F11" s="33">
@@ -1953,21 +2515,21 @@
       <c r="O11" s="40">
         <v>50</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="P11" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+    <row r="12" ht="14.55" spans="2:16">
+      <c r="B12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="33">
@@ -2000,21 +2562,21 @@
       <c r="O12" s="40">
         <v>50</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+    <row r="13" ht="14.55" spans="2:16">
+      <c r="B13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="33">
@@ -2047,21 +2609,21 @@
       <c r="O13" s="40">
         <v>25</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="P13" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+    <row r="14" ht="14.55" spans="2:16">
+      <c r="B14" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="33">
@@ -2094,21 +2656,21 @@
       <c r="O14" s="40">
         <v>20</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+    <row r="15" ht="14.55" spans="2:16">
+      <c r="B15" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="33">
@@ -2141,21 +2703,21 @@
       <c r="O15" s="40">
         <v>20</v>
       </c>
-      <c r="P15" s="21" t="s">
+      <c r="P15" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+    <row r="16" ht="14.55" spans="2:16">
+      <c r="B16" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="33">
@@ -2188,21 +2750,21 @@
       <c r="O16" s="40">
         <v>50</v>
       </c>
-      <c r="P16" s="21" t="s">
+      <c r="P16" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+    <row r="17" ht="14.55" spans="2:16">
+      <c r="B17" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="17" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="33">
@@ -2235,40 +2797,41 @@
       <c r="O17" s="40">
         <v>35</v>
       </c>
-      <c r="P17" s="21" t="s">
+      <c r="P17" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="16"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="16"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="16"/>
+    <row r="18" ht="14.55" spans="2:2">
+      <c r="B18" s="17"/>
+    </row>
+    <row r="19" ht="14.55" spans="2:2">
+      <c r="B19" s="17"/>
+    </row>
+    <row r="20" ht="14.55" spans="2:2">
+      <c r="B20" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -2279,14 +2842,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="25" t="s">
         <v>16</v>
       </c>
@@ -2297,14 +2860,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" ht="14.55" spans="1:3">
       <c r="A5" s="24" t="s">
         <v>24</v>
       </c>
@@ -2315,48 +2878,48 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="16" t="s">
+    <row r="6" ht="14.55" spans="2:3">
+      <c r="B6" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="16" t="s">
+    <row r="7" ht="14.55" spans="2:3">
+      <c r="B7" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
+    <row r="8" ht="14.55" spans="2:3">
+      <c r="B8" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
+    <row r="9" ht="14.55" spans="2:3">
+      <c r="B9" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="s">
+    <row r="10" ht="14.55" spans="2:3">
+      <c r="B10" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="16" t="s">
+    <row r="11" ht="14.55" spans="2:3">
+      <c r="B11" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C11" t="s">
@@ -2364,97 +2927,98 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="20.1296296296296" customWidth="1"/>
     <col min="4" max="4" width="70.25" customWidth="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="23.6296296296296" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="9" style="11"/>
+    <col min="7" max="7" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="14.55" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
@@ -2473,7 +3037,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" ht="14.55" spans="2:8">
       <c r="B6" s="13" t="s">
         <v>105</v>
       </c>
@@ -2493,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" ht="14.55" spans="2:8">
       <c r="B7" s="13" t="s">
         <v>108</v>
       </c>
@@ -2509,14 +3073,14 @@
       <c r="F7" s="14">
         <v>50</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" ht="14.55" spans="2:8">
       <c r="B8" s="13" t="s">
         <v>110</v>
       </c>
@@ -2532,34 +3096,34 @@
       <c r="F8" s="14">
         <v>60</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>2</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
+    <row r="9" ht="14.55" spans="2:8">
+      <c r="B9" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>40</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" ht="14.55" spans="2:8">
       <c r="B10" s="13" t="s">
         <v>114</v>
       </c>
@@ -2579,27 +3143,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
+    <row r="11" ht="14.55" spans="2:8">
+      <c r="B11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
         <v>60</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" ht="14.55" spans="2:8">
       <c r="B12" s="13" t="s">
         <v>118</v>
       </c>
@@ -2619,48 +3183,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+    <row r="13" ht="14.55" spans="2:8">
+      <c r="B13" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="16" t="s">
         <v>121</v>
       </c>
       <c r="E13" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="17">
         <v>80</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18" t="s">
+    <row r="14" ht="14.55" spans="1:8">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="20">
         <v>0</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" ht="14.55" spans="2:8">
       <c r="B15" s="13" t="s">
         <v>125</v>
       </c>
@@ -2680,87 +3244,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+    <row r="16" ht="14.55" spans="2:8">
+      <c r="B16" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="16" t="s">
         <v>128</v>
       </c>
       <c r="E16" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="17">
         <v>100</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+    <row r="17" ht="14.55" spans="2:8">
+      <c r="B17" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="16" t="s">
         <v>130</v>
       </c>
       <c r="E17" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="17">
         <v>90</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+    <row r="18" ht="14.55" spans="2:8">
+      <c r="B18" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="16" t="s">
         <v>132</v>
       </c>
       <c r="E18" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="17">
         <v>110</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+    <row r="19" ht="14.55" spans="2:8">
+      <c r="B19" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E19" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="17">
         <v>60</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" ht="14.55" spans="2:8">
       <c r="B20" s="13" t="s">
         <v>135</v>
       </c>
@@ -2780,7 +3344,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" ht="14.55" spans="2:8">
       <c r="B21" s="13" t="s">
         <v>137</v>
       </c>
@@ -2796,74 +3360,74 @@
       <c r="F21" s="14">
         <v>50</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <v>3</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+    <row r="22" ht="14.55" spans="2:8">
+      <c r="B22" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="16" t="s">
         <v>140</v>
       </c>
       <c r="E22" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="17">
         <v>30</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+    <row r="23" ht="14.55" spans="2:8">
+      <c r="B23" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="16" t="s">
         <v>142</v>
       </c>
       <c r="E23" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="17">
         <v>80</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+    <row r="24" ht="14.55" spans="2:8">
+      <c r="B24" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="16" t="s">
         <v>144</v>
       </c>
       <c r="E24" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="17">
         <v>60</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" ht="14.55" spans="2:8">
       <c r="B25" s="13" t="s">
         <v>145</v>
       </c>
@@ -2883,48 +3447,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18" t="s">
+    <row r="26" ht="14.55" spans="1:8">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="20">
         <v>0</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+    <row r="27" ht="14.55" spans="2:8">
+      <c r="B27" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="16" t="s">
         <v>150</v>
       </c>
       <c r="E27" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="17">
         <v>110</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" ht="14.55" spans="2:8">
       <c r="B28" s="13" t="s">
         <v>151</v>
       </c>
@@ -2944,27 +3508,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
+    <row r="29" ht="14.55" spans="2:8">
+      <c r="B29" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="16" t="s">
         <v>154</v>
       </c>
       <c r="E29" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="17">
         <v>60</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" ht="14.55" spans="2:8">
       <c r="B30" s="13" t="s">
         <v>155</v>
       </c>
@@ -2984,31 +3548,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="5" t="s">
+    <row r="31" ht="14.55" spans="1:8">
+      <c r="A31" s="18"/>
+      <c r="B31" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="7">
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
         <v>5</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" ht="14.55" spans="2:8">
       <c r="B32" s="13" t="s">
         <v>160</v>
       </c>
@@ -3024,51 +3588,51 @@
       <c r="F32" s="14">
         <v>50</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <v>1</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+    <row r="33" ht="14.55" spans="2:8">
+      <c r="B33" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="16" t="s">
         <v>163</v>
       </c>
       <c r="E33" t="s">
         <v>107</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="17">
         <v>20</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="21" t="s">
+    <row r="34" ht="14.55" spans="1:8">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" ht="14.55" spans="2:6">
+      <c r="B35" s="16" t="s">
         <v>164</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="16" t="s">
         <v>166</v>
       </c>
       <c r="E35" t="s">
@@ -3078,14 +3642,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="21" t="s">
+    <row r="36" ht="14.55" spans="2:6">
+      <c r="B36" s="16" t="s">
         <v>168</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="16" t="s">
         <v>169</v>
       </c>
       <c r="E36" t="s">
@@ -3095,14 +3659,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="21" t="s">
+    <row r="37" ht="14.55" spans="2:6">
+      <c r="B37" s="16" t="s">
         <v>170</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="16" t="s">
         <v>171</v>
       </c>
       <c r="E37" t="s">
@@ -3112,14 +3676,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="21" t="s">
+    <row r="38" ht="14.55" spans="2:6">
+      <c r="B38" s="16" t="s">
         <v>172</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="16" t="s">
         <v>173</v>
       </c>
       <c r="E38" t="s">
@@ -3129,14 +3693,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="21" t="s">
+    <row r="39" ht="14.55" spans="2:6">
+      <c r="B39" s="16" t="s">
         <v>174</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="16" t="s">
         <v>175</v>
       </c>
       <c r="E39" t="s">
@@ -3146,14 +3710,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="21" t="s">
+    <row r="40" ht="14.55" spans="2:6">
+      <c r="B40" s="16" t="s">
         <v>176</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="16" t="s">
         <v>177</v>
       </c>
       <c r="E40" t="s">
@@ -3163,14 +3727,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="21" t="s">
+    <row r="41" ht="14.55" spans="2:6">
+      <c r="B41" s="16" t="s">
         <v>178</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="16" t="s">
         <v>179</v>
       </c>
       <c r="E41" t="s">
@@ -3180,14 +3744,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="21" t="s">
+    <row r="42" ht="14.55" spans="2:6">
+      <c r="B42" s="16" t="s">
         <v>180</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="16" t="s">
         <v>181</v>
       </c>
       <c r="E42" t="s">
@@ -3197,14 +3761,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="21" t="s">
+    <row r="43" ht="14.55" spans="2:6">
+      <c r="B43" s="16" t="s">
         <v>182</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="16" t="s">
         <v>183</v>
       </c>
       <c r="E43" t="s">
@@ -3214,14 +3778,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="21" t="s">
+    <row r="44" ht="14.55" spans="2:6">
+      <c r="B44" s="16" t="s">
         <v>184</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="16" t="s">
         <v>185</v>
       </c>
       <c r="E44" t="s">
@@ -3231,14 +3795,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="21" t="s">
+    <row r="45" ht="14.55" spans="2:6">
+      <c r="B45" s="16" t="s">
         <v>186</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="16" t="s">
         <v>187</v>
       </c>
       <c r="E45" t="s">
@@ -3248,14 +3812,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="21" t="s">
+    <row r="46" ht="14.55" spans="2:6">
+      <c r="B46" s="16" t="s">
         <v>188</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="16" t="s">
         <v>189</v>
       </c>
       <c r="E46" t="s">
@@ -3265,14 +3829,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="21" t="s">
+    <row r="47" ht="14.55" spans="2:6">
+      <c r="B47" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="16" t="s">
         <v>191</v>
       </c>
       <c r="E47" t="s">
@@ -3282,14 +3846,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="21" t="s">
+    <row r="48" ht="14.55" spans="2:6">
+      <c r="B48" s="16" t="s">
         <v>192</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="16" t="s">
         <v>193</v>
       </c>
       <c r="E48" t="s">
@@ -3299,14 +3863,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="21" t="s">
+    <row r="49" ht="14.55" spans="2:6">
+      <c r="B49" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="16" t="s">
         <v>195</v>
       </c>
       <c r="E49" t="s">
@@ -3316,14 +3880,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="21" t="s">
+    <row r="50" ht="14.55" spans="2:6">
+      <c r="B50" s="16" t="s">
         <v>196</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="16" t="s">
         <v>197</v>
       </c>
       <c r="E50" t="s">
@@ -3333,14 +3897,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="21" t="s">
+    <row r="51" ht="14.55" spans="2:6">
+      <c r="B51" s="16" t="s">
         <v>198</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="16" t="s">
         <v>199</v>
       </c>
       <c r="E51" t="s">
@@ -3350,14 +3914,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="21" t="s">
+    <row r="52" ht="14.55" spans="2:6">
+      <c r="B52" s="16" t="s">
         <v>200</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="16" t="s">
         <v>201</v>
       </c>
       <c r="E52" t="s">
@@ -3367,14 +3931,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="21" t="s">
+    <row r="53" ht="14.55" spans="2:6">
+      <c r="B53" s="16" t="s">
         <v>202</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="16" t="s">
         <v>203</v>
       </c>
       <c r="E53" t="s">
@@ -3384,14 +3948,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="21" t="s">
+    <row r="54" ht="14.55" spans="2:6">
+      <c r="B54" s="16" t="s">
         <v>204</v>
       </c>
       <c r="C54" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="16" t="s">
         <v>205</v>
       </c>
       <c r="E54" t="s">
@@ -3401,14 +3965,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="21" t="s">
+    <row r="55" ht="14.55" spans="2:6">
+      <c r="B55" s="16" t="s">
         <v>206</v>
       </c>
       <c r="C55" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="16" t="s">
         <v>207</v>
       </c>
       <c r="E55" t="s">
@@ -3418,14 +3982,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B56" s="21" t="s">
+    <row r="56" ht="14.55" spans="2:6">
+      <c r="B56" s="16" t="s">
         <v>208</v>
       </c>
       <c r="C56" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="16" t="s">
         <v>209</v>
       </c>
       <c r="E56" t="s">
@@ -3435,14 +3999,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="21" t="s">
+    <row r="57" ht="14.55" spans="2:6">
+      <c r="B57" s="16" t="s">
         <v>210</v>
       </c>
       <c r="C57" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="16" t="s">
         <v>211</v>
       </c>
       <c r="E57" t="s">
@@ -3452,14 +4016,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B58" s="21" t="s">
+    <row r="58" ht="14.55" spans="2:6">
+      <c r="B58" s="16" t="s">
         <v>212</v>
       </c>
       <c r="C58" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="16" t="s">
         <v>213</v>
       </c>
       <c r="E58" t="s">
@@ -3469,14 +4033,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="21" t="s">
+    <row r="59" ht="14.55" spans="2:6">
+      <c r="B59" s="16" t="s">
         <v>214</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="16" t="s">
         <v>215</v>
       </c>
       <c r="E59" t="s">
@@ -3486,14 +4050,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60" s="21" t="s">
+    <row r="60" ht="14.55" spans="2:6">
+      <c r="B60" s="16" t="s">
         <v>216</v>
       </c>
       <c r="C60" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="16" t="s">
         <v>217</v>
       </c>
       <c r="E60" t="s">
@@ -3503,14 +4067,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B61" s="21" t="s">
+    <row r="61" ht="14.55" spans="2:6">
+      <c r="B61" s="16" t="s">
         <v>218</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="16" t="s">
         <v>219</v>
       </c>
       <c r="E61" t="s">
@@ -3520,14 +4084,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="21" t="s">
+    <row r="62" ht="14.55" spans="2:6">
+      <c r="B62" s="16" t="s">
         <v>220</v>
       </c>
       <c r="C62" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="16" t="s">
         <v>221</v>
       </c>
       <c r="E62" t="s">
@@ -3537,14 +4101,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B63" s="21" t="s">
+    <row r="63" ht="14.55" spans="2:6">
+      <c r="B63" s="16" t="s">
         <v>222</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="16" t="s">
         <v>223</v>
       </c>
       <c r="E63" t="s">
@@ -3554,14 +4118,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B64" s="21" t="s">
+    <row r="64" ht="14.55" spans="2:6">
+      <c r="B64" s="16" t="s">
         <v>224</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="16" t="s">
         <v>225</v>
       </c>
       <c r="E64" t="s">
@@ -3571,14 +4135,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="21" t="s">
+    <row r="65" ht="14.55" spans="2:6">
+      <c r="B65" s="16" t="s">
         <v>226</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="D65" s="16" t="s">
         <v>227</v>
       </c>
       <c r="E65" t="s">
@@ -3588,14 +4152,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="21" t="s">
+    <row r="66" ht="14.55" spans="2:6">
+      <c r="B66" s="16" t="s">
         <v>228</v>
       </c>
       <c r="C66" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="16" t="s">
         <v>229</v>
       </c>
       <c r="E66" t="s">
@@ -3605,14 +4169,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="21" t="s">
+    <row r="67" ht="14.55" spans="2:6">
+      <c r="B67" s="16" t="s">
         <v>230</v>
       </c>
       <c r="C67" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D67" s="16" t="s">
         <v>231</v>
       </c>
       <c r="E67" t="s">
@@ -3622,14 +4186,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="21" t="s">
+    <row r="68" ht="14.55" spans="2:6">
+      <c r="B68" s="16" t="s">
         <v>232</v>
       </c>
       <c r="C68" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="16" t="s">
         <v>233</v>
       </c>
       <c r="E68" t="s">
@@ -3639,14 +4203,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="21" t="s">
+    <row r="69" ht="14.55" spans="2:6">
+      <c r="B69" s="16" t="s">
         <v>234</v>
       </c>
       <c r="C69" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="16" t="s">
         <v>235</v>
       </c>
       <c r="E69" t="s">
@@ -3656,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" ht="14.55" spans="2:5">
       <c r="B70" s="23" t="s">
         <v>236</v>
       </c>
@@ -3671,128 +4235,130 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="31.375" customWidth="1"/>
+    <col min="2" max="2" width="31.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="14.55" spans="1:2">
+      <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+    <row r="6" ht="14.55" spans="2:4">
+      <c r="B6" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3803,14 +4369,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -3821,123 +4387,123 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" ht="14.55" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="41" t="s">
+    <row r="5" ht="14.55" spans="2:4">
+      <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="2" t="s">
         <v>245</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="41" t="s">
+    <row r="6" ht="14.55" spans="2:4">
+      <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="2" t="s">
         <v>246</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="41" t="s">
+    <row r="7" ht="14.55" spans="2:4">
+      <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="2" t="s">
         <v>247</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="41" t="s">
+    <row r="8" ht="14.55" spans="2:4">
+      <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="2" t="s">
         <v>248</v>
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="41" t="s">
+    <row r="9" ht="14.55" spans="2:4">
+      <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="4" t="s">
         <v>249</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="41" t="s">
+    <row r="10" ht="14.55" spans="2:4">
+      <c r="B10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="41" t="s">
+    <row r="11" ht="14.55" spans="2:4">
+      <c r="B11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="41" t="s">
+    <row r="12" ht="14.55" spans="2:4">
+      <c r="B12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="2" t="s">
         <v>252</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="41" t="s">
+    <row r="13" ht="14.55" spans="2:4">
+      <c r="B13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="2" t="s">
         <v>253</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="41" t="s">
+    <row r="14" ht="14.55" spans="2:4">
+      <c r="B14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="2" t="s">
         <v>254</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="41" t="s">
+    <row r="15" ht="14.55" spans="2:4">
+      <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="41" t="s">
+    <row r="16" ht="14.55" spans="2:4">
+      <c r="B16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="2" t="s">
         <v>256</v>
       </c>
       <c r="D16" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="4"/>
+    <workbookView windowWidth="30240" windowHeight="12980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="261">
   <si>
     <t>##var</t>
   </si>
@@ -349,6 +349,9 @@
     <t>hit_rate</t>
   </si>
   <si>
+    <t>mul_attack_times</t>
+  </si>
+  <si>
     <t>ActiveSkillEnum</t>
   </si>
   <si>
@@ -358,6 +361,9 @@
     <t>float</t>
   </si>
   <si>
+    <t>(array#sep=,),int</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
@@ -475,6 +481,9 @@
     <t>将电流像音乐一样有节奏地发射出来。可能会造成1~3次伤害。</t>
   </si>
   <si>
+    <t>1,3</t>
+  </si>
+  <si>
     <t>闪电飞盘</t>
   </si>
   <si>
@@ -542,6 +551,9 @@
   </si>
   <si>
     <t>挥舞爪子快速进攻。可能会造成0~5次伤害。</t>
+  </si>
+  <si>
+    <t>0,5</t>
   </si>
   <si>
     <t>寻找弱点</t>
@@ -1000,7 +1012,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1159,12 +1171,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1178,12 +1184,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,12 +1231,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1274,12 +1268,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,7 +1328,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
       <right style="medium">
         <color rgb="FFDEE0E3"/>
       </right>
@@ -1351,9 +1341,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFDEE0E3"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FFDEE0E3"/>
       </right>
@@ -1542,83 +1530,80 @@
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1632,14 +1617,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1657,28 +1640,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1687,19 +1672,19 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2033,17 +2018,17 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C17"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="4" width="21.6296296296296" customWidth="1"/>
+    <col min="3" max="4" width="21.6339285714286" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="11.8796296296296" customWidth="1"/>
-    <col min="13" max="13" width="9.62962962962963" customWidth="1"/>
-    <col min="15" max="15" width="11.6296296296296" customWidth="1"/>
+    <col min="12" max="12" width="11.8839285714286" customWidth="1"/>
+    <col min="13" max="13" width="9.63392857142857" customWidth="1"/>
+    <col min="15" max="15" width="11.6339285714286" customWidth="1"/>
     <col min="16" max="16" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2187,17 +2172,17 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" ht="14.55" spans="1:16">
-      <c r="A5" s="26" t="s">
+    <row r="5" ht="17.55" spans="1:16">
+      <c r="A5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="27" t="s">
@@ -2215,600 +2200,600 @@
       <c r="I5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="31" t="s">
+      <c r="P5" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" ht="14.55" spans="2:16">
-      <c r="B6" s="31" t="s">
+    <row r="6" ht="17.55" spans="2:16">
+      <c r="B6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="32">
         <v>320</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="32">
         <v>400</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="33">
         <v>65</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="33">
         <v>85</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="36">
         <v>40</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="36">
         <v>80</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="37">
         <v>100</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="37">
         <v>160</v>
       </c>
-      <c r="N6" s="40">
-        <v>0</v>
-      </c>
-      <c r="O6" s="40">
+      <c r="N6" s="39">
+        <v>0</v>
+      </c>
+      <c r="O6" s="39">
         <v>30</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" ht="14.55" spans="2:16">
-      <c r="B7" s="16" t="s">
+    <row r="7" ht="17.55" spans="2:16">
+      <c r="B7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="32">
         <v>220</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="32">
         <v>320</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="33">
         <v>100</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="33">
         <v>150</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="36">
         <v>20</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="36">
         <v>50</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="37">
         <v>120</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="37">
         <v>200</v>
       </c>
-      <c r="N7" s="40">
-        <v>0</v>
-      </c>
-      <c r="O7" s="40">
+      <c r="N7" s="39">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
         <v>10</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" ht="14.55" spans="2:16">
-      <c r="B8" s="16" t="s">
+    <row r="8" ht="17.55" spans="2:16">
+      <c r="B8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <v>350</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="32">
         <v>510</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="33">
         <v>40</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="33">
         <v>80</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="36">
         <v>65</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="36">
         <v>140</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="37">
         <v>20</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="37">
         <v>45</v>
       </c>
-      <c r="N8" s="40">
-        <v>0</v>
-      </c>
-      <c r="O8" s="40">
+      <c r="N8" s="39">
+        <v>0</v>
+      </c>
+      <c r="O8" s="39">
         <v>40</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" ht="14.55" spans="2:16">
-      <c r="B9" s="16" t="s">
+    <row r="9" ht="17.55" spans="2:16">
+      <c r="B9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="32">
         <v>220</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="32">
         <v>340</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="33">
         <v>90</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="33">
         <v>150</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="36">
         <v>10</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="36">
         <v>30</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="37">
         <v>121</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="37">
         <v>200</v>
       </c>
-      <c r="N9" s="40">
-        <v>0</v>
-      </c>
-      <c r="O9" s="40">
+      <c r="N9" s="39">
+        <v>0</v>
+      </c>
+      <c r="O9" s="39">
         <v>10</v>
       </c>
-      <c r="P9" s="16" t="s">
+      <c r="P9" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" ht="14.55" spans="2:16">
-      <c r="B10" s="16" t="s">
+    <row r="10" ht="17.55" spans="2:16">
+      <c r="B10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="32">
         <v>260</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="32">
         <v>480</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="33">
         <v>50</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="33">
         <v>90</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="36">
         <v>30</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="36">
         <v>90</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="37">
         <v>90</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="37">
         <v>180</v>
       </c>
-      <c r="N10" s="40">
-        <v>0</v>
-      </c>
-      <c r="O10" s="40">
+      <c r="N10" s="39">
+        <v>0</v>
+      </c>
+      <c r="O10" s="39">
         <v>30</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="P10" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" ht="14.55" spans="2:16">
-      <c r="B11" s="16" t="s">
+    <row r="11" ht="17.55" spans="2:16">
+      <c r="B11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="32">
         <v>490</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="32">
         <v>540</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="33">
         <v>25</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="33">
         <v>60</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="36">
         <v>90</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="36">
         <v>150</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="37">
         <v>5</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="37">
         <v>25</v>
       </c>
-      <c r="N11" s="40">
-        <v>0</v>
-      </c>
-      <c r="O11" s="40">
+      <c r="N11" s="39">
+        <v>0</v>
+      </c>
+      <c r="O11" s="39">
         <v>50</v>
       </c>
-      <c r="P11" s="16" t="s">
+      <c r="P11" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" ht="14.55" spans="2:16">
-      <c r="B12" s="16" t="s">
+    <row r="12" ht="17.55" spans="2:16">
+      <c r="B12" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="32">
         <v>550</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="32">
         <v>600</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="33">
         <v>10</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="33">
         <v>30</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="36">
         <v>120</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="36">
         <v>150</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="37">
         <v>5</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="37">
         <v>20</v>
       </c>
-      <c r="N12" s="40">
+      <c r="N12" s="39">
         <v>10</v>
       </c>
-      <c r="O12" s="40">
+      <c r="O12" s="39">
         <v>50</v>
       </c>
-      <c r="P12" s="16" t="s">
+      <c r="P12" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" ht="14.55" spans="2:16">
-      <c r="B13" s="16" t="s">
+    <row r="13" ht="17.55" spans="2:16">
+      <c r="B13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="32">
         <v>310</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="32">
         <v>400</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="33">
         <v>80</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="33">
         <v>110</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="36">
         <v>30</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="36">
         <v>80</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="37">
         <v>60</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="37">
         <v>90</v>
       </c>
-      <c r="N13" s="40">
-        <v>0</v>
-      </c>
-      <c r="O13" s="40">
+      <c r="N13" s="39">
+        <v>0</v>
+      </c>
+      <c r="O13" s="39">
         <v>25</v>
       </c>
-      <c r="P13" s="16" t="s">
+      <c r="P13" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" ht="14.55" spans="2:16">
-      <c r="B14" s="16" t="s">
+    <row r="14" ht="17.55" spans="2:16">
+      <c r="B14" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="32">
         <v>400</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="32">
         <v>460</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="33">
         <v>60</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="33">
         <v>95</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="36">
         <v>30</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="36">
         <v>90</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="37">
         <v>45</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="37">
         <v>90</v>
       </c>
-      <c r="N14" s="40">
-        <v>0</v>
-      </c>
-      <c r="O14" s="40">
+      <c r="N14" s="39">
+        <v>0</v>
+      </c>
+      <c r="O14" s="39">
         <v>20</v>
       </c>
-      <c r="P14" s="16" t="s">
+      <c r="P14" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" ht="14.55" spans="2:16">
-      <c r="B15" s="16" t="s">
+    <row r="15" ht="17.55" spans="2:16">
+      <c r="B15" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <v>140</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="32">
         <v>280</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="33">
         <v>55</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="33">
         <v>110</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="36">
         <v>20</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="36">
         <v>40</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="37">
         <v>100</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="37">
         <v>200</v>
       </c>
-      <c r="N15" s="40">
+      <c r="N15" s="39">
         <v>10</v>
       </c>
-      <c r="O15" s="40">
+      <c r="O15" s="39">
         <v>20</v>
       </c>
-      <c r="P15" s="16" t="s">
+      <c r="P15" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" ht="14.55" spans="2:16">
-      <c r="B16" s="16" t="s">
+    <row r="16" ht="17.55" spans="2:16">
+      <c r="B16" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="32">
         <v>150</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="32">
         <v>220</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="33">
         <v>100</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="33">
         <v>120</v>
       </c>
-      <c r="J16" s="38">
-        <v>0</v>
-      </c>
-      <c r="K16" s="38">
+      <c r="J16" s="36">
+        <v>0</v>
+      </c>
+      <c r="K16" s="36">
         <v>40</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="37">
         <v>200</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="37">
         <v>200</v>
       </c>
-      <c r="N16" s="40">
-        <v>0</v>
-      </c>
-      <c r="O16" s="40">
+      <c r="N16" s="39">
+        <v>0</v>
+      </c>
+      <c r="O16" s="39">
         <v>50</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="P16" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" ht="14.55" spans="2:16">
-      <c r="B17" s="16" t="s">
+    <row r="17" ht="17.55" spans="2:16">
+      <c r="B17" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="32">
         <v>200</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="32">
         <v>270</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="33">
         <v>70</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="33">
         <v>90</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="36">
         <v>10</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="36">
         <v>50</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="37">
         <v>110</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="37">
         <v>120</v>
       </c>
-      <c r="N17" s="40">
-        <v>0</v>
-      </c>
-      <c r="O17" s="40">
+      <c r="N17" s="39">
+        <v>0</v>
+      </c>
+      <c r="O17" s="39">
         <v>35</v>
       </c>
-      <c r="P17" s="16" t="s">
+      <c r="P17" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" ht="14.55" spans="2:2">
-      <c r="B18" s="17"/>
-    </row>
-    <row r="19" ht="14.55" spans="2:2">
-      <c r="B19" s="17"/>
-    </row>
-    <row r="20" ht="14.55" spans="2:2">
-      <c r="B20" s="17"/>
+    <row r="18" ht="17.55" spans="2:2">
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" ht="17.55" spans="2:2">
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" ht="17.55" spans="2:2">
+      <c r="B20" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2822,104 +2807,104 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+    <row r="1" ht="17" spans="1:3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-    </row>
-    <row r="5" ht="14.55" spans="1:3">
-      <c r="A5" s="24" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" ht="17.55" spans="1:3">
+      <c r="A5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" ht="14.55" spans="2:3">
-      <c r="B6" s="17" t="s">
+    <row r="6" ht="17.55" spans="2:3">
+      <c r="B6" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" ht="14.55" spans="2:3">
-      <c r="B7" s="17" t="s">
+    <row r="7" ht="17.55" spans="2:3">
+      <c r="B7" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" ht="14.55" spans="2:3">
-      <c r="B8" s="17" t="s">
+    <row r="8" ht="17.55" spans="2:3">
+      <c r="B8" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" ht="14.55" spans="2:3">
-      <c r="B9" s="17" t="s">
+    <row r="9" ht="17.55" spans="2:3">
+      <c r="B9" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" ht="14.55" spans="2:3">
-      <c r="B10" s="17" t="s">
+    <row r="10" ht="17.55" spans="2:3">
+      <c r="B10" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" ht="14.55" spans="2:3">
-      <c r="B11" s="17" t="s">
+    <row r="11" ht="17.55" spans="2:3">
+      <c r="B11" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C11" t="s">
@@ -2935,46 +2920,50 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="20.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="20.1339285714286" customWidth="1"/>
     <col min="4" max="4" width="70.25" customWidth="1"/>
-    <col min="5" max="5" width="23.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="23.6339285714286" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="9" style="10"/>
+    <col min="7" max="7" width="9" style="9"/>
+    <col min="9" max="9" width="29.4642857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>98</v>
+      </c>
+      <c r="I1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2984,30 +2973,33 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>101</v>
+      <c r="H3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3017,8 +3009,8 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" ht="14.55" spans="1:6">
-      <c r="A5" s="5" t="s">
+    <row r="5" ht="17.55" spans="1:6">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
@@ -3028,1210 +3020,1216 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" ht="14.55" spans="2:8">
-      <c r="B6" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" ht="17.55" spans="2:8">
+      <c r="B6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="D6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="12">
         <v>90</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="14.55" spans="2:8">
-      <c r="B7" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="14" t="s">
+    <row r="7" ht="17.55" spans="2:8">
+      <c r="B7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>50</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="14.55" spans="2:8">
-      <c r="B8" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="14" t="s">
+    <row r="8" ht="17.55" spans="2:8">
+      <c r="B8" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="14">
+      <c r="D8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="12">
         <v>60</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>2</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="14.55" spans="2:8">
-      <c r="B9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="7" t="s">
+    <row r="9" ht="17.55" spans="2:8">
+      <c r="B9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="D9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="6">
         <v>40</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="14.55" spans="2:8">
-      <c r="B10" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="14" t="s">
+    <row r="10" ht="17.55" spans="2:8">
+      <c r="B10" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="14">
+      <c r="D10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="12">
         <v>90</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="14.55" spans="2:8">
-      <c r="B11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="7" t="s">
+    <row r="11" ht="17.55" spans="2:8">
+      <c r="B11" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="D11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="6">
         <v>60</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="14.55" spans="2:8">
-      <c r="B12" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="14" t="s">
+    <row r="12" ht="17.55" spans="2:8">
+      <c r="B12" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="14">
+      <c r="D12" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="12">
         <v>110</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="14.55" spans="2:8">
-      <c r="B13" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="17" t="s">
+    <row r="13" ht="17.55" spans="2:8">
+      <c r="B13" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>121</v>
+      <c r="D13" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="17">
+        <v>109</v>
+      </c>
+      <c r="F13" s="14">
         <v>80</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="14.55" spans="1:8">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="20" t="s">
+    <row r="14" ht="17.55" spans="1:8">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="20">
+      <c r="D14" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="17">
         <v>0</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="14.55" spans="2:8">
-      <c r="B15" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="14" t="s">
+    <row r="15" ht="17.55" spans="2:8">
+      <c r="B15" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="14">
+      <c r="D15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="12">
         <v>70</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="14.55" spans="2:8">
-      <c r="B16" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="17" t="s">
+    <row r="16" ht="17.55" spans="2:8">
+      <c r="B16" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>128</v>
+      <c r="D16" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="17">
+        <v>109</v>
+      </c>
+      <c r="F16" s="14">
         <v>100</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="14.55" spans="2:8">
-      <c r="B17" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="17" t="s">
+    <row r="17" ht="17.55" spans="2:8">
+      <c r="B17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>130</v>
+      <c r="D17" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="17">
+        <v>109</v>
+      </c>
+      <c r="F17" s="14">
         <v>90</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="14.55" spans="2:8">
-      <c r="B18" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="17" t="s">
+    <row r="18" ht="17.55" spans="2:8">
+      <c r="B18" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>132</v>
+      <c r="D18" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="17">
+        <v>109</v>
+      </c>
+      <c r="F18" s="14">
         <v>110</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="14.55" spans="2:8">
-      <c r="B19" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="17" t="s">
+    <row r="19" ht="17.55" spans="2:8">
+      <c r="B19" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>134</v>
+      <c r="D19" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="17">
+        <v>109</v>
+      </c>
+      <c r="F19" s="14">
         <v>60</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="14.55" spans="2:8">
-      <c r="B20" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="14" t="s">
+    <row r="20" ht="17.55" spans="2:8">
+      <c r="B20" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="14">
+      <c r="D20" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="12">
         <v>120</v>
       </c>
       <c r="H20">
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" ht="14.55" spans="2:8">
-      <c r="B21" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="14" t="s">
+    <row r="21" ht="17.55" spans="2:8">
+      <c r="B21" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="14">
+      <c r="D21" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="12">
         <v>50</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>3</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="14.55" spans="2:8">
-      <c r="B22" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="17" t="s">
+    <row r="22" ht="17.55" spans="2:9">
+      <c r="B22" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>140</v>
+      <c r="D22" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="17">
+        <v>109</v>
+      </c>
+      <c r="F22" s="14">
         <v>30</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" ht="14.55" spans="2:8">
-      <c r="B23" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="I22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" ht="17.55" spans="2:8">
+      <c r="B23" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>142</v>
+      <c r="D23" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" s="17">
+        <v>109</v>
+      </c>
+      <c r="F23" s="14">
         <v>80</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="14.55" spans="2:8">
-      <c r="B24" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="17" t="s">
+    <row r="24" ht="17.55" spans="2:8">
+      <c r="B24" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>144</v>
+      <c r="D24" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="17">
+        <v>109</v>
+      </c>
+      <c r="F24" s="14">
         <v>60</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="14.55" spans="2:8">
-      <c r="B25" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="14" t="s">
+    <row r="25" ht="17.55" spans="2:8">
+      <c r="B25" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="14">
+      <c r="D25" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="12">
         <v>90</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="14.55" spans="1:8">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C26" s="20" t="s">
+    <row r="26" ht="17.55" spans="1:8">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" s="20">
+      <c r="D26" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="17">
         <v>0</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="14.55" spans="2:8">
-      <c r="B27" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="17" t="s">
+    <row r="27" ht="17.55" spans="2:8">
+      <c r="B27" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>150</v>
+      <c r="D27" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="17">
+        <v>109</v>
+      </c>
+      <c r="F27" s="14">
         <v>110</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="14.55" spans="2:8">
-      <c r="B28" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="14" t="s">
+    <row r="28" ht="17.55" spans="2:8">
+      <c r="B28" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="14">
+      <c r="D28" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="12">
         <v>70</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="14.55" spans="2:8">
-      <c r="B29" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" s="17" t="s">
+    <row r="29" ht="17.55" spans="2:8">
+      <c r="B29" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>154</v>
+      <c r="D29" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="17">
+        <v>109</v>
+      </c>
+      <c r="F29" s="14">
         <v>60</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="14.55" spans="2:8">
-      <c r="B30" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="14">
+    <row r="30" ht="17.55" spans="2:8">
+      <c r="B30" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="12">
         <v>60</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="14.55" spans="1:8">
-      <c r="A31" s="18"/>
-      <c r="B31" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D31" s="6" t="s">
+    <row r="31" ht="17.55" spans="1:8">
+      <c r="A31" s="15"/>
+      <c r="B31" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="D31" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
         <v>5</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="32" ht="14.55" spans="2:8">
-      <c r="B32" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="14">
+    <row r="32" ht="17.55" spans="2:8">
+      <c r="B32" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="12">
         <v>50</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <v>1</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" ht="14.55" spans="2:8">
-      <c r="B33" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>163</v>
+    <row r="33" ht="17.55" spans="2:9">
+      <c r="B33" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="17">
+        <v>109</v>
+      </c>
+      <c r="F33" s="14">
         <v>20</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" ht="14.55" spans="1:8">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-    </row>
-    <row r="35" ht="14.55" spans="2:6">
-      <c r="B35" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>166</v>
+      <c r="I33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" ht="17.55" spans="1:8">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" ht="17.55" spans="2:6">
+      <c r="B35" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="E35" t="s">
-        <v>167</v>
-      </c>
-      <c r="F35" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="14.55" spans="2:6">
-      <c r="B36" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D36" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="17.55" spans="2:6">
+      <c r="B36" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>169</v>
       </c>
+      <c r="D36" s="13" t="s">
+        <v>173</v>
+      </c>
       <c r="E36" t="s">
-        <v>167</v>
-      </c>
-      <c r="F36" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="14.55" spans="2:6">
-      <c r="B37" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D37" s="16" t="s">
         <v>171</v>
       </c>
+      <c r="F36" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="17.55" spans="2:6">
+      <c r="B37" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="E37" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="14.55" spans="2:6">
-      <c r="B38" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="F37" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="17.55" spans="2:6">
+      <c r="B38" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
-      </c>
-      <c r="F38" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="14.55" spans="2:6">
-      <c r="B39" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="F38" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="17.55" spans="2:6">
+      <c r="B39" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
-      </c>
-      <c r="F39" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="14.55" spans="2:6">
-      <c r="B40" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
+      </c>
+      <c r="F39" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="17.55" spans="2:6">
+      <c r="B40" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>181</v>
       </c>
       <c r="E40" t="s">
-        <v>167</v>
-      </c>
-      <c r="F40" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="14.55" spans="2:6">
-      <c r="B41" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>179</v>
+        <v>171</v>
+      </c>
+      <c r="F40" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="17.55" spans="2:6">
+      <c r="B41" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="E41" t="s">
-        <v>167</v>
-      </c>
-      <c r="F41" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="14.55" spans="2:6">
-      <c r="B42" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>181</v>
+        <v>171</v>
+      </c>
+      <c r="F41" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="17.55" spans="2:6">
+      <c r="B42" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E42" t="s">
-        <v>167</v>
-      </c>
-      <c r="F42" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="14.55" spans="2:6">
-      <c r="B43" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>183</v>
+        <v>171</v>
+      </c>
+      <c r="F42" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="17.55" spans="2:6">
+      <c r="B43" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
-      </c>
-      <c r="F43" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.55" spans="2:6">
-      <c r="B44" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>185</v>
+        <v>171</v>
+      </c>
+      <c r="F43" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="17.55" spans="2:6">
+      <c r="B44" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="E44" t="s">
-        <v>167</v>
-      </c>
-      <c r="F44" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="14.55" spans="2:6">
-      <c r="B45" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>187</v>
+        <v>171</v>
+      </c>
+      <c r="F44" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="17.55" spans="2:6">
+      <c r="B45" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="E45" t="s">
-        <v>167</v>
-      </c>
-      <c r="F45" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="14.55" spans="2:6">
-      <c r="B46" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>189</v>
+        <v>171</v>
+      </c>
+      <c r="F45" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="17.55" spans="2:6">
+      <c r="B46" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="E46" t="s">
-        <v>167</v>
-      </c>
-      <c r="F46" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="14.55" spans="2:6">
-      <c r="B47" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>191</v>
+        <v>171</v>
+      </c>
+      <c r="F46" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="17.55" spans="2:6">
+      <c r="B47" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="E47" t="s">
-        <v>167</v>
-      </c>
-      <c r="F47" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" ht="14.55" spans="2:6">
-      <c r="B48" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>193</v>
+        <v>171</v>
+      </c>
+      <c r="F47" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="17.55" spans="2:6">
+      <c r="B48" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="E48" t="s">
-        <v>167</v>
-      </c>
-      <c r="F48" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" ht="14.55" spans="2:6">
-      <c r="B49" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>195</v>
+        <v>171</v>
+      </c>
+      <c r="F48" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="17.55" spans="2:6">
+      <c r="B49" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="E49" t="s">
-        <v>167</v>
-      </c>
-      <c r="F49" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" ht="14.55" spans="2:6">
-      <c r="B50" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>197</v>
+        <v>171</v>
+      </c>
+      <c r="F49" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="17.55" spans="2:6">
+      <c r="B50" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="E50" t="s">
-        <v>167</v>
-      </c>
-      <c r="F50" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" ht="14.55" spans="2:6">
-      <c r="B51" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>199</v>
+        <v>171</v>
+      </c>
+      <c r="F50" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="17.55" spans="2:6">
+      <c r="B51" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="E51" t="s">
-        <v>167</v>
-      </c>
-      <c r="F51" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" ht="14.55" spans="2:6">
-      <c r="B52" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>201</v>
+        <v>171</v>
+      </c>
+      <c r="F51" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="17.55" spans="2:6">
+      <c r="B52" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="E52" t="s">
-        <v>167</v>
-      </c>
-      <c r="F52" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" ht="14.55" spans="2:6">
-      <c r="B53" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>203</v>
+        <v>171</v>
+      </c>
+      <c r="F52" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="17.55" spans="2:6">
+      <c r="B53" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="E53" t="s">
-        <v>167</v>
-      </c>
-      <c r="F53" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" ht="14.55" spans="2:6">
-      <c r="B54" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>205</v>
+        <v>171</v>
+      </c>
+      <c r="F53" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="17.55" spans="2:6">
+      <c r="B54" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="E54" t="s">
-        <v>167</v>
-      </c>
-      <c r="F54" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" ht="14.55" spans="2:6">
-      <c r="B55" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>207</v>
+        <v>171</v>
+      </c>
+      <c r="F54" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="17.55" spans="2:6">
+      <c r="B55" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>211</v>
       </c>
       <c r="E55" t="s">
-        <v>167</v>
-      </c>
-      <c r="F55" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" ht="14.55" spans="2:6">
-      <c r="B56" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>209</v>
+        <v>171</v>
+      </c>
+      <c r="F55" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" ht="17.55" spans="2:6">
+      <c r="B56" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="E56" t="s">
-        <v>167</v>
-      </c>
-      <c r="F56" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" ht="14.55" spans="2:6">
-      <c r="B57" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>211</v>
+        <v>171</v>
+      </c>
+      <c r="F56" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="17.55" spans="2:6">
+      <c r="B57" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="E57" t="s">
-        <v>167</v>
-      </c>
-      <c r="F57" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" ht="14.55" spans="2:6">
-      <c r="B58" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>213</v>
+        <v>171</v>
+      </c>
+      <c r="F57" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" ht="17.55" spans="2:6">
+      <c r="B58" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>167</v>
-      </c>
-      <c r="F58" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" ht="14.55" spans="2:6">
-      <c r="B59" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>215</v>
+        <v>171</v>
+      </c>
+      <c r="F58" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="17.55" spans="2:6">
+      <c r="B59" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="E59" t="s">
-        <v>167</v>
-      </c>
-      <c r="F59" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" ht="14.55" spans="2:6">
-      <c r="B60" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>217</v>
+        <v>171</v>
+      </c>
+      <c r="F59" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" ht="17.55" spans="2:6">
+      <c r="B60" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>221</v>
       </c>
       <c r="E60" t="s">
-        <v>167</v>
-      </c>
-      <c r="F60" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" ht="14.55" spans="2:6">
-      <c r="B61" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>219</v>
+        <v>171</v>
+      </c>
+      <c r="F60" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" ht="17.55" spans="2:6">
+      <c r="B61" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>223</v>
       </c>
       <c r="E61" t="s">
-        <v>167</v>
-      </c>
-      <c r="F61" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" ht="14.55" spans="2:6">
-      <c r="B62" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>221</v>
+        <v>171</v>
+      </c>
+      <c r="F61" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" ht="17.55" spans="2:6">
+      <c r="B62" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>225</v>
       </c>
       <c r="E62" t="s">
-        <v>167</v>
-      </c>
-      <c r="F62" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" ht="14.55" spans="2:6">
-      <c r="B63" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>223</v>
+        <v>171</v>
+      </c>
+      <c r="F62" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" ht="17.55" spans="2:6">
+      <c r="B63" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>227</v>
       </c>
       <c r="E63" t="s">
-        <v>167</v>
-      </c>
-      <c r="F63" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" ht="14.55" spans="2:6">
-      <c r="B64" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>225</v>
+        <v>171</v>
+      </c>
+      <c r="F63" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" ht="17.55" spans="2:6">
+      <c r="B64" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="E64" t="s">
-        <v>167</v>
-      </c>
-      <c r="F64" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" ht="14.55" spans="2:6">
-      <c r="B65" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>227</v>
+        <v>171</v>
+      </c>
+      <c r="F64" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" ht="17.55" spans="2:6">
+      <c r="B65" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="E65" t="s">
-        <v>167</v>
-      </c>
-      <c r="F65" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" ht="14.55" spans="2:6">
-      <c r="B66" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>229</v>
+        <v>171</v>
+      </c>
+      <c r="F65" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" ht="17.55" spans="2:6">
+      <c r="B66" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="E66" t="s">
-        <v>167</v>
-      </c>
-      <c r="F66" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" ht="14.55" spans="2:6">
-      <c r="B67" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>231</v>
+        <v>171</v>
+      </c>
+      <c r="F66" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" ht="17.55" spans="2:6">
+      <c r="B67" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>235</v>
       </c>
       <c r="E67" t="s">
-        <v>167</v>
-      </c>
-      <c r="F67" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" ht="14.55" spans="2:6">
-      <c r="B68" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>233</v>
+        <v>171</v>
+      </c>
+      <c r="F67" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" ht="17.55" spans="2:6">
+      <c r="B68" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="E68" t="s">
-        <v>167</v>
-      </c>
-      <c r="F68" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" ht="14.55" spans="2:6">
-      <c r="B69" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>235</v>
+        <v>171</v>
+      </c>
+      <c r="F68" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" ht="17.55" spans="2:6">
+      <c r="B69" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>239</v>
       </c>
       <c r="E69" t="s">
-        <v>167</v>
-      </c>
-      <c r="F69" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" ht="14.55" spans="2:5">
-      <c r="B70" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>237</v>
+        <v>171</v>
+      </c>
+      <c r="F69" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" ht="17.55" spans="2:5">
+      <c r="B70" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="E70" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4249,9 +4247,9 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="31.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="31.3839285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4261,11 +4259,11 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>238</v>
+      <c r="D1" s="4" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4280,12 +4278,12 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4296,45 +4294,45 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" ht="14.55" spans="1:2">
-      <c r="A5" s="5" t="s">
+    <row r="5" ht="17.55" spans="1:2">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="14.55" spans="2:4">
-      <c r="B6" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+    <row r="6" ht="17.55" spans="2:4">
+      <c r="B6" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4348,11 +4346,11 @@
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="78.5" customWidth="1"/>
@@ -4387,118 +4385,118 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="14.55" spans="1:3">
+    <row r="4" ht="17.55" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" ht="14.55" spans="2:4">
+    <row r="5" ht="17.55" spans="2:4">
       <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" ht="14.55" spans="2:4">
+    <row r="6" ht="17.55" spans="2:4">
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" ht="14.55" spans="2:4">
+    <row r="7" ht="17.55" spans="2:4">
       <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" ht="14.55" spans="2:4">
+    <row r="8" ht="17.55" spans="2:4">
       <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" ht="14.55" spans="2:4">
+    <row r="9" ht="17.55" spans="2:4">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>249</v>
+      <c r="C9" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" ht="14.55" spans="2:4">
+    <row r="10" ht="17.55" spans="2:4">
       <c r="B10" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" ht="14.55" spans="2:4">
+    <row r="11" ht="17.55" spans="2:4">
       <c r="B11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" ht="14.55" spans="2:4">
+    <row r="12" ht="17.55" spans="2:4">
       <c r="B12" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" ht="14.55" spans="2:4">
+    <row r="13" ht="17.55" spans="2:4">
       <c r="B13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" ht="14.55" spans="2:4">
+    <row r="14" ht="17.55" spans="2:4">
       <c r="B14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" ht="14.55" spans="2:4">
+    <row r="15" ht="17.55" spans="2:4">
       <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" ht="14.55" spans="2:4">
+    <row r="16" ht="17.55" spans="2:4">
       <c r="B16" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D16" s="3"/>
     </row>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA7D174-1314-4551-BCB8-BBFD6565E670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12980" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -22,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="265">
   <si>
     <t>##var</t>
   </si>
@@ -834,18 +838,28 @@
   <si>
     <t>小闪电第一次使用技能时，会将自身的属性变化为该技能的属性。</t>
   </si>
+  <si>
+    <t>type2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardTypeEnum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -882,137 +896,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1021,7 +934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,19 +946,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,13 +970,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="6" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,7 +1006,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
+        <fgColor theme="8" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,156 +1042,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1353,251 +1134,44 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1645,8 +1219,8 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1690,68 +1264,48 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00F43308"/>
-      <color rgb="00FF8680"/>
+      <color rgb="FFF43308"/>
+      <color rgb="FFFF8680"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2009,30 +1563,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="4" width="21.6339285714286" customWidth="1"/>
+    <col min="3" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="11.8839285714286" customWidth="1"/>
-    <col min="13" max="13" width="9.63392857142857" customWidth="1"/>
-    <col min="15" max="15" width="11.6339285714286" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="9.625" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
     <col min="16" max="16" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2082,7 +1636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +1656,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2152,7 +1706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -2172,7 +1726,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" ht="17.55" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>24</v>
       </c>
@@ -2222,7 +1776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" ht="17.55" spans="2:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="26" t="s">
         <v>40</v>
       </c>
@@ -2269,7 +1823,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" ht="17.55" spans="2:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>44</v>
       </c>
@@ -2316,7 +1870,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" ht="17.55" spans="2:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>48</v>
       </c>
@@ -2363,7 +1917,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" ht="17.55" spans="2:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>52</v>
       </c>
@@ -2410,7 +1964,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" ht="17.55" spans="2:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>56</v>
       </c>
@@ -2457,7 +2011,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" ht="17.55" spans="2:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>60</v>
       </c>
@@ -2504,7 +2058,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" ht="17.55" spans="2:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>64</v>
       </c>
@@ -2551,7 +2105,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" ht="17.55" spans="2:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>67</v>
       </c>
@@ -2598,7 +2152,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" ht="17.55" spans="2:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
         <v>70</v>
       </c>
@@ -2645,7 +2199,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" ht="17.55" spans="2:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>73</v>
       </c>
@@ -2692,7 +2246,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" ht="17.55" spans="2:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
         <v>76</v>
       </c>
@@ -2739,7 +2293,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" ht="17.55" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
         <v>79</v>
       </c>
@@ -2786,37 +2340,36 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" ht="17.55" spans="2:2">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
     </row>
-    <row r="19" ht="17.55" spans="2:2">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
     </row>
-    <row r="20" ht="17.55" spans="2:2">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -2827,14 +2380,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>16</v>
       </c>
@@ -2845,14 +2398,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
     </row>
-    <row r="5" ht="17.55" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>24</v>
       </c>
@@ -2863,7 +2416,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" ht="17.55" spans="2:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>42</v>
       </c>
@@ -2871,7 +2424,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" ht="17.55" spans="2:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>46</v>
       </c>
@@ -2879,7 +2432,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" ht="17.55" spans="2:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>50</v>
       </c>
@@ -2887,7 +2440,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" ht="17.55" spans="2:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
         <v>54</v>
       </c>
@@ -2895,7 +2448,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" ht="17.55" spans="2:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
         <v>58</v>
       </c>
@@ -2903,7 +2456,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" ht="17.55" spans="2:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
         <v>62</v>
       </c>
@@ -2911,33 +2464,38 @@
         <v>92</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="47" t="s">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J38" sqref="B38:J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="20.1339285714286" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="70.25" customWidth="1"/>
-    <col min="5" max="5" width="23.6339285714286" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="9" style="9"/>
-    <col min="9" max="9" width="29.4642857142857" customWidth="1"/>
+    <col min="9" max="9" width="29.5" style="43" customWidth="1"/>
+    <col min="10" max="10" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2959,21 +2517,24 @@
       <c r="G1" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="43" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="J1" s="45" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2995,21 +2556,24 @@
       <c r="G3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="43" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="J3" s="46" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" ht="17.55" spans="1:6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -3029,7 +2593,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" ht="17.55" spans="2:8">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>107</v>
       </c>
@@ -3049,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="17.55" spans="2:8">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>110</v>
       </c>
@@ -3072,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="17.55" spans="2:8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>112</v>
       </c>
@@ -3095,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="17.55" spans="2:8">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>114</v>
       </c>
@@ -3115,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="17.55" spans="2:8">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>116</v>
       </c>
@@ -3135,7 +2699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="17.55" spans="2:8">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>118</v>
       </c>
@@ -3155,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="17.55" spans="2:8">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>120</v>
       </c>
@@ -3175,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="17.55" spans="2:8">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>122</v>
       </c>
@@ -3195,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="17.55" spans="1:8">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16" t="s">
         <v>124</v>
@@ -3216,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="17.55" spans="2:8">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>127</v>
       </c>
@@ -3236,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="17.55" spans="2:8">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
         <v>129</v>
       </c>
@@ -3256,7 +2820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="17.55" spans="2:8">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
         <v>131</v>
       </c>
@@ -3276,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="17.55" spans="2:8">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="13" t="s">
         <v>133</v>
       </c>
@@ -3296,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="17.55" spans="2:8">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
         <v>135</v>
       </c>
@@ -3316,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="17.55" spans="2:8">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>137</v>
       </c>
@@ -3336,7 +2900,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" ht="17.55" spans="2:8">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
         <v>139</v>
       </c>
@@ -3359,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="17.55" spans="2:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
         <v>141</v>
       </c>
@@ -3378,11 +2942,11 @@
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="43" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" ht="17.55" spans="2:8">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="13" t="s">
         <v>144</v>
       </c>
@@ -3402,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="17.55" spans="2:8">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
         <v>146</v>
       </c>
@@ -3422,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="17.55" spans="2:8">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>148</v>
       </c>
@@ -3442,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="17.55" spans="1:8">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16" t="s">
         <v>150</v>
@@ -3463,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="17.55" spans="2:8">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
         <v>152</v>
       </c>
@@ -3483,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="17.55" spans="2:8">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>154</v>
       </c>
@@ -3503,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="17.55" spans="2:8">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="13" t="s">
         <v>156</v>
       </c>
@@ -3523,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="17.55" spans="2:8">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>158</v>
       </c>
@@ -3543,7 +3107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="17.55" spans="1:8">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="5" t="s">
         <v>161</v>
@@ -3567,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" ht="17.55" spans="2:8">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>163</v>
       </c>
@@ -3590,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" ht="17.55" spans="2:9">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
         <v>165</v>
       </c>
@@ -3609,11 +3173,11 @@
       <c r="H33">
         <v>1</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="43" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="34" ht="17.55" spans="1:8">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -3623,7 +3187,7 @@
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" ht="17.55" spans="2:6">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
         <v>168</v>
       </c>
@@ -3640,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="17.55" spans="2:6">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>172</v>
       </c>
@@ -3657,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="17.55" spans="2:6">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
         <v>174</v>
       </c>
@@ -3674,24 +3238,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="17.55" spans="2:6">
-      <c r="B38" s="13" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="F38" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="17.55" spans="2:6">
+      <c r="F38" s="49">
+        <v>0</v>
+      </c>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="51" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
         <v>178</v>
       </c>
@@ -3708,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="17.55" spans="2:6">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="13" t="s">
         <v>180</v>
       </c>
@@ -3725,14 +3295,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="17.55" spans="2:6">
-      <c r="B41" s="13" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="41" t="s">
         <v>183</v>
       </c>
       <c r="E41" t="s">
@@ -3741,8 +3311,11 @@
       <c r="F41" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" ht="17.55" spans="2:6">
+      <c r="J41" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="13" t="s">
         <v>184</v>
       </c>
@@ -3759,14 +3332,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="17.55" spans="2:6">
-      <c r="B43" s="13" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="41" t="s">
         <v>187</v>
       </c>
       <c r="E43" t="s">
@@ -3775,8 +3348,11 @@
       <c r="F43" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" ht="17.55" spans="2:6">
+      <c r="J43" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" s="13" t="s">
         <v>188</v>
       </c>
@@ -3793,14 +3369,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="17.55" spans="2:6">
-      <c r="B45" s="13" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="41" t="s">
         <v>191</v>
       </c>
       <c r="E45" t="s">
@@ -3809,8 +3385,11 @@
       <c r="F45" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" ht="17.55" spans="2:6">
+      <c r="J45" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
         <v>192</v>
       </c>
@@ -3827,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="17.55" spans="2:6">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" s="13" t="s">
         <v>194</v>
       </c>
@@ -3844,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="17.55" spans="2:6">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" s="13" t="s">
         <v>196</v>
       </c>
@@ -3861,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="17.55" spans="2:6">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="13" t="s">
         <v>198</v>
       </c>
@@ -3878,14 +3457,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="17.55" spans="2:6">
-      <c r="B50" s="13" t="s">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="41" t="s">
         <v>201</v>
       </c>
       <c r="E50" t="s">
@@ -3894,15 +3473,18 @@
       <c r="F50" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" ht="17.55" spans="2:6">
-      <c r="B51" s="13" t="s">
+      <c r="J50" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="41" t="s">
         <v>203</v>
       </c>
       <c r="E51" t="s">
@@ -3911,8 +3493,11 @@
       <c r="F51" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" ht="17.55" spans="2:6">
+      <c r="J51" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="13" t="s">
         <v>204</v>
       </c>
@@ -3929,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="17.55" spans="2:6">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="13" t="s">
         <v>206</v>
       </c>
@@ -3946,14 +3531,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="17.55" spans="2:6">
-      <c r="B54" s="13" t="s">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="41" t="s">
         <v>209</v>
       </c>
       <c r="E54" t="s">
@@ -3962,8 +3547,11 @@
       <c r="F54" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" ht="17.55" spans="2:6">
+      <c r="J54" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="13" t="s">
         <v>210</v>
       </c>
@@ -3980,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="17.55" spans="2:6">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="13" t="s">
         <v>212</v>
       </c>
@@ -3997,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="17.55" spans="2:6">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="13" t="s">
         <v>214</v>
       </c>
@@ -4014,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="17.55" spans="2:6">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="13" t="s">
         <v>216</v>
       </c>
@@ -4031,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="17.55" spans="2:6">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="13" t="s">
         <v>218</v>
       </c>
@@ -4048,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="17.55" spans="2:6">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="13" t="s">
         <v>220</v>
       </c>
@@ -4065,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="17.55" spans="2:6">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="13" t="s">
         <v>222</v>
       </c>
@@ -4082,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="17.55" spans="2:6">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="13" t="s">
         <v>224</v>
       </c>
@@ -4099,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="17.55" spans="2:6">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="13" t="s">
         <v>226</v>
       </c>
@@ -4116,14 +3704,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="17.55" spans="2:6">
-      <c r="B64" s="13" t="s">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="41" t="s">
         <v>229</v>
       </c>
       <c r="E64" t="s">
@@ -4132,15 +3720,18 @@
       <c r="F64" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" ht="17.55" spans="2:6">
-      <c r="B65" s="13" t="s">
+      <c r="J64" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="41" t="s">
         <v>231</v>
       </c>
       <c r="E65" t="s">
@@ -4149,15 +3740,18 @@
       <c r="F65" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" ht="17.55" spans="2:6">
-      <c r="B66" s="13" t="s">
+      <c r="J65" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="41" t="s">
         <v>233</v>
       </c>
       <c r="E66" t="s">
@@ -4166,15 +3760,18 @@
       <c r="F66" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" ht="17.55" spans="2:6">
-      <c r="B67" s="13" t="s">
+      <c r="J66" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B67" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="41" t="s">
         <v>235</v>
       </c>
       <c r="E67" t="s">
@@ -4183,15 +3780,18 @@
       <c r="F67" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" ht="17.55" spans="2:6">
-      <c r="B68" s="13" t="s">
+      <c r="J67" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B68" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="41" t="s">
         <v>237</v>
       </c>
       <c r="E68" t="s">
@@ -4200,15 +3800,18 @@
       <c r="F68" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" ht="17.55" spans="2:6">
-      <c r="B69" s="13" t="s">
+      <c r="J68" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B69" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="41" t="s">
         <v>239</v>
       </c>
       <c r="E69" t="s">
@@ -4217,8 +3820,11 @@
       <c r="F69" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" ht="17.55" spans="2:5">
+      <c r="J69" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70" s="22" t="s">
         <v>240</v>
       </c>
@@ -4233,26 +3839,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.3839285714286" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4266,14 +3871,14 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4287,14 +3892,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" ht="17.55" spans="1:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -4302,61 +3907,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="17.55" spans="2:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>244</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>245</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>246</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>247</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>248</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4367,14 +3971,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4385,14 +3989,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="17.55" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" ht="17.55" spans="2:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
@@ -4401,7 +4005,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" ht="17.55" spans="2:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
@@ -4410,7 +4014,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" ht="17.55" spans="2:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
@@ -4419,7 +4023,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" ht="17.55" spans="2:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
@@ -4428,7 +4032,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" ht="17.55" spans="2:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -4437,7 +4041,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" ht="17.55" spans="2:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>61</v>
       </c>
@@ -4446,7 +4050,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" ht="17.55" spans="2:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>65</v>
       </c>
@@ -4455,7 +4059,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" ht="17.55" spans="2:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>68</v>
       </c>
@@ -4464,7 +4068,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" ht="17.55" spans="2:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>71</v>
       </c>
@@ -4473,7 +4077,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" ht="17.55" spans="2:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>74</v>
       </c>
@@ -4482,7 +4086,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" ht="17.55" spans="2:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
@@ -4491,7 +4095,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" ht="17.55" spans="2:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>80</v>
       </c>
@@ -4501,7 +4105,7 @@
       <c r="D16" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA7D174-1314-4551-BCB8-BBFD6565E670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F50E18-7E84-4575-B5BA-34A3EC2B44D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="291">
   <si>
     <t>##var</t>
   </si>
@@ -288,6 +288,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -298,6 +299,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -853,6 +855,110 @@
   <si>
     <t>普通</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>health_percent</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后恢复生命的百分比</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌的使用类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed_point</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后增加的速度值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>discard_card_rate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤方弃牌概率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>discard_count</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤方弃牌数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_hp_base_value_rate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>满血时baseValue加成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>percentage_damage_by_self</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到自己造成伤害的百分比</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次攻击次数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_after_use</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementEnum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>increase_damage_point_when_grass_env</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在草属性场地的威力加成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_hit_rate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会心率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>def_point</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后增加的防御点数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -871,6 +977,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -878,6 +985,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -885,6 +993,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -892,12 +1001,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -925,7 +1036,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -965,30 +1076,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8680"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,18 +1135,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1133,24 +1214,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFDEE0E3"/>
       </left>
@@ -1161,17 +1224,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1191,101 +1306,78 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -1727,627 +1819,627 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="38" t="s">
+      <c r="N5" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="O5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="P5" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="22">
         <v>320</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="22">
         <v>400</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="23">
         <v>65</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="23">
         <v>85</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="26">
         <v>40</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="26">
         <v>80</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="27">
         <v>100</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="27">
         <v>160</v>
       </c>
-      <c r="N6" s="39">
-        <v>0</v>
-      </c>
-      <c r="O6" s="39">
+      <c r="N6" s="29">
+        <v>0</v>
+      </c>
+      <c r="O6" s="29">
         <v>30</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="22">
         <v>220</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="22">
         <v>320</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="23">
         <v>100</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="23">
         <v>150</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="26">
         <v>20</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="26">
         <v>50</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="27">
         <v>120</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="27">
         <v>200</v>
       </c>
-      <c r="N7" s="39">
-        <v>0</v>
-      </c>
-      <c r="O7" s="39">
+      <c r="N7" s="29">
+        <v>0</v>
+      </c>
+      <c r="O7" s="29">
         <v>10</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="22">
         <v>350</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="22">
         <v>510</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="23">
         <v>40</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="23">
         <v>80</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="26">
         <v>65</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="26">
         <v>140</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="27">
         <v>20</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="27">
         <v>45</v>
       </c>
-      <c r="N8" s="39">
-        <v>0</v>
-      </c>
-      <c r="O8" s="39">
+      <c r="N8" s="29">
+        <v>0</v>
+      </c>
+      <c r="O8" s="29">
         <v>40</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="22">
         <v>220</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="22">
         <v>340</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="23">
         <v>90</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="23">
         <v>150</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="26">
         <v>10</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="26">
         <v>30</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="27">
         <v>121</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="27">
         <v>200</v>
       </c>
-      <c r="N9" s="39">
-        <v>0</v>
-      </c>
-      <c r="O9" s="39">
+      <c r="N9" s="29">
+        <v>0</v>
+      </c>
+      <c r="O9" s="29">
         <v>10</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="22">
         <v>260</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="22">
         <v>480</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="23">
         <v>50</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="23">
         <v>90</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="26">
         <v>30</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="26">
         <v>90</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="27">
         <v>90</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="27">
         <v>180</v>
       </c>
-      <c r="N10" s="39">
-        <v>0</v>
-      </c>
-      <c r="O10" s="39">
+      <c r="N10" s="29">
+        <v>0</v>
+      </c>
+      <c r="O10" s="29">
         <v>30</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="22">
         <v>490</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="22">
         <v>540</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="23">
         <v>25</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="23">
         <v>60</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="26">
         <v>90</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="26">
         <v>150</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="27">
         <v>5</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="27">
         <v>25</v>
       </c>
-      <c r="N11" s="39">
-        <v>0</v>
-      </c>
-      <c r="O11" s="39">
+      <c r="N11" s="29">
+        <v>0</v>
+      </c>
+      <c r="O11" s="29">
         <v>50</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="22">
         <v>550</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="22">
         <v>600</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="23">
         <v>10</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="23">
         <v>30</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="26">
         <v>120</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="26">
         <v>150</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="27">
         <v>5</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="27">
         <v>20</v>
       </c>
-      <c r="N12" s="39">
+      <c r="N12" s="29">
         <v>10</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="29">
         <v>50</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P12" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="22">
         <v>310</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="22">
         <v>400</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="23">
         <v>80</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="23">
         <v>110</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="26">
         <v>30</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="26">
         <v>80</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="27">
         <v>60</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="27">
         <v>90</v>
       </c>
-      <c r="N13" s="39">
-        <v>0</v>
-      </c>
-      <c r="O13" s="39">
+      <c r="N13" s="29">
+        <v>0</v>
+      </c>
+      <c r="O13" s="29">
         <v>25</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="22">
         <v>400</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="22">
         <v>460</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="23">
         <v>60</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="23">
         <v>95</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="26">
         <v>30</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="26">
         <v>90</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="27">
         <v>45</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="27">
         <v>90</v>
       </c>
-      <c r="N14" s="39">
-        <v>0</v>
-      </c>
-      <c r="O14" s="39">
+      <c r="N14" s="29">
+        <v>0</v>
+      </c>
+      <c r="O14" s="29">
         <v>20</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="P14" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="22">
         <v>140</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="22">
         <v>280</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="23">
         <v>55</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="23">
         <v>110</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="26">
         <v>20</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="26">
         <v>40</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="27">
         <v>100</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="27">
         <v>200</v>
       </c>
-      <c r="N15" s="39">
+      <c r="N15" s="29">
         <v>10</v>
       </c>
-      <c r="O15" s="39">
+      <c r="O15" s="29">
         <v>20</v>
       </c>
-      <c r="P15" s="13" t="s">
+      <c r="P15" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="22">
         <v>150</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="22">
         <v>220</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="23">
         <v>100</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="23">
         <v>120</v>
       </c>
-      <c r="J16" s="36">
-        <v>0</v>
-      </c>
-      <c r="K16" s="36">
+      <c r="J16" s="26">
+        <v>0</v>
+      </c>
+      <c r="K16" s="26">
         <v>40</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="27">
         <v>200</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="27">
         <v>200</v>
       </c>
-      <c r="N16" s="39">
-        <v>0</v>
-      </c>
-      <c r="O16" s="39">
+      <c r="N16" s="29">
+        <v>0</v>
+      </c>
+      <c r="O16" s="29">
         <v>50</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="22">
         <v>200</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="22">
         <v>270</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="23">
         <v>70</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="23">
         <v>90</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="26">
         <v>10</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="26">
         <v>50</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="27">
         <v>110</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="27">
         <v>120</v>
       </c>
-      <c r="N17" s="39">
-        <v>0</v>
-      </c>
-      <c r="O17" s="39">
+      <c r="N17" s="29">
+        <v>0</v>
+      </c>
+      <c r="O17" s="29">
         <v>35</v>
       </c>
-      <c r="P17" s="13" t="s">
+      <c r="P17" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="14"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="14"/>
+      <c r="B20" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -2370,54 +2462,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2425,7 +2517,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C7" t="s">
@@ -2433,7 +2525,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C8" t="s">
@@ -2441,7 +2533,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C9" t="s">
@@ -2449,7 +2541,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C10" t="s">
@@ -2457,7 +2549,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C11" t="s">
@@ -2465,7 +2557,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="31" t="s">
         <v>264</v>
       </c>
     </row>
@@ -2477,1366 +2569,2285 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J38" sqref="B38:J38"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="9" style="35"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="70.25" customWidth="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="9" style="9"/>
-    <col min="9" max="9" width="29.5" style="43" customWidth="1"/>
-    <col min="10" max="10" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="73" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="7" style="9" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="33" customWidth="1"/>
+    <col min="10" max="11" width="12.75" style="32" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="13.25" customWidth="1"/>
+    <col min="15" max="15" width="6.75" customWidth="1"/>
+    <col min="16" max="16" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="L1" s="35" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="M1" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="R1" s="35"/>
+      <c r="S1" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="T1" s="35"/>
+      <c r="U1" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="V1" s="39" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="M3" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q3" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="R3" s="35"/>
+      <c r="S3" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="T3" s="35"/>
+      <c r="U3" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="V3" s="39" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="35" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="11" t="s">
+      <c r="G5" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="R5" s="35"/>
+      <c r="S5" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="38">
         <v>90</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35">
+        <v>0</v>
+      </c>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B7" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="38">
         <v>50</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="35">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="11" t="s">
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35">
+        <v>0</v>
+      </c>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="38">
         <v>60</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="35">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35">
+        <v>0</v>
+      </c>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B9" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="38">
         <v>40</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="11" t="s">
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35">
+        <v>0</v>
+      </c>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="P9" s="35">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B10" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="38">
         <v>90</v>
       </c>
-      <c r="H10">
+      <c r="G10" s="35"/>
+      <c r="H10" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35">
+        <v>0</v>
+      </c>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B11" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="38">
         <v>60</v>
       </c>
-      <c r="H11">
+      <c r="G11" s="35"/>
+      <c r="H11" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35">
+        <v>0</v>
+      </c>
+      <c r="N11" s="35">
+        <v>10</v>
+      </c>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B12" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="38">
         <v>110</v>
       </c>
-      <c r="H12">
+      <c r="G12" s="35"/>
+      <c r="H12" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="13" t="s">
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35">
+        <v>0</v>
+      </c>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="38">
         <v>80</v>
       </c>
-      <c r="H13">
+      <c r="G13" s="35"/>
+      <c r="H13" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16" t="s">
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35">
+        <v>0</v>
+      </c>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="R13" s="35"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="F14" s="38">
+        <v>0</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="11" t="s">
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="38">
         <v>70</v>
       </c>
-      <c r="H15">
+      <c r="G15" s="35"/>
+      <c r="H15" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B16" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="38">
         <v>100</v>
       </c>
-      <c r="H16">
+      <c r="G16" s="35"/>
+      <c r="H16" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35">
+        <v>-10</v>
+      </c>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B17" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="38">
         <v>90</v>
       </c>
-      <c r="H17">
+      <c r="G17" s="35"/>
+      <c r="H17" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17">
+        <v>0.5</v>
+      </c>
+      <c r="V17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B18" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="38">
         <v>110</v>
       </c>
-      <c r="H18">
+      <c r="G18" s="35"/>
+      <c r="H18" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="13" t="s">
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="42"/>
+      <c r="B19" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="38">
         <v>60</v>
       </c>
-      <c r="H19">
+      <c r="G19" s="35"/>
+      <c r="H19" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="11" t="s">
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B20" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="38">
         <v>120</v>
       </c>
-      <c r="H20">
+      <c r="G20" s="35"/>
+      <c r="H20" s="35">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="11" t="s">
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B21" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="38">
         <v>50</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="35">
         <v>3</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="13" t="s">
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B22" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="38">
         <v>30</v>
       </c>
-      <c r="H22">
+      <c r="G22" s="35"/>
+      <c r="H22" s="35">
         <v>1</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="35" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="13" t="s">
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B23" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="38">
         <v>80</v>
       </c>
-      <c r="H23">
+      <c r="G23" s="35"/>
+      <c r="H23" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="13" t="s">
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35">
+        <v>10</v>
+      </c>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B24" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="38">
         <v>60</v>
       </c>
-      <c r="H24">
+      <c r="G24" s="35"/>
+      <c r="H24" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="11" t="s">
+      <c r="I24" s="35"/>
+      <c r="J24" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B25" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="38">
         <v>90</v>
       </c>
-      <c r="H25">
+      <c r="G25" s="35"/>
+      <c r="H25" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16" t="s">
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="42"/>
+      <c r="B26" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26">
+      <c r="F26" s="38">
+        <v>0</v>
+      </c>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="13" t="s">
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B27" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="38">
         <v>110</v>
       </c>
-      <c r="H27">
+      <c r="G27" s="35"/>
+      <c r="H27" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="11" t="s">
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B28" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="38">
         <v>70</v>
       </c>
-      <c r="H28">
+      <c r="G28" s="35"/>
+      <c r="H28" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="13" t="s">
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B29" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="38">
         <v>60</v>
       </c>
-      <c r="H29">
+      <c r="G29" s="35"/>
+      <c r="H29" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="11" t="s">
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35">
+        <v>10</v>
+      </c>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B30" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="38">
         <v>60</v>
       </c>
-      <c r="H30">
+      <c r="G30" s="35"/>
+      <c r="H30" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="5" t="s">
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="7">
+      <c r="F31" s="38">
+        <v>0</v>
+      </c>
+      <c r="G31" s="35">
         <v>5</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="11" t="s">
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B32" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="38">
         <v>50</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="35">
         <v>1</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="13" t="s">
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B33" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="38">
         <v>20</v>
       </c>
-      <c r="H33">
+      <c r="G33" s="35"/>
+      <c r="H33" s="35">
         <v>1</v>
       </c>
-      <c r="I33" s="43" t="s">
+      <c r="I33" s="35" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="13" t="s">
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B34" s="40"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B35" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F35" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="13" t="s">
+      <c r="F35" s="38">
+        <v>0</v>
+      </c>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B36" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="13" t="s">
+      <c r="F36" s="38">
+        <v>0</v>
+      </c>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B37" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F37" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="48" t="s">
+      <c r="F37" s="38">
+        <v>0</v>
+      </c>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B38" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="E38" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F38" s="49">
-        <v>0</v>
-      </c>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="51" t="s">
+      <c r="F38" s="38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="36" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="13" t="s">
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B39" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F39" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="13" t="s">
+      <c r="F39" s="38">
+        <v>0</v>
+      </c>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B40" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F40" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F40" s="38">
+        <v>0</v>
+      </c>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B41" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="19">
-        <v>0</v>
-      </c>
-      <c r="J41" s="40" t="s">
+      <c r="F41" s="38">
+        <v>0</v>
+      </c>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="36" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="13" t="s">
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B42" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F42" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F42" s="38">
+        <v>0</v>
+      </c>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B43" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F43" s="19">
-        <v>0</v>
-      </c>
-      <c r="J43" s="40" t="s">
+      <c r="F43" s="38">
+        <v>0</v>
+      </c>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="36" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="13" t="s">
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B44" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F44" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F44" s="38">
+        <v>0</v>
+      </c>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B45" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F45" s="19">
-        <v>0</v>
-      </c>
-      <c r="J45" s="40" t="s">
+      <c r="F45" s="38">
+        <v>0</v>
+      </c>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="36" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="13" t="s">
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B46" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="13" t="s">
+      <c r="F46" s="38">
+        <v>0</v>
+      </c>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B47" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F47" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="13" t="s">
+      <c r="F47" s="38">
+        <v>0</v>
+      </c>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B48" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F48" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="13" t="s">
+      <c r="F48" s="38">
+        <v>0</v>
+      </c>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B49" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F49" s="38">
+        <v>0</v>
+      </c>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D50" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F50" s="19">
-        <v>0</v>
-      </c>
-      <c r="J50" s="40" t="s">
+      <c r="F50" s="38">
+        <v>0</v>
+      </c>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="36" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F51" s="19">
-        <v>0</v>
-      </c>
-      <c r="J51" s="40" t="s">
+      <c r="F51" s="38">
+        <v>0</v>
+      </c>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="36" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="13" t="s">
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B52" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F52" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="13" t="s">
+      <c r="F52" s="38">
+        <v>0</v>
+      </c>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B53" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F53" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F53" s="38">
+        <v>0</v>
+      </c>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="C54" s="42" t="s">
+      <c r="C54" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F54" s="19">
-        <v>0</v>
-      </c>
-      <c r="J54" s="40" t="s">
+      <c r="F54" s="38">
+        <v>0</v>
+      </c>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="36" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="13" t="s">
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B55" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F55" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B56" s="13" t="s">
+      <c r="F55" s="38">
+        <v>0</v>
+      </c>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B56" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F56" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="13" t="s">
+      <c r="F56" s="38">
+        <v>0</v>
+      </c>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B57" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F57" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="13" t="s">
+      <c r="F57" s="38">
+        <v>0</v>
+      </c>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B58" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F58" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="13" t="s">
+      <c r="F58" s="38">
+        <v>0</v>
+      </c>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B59" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F59" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="13" t="s">
+      <c r="F59" s="38">
+        <v>0</v>
+      </c>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B60" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F60" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="13" t="s">
+      <c r="F60" s="38">
+        <v>0</v>
+      </c>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B61" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F61" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="13" t="s">
+      <c r="F61" s="38">
+        <v>0</v>
+      </c>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B62" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F62" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="13" t="s">
+      <c r="F62" s="38">
+        <v>0</v>
+      </c>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B63" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F63" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F63" s="38">
+        <v>0</v>
+      </c>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B64" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="C64" s="42" t="s">
+      <c r="C64" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D64" s="41" t="s">
+      <c r="D64" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F64" s="19">
-        <v>0</v>
-      </c>
-      <c r="J64" s="40" t="s">
+      <c r="F64" s="38">
+        <v>0</v>
+      </c>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="36" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B65" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D65" s="41" t="s">
+      <c r="D65" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F65" s="19">
-        <v>0</v>
-      </c>
-      <c r="J65" s="40" t="s">
+      <c r="F65" s="38">
+        <v>0</v>
+      </c>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="36" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B66" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D66" s="41" t="s">
+      <c r="D66" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F66" s="19">
-        <v>0</v>
-      </c>
-      <c r="J66" s="40" t="s">
+      <c r="F66" s="38">
+        <v>0</v>
+      </c>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="36" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B67" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="C67" s="42" t="s">
+      <c r="C67" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D67" s="41" t="s">
+      <c r="D67" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F67" s="19">
-        <v>0</v>
-      </c>
-      <c r="J67" s="40" t="s">
+      <c r="F67" s="38">
+        <v>0</v>
+      </c>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="36" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B68" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="C68" s="42" t="s">
+      <c r="C68" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D68" s="41" t="s">
+      <c r="D68" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F68" s="19">
-        <v>0</v>
-      </c>
-      <c r="J68" s="40" t="s">
+      <c r="F68" s="38">
+        <v>0</v>
+      </c>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="36" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B69" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="C69" s="42" t="s">
+      <c r="C69" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D69" s="41" t="s">
+      <c r="D69" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F69" s="19">
-        <v>0</v>
-      </c>
-      <c r="J69" s="40" t="s">
+      <c r="F69" s="38">
+        <v>0</v>
+      </c>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="36" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="22" t="s">
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B70" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="35" t="s">
         <v>171</v>
       </c>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I71" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F50E18-7E84-4575-B5BA-34A3EC2B44D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4381DC-2BCA-4588-B173-674D2F6280AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,8 +34,27 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={62FAB9AC-CF6D-4984-8551-85112BDF44AB}</author>
+  </authors>
+  <commentList>
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{62FAB9AC-CF6D-4984-8551-85112BDF44AB}">
+      <text>
+        <t xml:space="preserve">[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    有颜色的就是暂时不能配表实现的
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="310">
   <si>
     <t>##var</t>
   </si>
@@ -857,10 +876,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>health_percent</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -873,10 +888,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>speed_point</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -885,26 +896,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>discard_card_rate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>受伤方弃牌概率</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>discard_count</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>受伤方弃牌数量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>full_hp_base_value_rate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>满血时baseValue加成</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -929,10 +928,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>element_after_use</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ElementEnum</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -953,11 +948,111 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>def_point</t>
+    <t>使用后增加的防御点数</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>使用后增加的防御点数</t>
+    <t>increase_self_def_point_after_use</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>increase_self_speed_point_after_use</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>def_discard_card_rate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>def_discard_count</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后修改自己的属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_element_after_use</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>increase_health_point_after_use</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后恢复生命的点数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后抽牌数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>darw_card_count_after_use</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后抽指挥牌的数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>darw_leader_card_count_after_use</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后变更的场地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleEnvironmentEnum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否使用防御力代替攻击力计算伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>using_def_to_cal_damage</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_hp_increase_base_value_rate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>increase_health_percent_after_use</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_battle_env_after_use</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -965,7 +1060,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,6 +1129,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="18">
@@ -1129,13 +1231,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,21 +1328,21 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="2"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
+      <left/>
       <right style="thin">
         <color theme="2"/>
       </right>
@@ -1256,23 +1358,25 @@
       <left style="thin">
         <color theme="2"/>
       </left>
-      <right style="thin">
-        <color theme="2"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2"/>
-      </right>
+      <right/>
       <top style="thin">
         <color theme="2"/>
       </top>
       <bottom style="thin">
         <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1286,7 +1390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1361,23 +1465,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -1401,6 +1518,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="卷卷 陈" id="{CA0D23FA-B3CA-41E8-BC11-E4D91B2D69C7}" userId="dfc2dc36850357a5" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1659,6 +1782,15 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A19" dT="2024-08-01T15:09:15.68" personId="{CA0D23FA-B3CA-41E8-BC11-E4D91B2D69C7}" id="{62FAB9AC-CF6D-4984-8551-85112BDF44AB}">
+    <text xml:space="preserve">有颜色的就是暂时不能配表实现的
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
@@ -2568,2290 +2700,4119 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="35"/>
+    <col min="1" max="1" width="9" style="32"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="73" customWidth="1"/>
     <col min="5" max="5" width="9.625" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="7" style="9" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="33" customWidth="1"/>
-    <col min="10" max="11" width="12.75" style="32" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
-    <col min="13" max="13" width="14.375" customWidth="1"/>
-    <col min="14" max="14" width="13.25" customWidth="1"/>
-    <col min="15" max="15" width="6.75" customWidth="1"/>
-    <col min="16" max="16" width="5.875" customWidth="1"/>
+    <col min="7" max="8" width="7" style="32" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="32" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="32" customWidth="1"/>
+    <col min="11" max="13" width="7.25" style="32" customWidth="1"/>
+    <col min="14" max="15" width="12.75" style="32" customWidth="1"/>
+    <col min="16" max="16" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="16.25" customWidth="1"/>
+    <col min="18" max="18" width="14.375" customWidth="1"/>
+    <col min="19" max="19" width="13.25" customWidth="1"/>
+    <col min="20" max="20" width="11.125" customWidth="1"/>
+    <col min="21" max="21" width="19.5" customWidth="1"/>
+    <col min="22" max="22" width="18.875" customWidth="1"/>
+    <col min="23" max="23" width="12.75" customWidth="1"/>
+    <col min="24" max="24" width="16.25" customWidth="1"/>
+    <col min="25" max="25" width="15.75" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="U1" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="V1" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="X1" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="L1" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="M1" s="35" t="s">
+      <c r="Y1" s="33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="39"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="39"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="N3" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="O3" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="U3" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="V3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="W3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="X3" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y3" s="33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="39"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="39"/>
+    </row>
+    <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="P5" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q5" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="R5" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="S5" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="T5" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="U5" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="V5" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="W5" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="Q1" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="R1" s="35"/>
-      <c r="S1" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="V1" s="39" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="40" t="s">
+      <c r="X5" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y5" s="41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="42">
+        <v>90</v>
+      </c>
+      <c r="H6" s="32">
+        <v>1</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K6" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="32">
+        <v>0</v>
+      </c>
+      <c r="M6" s="32">
+        <v>0</v>
+      </c>
+      <c r="N6" s="32">
+        <v>0</v>
+      </c>
+      <c r="O6" s="32">
+        <v>0</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q6" s="45">
+        <v>0</v>
+      </c>
+      <c r="R6" s="32">
+        <v>0</v>
+      </c>
+      <c r="S6" s="32">
+        <v>0</v>
+      </c>
+      <c r="T6" s="32">
+        <v>0</v>
+      </c>
+      <c r="U6" s="32">
+        <v>0</v>
+      </c>
+      <c r="V6" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="42">
+        <v>50</v>
+      </c>
+      <c r="G7" s="32">
+        <v>1</v>
+      </c>
+      <c r="H7" s="32">
+        <v>1</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K7" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="32">
+        <v>0</v>
+      </c>
+      <c r="M7" s="32">
+        <v>0</v>
+      </c>
+      <c r="N7" s="32">
+        <v>0</v>
+      </c>
+      <c r="O7" s="32">
+        <v>0</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q7" s="45">
+        <v>0</v>
+      </c>
+      <c r="R7" s="32">
+        <v>0</v>
+      </c>
+      <c r="S7" s="32">
+        <v>0</v>
+      </c>
+      <c r="T7" s="32">
+        <v>0</v>
+      </c>
+      <c r="U7" s="32">
+        <v>0</v>
+      </c>
+      <c r="V7" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="42">
+        <v>60</v>
+      </c>
+      <c r="G8" s="32">
+        <v>2</v>
+      </c>
+      <c r="H8" s="32">
+        <v>1</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K8" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="32">
+        <v>0</v>
+      </c>
+      <c r="M8" s="32">
+        <v>0</v>
+      </c>
+      <c r="N8" s="32">
+        <v>0</v>
+      </c>
+      <c r="O8" s="32">
+        <v>0</v>
+      </c>
+      <c r="P8" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q8" s="45">
+        <v>0</v>
+      </c>
+      <c r="R8" s="32">
+        <v>0</v>
+      </c>
+      <c r="S8" s="32">
+        <v>0</v>
+      </c>
+      <c r="T8" s="32">
+        <v>0</v>
+      </c>
+      <c r="U8" s="32">
+        <v>0</v>
+      </c>
+      <c r="V8" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="42">
+        <v>40</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32">
+        <v>1</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K9" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="32">
+        <v>0</v>
+      </c>
+      <c r="M9" s="32">
+        <v>0</v>
+      </c>
+      <c r="N9" s="32">
+        <v>0</v>
+      </c>
+      <c r="O9" s="32">
+        <v>0</v>
+      </c>
+      <c r="P9" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q9" s="45">
+        <v>0</v>
+      </c>
+      <c r="R9" s="32">
+        <v>0</v>
+      </c>
+      <c r="S9" s="32">
+        <v>0</v>
+      </c>
+      <c r="T9" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="U9" s="32">
+        <v>2</v>
+      </c>
+      <c r="V9" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="42">
+        <v>90</v>
+      </c>
+      <c r="G10" s="32">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32">
+        <v>1</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K10" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="32">
+        <v>0</v>
+      </c>
+      <c r="M10" s="32">
+        <v>0</v>
+      </c>
+      <c r="N10" s="32">
+        <v>0</v>
+      </c>
+      <c r="O10" s="32">
+        <v>0</v>
+      </c>
+      <c r="P10" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q10" s="45">
+        <v>0</v>
+      </c>
+      <c r="R10" s="32">
+        <v>0</v>
+      </c>
+      <c r="S10" s="32">
+        <v>0</v>
+      </c>
+      <c r="T10" s="32">
+        <v>0</v>
+      </c>
+      <c r="U10" s="32">
+        <v>0</v>
+      </c>
+      <c r="V10" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="42">
+        <v>60</v>
+      </c>
+      <c r="G11" s="32">
+        <v>0</v>
+      </c>
+      <c r="H11" s="32">
+        <v>1</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K11" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="32">
+        <v>0</v>
+      </c>
+      <c r="M11" s="32">
+        <v>0</v>
+      </c>
+      <c r="N11" s="32">
+        <v>0</v>
+      </c>
+      <c r="O11" s="32">
+        <v>0</v>
+      </c>
+      <c r="P11" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q11" s="45">
+        <v>0</v>
+      </c>
+      <c r="R11" s="32">
+        <v>0</v>
+      </c>
+      <c r="S11" s="32">
+        <v>10</v>
+      </c>
+      <c r="T11" s="32">
+        <v>0</v>
+      </c>
+      <c r="U11" s="32">
+        <v>0</v>
+      </c>
+      <c r="V11" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="42">
+        <v>110</v>
+      </c>
+      <c r="G12" s="32">
+        <v>0</v>
+      </c>
+      <c r="H12" s="32">
+        <v>1</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K12" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="32">
+        <v>0</v>
+      </c>
+      <c r="M12" s="32">
+        <v>0</v>
+      </c>
+      <c r="N12" s="32">
+        <v>0</v>
+      </c>
+      <c r="O12" s="32">
+        <v>0</v>
+      </c>
+      <c r="P12" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q12" s="45">
+        <v>0</v>
+      </c>
+      <c r="R12" s="32">
+        <v>0</v>
+      </c>
+      <c r="S12" s="32">
+        <v>0</v>
+      </c>
+      <c r="T12" s="32">
+        <v>0</v>
+      </c>
+      <c r="U12" s="32">
+        <v>0</v>
+      </c>
+      <c r="V12" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="42">
+        <v>80</v>
+      </c>
+      <c r="G13" s="32">
+        <v>0</v>
+      </c>
+      <c r="H13" s="32">
+        <v>1</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K13" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="32">
+        <v>0</v>
+      </c>
+      <c r="M13" s="32">
+        <v>0</v>
+      </c>
+      <c r="N13" s="32">
+        <v>0</v>
+      </c>
+      <c r="O13" s="32">
+        <v>0</v>
+      </c>
+      <c r="P13" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q13" s="45">
+        <v>0</v>
+      </c>
+      <c r="R13" s="32">
+        <v>0</v>
+      </c>
+      <c r="S13" s="32">
+        <v>0</v>
+      </c>
+      <c r="T13" s="32">
+        <v>0</v>
+      </c>
+      <c r="U13" s="32">
+        <v>0</v>
+      </c>
+      <c r="V13" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="42">
+        <v>0</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32">
+        <v>1</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K14" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="32">
+        <v>0</v>
+      </c>
+      <c r="M14" s="32">
+        <v>0</v>
+      </c>
+      <c r="N14" s="32">
+        <v>0</v>
+      </c>
+      <c r="O14" s="32">
+        <v>0</v>
+      </c>
+      <c r="P14" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q14" s="45">
+        <v>0</v>
+      </c>
+      <c r="R14" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="S14" s="32">
+        <v>0</v>
+      </c>
+      <c r="T14" s="32">
+        <v>0</v>
+      </c>
+      <c r="U14" s="32">
+        <v>0</v>
+      </c>
+      <c r="V14" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="42">
+        <v>70</v>
+      </c>
+      <c r="G15" s="32">
+        <v>0</v>
+      </c>
+      <c r="H15" s="32">
+        <v>1</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K15" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="32">
+        <v>0</v>
+      </c>
+      <c r="M15" s="32">
+        <v>0</v>
+      </c>
+      <c r="N15" s="32">
+        <v>0</v>
+      </c>
+      <c r="O15" s="32">
+        <v>0</v>
+      </c>
+      <c r="P15" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q15" s="45">
+        <v>0</v>
+      </c>
+      <c r="R15" s="32">
+        <v>0</v>
+      </c>
+      <c r="S15" s="32">
+        <v>0</v>
+      </c>
+      <c r="T15" s="32">
+        <v>0</v>
+      </c>
+      <c r="U15" s="32">
+        <v>0</v>
+      </c>
+      <c r="V15" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="42">
         <v>100</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="G16" s="32">
+        <v>0</v>
+      </c>
+      <c r="H16" s="32">
+        <v>1</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K16" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="32">
+        <v>0</v>
+      </c>
+      <c r="M16" s="32">
+        <v>0</v>
+      </c>
+      <c r="N16" s="32">
+        <v>0</v>
+      </c>
+      <c r="O16" s="32">
+        <v>0</v>
+      </c>
+      <c r="P16" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q16" s="45">
+        <v>0</v>
+      </c>
+      <c r="R16" s="32">
+        <v>0</v>
+      </c>
+      <c r="S16" s="32">
+        <v>-10</v>
+      </c>
+      <c r="T16" s="32">
+        <v>0</v>
+      </c>
+      <c r="U16" s="32">
+        <v>0</v>
+      </c>
+      <c r="V16" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="42">
+        <v>90</v>
+      </c>
+      <c r="G17" s="32">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32">
+        <v>1</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K17" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="32">
+        <v>0</v>
+      </c>
+      <c r="M17" s="32">
+        <v>0</v>
+      </c>
+      <c r="N17" s="32">
+        <v>0</v>
+      </c>
+      <c r="O17" s="32">
+        <v>0</v>
+      </c>
+      <c r="P17" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q17" s="45">
+        <v>0</v>
+      </c>
+      <c r="R17" s="32">
+        <v>0</v>
+      </c>
+      <c r="S17" s="32">
+        <v>0</v>
+      </c>
+      <c r="T17" s="32">
+        <v>0</v>
+      </c>
+      <c r="U17" s="32">
+        <v>0</v>
+      </c>
+      <c r="V17" s="32">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0.5</v>
+      </c>
+      <c r="Y17" s="40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="42">
+        <v>110</v>
+      </c>
+      <c r="G18" s="32">
+        <v>0</v>
+      </c>
+      <c r="H18" s="32">
+        <v>1</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="32">
+        <v>0</v>
+      </c>
+      <c r="M18" s="32">
+        <v>0</v>
+      </c>
+      <c r="N18" s="32">
+        <v>0</v>
+      </c>
+      <c r="O18" s="32">
+        <v>0</v>
+      </c>
+      <c r="P18" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q18" s="45">
+        <v>0</v>
+      </c>
+      <c r="R18" s="32">
+        <v>0</v>
+      </c>
+      <c r="S18" s="32">
+        <v>0</v>
+      </c>
+      <c r="T18" s="32">
+        <v>0</v>
+      </c>
+      <c r="U18" s="32">
+        <v>0</v>
+      </c>
+      <c r="V18" s="32">
+        <v>0</v>
+      </c>
+      <c r="X18" s="30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="42">
+        <v>60</v>
+      </c>
+      <c r="G19" s="32">
+        <v>0</v>
+      </c>
+      <c r="H19" s="32">
+        <v>1</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K19" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="32">
+        <v>0</v>
+      </c>
+      <c r="M19" s="32">
+        <v>0</v>
+      </c>
+      <c r="N19" s="32">
+        <v>0</v>
+      </c>
+      <c r="O19" s="32">
+        <v>0</v>
+      </c>
+      <c r="P19" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q19" s="45">
+        <v>0</v>
+      </c>
+      <c r="R19" s="32">
+        <v>0</v>
+      </c>
+      <c r="S19" s="32">
+        <v>0</v>
+      </c>
+      <c r="T19" s="32">
+        <v>0</v>
+      </c>
+      <c r="U19" s="32">
+        <v>0</v>
+      </c>
+      <c r="V19" s="32"/>
+    </row>
+    <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="42">
+        <v>120</v>
+      </c>
+      <c r="G20" s="32">
+        <v>0</v>
+      </c>
+      <c r="H20" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K20" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="32">
+        <v>0</v>
+      </c>
+      <c r="M20" s="32">
+        <v>0</v>
+      </c>
+      <c r="N20" s="32">
+        <v>0</v>
+      </c>
+      <c r="O20" s="32">
+        <v>0</v>
+      </c>
+      <c r="P20" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q20" s="45">
+        <v>0</v>
+      </c>
+      <c r="R20" s="32">
+        <v>0</v>
+      </c>
+      <c r="S20" s="32">
+        <v>0</v>
+      </c>
+      <c r="T20" s="32">
+        <v>0</v>
+      </c>
+      <c r="U20" s="32">
+        <v>0</v>
+      </c>
+      <c r="V20" s="32"/>
+    </row>
+    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="42">
+        <v>50</v>
+      </c>
+      <c r="G21" s="32">
+        <v>3</v>
+      </c>
+      <c r="H21" s="32">
+        <v>1</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K21" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="32">
+        <v>0</v>
+      </c>
+      <c r="M21" s="32">
+        <v>0</v>
+      </c>
+      <c r="N21" s="32">
+        <v>0</v>
+      </c>
+      <c r="O21" s="32">
+        <v>0</v>
+      </c>
+      <c r="P21" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q21" s="45">
+        <v>0</v>
+      </c>
+      <c r="R21" s="32">
+        <v>0</v>
+      </c>
+      <c r="S21" s="32">
+        <v>0</v>
+      </c>
+      <c r="T21" s="32">
+        <v>0</v>
+      </c>
+      <c r="U21" s="32">
+        <v>0</v>
+      </c>
+      <c r="V21" s="32"/>
+    </row>
+    <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="42">
+        <v>30</v>
+      </c>
+      <c r="G22" s="32">
+        <v>0</v>
+      </c>
+      <c r="H22" s="32">
+        <v>1</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K22" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="32">
+        <v>0</v>
+      </c>
+      <c r="M22" s="32">
+        <v>0</v>
+      </c>
+      <c r="N22" s="32">
+        <v>0</v>
+      </c>
+      <c r="O22" s="32">
+        <v>0</v>
+      </c>
+      <c r="P22" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q22" s="45">
+        <v>0</v>
+      </c>
+      <c r="R22" s="32">
+        <v>0</v>
+      </c>
+      <c r="S22" s="32">
+        <v>0</v>
+      </c>
+      <c r="T22" s="32">
+        <v>0</v>
+      </c>
+      <c r="U22" s="32">
+        <v>0</v>
+      </c>
+      <c r="V22" s="32"/>
+    </row>
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="42">
+        <v>80</v>
+      </c>
+      <c r="G23" s="32">
+        <v>0</v>
+      </c>
+      <c r="H23" s="32">
+        <v>1</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K23" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="32">
+        <v>0</v>
+      </c>
+      <c r="M23" s="32">
+        <v>0</v>
+      </c>
+      <c r="N23" s="32">
+        <v>0</v>
+      </c>
+      <c r="O23" s="32">
+        <v>0</v>
+      </c>
+      <c r="P23" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q23" s="45">
+        <v>0</v>
+      </c>
+      <c r="R23" s="32">
+        <v>0</v>
+      </c>
+      <c r="S23" s="32">
+        <v>10</v>
+      </c>
+      <c r="T23" s="32">
+        <v>0</v>
+      </c>
+      <c r="U23" s="32">
+        <v>0</v>
+      </c>
+      <c r="V23" s="32"/>
+    </row>
+    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="42">
+        <v>60</v>
+      </c>
+      <c r="G24" s="32">
+        <v>0</v>
+      </c>
+      <c r="H24" s="32">
+        <v>1</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K24" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="32">
+        <v>0</v>
+      </c>
+      <c r="M24" s="32">
+        <v>0</v>
+      </c>
+      <c r="N24" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="O24" s="32">
+        <v>0</v>
+      </c>
+      <c r="P24" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q24" s="45">
+        <v>0</v>
+      </c>
+      <c r="R24" s="32">
+        <v>0</v>
+      </c>
+      <c r="S24" s="32">
+        <v>0</v>
+      </c>
+      <c r="T24" s="32">
+        <v>0</v>
+      </c>
+      <c r="U24" s="32">
+        <v>0</v>
+      </c>
+      <c r="V24" s="32"/>
+    </row>
+    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="42">
+        <v>90</v>
+      </c>
+      <c r="G25" s="32">
+        <v>0</v>
+      </c>
+      <c r="H25" s="32">
+        <v>1</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K25" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="32">
+        <v>0</v>
+      </c>
+      <c r="M25" s="32">
+        <v>0</v>
+      </c>
+      <c r="N25" s="32">
+        <v>0</v>
+      </c>
+      <c r="O25" s="32">
+        <v>0</v>
+      </c>
+      <c r="P25" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q25" s="45">
+        <v>0</v>
+      </c>
+      <c r="R25" s="32">
+        <v>0</v>
+      </c>
+      <c r="S25" s="32">
+        <v>0</v>
+      </c>
+      <c r="T25" s="32">
+        <v>0</v>
+      </c>
+      <c r="U25" s="32">
+        <v>0</v>
+      </c>
+      <c r="V25" s="32"/>
+    </row>
+    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="42">
+        <v>0</v>
+      </c>
+      <c r="G26" s="32">
+        <v>0</v>
+      </c>
+      <c r="H26" s="32">
+        <v>1</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K26" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="32">
+        <v>0</v>
+      </c>
+      <c r="M26" s="32">
+        <v>0</v>
+      </c>
+      <c r="N26" s="32">
+        <v>0</v>
+      </c>
+      <c r="O26" s="32">
+        <v>0</v>
+      </c>
+      <c r="P26" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q26" s="45">
+        <v>0</v>
+      </c>
+      <c r="R26" s="32">
+        <v>0</v>
+      </c>
+      <c r="S26" s="32">
+        <v>0</v>
+      </c>
+      <c r="T26" s="32">
+        <v>0</v>
+      </c>
+      <c r="U26" s="32">
+        <v>0</v>
+      </c>
+      <c r="V26" s="32"/>
+    </row>
+    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="42">
+        <v>110</v>
+      </c>
+      <c r="G27" s="32">
+        <v>0</v>
+      </c>
+      <c r="H27" s="32">
+        <v>1</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K27" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="32">
+        <v>0</v>
+      </c>
+      <c r="M27" s="32">
+        <v>0</v>
+      </c>
+      <c r="N27" s="32">
+        <v>0</v>
+      </c>
+      <c r="O27" s="32">
+        <v>0</v>
+      </c>
+      <c r="P27" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q27" s="45">
+        <v>0</v>
+      </c>
+      <c r="R27" s="32">
+        <v>0</v>
+      </c>
+      <c r="S27" s="32">
+        <v>-20</v>
+      </c>
+      <c r="T27" s="32">
+        <v>0</v>
+      </c>
+      <c r="U27" s="32">
+        <v>0</v>
+      </c>
+      <c r="V27" s="32"/>
+    </row>
+    <row r="28" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="42">
+        <v>70</v>
+      </c>
+      <c r="G28" s="32">
+        <v>0</v>
+      </c>
+      <c r="H28" s="32">
+        <v>1</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K28" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="32">
+        <v>0</v>
+      </c>
+      <c r="M28" s="32">
+        <v>0</v>
+      </c>
+      <c r="N28" s="32">
+        <v>0</v>
+      </c>
+      <c r="O28" s="32">
+        <v>0</v>
+      </c>
+      <c r="P28" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q28" s="45">
+        <v>0</v>
+      </c>
+      <c r="R28" s="32">
+        <v>0</v>
+      </c>
+      <c r="S28" s="32">
+        <v>0</v>
+      </c>
+      <c r="T28" s="32">
+        <v>0</v>
+      </c>
+      <c r="U28" s="32">
+        <v>0</v>
+      </c>
+      <c r="V28" s="32"/>
+    </row>
+    <row r="29" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="42">
+        <v>60</v>
+      </c>
+      <c r="G29" s="32">
+        <v>0</v>
+      </c>
+      <c r="H29" s="32">
+        <v>1</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K29" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="32">
+        <v>0</v>
+      </c>
+      <c r="M29" s="32">
+        <v>0</v>
+      </c>
+      <c r="N29" s="32">
+        <v>0</v>
+      </c>
+      <c r="O29" s="32">
+        <v>10</v>
+      </c>
+      <c r="P29" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q29" s="45">
+        <v>0</v>
+      </c>
+      <c r="R29" s="32">
+        <v>0</v>
+      </c>
+      <c r="S29" s="32">
+        <v>0</v>
+      </c>
+      <c r="T29" s="32">
+        <v>0</v>
+      </c>
+      <c r="U29" s="32">
+        <v>0</v>
+      </c>
+      <c r="V29" s="32"/>
+    </row>
+    <row r="30" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="42">
+        <v>60</v>
+      </c>
+      <c r="G30" s="32">
+        <v>0</v>
+      </c>
+      <c r="H30" s="32">
+        <v>1</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K30" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="32">
+        <v>0</v>
+      </c>
+      <c r="M30" s="32">
+        <v>0</v>
+      </c>
+      <c r="N30" s="32">
+        <v>0</v>
+      </c>
+      <c r="O30" s="32">
+        <v>0</v>
+      </c>
+      <c r="P30" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q30" s="45">
+        <v>0</v>
+      </c>
+      <c r="R30" s="32">
+        <v>0</v>
+      </c>
+      <c r="S30" s="32">
+        <v>0</v>
+      </c>
+      <c r="T30" s="32">
+        <v>0</v>
+      </c>
+      <c r="U30" s="32">
+        <v>0</v>
+      </c>
+      <c r="V30" s="32"/>
+    </row>
+    <row r="31" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="46"/>
+      <c r="B31" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="42">
+        <v>0</v>
+      </c>
+      <c r="G31" s="32">
+        <v>5</v>
+      </c>
+      <c r="H31" s="32">
+        <v>1</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K31" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="32">
+        <v>0</v>
+      </c>
+      <c r="M31" s="32">
+        <v>0</v>
+      </c>
+      <c r="N31" s="32">
+        <v>0</v>
+      </c>
+      <c r="O31" s="32">
+        <v>0</v>
+      </c>
+      <c r="P31" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q31" s="45">
+        <v>0</v>
+      </c>
+      <c r="R31" s="32">
+        <v>0</v>
+      </c>
+      <c r="S31" s="32">
+        <v>0</v>
+      </c>
+      <c r="T31" s="32">
+        <v>0</v>
+      </c>
+      <c r="U31" s="32">
+        <v>0</v>
+      </c>
+      <c r="V31" s="32"/>
+    </row>
+    <row r="32" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="42">
+        <v>50</v>
+      </c>
+      <c r="G32" s="32">
+        <v>1</v>
+      </c>
+      <c r="H32" s="32">
+        <v>1</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K32" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="32">
+        <v>0</v>
+      </c>
+      <c r="O32" s="32">
+        <v>0</v>
+      </c>
+      <c r="P32" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q32" s="45">
+        <v>0</v>
+      </c>
+      <c r="R32" s="32">
+        <v>0</v>
+      </c>
+      <c r="S32" s="32">
+        <v>0</v>
+      </c>
+      <c r="T32" s="32">
+        <v>0</v>
+      </c>
+      <c r="U32" s="32">
+        <v>0</v>
+      </c>
+      <c r="V32" s="32"/>
+    </row>
+    <row r="33" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="42">
         <v>20</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q3" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="R3" s="35"/>
-      <c r="S3" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="T3" s="35"/>
-      <c r="U3" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="V3" s="39" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="40" t="s">
+      <c r="G33" s="32">
+        <v>0</v>
+      </c>
+      <c r="H33" s="32">
         <v>1</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>290</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="M5" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="N5" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="O5" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="P5" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q5" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="R5" s="35"/>
-      <c r="S5" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="30" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="38">
-        <v>90</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35">
-        <v>1</v>
-      </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35">
-        <v>0</v>
-      </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="38">
-        <v>50</v>
-      </c>
-      <c r="G7" s="35">
-        <v>1</v>
-      </c>
-      <c r="H7" s="35">
-        <v>1</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35">
-        <v>0</v>
-      </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="38">
-        <v>60</v>
-      </c>
-      <c r="G8" s="35">
+      <c r="I33" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K33" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="32">
+        <v>0</v>
+      </c>
+      <c r="M33" s="32">
+        <v>0</v>
+      </c>
+      <c r="N33" s="32">
+        <v>0</v>
+      </c>
+      <c r="O33" s="32">
+        <v>0</v>
+      </c>
+      <c r="P33" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q33" s="45">
+        <v>0</v>
+      </c>
+      <c r="R33" s="32">
+        <v>0</v>
+      </c>
+      <c r="S33" s="32">
+        <v>0</v>
+      </c>
+      <c r="T33" s="32">
+        <v>0</v>
+      </c>
+      <c r="U33" s="32">
+        <v>0</v>
+      </c>
+      <c r="V33" s="32"/>
+    </row>
+    <row r="34" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
+      <c r="B34" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="42">
+        <v>0</v>
+      </c>
+      <c r="G34" s="32">
+        <v>0</v>
+      </c>
+      <c r="J34" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K34" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="32">
+        <v>0</v>
+      </c>
+      <c r="M34" s="32">
+        <v>0</v>
+      </c>
+      <c r="N34" s="32">
+        <v>0</v>
+      </c>
+      <c r="O34" s="32">
+        <v>0</v>
+      </c>
+      <c r="P34" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q34" s="45">
+        <v>0</v>
+      </c>
+      <c r="R34" s="32">
+        <v>0</v>
+      </c>
+      <c r="S34" s="32">
+        <v>0</v>
+      </c>
+      <c r="T34" s="32">
+        <v>0</v>
+      </c>
+      <c r="U34" s="32">
+        <v>0</v>
+      </c>
+      <c r="V34" s="32"/>
+    </row>
+    <row r="35" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="46"/>
+      <c r="B35" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="42">
+        <v>0</v>
+      </c>
+      <c r="G35" s="32">
+        <v>0</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K35" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="32">
+        <v>0</v>
+      </c>
+      <c r="M35" s="32">
+        <v>0</v>
+      </c>
+      <c r="N35" s="32">
+        <v>0</v>
+      </c>
+      <c r="O35" s="32">
+        <v>0</v>
+      </c>
+      <c r="P35" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q35" s="45">
+        <v>0</v>
+      </c>
+      <c r="R35" s="32">
+        <v>0</v>
+      </c>
+      <c r="S35" s="32">
+        <v>0</v>
+      </c>
+      <c r="T35" s="32">
+        <v>0</v>
+      </c>
+      <c r="U35" s="32">
+        <v>0</v>
+      </c>
+      <c r="V35" s="32"/>
+    </row>
+    <row r="36" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="42">
+        <v>0</v>
+      </c>
+      <c r="G36" s="32">
+        <v>0</v>
+      </c>
+      <c r="J36" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K36" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="32">
+        <v>0</v>
+      </c>
+      <c r="M36" s="32">
+        <v>0</v>
+      </c>
+      <c r="N36" s="32">
+        <v>0</v>
+      </c>
+      <c r="O36" s="32">
+        <v>0</v>
+      </c>
+      <c r="P36" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q36" s="45">
+        <v>0</v>
+      </c>
+      <c r="R36" s="32">
+        <v>0</v>
+      </c>
+      <c r="S36" s="32">
+        <v>0</v>
+      </c>
+      <c r="T36" s="32">
+        <v>0</v>
+      </c>
+      <c r="U36" s="32">
+        <v>0</v>
+      </c>
+      <c r="V36" s="32"/>
+    </row>
+    <row r="37" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="42">
+        <v>0</v>
+      </c>
+      <c r="G37" s="32">
+        <v>0</v>
+      </c>
+      <c r="J37" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K37" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="32">
+        <v>0</v>
+      </c>
+      <c r="M37" s="32">
+        <v>0</v>
+      </c>
+      <c r="N37" s="32">
+        <v>0</v>
+      </c>
+      <c r="O37" s="32">
+        <v>0</v>
+      </c>
+      <c r="P37" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q37" s="43">
+        <v>100</v>
+      </c>
+      <c r="R37" s="32">
+        <v>0</v>
+      </c>
+      <c r="S37" s="32">
+        <v>0</v>
+      </c>
+      <c r="T37" s="32">
+        <v>0</v>
+      </c>
+      <c r="U37" s="32">
+        <v>0</v>
+      </c>
+      <c r="V37" s="32"/>
+    </row>
+    <row r="38" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="46"/>
+      <c r="B38" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="42">
+        <v>0</v>
+      </c>
+      <c r="G38" s="32">
+        <v>0</v>
+      </c>
+      <c r="J38" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K38" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="32">
+        <v>0</v>
+      </c>
+      <c r="M38" s="32">
+        <v>0</v>
+      </c>
+      <c r="N38" s="32">
+        <v>0</v>
+      </c>
+      <c r="O38" s="32">
+        <v>0</v>
+      </c>
+      <c r="P38" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q38" s="45">
+        <v>0</v>
+      </c>
+      <c r="R38" s="32">
+        <v>0</v>
+      </c>
+      <c r="S38" s="32">
+        <v>0</v>
+      </c>
+      <c r="T38" s="32">
+        <v>0</v>
+      </c>
+      <c r="U38" s="32">
+        <v>0</v>
+      </c>
+      <c r="V38" s="32"/>
+    </row>
+    <row r="39" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
+      <c r="B39" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" s="42">
+        <v>0</v>
+      </c>
+      <c r="G39" s="32">
+        <v>0</v>
+      </c>
+      <c r="J39" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K39" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="32">
+        <v>0</v>
+      </c>
+      <c r="M39" s="32">
+        <v>0</v>
+      </c>
+      <c r="N39" s="32">
+        <v>0</v>
+      </c>
+      <c r="O39" s="32">
+        <v>0</v>
+      </c>
+      <c r="P39" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q39" s="45">
+        <v>0</v>
+      </c>
+      <c r="R39" s="32">
+        <v>0</v>
+      </c>
+      <c r="S39" s="32">
+        <v>0</v>
+      </c>
+      <c r="T39" s="32">
+        <v>0</v>
+      </c>
+      <c r="U39" s="32">
+        <v>0</v>
+      </c>
+      <c r="V39" s="32"/>
+    </row>
+    <row r="40" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" s="42">
+        <v>0</v>
+      </c>
+      <c r="G40" s="32">
+        <v>0</v>
+      </c>
+      <c r="J40" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K40" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="32">
+        <v>0</v>
+      </c>
+      <c r="M40" s="32">
+        <v>3</v>
+      </c>
+      <c r="N40" s="32">
+        <v>0</v>
+      </c>
+      <c r="O40" s="32">
+        <v>0</v>
+      </c>
+      <c r="P40" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q40" s="45">
+        <v>0</v>
+      </c>
+      <c r="R40" s="32">
+        <v>0</v>
+      </c>
+      <c r="S40" s="32">
+        <v>0</v>
+      </c>
+      <c r="T40" s="32">
+        <v>0</v>
+      </c>
+      <c r="U40" s="32">
+        <v>0</v>
+      </c>
+      <c r="V40" s="32"/>
+    </row>
+    <row r="41" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="46"/>
+      <c r="B41" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="42">
+        <v>0</v>
+      </c>
+      <c r="G41" s="32">
+        <v>0</v>
+      </c>
+      <c r="J41" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K41" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="32">
+        <v>0</v>
+      </c>
+      <c r="M41" s="32">
+        <v>0</v>
+      </c>
+      <c r="N41" s="32">
+        <v>0</v>
+      </c>
+      <c r="O41" s="32">
+        <v>0</v>
+      </c>
+      <c r="P41" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q41" s="45">
+        <v>0</v>
+      </c>
+      <c r="R41" s="32">
+        <v>0</v>
+      </c>
+      <c r="S41" s="32">
+        <v>0</v>
+      </c>
+      <c r="T41" s="32">
+        <v>0</v>
+      </c>
+      <c r="U41" s="32">
+        <v>0</v>
+      </c>
+      <c r="V41" s="32"/>
+    </row>
+    <row r="42" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="46"/>
+      <c r="B42" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" s="42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="32">
+        <v>0</v>
+      </c>
+      <c r="J42" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K42" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="32">
+        <v>0</v>
+      </c>
+      <c r="M42" s="32">
+        <v>0</v>
+      </c>
+      <c r="N42" s="32">
+        <v>0</v>
+      </c>
+      <c r="O42" s="32">
+        <v>0</v>
+      </c>
+      <c r="P42" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q42" s="45">
+        <v>0</v>
+      </c>
+      <c r="R42" s="32">
+        <v>0</v>
+      </c>
+      <c r="S42" s="32">
+        <v>0</v>
+      </c>
+      <c r="T42" s="32">
+        <v>0</v>
+      </c>
+      <c r="U42" s="32">
+        <v>0</v>
+      </c>
+      <c r="V42" s="32"/>
+    </row>
+    <row r="43" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="46"/>
+      <c r="B43" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" s="42">
+        <v>0</v>
+      </c>
+      <c r="G43" s="32">
+        <v>0</v>
+      </c>
+      <c r="J43" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K43" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="32">
+        <v>0</v>
+      </c>
+      <c r="M43" s="32">
+        <v>0</v>
+      </c>
+      <c r="N43" s="32">
+        <v>0</v>
+      </c>
+      <c r="O43" s="32">
+        <v>0</v>
+      </c>
+      <c r="P43" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q43" s="45">
+        <v>0</v>
+      </c>
+      <c r="R43" s="32">
+        <v>0</v>
+      </c>
+      <c r="S43" s="32">
+        <v>0</v>
+      </c>
+      <c r="T43" s="32">
+        <v>0</v>
+      </c>
+      <c r="U43" s="32">
+        <v>0</v>
+      </c>
+      <c r="V43" s="32"/>
+    </row>
+    <row r="44" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="46"/>
+      <c r="B44" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F44" s="42">
+        <v>0</v>
+      </c>
+      <c r="G44" s="32">
+        <v>0</v>
+      </c>
+      <c r="J44" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K44" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="32">
+        <v>0</v>
+      </c>
+      <c r="M44" s="32">
+        <v>0</v>
+      </c>
+      <c r="N44" s="32">
+        <v>0</v>
+      </c>
+      <c r="O44" s="32">
+        <v>0</v>
+      </c>
+      <c r="P44" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q44" s="45">
+        <v>0</v>
+      </c>
+      <c r="R44" s="32">
+        <v>0</v>
+      </c>
+      <c r="S44" s="32">
+        <v>0</v>
+      </c>
+      <c r="T44" s="32">
+        <v>0</v>
+      </c>
+      <c r="U44" s="32">
+        <v>0</v>
+      </c>
+      <c r="V44" s="32"/>
+    </row>
+    <row r="45" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="46"/>
+      <c r="B45" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="42">
+        <v>0</v>
+      </c>
+      <c r="G45" s="32">
+        <v>0</v>
+      </c>
+      <c r="J45" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K45" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="32">
+        <v>0</v>
+      </c>
+      <c r="M45" s="32">
+        <v>0</v>
+      </c>
+      <c r="N45" s="32">
+        <v>0</v>
+      </c>
+      <c r="O45" s="32">
+        <v>0</v>
+      </c>
+      <c r="P45" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q45" s="45">
+        <v>0</v>
+      </c>
+      <c r="R45" s="32">
+        <v>0</v>
+      </c>
+      <c r="S45" s="32">
+        <v>0</v>
+      </c>
+      <c r="T45" s="32">
+        <v>0</v>
+      </c>
+      <c r="U45" s="32">
+        <v>0</v>
+      </c>
+      <c r="V45" s="32"/>
+    </row>
+    <row r="46" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="46"/>
+      <c r="B46" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" s="42">
+        <v>0</v>
+      </c>
+      <c r="G46" s="32">
+        <v>0</v>
+      </c>
+      <c r="J46" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K46" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="32">
+        <v>0</v>
+      </c>
+      <c r="M46" s="32">
+        <v>0</v>
+      </c>
+      <c r="N46" s="32">
+        <v>0</v>
+      </c>
+      <c r="O46" s="32">
+        <v>0</v>
+      </c>
+      <c r="P46" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q46" s="45">
+        <v>0</v>
+      </c>
+      <c r="R46" s="32">
+        <v>0</v>
+      </c>
+      <c r="S46" s="32">
+        <v>0</v>
+      </c>
+      <c r="T46" s="32">
+        <v>0</v>
+      </c>
+      <c r="U46" s="32">
+        <v>0</v>
+      </c>
+      <c r="V46" s="32"/>
+    </row>
+    <row r="47" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
+      <c r="B47" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" s="42">
+        <v>0</v>
+      </c>
+      <c r="G47" s="32">
+        <v>0</v>
+      </c>
+      <c r="J47" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K47" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="32">
+        <v>0</v>
+      </c>
+      <c r="M47" s="32">
+        <v>0</v>
+      </c>
+      <c r="N47" s="32">
+        <v>0</v>
+      </c>
+      <c r="O47" s="32">
+        <v>0</v>
+      </c>
+      <c r="P47" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q47" s="45">
+        <v>0</v>
+      </c>
+      <c r="R47" s="32">
+        <v>0</v>
+      </c>
+      <c r="S47" s="32">
+        <v>0</v>
+      </c>
+      <c r="T47" s="32">
+        <v>0</v>
+      </c>
+      <c r="U47" s="32">
+        <v>0</v>
+      </c>
+      <c r="V47" s="32"/>
+    </row>
+    <row r="48" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="46"/>
+      <c r="B48" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48" s="42">
+        <v>0</v>
+      </c>
+      <c r="G48" s="32">
+        <v>0</v>
+      </c>
+      <c r="J48" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K48" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="32">
+        <v>0</v>
+      </c>
+      <c r="M48" s="32">
+        <v>0</v>
+      </c>
+      <c r="N48" s="32">
+        <v>0</v>
+      </c>
+      <c r="O48" s="32">
+        <v>0</v>
+      </c>
+      <c r="P48" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q48" s="45">
+        <v>0</v>
+      </c>
+      <c r="R48" s="32">
+        <v>0</v>
+      </c>
+      <c r="S48" s="32">
+        <v>0</v>
+      </c>
+      <c r="T48" s="32">
+        <v>0</v>
+      </c>
+      <c r="U48" s="32">
+        <v>0</v>
+      </c>
+      <c r="V48" s="32"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A49" s="46"/>
+      <c r="B49" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" s="42">
+        <v>0</v>
+      </c>
+      <c r="G49" s="32">
+        <v>0</v>
+      </c>
+      <c r="J49" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K49" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="32">
+        <v>0</v>
+      </c>
+      <c r="M49" s="32">
+        <v>0</v>
+      </c>
+      <c r="N49" s="32">
+        <v>0</v>
+      </c>
+      <c r="O49" s="32">
+        <v>0</v>
+      </c>
+      <c r="P49" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q49" s="45">
+        <v>0</v>
+      </c>
+      <c r="R49" s="32">
+        <v>0</v>
+      </c>
+      <c r="S49" s="32">
+        <v>0</v>
+      </c>
+      <c r="T49" s="32">
+        <v>0</v>
+      </c>
+      <c r="U49" s="32">
+        <v>0</v>
+      </c>
+      <c r="V49" s="32"/>
+    </row>
+    <row r="50" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="46"/>
+      <c r="B50" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F50" s="42">
+        <v>0</v>
+      </c>
+      <c r="G50" s="32">
+        <v>0</v>
+      </c>
+      <c r="J50" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K50" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="32">
+        <v>0</v>
+      </c>
+      <c r="M50" s="32">
+        <v>0</v>
+      </c>
+      <c r="N50" s="32">
+        <v>0</v>
+      </c>
+      <c r="O50" s="32">
+        <v>0</v>
+      </c>
+      <c r="P50" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q50" s="45">
+        <v>0</v>
+      </c>
+      <c r="R50" s="32">
+        <v>0</v>
+      </c>
+      <c r="S50" s="32">
+        <v>0</v>
+      </c>
+      <c r="T50" s="32">
+        <v>0</v>
+      </c>
+      <c r="U50" s="32">
+        <v>0</v>
+      </c>
+      <c r="V50" s="32"/>
+    </row>
+    <row r="51" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="46"/>
+      <c r="B51" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" s="42">
+        <v>0</v>
+      </c>
+      <c r="G51" s="32">
+        <v>0</v>
+      </c>
+      <c r="J51" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K51" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="32">
+        <v>0</v>
+      </c>
+      <c r="M51" s="32">
+        <v>0</v>
+      </c>
+      <c r="N51" s="32">
+        <v>0</v>
+      </c>
+      <c r="O51" s="32">
+        <v>0</v>
+      </c>
+      <c r="P51" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q51" s="45">
+        <v>0</v>
+      </c>
+      <c r="R51" s="32">
+        <v>0</v>
+      </c>
+      <c r="S51" s="32">
+        <v>0</v>
+      </c>
+      <c r="T51" s="32">
+        <v>0</v>
+      </c>
+      <c r="U51" s="32">
+        <v>0</v>
+      </c>
+      <c r="V51" s="32"/>
+    </row>
+    <row r="52" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="46"/>
+      <c r="B52" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F52" s="42">
+        <v>0</v>
+      </c>
+      <c r="G52" s="32">
+        <v>0</v>
+      </c>
+      <c r="J52" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K52" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="32">
+        <v>0</v>
+      </c>
+      <c r="M52" s="32">
+        <v>0</v>
+      </c>
+      <c r="N52" s="32">
+        <v>0</v>
+      </c>
+      <c r="O52" s="32">
+        <v>0</v>
+      </c>
+      <c r="P52" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q52" s="45">
+        <v>0</v>
+      </c>
+      <c r="R52" s="32">
+        <v>0</v>
+      </c>
+      <c r="S52" s="32">
+        <v>0</v>
+      </c>
+      <c r="T52" s="32">
+        <v>0</v>
+      </c>
+      <c r="U52" s="32">
+        <v>0</v>
+      </c>
+      <c r="V52" s="32"/>
+    </row>
+    <row r="53" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="46"/>
+      <c r="B53" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" s="42">
+        <v>0</v>
+      </c>
+      <c r="G53" s="32">
+        <v>0</v>
+      </c>
+      <c r="J53" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K53" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="32">
+        <v>0</v>
+      </c>
+      <c r="M53" s="32">
+        <v>0</v>
+      </c>
+      <c r="N53" s="32">
+        <v>0</v>
+      </c>
+      <c r="O53" s="32">
+        <v>0</v>
+      </c>
+      <c r="P53" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q53" s="45">
+        <v>0</v>
+      </c>
+      <c r="R53" s="32">
+        <v>0</v>
+      </c>
+      <c r="S53" s="32">
+        <v>0</v>
+      </c>
+      <c r="T53" s="32">
+        <v>0</v>
+      </c>
+      <c r="U53" s="32">
+        <v>0</v>
+      </c>
+      <c r="V53" s="32"/>
+    </row>
+    <row r="54" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="46"/>
+      <c r="B54" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" s="42">
+        <v>0</v>
+      </c>
+      <c r="G54" s="32">
+        <v>0</v>
+      </c>
+      <c r="J54" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K54" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="32">
+        <v>0</v>
+      </c>
+      <c r="M54" s="32">
+        <v>0</v>
+      </c>
+      <c r="N54" s="32">
+        <v>0</v>
+      </c>
+      <c r="O54" s="32">
+        <v>0</v>
+      </c>
+      <c r="P54" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q54" s="45">
+        <v>0</v>
+      </c>
+      <c r="R54" s="32">
+        <v>0</v>
+      </c>
+      <c r="S54" s="32">
+        <v>0</v>
+      </c>
+      <c r="T54" s="32">
+        <v>0</v>
+      </c>
+      <c r="U54" s="32">
+        <v>0</v>
+      </c>
+      <c r="V54" s="32"/>
+    </row>
+    <row r="55" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46"/>
+      <c r="B55" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" s="42">
+        <v>0</v>
+      </c>
+      <c r="G55" s="32">
+        <v>0</v>
+      </c>
+      <c r="J55" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K55" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="32">
+        <v>0</v>
+      </c>
+      <c r="M55" s="32">
+        <v>0</v>
+      </c>
+      <c r="N55" s="32">
+        <v>0</v>
+      </c>
+      <c r="O55" s="32">
+        <v>0</v>
+      </c>
+      <c r="P55" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q55" s="45">
+        <v>0</v>
+      </c>
+      <c r="R55" s="32">
+        <v>0</v>
+      </c>
+      <c r="S55" s="32">
+        <v>0</v>
+      </c>
+      <c r="T55" s="32">
+        <v>0</v>
+      </c>
+      <c r="U55" s="32">
+        <v>0</v>
+      </c>
+      <c r="V55" s="32"/>
+    </row>
+    <row r="56" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="46"/>
+      <c r="B56" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F56" s="42">
+        <v>0</v>
+      </c>
+      <c r="G56" s="32">
+        <v>0</v>
+      </c>
+      <c r="J56" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K56" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="32">
+        <v>0</v>
+      </c>
+      <c r="M56" s="32">
+        <v>0</v>
+      </c>
+      <c r="N56" s="32">
+        <v>0</v>
+      </c>
+      <c r="O56" s="32">
+        <v>0</v>
+      </c>
+      <c r="P56" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q56" s="45">
+        <v>0</v>
+      </c>
+      <c r="R56" s="32">
+        <v>0</v>
+      </c>
+      <c r="S56" s="32">
+        <v>0</v>
+      </c>
+      <c r="T56" s="32">
+        <v>0</v>
+      </c>
+      <c r="U56" s="32">
+        <v>0</v>
+      </c>
+      <c r="V56" s="32"/>
+    </row>
+    <row r="57" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="46"/>
+      <c r="B57" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" s="42">
+        <v>0</v>
+      </c>
+      <c r="G57" s="32">
+        <v>0</v>
+      </c>
+      <c r="J57" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K57" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="32">
+        <v>0</v>
+      </c>
+      <c r="M57" s="32">
+        <v>0</v>
+      </c>
+      <c r="N57" s="32">
+        <v>0</v>
+      </c>
+      <c r="O57" s="32">
+        <v>0</v>
+      </c>
+      <c r="P57" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q57" s="45">
+        <v>0</v>
+      </c>
+      <c r="R57" s="32">
+        <v>0</v>
+      </c>
+      <c r="S57" s="32">
+        <v>0</v>
+      </c>
+      <c r="T57" s="32">
+        <v>0</v>
+      </c>
+      <c r="U57" s="32">
+        <v>0</v>
+      </c>
+      <c r="V57" s="32"/>
+    </row>
+    <row r="58" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="46"/>
+      <c r="B58" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" s="42">
+        <v>0</v>
+      </c>
+      <c r="G58" s="32">
+        <v>0</v>
+      </c>
+      <c r="J58" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K58" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="32">
+        <v>0</v>
+      </c>
+      <c r="M58" s="32">
+        <v>0</v>
+      </c>
+      <c r="N58" s="32">
+        <v>0</v>
+      </c>
+      <c r="O58" s="32">
+        <v>0</v>
+      </c>
+      <c r="P58" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q58" s="45">
+        <v>0</v>
+      </c>
+      <c r="R58" s="32">
+        <v>0</v>
+      </c>
+      <c r="S58" s="32">
+        <v>0</v>
+      </c>
+      <c r="T58" s="32">
+        <v>0</v>
+      </c>
+      <c r="U58" s="32">
+        <v>0</v>
+      </c>
+      <c r="V58" s="32"/>
+    </row>
+    <row r="59" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="46"/>
+      <c r="B59" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" s="42">
+        <v>0</v>
+      </c>
+      <c r="G59" s="32">
+        <v>0</v>
+      </c>
+      <c r="J59" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K59" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="32">
+        <v>0</v>
+      </c>
+      <c r="M59" s="32">
+        <v>0</v>
+      </c>
+      <c r="N59" s="32">
+        <v>0</v>
+      </c>
+      <c r="O59" s="32">
+        <v>0</v>
+      </c>
+      <c r="P59" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q59" s="45">
+        <v>0</v>
+      </c>
+      <c r="R59" s="32">
+        <v>0</v>
+      </c>
+      <c r="S59" s="32">
+        <v>0</v>
+      </c>
+      <c r="T59" s="32">
+        <v>0</v>
+      </c>
+      <c r="U59" s="32">
+        <v>0</v>
+      </c>
+      <c r="V59" s="32"/>
+    </row>
+    <row r="60" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="46"/>
+      <c r="B60" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F60" s="42">
+        <v>0</v>
+      </c>
+      <c r="G60" s="32">
+        <v>0</v>
+      </c>
+      <c r="J60" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K60" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="32">
+        <v>0</v>
+      </c>
+      <c r="M60" s="32">
+        <v>0</v>
+      </c>
+      <c r="N60" s="32">
+        <v>0</v>
+      </c>
+      <c r="O60" s="32">
+        <v>0</v>
+      </c>
+      <c r="P60" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q60" s="45">
+        <v>0</v>
+      </c>
+      <c r="R60" s="32">
+        <v>0</v>
+      </c>
+      <c r="S60" s="32">
+        <v>0</v>
+      </c>
+      <c r="T60" s="32">
+        <v>0</v>
+      </c>
+      <c r="U60" s="32">
+        <v>0</v>
+      </c>
+      <c r="V60" s="32"/>
+    </row>
+    <row r="61" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="46"/>
+      <c r="B61" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F61" s="42">
+        <v>0</v>
+      </c>
+      <c r="G61" s="32">
+        <v>0</v>
+      </c>
+      <c r="J61" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K61" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="32">
+        <v>0</v>
+      </c>
+      <c r="M61" s="32">
+        <v>0</v>
+      </c>
+      <c r="N61" s="32">
+        <v>0</v>
+      </c>
+      <c r="O61" s="32">
+        <v>0</v>
+      </c>
+      <c r="P61" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q61" s="45">
+        <v>0</v>
+      </c>
+      <c r="R61" s="32">
+        <v>0</v>
+      </c>
+      <c r="S61" s="32">
+        <v>0</v>
+      </c>
+      <c r="T61" s="32">
+        <v>0</v>
+      </c>
+      <c r="U61" s="32">
+        <v>0</v>
+      </c>
+      <c r="V61" s="32"/>
+    </row>
+    <row r="62" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="46"/>
+      <c r="B62" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" s="42">
+        <v>0</v>
+      </c>
+      <c r="G62" s="32">
+        <v>0</v>
+      </c>
+      <c r="J62" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K62" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="32">
+        <v>0</v>
+      </c>
+      <c r="M62" s="32">
+        <v>0</v>
+      </c>
+      <c r="N62" s="32">
+        <v>0</v>
+      </c>
+      <c r="O62" s="32">
+        <v>0</v>
+      </c>
+      <c r="P62" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q62" s="45">
+        <v>0</v>
+      </c>
+      <c r="R62" s="32">
+        <v>0</v>
+      </c>
+      <c r="S62" s="32">
+        <v>0</v>
+      </c>
+      <c r="T62" s="32">
+        <v>0</v>
+      </c>
+      <c r="U62" s="32">
+        <v>0</v>
+      </c>
+      <c r="V62" s="32"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A63" s="46"/>
+      <c r="B63" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F63" s="42">
+        <v>0</v>
+      </c>
+      <c r="G63" s="32">
+        <v>0</v>
+      </c>
+      <c r="J63" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K63" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="32">
+        <v>0</v>
+      </c>
+      <c r="M63" s="32">
+        <v>0</v>
+      </c>
+      <c r="N63" s="32">
+        <v>0</v>
+      </c>
+      <c r="O63" s="32">
+        <v>0</v>
+      </c>
+      <c r="P63" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q63" s="45">
+        <v>0</v>
+      </c>
+      <c r="R63" s="32">
+        <v>0</v>
+      </c>
+      <c r="S63" s="32">
+        <v>0</v>
+      </c>
+      <c r="T63" s="32">
+        <v>0</v>
+      </c>
+      <c r="U63" s="32">
+        <v>0</v>
+      </c>
+      <c r="V63" s="32"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B64" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64" s="42">
+        <v>0</v>
+      </c>
+      <c r="G64" s="32">
+        <v>0</v>
+      </c>
+      <c r="J64" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K64" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="32">
         <v>2</v>
       </c>
-      <c r="H8" s="35">
-        <v>1</v>
-      </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35">
-        <v>0</v>
-      </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="38">
-        <v>40</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35">
-        <v>1</v>
-      </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35">
-        <v>0</v>
-      </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35">
-        <v>0.4</v>
-      </c>
-      <c r="P9" s="35">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B10" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="38">
-        <v>90</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35">
-        <v>1</v>
-      </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35">
-        <v>0</v>
-      </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="38">
-        <v>60</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35">
-        <v>1</v>
-      </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35">
-        <v>0</v>
-      </c>
-      <c r="N11" s="35">
-        <v>10</v>
-      </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="38">
-        <v>110</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35">
-        <v>1</v>
-      </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35">
-        <v>0</v>
-      </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="38">
-        <v>80</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35">
-        <v>1</v>
-      </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35">
-        <v>0</v>
-      </c>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="R13" s="35"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="38">
-        <v>0</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35">
-        <v>1</v>
-      </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35">
-        <v>0.2</v>
-      </c>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="38">
-        <v>70</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35">
-        <v>1</v>
-      </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B16" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="38">
-        <v>100</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35">
-        <v>1</v>
-      </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35">
-        <v>-10</v>
-      </c>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="38">
-        <v>90</v>
-      </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35">
-        <v>1</v>
-      </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17">
-        <v>0.5</v>
-      </c>
-      <c r="V17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B18" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="38">
-        <v>110</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35">
-        <v>1</v>
-      </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
-      <c r="B19" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="38">
-        <v>60</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35">
-        <v>1</v>
-      </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="38">
-        <v>120</v>
-      </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35">
-        <v>0.6</v>
-      </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="38">
-        <v>50</v>
-      </c>
-      <c r="G21" s="35">
-        <v>3</v>
-      </c>
-      <c r="H21" s="35">
-        <v>1</v>
-      </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="38">
-        <v>30</v>
-      </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35">
-        <v>1</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="38">
-        <v>80</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35">
-        <v>1</v>
-      </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35">
-        <v>10</v>
-      </c>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="38">
-        <v>60</v>
-      </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35">
-        <v>1</v>
-      </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35">
-        <v>0.2</v>
-      </c>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="38">
-        <v>90</v>
-      </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35">
-        <v>1</v>
-      </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
-      <c r="B26" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="38">
-        <v>0</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35">
-        <v>1</v>
-      </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="38">
-        <v>110</v>
-      </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35">
-        <v>1</v>
-      </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="38">
-        <v>70</v>
-      </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35">
-        <v>1</v>
-      </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B29" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="38">
-        <v>60</v>
-      </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35">
-        <v>1</v>
-      </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35">
-        <v>10</v>
-      </c>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="38">
-        <v>60</v>
-      </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35">
-        <v>1</v>
-      </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="38">
-        <v>0</v>
-      </c>
-      <c r="G31" s="35">
-        <v>5</v>
-      </c>
-      <c r="H31" s="35">
-        <v>1</v>
-      </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="38">
-        <v>50</v>
-      </c>
-      <c r="G32" s="35">
-        <v>1</v>
-      </c>
-      <c r="H32" s="35">
-        <v>1</v>
-      </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="38">
-        <v>20</v>
-      </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35">
-        <v>1</v>
-      </c>
-      <c r="I33" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="40"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="C35" s="38" t="s">
+      <c r="M64" s="32">
+        <v>0</v>
+      </c>
+      <c r="N64" s="32">
+        <v>0</v>
+      </c>
+      <c r="O64" s="32">
+        <v>0</v>
+      </c>
+      <c r="P64" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q64" s="45">
+        <v>0</v>
+      </c>
+      <c r="R64" s="32">
+        <v>0</v>
+      </c>
+      <c r="S64" s="32">
+        <v>0</v>
+      </c>
+      <c r="T64" s="32">
+        <v>0</v>
+      </c>
+      <c r="U64" s="32">
+        <v>0</v>
+      </c>
+      <c r="V64" s="32"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B65" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="C65" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="D35" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" s="35" t="s">
+      <c r="D65" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="E65" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="F35" s="38">
-        <v>0</v>
-      </c>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="C36" s="38" t="s">
+      <c r="F65" s="42">
+        <v>0</v>
+      </c>
+      <c r="G65" s="32">
+        <v>0</v>
+      </c>
+      <c r="J65" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="K65" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="32">
+        <v>0</v>
+      </c>
+      <c r="M65" s="32">
+        <v>0</v>
+      </c>
+      <c r="N65" s="32">
+        <v>0</v>
+      </c>
+      <c r="O65" s="32">
+        <v>0</v>
+      </c>
+      <c r="P65" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q65" s="45">
+        <v>0</v>
+      </c>
+      <c r="R65" s="32">
+        <v>0</v>
+      </c>
+      <c r="S65" s="32">
+        <v>0</v>
+      </c>
+      <c r="T65" s="32">
+        <v>0</v>
+      </c>
+      <c r="U65" s="32">
+        <v>0</v>
+      </c>
+      <c r="V65" s="32"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B66" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C66" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="D36" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="E36" s="35" t="s">
+      <c r="D66" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="E66" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="38">
-        <v>0</v>
-      </c>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="38" t="s">
+      <c r="F66" s="42">
+        <v>0</v>
+      </c>
+      <c r="G66" s="32">
+        <v>0</v>
+      </c>
+      <c r="J66" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="K66" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="32">
+        <v>0</v>
+      </c>
+      <c r="M66" s="32">
+        <v>0</v>
+      </c>
+      <c r="N66" s="32">
+        <v>0</v>
+      </c>
+      <c r="O66" s="32">
+        <v>0</v>
+      </c>
+      <c r="P66" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q66" s="45">
+        <v>0</v>
+      </c>
+      <c r="R66" s="32">
+        <v>0</v>
+      </c>
+      <c r="S66" s="32">
+        <v>0</v>
+      </c>
+      <c r="T66" s="32">
+        <v>0</v>
+      </c>
+      <c r="U66" s="32">
+        <v>0</v>
+      </c>
+      <c r="V66" s="32"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B67" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="D37" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E37" s="35" t="s">
+      <c r="D67" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E67" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="F37" s="38">
-        <v>0</v>
-      </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" s="38" t="s">
+      <c r="F67" s="42">
+        <v>0</v>
+      </c>
+      <c r="G67" s="32">
+        <v>0</v>
+      </c>
+      <c r="J67" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="K67" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="32">
+        <v>0</v>
+      </c>
+      <c r="M67" s="32">
+        <v>0</v>
+      </c>
+      <c r="N67" s="32">
+        <v>0</v>
+      </c>
+      <c r="O67" s="32">
+        <v>0</v>
+      </c>
+      <c r="P67" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q67" s="45">
+        <v>0</v>
+      </c>
+      <c r="R67" s="32">
+        <v>0</v>
+      </c>
+      <c r="S67" s="32">
+        <v>0</v>
+      </c>
+      <c r="T67" s="32">
+        <v>0</v>
+      </c>
+      <c r="U67" s="32">
+        <v>0</v>
+      </c>
+      <c r="V67" s="32"/>
+    </row>
+    <row r="68" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="46"/>
+      <c r="B68" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="E38" s="35" t="s">
+      <c r="D68" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="E68" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="F38" s="38">
-        <v>0</v>
-      </c>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="36" t="s">
+      <c r="F68" s="42">
+        <v>0</v>
+      </c>
+      <c r="G68" s="32">
+        <v>0</v>
+      </c>
+      <c r="J68" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K68" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" s="32">
+        <v>0</v>
+      </c>
+      <c r="M68" s="32">
+        <v>0</v>
+      </c>
+      <c r="N68" s="32">
+        <v>0</v>
+      </c>
+      <c r="O68" s="32">
+        <v>0</v>
+      </c>
+      <c r="P68" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="38" t="s">
+      <c r="Q68" s="45">
+        <v>0</v>
+      </c>
+      <c r="R68" s="32">
+        <v>0</v>
+      </c>
+      <c r="S68" s="32">
+        <v>0</v>
+      </c>
+      <c r="T68" s="32">
+        <v>0</v>
+      </c>
+      <c r="U68" s="32">
+        <v>0</v>
+      </c>
+      <c r="V68" s="32"/>
+    </row>
+    <row r="69" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="46"/>
+      <c r="B69" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="C69" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="E39" s="35" t="s">
+      <c r="D69" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="E69" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="F39" s="38">
-        <v>0</v>
-      </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F40" s="38">
-        <v>0</v>
-      </c>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F41" s="38">
-        <v>0</v>
-      </c>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F42" s="38">
-        <v>0</v>
-      </c>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F43" s="38">
-        <v>0</v>
-      </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F44" s="38">
-        <v>0</v>
-      </c>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="C45" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F45" s="38">
-        <v>0</v>
-      </c>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F46" s="38">
-        <v>0</v>
-      </c>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F47" s="38">
-        <v>0</v>
-      </c>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F48" s="38">
-        <v>0</v>
-      </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F49" s="38">
-        <v>0</v>
-      </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="E50" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F50" s="38">
-        <v>0</v>
-      </c>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="C51" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F51" s="38">
-        <v>0</v>
-      </c>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="C52" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F52" s="38">
-        <v>0</v>
-      </c>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="C53" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F53" s="38">
-        <v>0</v>
-      </c>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="C54" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F54" s="38">
-        <v>0</v>
-      </c>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="C55" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F55" s="38">
-        <v>0</v>
-      </c>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="C56" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F56" s="38">
-        <v>0</v>
-      </c>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="C57" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="E57" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F57" s="38">
-        <v>0</v>
-      </c>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="C58" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F58" s="38">
-        <v>0</v>
-      </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C59" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D59" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="E59" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F59" s="38">
-        <v>0</v>
-      </c>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="C60" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D60" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="E60" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F60" s="38">
-        <v>0</v>
-      </c>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D61" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F61" s="38">
-        <v>0</v>
-      </c>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="C62" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D62" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F62" s="38">
-        <v>0</v>
-      </c>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="C63" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D63" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F63" s="38">
-        <v>0</v>
-      </c>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="C64" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="E64" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F64" s="38">
-        <v>0</v>
-      </c>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="C65" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D65" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F65" s="38">
-        <v>0</v>
-      </c>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="C66" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F66" s="38">
-        <v>0</v>
-      </c>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="C67" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D67" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="E67" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F67" s="38">
-        <v>0</v>
-      </c>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="C68" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D68" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="E68" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F68" s="38">
-        <v>0</v>
-      </c>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B69" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="C69" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D69" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="E69" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F69" s="38">
-        <v>0</v>
-      </c>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="C70" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D70" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="E70" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I71" s="34"/>
+      <c r="F69" s="39">
+        <v>0</v>
+      </c>
+      <c r="G69" s="32">
+        <v>0</v>
+      </c>
+      <c r="J69" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K69" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="32">
+        <v>0</v>
+      </c>
+      <c r="M69" s="32">
+        <v>0</v>
+      </c>
+      <c r="N69" s="32">
+        <v>0</v>
+      </c>
+      <c r="O69" s="32">
+        <v>0</v>
+      </c>
+      <c r="P69" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q69" s="45">
+        <v>0</v>
+      </c>
+      <c r="R69" s="32">
+        <v>0</v>
+      </c>
+      <c r="S69" s="32">
+        <v>0</v>
+      </c>
+      <c r="T69" s="32">
+        <v>0</v>
+      </c>
+      <c r="U69" s="32">
+        <v>0</v>
+      </c>
+      <c r="V69" s="32"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S70" s="32"/>
+      <c r="T70" s="32"/>
+      <c r="U70" s="32"/>
+      <c r="V70" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E834B48-D33D-4D97-81D0-0DA9C6EA7940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF2B830-A120-45EF-BBFF-C3D43B7053ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,61 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={62FAB9AC-CF6D-4984-8551-85112BDF44AB}</author>
+    <author>chenjun</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{62FAB9AC-CF6D-4984-8551-85112BDF44AB}">
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{492BFE4B-642B-451C-B344-1C2B6B7E3E29}">
       <text>
-        <t xml:space="preserve">[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
-注释:
-    有颜色的就是暂时不能配表实现的
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>chenjun:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+蓝色表示完全不能配表实现
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A42" authorId="0" shapeId="0" xr:uid="{B35B2CC7-492C-45EA-BA73-0BB65F1FFC44}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>chenjun:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+绿色表示部分可以部分配表实现
+</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -1055,23 +1100,23 @@
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>bool</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>remove_when_round_end</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>是否回合结束时消失</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>守护</t>
@@ -1111,43 +1156,43 @@
   </si>
   <si>
     <t>己方+10速度，对方-10速度</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>免疫伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>小于50%生命值退出</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>入场时所有属性1.5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>下一次技能伤害1.5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>60%不会命中</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>气势披带</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>0.5伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>技能必定先攻击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BattleBuffEnum</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BattleBuffEnum</t>
@@ -1174,18 +1219,18 @@
   </si>
   <si>
     <t>is_env_buff</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>是否是场地buff</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1257,12 +1302,27 @@
     </font>
     <font>
       <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1278,6 +1338,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1496,14 +1562,14 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1518,99 +1584,100 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -1637,9 +1704,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="卷卷 陈" id="{CA0D23FA-B3CA-41E8-BC11-E4D91B2D69C7}" userId="dfc2dc36850357a5" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1898,15 +1963,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A19" dT="2024-08-01T15:09:15.68" personId="{CA0D23FA-B3CA-41E8-BC11-E4D91B2D69C7}" id="{62FAB9AC-CF6D-4984-8551-85112BDF44AB}">
-    <text xml:space="preserve">有颜色的就是暂时不能配表实现的
-</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
@@ -2819,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4490,7 +4546,7 @@
       <c r="X25" s="25"/>
     </row>
     <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="30" t="s">
         <v>150</v>
       </c>
@@ -5494,7 +5550,7 @@
       <c r="X41" s="25"/>
     </row>
     <row r="42" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="30" t="s">
         <v>185</v>
       </c>
@@ -5535,7 +5591,7 @@
         <v>261</v>
       </c>
       <c r="S42" s="38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T42" s="25">
         <v>0</v>
@@ -7130,8 +7186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563A30BF-B984-442D-9AC0-D471C6E27D28}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7336,7 +7392,7 @@
       <c r="B15" s="40"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF2B830-A120-45EF-BBFF-C3D43B7053ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6974E87-BFA0-478B-ACE9-248E28D0D1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="352">
   <si>
     <t>##var</t>
   </si>
@@ -1131,10 +1131,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>起风</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>寻找弱点</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1171,10 +1167,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>下一次技能伤害1.5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>60%不会命中</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1224,6 +1216,58 @@
   <si>
     <t>是否是场地buff</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>def_trainer_buff_after_use</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>self_trainer_buff_after_use</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>给自己训练家上的Buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝茶</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺风</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆风</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘-10速度</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10速度</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺风</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>self_trainer_buff_after_use_count</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>def_trainer_buff_after_use_count</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>给对面训练家的buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆风</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1569,7 +1613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1678,6 +1722,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -2873,10 +2921,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA70"/>
+  <dimension ref="A1:AE70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2888,25 +2936,29 @@
     <col min="5" max="5" width="9.625" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
     <col min="7" max="8" width="7" style="25" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="25" customWidth="1"/>
     <col min="10" max="10" width="7" style="25" customWidth="1"/>
-    <col min="11" max="11" width="7.25" style="25" customWidth="1"/>
-    <col min="12" max="12" width="17.625" style="25" customWidth="1"/>
-    <col min="13" max="15" width="7.25" style="25" customWidth="1"/>
-    <col min="16" max="17" width="12.75" style="25" customWidth="1"/>
-    <col min="18" max="18" width="11.625" customWidth="1"/>
-    <col min="19" max="19" width="16.25" customWidth="1"/>
-    <col min="20" max="20" width="14.375" customWidth="1"/>
-    <col min="21" max="21" width="13.25" customWidth="1"/>
-    <col min="22" max="22" width="11.125" customWidth="1"/>
-    <col min="23" max="23" width="19.5" customWidth="1"/>
-    <col min="24" max="24" width="18.875" customWidth="1"/>
-    <col min="25" max="25" width="12.75" customWidth="1"/>
-    <col min="26" max="26" width="16.25" customWidth="1"/>
-    <col min="27" max="27" width="15.75" style="33" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="25" customWidth="1"/>
+    <col min="13" max="13" width="29.75" style="25" customWidth="1"/>
+    <col min="14" max="14" width="7" style="25" customWidth="1"/>
+    <col min="15" max="15" width="7.25" style="25" customWidth="1"/>
+    <col min="16" max="16" width="17.625" style="25" customWidth="1"/>
+    <col min="17" max="19" width="7.25" style="25" customWidth="1"/>
+    <col min="20" max="21" width="12.75" style="25" customWidth="1"/>
+    <col min="22" max="22" width="11.625" customWidth="1"/>
+    <col min="23" max="23" width="16.25" customWidth="1"/>
+    <col min="24" max="24" width="14.375" customWidth="1"/>
+    <col min="25" max="25" width="13.25" customWidth="1"/>
+    <col min="26" max="26" width="11.125" customWidth="1"/>
+    <col min="27" max="27" width="19.5" customWidth="1"/>
+    <col min="28" max="28" width="18.875" customWidth="1"/>
+    <col min="29" max="29" width="12.75" customWidth="1"/>
+    <col min="30" max="30" width="16.25" customWidth="1"/>
+    <col min="31" max="31" width="15.75" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -2929,67 +2981,79 @@
         <v>97</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="I1" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="L1" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="M1" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="N1" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="O1" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="S1" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="T1" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="U1" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="V1" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="W1" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="X1" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="Y1" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="Z1" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="AA1" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="AB1" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="AC1" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="Z1" s="31" t="s">
+      <c r="AD1" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AE1" s="26" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -2998,17 +3062,17 @@
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
       <c r="F2" s="32"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
       <c r="X2" s="25"/>
       <c r="Y2" s="25"/>
-      <c r="Z2" s="32"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="32"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>16</v>
       </c>
@@ -3034,36 +3098,36 @@
         <v>267</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="J3" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="N3" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="O3" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="P3" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="Q3" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="O3" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="26" t="s">
         <v>267</v>
       </c>
       <c r="T3" s="26" t="s">
@@ -3072,26 +3136,38 @@
       <c r="U3" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="V3" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="W3" s="26" t="s">
+      <c r="V3" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="W3" s="36" t="s">
         <v>267</v>
       </c>
       <c r="X3" s="26" t="s">
         <v>264</v>
       </c>
       <c r="Y3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z3" s="26" t="s">
         <v>264</v>
-      </c>
-      <c r="Z3" s="31" t="s">
-        <v>277</v>
       </c>
       <c r="AA3" s="26" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB3" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC3" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD3" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE3" s="26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>23</v>
       </c>
@@ -3100,17 +3176,17 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="32"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
       <c r="X4" s="25"/>
       <c r="Y4" s="25"/>
-      <c r="Z4" s="32"/>
-    </row>
-    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="32"/>
+    </row>
+    <row r="5" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>24</v>
       </c>
@@ -3133,67 +3209,79 @@
         <v>276</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="J5" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="N5" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="O5" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="P5" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="Q5" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="N5" s="26" t="s">
+      <c r="R5" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="O5" s="26" t="s">
+      <c r="S5" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="T5" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="Q5" s="26" t="s">
+      <c r="U5" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="V5" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="W5" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="X5" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="U5" s="26" t="s">
+      <c r="Y5" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="V5" s="26" t="s">
+      <c r="Z5" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="W5" s="26" t="s">
+      <c r="AA5" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="X5" s="26" t="s">
+      <c r="AB5" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="Y5" s="26" t="s">
+      <c r="AC5" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="Z5" s="31" t="s">
+      <c r="AD5" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="AA5" s="34" t="s">
+      <c r="AE5" s="34" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>107</v>
       </c>
@@ -3212,56 +3300,62 @@
       <c r="G6" s="25">
         <v>0</v>
       </c>
-      <c r="H6" s="25">
-        <v>0</v>
-      </c>
       <c r="I6" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J6" s="25">
+      <c r="K6" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N6" s="25">
         <v>1</v>
       </c>
-      <c r="L6" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M6" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="25">
-        <v>0</v>
-      </c>
-      <c r="O6" s="25">
-        <v>0</v>
-      </c>
-      <c r="P6" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="25">
-        <v>0</v>
-      </c>
-      <c r="R6" s="37" t="s">
+      <c r="P6" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q6" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="25">
+        <v>0</v>
+      </c>
+      <c r="S6" s="25">
+        <v>0</v>
+      </c>
+      <c r="T6" s="25">
+        <v>0</v>
+      </c>
+      <c r="U6" s="25">
+        <v>0</v>
+      </c>
+      <c r="V6" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S6" s="38">
-        <v>0</v>
-      </c>
-      <c r="T6" s="25">
-        <v>0</v>
-      </c>
-      <c r="U6" s="25">
-        <v>0</v>
-      </c>
-      <c r="V6" s="25">
-        <v>0</v>
-      </c>
-      <c r="W6" s="25">
+      <c r="W6" s="38">
         <v>0</v>
       </c>
       <c r="X6" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="30" t="s">
         <v>110</v>
       </c>
@@ -3280,56 +3374,62 @@
       <c r="G7" s="25">
         <v>1</v>
       </c>
-      <c r="H7" s="25">
-        <v>0</v>
-      </c>
       <c r="I7" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J7" s="25">
+      <c r="K7" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N7" s="25">
         <v>1</v>
       </c>
-      <c r="L7" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M7" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="25">
-        <v>0</v>
-      </c>
-      <c r="O7" s="25">
-        <v>0</v>
-      </c>
-      <c r="P7" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="25">
-        <v>0</v>
-      </c>
-      <c r="R7" s="37" t="s">
+      <c r="P7" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="25">
+        <v>0</v>
+      </c>
+      <c r="S7" s="25">
+        <v>0</v>
+      </c>
+      <c r="T7" s="25">
+        <v>0</v>
+      </c>
+      <c r="U7" s="25">
+        <v>0</v>
+      </c>
+      <c r="V7" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S7" s="38">
-        <v>0</v>
-      </c>
-      <c r="T7" s="25">
-        <v>0</v>
-      </c>
-      <c r="U7" s="25">
-        <v>0</v>
-      </c>
-      <c r="V7" s="25">
-        <v>0</v>
-      </c>
-      <c r="W7" s="25">
+      <c r="W7" s="38">
         <v>0</v>
       </c>
       <c r="X7" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y7" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
         <v>112</v>
       </c>
@@ -3348,56 +3448,62 @@
       <c r="G8" s="25">
         <v>2</v>
       </c>
-      <c r="H8" s="25">
-        <v>0</v>
-      </c>
       <c r="I8" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J8" s="25">
+      <c r="K8" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N8" s="25">
         <v>1</v>
       </c>
-      <c r="L8" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M8" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="25">
-        <v>0</v>
-      </c>
-      <c r="O8" s="25">
-        <v>0</v>
-      </c>
-      <c r="P8" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>0</v>
-      </c>
-      <c r="R8" s="37" t="s">
+      <c r="P8" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="25">
+        <v>0</v>
+      </c>
+      <c r="S8" s="25">
+        <v>0</v>
+      </c>
+      <c r="T8" s="25">
+        <v>0</v>
+      </c>
+      <c r="U8" s="25">
+        <v>0</v>
+      </c>
+      <c r="V8" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S8" s="38">
-        <v>0</v>
-      </c>
-      <c r="T8" s="25">
-        <v>0</v>
-      </c>
-      <c r="U8" s="25">
-        <v>0</v>
-      </c>
-      <c r="V8" s="25">
-        <v>0</v>
-      </c>
-      <c r="W8" s="25">
+      <c r="W8" s="38">
         <v>0</v>
       </c>
       <c r="X8" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
         <v>114</v>
       </c>
@@ -3416,56 +3522,62 @@
       <c r="G9" s="25">
         <v>0</v>
       </c>
-      <c r="H9" s="25">
-        <v>0</v>
-      </c>
       <c r="I9" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J9" s="25">
+      <c r="K9" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N9" s="25">
         <v>1</v>
       </c>
-      <c r="L9" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M9" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="25">
-        <v>0</v>
-      </c>
-      <c r="O9" s="25">
-        <v>0</v>
-      </c>
-      <c r="P9" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="25">
-        <v>0</v>
-      </c>
-      <c r="R9" s="37" t="s">
+      <c r="P9" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="25">
+        <v>0</v>
+      </c>
+      <c r="S9" s="25">
+        <v>0</v>
+      </c>
+      <c r="T9" s="25">
+        <v>0</v>
+      </c>
+      <c r="U9" s="25">
+        <v>0</v>
+      </c>
+      <c r="V9" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S9" s="38">
-        <v>0</v>
-      </c>
-      <c r="T9" s="25">
-        <v>0</v>
-      </c>
-      <c r="U9" s="25">
-        <v>0</v>
-      </c>
-      <c r="V9" s="25">
+      <c r="W9" s="38">
+        <v>0</v>
+      </c>
+      <c r="X9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="25">
         <v>0.4</v>
       </c>
-      <c r="W9" s="25">
+      <c r="AA9" s="25">
         <v>2</v>
       </c>
-      <c r="X9" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB9" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
         <v>116</v>
       </c>
@@ -3484,56 +3596,62 @@
       <c r="G10" s="25">
         <v>0</v>
       </c>
-      <c r="H10" s="25">
-        <v>0</v>
-      </c>
       <c r="I10" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J10" s="25">
+      <c r="K10" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L10" s="25">
+        <v>0</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N10" s="25">
         <v>1</v>
       </c>
-      <c r="L10" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M10" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" s="25">
-        <v>0</v>
-      </c>
-      <c r="O10" s="25">
-        <v>0</v>
-      </c>
-      <c r="P10" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="25">
-        <v>0</v>
-      </c>
-      <c r="R10" s="37" t="s">
+      <c r="P10" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q10" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" s="25">
+        <v>0</v>
+      </c>
+      <c r="S10" s="25">
+        <v>0</v>
+      </c>
+      <c r="T10" s="25">
+        <v>0</v>
+      </c>
+      <c r="U10" s="25">
+        <v>0</v>
+      </c>
+      <c r="V10" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S10" s="38">
-        <v>0</v>
-      </c>
-      <c r="T10" s="25">
-        <v>0</v>
-      </c>
-      <c r="U10" s="25">
-        <v>0</v>
-      </c>
-      <c r="V10" s="25">
-        <v>0</v>
-      </c>
-      <c r="W10" s="25">
+      <c r="W10" s="38">
         <v>0</v>
       </c>
       <c r="X10" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
         <v>118</v>
       </c>
@@ -3552,56 +3670,62 @@
       <c r="G11" s="25">
         <v>0</v>
       </c>
-      <c r="H11" s="25">
-        <v>0</v>
-      </c>
       <c r="I11" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J11" s="25">
+      <c r="K11" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N11" s="25">
         <v>1</v>
       </c>
-      <c r="L11" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M11" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" s="25">
-        <v>0</v>
-      </c>
-      <c r="O11" s="25">
-        <v>0</v>
-      </c>
-      <c r="P11" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="25">
-        <v>0</v>
-      </c>
-      <c r="R11" s="37" t="s">
+      <c r="P11" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" s="25">
+        <v>0</v>
+      </c>
+      <c r="S11" s="25">
+        <v>0</v>
+      </c>
+      <c r="T11" s="25">
+        <v>0</v>
+      </c>
+      <c r="U11" s="25">
+        <v>0</v>
+      </c>
+      <c r="V11" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S11" s="38">
-        <v>0</v>
-      </c>
-      <c r="T11" s="25">
-        <v>0</v>
-      </c>
-      <c r="U11" s="25">
+      <c r="W11" s="38">
+        <v>0</v>
+      </c>
+      <c r="X11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="25">
         <v>10</v>
       </c>
-      <c r="V11" s="25">
-        <v>0</v>
-      </c>
-      <c r="W11" s="25">
-        <v>0</v>
-      </c>
-      <c r="X11" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
         <v>120</v>
       </c>
@@ -3620,56 +3744,62 @@
       <c r="G12" s="25">
         <v>0</v>
       </c>
-      <c r="H12" s="25">
-        <v>0</v>
-      </c>
       <c r="I12" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J12" s="25">
+      <c r="K12" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L12" s="25">
+        <v>0</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N12" s="25">
         <v>1</v>
       </c>
-      <c r="L12" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M12" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" s="25">
-        <v>0</v>
-      </c>
-      <c r="O12" s="25">
-        <v>0</v>
-      </c>
-      <c r="P12" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="25">
-        <v>0</v>
-      </c>
-      <c r="R12" s="37" t="s">
+      <c r="P12" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q12" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" s="25">
+        <v>0</v>
+      </c>
+      <c r="S12" s="25">
+        <v>0</v>
+      </c>
+      <c r="T12" s="25">
+        <v>0</v>
+      </c>
+      <c r="U12" s="25">
+        <v>0</v>
+      </c>
+      <c r="V12" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S12" s="38">
-        <v>0</v>
-      </c>
-      <c r="T12" s="25">
-        <v>0</v>
-      </c>
-      <c r="U12" s="25">
-        <v>0</v>
-      </c>
-      <c r="V12" s="25">
-        <v>0</v>
-      </c>
-      <c r="W12" s="25">
+      <c r="W12" s="38">
         <v>0</v>
       </c>
       <c r="X12" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
         <v>122</v>
       </c>
@@ -3688,56 +3818,62 @@
       <c r="G13" s="25">
         <v>0</v>
       </c>
-      <c r="H13" s="25">
-        <v>0</v>
-      </c>
       <c r="I13" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J13" s="25">
+      <c r="K13" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L13" s="25">
+        <v>0</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N13" s="25">
         <v>1</v>
       </c>
-      <c r="L13" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M13" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" s="25">
-        <v>0</v>
-      </c>
-      <c r="O13" s="25">
-        <v>0</v>
-      </c>
-      <c r="P13" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="25">
-        <v>0</v>
-      </c>
-      <c r="R13" s="37" t="s">
+      <c r="P13" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q13" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" s="25">
+        <v>0</v>
+      </c>
+      <c r="S13" s="25">
+        <v>0</v>
+      </c>
+      <c r="T13" s="25">
+        <v>0</v>
+      </c>
+      <c r="U13" s="25">
+        <v>0</v>
+      </c>
+      <c r="V13" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S13" s="38">
-        <v>0</v>
-      </c>
-      <c r="T13" s="25">
-        <v>0</v>
-      </c>
-      <c r="U13" s="25">
-        <v>0</v>
-      </c>
-      <c r="V13" s="25">
-        <v>0</v>
-      </c>
-      <c r="W13" s="25">
+      <c r="W13" s="38">
         <v>0</v>
       </c>
       <c r="X13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
         <v>124</v>
       </c>
@@ -3756,56 +3892,62 @@
       <c r="G14" s="25">
         <v>0</v>
       </c>
-      <c r="H14" s="25">
-        <v>0</v>
-      </c>
       <c r="I14" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J14" s="25">
+      <c r="K14" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L14" s="25">
+        <v>0</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N14" s="25">
         <v>1</v>
       </c>
-      <c r="L14" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M14" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" s="25">
-        <v>0</v>
-      </c>
-      <c r="O14" s="25">
-        <v>0</v>
-      </c>
-      <c r="P14" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="25">
-        <v>0</v>
-      </c>
-      <c r="R14" s="37" t="s">
+      <c r="P14" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q14" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" s="25">
+        <v>0</v>
+      </c>
+      <c r="S14" s="25">
+        <v>0</v>
+      </c>
+      <c r="T14" s="25">
+        <v>0</v>
+      </c>
+      <c r="U14" s="25">
+        <v>0</v>
+      </c>
+      <c r="V14" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S14" s="38">
-        <v>0</v>
-      </c>
-      <c r="T14" s="25">
+      <c r="W14" s="38">
+        <v>0</v>
+      </c>
+      <c r="X14" s="25">
         <v>0.2</v>
       </c>
-      <c r="U14" s="25">
-        <v>0</v>
-      </c>
-      <c r="V14" s="25">
-        <v>0</v>
-      </c>
-      <c r="W14" s="25">
-        <v>0</v>
-      </c>
-      <c r="X14" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y14" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
         <v>127</v>
       </c>
@@ -3824,56 +3966,62 @@
       <c r="G15" s="25">
         <v>0</v>
       </c>
-      <c r="H15" s="25">
-        <v>0</v>
-      </c>
       <c r="I15" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J15" s="25">
+      <c r="K15" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L15" s="25">
+        <v>0</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N15" s="25">
         <v>1</v>
       </c>
-      <c r="L15" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M15" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" s="25">
-        <v>0</v>
-      </c>
-      <c r="O15" s="25">
-        <v>0</v>
-      </c>
-      <c r="P15" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="25">
-        <v>0</v>
-      </c>
-      <c r="R15" s="37" t="s">
+      <c r="P15" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" s="25">
+        <v>0</v>
+      </c>
+      <c r="S15" s="25">
+        <v>0</v>
+      </c>
+      <c r="T15" s="25">
+        <v>0</v>
+      </c>
+      <c r="U15" s="25">
+        <v>0</v>
+      </c>
+      <c r="V15" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S15" s="38">
-        <v>0</v>
-      </c>
-      <c r="T15" s="25">
-        <v>0</v>
-      </c>
-      <c r="U15" s="25">
-        <v>0</v>
-      </c>
-      <c r="V15" s="25">
-        <v>0</v>
-      </c>
-      <c r="W15" s="25">
+      <c r="W15" s="38">
         <v>0</v>
       </c>
       <c r="X15" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
         <v>129</v>
       </c>
@@ -3892,56 +4040,62 @@
       <c r="G16" s="25">
         <v>0</v>
       </c>
-      <c r="H16" s="25">
-        <v>0</v>
-      </c>
       <c r="I16" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J16" s="25">
+      <c r="K16" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L16" s="25">
+        <v>0</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N16" s="25">
         <v>1</v>
       </c>
-      <c r="L16" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M16" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" s="25">
-        <v>0</v>
-      </c>
-      <c r="O16" s="25">
-        <v>0</v>
-      </c>
-      <c r="P16" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="25">
-        <v>0</v>
-      </c>
-      <c r="R16" s="37" t="s">
+      <c r="P16" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" s="25">
+        <v>0</v>
+      </c>
+      <c r="S16" s="25">
+        <v>0</v>
+      </c>
+      <c r="T16" s="25">
+        <v>0</v>
+      </c>
+      <c r="U16" s="25">
+        <v>0</v>
+      </c>
+      <c r="V16" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S16" s="38">
-        <v>0</v>
-      </c>
-      <c r="T16" s="25">
-        <v>0</v>
-      </c>
-      <c r="U16" s="25">
+      <c r="W16" s="38">
+        <v>0</v>
+      </c>
+      <c r="X16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="25">
         <v>-10</v>
       </c>
-      <c r="V16" s="25">
-        <v>0</v>
-      </c>
-      <c r="W16" s="25">
-        <v>0</v>
-      </c>
-      <c r="X16" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
         <v>131</v>
       </c>
@@ -3960,62 +4114,68 @@
       <c r="G17" s="25">
         <v>0</v>
       </c>
-      <c r="H17" s="25">
-        <v>0</v>
-      </c>
       <c r="I17" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J17" s="25">
+      <c r="K17" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L17" s="25">
+        <v>0</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N17" s="25">
         <v>1</v>
       </c>
-      <c r="L17" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M17" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" s="25">
-        <v>0</v>
-      </c>
-      <c r="O17" s="25">
-        <v>0</v>
-      </c>
-      <c r="P17" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="25">
-        <v>0</v>
-      </c>
-      <c r="R17" s="37" t="s">
+      <c r="P17" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q17" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" s="25">
+        <v>0</v>
+      </c>
+      <c r="S17" s="25">
+        <v>0</v>
+      </c>
+      <c r="T17" s="25">
+        <v>0</v>
+      </c>
+      <c r="U17" s="25">
+        <v>0</v>
+      </c>
+      <c r="V17" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S17" s="38">
-        <v>0</v>
-      </c>
-      <c r="T17" s="25">
-        <v>0</v>
-      </c>
-      <c r="U17" s="25">
-        <v>0</v>
-      </c>
-      <c r="V17" s="25">
-        <v>0</v>
-      </c>
-      <c r="W17" s="25">
+      <c r="W17" s="38">
         <v>0</v>
       </c>
       <c r="X17" s="25">
         <v>0</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC17">
         <v>0.5</v>
       </c>
-      <c r="AA17" s="33">
+      <c r="AE17" s="33">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="30" t="s">
         <v>133</v>
       </c>
@@ -4034,59 +4194,65 @@
       <c r="G18" s="25">
         <v>0</v>
       </c>
-      <c r="H18" s="25">
-        <v>0</v>
-      </c>
       <c r="I18" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J18" s="25">
+      <c r="K18" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L18" s="25">
+        <v>0</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N18" s="25">
         <v>1</v>
       </c>
-      <c r="L18" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M18" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" s="25">
-        <v>0</v>
-      </c>
-      <c r="O18" s="25">
-        <v>0</v>
-      </c>
-      <c r="P18" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="25">
-        <v>0</v>
-      </c>
-      <c r="R18" s="37" t="s">
+      <c r="P18" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q18" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" s="25">
+        <v>0</v>
+      </c>
+      <c r="S18" s="25">
+        <v>0</v>
+      </c>
+      <c r="T18" s="25">
+        <v>0</v>
+      </c>
+      <c r="U18" s="25">
+        <v>0</v>
+      </c>
+      <c r="V18" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S18" s="38">
-        <v>0</v>
-      </c>
-      <c r="T18" s="25">
-        <v>0</v>
-      </c>
-      <c r="U18" s="25">
-        <v>0</v>
-      </c>
-      <c r="V18" s="25">
-        <v>0</v>
-      </c>
-      <c r="W18" s="25">
+      <c r="W18" s="38">
         <v>0</v>
       </c>
       <c r="X18" s="25">
         <v>0</v>
       </c>
-      <c r="Z18" s="23" t="s">
+      <c r="Y18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="23" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="30" t="s">
         <v>135</v>
       </c>
@@ -4105,54 +4271,60 @@
       <c r="G19" s="25">
         <v>0</v>
       </c>
-      <c r="H19" s="25">
-        <v>0</v>
-      </c>
       <c r="I19" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J19" s="25">
+      <c r="K19" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L19" s="25">
+        <v>0</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N19" s="25">
         <v>1</v>
       </c>
-      <c r="L19" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M19" s="26" t="b">
+      <c r="P19" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q19" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="N19" s="25">
-        <v>0</v>
-      </c>
-      <c r="O19" s="25">
-        <v>0</v>
-      </c>
-      <c r="P19" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="25">
-        <v>0</v>
-      </c>
-      <c r="R19" s="37" t="s">
+      <c r="R19" s="25">
+        <v>0</v>
+      </c>
+      <c r="S19" s="25">
+        <v>0</v>
+      </c>
+      <c r="T19" s="25">
+        <v>0</v>
+      </c>
+      <c r="U19" s="25">
+        <v>0</v>
+      </c>
+      <c r="V19" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S19" s="38">
-        <v>0</v>
-      </c>
-      <c r="T19" s="25">
-        <v>0</v>
-      </c>
-      <c r="U19" s="25">
-        <v>0</v>
-      </c>
-      <c r="V19" s="25">
-        <v>0</v>
-      </c>
-      <c r="W19" s="25">
-        <v>0</v>
-      </c>
-      <c r="X19" s="25"/>
-    </row>
-    <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W19" s="38">
+        <v>0</v>
+      </c>
+      <c r="X19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="25"/>
+    </row>
+    <row r="20" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
         <v>137</v>
       </c>
@@ -4171,54 +4343,60 @@
       <c r="G20" s="25">
         <v>0</v>
       </c>
-      <c r="H20" s="25">
-        <v>0</v>
-      </c>
       <c r="I20" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J20" s="25">
+      <c r="K20" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L20" s="25">
+        <v>0</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N20" s="25">
         <v>0.6</v>
       </c>
-      <c r="L20" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M20" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" s="25">
-        <v>0</v>
-      </c>
-      <c r="O20" s="25">
-        <v>0</v>
-      </c>
-      <c r="P20" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="25">
-        <v>0</v>
-      </c>
-      <c r="R20" s="37" t="s">
+      <c r="P20" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q20" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" s="25">
+        <v>0</v>
+      </c>
+      <c r="S20" s="25">
+        <v>0</v>
+      </c>
+      <c r="T20" s="25">
+        <v>0</v>
+      </c>
+      <c r="U20" s="25">
+        <v>0</v>
+      </c>
+      <c r="V20" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S20" s="38">
-        <v>0</v>
-      </c>
-      <c r="T20" s="25">
-        <v>0</v>
-      </c>
-      <c r="U20" s="25">
-        <v>0</v>
-      </c>
-      <c r="V20" s="25">
-        <v>0</v>
-      </c>
-      <c r="W20" s="25">
-        <v>0</v>
-      </c>
-      <c r="X20" s="25"/>
-    </row>
-    <row r="21" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W20" s="38">
+        <v>0</v>
+      </c>
+      <c r="X20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="25"/>
+    </row>
+    <row r="21" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="30" t="s">
         <v>139</v>
       </c>
@@ -4237,54 +4415,60 @@
       <c r="G21" s="25">
         <v>3</v>
       </c>
-      <c r="H21" s="25">
-        <v>0</v>
-      </c>
       <c r="I21" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J21" s="25">
+      <c r="K21" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L21" s="25">
+        <v>0</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N21" s="25">
         <v>1</v>
       </c>
-      <c r="L21" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M21" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" s="25">
-        <v>0</v>
-      </c>
-      <c r="O21" s="25">
-        <v>0</v>
-      </c>
-      <c r="P21" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="25">
-        <v>0</v>
-      </c>
-      <c r="R21" s="37" t="s">
+      <c r="P21" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q21" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" s="25">
+        <v>0</v>
+      </c>
+      <c r="S21" s="25">
+        <v>0</v>
+      </c>
+      <c r="T21" s="25">
+        <v>0</v>
+      </c>
+      <c r="U21" s="25">
+        <v>0</v>
+      </c>
+      <c r="V21" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S21" s="38">
-        <v>0</v>
-      </c>
-      <c r="T21" s="25">
-        <v>0</v>
-      </c>
-      <c r="U21" s="25">
-        <v>0</v>
-      </c>
-      <c r="V21" s="25">
-        <v>0</v>
-      </c>
-      <c r="W21" s="25">
-        <v>0</v>
-      </c>
-      <c r="X21" s="25"/>
-    </row>
-    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W21" s="38">
+        <v>0</v>
+      </c>
+      <c r="X21" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="25"/>
+    </row>
+    <row r="22" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="s">
         <v>141</v>
       </c>
@@ -4303,57 +4487,63 @@
       <c r="G22" s="25">
         <v>0</v>
       </c>
-      <c r="H22" s="25">
-        <v>0</v>
-      </c>
       <c r="I22" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J22" s="25">
+      <c r="K22" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L22" s="25">
+        <v>0</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N22" s="25">
         <v>1</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="O22" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="L22" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M22" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N22" s="25">
-        <v>0</v>
-      </c>
-      <c r="O22" s="25">
-        <v>0</v>
-      </c>
-      <c r="P22" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="25">
-        <v>0</v>
-      </c>
-      <c r="R22" s="37" t="s">
+      <c r="P22" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q22" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" s="25">
+        <v>0</v>
+      </c>
+      <c r="S22" s="25">
+        <v>0</v>
+      </c>
+      <c r="T22" s="25">
+        <v>0</v>
+      </c>
+      <c r="U22" s="25">
+        <v>0</v>
+      </c>
+      <c r="V22" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S22" s="38">
-        <v>0</v>
-      </c>
-      <c r="T22" s="25">
-        <v>0</v>
-      </c>
-      <c r="U22" s="25">
-        <v>0</v>
-      </c>
-      <c r="V22" s="25">
-        <v>0</v>
-      </c>
-      <c r="W22" s="25">
-        <v>0</v>
-      </c>
-      <c r="X22" s="25"/>
-    </row>
-    <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W22" s="38">
+        <v>0</v>
+      </c>
+      <c r="X22" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="25"/>
+    </row>
+    <row r="23" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
         <v>144</v>
       </c>
@@ -4372,54 +4562,60 @@
       <c r="G23" s="25">
         <v>0</v>
       </c>
-      <c r="H23" s="25">
-        <v>0</v>
-      </c>
       <c r="I23" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J23" s="25">
+      <c r="K23" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L23" s="25">
+        <v>0</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N23" s="25">
         <v>1</v>
       </c>
-      <c r="L23" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M23" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" s="25">
-        <v>0</v>
-      </c>
-      <c r="O23" s="25">
-        <v>0</v>
-      </c>
-      <c r="P23" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="25">
-        <v>0</v>
-      </c>
-      <c r="R23" s="37" t="s">
+      <c r="P23" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q23" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" s="25">
+        <v>0</v>
+      </c>
+      <c r="S23" s="25">
+        <v>0</v>
+      </c>
+      <c r="T23" s="25">
+        <v>0</v>
+      </c>
+      <c r="U23" s="25">
+        <v>0</v>
+      </c>
+      <c r="V23" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S23" s="38">
-        <v>0</v>
-      </c>
-      <c r="T23" s="25">
-        <v>0</v>
-      </c>
-      <c r="U23" s="25">
+      <c r="W23" s="38">
+        <v>0</v>
+      </c>
+      <c r="X23" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="25">
         <v>10</v>
       </c>
-      <c r="V23" s="25">
-        <v>0</v>
-      </c>
-      <c r="W23" s="25">
-        <v>0</v>
-      </c>
-      <c r="X23" s="25"/>
-    </row>
-    <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="25"/>
+    </row>
+    <row r="24" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
         <v>146</v>
       </c>
@@ -4441,48 +4637,54 @@
       <c r="I24" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J24" s="25">
+      <c r="K24" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N24" s="25">
         <v>1</v>
       </c>
-      <c r="L24" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M24" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N24" s="25">
-        <v>0</v>
-      </c>
-      <c r="O24" s="25">
-        <v>0</v>
-      </c>
-      <c r="P24" s="25">
+      <c r="P24" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q24" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" s="25">
+        <v>0</v>
+      </c>
+      <c r="S24" s="25">
+        <v>0</v>
+      </c>
+      <c r="T24" s="25">
         <v>0.2</v>
       </c>
-      <c r="Q24" s="25">
-        <v>0</v>
-      </c>
-      <c r="R24" s="37" t="s">
+      <c r="U24" s="25">
+        <v>0</v>
+      </c>
+      <c r="V24" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S24" s="38">
-        <v>0</v>
-      </c>
-      <c r="T24" s="25">
-        <v>0</v>
-      </c>
-      <c r="U24" s="25">
-        <v>0</v>
-      </c>
-      <c r="V24" s="25">
-        <v>0</v>
-      </c>
-      <c r="W24" s="25">
-        <v>0</v>
-      </c>
-      <c r="X24" s="25"/>
-    </row>
-    <row r="25" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W24" s="38">
+        <v>0</v>
+      </c>
+      <c r="X24" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="25"/>
+    </row>
+    <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
         <v>148</v>
       </c>
@@ -4504,48 +4706,54 @@
       <c r="I25" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J25" s="25">
+      <c r="K25" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N25" s="25">
         <v>1</v>
       </c>
-      <c r="L25" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M25" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N25" s="25">
-        <v>0</v>
-      </c>
-      <c r="O25" s="25">
-        <v>0</v>
-      </c>
-      <c r="P25" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="25">
-        <v>0</v>
-      </c>
-      <c r="R25" s="37" t="s">
+      <c r="P25" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q25" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" s="25">
+        <v>0</v>
+      </c>
+      <c r="S25" s="25">
+        <v>0</v>
+      </c>
+      <c r="T25" s="25">
+        <v>0</v>
+      </c>
+      <c r="U25" s="25">
+        <v>0</v>
+      </c>
+      <c r="V25" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S25" s="38">
-        <v>0</v>
-      </c>
-      <c r="T25" s="25">
-        <v>0</v>
-      </c>
-      <c r="U25" s="25">
-        <v>0</v>
-      </c>
-      <c r="V25" s="25">
-        <v>0</v>
-      </c>
-      <c r="W25" s="25">
-        <v>0</v>
-      </c>
-      <c r="X25" s="25"/>
-    </row>
-    <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W25" s="38">
+        <v>0</v>
+      </c>
+      <c r="X25" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="25"/>
+    </row>
+    <row r="26" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49"/>
       <c r="B26" s="30" t="s">
         <v>150</v>
@@ -4569,50 +4777,62 @@
         <v>3</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="J26" s="25">
+        <v>3</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="L26" s="25">
+        <v>0</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N26" s="25">
         <v>1</v>
       </c>
-      <c r="L26" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M26" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26" s="25">
-        <v>0</v>
-      </c>
-      <c r="O26" s="25">
-        <v>0</v>
-      </c>
-      <c r="P26" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="25">
-        <v>0</v>
-      </c>
-      <c r="R26" s="37" t="s">
+      <c r="P26" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q26" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" s="25">
+        <v>0</v>
+      </c>
+      <c r="S26" s="25">
+        <v>0</v>
+      </c>
+      <c r="T26" s="25">
+        <v>0</v>
+      </c>
+      <c r="U26" s="25">
+        <v>0</v>
+      </c>
+      <c r="V26" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S26" s="38">
-        <v>0</v>
-      </c>
-      <c r="T26" s="25">
-        <v>0</v>
-      </c>
-      <c r="U26" s="25">
-        <v>0</v>
-      </c>
-      <c r="V26" s="25">
-        <v>0</v>
-      </c>
-      <c r="W26" s="25">
-        <v>0</v>
-      </c>
-      <c r="X26" s="25"/>
-    </row>
-    <row r="27" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W26" s="38">
+        <v>0</v>
+      </c>
+      <c r="X26" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="25"/>
+    </row>
+    <row r="27" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
         <v>152</v>
       </c>
@@ -4634,48 +4854,54 @@
       <c r="I27" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J27" s="25">
+      <c r="K27" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="M27" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N27" s="25">
         <v>1</v>
       </c>
-      <c r="L27" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M27" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N27" s="25">
-        <v>0</v>
-      </c>
-      <c r="O27" s="25">
-        <v>0</v>
-      </c>
-      <c r="P27" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="25">
-        <v>0</v>
-      </c>
-      <c r="R27" s="37" t="s">
+      <c r="P27" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q27" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" s="25">
+        <v>0</v>
+      </c>
+      <c r="S27" s="25">
+        <v>0</v>
+      </c>
+      <c r="T27" s="25">
+        <v>0</v>
+      </c>
+      <c r="U27" s="25">
+        <v>0</v>
+      </c>
+      <c r="V27" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S27" s="38">
-        <v>0</v>
-      </c>
-      <c r="T27" s="25">
-        <v>0</v>
-      </c>
-      <c r="U27" s="25">
+      <c r="W27" s="38">
+        <v>0</v>
+      </c>
+      <c r="X27" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="25">
         <v>-20</v>
       </c>
-      <c r="V27" s="25">
-        <v>0</v>
-      </c>
-      <c r="W27" s="25">
-        <v>0</v>
-      </c>
-      <c r="X27" s="25"/>
-    </row>
-    <row r="28" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="25"/>
+    </row>
+    <row r="28" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="30" t="s">
         <v>154</v>
       </c>
@@ -4697,48 +4923,54 @@
       <c r="I28" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J28" s="25">
+      <c r="K28" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N28" s="25">
         <v>1</v>
       </c>
-      <c r="L28" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M28" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N28" s="25">
-        <v>0</v>
-      </c>
-      <c r="O28" s="25">
-        <v>0</v>
-      </c>
-      <c r="P28" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="25">
-        <v>0</v>
-      </c>
-      <c r="R28" s="37" t="s">
+      <c r="P28" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q28" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" s="25">
+        <v>0</v>
+      </c>
+      <c r="S28" s="25">
+        <v>0</v>
+      </c>
+      <c r="T28" s="25">
+        <v>0</v>
+      </c>
+      <c r="U28" s="25">
+        <v>0</v>
+      </c>
+      <c r="V28" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S28" s="38">
-        <v>0</v>
-      </c>
-      <c r="T28" s="25">
-        <v>0</v>
-      </c>
-      <c r="U28" s="25">
-        <v>0</v>
-      </c>
-      <c r="V28" s="25">
-        <v>0</v>
-      </c>
-      <c r="W28" s="25">
-        <v>0</v>
-      </c>
-      <c r="X28" s="25"/>
-    </row>
-    <row r="29" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W28" s="38">
+        <v>0</v>
+      </c>
+      <c r="X28" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="25"/>
+    </row>
+    <row r="29" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>156</v>
       </c>
@@ -4760,48 +4992,54 @@
       <c r="I29" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J29" s="25">
+      <c r="K29" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="M29" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N29" s="25">
         <v>1</v>
       </c>
-      <c r="L29" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M29" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N29" s="25">
-        <v>0</v>
-      </c>
-      <c r="O29" s="25">
-        <v>0</v>
-      </c>
-      <c r="P29" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="25">
+      <c r="P29" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q29" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" s="25">
+        <v>0</v>
+      </c>
+      <c r="S29" s="25">
+        <v>0</v>
+      </c>
+      <c r="T29" s="25">
+        <v>0</v>
+      </c>
+      <c r="U29" s="25">
         <v>10</v>
       </c>
-      <c r="R29" s="37" t="s">
+      <c r="V29" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S29" s="38">
-        <v>0</v>
-      </c>
-      <c r="T29" s="25">
-        <v>0</v>
-      </c>
-      <c r="U29" s="25">
-        <v>0</v>
-      </c>
-      <c r="V29" s="25">
-        <v>0</v>
-      </c>
-      <c r="W29" s="25">
-        <v>0</v>
-      </c>
-      <c r="X29" s="25"/>
-    </row>
-    <row r="30" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W29" s="38">
+        <v>0</v>
+      </c>
+      <c r="X29" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="25"/>
+    </row>
+    <row r="30" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>158</v>
       </c>
@@ -4823,48 +5061,54 @@
       <c r="I30" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J30" s="25">
+      <c r="K30" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N30" s="25">
         <v>1</v>
       </c>
-      <c r="L30" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M30" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N30" s="25">
-        <v>0</v>
-      </c>
-      <c r="O30" s="25">
-        <v>0</v>
-      </c>
-      <c r="P30" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="25">
-        <v>0</v>
-      </c>
-      <c r="R30" s="37" t="s">
+      <c r="P30" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q30" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R30" s="25">
+        <v>0</v>
+      </c>
+      <c r="S30" s="25">
+        <v>0</v>
+      </c>
+      <c r="T30" s="25">
+        <v>0</v>
+      </c>
+      <c r="U30" s="25">
+        <v>0</v>
+      </c>
+      <c r="V30" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S30" s="38">
-        <v>0</v>
-      </c>
-      <c r="T30" s="25">
-        <v>0</v>
-      </c>
-      <c r="U30" s="25">
-        <v>0</v>
-      </c>
-      <c r="V30" s="25">
-        <v>0</v>
-      </c>
-      <c r="W30" s="25">
-        <v>0</v>
-      </c>
-      <c r="X30" s="25"/>
-    </row>
-    <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W30" s="38">
+        <v>0</v>
+      </c>
+      <c r="X30" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="25"/>
+    </row>
+    <row r="31" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="30" t="s">
         <v>161</v>
@@ -4884,54 +5128,60 @@
       <c r="G31" s="25">
         <v>5</v>
       </c>
-      <c r="H31" s="25">
+      <c r="I31" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L31" s="25">
         <v>1</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="M31" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="J31" s="25">
+      <c r="N31" s="25">
         <v>1</v>
       </c>
-      <c r="L31" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M31" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N31" s="25">
-        <v>0</v>
-      </c>
-      <c r="O31" s="25">
-        <v>0</v>
-      </c>
-      <c r="P31" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="25">
-        <v>0</v>
-      </c>
-      <c r="R31" s="37" t="s">
+      <c r="P31" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q31" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" s="25">
+        <v>0</v>
+      </c>
+      <c r="S31" s="25">
+        <v>0</v>
+      </c>
+      <c r="T31" s="25">
+        <v>0</v>
+      </c>
+      <c r="U31" s="25">
+        <v>0</v>
+      </c>
+      <c r="V31" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S31" s="38">
-        <v>0</v>
-      </c>
-      <c r="T31" s="25">
-        <v>0</v>
-      </c>
-      <c r="U31" s="25">
-        <v>0</v>
-      </c>
-      <c r="V31" s="25">
-        <v>0</v>
-      </c>
-      <c r="W31" s="25">
-        <v>0</v>
-      </c>
-      <c r="X31" s="25"/>
-    </row>
-    <row r="32" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W31" s="38">
+        <v>0</v>
+      </c>
+      <c r="X31" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="25"/>
+    </row>
+    <row r="32" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
         <v>163</v>
       </c>
@@ -4953,48 +5203,54 @@
       <c r="I32" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J32" s="25">
+      <c r="K32" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N32" s="25">
         <v>1</v>
       </c>
-      <c r="L32" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M32" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N32" s="25">
-        <v>0</v>
-      </c>
-      <c r="O32" s="25">
-        <v>0</v>
-      </c>
-      <c r="P32" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="25">
-        <v>0</v>
-      </c>
-      <c r="R32" s="37" t="s">
+      <c r="P32" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q32" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R32" s="25">
+        <v>0</v>
+      </c>
+      <c r="S32" s="25">
+        <v>0</v>
+      </c>
+      <c r="T32" s="25">
+        <v>0</v>
+      </c>
+      <c r="U32" s="25">
+        <v>0</v>
+      </c>
+      <c r="V32" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S32" s="38">
-        <v>0</v>
-      </c>
-      <c r="T32" s="25">
-        <v>0</v>
-      </c>
-      <c r="U32" s="25">
-        <v>0</v>
-      </c>
-      <c r="V32" s="25">
-        <v>0</v>
-      </c>
-      <c r="W32" s="25">
-        <v>0</v>
-      </c>
-      <c r="X32" s="25"/>
-    </row>
-    <row r="33" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W32" s="38">
+        <v>0</v>
+      </c>
+      <c r="X32" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="25"/>
+    </row>
+    <row r="33" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="30" t="s">
         <v>165</v>
       </c>
@@ -5016,51 +5272,57 @@
       <c r="I33" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="J33" s="25">
+      <c r="K33" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N33" s="25">
         <v>1</v>
       </c>
-      <c r="K33" s="25" t="s">
+      <c r="O33" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="L33" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M33" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N33" s="25">
-        <v>0</v>
-      </c>
-      <c r="O33" s="25">
-        <v>0</v>
-      </c>
-      <c r="P33" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="25">
-        <v>0</v>
-      </c>
-      <c r="R33" s="37" t="s">
+      <c r="P33" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q33" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R33" s="25">
+        <v>0</v>
+      </c>
+      <c r="S33" s="25">
+        <v>0</v>
+      </c>
+      <c r="T33" s="25">
+        <v>0</v>
+      </c>
+      <c r="U33" s="25">
+        <v>0</v>
+      </c>
+      <c r="V33" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S33" s="38">
-        <v>0</v>
-      </c>
-      <c r="T33" s="25">
-        <v>0</v>
-      </c>
-      <c r="U33" s="25">
-        <v>0</v>
-      </c>
-      <c r="V33" s="25">
-        <v>0</v>
-      </c>
-      <c r="W33" s="25">
-        <v>0</v>
-      </c>
-      <c r="X33" s="25"/>
-    </row>
-    <row r="34" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W33" s="38">
+        <v>0</v>
+      </c>
+      <c r="X33" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="25"/>
+    </row>
+    <row r="34" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="30" t="s">
         <v>168</v>
@@ -5080,51 +5342,57 @@
       <c r="G34" s="25">
         <v>0</v>
       </c>
-      <c r="H34" s="25">
+      <c r="I34" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L34" s="25">
         <v>1</v>
       </c>
-      <c r="I34" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="L34" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M34" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N34" s="25">
-        <v>0</v>
-      </c>
-      <c r="O34" s="25">
-        <v>0</v>
-      </c>
-      <c r="P34" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="25">
-        <v>0</v>
-      </c>
-      <c r="R34" s="37" t="s">
+      <c r="M34" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="P34" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q34" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R34" s="25">
+        <v>0</v>
+      </c>
+      <c r="S34" s="25">
+        <v>0</v>
+      </c>
+      <c r="T34" s="25">
+        <v>0</v>
+      </c>
+      <c r="U34" s="25">
+        <v>0</v>
+      </c>
+      <c r="V34" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S34" s="38">
-        <v>0</v>
-      </c>
-      <c r="T34" s="25">
-        <v>0</v>
-      </c>
-      <c r="U34" s="25">
-        <v>0</v>
-      </c>
-      <c r="V34" s="25">
-        <v>0</v>
-      </c>
-      <c r="W34" s="25">
-        <v>0</v>
-      </c>
-      <c r="X34" s="25"/>
-    </row>
-    <row r="35" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W34" s="38">
+        <v>0</v>
+      </c>
+      <c r="X34" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="25"/>
+    </row>
+    <row r="35" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="30" t="s">
         <v>172</v>
@@ -5144,51 +5412,57 @@
       <c r="G35" s="25">
         <v>0</v>
       </c>
-      <c r="H35" s="25">
+      <c r="I35" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L35" s="25">
         <v>1</v>
       </c>
-      <c r="I35" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="L35" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M35" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N35" s="25">
-        <v>0</v>
-      </c>
-      <c r="O35" s="25">
-        <v>0</v>
-      </c>
-      <c r="P35" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="25">
-        <v>0</v>
-      </c>
-      <c r="R35" s="37" t="s">
+      <c r="M35" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="P35" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q35" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R35" s="25">
+        <v>0</v>
+      </c>
+      <c r="S35" s="25">
+        <v>0</v>
+      </c>
+      <c r="T35" s="25">
+        <v>0</v>
+      </c>
+      <c r="U35" s="25">
+        <v>0</v>
+      </c>
+      <c r="V35" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S35" s="38">
-        <v>0</v>
-      </c>
-      <c r="T35" s="25">
-        <v>0</v>
-      </c>
-      <c r="U35" s="25">
-        <v>0</v>
-      </c>
-      <c r="V35" s="25">
-        <v>0</v>
-      </c>
-      <c r="W35" s="25">
-        <v>0</v>
-      </c>
-      <c r="X35" s="25"/>
-    </row>
-    <row r="36" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W35" s="38">
+        <v>0</v>
+      </c>
+      <c r="X35" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="25"/>
+    </row>
+    <row r="36" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="30" t="s">
         <v>174</v>
@@ -5208,51 +5482,57 @@
       <c r="G36" s="25">
         <v>0</v>
       </c>
-      <c r="H36" s="25">
+      <c r="I36" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L36" s="25">
         <v>1</v>
       </c>
-      <c r="I36" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="L36" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M36" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N36" s="25">
-        <v>0</v>
-      </c>
-      <c r="O36" s="25">
-        <v>0</v>
-      </c>
-      <c r="P36" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="25">
-        <v>0</v>
-      </c>
-      <c r="R36" s="37" t="s">
+      <c r="M36" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="P36" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q36" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R36" s="25">
+        <v>0</v>
+      </c>
+      <c r="S36" s="25">
+        <v>0</v>
+      </c>
+      <c r="T36" s="25">
+        <v>0</v>
+      </c>
+      <c r="U36" s="25">
+        <v>0</v>
+      </c>
+      <c r="V36" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S36" s="38">
-        <v>0</v>
-      </c>
-      <c r="T36" s="25">
-        <v>0</v>
-      </c>
-      <c r="U36" s="25">
-        <v>0</v>
-      </c>
-      <c r="V36" s="25">
-        <v>0</v>
-      </c>
-      <c r="W36" s="25">
-        <v>0</v>
-      </c>
-      <c r="X36" s="25"/>
-    </row>
-    <row r="37" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W36" s="38">
+        <v>0</v>
+      </c>
+      <c r="X36" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="25"/>
+    </row>
+    <row r="37" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="30" t="s">
         <v>176</v>
       </c>
@@ -5274,48 +5554,54 @@
       <c r="I37" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="L37" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M37" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N37" s="25">
-        <v>0</v>
-      </c>
-      <c r="O37" s="25">
-        <v>0</v>
-      </c>
-      <c r="P37" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="25">
-        <v>0</v>
-      </c>
-      <c r="R37" s="36" t="s">
+      <c r="K37" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="M37" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P37" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q37" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R37" s="25">
+        <v>0</v>
+      </c>
+      <c r="S37" s="25">
+        <v>0</v>
+      </c>
+      <c r="T37" s="25">
+        <v>0</v>
+      </c>
+      <c r="U37" s="25">
+        <v>0</v>
+      </c>
+      <c r="V37" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="S37" s="36">
+      <c r="W37" s="36">
         <v>100</v>
       </c>
-      <c r="T37" s="25">
-        <v>0</v>
-      </c>
-      <c r="U37" s="25">
-        <v>0</v>
-      </c>
-      <c r="V37" s="25">
-        <v>0</v>
-      </c>
-      <c r="W37" s="25">
-        <v>0</v>
-      </c>
-      <c r="X37" s="25"/>
-    </row>
-    <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X37" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="25"/>
+    </row>
+    <row r="38" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
       <c r="B38" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>169</v>
@@ -5332,51 +5618,57 @@
       <c r="G38" s="25">
         <v>0</v>
       </c>
-      <c r="H38" s="44">
+      <c r="I38" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L38" s="44">
         <v>1</v>
       </c>
-      <c r="I38" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="L38" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M38" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N38" s="25">
-        <v>0</v>
-      </c>
-      <c r="O38" s="25">
-        <v>0</v>
-      </c>
-      <c r="P38" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="25">
-        <v>0</v>
-      </c>
-      <c r="R38" s="37" t="s">
+      <c r="M38" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="P38" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q38" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R38" s="25">
+        <v>0</v>
+      </c>
+      <c r="S38" s="25">
+        <v>0</v>
+      </c>
+      <c r="T38" s="25">
+        <v>0</v>
+      </c>
+      <c r="U38" s="25">
+        <v>0</v>
+      </c>
+      <c r="V38" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S38" s="38">
-        <v>0</v>
-      </c>
-      <c r="T38" s="25">
-        <v>0</v>
-      </c>
-      <c r="U38" s="25">
-        <v>0</v>
-      </c>
-      <c r="V38" s="25">
-        <v>0</v>
-      </c>
-      <c r="W38" s="25">
-        <v>0</v>
-      </c>
-      <c r="X38" s="25"/>
-    </row>
-    <row r="39" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W38" s="38">
+        <v>0</v>
+      </c>
+      <c r="X38" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="25"/>
+    </row>
+    <row r="39" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="30" t="s">
         <v>179</v>
@@ -5396,45 +5688,51 @@
       <c r="G39" s="25">
         <v>0</v>
       </c>
-      <c r="L39" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M39" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N39" s="25">
-        <v>0</v>
-      </c>
-      <c r="O39" s="25">
-        <v>0</v>
-      </c>
-      <c r="P39" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="25">
-        <v>0</v>
-      </c>
-      <c r="R39" s="37" t="s">
+      <c r="I39" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P39" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q39" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R39" s="25">
+        <v>0</v>
+      </c>
+      <c r="S39" s="25">
+        <v>0</v>
+      </c>
+      <c r="T39" s="25">
+        <v>0</v>
+      </c>
+      <c r="U39" s="25">
+        <v>0</v>
+      </c>
+      <c r="V39" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S39" s="38">
-        <v>0</v>
-      </c>
-      <c r="T39" s="25">
-        <v>0</v>
-      </c>
-      <c r="U39" s="25">
-        <v>0</v>
-      </c>
-      <c r="V39" s="25">
-        <v>0</v>
-      </c>
-      <c r="W39" s="25">
-        <v>0</v>
-      </c>
-      <c r="X39" s="25"/>
-    </row>
-    <row r="40" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W39" s="38">
+        <v>0</v>
+      </c>
+      <c r="X39" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="25"/>
+    </row>
+    <row r="40" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="30" t="s">
         <v>181</v>
       </c>
@@ -5453,45 +5751,51 @@
       <c r="G40" s="25">
         <v>0</v>
       </c>
-      <c r="L40" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M40" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N40" s="25">
-        <v>0</v>
-      </c>
-      <c r="O40" s="25">
+      <c r="I40" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P40" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q40" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R40" s="25">
+        <v>0</v>
+      </c>
+      <c r="S40" s="25">
         <v>3</v>
       </c>
-      <c r="P40" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="25">
-        <v>0</v>
-      </c>
-      <c r="R40" s="36" t="s">
+      <c r="T40" s="25">
+        <v>0</v>
+      </c>
+      <c r="U40" s="25">
+        <v>0</v>
+      </c>
+      <c r="V40" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="S40" s="38">
-        <v>0</v>
-      </c>
-      <c r="T40" s="25">
-        <v>0</v>
-      </c>
-      <c r="U40" s="25">
-        <v>0</v>
-      </c>
-      <c r="V40" s="25">
-        <v>0</v>
-      </c>
-      <c r="W40" s="25">
-        <v>0</v>
-      </c>
-      <c r="X40" s="25"/>
-    </row>
-    <row r="41" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W40" s="38">
+        <v>0</v>
+      </c>
+      <c r="X40" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="25"/>
+    </row>
+    <row r="41" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="39"/>
       <c r="B41" s="30" t="s">
         <v>183</v>
@@ -5511,45 +5815,51 @@
       <c r="G41" s="25">
         <v>0</v>
       </c>
-      <c r="L41" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M41" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N41" s="25">
-        <v>0</v>
-      </c>
-      <c r="O41" s="25">
-        <v>0</v>
-      </c>
-      <c r="P41" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="25">
-        <v>0</v>
-      </c>
-      <c r="R41" s="37" t="s">
+      <c r="I41" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K41" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P41" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q41" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R41" s="25">
+        <v>0</v>
+      </c>
+      <c r="S41" s="25">
+        <v>0</v>
+      </c>
+      <c r="T41" s="25">
+        <v>0</v>
+      </c>
+      <c r="U41" s="25">
+        <v>0</v>
+      </c>
+      <c r="V41" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S41" s="38">
-        <v>0</v>
-      </c>
-      <c r="T41" s="25">
-        <v>0</v>
-      </c>
-      <c r="U41" s="25">
-        <v>0</v>
-      </c>
-      <c r="V41" s="25">
-        <v>0</v>
-      </c>
-      <c r="W41" s="25">
-        <v>0</v>
-      </c>
-      <c r="X41" s="25"/>
-    </row>
-    <row r="42" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W41" s="38">
+        <v>0</v>
+      </c>
+      <c r="X41" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="25"/>
+    </row>
+    <row r="42" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="49"/>
       <c r="B42" s="30" t="s">
         <v>185</v>
@@ -5569,45 +5879,58 @@
       <c r="G42" s="25">
         <v>0</v>
       </c>
-      <c r="L42" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M42" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N42" s="25">
-        <v>0</v>
-      </c>
-      <c r="O42" s="25">
-        <v>0</v>
-      </c>
-      <c r="P42" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="25">
-        <v>0</v>
-      </c>
-      <c r="R42" s="36" t="s">
+      <c r="H42" s="29">
+        <v>1</v>
+      </c>
+      <c r="I42" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="J42" s="29">
+        <v>1</v>
+      </c>
+      <c r="K42" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="M42" s="30"/>
+      <c r="P42" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q42" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R42" s="25">
+        <v>0</v>
+      </c>
+      <c r="S42" s="25">
+        <v>0</v>
+      </c>
+      <c r="T42" s="25">
+        <v>0</v>
+      </c>
+      <c r="U42" s="25">
+        <v>0</v>
+      </c>
+      <c r="V42" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="S42" s="38">
+      <c r="W42" s="38">
         <v>50</v>
       </c>
-      <c r="T42" s="25">
-        <v>0</v>
-      </c>
-      <c r="U42" s="25">
-        <v>0</v>
-      </c>
-      <c r="V42" s="25">
-        <v>0</v>
-      </c>
-      <c r="W42" s="25">
-        <v>0</v>
-      </c>
-      <c r="X42" s="25"/>
-    </row>
-    <row r="43" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X42" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="25"/>
+    </row>
+    <row r="43" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
       <c r="B43" s="30" t="s">
         <v>187</v>
@@ -5627,45 +5950,51 @@
       <c r="G43" s="25">
         <v>0</v>
       </c>
-      <c r="L43" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M43" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N43" s="25">
-        <v>0</v>
-      </c>
-      <c r="O43" s="25">
-        <v>0</v>
-      </c>
-      <c r="P43" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="25">
-        <v>0</v>
-      </c>
-      <c r="R43" s="37" t="s">
+      <c r="I43" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K43" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P43" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q43" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R43" s="25">
+        <v>0</v>
+      </c>
+      <c r="S43" s="25">
+        <v>0</v>
+      </c>
+      <c r="T43" s="25">
+        <v>0</v>
+      </c>
+      <c r="U43" s="25">
+        <v>0</v>
+      </c>
+      <c r="V43" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S43" s="38">
-        <v>0</v>
-      </c>
-      <c r="T43" s="25">
-        <v>0</v>
-      </c>
-      <c r="U43" s="25">
-        <v>0</v>
-      </c>
-      <c r="V43" s="25">
-        <v>0</v>
-      </c>
-      <c r="W43" s="25">
-        <v>0</v>
-      </c>
-      <c r="X43" s="25"/>
-    </row>
-    <row r="44" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W43" s="38">
+        <v>0</v>
+      </c>
+      <c r="X43" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="25"/>
+    </row>
+    <row r="44" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
       <c r="B44" s="30" t="s">
         <v>189</v>
@@ -5685,45 +6014,51 @@
       <c r="G44" s="25">
         <v>0</v>
       </c>
-      <c r="L44" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M44" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N44" s="25">
-        <v>0</v>
-      </c>
-      <c r="O44" s="25">
-        <v>0</v>
-      </c>
-      <c r="P44" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="25">
-        <v>0</v>
-      </c>
-      <c r="R44" s="36" t="s">
+      <c r="I44" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K44" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P44" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q44" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R44" s="25">
+        <v>0</v>
+      </c>
+      <c r="S44" s="25">
+        <v>0</v>
+      </c>
+      <c r="T44" s="25">
+        <v>0</v>
+      </c>
+      <c r="U44" s="25">
+        <v>0</v>
+      </c>
+      <c r="V44" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="S44" s="38">
-        <v>0</v>
-      </c>
-      <c r="T44" s="25">
-        <v>0</v>
-      </c>
-      <c r="U44" s="25">
-        <v>0</v>
-      </c>
-      <c r="V44" s="25">
-        <v>0</v>
-      </c>
-      <c r="W44" s="25">
-        <v>0</v>
-      </c>
-      <c r="X44" s="25"/>
-    </row>
-    <row r="45" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W44" s="38">
+        <v>0</v>
+      </c>
+      <c r="X44" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="25"/>
+    </row>
+    <row r="45" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
       <c r="B45" s="30" t="s">
         <v>191</v>
@@ -5743,45 +6078,51 @@
       <c r="G45" s="25">
         <v>0</v>
       </c>
-      <c r="L45" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M45" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N45" s="25">
-        <v>0</v>
-      </c>
-      <c r="O45" s="25">
-        <v>0</v>
-      </c>
-      <c r="P45" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="25">
-        <v>0</v>
-      </c>
-      <c r="R45" s="37" t="s">
+      <c r="I45" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K45" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P45" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q45" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R45" s="25">
+        <v>0</v>
+      </c>
+      <c r="S45" s="25">
+        <v>0</v>
+      </c>
+      <c r="T45" s="25">
+        <v>0</v>
+      </c>
+      <c r="U45" s="25">
+        <v>0</v>
+      </c>
+      <c r="V45" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S45" s="38">
-        <v>0</v>
-      </c>
-      <c r="T45" s="25">
-        <v>0</v>
-      </c>
-      <c r="U45" s="25">
-        <v>0</v>
-      </c>
-      <c r="V45" s="25">
-        <v>0</v>
-      </c>
-      <c r="W45" s="25">
-        <v>0</v>
-      </c>
-      <c r="X45" s="25"/>
-    </row>
-    <row r="46" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W45" s="38">
+        <v>0</v>
+      </c>
+      <c r="X45" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="25"/>
+    </row>
+    <row r="46" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="39"/>
       <c r="B46" s="30" t="s">
         <v>193</v>
@@ -5801,45 +6142,51 @@
       <c r="G46" s="25">
         <v>0</v>
       </c>
-      <c r="L46" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M46" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N46" s="25">
-        <v>0</v>
-      </c>
-      <c r="O46" s="25">
-        <v>0</v>
-      </c>
-      <c r="P46" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="25">
-        <v>0</v>
-      </c>
-      <c r="R46" s="37" t="s">
+      <c r="I46" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K46" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P46" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q46" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R46" s="25">
+        <v>0</v>
+      </c>
+      <c r="S46" s="25">
+        <v>0</v>
+      </c>
+      <c r="T46" s="25">
+        <v>0</v>
+      </c>
+      <c r="U46" s="25">
+        <v>0</v>
+      </c>
+      <c r="V46" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S46" s="38">
-        <v>0</v>
-      </c>
-      <c r="T46" s="25">
-        <v>0</v>
-      </c>
-      <c r="U46" s="25">
-        <v>0</v>
-      </c>
-      <c r="V46" s="25">
-        <v>0</v>
-      </c>
-      <c r="W46" s="25">
-        <v>0</v>
-      </c>
-      <c r="X46" s="25"/>
-    </row>
-    <row r="47" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W46" s="38">
+        <v>0</v>
+      </c>
+      <c r="X46" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="25"/>
+    </row>
+    <row r="47" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="B47" s="30" t="s">
         <v>195</v>
@@ -5859,45 +6206,51 @@
       <c r="G47" s="25">
         <v>0</v>
       </c>
-      <c r="L47" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M47" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N47" s="25">
-        <v>0</v>
-      </c>
-      <c r="O47" s="25">
-        <v>0</v>
-      </c>
-      <c r="P47" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="25">
-        <v>0</v>
-      </c>
-      <c r="R47" s="37" t="s">
+      <c r="I47" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K47" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P47" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q47" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R47" s="25">
+        <v>0</v>
+      </c>
+      <c r="S47" s="25">
+        <v>0</v>
+      </c>
+      <c r="T47" s="25">
+        <v>0</v>
+      </c>
+      <c r="U47" s="25">
+        <v>0</v>
+      </c>
+      <c r="V47" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S47" s="38">
-        <v>0</v>
-      </c>
-      <c r="T47" s="25">
-        <v>0</v>
-      </c>
-      <c r="U47" s="25">
-        <v>0</v>
-      </c>
-      <c r="V47" s="25">
-        <v>0</v>
-      </c>
-      <c r="W47" s="25">
-        <v>0</v>
-      </c>
-      <c r="X47" s="25"/>
-    </row>
-    <row r="48" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W47" s="38">
+        <v>0</v>
+      </c>
+      <c r="X47" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="25"/>
+    </row>
+    <row r="48" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="30" t="s">
         <v>197</v>
@@ -5917,45 +6270,51 @@
       <c r="G48" s="25">
         <v>0</v>
       </c>
-      <c r="L48" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M48" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N48" s="25">
-        <v>0</v>
-      </c>
-      <c r="O48" s="25">
-        <v>0</v>
-      </c>
-      <c r="P48" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="25">
-        <v>0</v>
-      </c>
-      <c r="R48" s="37" t="s">
+      <c r="I48" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K48" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P48" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q48" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R48" s="25">
+        <v>0</v>
+      </c>
+      <c r="S48" s="25">
+        <v>0</v>
+      </c>
+      <c r="T48" s="25">
+        <v>0</v>
+      </c>
+      <c r="U48" s="25">
+        <v>0</v>
+      </c>
+      <c r="V48" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S48" s="38">
-        <v>0</v>
-      </c>
-      <c r="T48" s="25">
-        <v>0</v>
-      </c>
-      <c r="U48" s="25">
-        <v>0</v>
-      </c>
-      <c r="V48" s="25">
-        <v>0</v>
-      </c>
-      <c r="W48" s="25">
-        <v>0</v>
-      </c>
-      <c r="X48" s="25"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W48" s="38">
+        <v>0</v>
+      </c>
+      <c r="X48" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="25"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="39"/>
       <c r="B49" s="30" t="s">
         <v>199</v>
@@ -5975,45 +6334,51 @@
       <c r="G49" s="25">
         <v>0</v>
       </c>
-      <c r="L49" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M49" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N49" s="25">
-        <v>0</v>
-      </c>
-      <c r="O49" s="25">
-        <v>0</v>
-      </c>
-      <c r="P49" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="25">
-        <v>0</v>
-      </c>
-      <c r="R49" s="36" t="s">
+      <c r="I49" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K49" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P49" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q49" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R49" s="25">
+        <v>0</v>
+      </c>
+      <c r="S49" s="25">
+        <v>0</v>
+      </c>
+      <c r="T49" s="25">
+        <v>0</v>
+      </c>
+      <c r="U49" s="25">
+        <v>0</v>
+      </c>
+      <c r="V49" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="S49" s="38">
-        <v>0</v>
-      </c>
-      <c r="T49" s="25">
-        <v>0</v>
-      </c>
-      <c r="U49" s="25">
-        <v>0</v>
-      </c>
-      <c r="V49" s="25">
-        <v>0</v>
-      </c>
-      <c r="W49" s="25">
-        <v>0</v>
-      </c>
-      <c r="X49" s="25"/>
-    </row>
-    <row r="50" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W49" s="38">
+        <v>0</v>
+      </c>
+      <c r="X49" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="25"/>
+    </row>
+    <row r="50" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="30" t="s">
         <v>201</v>
@@ -6033,45 +6398,51 @@
       <c r="G50" s="25">
         <v>0</v>
       </c>
-      <c r="L50" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M50" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N50" s="25">
-        <v>0</v>
-      </c>
-      <c r="O50" s="25">
-        <v>0</v>
-      </c>
-      <c r="P50" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="25">
-        <v>0</v>
-      </c>
-      <c r="R50" s="36" t="s">
+      <c r="I50" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K50" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P50" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q50" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R50" s="25">
+        <v>0</v>
+      </c>
+      <c r="S50" s="25">
+        <v>0</v>
+      </c>
+      <c r="T50" s="25">
+        <v>0</v>
+      </c>
+      <c r="U50" s="25">
+        <v>0</v>
+      </c>
+      <c r="V50" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="S50" s="38">
-        <v>0</v>
-      </c>
-      <c r="T50" s="25">
-        <v>0</v>
-      </c>
-      <c r="U50" s="25">
-        <v>0</v>
-      </c>
-      <c r="V50" s="25">
-        <v>0</v>
-      </c>
-      <c r="W50" s="25">
-        <v>0</v>
-      </c>
-      <c r="X50" s="25"/>
-    </row>
-    <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W50" s="38">
+        <v>0</v>
+      </c>
+      <c r="X50" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="25"/>
+    </row>
+    <row r="51" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="30" t="s">
         <v>203</v>
@@ -6091,45 +6462,51 @@
       <c r="G51" s="25">
         <v>0</v>
       </c>
-      <c r="L51" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M51" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N51" s="25">
-        <v>0</v>
-      </c>
-      <c r="O51" s="25">
-        <v>0</v>
-      </c>
-      <c r="P51" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="25">
-        <v>0</v>
-      </c>
-      <c r="R51" s="37" t="s">
+      <c r="I51" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K51" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P51" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q51" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R51" s="25">
+        <v>0</v>
+      </c>
+      <c r="S51" s="25">
+        <v>0</v>
+      </c>
+      <c r="T51" s="25">
+        <v>0</v>
+      </c>
+      <c r="U51" s="25">
+        <v>0</v>
+      </c>
+      <c r="V51" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S51" s="38">
-        <v>0</v>
-      </c>
-      <c r="T51" s="25">
-        <v>0</v>
-      </c>
-      <c r="U51" s="25">
-        <v>0</v>
-      </c>
-      <c r="V51" s="25">
-        <v>0</v>
-      </c>
-      <c r="W51" s="25">
-        <v>0</v>
-      </c>
-      <c r="X51" s="25"/>
-    </row>
-    <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W51" s="38">
+        <v>0</v>
+      </c>
+      <c r="X51" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="25"/>
+    </row>
+    <row r="52" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="39"/>
       <c r="B52" s="30" t="s">
         <v>205</v>
@@ -6149,45 +6526,51 @@
       <c r="G52" s="25">
         <v>0</v>
       </c>
-      <c r="L52" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M52" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N52" s="25">
-        <v>0</v>
-      </c>
-      <c r="O52" s="25">
-        <v>0</v>
-      </c>
-      <c r="P52" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="25">
-        <v>0</v>
-      </c>
-      <c r="R52" s="37" t="s">
+      <c r="I52" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K52" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P52" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q52" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R52" s="25">
+        <v>0</v>
+      </c>
+      <c r="S52" s="25">
+        <v>0</v>
+      </c>
+      <c r="T52" s="25">
+        <v>0</v>
+      </c>
+      <c r="U52" s="25">
+        <v>0</v>
+      </c>
+      <c r="V52" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S52" s="38">
-        <v>0</v>
-      </c>
-      <c r="T52" s="25">
-        <v>0</v>
-      </c>
-      <c r="U52" s="25">
-        <v>0</v>
-      </c>
-      <c r="V52" s="25">
-        <v>0</v>
-      </c>
-      <c r="W52" s="25">
-        <v>0</v>
-      </c>
-      <c r="X52" s="25"/>
-    </row>
-    <row r="53" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W52" s="38">
+        <v>0</v>
+      </c>
+      <c r="X52" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="25"/>
+    </row>
+    <row r="53" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="30" t="s">
         <v>207</v>
@@ -6207,45 +6590,51 @@
       <c r="G53" s="25">
         <v>0</v>
       </c>
-      <c r="L53" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M53" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N53" s="25">
-        <v>0</v>
-      </c>
-      <c r="O53" s="25">
-        <v>0</v>
-      </c>
-      <c r="P53" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="25">
-        <v>0</v>
-      </c>
-      <c r="R53" s="36" t="s">
+      <c r="I53" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K53" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P53" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q53" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R53" s="25">
+        <v>0</v>
+      </c>
+      <c r="S53" s="25">
+        <v>0</v>
+      </c>
+      <c r="T53" s="25">
+        <v>0</v>
+      </c>
+      <c r="U53" s="25">
+        <v>0</v>
+      </c>
+      <c r="V53" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="S53" s="38">
-        <v>0</v>
-      </c>
-      <c r="T53" s="25">
-        <v>0</v>
-      </c>
-      <c r="U53" s="25">
-        <v>0</v>
-      </c>
-      <c r="V53" s="25">
-        <v>0</v>
-      </c>
-      <c r="W53" s="25">
-        <v>0</v>
-      </c>
-      <c r="X53" s="25"/>
-    </row>
-    <row r="54" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W53" s="38">
+        <v>0</v>
+      </c>
+      <c r="X53" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="25"/>
+    </row>
+    <row r="54" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="39"/>
       <c r="B54" s="30" t="s">
         <v>209</v>
@@ -6265,45 +6654,51 @@
       <c r="G54" s="25">
         <v>0</v>
       </c>
-      <c r="L54" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M54" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N54" s="25">
-        <v>0</v>
-      </c>
-      <c r="O54" s="25">
-        <v>0</v>
-      </c>
-      <c r="P54" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="25">
-        <v>0</v>
-      </c>
-      <c r="R54" s="37" t="s">
+      <c r="I54" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K54" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P54" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q54" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R54" s="25">
+        <v>0</v>
+      </c>
+      <c r="S54" s="25">
+        <v>0</v>
+      </c>
+      <c r="T54" s="25">
+        <v>0</v>
+      </c>
+      <c r="U54" s="25">
+        <v>0</v>
+      </c>
+      <c r="V54" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S54" s="38">
-        <v>0</v>
-      </c>
-      <c r="T54" s="25">
-        <v>0</v>
-      </c>
-      <c r="U54" s="25">
-        <v>0</v>
-      </c>
-      <c r="V54" s="25">
-        <v>0</v>
-      </c>
-      <c r="W54" s="25">
-        <v>0</v>
-      </c>
-      <c r="X54" s="25"/>
-    </row>
-    <row r="55" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W54" s="38">
+        <v>0</v>
+      </c>
+      <c r="X54" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="25"/>
+    </row>
+    <row r="55" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="30" t="s">
         <v>211</v>
@@ -6323,45 +6718,51 @@
       <c r="G55" s="25">
         <v>0</v>
       </c>
-      <c r="L55" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M55" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N55" s="25">
-        <v>0</v>
-      </c>
-      <c r="O55" s="25">
-        <v>0</v>
-      </c>
-      <c r="P55" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="25">
-        <v>0</v>
-      </c>
-      <c r="R55" s="37" t="s">
+      <c r="I55" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K55" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P55" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q55" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R55" s="25">
+        <v>0</v>
+      </c>
+      <c r="S55" s="25">
+        <v>0</v>
+      </c>
+      <c r="T55" s="25">
+        <v>0</v>
+      </c>
+      <c r="U55" s="25">
+        <v>0</v>
+      </c>
+      <c r="V55" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S55" s="38">
-        <v>0</v>
-      </c>
-      <c r="T55" s="25">
-        <v>0</v>
-      </c>
-      <c r="U55" s="25">
-        <v>0</v>
-      </c>
-      <c r="V55" s="25">
-        <v>0</v>
-      </c>
-      <c r="W55" s="25">
-        <v>0</v>
-      </c>
-      <c r="X55" s="25"/>
-    </row>
-    <row r="56" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W55" s="38">
+        <v>0</v>
+      </c>
+      <c r="X55" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="25"/>
+    </row>
+    <row r="56" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="30" t="s">
         <v>213</v>
@@ -6381,45 +6782,51 @@
       <c r="G56" s="25">
         <v>0</v>
       </c>
-      <c r="L56" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M56" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N56" s="25">
-        <v>0</v>
-      </c>
-      <c r="O56" s="25">
-        <v>0</v>
-      </c>
-      <c r="P56" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="25">
-        <v>0</v>
-      </c>
-      <c r="R56" s="37" t="s">
+      <c r="I56" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K56" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P56" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q56" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R56" s="25">
+        <v>0</v>
+      </c>
+      <c r="S56" s="25">
+        <v>0</v>
+      </c>
+      <c r="T56" s="25">
+        <v>0</v>
+      </c>
+      <c r="U56" s="25">
+        <v>0</v>
+      </c>
+      <c r="V56" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S56" s="38">
-        <v>0</v>
-      </c>
-      <c r="T56" s="25">
-        <v>0</v>
-      </c>
-      <c r="U56" s="25">
-        <v>0</v>
-      </c>
-      <c r="V56" s="25">
-        <v>0</v>
-      </c>
-      <c r="W56" s="25">
-        <v>0</v>
-      </c>
-      <c r="X56" s="25"/>
-    </row>
-    <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W56" s="38">
+        <v>0</v>
+      </c>
+      <c r="X56" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="25"/>
+    </row>
+    <row r="57" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="30" t="s">
         <v>215</v>
@@ -6439,45 +6846,51 @@
       <c r="G57" s="25">
         <v>0</v>
       </c>
-      <c r="L57" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M57" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N57" s="25">
-        <v>0</v>
-      </c>
-      <c r="O57" s="25">
-        <v>0</v>
-      </c>
-      <c r="P57" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="25">
-        <v>0</v>
-      </c>
-      <c r="R57" s="37" t="s">
+      <c r="I57" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K57" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P57" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q57" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R57" s="25">
+        <v>0</v>
+      </c>
+      <c r="S57" s="25">
+        <v>0</v>
+      </c>
+      <c r="T57" s="25">
+        <v>0</v>
+      </c>
+      <c r="U57" s="25">
+        <v>0</v>
+      </c>
+      <c r="V57" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S57" s="38">
-        <v>0</v>
-      </c>
-      <c r="T57" s="25">
-        <v>0</v>
-      </c>
-      <c r="U57" s="25">
-        <v>0</v>
-      </c>
-      <c r="V57" s="25">
-        <v>0</v>
-      </c>
-      <c r="W57" s="25">
-        <v>0</v>
-      </c>
-      <c r="X57" s="25"/>
-    </row>
-    <row r="58" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W57" s="38">
+        <v>0</v>
+      </c>
+      <c r="X57" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="25"/>
+    </row>
+    <row r="58" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="30" t="s">
         <v>217</v>
@@ -6497,45 +6910,51 @@
       <c r="G58" s="25">
         <v>0</v>
       </c>
-      <c r="L58" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M58" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N58" s="25">
-        <v>0</v>
-      </c>
-      <c r="O58" s="25">
-        <v>0</v>
-      </c>
-      <c r="P58" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="25">
-        <v>0</v>
-      </c>
-      <c r="R58" s="37" t="s">
+      <c r="I58" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K58" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P58" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q58" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R58" s="25">
+        <v>0</v>
+      </c>
+      <c r="S58" s="25">
+        <v>0</v>
+      </c>
+      <c r="T58" s="25">
+        <v>0</v>
+      </c>
+      <c r="U58" s="25">
+        <v>0</v>
+      </c>
+      <c r="V58" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S58" s="38">
-        <v>0</v>
-      </c>
-      <c r="T58" s="25">
-        <v>0</v>
-      </c>
-      <c r="U58" s="25">
-        <v>0</v>
-      </c>
-      <c r="V58" s="25">
-        <v>0</v>
-      </c>
-      <c r="W58" s="25">
-        <v>0</v>
-      </c>
-      <c r="X58" s="25"/>
-    </row>
-    <row r="59" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W58" s="38">
+        <v>0</v>
+      </c>
+      <c r="X58" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="25"/>
+    </row>
+    <row r="59" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="30" t="s">
         <v>219</v>
@@ -6555,45 +6974,51 @@
       <c r="G59" s="25">
         <v>0</v>
       </c>
-      <c r="L59" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M59" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N59" s="25">
-        <v>0</v>
-      </c>
-      <c r="O59" s="25">
-        <v>0</v>
-      </c>
-      <c r="P59" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="25">
-        <v>0</v>
-      </c>
-      <c r="R59" s="37" t="s">
+      <c r="I59" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K59" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P59" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q59" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R59" s="25">
+        <v>0</v>
+      </c>
+      <c r="S59" s="25">
+        <v>0</v>
+      </c>
+      <c r="T59" s="25">
+        <v>0</v>
+      </c>
+      <c r="U59" s="25">
+        <v>0</v>
+      </c>
+      <c r="V59" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S59" s="38">
-        <v>0</v>
-      </c>
-      <c r="T59" s="25">
-        <v>0</v>
-      </c>
-      <c r="U59" s="25">
-        <v>0</v>
-      </c>
-      <c r="V59" s="25">
-        <v>0</v>
-      </c>
-      <c r="W59" s="25">
-        <v>0</v>
-      </c>
-      <c r="X59" s="25"/>
-    </row>
-    <row r="60" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W59" s="38">
+        <v>0</v>
+      </c>
+      <c r="X59" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="25"/>
+    </row>
+    <row r="60" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="30" t="s">
         <v>221</v>
@@ -6613,45 +7038,51 @@
       <c r="G60" s="25">
         <v>0</v>
       </c>
-      <c r="L60" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M60" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N60" s="25">
-        <v>0</v>
-      </c>
-      <c r="O60" s="25">
-        <v>0</v>
-      </c>
-      <c r="P60" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="25">
-        <v>0</v>
-      </c>
-      <c r="R60" s="37" t="s">
+      <c r="I60" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K60" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P60" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q60" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R60" s="25">
+        <v>0</v>
+      </c>
+      <c r="S60" s="25">
+        <v>0</v>
+      </c>
+      <c r="T60" s="25">
+        <v>0</v>
+      </c>
+      <c r="U60" s="25">
+        <v>0</v>
+      </c>
+      <c r="V60" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S60" s="38">
-        <v>0</v>
-      </c>
-      <c r="T60" s="25">
-        <v>0</v>
-      </c>
-      <c r="U60" s="25">
-        <v>0</v>
-      </c>
-      <c r="V60" s="25">
-        <v>0</v>
-      </c>
-      <c r="W60" s="25">
-        <v>0</v>
-      </c>
-      <c r="X60" s="25"/>
-    </row>
-    <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W60" s="38">
+        <v>0</v>
+      </c>
+      <c r="X60" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="25"/>
+    </row>
+    <row r="61" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="30" t="s">
         <v>223</v>
@@ -6671,45 +7102,51 @@
       <c r="G61" s="25">
         <v>0</v>
       </c>
-      <c r="L61" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M61" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N61" s="25">
-        <v>0</v>
-      </c>
-      <c r="O61" s="25">
-        <v>0</v>
-      </c>
-      <c r="P61" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="25">
-        <v>0</v>
-      </c>
-      <c r="R61" s="37" t="s">
+      <c r="I61" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K61" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P61" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q61" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R61" s="25">
+        <v>0</v>
+      </c>
+      <c r="S61" s="25">
+        <v>0</v>
+      </c>
+      <c r="T61" s="25">
+        <v>0</v>
+      </c>
+      <c r="U61" s="25">
+        <v>0</v>
+      </c>
+      <c r="V61" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S61" s="38">
-        <v>0</v>
-      </c>
-      <c r="T61" s="25">
-        <v>0</v>
-      </c>
-      <c r="U61" s="25">
-        <v>0</v>
-      </c>
-      <c r="V61" s="25">
-        <v>0</v>
-      </c>
-      <c r="W61" s="25">
-        <v>0</v>
-      </c>
-      <c r="X61" s="25"/>
-    </row>
-    <row r="62" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W61" s="38">
+        <v>0</v>
+      </c>
+      <c r="X61" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="25"/>
+    </row>
+    <row r="62" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="30" t="s">
         <v>225</v>
@@ -6729,45 +7166,51 @@
       <c r="G62" s="25">
         <v>0</v>
       </c>
-      <c r="L62" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M62" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N62" s="25">
-        <v>0</v>
-      </c>
-      <c r="O62" s="25">
-        <v>0</v>
-      </c>
-      <c r="P62" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="25">
-        <v>0</v>
-      </c>
-      <c r="R62" s="37" t="s">
+      <c r="I62" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K62" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P62" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q62" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R62" s="25">
+        <v>0</v>
+      </c>
+      <c r="S62" s="25">
+        <v>0</v>
+      </c>
+      <c r="T62" s="25">
+        <v>0</v>
+      </c>
+      <c r="U62" s="25">
+        <v>0</v>
+      </c>
+      <c r="V62" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S62" s="38">
-        <v>0</v>
-      </c>
-      <c r="T62" s="25">
-        <v>0</v>
-      </c>
-      <c r="U62" s="25">
-        <v>0</v>
-      </c>
-      <c r="V62" s="25">
-        <v>0</v>
-      </c>
-      <c r="W62" s="25">
-        <v>0</v>
-      </c>
-      <c r="X62" s="25"/>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W62" s="38">
+        <v>0</v>
+      </c>
+      <c r="X62" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="25"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="39"/>
       <c r="B63" s="30" t="s">
         <v>227</v>
@@ -6787,45 +7230,51 @@
       <c r="G63" s="25">
         <v>0</v>
       </c>
-      <c r="L63" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M63" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N63" s="25">
-        <v>0</v>
-      </c>
-      <c r="O63" s="25">
-        <v>0</v>
-      </c>
-      <c r="P63" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="25">
-        <v>0</v>
-      </c>
-      <c r="R63" s="36" t="s">
+      <c r="I63" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K63" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P63" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q63" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R63" s="25">
+        <v>0</v>
+      </c>
+      <c r="S63" s="25">
+        <v>0</v>
+      </c>
+      <c r="T63" s="25">
+        <v>0</v>
+      </c>
+      <c r="U63" s="25">
+        <v>0</v>
+      </c>
+      <c r="V63" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="S63" s="38">
-        <v>0</v>
-      </c>
-      <c r="T63" s="25">
-        <v>0</v>
-      </c>
-      <c r="U63" s="25">
-        <v>0</v>
-      </c>
-      <c r="V63" s="25">
-        <v>0</v>
-      </c>
-      <c r="W63" s="25">
-        <v>0</v>
-      </c>
-      <c r="X63" s="25"/>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W63" s="38">
+        <v>0</v>
+      </c>
+      <c r="X63" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="25"/>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B64" s="30" t="s">
         <v>229</v>
       </c>
@@ -6844,45 +7293,51 @@
       <c r="G64" s="25">
         <v>0</v>
       </c>
-      <c r="L64" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M64" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N64" s="25">
+      <c r="I64" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K64" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P64" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q64" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R64" s="25">
         <v>2</v>
       </c>
-      <c r="O64" s="25">
-        <v>0</v>
-      </c>
-      <c r="P64" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="25">
-        <v>0</v>
-      </c>
-      <c r="R64" s="36" t="s">
+      <c r="S64" s="25">
+        <v>0</v>
+      </c>
+      <c r="T64" s="25">
+        <v>0</v>
+      </c>
+      <c r="U64" s="25">
+        <v>0</v>
+      </c>
+      <c r="V64" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="S64" s="38">
-        <v>0</v>
-      </c>
-      <c r="T64" s="25">
-        <v>0</v>
-      </c>
-      <c r="U64" s="25">
-        <v>0</v>
-      </c>
-      <c r="V64" s="25">
-        <v>0</v>
-      </c>
-      <c r="W64" s="25">
-        <v>0</v>
-      </c>
-      <c r="X64" s="25"/>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W64" s="38">
+        <v>0</v>
+      </c>
+      <c r="X64" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="25"/>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B65" s="30" t="s">
         <v>231</v>
       </c>
@@ -6901,45 +7356,51 @@
       <c r="G65" s="25">
         <v>0</v>
       </c>
-      <c r="L65" s="26" t="s">
+      <c r="I65" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K65" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P65" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="M65" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N65" s="25">
-        <v>0</v>
-      </c>
-      <c r="O65" s="25">
-        <v>0</v>
-      </c>
-      <c r="P65" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="25">
-        <v>0</v>
-      </c>
-      <c r="R65" s="36" t="s">
+      <c r="Q65" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R65" s="25">
+        <v>0</v>
+      </c>
+      <c r="S65" s="25">
+        <v>0</v>
+      </c>
+      <c r="T65" s="25">
+        <v>0</v>
+      </c>
+      <c r="U65" s="25">
+        <v>0</v>
+      </c>
+      <c r="V65" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="S65" s="38">
-        <v>0</v>
-      </c>
-      <c r="T65" s="25">
-        <v>0</v>
-      </c>
-      <c r="U65" s="25">
-        <v>0</v>
-      </c>
-      <c r="V65" s="25">
-        <v>0</v>
-      </c>
-      <c r="W65" s="25">
-        <v>0</v>
-      </c>
-      <c r="X65" s="25"/>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W65" s="38">
+        <v>0</v>
+      </c>
+      <c r="X65" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="25"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B66" s="30" t="s">
         <v>233</v>
       </c>
@@ -6958,45 +7419,51 @@
       <c r="G66" s="25">
         <v>0</v>
       </c>
-      <c r="L66" s="26" t="s">
+      <c r="I66" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K66" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P66" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="M66" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N66" s="25">
-        <v>0</v>
-      </c>
-      <c r="O66" s="25">
-        <v>0</v>
-      </c>
-      <c r="P66" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="25">
-        <v>0</v>
-      </c>
-      <c r="R66" s="36" t="s">
+      <c r="Q66" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R66" s="25">
+        <v>0</v>
+      </c>
+      <c r="S66" s="25">
+        <v>0</v>
+      </c>
+      <c r="T66" s="25">
+        <v>0</v>
+      </c>
+      <c r="U66" s="25">
+        <v>0</v>
+      </c>
+      <c r="V66" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="S66" s="38">
-        <v>0</v>
-      </c>
-      <c r="T66" s="25">
-        <v>0</v>
-      </c>
-      <c r="U66" s="25">
-        <v>0</v>
-      </c>
-      <c r="V66" s="25">
-        <v>0</v>
-      </c>
-      <c r="W66" s="25">
-        <v>0</v>
-      </c>
-      <c r="X66" s="25"/>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W66" s="38">
+        <v>0</v>
+      </c>
+      <c r="X66" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="25"/>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B67" s="30" t="s">
         <v>235</v>
       </c>
@@ -7015,45 +7482,51 @@
       <c r="G67" s="25">
         <v>0</v>
       </c>
-      <c r="L67" s="26" t="s">
+      <c r="I67" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K67" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P67" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="M67" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N67" s="25">
-        <v>0</v>
-      </c>
-      <c r="O67" s="25">
-        <v>0</v>
-      </c>
-      <c r="P67" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="25">
-        <v>0</v>
-      </c>
-      <c r="R67" s="36" t="s">
+      <c r="Q67" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R67" s="25">
+        <v>0</v>
+      </c>
+      <c r="S67" s="25">
+        <v>0</v>
+      </c>
+      <c r="T67" s="25">
+        <v>0</v>
+      </c>
+      <c r="U67" s="25">
+        <v>0</v>
+      </c>
+      <c r="V67" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="S67" s="38">
-        <v>0</v>
-      </c>
-      <c r="T67" s="25">
-        <v>0</v>
-      </c>
-      <c r="U67" s="25">
-        <v>0</v>
-      </c>
-      <c r="V67" s="25">
-        <v>0</v>
-      </c>
-      <c r="W67" s="25">
-        <v>0</v>
-      </c>
-      <c r="X67" s="25"/>
-    </row>
-    <row r="68" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W67" s="38">
+        <v>0</v>
+      </c>
+      <c r="X67" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="25"/>
+    </row>
+    <row r="68" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="30" t="s">
         <v>237</v>
@@ -7073,45 +7546,51 @@
       <c r="G68" s="25">
         <v>0</v>
       </c>
-      <c r="L68" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M68" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N68" s="25">
-        <v>0</v>
-      </c>
-      <c r="O68" s="25">
-        <v>0</v>
-      </c>
-      <c r="P68" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="25">
-        <v>0</v>
-      </c>
-      <c r="R68" s="36" t="s">
+      <c r="I68" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K68" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P68" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q68" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R68" s="25">
+        <v>0</v>
+      </c>
+      <c r="S68" s="25">
+        <v>0</v>
+      </c>
+      <c r="T68" s="25">
+        <v>0</v>
+      </c>
+      <c r="U68" s="25">
+        <v>0</v>
+      </c>
+      <c r="V68" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="S68" s="38">
-        <v>0</v>
-      </c>
-      <c r="T68" s="25">
-        <v>0</v>
-      </c>
-      <c r="U68" s="25">
-        <v>0</v>
-      </c>
-      <c r="V68" s="25">
-        <v>0</v>
-      </c>
-      <c r="W68" s="25">
-        <v>0</v>
-      </c>
-      <c r="X68" s="25"/>
-    </row>
-    <row r="69" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W68" s="38">
+        <v>0</v>
+      </c>
+      <c r="X68" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="25"/>
+    </row>
+    <row r="69" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="30" t="s">
         <v>239</v>
@@ -7131,49 +7610,55 @@
       <c r="G69" s="25">
         <v>0</v>
       </c>
-      <c r="L69" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M69" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N69" s="25">
-        <v>0</v>
-      </c>
-      <c r="O69" s="25">
-        <v>0</v>
-      </c>
-      <c r="P69" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="25">
-        <v>0</v>
-      </c>
-      <c r="R69" s="37" t="s">
+      <c r="I69" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K69" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P69" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q69" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R69" s="25">
+        <v>0</v>
+      </c>
+      <c r="S69" s="25">
+        <v>0</v>
+      </c>
+      <c r="T69" s="25">
+        <v>0</v>
+      </c>
+      <c r="U69" s="25">
+        <v>0</v>
+      </c>
+      <c r="V69" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="S69" s="38">
-        <v>0</v>
-      </c>
-      <c r="T69" s="25">
-        <v>0</v>
-      </c>
-      <c r="U69" s="25">
-        <v>0</v>
-      </c>
-      <c r="V69" s="25">
-        <v>0</v>
-      </c>
-      <c r="W69" s="25">
-        <v>0</v>
-      </c>
-      <c r="X69" s="25"/>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="U70" s="25"/>
-      <c r="V70" s="25"/>
-      <c r="W70" s="25"/>
-      <c r="X70" s="25"/>
+      <c r="W69" s="38">
+        <v>0</v>
+      </c>
+      <c r="X69" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="25"/>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Y70" s="25"/>
+      <c r="Z70" s="25"/>
+      <c r="AA70" s="25"/>
+      <c r="AB70" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -7184,10 +7669,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563A30BF-B984-442D-9AC0-D471C6E27D28}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7210,7 +7695,7 @@
         <v>312</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -7226,7 +7711,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>310</v>
@@ -7258,7 +7743,7 @@
         <v>313</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -7267,7 +7752,7 @@
         <v>314</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D6" s="41" t="b">
         <v>1</v>
@@ -7281,7 +7766,7 @@
         <v>315</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D7" s="23" t="b">
         <v>0</v>
@@ -7295,7 +7780,7 @@
         <v>316</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -7306,10 +7791,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="40" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -7319,25 +7804,25 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="40" t="s">
-        <v>318</v>
+      <c r="B10" s="50" t="s">
+        <v>344</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>328</v>
+        <v>317</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>346</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -7348,13 +7833,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="40" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="23" t="b">
         <v>0</v>
@@ -7362,10 +7847,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -7376,20 +7861,42 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="40" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="40"/>
+      <c r="B15" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="23" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6974E87-BFA0-478B-ACE9-248E28D0D1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35AEE55-09A1-41E0-8FD3-3BBFD38A8AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="356">
   <si>
     <t>##var</t>
   </si>
@@ -1268,6 +1268,22 @@
   <si>
     <t>逆风</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以叠加</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove_all_when_round_end</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_stack</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>(只有是场地buff时生效)回合结束时是否移除所有</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1452,7 +1468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1603,6 +1619,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1613,7 +1638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1726,6 +1751,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -2923,8 +2949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7669,19 +7695,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563A30BF-B984-442D-9AC0-D471C6E27D28}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="25.75" customWidth="1"/>
     <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -7697,8 +7725,14 @@
       <c r="E1" s="48" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -7706,7 +7740,7 @@
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>16</v>
       </c>
@@ -7722,8 +7756,14 @@
       <c r="E3" s="48" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>23</v>
       </c>
@@ -7731,7 +7771,7 @@
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>24</v>
       </c>
@@ -7745,8 +7785,14 @@
       <c r="E5" s="48" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="40" t="s">
         <v>314</v>
@@ -7760,8 +7806,14 @@
       <c r="E6" s="23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="40" t="s">
         <v>315</v>
       </c>
@@ -7774,8 +7826,11 @@
       <c r="E7" s="23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="40" t="s">
         <v>316</v>
       </c>
@@ -7788,8 +7843,11 @@
       <c r="E8" s="23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="40" t="s">
         <v>343</v>
       </c>
@@ -7802,8 +7860,14 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="50" t="s">
         <v>344</v>
       </c>
@@ -7816,8 +7880,14 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="40" t="s">
         <v>317</v>
       </c>
@@ -7830,8 +7900,11 @@
       <c r="E11" s="23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="40" t="s">
         <v>318</v>
       </c>
@@ -7844,8 +7917,11 @@
       <c r="E12" s="23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
         <v>319</v>
       </c>
@@ -7858,8 +7934,14 @@
       <c r="E13" s="23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="40" t="s">
         <v>320</v>
       </c>
@@ -7872,8 +7954,11 @@
       <c r="E14" s="23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="40" t="s">
         <v>321</v>
       </c>
@@ -7886,8 +7971,11 @@
       <c r="E15" s="23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="40" t="s">
         <v>342</v>
       </c>
@@ -7895,6 +7983,12 @@
         <v>1</v>
       </c>
       <c r="E16" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12980" activeTab="2"/>
+    <workbookView windowWidth="30240" windowHeight="12980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="361">
   <si>
     <t>##var</t>
   </si>
@@ -436,6 +436,9 @@
     <t>using_def_to_cal_damage</t>
   </si>
   <si>
+    <t>darw_target_card_config_after_use</t>
+  </si>
+  <si>
     <t>darw_leader_card_count_after_use</t>
   </si>
   <si>
@@ -499,6 +502,9 @@
     <t>bool</t>
   </si>
   <si>
+    <t>DrawTargetCardTuple</t>
+  </si>
+  <si>
     <t>CardTypeEnum</t>
   </si>
   <si>
@@ -690,6 +696,15 @@
     </r>
   </si>
   <si>
+    <t>目标牌</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>抽不到时是否任意抽一张</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2394,12 +2409,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>己方选手恢复若干点生命，直到满血；己方回合结束时，受到等量伤害。从牌组中抽取一张</t>
     </r>
     <r>
@@ -2476,6 +2485,12 @@
     </r>
   </si>
   <si>
+    <t>回满血然后回合结束受到等量伤害</t>
+  </si>
+  <si>
+    <t>水流喷射</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3972,6 +3987,9 @@
   </si>
   <si>
     <t>阻止自身技能伤害</t>
+  </si>
+  <si>
+    <t>下一次技能伤害两倍</t>
   </si>
   <si>
     <t>prefab_path</t>
@@ -4488,7 +4506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -4591,6 +4609,17 @@
       <left style="thin">
         <color theme="2"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color theme="2"/>
@@ -4770,7 +4799,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4782,34 +4811,34 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4894,7 +4923,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4946,6 +4975,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4956,7 +4988,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4966,11 +5023,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4979,16 +5036,16 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4997,10 +5054,10 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5009,7 +5066,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5499,627 +5556,627 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" ht="17.55" spans="1:16">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="58" t="s">
+      <c r="N5" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="58" t="s">
+      <c r="O5" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="55" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" ht="17.55" spans="2:16">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="62">
         <v>320</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="62">
         <v>400</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="63">
         <v>65</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="63">
         <v>85</v>
       </c>
-      <c r="J6" s="56">
+      <c r="J6" s="66">
         <v>40</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K6" s="66">
         <v>80</v>
       </c>
-      <c r="L6" s="57">
+      <c r="L6" s="67">
         <v>100</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="67">
         <v>160</v>
       </c>
-      <c r="N6" s="59">
-        <v>0</v>
-      </c>
-      <c r="O6" s="59">
+      <c r="N6" s="69">
+        <v>0</v>
+      </c>
+      <c r="O6" s="69">
         <v>30</v>
       </c>
-      <c r="P6" s="46" t="s">
+      <c r="P6" s="56" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" ht="17.55" spans="2:16">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="62">
         <v>220</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="62">
         <v>320</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="63">
         <v>100</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="63">
         <v>150</v>
       </c>
-      <c r="J7" s="56">
+      <c r="J7" s="66">
         <v>20</v>
       </c>
-      <c r="K7" s="56">
+      <c r="K7" s="66">
         <v>50</v>
       </c>
-      <c r="L7" s="57">
+      <c r="L7" s="67">
         <v>120</v>
       </c>
-      <c r="M7" s="57">
+      <c r="M7" s="67">
         <v>200</v>
       </c>
-      <c r="N7" s="59">
-        <v>0</v>
-      </c>
-      <c r="O7" s="59">
+      <c r="N7" s="69">
+        <v>0</v>
+      </c>
+      <c r="O7" s="69">
         <v>10</v>
       </c>
-      <c r="P7" s="46" t="s">
+      <c r="P7" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" ht="17.55" spans="2:16">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="62">
         <v>350</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="62">
         <v>510</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="63">
         <v>40</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="63">
         <v>80</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="66">
         <v>65</v>
       </c>
-      <c r="K8" s="56">
+      <c r="K8" s="66">
         <v>140</v>
       </c>
-      <c r="L8" s="57">
+      <c r="L8" s="67">
         <v>20</v>
       </c>
-      <c r="M8" s="57">
+      <c r="M8" s="67">
         <v>45</v>
       </c>
-      <c r="N8" s="59">
-        <v>0</v>
-      </c>
-      <c r="O8" s="59">
+      <c r="N8" s="69">
+        <v>0</v>
+      </c>
+      <c r="O8" s="69">
         <v>40</v>
       </c>
-      <c r="P8" s="46" t="s">
+      <c r="P8" s="56" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" ht="17.55" spans="2:16">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="62">
         <v>220</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="62">
         <v>340</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="63">
         <v>90</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="63">
         <v>150</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="66">
         <v>10</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="66">
         <v>30</v>
       </c>
-      <c r="L9" s="57">
+      <c r="L9" s="67">
         <v>121</v>
       </c>
-      <c r="M9" s="57">
+      <c r="M9" s="67">
         <v>200</v>
       </c>
-      <c r="N9" s="59">
-        <v>0</v>
-      </c>
-      <c r="O9" s="59">
+      <c r="N9" s="69">
+        <v>0</v>
+      </c>
+      <c r="O9" s="69">
         <v>10</v>
       </c>
-      <c r="P9" s="46" t="s">
+      <c r="P9" s="56" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" ht="17.55" spans="2:16">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="62">
         <v>260</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="62">
         <v>480</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="63">
         <v>50</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="63">
         <v>90</v>
       </c>
-      <c r="J10" s="56">
+      <c r="J10" s="66">
         <v>30</v>
       </c>
-      <c r="K10" s="56">
+      <c r="K10" s="66">
         <v>90</v>
       </c>
-      <c r="L10" s="57">
+      <c r="L10" s="67">
         <v>90</v>
       </c>
-      <c r="M10" s="57">
+      <c r="M10" s="67">
         <v>180</v>
       </c>
-      <c r="N10" s="59">
-        <v>0</v>
-      </c>
-      <c r="O10" s="59">
+      <c r="N10" s="69">
+        <v>0</v>
+      </c>
+      <c r="O10" s="69">
         <v>30</v>
       </c>
-      <c r="P10" s="46" t="s">
+      <c r="P10" s="56" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" ht="17.55" spans="2:16">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="62">
         <v>490</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="62">
         <v>540</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="63">
         <v>25</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="63">
         <v>60</v>
       </c>
-      <c r="J11" s="56">
+      <c r="J11" s="66">
         <v>90</v>
       </c>
-      <c r="K11" s="56">
+      <c r="K11" s="66">
         <v>150</v>
       </c>
-      <c r="L11" s="57">
+      <c r="L11" s="67">
         <v>5</v>
       </c>
-      <c r="M11" s="57">
+      <c r="M11" s="67">
         <v>25</v>
       </c>
-      <c r="N11" s="59">
-        <v>0</v>
-      </c>
-      <c r="O11" s="59">
+      <c r="N11" s="69">
+        <v>0</v>
+      </c>
+      <c r="O11" s="69">
         <v>50</v>
       </c>
-      <c r="P11" s="46" t="s">
+      <c r="P11" s="56" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" ht="17.55" spans="2:16">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="62">
         <v>550</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="62">
         <v>600</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="63">
         <v>10</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="63">
         <v>30</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="66">
         <v>120</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K12" s="66">
         <v>150</v>
       </c>
-      <c r="L12" s="57">
+      <c r="L12" s="67">
         <v>5</v>
       </c>
-      <c r="M12" s="57">
+      <c r="M12" s="67">
         <v>20</v>
       </c>
-      <c r="N12" s="59">
+      <c r="N12" s="69">
         <v>10</v>
       </c>
-      <c r="O12" s="59">
+      <c r="O12" s="69">
         <v>50</v>
       </c>
-      <c r="P12" s="46" t="s">
+      <c r="P12" s="56" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" ht="17.55" spans="2:16">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="62">
         <v>310</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="62">
         <v>400</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="63">
         <v>80</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="63">
         <v>110</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="66">
         <v>30</v>
       </c>
-      <c r="K13" s="56">
+      <c r="K13" s="66">
         <v>80</v>
       </c>
-      <c r="L13" s="57">
+      <c r="L13" s="67">
         <v>60</v>
       </c>
-      <c r="M13" s="57">
+      <c r="M13" s="67">
         <v>90</v>
       </c>
-      <c r="N13" s="59">
-        <v>0</v>
-      </c>
-      <c r="O13" s="59">
+      <c r="N13" s="69">
+        <v>0</v>
+      </c>
+      <c r="O13" s="69">
         <v>25</v>
       </c>
-      <c r="P13" s="46" t="s">
+      <c r="P13" s="56" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" ht="17.55" spans="2:16">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="62">
         <v>400</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="62">
         <v>460</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="63">
         <v>60</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="63">
         <v>95</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J14" s="66">
         <v>30</v>
       </c>
-      <c r="K14" s="56">
+      <c r="K14" s="66">
         <v>90</v>
       </c>
-      <c r="L14" s="57">
+      <c r="L14" s="67">
         <v>45</v>
       </c>
-      <c r="M14" s="57">
+      <c r="M14" s="67">
         <v>90</v>
       </c>
-      <c r="N14" s="59">
-        <v>0</v>
-      </c>
-      <c r="O14" s="59">
+      <c r="N14" s="69">
+        <v>0</v>
+      </c>
+      <c r="O14" s="69">
         <v>20</v>
       </c>
-      <c r="P14" s="46" t="s">
+      <c r="P14" s="56" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" ht="17.55" spans="2:16">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="62">
         <v>140</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="62">
         <v>280</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="63">
         <v>55</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="63">
         <v>110</v>
       </c>
-      <c r="J15" s="56">
+      <c r="J15" s="66">
         <v>20</v>
       </c>
-      <c r="K15" s="56">
+      <c r="K15" s="66">
         <v>40</v>
       </c>
-      <c r="L15" s="57">
+      <c r="L15" s="67">
         <v>100</v>
       </c>
-      <c r="M15" s="57">
+      <c r="M15" s="67">
         <v>200</v>
       </c>
-      <c r="N15" s="59">
+      <c r="N15" s="69">
         <v>10</v>
       </c>
-      <c r="O15" s="59">
+      <c r="O15" s="69">
         <v>20</v>
       </c>
-      <c r="P15" s="46" t="s">
+      <c r="P15" s="56" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" ht="17.55" spans="2:16">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="62">
         <v>150</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="62">
         <v>220</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="63">
         <v>100</v>
       </c>
-      <c r="I16" s="53">
+      <c r="I16" s="63">
         <v>120</v>
       </c>
-      <c r="J16" s="56">
-        <v>0</v>
-      </c>
-      <c r="K16" s="56">
+      <c r="J16" s="66">
+        <v>0</v>
+      </c>
+      <c r="K16" s="66">
         <v>40</v>
       </c>
-      <c r="L16" s="57">
+      <c r="L16" s="67">
         <v>200</v>
       </c>
-      <c r="M16" s="57">
+      <c r="M16" s="67">
         <v>200</v>
       </c>
-      <c r="N16" s="59">
-        <v>0</v>
-      </c>
-      <c r="O16" s="59">
+      <c r="N16" s="69">
+        <v>0</v>
+      </c>
+      <c r="O16" s="69">
         <v>50</v>
       </c>
-      <c r="P16" s="46" t="s">
+      <c r="P16" s="56" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" ht="17.55" spans="2:16">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="62">
         <v>200</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="62">
         <v>270</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="63">
         <v>70</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="63">
         <v>90</v>
       </c>
-      <c r="J17" s="56">
+      <c r="J17" s="66">
         <v>10</v>
       </c>
-      <c r="K17" s="56">
+      <c r="K17" s="66">
         <v>50</v>
       </c>
-      <c r="L17" s="57">
+      <c r="L17" s="67">
         <v>110</v>
       </c>
-      <c r="M17" s="57">
+      <c r="M17" s="67">
         <v>120</v>
       </c>
-      <c r="N17" s="59">
-        <v>0</v>
-      </c>
-      <c r="O17" s="59">
+      <c r="N17" s="69">
+        <v>0</v>
+      </c>
+      <c r="O17" s="69">
         <v>35</v>
       </c>
-      <c r="P17" s="46" t="s">
+      <c r="P17" s="56" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" ht="17.55" spans="2:2">
-      <c r="B18" s="42"/>
+      <c r="B18" s="52"/>
     </row>
     <row r="19" ht="17.55" spans="2:2">
-      <c r="B19" s="42"/>
+      <c r="B19" s="52"/>
     </row>
     <row r="20" ht="17.55" spans="2:2">
-      <c r="B20" s="42"/>
+      <c r="B20" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6143,54 +6200,54 @@
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:3">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="50" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="A2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="51" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="51" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
     </row>
     <row r="5" ht="17.55" spans="1:3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="50" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" ht="17.55" spans="2:3">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="52" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -6198,7 +6255,7 @@
       </c>
     </row>
     <row r="7" ht="17.55" spans="2:3">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="52" t="s">
         <v>46</v>
       </c>
       <c r="C7" t="s">
@@ -6206,7 +6263,7 @@
       </c>
     </row>
     <row r="8" ht="17.55" spans="2:3">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="52" t="s">
         <v>50</v>
       </c>
       <c r="C8" t="s">
@@ -6214,7 +6271,7 @@
       </c>
     </row>
     <row r="9" ht="17.55" spans="2:3">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="52" t="s">
         <v>54</v>
       </c>
       <c r="C9" t="s">
@@ -6222,7 +6279,7 @@
       </c>
     </row>
     <row r="10" ht="17.55" spans="2:3">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="52" t="s">
         <v>58</v>
       </c>
       <c r="C10" t="s">
@@ -6230,7 +6287,7 @@
       </c>
     </row>
     <row r="11" ht="17.55" spans="2:3">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="52" t="s">
         <v>62</v>
       </c>
       <c r="C11" t="s">
@@ -6238,7 +6295,7 @@
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="53" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6251,10 +6308,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE70"/>
+  <dimension ref="A1:AH70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="D29" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -6274,21 +6331,26 @@
     <col min="14" max="14" width="7" style="4" customWidth="1"/>
     <col min="15" max="15" width="7.25" style="4" customWidth="1"/>
     <col min="16" max="16" width="17.625" style="4" customWidth="1"/>
-    <col min="17" max="19" width="7.25" style="4" customWidth="1"/>
-    <col min="20" max="21" width="12.75" style="4" customWidth="1"/>
-    <col min="22" max="22" width="11.625" customWidth="1"/>
-    <col min="23" max="23" width="16.25" customWidth="1"/>
-    <col min="24" max="24" width="14.375" customWidth="1"/>
-    <col min="25" max="25" width="13.25" customWidth="1"/>
-    <col min="26" max="26" width="11.125" customWidth="1"/>
-    <col min="27" max="27" width="19.5" customWidth="1"/>
-    <col min="28" max="28" width="18.875" customWidth="1"/>
-    <col min="29" max="29" width="12.75" customWidth="1"/>
-    <col min="30" max="30" width="16.25" customWidth="1"/>
-    <col min="31" max="31" width="15.75" style="26" customWidth="1"/>
+    <col min="17" max="17" width="16.0714285714286" style="4" customWidth="1"/>
+    <col min="18" max="18" width="20.6785714285714" style="4" customWidth="1"/>
+    <col min="19" max="19" width="21.875" style="4" customWidth="1"/>
+    <col min="20" max="21" width="25.8839285714286" style="4" customWidth="1"/>
+    <col min="22" max="22" width="15.9196428571429" style="4" customWidth="1"/>
+    <col min="23" max="23" width="12.75" style="4" customWidth="1"/>
+    <col min="24" max="24" width="19.3392857142857" style="4" customWidth="1"/>
+    <col min="25" max="25" width="17.1160714285714" customWidth="1"/>
+    <col min="26" max="26" width="16.25" customWidth="1"/>
+    <col min="27" max="27" width="14.375" customWidth="1"/>
+    <col min="28" max="28" width="13.25" customWidth="1"/>
+    <col min="29" max="29" width="11.125" customWidth="1"/>
+    <col min="30" max="30" width="19.5" customWidth="1"/>
+    <col min="31" max="31" width="18.875" customWidth="1"/>
+    <col min="32" max="32" width="12.75" customWidth="1"/>
+    <col min="33" max="33" width="16.25" customWidth="1"/>
+    <col min="34" max="34" width="15.75" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:34">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6304,7 +6366,7 @@
       <c r="E1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>97</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -6340,50 +6402,55 @@
       <c r="Q1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="40"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="X1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Z1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="AD1" s="32" t="s">
+      <c r="AF1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AG1" s="33" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:31">
+      <c r="AH1" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -6391,7 +6458,7 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="33"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -6403,27 +6470,30 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
       <c r="U2" s="12"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
       <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="38"/>
-    </row>
-    <row r="3" spans="1:31">
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="48"/>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>20</v>
@@ -6432,9 +6502,9 @@
         <v>18</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -6444,76 +6514,81 @@
         <v>21</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="P3" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="P3" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q3" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="R3" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
       <c r="U3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="W3" s="9" t="s">
+      <c r="V3" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="W3" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="X3" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Z3" s="8" t="s">
-        <v>126</v>
+      <c r="Y3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="AA3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="8" t="s">
-        <v>126</v>
-      </c>
       <c r="AC3" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD3" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AH3" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:34">
       <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
@@ -6521,7 +6596,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="33"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -6533,22 +6608,25 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="44"/>
       <c r="U4" s="12"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
       <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="38"/>
-    </row>
-    <row r="5" ht="17.75" spans="1:31">
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="48"/>
+    </row>
+    <row r="5" ht="17.75" spans="1:34">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -6556,108 +6634,117 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K5" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="M5" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="S5" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="R5" s="4" t="s">
         <v>146</v>
       </c>
+      <c r="S5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="T5" s="38" t="s">
+        <v>148</v>
+      </c>
       <c r="U5" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="W5" s="9" t="s">
         <v>149</v>
       </c>
+      <c r="V5" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="X5" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z5" s="8" t="s">
         <v>152</v>
       </c>
+      <c r="Y5" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>154</v>
+      </c>
       <c r="AA5" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AB5" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD5" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE5" s="39" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="6" ht="17.75" spans="1:31">
+      <c r="AD5" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG5" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH5" s="49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" ht="17.75" spans="1:34">
       <c r="A6" s="12"/>
       <c r="B6" s="24" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="34">
+        <v>166</v>
+      </c>
+      <c r="F6" s="35">
         <v>90</v>
       </c>
       <c r="G6" s="12">
@@ -6665,53 +6752,53 @@
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N6" s="12">
         <v>1</v>
       </c>
       <c r="O6" s="12"/>
       <c r="P6" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q6" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R6" s="12">
-        <v>0</v>
-      </c>
-      <c r="S6" s="12">
-        <v>0</v>
-      </c>
-      <c r="T6" s="12">
+      <c r="R6" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U6" s="12">
         <v>0</v>
       </c>
-      <c r="V6" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W6" s="36">
+      <c r="V6" s="12">
+        <v>0</v>
+      </c>
+      <c r="W6" s="12">
         <v>0</v>
       </c>
       <c r="X6" s="12">
         <v>0</v>
       </c>
-      <c r="Y6" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="12">
+      <c r="Y6" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z6" s="37">
         <v>0</v>
       </c>
       <c r="AA6" s="12">
@@ -6720,25 +6807,34 @@
       <c r="AB6" s="12">
         <v>0</v>
       </c>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="38"/>
-    </row>
-    <row r="7" ht="17.75" spans="1:31">
+      <c r="AC6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="48"/>
+    </row>
+    <row r="7" ht="17.75" spans="1:34">
       <c r="A7" s="12"/>
       <c r="B7" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>159</v>
-      </c>
       <c r="D7" s="28" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="34">
+        <v>166</v>
+      </c>
+      <c r="F7" s="35">
         <v>50</v>
       </c>
       <c r="G7" s="12">
@@ -6746,53 +6842,53 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N7" s="12">
         <v>1</v>
       </c>
       <c r="O7" s="12"/>
       <c r="P7" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R7" s="12">
-        <v>0</v>
+      <c r="R7" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S7" s="12">
         <v>0</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U7" s="12">
         <v>0</v>
       </c>
-      <c r="V7" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W7" s="36">
+      <c r="V7" s="12">
+        <v>0</v>
+      </c>
+      <c r="W7" s="12">
         <v>0</v>
       </c>
       <c r="X7" s="12">
         <v>0</v>
       </c>
-      <c r="Y7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="12">
+      <c r="Y7" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z7" s="37">
         <v>0</v>
       </c>
       <c r="AA7" s="12">
@@ -6801,25 +6897,34 @@
       <c r="AB7" s="12">
         <v>0</v>
       </c>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="38"/>
-    </row>
-    <row r="8" ht="17.75" spans="1:31">
+      <c r="AC7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="48"/>
+    </row>
+    <row r="8" ht="17.75" spans="1:34">
       <c r="A8" s="12"/>
       <c r="B8" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8" s="34">
+      <c r="F8" s="35">
         <v>60</v>
       </c>
       <c r="G8" s="12">
@@ -6827,53 +6932,53 @@
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L8" s="12">
         <v>0</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N8" s="12">
         <v>1</v>
       </c>
       <c r="O8" s="12"/>
       <c r="P8" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q8" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R8" s="12">
-        <v>0</v>
-      </c>
-      <c r="S8" s="12">
-        <v>0</v>
-      </c>
-      <c r="T8" s="12">
+      <c r="R8" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U8" s="12">
         <v>0</v>
       </c>
-      <c r="V8" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W8" s="36">
+      <c r="V8" s="12">
+        <v>0</v>
+      </c>
+      <c r="W8" s="12">
         <v>0</v>
       </c>
       <c r="X8" s="12">
         <v>0</v>
       </c>
-      <c r="Y8" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="12">
+      <c r="Y8" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z8" s="37">
         <v>0</v>
       </c>
       <c r="AA8" s="12">
@@ -6882,25 +6987,34 @@
       <c r="AB8" s="12">
         <v>0</v>
       </c>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="38"/>
-    </row>
-    <row r="9" ht="17.75" spans="1:31">
+      <c r="AC8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="48"/>
+    </row>
+    <row r="9" ht="17.75" spans="1:34">
       <c r="A9" s="12"/>
       <c r="B9" s="24" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="34">
+        <v>166</v>
+      </c>
+      <c r="F9" s="35">
         <v>40</v>
       </c>
       <c r="G9" s="12">
@@ -6908,80 +7022,89 @@
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L9" s="12">
         <v>0</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N9" s="12">
         <v>1</v>
       </c>
       <c r="O9" s="12"/>
       <c r="P9" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q9" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R9" s="12">
-        <v>0</v>
+      <c r="R9" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S9" s="12">
         <v>0</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U9" s="12">
         <v>0</v>
       </c>
-      <c r="V9" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W9" s="36">
+      <c r="V9" s="12">
+        <v>0</v>
+      </c>
+      <c r="W9" s="12">
         <v>0</v>
       </c>
       <c r="X9" s="12">
         <v>0</v>
       </c>
-      <c r="Y9" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="12">
+      <c r="Y9" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z9" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="12">
         <v>0.4</v>
       </c>
-      <c r="AA9" s="12">
+      <c r="AD9" s="12">
         <v>2</v>
       </c>
-      <c r="AB9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="38"/>
-    </row>
-    <row r="10" ht="17.75" spans="1:31">
+      <c r="AE9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="48"/>
+    </row>
+    <row r="10" ht="17.75" spans="1:34">
       <c r="A10" s="12"/>
       <c r="B10" s="24" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="34">
+        <v>166</v>
+      </c>
+      <c r="F10" s="35">
         <v>90</v>
       </c>
       <c r="G10" s="12">
@@ -6989,53 +7112,53 @@
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L10" s="12">
         <v>0</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N10" s="12">
         <v>1</v>
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R10" s="12">
-        <v>0</v>
-      </c>
-      <c r="S10" s="12">
-        <v>0</v>
-      </c>
-      <c r="T10" s="12">
+      <c r="R10" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U10" s="12">
         <v>0</v>
       </c>
-      <c r="V10" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W10" s="36">
+      <c r="V10" s="12">
+        <v>0</v>
+      </c>
+      <c r="W10" s="12">
         <v>0</v>
       </c>
       <c r="X10" s="12">
         <v>0</v>
       </c>
-      <c r="Y10" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="12">
+      <c r="Y10" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z10" s="37">
         <v>0</v>
       </c>
       <c r="AA10" s="12">
@@ -7044,25 +7167,34 @@
       <c r="AB10" s="12">
         <v>0</v>
       </c>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="38"/>
-    </row>
-    <row r="11" ht="17.75" spans="1:31">
+      <c r="AC10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="48"/>
+    </row>
+    <row r="11" ht="17.75" spans="1:34">
       <c r="A11" s="12"/>
       <c r="B11" s="24" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F11" s="34">
+        <v>166</v>
+      </c>
+      <c r="F11" s="35">
         <v>60</v>
       </c>
       <c r="G11" s="12">
@@ -7070,80 +7202,89 @@
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L11" s="12">
         <v>0</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N11" s="12">
         <v>1</v>
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R11" s="12">
-        <v>0</v>
+      <c r="R11" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S11" s="12">
         <v>0</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T11" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U11" s="12">
         <v>0</v>
       </c>
-      <c r="V11" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W11" s="36">
+      <c r="V11" s="12">
+        <v>0</v>
+      </c>
+      <c r="W11" s="12">
         <v>0</v>
       </c>
       <c r="X11" s="12">
         <v>0</v>
       </c>
-      <c r="Y11" s="12">
+      <c r="Y11" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="12">
         <v>10</v>
       </c>
-      <c r="Z11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="38"/>
-    </row>
-    <row r="12" ht="17.75" spans="1:31">
+      <c r="AC11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="48"/>
+    </row>
+    <row r="12" ht="17.75" spans="1:34">
       <c r="A12" s="12"/>
       <c r="B12" s="24" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="34">
+        <v>166</v>
+      </c>
+      <c r="F12" s="35">
         <v>110</v>
       </c>
       <c r="G12" s="12">
@@ -7151,53 +7292,53 @@
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L12" s="12">
         <v>0</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N12" s="12">
         <v>1</v>
       </c>
       <c r="O12" s="12"/>
       <c r="P12" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q12" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R12" s="12">
-        <v>0</v>
-      </c>
-      <c r="S12" s="12">
-        <v>0</v>
-      </c>
-      <c r="T12" s="12">
+      <c r="R12" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U12" s="12">
         <v>0</v>
       </c>
-      <c r="V12" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W12" s="36">
+      <c r="V12" s="12">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
         <v>0</v>
       </c>
       <c r="X12" s="12">
         <v>0</v>
       </c>
-      <c r="Y12" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="12">
+      <c r="Y12" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z12" s="37">
         <v>0</v>
       </c>
       <c r="AA12" s="12">
@@ -7206,25 +7347,34 @@
       <c r="AB12" s="12">
         <v>0</v>
       </c>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="38"/>
-    </row>
-    <row r="13" ht="17.75" spans="1:31">
+      <c r="AC12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="48"/>
+    </row>
+    <row r="13" ht="17.75" spans="1:34">
       <c r="A13" s="12"/>
       <c r="B13" s="24" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F13" s="34">
+        <v>166</v>
+      </c>
+      <c r="F13" s="35">
         <v>80</v>
       </c>
       <c r="G13" s="12">
@@ -7232,80 +7382,89 @@
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L13" s="12">
         <v>0</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N13" s="12">
         <v>1</v>
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R13" s="12">
-        <v>0</v>
+      <c r="R13" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S13" s="12">
         <v>0</v>
       </c>
-      <c r="T13" s="12">
+      <c r="T13" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U13" s="12">
         <v>0</v>
       </c>
-      <c r="V13" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W13" s="36">
+      <c r="V13" s="12">
+        <v>0</v>
+      </c>
+      <c r="W13" s="12">
         <v>0</v>
       </c>
       <c r="X13" s="12">
         <v>0</v>
       </c>
-      <c r="Y13" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="12">
+      <c r="Y13" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z13" s="37">
         <v>0</v>
       </c>
       <c r="AA13" s="12">
         <v>0</v>
       </c>
       <c r="AB13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="12">
         <v>0.5</v>
       </c>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="38"/>
-    </row>
-    <row r="14" ht="17.75" spans="1:31">
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="48"/>
+    </row>
+    <row r="14" ht="17.75" spans="1:34">
       <c r="A14" s="12"/>
       <c r="B14" s="24" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F14" s="34">
+        <v>187</v>
+      </c>
+      <c r="F14" s="35">
         <v>0</v>
       </c>
       <c r="G14" s="12">
@@ -7313,80 +7472,89 @@
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L14" s="12">
         <v>0</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N14" s="12">
         <v>1</v>
       </c>
       <c r="O14" s="12"/>
       <c r="P14" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R14" s="12">
-        <v>0</v>
-      </c>
-      <c r="S14" s="12">
-        <v>0</v>
-      </c>
-      <c r="T14" s="12">
+      <c r="R14" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U14" s="12">
         <v>0</v>
       </c>
-      <c r="V14" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W14" s="36">
+      <c r="V14" s="12">
+        <v>0</v>
+      </c>
+      <c r="W14" s="12">
         <v>0</v>
       </c>
       <c r="X14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z14" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="12">
         <v>0.2</v>
       </c>
-      <c r="Y14" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="12">
-        <v>0</v>
-      </c>
       <c r="AB14" s="12">
         <v>0</v>
       </c>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="38"/>
-    </row>
-    <row r="15" ht="17.75" spans="1:31">
+      <c r="AC14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="48"/>
+    </row>
+    <row r="15" ht="17.75" spans="1:34">
       <c r="A15" s="12"/>
       <c r="B15" s="24" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F15" s="34">
+        <v>166</v>
+      </c>
+      <c r="F15" s="35">
         <v>70</v>
       </c>
       <c r="G15" s="12">
@@ -7394,53 +7562,53 @@
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L15" s="12">
         <v>0</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N15" s="12">
         <v>1</v>
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q15" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R15" s="12">
-        <v>0</v>
+      <c r="R15" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S15" s="12">
         <v>0</v>
       </c>
-      <c r="T15" s="12">
+      <c r="T15" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U15" s="12">
         <v>0</v>
       </c>
-      <c r="V15" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W15" s="36">
+      <c r="V15" s="12">
+        <v>0</v>
+      </c>
+      <c r="W15" s="12">
         <v>0</v>
       </c>
       <c r="X15" s="12">
         <v>0</v>
       </c>
-      <c r="Y15" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="12">
+      <c r="Y15" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z15" s="37">
         <v>0</v>
       </c>
       <c r="AA15" s="12">
@@ -7449,25 +7617,34 @@
       <c r="AB15" s="12">
         <v>0</v>
       </c>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="38"/>
-    </row>
-    <row r="16" ht="17.75" spans="1:31">
+      <c r="AC15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="48"/>
+    </row>
+    <row r="16" ht="17.75" spans="1:34">
       <c r="A16" s="12"/>
       <c r="B16" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>180</v>
-      </c>
       <c r="D16" s="28" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" s="34">
+        <v>166</v>
+      </c>
+      <c r="F16" s="35">
         <v>100</v>
       </c>
       <c r="G16" s="12">
@@ -7475,80 +7652,89 @@
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L16" s="12">
         <v>0</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N16" s="12">
         <v>1</v>
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R16" s="12">
-        <v>0</v>
-      </c>
-      <c r="S16" s="12">
-        <v>0</v>
-      </c>
-      <c r="T16" s="12">
+      <c r="R16" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U16" s="12">
         <v>0</v>
       </c>
-      <c r="V16" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W16" s="36">
+      <c r="V16" s="12">
+        <v>0</v>
+      </c>
+      <c r="W16" s="12">
         <v>0</v>
       </c>
       <c r="X16" s="12">
         <v>0</v>
       </c>
-      <c r="Y16" s="12">
+      <c r="Y16" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z16" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="12">
         <v>-10</v>
       </c>
-      <c r="Z16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="38"/>
-    </row>
-    <row r="17" ht="17.75" spans="1:31">
+      <c r="AC16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="48"/>
+    </row>
+    <row r="17" ht="17.75" spans="1:34">
       <c r="A17" s="12"/>
       <c r="B17" s="24" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="34">
+        <v>166</v>
+      </c>
+      <c r="F17" s="35">
         <v>90</v>
       </c>
       <c r="G17" s="12">
@@ -7556,53 +7742,53 @@
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L17" s="12">
         <v>0</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N17" s="12">
         <v>1</v>
       </c>
       <c r="O17" s="12"/>
       <c r="P17" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q17" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R17" s="12">
-        <v>0</v>
+      <c r="R17" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S17" s="12">
         <v>0</v>
       </c>
-      <c r="T17" s="12">
+      <c r="T17" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U17" s="12">
         <v>0</v>
       </c>
-      <c r="V17" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W17" s="36">
+      <c r="V17" s="12">
+        <v>0</v>
+      </c>
+      <c r="W17" s="12">
         <v>0</v>
       </c>
       <c r="X17" s="12">
         <v>0</v>
       </c>
-      <c r="Y17" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="12">
+      <c r="Y17" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z17" s="37">
         <v>0</v>
       </c>
       <c r="AA17" s="12">
@@ -7611,29 +7797,38 @@
       <c r="AB17" s="12">
         <v>0</v>
       </c>
-      <c r="AC17" s="13">
+      <c r="AC17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="13">
         <v>0.5</v>
       </c>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="38">
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="48">
         <v>30</v>
       </c>
     </row>
-    <row r="18" ht="17.75" spans="1:31">
+    <row r="18" ht="17.75" spans="1:34">
       <c r="A18" s="12"/>
       <c r="B18" s="24" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="34">
+        <v>166</v>
+      </c>
+      <c r="F18" s="35">
         <v>110</v>
       </c>
       <c r="G18" s="12">
@@ -7641,53 +7836,53 @@
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L18" s="12">
         <v>0</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N18" s="12">
         <v>1</v>
       </c>
       <c r="O18" s="12"/>
       <c r="P18" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q18" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R18" s="12">
-        <v>0</v>
-      </c>
-      <c r="S18" s="12">
-        <v>0</v>
-      </c>
-      <c r="T18" s="12">
+      <c r="R18" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U18" s="12">
         <v>0</v>
       </c>
-      <c r="V18" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W18" s="36">
+      <c r="V18" s="12">
+        <v>0</v>
+      </c>
+      <c r="W18" s="12">
         <v>0</v>
       </c>
       <c r="X18" s="12">
         <v>0</v>
       </c>
-      <c r="Y18" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="12">
+      <c r="Y18" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z18" s="37">
         <v>0</v>
       </c>
       <c r="AA18" s="12">
@@ -7696,27 +7891,36 @@
       <c r="AB18" s="12">
         <v>0</v>
       </c>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE18" s="38"/>
-    </row>
-    <row r="19" ht="17.75" spans="1:31">
+      <c r="AC18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH18" s="48"/>
+    </row>
+    <row r="19" ht="17.75" spans="1:34">
       <c r="A19" s="12"/>
       <c r="B19" s="24" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" s="34">
+        <v>166</v>
+      </c>
+      <c r="F19" s="35">
         <v>60</v>
       </c>
       <c r="G19" s="12">
@@ -7724,78 +7928,87 @@
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L19" s="12">
         <v>0</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N19" s="12">
         <v>1</v>
       </c>
       <c r="O19" s="12"/>
       <c r="P19" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q19" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="R19" s="12">
-        <v>0</v>
+      <c r="R19" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S19" s="12">
         <v>0</v>
       </c>
-      <c r="T19" s="12">
+      <c r="T19" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U19" s="12">
         <v>0</v>
       </c>
-      <c r="V19" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W19" s="36">
+      <c r="V19" s="12">
+        <v>0</v>
+      </c>
+      <c r="W19" s="12">
         <v>0</v>
       </c>
       <c r="X19" s="12">
         <v>0</v>
       </c>
-      <c r="Y19" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="12">
+      <c r="Y19" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z19" s="37">
         <v>0</v>
       </c>
       <c r="AA19" s="12">
         <v>0</v>
       </c>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="38"/>
-    </row>
-    <row r="20" ht="17.75" spans="1:31">
+      <c r="AB19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="48"/>
+    </row>
+    <row r="20" ht="17.75" spans="1:34">
       <c r="A20" s="12"/>
       <c r="B20" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>190</v>
-      </c>
       <c r="D20" s="28" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="34">
+        <v>166</v>
+      </c>
+      <c r="F20" s="35">
         <v>120</v>
       </c>
       <c r="G20" s="12">
@@ -7803,78 +8016,87 @@
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L20" s="12">
         <v>0</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N20" s="12">
         <v>0.6</v>
       </c>
       <c r="O20" s="12"/>
       <c r="P20" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q20" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R20" s="12">
-        <v>0</v>
-      </c>
-      <c r="S20" s="12">
-        <v>0</v>
-      </c>
-      <c r="T20" s="12">
+      <c r="R20" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U20" s="12">
         <v>0</v>
       </c>
-      <c r="V20" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W20" s="36">
+      <c r="V20" s="12">
+        <v>0</v>
+      </c>
+      <c r="W20" s="12">
         <v>0</v>
       </c>
       <c r="X20" s="12">
         <v>0</v>
       </c>
-      <c r="Y20" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="12">
+      <c r="Y20" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z20" s="37">
         <v>0</v>
       </c>
       <c r="AA20" s="12">
         <v>0</v>
       </c>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="38"/>
-    </row>
-    <row r="21" ht="17.75" spans="1:31">
+      <c r="AB20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="48"/>
+    </row>
+    <row r="21" ht="17.75" spans="1:34">
       <c r="A21" s="12"/>
       <c r="B21" s="24" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="34">
+        <v>166</v>
+      </c>
+      <c r="F21" s="35">
         <v>50</v>
       </c>
       <c r="G21" s="12">
@@ -7882,78 +8104,87 @@
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L21" s="12">
         <v>0</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N21" s="12">
         <v>1</v>
       </c>
       <c r="O21" s="12"/>
       <c r="P21" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q21" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R21" s="12">
-        <v>0</v>
+      <c r="R21" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S21" s="12">
         <v>0</v>
       </c>
-      <c r="T21" s="12">
+      <c r="T21" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U21" s="12">
         <v>0</v>
       </c>
-      <c r="V21" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W21" s="36">
+      <c r="V21" s="12">
+        <v>0</v>
+      </c>
+      <c r="W21" s="12">
         <v>0</v>
       </c>
       <c r="X21" s="12">
         <v>0</v>
       </c>
-      <c r="Y21" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="12">
+      <c r="Y21" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z21" s="37">
         <v>0</v>
       </c>
       <c r="AA21" s="12">
         <v>0</v>
       </c>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="38"/>
-    </row>
-    <row r="22" ht="17.75" spans="1:31">
+      <c r="AB21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="48"/>
+    </row>
+    <row r="22" ht="17.75" spans="1:34">
       <c r="A22" s="12"/>
       <c r="B22" s="24" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" s="34">
+        <v>166</v>
+      </c>
+      <c r="F22" s="35">
         <v>30</v>
       </c>
       <c r="G22" s="12">
@@ -7961,80 +8192,89 @@
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L22" s="12">
         <v>0</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N22" s="12">
         <v>1</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R22" s="12">
-        <v>0</v>
-      </c>
-      <c r="S22" s="12">
-        <v>0</v>
-      </c>
-      <c r="T22" s="12">
+      <c r="R22" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U22" s="12">
         <v>0</v>
       </c>
-      <c r="V22" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W22" s="36">
+      <c r="V22" s="12">
+        <v>0</v>
+      </c>
+      <c r="W22" s="12">
         <v>0</v>
       </c>
       <c r="X22" s="12">
         <v>0</v>
       </c>
-      <c r="Y22" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="12">
+      <c r="Y22" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z22" s="37">
         <v>0</v>
       </c>
       <c r="AA22" s="12">
         <v>0</v>
       </c>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="38"/>
-    </row>
-    <row r="23" ht="17.75" spans="1:31">
+      <c r="AB22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="48"/>
+    </row>
+    <row r="23" ht="17.75" spans="1:34">
       <c r="A23" s="12"/>
       <c r="B23" s="24" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="34">
+        <v>166</v>
+      </c>
+      <c r="F23" s="35">
         <v>80</v>
       </c>
       <c r="G23" s="12">
@@ -8042,78 +8282,87 @@
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L23" s="12">
         <v>0</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N23" s="12">
         <v>1</v>
       </c>
       <c r="O23" s="12"/>
       <c r="P23" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R23" s="12">
-        <v>0</v>
+      <c r="R23" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S23" s="12">
         <v>0</v>
       </c>
-      <c r="T23" s="12">
+      <c r="T23" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U23" s="12">
         <v>0</v>
       </c>
-      <c r="V23" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W23" s="36">
+      <c r="V23" s="12">
+        <v>0</v>
+      </c>
+      <c r="W23" s="12">
         <v>0</v>
       </c>
       <c r="X23" s="12">
         <v>0</v>
       </c>
-      <c r="Y23" s="12">
+      <c r="Y23" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z23" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="12">
         <v>10</v>
       </c>
-      <c r="Z23" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="38"/>
-    </row>
-    <row r="24" ht="17.75" spans="1:31">
+      <c r="AC23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="48"/>
+    </row>
+    <row r="24" ht="17.75" spans="1:34">
       <c r="A24" s="12"/>
       <c r="B24" s="24" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="34">
+        <v>166</v>
+      </c>
+      <c r="F24" s="35">
         <v>60</v>
       </c>
       <c r="G24" s="12">
@@ -8121,76 +8370,85 @@
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L24" s="12"/>
       <c r="M24" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N24" s="12">
         <v>1</v>
       </c>
       <c r="O24" s="12"/>
       <c r="P24" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R24" s="12">
-        <v>0</v>
-      </c>
-      <c r="S24" s="12">
-        <v>0</v>
-      </c>
-      <c r="T24" s="12">
+      <c r="R24" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" s="12">
+        <v>0</v>
+      </c>
+      <c r="V24" s="12">
+        <v>0</v>
+      </c>
+      <c r="W24" s="12">
         <v>0.2</v>
       </c>
-      <c r="U24" s="12">
-        <v>0</v>
-      </c>
-      <c r="V24" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W24" s="36">
-        <v>0</v>
-      </c>
       <c r="X24" s="12">
         <v>0</v>
       </c>
-      <c r="Y24" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="12">
+      <c r="Y24" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z24" s="37">
         <v>0</v>
       </c>
       <c r="AA24" s="12">
         <v>0</v>
       </c>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="38"/>
-    </row>
-    <row r="25" ht="17.75" spans="1:31">
+      <c r="AB24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="48"/>
+    </row>
+    <row r="25" ht="17.75" spans="1:34">
       <c r="A25" s="12"/>
       <c r="B25" s="24" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" s="34">
+        <v>166</v>
+      </c>
+      <c r="F25" s="35">
         <v>90</v>
       </c>
       <c r="G25" s="12">
@@ -8198,76 +8456,85 @@
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L25" s="12"/>
       <c r="M25" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N25" s="12">
         <v>1</v>
       </c>
       <c r="O25" s="12"/>
       <c r="P25" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R25" s="12">
-        <v>0</v>
+      <c r="R25" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S25" s="12">
         <v>0</v>
       </c>
-      <c r="T25" s="12">
+      <c r="T25" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U25" s="12">
         <v>0</v>
       </c>
-      <c r="V25" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W25" s="36">
+      <c r="V25" s="12">
+        <v>0</v>
+      </c>
+      <c r="W25" s="12">
         <v>0</v>
       </c>
       <c r="X25" s="12">
         <v>0</v>
       </c>
-      <c r="Y25" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="12">
+      <c r="Y25" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z25" s="37">
         <v>0</v>
       </c>
       <c r="AA25" s="12">
         <v>0</v>
       </c>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="38"/>
-    </row>
-    <row r="26" ht="17.75" spans="1:31">
+      <c r="AB25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="48"/>
+    </row>
+    <row r="26" ht="17.75" spans="1:34">
       <c r="A26" s="29"/>
       <c r="B26" s="24" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F26" s="34">
+        <v>187</v>
+      </c>
+      <c r="F26" s="35">
         <v>0</v>
       </c>
       <c r="G26" s="12">
@@ -8277,80 +8544,89 @@
         <v>3</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="J26" s="12">
         <v>3</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L26" s="12">
         <v>0</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N26" s="12">
         <v>1</v>
       </c>
       <c r="O26" s="12"/>
       <c r="P26" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q26" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R26" s="12">
-        <v>0</v>
-      </c>
-      <c r="S26" s="12">
-        <v>0</v>
-      </c>
-      <c r="T26" s="12">
+      <c r="R26" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0</v>
+      </c>
+      <c r="T26" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U26" s="12">
         <v>0</v>
       </c>
-      <c r="V26" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W26" s="36">
+      <c r="V26" s="12">
+        <v>0</v>
+      </c>
+      <c r="W26" s="12">
         <v>0</v>
       </c>
       <c r="X26" s="12">
         <v>0</v>
       </c>
-      <c r="Y26" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="12">
+      <c r="Y26" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z26" s="37">
         <v>0</v>
       </c>
       <c r="AA26" s="12">
         <v>0</v>
       </c>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="38"/>
-    </row>
-    <row r="27" ht="17.75" spans="1:31">
+      <c r="AB26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="48"/>
+    </row>
+    <row r="27" ht="17.75" spans="1:34">
       <c r="A27" s="12"/>
       <c r="B27" s="24" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F27" s="34">
+        <v>166</v>
+      </c>
+      <c r="F27" s="35">
         <v>110</v>
       </c>
       <c r="G27" s="12">
@@ -8358,76 +8634,85 @@
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N27" s="12">
         <v>1</v>
       </c>
       <c r="O27" s="12"/>
       <c r="P27" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q27" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R27" s="12">
-        <v>0</v>
+      <c r="R27" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S27" s="12">
         <v>0</v>
       </c>
-      <c r="T27" s="12">
+      <c r="T27" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U27" s="12">
         <v>0</v>
       </c>
-      <c r="V27" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W27" s="36">
+      <c r="V27" s="12">
+        <v>0</v>
+      </c>
+      <c r="W27" s="12">
         <v>0</v>
       </c>
       <c r="X27" s="12">
         <v>0</v>
       </c>
-      <c r="Y27" s="12">
+      <c r="Y27" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z27" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="12">
         <v>-20</v>
       </c>
-      <c r="Z27" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="38"/>
-    </row>
-    <row r="28" ht="17.75" spans="1:31">
+      <c r="AC27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="48"/>
+    </row>
+    <row r="28" ht="17.75" spans="1:34">
       <c r="A28" s="12"/>
       <c r="B28" s="24" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="34">
+        <v>166</v>
+      </c>
+      <c r="F28" s="35">
         <v>70</v>
       </c>
       <c r="G28" s="12">
@@ -8435,76 +8720,85 @@
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L28" s="12"/>
       <c r="M28" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N28" s="12">
         <v>1</v>
       </c>
       <c r="O28" s="12"/>
       <c r="P28" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R28" s="12">
-        <v>0</v>
-      </c>
-      <c r="S28" s="12">
-        <v>0</v>
-      </c>
-      <c r="T28" s="12">
+      <c r="R28" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0</v>
+      </c>
+      <c r="T28" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U28" s="12">
         <v>0</v>
       </c>
-      <c r="V28" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W28" s="36">
+      <c r="V28" s="12">
+        <v>0</v>
+      </c>
+      <c r="W28" s="12">
         <v>0</v>
       </c>
       <c r="X28" s="12">
         <v>0</v>
       </c>
-      <c r="Y28" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="12">
+      <c r="Y28" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z28" s="37">
         <v>0</v>
       </c>
       <c r="AA28" s="12">
         <v>0</v>
       </c>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="38"/>
-    </row>
-    <row r="29" ht="17.75" spans="1:31">
+      <c r="AB28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="48"/>
+    </row>
+    <row r="29" ht="17.75" spans="1:34">
       <c r="A29" s="12"/>
       <c r="B29" s="24" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F29" s="34">
+        <v>166</v>
+      </c>
+      <c r="F29" s="35">
         <v>60</v>
       </c>
       <c r="G29" s="12">
@@ -8512,76 +8806,85 @@
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L29" s="12"/>
       <c r="M29" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N29" s="12">
         <v>1</v>
       </c>
       <c r="O29" s="12"/>
       <c r="P29" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q29" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R29" s="12">
-        <v>0</v>
+      <c r="R29" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S29" s="12">
         <v>0</v>
       </c>
-      <c r="T29" s="12">
+      <c r="T29" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U29" s="12">
+        <v>0</v>
+      </c>
+      <c r="V29" s="12">
+        <v>0</v>
+      </c>
+      <c r="W29" s="12">
+        <v>0</v>
+      </c>
+      <c r="X29" s="12">
         <v>10</v>
       </c>
-      <c r="V29" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W29" s="36">
-        <v>0</v>
-      </c>
-      <c r="X29" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="12">
+      <c r="Y29" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z29" s="37">
         <v>0</v>
       </c>
       <c r="AA29" s="12">
         <v>0</v>
       </c>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="38"/>
-    </row>
-    <row r="30" ht="17.75" spans="1:31">
+      <c r="AB29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="48"/>
+    </row>
+    <row r="30" ht="17.75" spans="1:34">
       <c r="A30" s="12"/>
       <c r="B30" s="24" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F30" s="34">
+        <v>166</v>
+      </c>
+      <c r="F30" s="35">
         <v>60</v>
       </c>
       <c r="G30" s="12">
@@ -8589,76 +8892,85 @@
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L30" s="12"/>
       <c r="M30" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N30" s="12">
         <v>1</v>
       </c>
       <c r="O30" s="12"/>
       <c r="P30" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q30" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R30" s="12">
-        <v>0</v>
-      </c>
-      <c r="S30" s="12">
-        <v>0</v>
-      </c>
-      <c r="T30" s="12">
+      <c r="R30" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S30" s="4">
+        <v>0</v>
+      </c>
+      <c r="T30" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U30" s="12">
         <v>0</v>
       </c>
-      <c r="V30" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W30" s="36">
+      <c r="V30" s="12">
+        <v>0</v>
+      </c>
+      <c r="W30" s="12">
         <v>0</v>
       </c>
       <c r="X30" s="12">
         <v>0</v>
       </c>
-      <c r="Y30" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="12">
+      <c r="Y30" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z30" s="37">
         <v>0</v>
       </c>
       <c r="AA30" s="12">
         <v>0</v>
       </c>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="38"/>
-    </row>
-    <row r="31" ht="17.75" spans="1:31">
+      <c r="AB30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="48"/>
+    </row>
+    <row r="31" ht="17.75" spans="1:34">
       <c r="A31" s="30"/>
       <c r="B31" s="24" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F31" s="34">
+        <v>187</v>
+      </c>
+      <c r="F31" s="35">
         <v>0</v>
       </c>
       <c r="G31" s="12">
@@ -8666,78 +8978,87 @@
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L31" s="12">
         <v>1</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="N31" s="12">
         <v>1</v>
       </c>
       <c r="O31" s="12"/>
       <c r="P31" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q31" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R31" s="12">
-        <v>0</v>
+      <c r="R31" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S31" s="12">
         <v>0</v>
       </c>
-      <c r="T31" s="12">
+      <c r="T31" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U31" s="12">
         <v>0</v>
       </c>
-      <c r="V31" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W31" s="36">
+      <c r="V31" s="12">
+        <v>0</v>
+      </c>
+      <c r="W31" s="12">
         <v>0</v>
       </c>
       <c r="X31" s="12">
         <v>0</v>
       </c>
-      <c r="Y31" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="12">
+      <c r="Y31" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z31" s="37">
         <v>0</v>
       </c>
       <c r="AA31" s="12">
         <v>0</v>
       </c>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="38"/>
-    </row>
-    <row r="32" ht="17.75" spans="1:31">
+      <c r="AB31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="48"/>
+    </row>
+    <row r="32" ht="17.75" spans="1:34">
       <c r="A32" s="12"/>
       <c r="B32" s="24" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F32" s="34">
+        <v>166</v>
+      </c>
+      <c r="F32" s="35">
         <v>50</v>
       </c>
       <c r="G32" s="12">
@@ -8745,76 +9066,85 @@
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L32" s="12"/>
       <c r="M32" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N32" s="12">
         <v>1</v>
       </c>
       <c r="O32" s="12"/>
       <c r="P32" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q32" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R32" s="12">
-        <v>0</v>
-      </c>
-      <c r="S32" s="12">
-        <v>0</v>
-      </c>
-      <c r="T32" s="12">
+      <c r="R32" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S32" s="4">
+        <v>0</v>
+      </c>
+      <c r="T32" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U32" s="12">
         <v>0</v>
       </c>
-      <c r="V32" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W32" s="36">
+      <c r="V32" s="12">
+        <v>0</v>
+      </c>
+      <c r="W32" s="12">
         <v>0</v>
       </c>
       <c r="X32" s="12">
         <v>0</v>
       </c>
-      <c r="Y32" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="12">
+      <c r="Y32" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z32" s="37">
         <v>0</v>
       </c>
       <c r="AA32" s="12">
         <v>0</v>
       </c>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="38"/>
-    </row>
-    <row r="33" ht="17.75" spans="1:31">
+      <c r="AB32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="48"/>
+    </row>
+    <row r="33" ht="17.75" spans="1:34">
       <c r="A33" s="12"/>
       <c r="B33" s="24" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F33" s="34">
+        <v>166</v>
+      </c>
+      <c r="F33" s="35">
         <v>20</v>
       </c>
       <c r="G33" s="12">
@@ -8822,78 +9152,87 @@
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L33" s="12"/>
       <c r="M33" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N33" s="12">
         <v>1</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q33" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R33" s="12">
-        <v>0</v>
+      <c r="R33" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S33" s="12">
         <v>0</v>
       </c>
-      <c r="T33" s="12">
+      <c r="T33" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U33" s="12">
         <v>0</v>
       </c>
-      <c r="V33" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W33" s="36">
+      <c r="V33" s="12">
+        <v>0</v>
+      </c>
+      <c r="W33" s="12">
         <v>0</v>
       </c>
       <c r="X33" s="12">
         <v>0</v>
       </c>
-      <c r="Y33" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="12">
+      <c r="Y33" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z33" s="37">
         <v>0</v>
       </c>
       <c r="AA33" s="12">
         <v>0</v>
       </c>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="38"/>
-    </row>
-    <row r="34" ht="17.75" spans="1:31">
+      <c r="AB33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="48"/>
+    </row>
+    <row r="34" ht="17.75" spans="1:34">
       <c r="A34" s="30"/>
       <c r="B34" s="24" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F34" s="34">
+        <v>236</v>
+      </c>
+      <c r="F34" s="35">
         <v>0</v>
       </c>
       <c r="G34" s="12">
@@ -8901,76 +9240,85 @@
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L34" s="12">
         <v>1</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q34" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R34" s="12">
-        <v>0</v>
-      </c>
-      <c r="S34" s="12">
-        <v>0</v>
-      </c>
-      <c r="T34" s="12">
+      <c r="R34" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S34" s="4">
+        <v>0</v>
+      </c>
+      <c r="T34" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U34" s="12">
         <v>0</v>
       </c>
-      <c r="V34" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W34" s="36">
+      <c r="V34" s="12">
+        <v>0</v>
+      </c>
+      <c r="W34" s="12">
         <v>0</v>
       </c>
       <c r="X34" s="12">
         <v>0</v>
       </c>
-      <c r="Y34" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="12">
+      <c r="Y34" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z34" s="37">
         <v>0</v>
       </c>
       <c r="AA34" s="12">
         <v>0</v>
       </c>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="38"/>
-    </row>
-    <row r="35" ht="17.75" spans="1:31">
+      <c r="AB34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="48"/>
+    </row>
+    <row r="35" ht="17.75" spans="1:34">
       <c r="A35" s="30"/>
       <c r="B35" s="24" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F35" s="34">
+        <v>236</v>
+      </c>
+      <c r="F35" s="35">
         <v>0</v>
       </c>
       <c r="G35" s="12">
@@ -8978,76 +9326,85 @@
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L35" s="12">
         <v>1</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q35" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R35" s="12">
-        <v>0</v>
+      <c r="R35" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S35" s="12">
         <v>0</v>
       </c>
-      <c r="T35" s="12">
+      <c r="T35" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U35" s="12">
         <v>0</v>
       </c>
-      <c r="V35" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W35" s="36">
+      <c r="V35" s="12">
+        <v>0</v>
+      </c>
+      <c r="W35" s="12">
         <v>0</v>
       </c>
       <c r="X35" s="12">
         <v>0</v>
       </c>
-      <c r="Y35" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="12">
+      <c r="Y35" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z35" s="37">
         <v>0</v>
       </c>
       <c r="AA35" s="12">
         <v>0</v>
       </c>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="38"/>
-    </row>
-    <row r="36" ht="17.75" spans="1:31">
+      <c r="AB35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="48"/>
+    </row>
+    <row r="36" ht="17.75" spans="1:34">
       <c r="A36" s="30"/>
       <c r="B36" s="24" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F36" s="34">
+        <v>236</v>
+      </c>
+      <c r="F36" s="35">
         <v>0</v>
       </c>
       <c r="G36" s="12">
@@ -9055,76 +9412,85 @@
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L36" s="12">
         <v>1</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q36" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R36" s="12">
-        <v>0</v>
-      </c>
-      <c r="S36" s="12">
-        <v>0</v>
-      </c>
-      <c r="T36" s="12">
+      <c r="R36" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S36" s="4">
+        <v>0</v>
+      </c>
+      <c r="T36" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U36" s="12">
         <v>0</v>
       </c>
-      <c r="V36" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W36" s="36">
+      <c r="V36" s="12">
+        <v>0</v>
+      </c>
+      <c r="W36" s="12">
         <v>0</v>
       </c>
       <c r="X36" s="12">
         <v>0</v>
       </c>
-      <c r="Y36" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="12">
+      <c r="Y36" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z36" s="37">
         <v>0</v>
       </c>
       <c r="AA36" s="12">
         <v>0</v>
       </c>
-      <c r="AB36" s="12"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="38"/>
-    </row>
-    <row r="37" ht="17.75" spans="1:31">
+      <c r="AB36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="48"/>
+    </row>
+    <row r="37" ht="17.75" spans="1:34">
       <c r="A37" s="12"/>
       <c r="B37" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C37" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F37" s="34">
+      <c r="F37" s="35">
         <v>0</v>
       </c>
       <c r="G37" s="12">
@@ -9132,74 +9498,83 @@
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L37" s="12"/>
       <c r="M37" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
       <c r="P37" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q37" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R37" s="12">
-        <v>0</v>
+      <c r="R37" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S37" s="12">
         <v>0</v>
       </c>
-      <c r="T37" s="12">
+      <c r="T37" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U37" s="12">
         <v>0</v>
       </c>
-      <c r="V37" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="W37" s="9">
+      <c r="V37" s="12">
+        <v>0</v>
+      </c>
+      <c r="W37" s="12">
+        <v>0</v>
+      </c>
+      <c r="X37" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z37" s="9">
         <v>100</v>
       </c>
-      <c r="X37" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="12">
-        <v>0</v>
-      </c>
       <c r="AA37" s="12">
         <v>0</v>
       </c>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="38"/>
-    </row>
-    <row r="38" ht="17.75" spans="1:31">
+      <c r="AB37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="48"/>
+    </row>
+    <row r="38" ht="17.75" spans="1:34">
       <c r="A38" s="30"/>
       <c r="B38" s="24" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F38" s="34">
+        <v>236</v>
+      </c>
+      <c r="F38" s="35">
         <v>0</v>
       </c>
       <c r="G38" s="12">
@@ -9207,76 +9582,85 @@
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L38" s="35">
+        <v>167</v>
+      </c>
+      <c r="L38" s="36">
         <v>1</v>
       </c>
-      <c r="M38" s="36" t="s">
-        <v>239</v>
+      <c r="M38" s="37" t="s">
+        <v>244</v>
       </c>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q38" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R38" s="12">
-        <v>0</v>
-      </c>
-      <c r="S38" s="12">
-        <v>0</v>
-      </c>
-      <c r="T38" s="12">
+      <c r="R38" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S38" s="4">
+        <v>0</v>
+      </c>
+      <c r="T38" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U38" s="12">
         <v>0</v>
       </c>
-      <c r="V38" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W38" s="36">
+      <c r="V38" s="12">
+        <v>0</v>
+      </c>
+      <c r="W38" s="12">
         <v>0</v>
       </c>
       <c r="X38" s="12">
         <v>0</v>
       </c>
-      <c r="Y38" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="12">
+      <c r="Y38" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z38" s="37">
         <v>0</v>
       </c>
       <c r="AA38" s="12">
         <v>0</v>
       </c>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="38"/>
-    </row>
-    <row r="39" ht="17.75" spans="1:31">
+      <c r="AB38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="48"/>
+    </row>
+    <row r="39" ht="17.75" spans="1:34">
       <c r="A39" s="30"/>
       <c r="B39" s="24" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F39" s="34">
+        <v>236</v>
+      </c>
+      <c r="F39" s="35">
         <v>0</v>
       </c>
       <c r="G39" s="12">
@@ -9284,72 +9668,81 @@
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
       <c r="P39" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q39" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R39" s="12">
-        <v>0</v>
+      <c r="R39" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S39" s="12">
         <v>0</v>
       </c>
-      <c r="T39" s="12">
+      <c r="T39" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U39" s="12">
         <v>0</v>
       </c>
-      <c r="V39" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W39" s="36">
+      <c r="V39" s="12">
+        <v>0</v>
+      </c>
+      <c r="W39" s="12">
         <v>0</v>
       </c>
       <c r="X39" s="12">
         <v>0</v>
       </c>
-      <c r="Y39" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="12">
+      <c r="Y39" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z39" s="37">
         <v>0</v>
       </c>
       <c r="AA39" s="12">
         <v>0</v>
       </c>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="38"/>
-    </row>
-    <row r="40" ht="17.75" spans="1:31">
+      <c r="AB39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="48"/>
+    </row>
+    <row r="40" ht="17.75" spans="1:34">
       <c r="A40" s="12"/>
       <c r="B40" s="24" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F40" s="34">
+        <v>236</v>
+      </c>
+      <c r="F40" s="35">
         <v>0</v>
       </c>
       <c r="G40" s="12">
@@ -9357,72 +9750,81 @@
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
       <c r="P40" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q40" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R40" s="12">
-        <v>0</v>
-      </c>
-      <c r="S40" s="12">
+      <c r="R40" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S40" s="4">
+        <v>0</v>
+      </c>
+      <c r="T40" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U40" s="12">
+        <v>0</v>
+      </c>
+      <c r="V40" s="12">
         <v>3</v>
       </c>
-      <c r="T40" s="12">
-        <v>0</v>
-      </c>
-      <c r="U40" s="12">
-        <v>0</v>
-      </c>
-      <c r="V40" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="W40" s="36">
+      <c r="W40" s="12">
         <v>0</v>
       </c>
       <c r="X40" s="12">
         <v>0</v>
       </c>
-      <c r="Y40" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="12">
+      <c r="Y40" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z40" s="37">
         <v>0</v>
       </c>
       <c r="AA40" s="12">
         <v>0</v>
       </c>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="38"/>
-    </row>
-    <row r="41" ht="17.75" spans="1:31">
+      <c r="AB40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="48"/>
+    </row>
+    <row r="41" ht="17.75" spans="1:34">
       <c r="A41" s="30"/>
       <c r="B41" s="24" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F41" s="34">
+        <v>236</v>
+      </c>
+      <c r="F41" s="35">
         <v>0</v>
       </c>
       <c r="G41" s="12">
@@ -9430,72 +9832,81 @@
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
       <c r="P41" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q41" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R41" s="12">
-        <v>0</v>
+      <c r="R41" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S41" s="12">
         <v>0</v>
       </c>
-      <c r="T41" s="12">
+      <c r="T41" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U41" s="12">
         <v>0</v>
       </c>
-      <c r="V41" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W41" s="36">
+      <c r="V41" s="12">
+        <v>0</v>
+      </c>
+      <c r="W41" s="12">
         <v>0</v>
       </c>
       <c r="X41" s="12">
         <v>0</v>
       </c>
-      <c r="Y41" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="12">
+      <c r="Y41" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z41" s="37">
         <v>0</v>
       </c>
       <c r="AA41" s="12">
         <v>0</v>
       </c>
-      <c r="AB41" s="12"/>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="38"/>
-    </row>
-    <row r="42" ht="17.75" spans="1:31">
+      <c r="AB41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="48"/>
+    </row>
+    <row r="42" ht="17.75" spans="1:34">
       <c r="A42" s="29"/>
       <c r="B42" s="24" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F42" s="34">
+        <v>236</v>
+      </c>
+      <c r="F42" s="35">
         <v>0</v>
       </c>
       <c r="G42" s="12">
@@ -9505,74 +9916,83 @@
         <v>1</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="J42" s="11">
         <v>1</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L42" s="12"/>
       <c r="M42" s="24"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
       <c r="P42" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q42" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R42" s="12">
-        <v>0</v>
-      </c>
-      <c r="S42" s="12">
-        <v>0</v>
-      </c>
-      <c r="T42" s="12">
+      <c r="R42" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S42" s="4">
+        <v>0</v>
+      </c>
+      <c r="T42" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U42" s="12">
         <v>0</v>
       </c>
-      <c r="V42" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="W42" s="36">
+      <c r="V42" s="12">
+        <v>0</v>
+      </c>
+      <c r="W42" s="12">
+        <v>0</v>
+      </c>
+      <c r="X42" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z42" s="37">
         <v>50</v>
       </c>
-      <c r="X42" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="12">
-        <v>0</v>
-      </c>
       <c r="AA42" s="12">
         <v>0</v>
       </c>
-      <c r="AB42" s="12"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="38"/>
-    </row>
-    <row r="43" ht="17.75" spans="1:31">
+      <c r="AB42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="48"/>
+    </row>
+    <row r="43" ht="17.75" spans="1:34">
       <c r="A43" s="30"/>
       <c r="B43" s="24" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>251</v>
+        <v>167</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>256</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F43" s="34">
+        <v>236</v>
+      </c>
+      <c r="F43" s="35">
         <v>0</v>
       </c>
       <c r="G43" s="12">
@@ -9580,72 +10000,85 @@
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="L43" s="12">
+        <v>1</v>
+      </c>
+      <c r="M43" s="38" t="s">
+        <v>257</v>
+      </c>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
       <c r="P43" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q43" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R43" s="12">
-        <v>0</v>
-      </c>
-      <c r="S43" s="12">
-        <v>0</v>
-      </c>
-      <c r="T43" s="12">
-        <v>0</v>
+      <c r="R43" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S43" s="4">
+        <v>1</v>
+      </c>
+      <c r="T43" s="12" t="b">
+        <v>1</v>
       </c>
       <c r="U43" s="12">
         <v>0</v>
       </c>
-      <c r="V43" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W43" s="36">
+      <c r="V43" s="12">
+        <v>0</v>
+      </c>
+      <c r="W43" s="12">
         <v>0</v>
       </c>
       <c r="X43" s="12">
         <v>0</v>
       </c>
-      <c r="Y43" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="12">
+      <c r="Y43" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z43" s="37">
         <v>0</v>
       </c>
       <c r="AA43" s="12">
         <v>0</v>
       </c>
-      <c r="AB43" s="12"/>
-      <c r="AC43" s="13"/>
-      <c r="AD43" s="13"/>
-      <c r="AE43" s="38"/>
-    </row>
-    <row r="44" ht="17.75" spans="1:31">
-      <c r="A44" s="31"/>
+      <c r="AB43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="13"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="48"/>
+    </row>
+    <row r="44" ht="17.75" spans="1:34">
+      <c r="A44" s="32"/>
       <c r="B44" s="24" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" s="34">
+        <v>236</v>
+      </c>
+      <c r="F44" s="35">
         <v>0</v>
       </c>
       <c r="G44" s="12">
@@ -9653,76 +10086,85 @@
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L44" s="12">
         <v>1</v>
       </c>
       <c r="M44" s="21" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
       <c r="P44" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q44" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R44" s="12">
-        <v>0</v>
+      <c r="R44" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S44" s="12">
         <v>0</v>
       </c>
-      <c r="T44" s="12">
+      <c r="T44" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U44" s="12">
         <v>0</v>
       </c>
-      <c r="V44" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="W44" s="36">
+      <c r="V44" s="12">
+        <v>0</v>
+      </c>
+      <c r="W44" s="12">
         <v>0</v>
       </c>
       <c r="X44" s="12">
         <v>0</v>
       </c>
-      <c r="Y44" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="12">
+      <c r="Y44" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z44" s="37">
         <v>0</v>
       </c>
       <c r="AA44" s="12">
         <v>0</v>
       </c>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="13"/>
-      <c r="AD44" s="13"/>
-      <c r="AE44" s="38"/>
-    </row>
-    <row r="45" ht="17.75" spans="1:31">
+      <c r="AB44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="48"/>
+    </row>
+    <row r="45" ht="17.75" spans="1:34">
       <c r="A45" s="30"/>
       <c r="B45" s="24" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F45" s="34">
+        <v>236</v>
+      </c>
+      <c r="F45" s="35">
         <v>0</v>
       </c>
       <c r="G45" s="12">
@@ -9730,72 +10172,81 @@
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
       <c r="P45" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q45" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R45" s="12">
-        <v>0</v>
+      <c r="R45" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S45" s="12">
         <v>0</v>
       </c>
-      <c r="T45" s="12">
+      <c r="T45" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U45" s="12">
         <v>0</v>
       </c>
-      <c r="V45" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W45" s="36">
+      <c r="V45" s="12">
+        <v>0</v>
+      </c>
+      <c r="W45" s="12">
         <v>0</v>
       </c>
       <c r="X45" s="12">
         <v>0</v>
       </c>
-      <c r="Y45" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="12">
+      <c r="Y45" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z45" s="37">
         <v>0</v>
       </c>
       <c r="AA45" s="12">
         <v>0</v>
       </c>
-      <c r="AB45" s="12"/>
-      <c r="AC45" s="13"/>
-      <c r="AD45" s="13"/>
-      <c r="AE45" s="38"/>
-    </row>
-    <row r="46" ht="17.75" spans="1:31">
+      <c r="AB45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="13"/>
+      <c r="AG45" s="13"/>
+      <c r="AH45" s="48"/>
+    </row>
+    <row r="46" ht="17.75" spans="1:34">
       <c r="A46" s="30"/>
       <c r="B46" s="24" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F46" s="34">
+        <v>236</v>
+      </c>
+      <c r="F46" s="35">
         <v>0</v>
       </c>
       <c r="G46" s="12">
@@ -9803,72 +10254,81 @@
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
       <c r="P46" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q46" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R46" s="12">
-        <v>0</v>
+      <c r="R46" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S46" s="12">
         <v>0</v>
       </c>
-      <c r="T46" s="12">
+      <c r="T46" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U46" s="12">
         <v>0</v>
       </c>
-      <c r="V46" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W46" s="36">
+      <c r="V46" s="12">
+        <v>0</v>
+      </c>
+      <c r="W46" s="12">
         <v>0</v>
       </c>
       <c r="X46" s="12">
         <v>0</v>
       </c>
-      <c r="Y46" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="12">
+      <c r="Y46" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z46" s="37">
         <v>0</v>
       </c>
       <c r="AA46" s="12">
         <v>0</v>
       </c>
-      <c r="AB46" s="12"/>
-      <c r="AC46" s="13"/>
-      <c r="AD46" s="13"/>
-      <c r="AE46" s="38"/>
-    </row>
-    <row r="47" ht="17.75" spans="1:31">
+      <c r="AB46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="48"/>
+    </row>
+    <row r="47" ht="17.75" spans="1:34">
       <c r="A47" s="30"/>
       <c r="B47" s="24" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F47" s="34">
+        <v>236</v>
+      </c>
+      <c r="F47" s="35">
         <v>0</v>
       </c>
       <c r="G47" s="12">
@@ -9876,72 +10336,81 @@
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J47" s="12"/>
       <c r="K47" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
       <c r="P47" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q47" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R47" s="12">
-        <v>0</v>
+      <c r="R47" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S47" s="12">
         <v>0</v>
       </c>
-      <c r="T47" s="12">
+      <c r="T47" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U47" s="12">
         <v>0</v>
       </c>
-      <c r="V47" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W47" s="36">
+      <c r="V47" s="12">
+        <v>0</v>
+      </c>
+      <c r="W47" s="12">
         <v>0</v>
       </c>
       <c r="X47" s="12">
         <v>0</v>
       </c>
-      <c r="Y47" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="12">
+      <c r="Y47" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z47" s="37">
         <v>0</v>
       </c>
       <c r="AA47" s="12">
         <v>0</v>
       </c>
-      <c r="AB47" s="12"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="13"/>
-      <c r="AE47" s="38"/>
-    </row>
-    <row r="48" ht="17.75" spans="1:31">
+      <c r="AB47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="13"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="48"/>
+    </row>
+    <row r="48" ht="17.75" spans="1:34">
       <c r="A48" s="30"/>
       <c r="B48" s="24" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F48" s="34">
+        <v>236</v>
+      </c>
+      <c r="F48" s="35">
         <v>0</v>
       </c>
       <c r="G48" s="12">
@@ -9949,72 +10418,81 @@
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
       <c r="P48" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q48" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R48" s="12">
-        <v>0</v>
+      <c r="R48" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S48" s="12">
         <v>0</v>
       </c>
-      <c r="T48" s="12">
+      <c r="T48" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U48" s="12">
         <v>0</v>
       </c>
-      <c r="V48" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W48" s="36">
+      <c r="V48" s="12">
+        <v>0</v>
+      </c>
+      <c r="W48" s="12">
         <v>0</v>
       </c>
       <c r="X48" s="12">
         <v>0</v>
       </c>
-      <c r="Y48" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="12">
+      <c r="Y48" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z48" s="37">
         <v>0</v>
       </c>
       <c r="AA48" s="12">
         <v>0</v>
       </c>
-      <c r="AB48" s="12"/>
-      <c r="AC48" s="13"/>
-      <c r="AD48" s="13"/>
-      <c r="AE48" s="38"/>
-    </row>
-    <row r="49" ht="17" spans="1:31">
+      <c r="AB48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="13"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="48"/>
+    </row>
+    <row r="49" ht="17" spans="1:34">
       <c r="A49" s="30"/>
       <c r="B49" s="24" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F49" s="34">
+        <v>236</v>
+      </c>
+      <c r="F49" s="35">
         <v>0</v>
       </c>
       <c r="G49" s="12">
@@ -10022,72 +10500,81 @@
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
       <c r="P49" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q49" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R49" s="12">
-        <v>0</v>
+      <c r="R49" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S49" s="12">
         <v>0</v>
       </c>
-      <c r="T49" s="12">
+      <c r="T49" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U49" s="12">
         <v>0</v>
       </c>
-      <c r="V49" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="W49" s="36">
+      <c r="V49" s="12">
+        <v>0</v>
+      </c>
+      <c r="W49" s="12">
         <v>0</v>
       </c>
       <c r="X49" s="12">
         <v>0</v>
       </c>
-      <c r="Y49" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="12">
+      <c r="Y49" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z49" s="37">
         <v>0</v>
       </c>
       <c r="AA49" s="12">
         <v>0</v>
       </c>
-      <c r="AB49" s="12"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="38"/>
-    </row>
-    <row r="50" ht="17.75" spans="1:31">
+      <c r="AB49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="13"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="48"/>
+    </row>
+    <row r="50" ht="17.75" spans="1:34">
       <c r="A50" s="30"/>
       <c r="B50" s="24" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F50" s="34">
+        <v>236</v>
+      </c>
+      <c r="F50" s="35">
         <v>0</v>
       </c>
       <c r="G50" s="12">
@@ -10095,72 +10582,81 @@
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
       <c r="O50" s="12"/>
       <c r="P50" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q50" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R50" s="12">
-        <v>0</v>
+      <c r="R50" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S50" s="12">
         <v>0</v>
       </c>
-      <c r="T50" s="12">
+      <c r="T50" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U50" s="12">
         <v>0</v>
       </c>
-      <c r="V50" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="W50" s="36">
+      <c r="V50" s="12">
+        <v>0</v>
+      </c>
+      <c r="W50" s="12">
         <v>0</v>
       </c>
       <c r="X50" s="12">
         <v>0</v>
       </c>
-      <c r="Y50" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="12">
+      <c r="Y50" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z50" s="37">
         <v>0</v>
       </c>
       <c r="AA50" s="12">
         <v>0</v>
       </c>
-      <c r="AB50" s="12"/>
-      <c r="AC50" s="13"/>
-      <c r="AD50" s="13"/>
-      <c r="AE50" s="38"/>
-    </row>
-    <row r="51" ht="17.75" spans="1:31">
+      <c r="AB50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="13"/>
+      <c r="AG50" s="13"/>
+      <c r="AH50" s="48"/>
+    </row>
+    <row r="51" ht="17.75" spans="1:34">
       <c r="A51" s="30"/>
       <c r="B51" s="24" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F51" s="34">
+        <v>236</v>
+      </c>
+      <c r="F51" s="35">
         <v>0</v>
       </c>
       <c r="G51" s="12">
@@ -10168,72 +10664,81 @@
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
       <c r="P51" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q51" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R51" s="12">
-        <v>0</v>
+      <c r="R51" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S51" s="12">
         <v>0</v>
       </c>
-      <c r="T51" s="12">
+      <c r="T51" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U51" s="12">
         <v>0</v>
       </c>
-      <c r="V51" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W51" s="36">
+      <c r="V51" s="12">
+        <v>0</v>
+      </c>
+      <c r="W51" s="12">
         <v>0</v>
       </c>
       <c r="X51" s="12">
         <v>0</v>
       </c>
-      <c r="Y51" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="12">
+      <c r="Y51" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z51" s="37">
         <v>0</v>
       </c>
       <c r="AA51" s="12">
         <v>0</v>
       </c>
-      <c r="AB51" s="12"/>
-      <c r="AC51" s="13"/>
-      <c r="AD51" s="13"/>
-      <c r="AE51" s="38"/>
-    </row>
-    <row r="52" ht="17.75" spans="1:31">
+      <c r="AB51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="13"/>
+      <c r="AG51" s="13"/>
+      <c r="AH51" s="48"/>
+    </row>
+    <row r="52" ht="17.75" spans="1:34">
       <c r="A52" s="30"/>
       <c r="B52" s="24" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F52" s="34">
+        <v>236</v>
+      </c>
+      <c r="F52" s="35">
         <v>0</v>
       </c>
       <c r="G52" s="12">
@@ -10241,72 +10746,81 @@
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
       <c r="O52" s="12"/>
       <c r="P52" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q52" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R52" s="12">
-        <v>0</v>
+      <c r="R52" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S52" s="12">
         <v>0</v>
       </c>
-      <c r="T52" s="12">
+      <c r="T52" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U52" s="12">
         <v>0</v>
       </c>
-      <c r="V52" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W52" s="36">
+      <c r="V52" s="12">
+        <v>0</v>
+      </c>
+      <c r="W52" s="12">
         <v>0</v>
       </c>
       <c r="X52" s="12">
         <v>0</v>
       </c>
-      <c r="Y52" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="12">
+      <c r="Y52" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z52" s="37">
         <v>0</v>
       </c>
       <c r="AA52" s="12">
         <v>0</v>
       </c>
-      <c r="AB52" s="12"/>
-      <c r="AC52" s="13"/>
-      <c r="AD52" s="13"/>
-      <c r="AE52" s="38"/>
-    </row>
-    <row r="53" ht="17.75" spans="1:31">
+      <c r="AB52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="13"/>
+      <c r="AG52" s="13"/>
+      <c r="AH52" s="48"/>
+    </row>
+    <row r="53" ht="17.75" spans="1:34">
       <c r="A53" s="30"/>
       <c r="B53" s="24" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F53" s="34">
+        <v>236</v>
+      </c>
+      <c r="F53" s="35">
         <v>0</v>
       </c>
       <c r="G53" s="12">
@@ -10314,72 +10828,81 @@
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J53" s="12"/>
       <c r="K53" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
       <c r="P53" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q53" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R53" s="12">
-        <v>0</v>
+      <c r="R53" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S53" s="12">
         <v>0</v>
       </c>
-      <c r="T53" s="12">
+      <c r="T53" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U53" s="12">
         <v>0</v>
       </c>
-      <c r="V53" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="W53" s="36">
+      <c r="V53" s="12">
+        <v>0</v>
+      </c>
+      <c r="W53" s="12">
         <v>0</v>
       </c>
       <c r="X53" s="12">
         <v>0</v>
       </c>
-      <c r="Y53" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="12">
+      <c r="Y53" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z53" s="37">
         <v>0</v>
       </c>
       <c r="AA53" s="12">
         <v>0</v>
       </c>
-      <c r="AB53" s="12"/>
-      <c r="AC53" s="13"/>
-      <c r="AD53" s="13"/>
-      <c r="AE53" s="38"/>
-    </row>
-    <row r="54" ht="17.75" spans="1:31">
+      <c r="AB53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="12"/>
+      <c r="AF53" s="13"/>
+      <c r="AG53" s="13"/>
+      <c r="AH53" s="48"/>
+    </row>
+    <row r="54" ht="17.75" spans="1:34">
       <c r="A54" s="30"/>
       <c r="B54" s="24" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F54" s="34">
+        <v>236</v>
+      </c>
+      <c r="F54" s="35">
         <v>0</v>
       </c>
       <c r="G54" s="12">
@@ -10387,72 +10910,81 @@
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
       <c r="P54" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q54" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R54" s="12">
-        <v>0</v>
+      <c r="R54" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S54" s="12">
         <v>0</v>
       </c>
-      <c r="T54" s="12">
+      <c r="T54" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U54" s="12">
         <v>0</v>
       </c>
-      <c r="V54" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W54" s="36">
+      <c r="V54" s="12">
+        <v>0</v>
+      </c>
+      <c r="W54" s="12">
         <v>0</v>
       </c>
       <c r="X54" s="12">
         <v>0</v>
       </c>
-      <c r="Y54" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="12">
+      <c r="Y54" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z54" s="37">
         <v>0</v>
       </c>
       <c r="AA54" s="12">
         <v>0</v>
       </c>
-      <c r="AB54" s="12"/>
-      <c r="AC54" s="13"/>
-      <c r="AD54" s="13"/>
-      <c r="AE54" s="38"/>
-    </row>
-    <row r="55" ht="17.75" spans="1:31">
+      <c r="AB54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="13"/>
+      <c r="AG54" s="13"/>
+      <c r="AH54" s="48"/>
+    </row>
+    <row r="55" ht="17.75" spans="1:34">
       <c r="A55" s="30"/>
       <c r="B55" s="24" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F55" s="34">
+        <v>236</v>
+      </c>
+      <c r="F55" s="35">
         <v>0</v>
       </c>
       <c r="G55" s="12">
@@ -10460,72 +10992,81 @@
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J55" s="12"/>
       <c r="K55" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
       <c r="P55" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q55" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R55" s="12">
-        <v>0</v>
+      <c r="R55" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S55" s="12">
         <v>0</v>
       </c>
-      <c r="T55" s="12">
+      <c r="T55" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U55" s="12">
         <v>0</v>
       </c>
-      <c r="V55" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W55" s="36">
+      <c r="V55" s="12">
+        <v>0</v>
+      </c>
+      <c r="W55" s="12">
         <v>0</v>
       </c>
       <c r="X55" s="12">
         <v>0</v>
       </c>
-      <c r="Y55" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="12">
+      <c r="Y55" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z55" s="37">
         <v>0</v>
       </c>
       <c r="AA55" s="12">
         <v>0</v>
       </c>
-      <c r="AB55" s="12"/>
-      <c r="AC55" s="13"/>
-      <c r="AD55" s="13"/>
-      <c r="AE55" s="38"/>
-    </row>
-    <row r="56" ht="17.75" spans="1:31">
+      <c r="AB55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="13"/>
+      <c r="AG55" s="13"/>
+      <c r="AH55" s="48"/>
+    </row>
+    <row r="56" ht="17.75" spans="1:34">
       <c r="A56" s="30"/>
       <c r="B56" s="24" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F56" s="34">
+        <v>236</v>
+      </c>
+      <c r="F56" s="35">
         <v>0</v>
       </c>
       <c r="G56" s="12">
@@ -10533,72 +11074,81 @@
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J56" s="12"/>
       <c r="K56" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
       <c r="P56" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q56" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R56" s="12">
-        <v>0</v>
+      <c r="R56" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S56" s="12">
         <v>0</v>
       </c>
-      <c r="T56" s="12">
+      <c r="T56" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U56" s="12">
         <v>0</v>
       </c>
-      <c r="V56" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W56" s="36">
+      <c r="V56" s="12">
+        <v>0</v>
+      </c>
+      <c r="W56" s="12">
         <v>0</v>
       </c>
       <c r="X56" s="12">
         <v>0</v>
       </c>
-      <c r="Y56" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="12">
+      <c r="Y56" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z56" s="37">
         <v>0</v>
       </c>
       <c r="AA56" s="12">
         <v>0</v>
       </c>
-      <c r="AB56" s="12"/>
-      <c r="AC56" s="13"/>
-      <c r="AD56" s="13"/>
-      <c r="AE56" s="38"/>
-    </row>
-    <row r="57" ht="17.75" spans="1:31">
+      <c r="AB56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="12"/>
+      <c r="AF56" s="13"/>
+      <c r="AG56" s="13"/>
+      <c r="AH56" s="48"/>
+    </row>
+    <row r="57" ht="17.75" spans="1:34">
       <c r="A57" s="30"/>
       <c r="B57" s="24" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F57" s="34">
+        <v>236</v>
+      </c>
+      <c r="F57" s="35">
         <v>0</v>
       </c>
       <c r="G57" s="12">
@@ -10606,72 +11156,81 @@
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J57" s="12"/>
       <c r="K57" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
       <c r="P57" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q57" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R57" s="12">
-        <v>0</v>
+      <c r="R57" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S57" s="12">
         <v>0</v>
       </c>
-      <c r="T57" s="12">
+      <c r="T57" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U57" s="12">
         <v>0</v>
       </c>
-      <c r="V57" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W57" s="36">
+      <c r="V57" s="12">
+        <v>0</v>
+      </c>
+      <c r="W57" s="12">
         <v>0</v>
       </c>
       <c r="X57" s="12">
         <v>0</v>
       </c>
-      <c r="Y57" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="12">
+      <c r="Y57" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z57" s="37">
         <v>0</v>
       </c>
       <c r="AA57" s="12">
         <v>0</v>
       </c>
-      <c r="AB57" s="12"/>
-      <c r="AC57" s="13"/>
-      <c r="AD57" s="13"/>
-      <c r="AE57" s="38"/>
-    </row>
-    <row r="58" ht="17.75" spans="1:31">
+      <c r="AB57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="13"/>
+      <c r="AG57" s="13"/>
+      <c r="AH57" s="48"/>
+    </row>
+    <row r="58" ht="17.75" spans="1:34">
       <c r="A58" s="30"/>
       <c r="B58" s="24" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F58" s="34">
+        <v>236</v>
+      </c>
+      <c r="F58" s="35">
         <v>0</v>
       </c>
       <c r="G58" s="12">
@@ -10679,72 +11238,81 @@
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J58" s="12"/>
       <c r="K58" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
       <c r="O58" s="12"/>
       <c r="P58" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q58" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R58" s="12">
-        <v>0</v>
+      <c r="R58" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S58" s="12">
         <v>0</v>
       </c>
-      <c r="T58" s="12">
+      <c r="T58" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U58" s="12">
         <v>0</v>
       </c>
-      <c r="V58" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W58" s="36">
+      <c r="V58" s="12">
+        <v>0</v>
+      </c>
+      <c r="W58" s="12">
         <v>0</v>
       </c>
       <c r="X58" s="12">
         <v>0</v>
       </c>
-      <c r="Y58" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="12">
+      <c r="Y58" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z58" s="37">
         <v>0</v>
       </c>
       <c r="AA58" s="12">
         <v>0</v>
       </c>
-      <c r="AB58" s="12"/>
-      <c r="AC58" s="13"/>
-      <c r="AD58" s="13"/>
-      <c r="AE58" s="38"/>
-    </row>
-    <row r="59" ht="17.75" spans="1:31">
+      <c r="AB58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="12"/>
+      <c r="AF58" s="13"/>
+      <c r="AG58" s="13"/>
+      <c r="AH58" s="48"/>
+    </row>
+    <row r="59" ht="17.75" spans="1:34">
       <c r="A59" s="30"/>
       <c r="B59" s="24" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F59" s="34">
+        <v>236</v>
+      </c>
+      <c r="F59" s="35">
         <v>0</v>
       </c>
       <c r="G59" s="12">
@@ -10752,72 +11320,81 @@
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J59" s="12"/>
       <c r="K59" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
       <c r="O59" s="12"/>
       <c r="P59" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q59" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R59" s="12">
-        <v>0</v>
+      <c r="R59" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S59" s="12">
         <v>0</v>
       </c>
-      <c r="T59" s="12">
+      <c r="T59" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U59" s="12">
         <v>0</v>
       </c>
-      <c r="V59" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W59" s="36">
+      <c r="V59" s="12">
+        <v>0</v>
+      </c>
+      <c r="W59" s="12">
         <v>0</v>
       </c>
       <c r="X59" s="12">
         <v>0</v>
       </c>
-      <c r="Y59" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="12">
+      <c r="Y59" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z59" s="37">
         <v>0</v>
       </c>
       <c r="AA59" s="12">
         <v>0</v>
       </c>
-      <c r="AB59" s="12"/>
-      <c r="AC59" s="13"/>
-      <c r="AD59" s="13"/>
-      <c r="AE59" s="38"/>
-    </row>
-    <row r="60" ht="17.75" spans="1:31">
+      <c r="AB59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="12"/>
+      <c r="AF59" s="13"/>
+      <c r="AG59" s="13"/>
+      <c r="AH59" s="48"/>
+    </row>
+    <row r="60" ht="17.75" spans="1:34">
       <c r="A60" s="30"/>
       <c r="B60" s="24" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F60" s="34">
+        <v>236</v>
+      </c>
+      <c r="F60" s="35">
         <v>0</v>
       </c>
       <c r="G60" s="12">
@@ -10825,72 +11402,81 @@
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J60" s="12"/>
       <c r="K60" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
       <c r="O60" s="12"/>
       <c r="P60" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q60" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R60" s="12">
-        <v>0</v>
+      <c r="R60" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S60" s="12">
         <v>0</v>
       </c>
-      <c r="T60" s="12">
+      <c r="T60" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U60" s="12">
         <v>0</v>
       </c>
-      <c r="V60" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W60" s="36">
+      <c r="V60" s="12">
+        <v>0</v>
+      </c>
+      <c r="W60" s="12">
         <v>0</v>
       </c>
       <c r="X60" s="12">
         <v>0</v>
       </c>
-      <c r="Y60" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="12">
+      <c r="Y60" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z60" s="37">
         <v>0</v>
       </c>
       <c r="AA60" s="12">
         <v>0</v>
       </c>
-      <c r="AB60" s="12"/>
-      <c r="AC60" s="13"/>
-      <c r="AD60" s="13"/>
-      <c r="AE60" s="38"/>
-    </row>
-    <row r="61" ht="17.75" spans="1:31">
+      <c r="AB60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="12"/>
+      <c r="AF60" s="13"/>
+      <c r="AG60" s="13"/>
+      <c r="AH60" s="48"/>
+    </row>
+    <row r="61" ht="17.75" spans="1:34">
       <c r="A61" s="30"/>
       <c r="B61" s="24" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F61" s="34">
+        <v>236</v>
+      </c>
+      <c r="F61" s="35">
         <v>0</v>
       </c>
       <c r="G61" s="12">
@@ -10898,72 +11484,81 @@
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J61" s="12"/>
       <c r="K61" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
       <c r="O61" s="12"/>
       <c r="P61" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q61" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R61" s="12">
-        <v>0</v>
+      <c r="R61" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S61" s="12">
         <v>0</v>
       </c>
-      <c r="T61" s="12">
+      <c r="T61" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U61" s="12">
         <v>0</v>
       </c>
-      <c r="V61" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W61" s="36">
+      <c r="V61" s="12">
+        <v>0</v>
+      </c>
+      <c r="W61" s="12">
         <v>0</v>
       </c>
       <c r="X61" s="12">
         <v>0</v>
       </c>
-      <c r="Y61" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="12">
+      <c r="Y61" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z61" s="37">
         <v>0</v>
       </c>
       <c r="AA61" s="12">
         <v>0</v>
       </c>
-      <c r="AB61" s="12"/>
-      <c r="AC61" s="13"/>
-      <c r="AD61" s="13"/>
-      <c r="AE61" s="38"/>
-    </row>
-    <row r="62" ht="17.75" spans="1:31">
+      <c r="AB61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="12"/>
+      <c r="AF61" s="13"/>
+      <c r="AG61" s="13"/>
+      <c r="AH61" s="48"/>
+    </row>
+    <row r="62" ht="17.75" spans="1:34">
       <c r="A62" s="30"/>
       <c r="B62" s="24" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F62" s="34">
+        <v>236</v>
+      </c>
+      <c r="F62" s="35">
         <v>0</v>
       </c>
       <c r="G62" s="12">
@@ -10971,72 +11566,81 @@
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J62" s="12"/>
       <c r="K62" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
       <c r="O62" s="12"/>
       <c r="P62" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q62" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R62" s="12">
-        <v>0</v>
+      <c r="R62" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S62" s="12">
         <v>0</v>
       </c>
-      <c r="T62" s="12">
+      <c r="T62" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U62" s="12">
         <v>0</v>
       </c>
-      <c r="V62" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W62" s="36">
+      <c r="V62" s="12">
+        <v>0</v>
+      </c>
+      <c r="W62" s="12">
         <v>0</v>
       </c>
       <c r="X62" s="12">
         <v>0</v>
       </c>
-      <c r="Y62" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="12">
+      <c r="Y62" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z62" s="37">
         <v>0</v>
       </c>
       <c r="AA62" s="12">
         <v>0</v>
       </c>
-      <c r="AB62" s="12"/>
-      <c r="AC62" s="13"/>
-      <c r="AD62" s="13"/>
-      <c r="AE62" s="38"/>
-    </row>
-    <row r="63" ht="17" spans="1:31">
+      <c r="AB62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="13"/>
+      <c r="AG62" s="13"/>
+      <c r="AH62" s="48"/>
+    </row>
+    <row r="63" ht="17" spans="1:34">
       <c r="A63" s="30"/>
       <c r="B63" s="24" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F63" s="34">
+        <v>236</v>
+      </c>
+      <c r="F63" s="35">
         <v>0</v>
       </c>
       <c r="G63" s="12">
@@ -11044,72 +11648,81 @@
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J63" s="12"/>
       <c r="K63" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
       <c r="O63" s="12"/>
       <c r="P63" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q63" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R63" s="12">
-        <v>0</v>
+      <c r="R63" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S63" s="12">
         <v>0</v>
       </c>
-      <c r="T63" s="12">
+      <c r="T63" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U63" s="12">
         <v>0</v>
       </c>
-      <c r="V63" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="W63" s="36">
+      <c r="V63" s="12">
+        <v>0</v>
+      </c>
+      <c r="W63" s="12">
         <v>0</v>
       </c>
       <c r="X63" s="12">
         <v>0</v>
       </c>
-      <c r="Y63" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="12">
+      <c r="Y63" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z63" s="37">
         <v>0</v>
       </c>
       <c r="AA63" s="12">
         <v>0</v>
       </c>
-      <c r="AB63" s="12"/>
-      <c r="AC63" s="13"/>
-      <c r="AD63" s="13"/>
-      <c r="AE63" s="38"/>
-    </row>
-    <row r="64" ht="17" spans="1:31">
+      <c r="AB63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="13"/>
+      <c r="AG63" s="13"/>
+      <c r="AH63" s="48"/>
+    </row>
+    <row r="64" ht="17" spans="1:34">
       <c r="A64" s="12"/>
       <c r="B64" s="24" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F64" s="34">
+        <v>236</v>
+      </c>
+      <c r="F64" s="35">
         <v>0</v>
       </c>
       <c r="G64" s="12">
@@ -11117,72 +11730,81 @@
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J64" s="12"/>
       <c r="K64" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
       <c r="O64" s="12"/>
       <c r="P64" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q64" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R64" s="12">
+      <c r="R64" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="S64" s="12">
+        <v>0</v>
+      </c>
+      <c r="T64" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U64" s="12">
         <v>2</v>
       </c>
-      <c r="S64" s="12">
-        <v>0</v>
-      </c>
-      <c r="T64" s="12">
-        <v>0</v>
-      </c>
-      <c r="U64" s="12">
-        <v>0</v>
-      </c>
-      <c r="V64" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="W64" s="36">
+      <c r="V64" s="12">
+        <v>0</v>
+      </c>
+      <c r="W64" s="12">
         <v>0</v>
       </c>
       <c r="X64" s="12">
         <v>0</v>
       </c>
-      <c r="Y64" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="12">
+      <c r="Y64" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z64" s="37">
         <v>0</v>
       </c>
       <c r="AA64" s="12">
         <v>0</v>
       </c>
-      <c r="AB64" s="12"/>
-      <c r="AC64" s="13"/>
-      <c r="AD64" s="13"/>
-      <c r="AE64" s="38"/>
-    </row>
-    <row r="65" ht="17" spans="1:31">
+      <c r="AB64" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="13"/>
+      <c r="AG64" s="13"/>
+      <c r="AH64" s="48"/>
+    </row>
+    <row r="65" ht="17" spans="1:34">
       <c r="A65" s="12"/>
       <c r="B65" s="24" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F65" s="34">
+        <v>236</v>
+      </c>
+      <c r="F65" s="35">
         <v>0</v>
       </c>
       <c r="G65" s="12">
@@ -11190,72 +11812,81 @@
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J65" s="12"/>
       <c r="K65" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
       <c r="O65" s="12"/>
       <c r="P65" s="8" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q65" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R65" s="12">
-        <v>0</v>
+      <c r="R65" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S65" s="12">
         <v>0</v>
       </c>
-      <c r="T65" s="12">
+      <c r="T65" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U65" s="12">
         <v>0</v>
       </c>
-      <c r="V65" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="W65" s="36">
+      <c r="V65" s="12">
+        <v>0</v>
+      </c>
+      <c r="W65" s="12">
         <v>0</v>
       </c>
       <c r="X65" s="12">
         <v>0</v>
       </c>
-      <c r="Y65" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="12">
+      <c r="Y65" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z65" s="37">
         <v>0</v>
       </c>
       <c r="AA65" s="12">
         <v>0</v>
       </c>
-      <c r="AB65" s="12"/>
-      <c r="AC65" s="13"/>
-      <c r="AD65" s="13"/>
-      <c r="AE65" s="38"/>
-    </row>
-    <row r="66" ht="17" spans="1:31">
+      <c r="AB65" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="12"/>
+      <c r="AF65" s="13"/>
+      <c r="AG65" s="13"/>
+      <c r="AH65" s="48"/>
+    </row>
+    <row r="66" ht="17" spans="1:34">
       <c r="A66" s="12"/>
       <c r="B66" s="24" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F66" s="34">
+        <v>236</v>
+      </c>
+      <c r="F66" s="35">
         <v>0</v>
       </c>
       <c r="G66" s="12">
@@ -11263,72 +11894,81 @@
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J66" s="12"/>
       <c r="K66" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
       <c r="P66" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q66" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R66" s="12">
-        <v>0</v>
+      <c r="R66" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S66" s="12">
         <v>0</v>
       </c>
-      <c r="T66" s="12">
+      <c r="T66" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U66" s="12">
         <v>0</v>
       </c>
-      <c r="V66" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="W66" s="36">
+      <c r="V66" s="12">
+        <v>0</v>
+      </c>
+      <c r="W66" s="12">
         <v>0</v>
       </c>
       <c r="X66" s="12">
         <v>0</v>
       </c>
-      <c r="Y66" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="12">
+      <c r="Y66" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z66" s="37">
         <v>0</v>
       </c>
       <c r="AA66" s="12">
         <v>0</v>
       </c>
-      <c r="AB66" s="12"/>
-      <c r="AC66" s="13"/>
-      <c r="AD66" s="13"/>
-      <c r="AE66" s="38"/>
-    </row>
-    <row r="67" ht="17" spans="1:31">
+      <c r="AB66" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="12"/>
+      <c r="AF66" s="13"/>
+      <c r="AG66" s="13"/>
+      <c r="AH66" s="48"/>
+    </row>
+    <row r="67" ht="17" spans="1:34">
       <c r="A67" s="12"/>
       <c r="B67" s="24" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F67" s="34">
+        <v>236</v>
+      </c>
+      <c r="F67" s="35">
         <v>0</v>
       </c>
       <c r="G67" s="12">
@@ -11336,72 +11976,81 @@
       </c>
       <c r="H67" s="12"/>
       <c r="I67" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J67" s="12"/>
       <c r="K67" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
       <c r="P67" s="8" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q67" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R67" s="12">
-        <v>0</v>
+      <c r="R67" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S67" s="12">
         <v>0</v>
       </c>
-      <c r="T67" s="12">
+      <c r="T67" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U67" s="12">
         <v>0</v>
       </c>
-      <c r="V67" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="W67" s="36">
+      <c r="V67" s="12">
+        <v>0</v>
+      </c>
+      <c r="W67" s="12">
         <v>0</v>
       </c>
       <c r="X67" s="12">
         <v>0</v>
       </c>
-      <c r="Y67" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="12">
+      <c r="Y67" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z67" s="37">
         <v>0</v>
       </c>
       <c r="AA67" s="12">
         <v>0</v>
       </c>
-      <c r="AB67" s="12"/>
-      <c r="AC67" s="13"/>
-      <c r="AD67" s="13"/>
-      <c r="AE67" s="38"/>
-    </row>
-    <row r="68" ht="17.75" spans="1:31">
+      <c r="AB67" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="12"/>
+      <c r="AF67" s="13"/>
+      <c r="AG67" s="13"/>
+      <c r="AH67" s="48"/>
+    </row>
+    <row r="68" ht="17.75" spans="1:34">
       <c r="A68" s="30"/>
       <c r="B68" s="24" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F68" s="34">
+        <v>236</v>
+      </c>
+      <c r="F68" s="35">
         <v>0</v>
       </c>
       <c r="G68" s="12">
@@ -11409,72 +12058,81 @@
       </c>
       <c r="H68" s="12"/>
       <c r="I68" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J68" s="12"/>
       <c r="K68" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
       <c r="N68" s="12"/>
       <c r="O68" s="12"/>
       <c r="P68" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q68" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R68" s="12">
-        <v>0</v>
+      <c r="R68" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S68" s="12">
         <v>0</v>
       </c>
-      <c r="T68" s="12">
+      <c r="T68" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U68" s="12">
         <v>0</v>
       </c>
-      <c r="V68" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="W68" s="36">
+      <c r="V68" s="12">
+        <v>0</v>
+      </c>
+      <c r="W68" s="12">
         <v>0</v>
       </c>
       <c r="X68" s="12">
         <v>0</v>
       </c>
-      <c r="Y68" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="12">
+      <c r="Y68" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z68" s="37">
         <v>0</v>
       </c>
       <c r="AA68" s="12">
         <v>0</v>
       </c>
-      <c r="AB68" s="12"/>
-      <c r="AC68" s="13"/>
-      <c r="AD68" s="13"/>
-      <c r="AE68" s="38"/>
-    </row>
-    <row r="69" ht="17.75" spans="1:31">
+      <c r="AB68" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="12"/>
+      <c r="AF68" s="13"/>
+      <c r="AG68" s="13"/>
+      <c r="AH68" s="48"/>
+    </row>
+    <row r="69" ht="17.75" spans="1:34">
       <c r="A69" s="30"/>
       <c r="B69" s="24" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F69" s="33">
+        <v>236</v>
+      </c>
+      <c r="F69" s="34">
         <v>0</v>
       </c>
       <c r="G69" s="12">
@@ -11482,64 +12140,79 @@
       </c>
       <c r="H69" s="12"/>
       <c r="I69" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J69" s="12"/>
       <c r="K69" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L69" s="12"/>
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
       <c r="O69" s="12"/>
       <c r="P69" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q69" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R69" s="12">
-        <v>0</v>
+      <c r="R69" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="S69" s="12">
         <v>0</v>
       </c>
-      <c r="T69" s="12">
+      <c r="T69" s="12" t="b">
         <v>0</v>
       </c>
       <c r="U69" s="12">
         <v>0</v>
       </c>
-      <c r="V69" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="W69" s="36">
+      <c r="V69" s="12">
+        <v>0</v>
+      </c>
+      <c r="W69" s="12">
         <v>0</v>
       </c>
       <c r="X69" s="12">
         <v>0</v>
       </c>
-      <c r="Y69" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="12">
+      <c r="Y69" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z69" s="37">
         <v>0</v>
       </c>
       <c r="AA69" s="12">
         <v>0</v>
       </c>
-      <c r="AB69" s="12"/>
-      <c r="AC69" s="13"/>
-      <c r="AD69" s="13"/>
-      <c r="AE69" s="38"/>
-    </row>
-    <row r="70" spans="25:28">
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
-      <c r="AA70" s="4"/>
+      <c r="AB69" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="12"/>
+      <c r="AF69" s="13"/>
+      <c r="AG69" s="13"/>
+      <c r="AH69" s="48"/>
+    </row>
+    <row r="70" spans="28:31">
       <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R4:T4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
@@ -11549,18 +12222,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="31.0982142857143" customWidth="1"/>
+    <col min="3" max="3" width="33.4821428571429" customWidth="1"/>
     <col min="4" max="4" width="25.7410714285714" customWidth="1"/>
     <col min="5" max="5" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="18.3035714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -11574,13 +12249,13 @@
         <v>95</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11598,7 +12273,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>18</v>
@@ -11607,10 +12282,10 @@
         <v>21</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11632,22 +12307,22 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="15" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="12"/>
       <c r="B6" s="16" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D6" s="13">
         <v>-1</v>
@@ -11665,7 +12340,7 @@
         <v>74</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D7" s="13">
         <v>0</v>
@@ -11680,10 +12355,10 @@
     <row r="8" ht="17" spans="1:6">
       <c r="A8" s="13"/>
       <c r="B8" s="16" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D8" s="13">
         <v>0</v>
@@ -11701,7 +12376,7 @@
         <v>57</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -11716,10 +12391,10 @@
     <row r="10" ht="17" spans="1:6">
       <c r="A10" s="13"/>
       <c r="B10" s="20" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -11734,10 +12409,10 @@
     <row r="11" ht="17" spans="1:6">
       <c r="A11" s="13"/>
       <c r="B11" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>323</v>
+        <v>329</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>330</v>
       </c>
       <c r="D11" s="13">
         <v>0</v>
@@ -11752,10 +12427,10 @@
     <row r="12" ht="17" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="16" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D12" s="13">
         <v>0</v>
@@ -11770,10 +12445,10 @@
     <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="16" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D13" s="13">
         <v>-1</v>
@@ -11788,10 +12463,10 @@
     <row r="14" ht="17" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D14" s="13">
         <v>0</v>
@@ -11806,10 +12481,10 @@
     <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="16" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="D15" s="13">
         <v>0</v>
@@ -11824,7 +12499,7 @@
     <row r="16" ht="17" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="24" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13">
@@ -11840,10 +12515,10 @@
     <row r="17" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="18" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D17" s="13">
         <v>-1</v>
@@ -11858,7 +12533,7 @@
     <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="25" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13">
@@ -11868,6 +12543,40 @@
         <v>0</v>
       </c>
       <c r="F18" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C20" t="s">
+        <v>342</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11902,7 +12611,7 @@
         <v>95</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11918,7 +12627,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
@@ -11947,35 +12656,35 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="5" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -12040,7 +12749,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -12049,7 +12758,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -12058,7 +12767,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -12067,7 +12776,7 @@
         <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -12076,7 +12785,7 @@
         <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -12085,7 +12794,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -12094,7 +12803,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -12103,7 +12812,7 @@
         <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -12112,7 +12821,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -12121,7 +12830,7 @@
         <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -12130,7 +12839,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -12139,7 +12848,7 @@
         <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="D16" s="3"/>
     </row>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12980" activeTab="3"/>
+    <workbookView windowWidth="30240" windowHeight="12980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="365">
   <si>
     <t>##var</t>
   </si>
@@ -705,6 +705,15 @@
     <t>抽不到时是否任意抽一张</t>
   </si>
   <si>
+    <t>技能牌数量小于这个数时添加的牌</t>
+  </si>
+  <si>
+    <t>添加的技能牌</t>
+  </si>
+  <si>
+    <t>添加的数量</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2714,6 +2723,9 @@
       </rPr>
       <t>。</t>
     </r>
+  </si>
+  <si>
+    <t>大地之力</t>
   </si>
   <si>
     <r>
@@ -4995,16 +5007,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5012,6 +5018,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6308,10 +6320,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH70"/>
+  <dimension ref="A1:AK70"/>
   <sheetViews>
-    <sheetView topLeftCell="D29" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -6332,25 +6344,29 @@
     <col min="15" max="15" width="7.25" style="4" customWidth="1"/>
     <col min="16" max="16" width="17.625" style="4" customWidth="1"/>
     <col min="17" max="17" width="16.0714285714286" style="4" customWidth="1"/>
-    <col min="18" max="18" width="20.6785714285714" style="4" customWidth="1"/>
-    <col min="19" max="19" width="21.875" style="4" customWidth="1"/>
-    <col min="20" max="21" width="25.8839285714286" style="4" customWidth="1"/>
-    <col min="22" max="22" width="15.9196428571429" style="4" customWidth="1"/>
-    <col min="23" max="23" width="12.75" style="4" customWidth="1"/>
-    <col min="24" max="24" width="19.3392857142857" style="4" customWidth="1"/>
-    <col min="25" max="25" width="17.1160714285714" customWidth="1"/>
-    <col min="26" max="26" width="16.25" customWidth="1"/>
-    <col min="27" max="27" width="14.375" customWidth="1"/>
-    <col min="28" max="28" width="13.25" customWidth="1"/>
-    <col min="29" max="29" width="11.125" customWidth="1"/>
-    <col min="30" max="30" width="19.5" customWidth="1"/>
-    <col min="31" max="31" width="18.875" customWidth="1"/>
-    <col min="32" max="32" width="12.75" customWidth="1"/>
-    <col min="33" max="33" width="16.25" customWidth="1"/>
-    <col min="34" max="34" width="15.75" style="26" customWidth="1"/>
+    <col min="18" max="18" width="12.1964285714286" style="4" customWidth="1"/>
+    <col min="19" max="19" width="6.25" style="4" customWidth="1"/>
+    <col min="20" max="20" width="24.5446428571429" style="4" customWidth="1"/>
+    <col min="21" max="21" width="12.3482142857143" style="4" customWidth="1"/>
+    <col min="22" max="22" width="13.9821428571429" style="4" customWidth="1"/>
+    <col min="23" max="23" width="10.8660714285714" style="4" customWidth="1"/>
+    <col min="24" max="24" width="25.8839285714286" style="4" customWidth="1"/>
+    <col min="25" max="25" width="15.9196428571429" style="4" customWidth="1"/>
+    <col min="26" max="26" width="12.75" style="4" customWidth="1"/>
+    <col min="27" max="27" width="19.3392857142857" style="4" customWidth="1"/>
+    <col min="28" max="28" width="17.1160714285714" customWidth="1"/>
+    <col min="29" max="29" width="16.25" customWidth="1"/>
+    <col min="30" max="30" width="14.375" customWidth="1"/>
+    <col min="31" max="31" width="13.25" customWidth="1"/>
+    <col min="32" max="32" width="11.125" customWidth="1"/>
+    <col min="33" max="33" width="19.5" customWidth="1"/>
+    <col min="34" max="34" width="18.875" customWidth="1"/>
+    <col min="35" max="35" width="12.75" customWidth="1"/>
+    <col min="36" max="36" width="16.25" customWidth="1"/>
+    <col min="37" max="37" width="15.75" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:37">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6406,51 +6422,54 @@
         <v>109</v>
       </c>
       <c r="S1" s="40"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="8" t="s">
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AJ1" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:37">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -6470,25 +6489,28 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="46"/>
       <c r="X2" s="12"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
       <c r="AD2" s="12"/>
       <c r="AE2" s="12"/>
       <c r="AF2" s="12"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="48"/>
-    </row>
-    <row r="3" spans="1:34">
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="48"/>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -6540,55 +6562,58 @@
       <c r="Q3" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="R3" s="45" t="s">
+      <c r="R3" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>127</v>
-      </c>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
       <c r="X3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB3" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="AC3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AD3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AE3" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="AF3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AG3" s="33" t="s">
+      <c r="AG3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AH3" s="8" t="s">
+      <c r="AK3" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:37">
       <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
@@ -6608,25 +6633,28 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="46"/>
       <c r="X4" s="12"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
       <c r="AF4" s="12"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="48"/>
-    </row>
-    <row r="5" ht="17.75" spans="1:34">
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="48"/>
+    </row>
+    <row r="5" ht="17.75" spans="1:37">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -6687,31 +6715,31 @@
       <c r="T5" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="U5" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="V5" s="8" t="s">
+      <c r="V5" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="W5" s="8" t="s">
+      <c r="W5" s="38" t="s">
         <v>151</v>
       </c>
       <c r="X5" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="Z5" s="9" t="s">
+      <c r="Z5" s="8" t="s">
         <v>154</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="AB5" s="8" t="s">
+      <c r="AB5" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="AC5" s="8" t="s">
+      <c r="AC5" s="9" t="s">
         <v>157</v>
       </c>
       <c r="AD5" s="8" t="s">
@@ -6723,26 +6751,35 @@
       <c r="AF5" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="AG5" s="33" t="s">
+      <c r="AG5" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="AH5" s="49" t="s">
+      <c r="AH5" s="8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="6" ht="17.75" spans="1:34">
+      <c r="AI5" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ5" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK5" s="49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" ht="17.75" spans="1:37">
       <c r="A6" s="12"/>
       <c r="B6" s="24" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F6" s="35">
         <v>90</v>
@@ -6752,30 +6789,30 @@
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N6" s="12">
         <v>1</v>
       </c>
       <c r="O6" s="12"/>
       <c r="P6" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q6" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S6" s="4">
         <v>0</v>
@@ -6783,11 +6820,11 @@
       <c r="T6" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U6" s="12">
-        <v>0</v>
-      </c>
-      <c r="V6" s="12">
-        <v>0</v>
+      <c r="U6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W6" s="12">
         <v>0</v>
@@ -6795,19 +6832,19 @@
       <c r="X6" s="12">
         <v>0</v>
       </c>
-      <c r="Y6" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z6" s="37">
+      <c r="Y6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="12">
         <v>0</v>
       </c>
       <c r="AA6" s="12">
         <v>0</v>
       </c>
-      <c r="AB6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="12">
+      <c r="AB6" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC6" s="37">
         <v>0</v>
       </c>
       <c r="AD6" s="12">
@@ -6816,23 +6853,32 @@
       <c r="AE6" s="12">
         <v>0</v>
       </c>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="48"/>
-    </row>
-    <row r="7" ht="17.75" spans="1:34">
+      <c r="AF6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="48"/>
+    </row>
+    <row r="7" ht="17.75" spans="1:37">
       <c r="A7" s="12"/>
       <c r="B7" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="F7" s="35">
         <v>50</v>
@@ -6842,30 +6888,30 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N7" s="12">
         <v>1</v>
       </c>
       <c r="O7" s="12"/>
       <c r="P7" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S7" s="12">
         <v>0</v>
@@ -6873,11 +6919,11 @@
       <c r="T7" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U7" s="12">
-        <v>0</v>
-      </c>
-      <c r="V7" s="12">
-        <v>0</v>
+      <c r="U7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W7" s="12">
         <v>0</v>
@@ -6885,19 +6931,19 @@
       <c r="X7" s="12">
         <v>0</v>
       </c>
-      <c r="Y7" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z7" s="37">
+      <c r="Y7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="12">
         <v>0</v>
       </c>
       <c r="AA7" s="12">
         <v>0</v>
       </c>
-      <c r="AB7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="12">
+      <c r="AB7" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
       <c r="AD7" s="12">
@@ -6906,23 +6952,32 @@
       <c r="AE7" s="12">
         <v>0</v>
       </c>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="48"/>
-    </row>
-    <row r="8" ht="17.75" spans="1:34">
+      <c r="AF7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="48"/>
+    </row>
+    <row r="8" ht="17.75" spans="1:37">
       <c r="A8" s="12"/>
       <c r="B8" s="24" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F8" s="35">
         <v>60</v>
@@ -6932,30 +6987,30 @@
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L8" s="12">
         <v>0</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N8" s="12">
         <v>1</v>
       </c>
       <c r="O8" s="12"/>
       <c r="P8" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S8" s="4">
         <v>0</v>
@@ -6963,11 +7018,11 @@
       <c r="T8" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U8" s="12">
-        <v>0</v>
-      </c>
-      <c r="V8" s="12">
-        <v>0</v>
+      <c r="U8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W8" s="12">
         <v>0</v>
@@ -6975,19 +7030,19 @@
       <c r="X8" s="12">
         <v>0</v>
       </c>
-      <c r="Y8" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z8" s="37">
+      <c r="Y8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="12">
         <v>0</v>
       </c>
       <c r="AA8" s="12">
         <v>0</v>
       </c>
-      <c r="AB8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="12">
+      <c r="AB8" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC8" s="37">
         <v>0</v>
       </c>
       <c r="AD8" s="12">
@@ -6996,23 +7051,32 @@
       <c r="AE8" s="12">
         <v>0</v>
       </c>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="48"/>
-    </row>
-    <row r="9" ht="17.75" spans="1:34">
+      <c r="AF8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="48"/>
+    </row>
+    <row r="9" ht="17.75" spans="1:37">
       <c r="A9" s="12"/>
       <c r="B9" s="24" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F9" s="35">
         <v>40</v>
@@ -7022,30 +7086,30 @@
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L9" s="12">
         <v>0</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N9" s="12">
         <v>1</v>
       </c>
       <c r="O9" s="12"/>
       <c r="P9" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q9" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S9" s="12">
         <v>0</v>
@@ -7053,11 +7117,11 @@
       <c r="T9" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U9" s="12">
-        <v>0</v>
-      </c>
-      <c r="V9" s="12">
-        <v>0</v>
+      <c r="U9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W9" s="12">
         <v>0</v>
@@ -7065,44 +7129,53 @@
       <c r="X9" s="12">
         <v>0</v>
       </c>
-      <c r="Y9" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z9" s="37">
+      <c r="Y9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="12">
         <v>0</v>
       </c>
       <c r="AA9" s="12">
         <v>0</v>
       </c>
-      <c r="AB9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="12">
+      <c r="AB9" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC9" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="12">
         <v>0.4</v>
       </c>
-      <c r="AD9" s="12">
+      <c r="AG9" s="12">
         <v>2</v>
       </c>
-      <c r="AE9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="48"/>
-    </row>
-    <row r="10" ht="17.75" spans="1:34">
+      <c r="AH9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="48"/>
+    </row>
+    <row r="10" ht="17.75" spans="1:37">
       <c r="A10" s="12"/>
       <c r="B10" s="24" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F10" s="35">
         <v>90</v>
@@ -7112,30 +7185,30 @@
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L10" s="12">
         <v>0</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N10" s="12">
         <v>1</v>
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S10" s="4">
         <v>0</v>
@@ -7143,11 +7216,11 @@
       <c r="T10" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U10" s="12">
-        <v>0</v>
-      </c>
-      <c r="V10" s="12">
-        <v>0</v>
+      <c r="U10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W10" s="12">
         <v>0</v>
@@ -7155,19 +7228,19 @@
       <c r="X10" s="12">
         <v>0</v>
       </c>
-      <c r="Y10" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z10" s="37">
+      <c r="Y10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="12">
         <v>0</v>
       </c>
       <c r="AA10" s="12">
         <v>0</v>
       </c>
-      <c r="AB10" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="12">
+      <c r="AB10" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC10" s="37">
         <v>0</v>
       </c>
       <c r="AD10" s="12">
@@ -7176,23 +7249,32 @@
       <c r="AE10" s="12">
         <v>0</v>
       </c>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="48"/>
-    </row>
-    <row r="11" ht="17.75" spans="1:34">
+      <c r="AF10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="48"/>
+    </row>
+    <row r="11" ht="17.75" spans="1:37">
       <c r="A11" s="12"/>
       <c r="B11" s="24" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F11" s="35">
         <v>60</v>
@@ -7202,30 +7284,30 @@
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L11" s="12">
         <v>0</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N11" s="12">
         <v>1</v>
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q11" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S11" s="12">
         <v>0</v>
@@ -7233,11 +7315,11 @@
       <c r="T11" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U11" s="12">
-        <v>0</v>
-      </c>
-      <c r="V11" s="12">
-        <v>0</v>
+      <c r="U11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W11" s="12">
         <v>0</v>
@@ -7245,44 +7327,53 @@
       <c r="X11" s="12">
         <v>0</v>
       </c>
-      <c r="Y11" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z11" s="37">
+      <c r="Y11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="12">
         <v>0</v>
       </c>
       <c r="AA11" s="12">
         <v>0</v>
       </c>
-      <c r="AB11" s="12">
+      <c r="AB11" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="12">
         <v>10</v>
       </c>
-      <c r="AC11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="48"/>
-    </row>
-    <row r="12" ht="17.75" spans="1:34">
+      <c r="AF11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="48"/>
+    </row>
+    <row r="12" ht="17.75" spans="1:37">
       <c r="A12" s="12"/>
       <c r="B12" s="24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F12" s="35">
         <v>110</v>
@@ -7292,30 +7383,30 @@
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L12" s="12">
         <v>0</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N12" s="12">
         <v>1</v>
       </c>
       <c r="O12" s="12"/>
       <c r="P12" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q12" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S12" s="4">
         <v>0</v>
@@ -7323,11 +7414,11 @@
       <c r="T12" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U12" s="12">
-        <v>0</v>
-      </c>
-      <c r="V12" s="12">
-        <v>0</v>
+      <c r="U12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W12" s="12">
         <v>0</v>
@@ -7335,19 +7426,19 @@
       <c r="X12" s="12">
         <v>0</v>
       </c>
-      <c r="Y12" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z12" s="37">
+      <c r="Y12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12">
         <v>0</v>
       </c>
       <c r="AA12" s="12">
         <v>0</v>
       </c>
-      <c r="AB12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="12">
+      <c r="AB12" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC12" s="37">
         <v>0</v>
       </c>
       <c r="AD12" s="12">
@@ -7356,23 +7447,32 @@
       <c r="AE12" s="12">
         <v>0</v>
       </c>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="48"/>
-    </row>
-    <row r="13" ht="17.75" spans="1:34">
+      <c r="AF12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="48"/>
+    </row>
+    <row r="13" ht="17.75" spans="1:37">
       <c r="A13" s="12"/>
       <c r="B13" s="24" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F13" s="35">
         <v>80</v>
@@ -7382,30 +7482,30 @@
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L13" s="12">
         <v>0</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N13" s="12">
         <v>1</v>
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S13" s="12">
         <v>0</v>
@@ -7413,11 +7513,11 @@
       <c r="T13" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U13" s="12">
-        <v>0</v>
-      </c>
-      <c r="V13" s="12">
-        <v>0</v>
+      <c r="U13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W13" s="12">
         <v>0</v>
@@ -7425,44 +7525,53 @@
       <c r="X13" s="12">
         <v>0</v>
       </c>
-      <c r="Y13" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z13" s="37">
+      <c r="Y13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12">
         <v>0</v>
       </c>
       <c r="AA13" s="12">
         <v>0</v>
       </c>
-      <c r="AB13" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="12">
+      <c r="AB13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC13" s="37">
         <v>0</v>
       </c>
       <c r="AD13" s="12">
         <v>0</v>
       </c>
       <c r="AE13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="12">
         <v>0.5</v>
       </c>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="48"/>
-    </row>
-    <row r="14" ht="17.75" spans="1:34">
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="48"/>
+    </row>
+    <row r="14" ht="17.75" spans="1:37">
       <c r="A14" s="12"/>
       <c r="B14" s="24" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F14" s="35">
         <v>0</v>
@@ -7472,30 +7581,30 @@
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L14" s="12">
         <v>0</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N14" s="12">
         <v>1</v>
       </c>
       <c r="O14" s="12"/>
       <c r="P14" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S14" s="4">
         <v>0</v>
@@ -7503,11 +7612,11 @@
       <c r="T14" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U14" s="12">
-        <v>0</v>
-      </c>
-      <c r="V14" s="12">
-        <v>0</v>
+      <c r="U14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W14" s="12">
         <v>0</v>
@@ -7515,44 +7624,53 @@
       <c r="X14" s="12">
         <v>0</v>
       </c>
-      <c r="Y14" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z14" s="37">
+      <c r="Y14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="12">
         <v>0</v>
       </c>
       <c r="AA14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC14" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="12">
         <v>0.2</v>
       </c>
-      <c r="AB14" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="12">
-        <v>0</v>
-      </c>
       <c r="AE14" s="12">
         <v>0</v>
       </c>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="48"/>
-    </row>
-    <row r="15" ht="17.75" spans="1:34">
+      <c r="AF14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="48"/>
+    </row>
+    <row r="15" ht="17.75" spans="1:37">
       <c r="A15" s="12"/>
       <c r="B15" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>185</v>
-      </c>
       <c r="D15" s="28" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F15" s="35">
         <v>70</v>
@@ -7562,30 +7680,30 @@
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L15" s="12">
         <v>0</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N15" s="12">
         <v>1</v>
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q15" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S15" s="12">
         <v>0</v>
@@ -7593,11 +7711,11 @@
       <c r="T15" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U15" s="12">
-        <v>0</v>
-      </c>
-      <c r="V15" s="12">
-        <v>0</v>
+      <c r="U15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W15" s="12">
         <v>0</v>
@@ -7605,19 +7723,19 @@
       <c r="X15" s="12">
         <v>0</v>
       </c>
-      <c r="Y15" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z15" s="37">
+      <c r="Y15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="12">
         <v>0</v>
       </c>
       <c r="AA15" s="12">
         <v>0</v>
       </c>
-      <c r="AB15" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="12">
+      <c r="AB15" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC15" s="37">
         <v>0</v>
       </c>
       <c r="AD15" s="12">
@@ -7626,23 +7744,32 @@
       <c r="AE15" s="12">
         <v>0</v>
       </c>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="48"/>
-    </row>
-    <row r="16" ht="17.75" spans="1:34">
+      <c r="AF15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="48"/>
+    </row>
+    <row r="16" ht="17.75" spans="1:37">
       <c r="A16" s="12"/>
       <c r="B16" s="24" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F16" s="35">
         <v>100</v>
@@ -7652,30 +7779,30 @@
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L16" s="12">
         <v>0</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N16" s="12">
         <v>1</v>
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q16" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S16" s="4">
         <v>0</v>
@@ -7683,11 +7810,11 @@
       <c r="T16" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U16" s="12">
-        <v>0</v>
-      </c>
-      <c r="V16" s="12">
-        <v>0</v>
+      <c r="U16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W16" s="12">
         <v>0</v>
@@ -7695,44 +7822,53 @@
       <c r="X16" s="12">
         <v>0</v>
       </c>
-      <c r="Y16" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z16" s="37">
+      <c r="Y16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="12">
         <v>0</v>
       </c>
       <c r="AA16" s="12">
         <v>0</v>
       </c>
-      <c r="AB16" s="12">
+      <c r="AB16" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC16" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="12">
         <v>-10</v>
       </c>
-      <c r="AC16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="48"/>
-    </row>
-    <row r="17" ht="17.75" spans="1:34">
+      <c r="AF16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="48"/>
+    </row>
+    <row r="17" ht="17.75" spans="1:37">
       <c r="A17" s="12"/>
       <c r="B17" s="24" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F17" s="35">
         <v>90</v>
@@ -7742,30 +7878,30 @@
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L17" s="12">
         <v>0</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N17" s="12">
         <v>1</v>
       </c>
       <c r="O17" s="12"/>
       <c r="P17" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S17" s="12">
         <v>0</v>
@@ -7773,11 +7909,11 @@
       <c r="T17" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U17" s="12">
-        <v>0</v>
-      </c>
-      <c r="V17" s="12">
-        <v>0</v>
+      <c r="U17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W17" s="12">
         <v>0</v>
@@ -7785,19 +7921,19 @@
       <c r="X17" s="12">
         <v>0</v>
       </c>
-      <c r="Y17" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z17" s="37">
+      <c r="Y17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="12">
         <v>0</v>
       </c>
       <c r="AA17" s="12">
         <v>0</v>
       </c>
-      <c r="AB17" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="12">
+      <c r="AB17" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC17" s="37">
         <v>0</v>
       </c>
       <c r="AD17" s="12">
@@ -7806,27 +7942,36 @@
       <c r="AE17" s="12">
         <v>0</v>
       </c>
-      <c r="AF17" s="13">
+      <c r="AF17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="13">
         <v>0.5</v>
       </c>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="48">
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="48">
         <v>30</v>
       </c>
     </row>
-    <row r="18" ht="17.75" spans="1:34">
+    <row r="18" ht="17.75" spans="1:37">
       <c r="A18" s="12"/>
       <c r="B18" s="24" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F18" s="35">
         <v>110</v>
@@ -7836,30 +7981,30 @@
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L18" s="12">
         <v>0</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N18" s="12">
         <v>1</v>
       </c>
       <c r="O18" s="12"/>
       <c r="P18" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q18" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S18" s="4">
         <v>0</v>
@@ -7867,11 +8012,11 @@
       <c r="T18" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U18" s="12">
-        <v>0</v>
-      </c>
-      <c r="V18" s="12">
-        <v>0</v>
+      <c r="U18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W18" s="12">
         <v>0</v>
@@ -7879,19 +8024,19 @@
       <c r="X18" s="12">
         <v>0</v>
       </c>
-      <c r="Y18" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z18" s="37">
+      <c r="Y18" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="12">
         <v>0</v>
       </c>
       <c r="AA18" s="12">
         <v>0</v>
       </c>
-      <c r="AB18" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="12">
+      <c r="AB18" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC18" s="37">
         <v>0</v>
       </c>
       <c r="AD18" s="12">
@@ -7900,25 +8045,34 @@
       <c r="AE18" s="12">
         <v>0</v>
       </c>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH18" s="48"/>
-    </row>
-    <row r="19" ht="17.75" spans="1:34">
+      <c r="AF18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK18" s="48"/>
+    </row>
+    <row r="19" ht="17.75" spans="1:37">
       <c r="A19" s="12"/>
       <c r="B19" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>195</v>
-      </c>
       <c r="D19" s="28" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F19" s="35">
         <v>60</v>
@@ -7928,30 +8082,30 @@
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L19" s="12">
         <v>0</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N19" s="12">
         <v>1</v>
       </c>
       <c r="O19" s="12"/>
       <c r="P19" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q19" s="8" t="b">
         <v>1</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S19" s="12">
         <v>0</v>
@@ -7959,11 +8113,11 @@
       <c r="T19" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U19" s="12">
-        <v>0</v>
-      </c>
-      <c r="V19" s="12">
-        <v>0</v>
+      <c r="U19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V19" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W19" s="12">
         <v>0</v>
@@ -7971,42 +8125,51 @@
       <c r="X19" s="12">
         <v>0</v>
       </c>
-      <c r="Y19" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z19" s="37">
+      <c r="Y19" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="12">
         <v>0</v>
       </c>
       <c r="AA19" s="12">
         <v>0</v>
       </c>
-      <c r="AB19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="12">
+      <c r="AB19" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC19" s="37">
         <v>0</v>
       </c>
       <c r="AD19" s="12">
         <v>0</v>
       </c>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="48"/>
-    </row>
-    <row r="20" ht="17.75" spans="1:34">
+      <c r="AE19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="48"/>
+    </row>
+    <row r="20" ht="17.75" spans="1:37">
       <c r="A20" s="12"/>
       <c r="B20" s="24" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F20" s="35">
         <v>120</v>
@@ -8016,30 +8179,30 @@
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L20" s="12">
         <v>0</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N20" s="12">
         <v>0.6</v>
       </c>
       <c r="O20" s="12"/>
       <c r="P20" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q20" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S20" s="4">
         <v>0</v>
@@ -8047,11 +8210,11 @@
       <c r="T20" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U20" s="12">
-        <v>0</v>
-      </c>
-      <c r="V20" s="12">
-        <v>0</v>
+      <c r="U20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W20" s="12">
         <v>0</v>
@@ -8059,42 +8222,51 @@
       <c r="X20" s="12">
         <v>0</v>
       </c>
-      <c r="Y20" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z20" s="37">
+      <c r="Y20" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="12">
         <v>0</v>
       </c>
       <c r="AA20" s="12">
         <v>0</v>
       </c>
-      <c r="AB20" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="12">
+      <c r="AB20" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC20" s="37">
         <v>0</v>
       </c>
       <c r="AD20" s="12">
         <v>0</v>
       </c>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="48"/>
-    </row>
-    <row r="21" ht="17.75" spans="1:34">
+      <c r="AE20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="48"/>
+    </row>
+    <row r="21" ht="17.75" spans="1:37">
       <c r="A21" s="12"/>
       <c r="B21" s="24" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F21" s="35">
         <v>50</v>
@@ -8104,30 +8276,30 @@
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L21" s="12">
         <v>0</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N21" s="12">
         <v>1</v>
       </c>
       <c r="O21" s="12"/>
       <c r="P21" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q21" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S21" s="12">
         <v>0</v>
@@ -8135,11 +8307,11 @@
       <c r="T21" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U21" s="12">
-        <v>0</v>
-      </c>
-      <c r="V21" s="12">
-        <v>0</v>
+      <c r="U21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V21" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W21" s="12">
         <v>0</v>
@@ -8147,42 +8319,51 @@
       <c r="X21" s="12">
         <v>0</v>
       </c>
-      <c r="Y21" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z21" s="37">
+      <c r="Y21" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="12">
         <v>0</v>
       </c>
       <c r="AA21" s="12">
         <v>0</v>
       </c>
-      <c r="AB21" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="12">
+      <c r="AB21" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC21" s="37">
         <v>0</v>
       </c>
       <c r="AD21" s="12">
         <v>0</v>
       </c>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="48"/>
-    </row>
-    <row r="22" ht="17.75" spans="1:34">
+      <c r="AE21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="48"/>
+    </row>
+    <row r="22" ht="17.75" spans="1:37">
       <c r="A22" s="12"/>
       <c r="B22" s="24" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F22" s="35">
         <v>30</v>
@@ -8192,32 +8373,32 @@
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L22" s="12">
         <v>0</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N22" s="12">
         <v>1</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q22" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S22" s="4">
         <v>0</v>
@@ -8225,11 +8406,11 @@
       <c r="T22" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U22" s="12">
-        <v>0</v>
-      </c>
-      <c r="V22" s="12">
-        <v>0</v>
+      <c r="U22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W22" s="12">
         <v>0</v>
@@ -8237,42 +8418,51 @@
       <c r="X22" s="12">
         <v>0</v>
       </c>
-      <c r="Y22" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z22" s="37">
+      <c r="Y22" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="12">
         <v>0</v>
       </c>
       <c r="AA22" s="12">
         <v>0</v>
       </c>
-      <c r="AB22" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="12">
+      <c r="AB22" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC22" s="37">
         <v>0</v>
       </c>
       <c r="AD22" s="12">
         <v>0</v>
       </c>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="48"/>
-    </row>
-    <row r="23" ht="17.75" spans="1:34">
+      <c r="AE22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="48"/>
+    </row>
+    <row r="23" ht="17.75" spans="1:37">
       <c r="A23" s="12"/>
       <c r="B23" s="24" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F23" s="35">
         <v>80</v>
@@ -8282,30 +8472,30 @@
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L23" s="12">
         <v>0</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N23" s="12">
         <v>1</v>
       </c>
       <c r="O23" s="12"/>
       <c r="P23" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q23" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S23" s="12">
         <v>0</v>
@@ -8313,11 +8503,11 @@
       <c r="T23" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U23" s="12">
-        <v>0</v>
-      </c>
-      <c r="V23" s="12">
-        <v>0</v>
+      <c r="U23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W23" s="12">
         <v>0</v>
@@ -8325,42 +8515,51 @@
       <c r="X23" s="12">
         <v>0</v>
       </c>
-      <c r="Y23" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z23" s="37">
+      <c r="Y23" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="12">
         <v>0</v>
       </c>
       <c r="AA23" s="12">
         <v>0</v>
       </c>
-      <c r="AB23" s="12">
+      <c r="AB23" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC23" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="12">
         <v>10</v>
       </c>
-      <c r="AC23" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="48"/>
-    </row>
-    <row r="24" ht="17.75" spans="1:34">
+      <c r="AF23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="48"/>
+    </row>
+    <row r="24" ht="17.75" spans="1:37">
       <c r="A24" s="12"/>
       <c r="B24" s="24" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F24" s="35">
         <v>60</v>
@@ -8370,28 +8569,28 @@
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L24" s="12"/>
       <c r="M24" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N24" s="12">
         <v>1</v>
       </c>
       <c r="O24" s="12"/>
       <c r="P24" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R24" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S24" s="4">
         <v>0</v>
@@ -8399,54 +8598,63 @@
       <c r="T24" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U24" s="12">
-        <v>0</v>
-      </c>
-      <c r="V24" s="12">
-        <v>0</v>
+      <c r="U24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V24" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W24" s="12">
+        <v>0</v>
+      </c>
+      <c r="X24" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="12">
         <v>0.2</v>
       </c>
-      <c r="X24" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z24" s="37">
-        <v>0</v>
-      </c>
       <c r="AA24" s="12">
         <v>0</v>
       </c>
-      <c r="AB24" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="12">
+      <c r="AB24" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC24" s="37">
         <v>0</v>
       </c>
       <c r="AD24" s="12">
         <v>0</v>
       </c>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="48"/>
-    </row>
-    <row r="25" ht="17.75" spans="1:34">
+      <c r="AE24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="48"/>
+    </row>
+    <row r="25" ht="17.75" spans="1:37">
       <c r="A25" s="12"/>
       <c r="B25" s="24" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F25" s="35">
         <v>90</v>
@@ -8456,28 +8664,28 @@
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L25" s="12"/>
       <c r="M25" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N25" s="12">
         <v>1</v>
       </c>
       <c r="O25" s="12"/>
       <c r="P25" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S25" s="12">
         <v>0</v>
@@ -8485,11 +8693,11 @@
       <c r="T25" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U25" s="12">
-        <v>0</v>
-      </c>
-      <c r="V25" s="12">
-        <v>0</v>
+      <c r="U25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V25" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W25" s="12">
         <v>0</v>
@@ -8497,42 +8705,51 @@
       <c r="X25" s="12">
         <v>0</v>
       </c>
-      <c r="Y25" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z25" s="37">
+      <c r="Y25" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="12">
         <v>0</v>
       </c>
       <c r="AA25" s="12">
         <v>0</v>
       </c>
-      <c r="AB25" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="12">
+      <c r="AB25" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC25" s="37">
         <v>0</v>
       </c>
       <c r="AD25" s="12">
         <v>0</v>
       </c>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="48"/>
-    </row>
-    <row r="26" ht="17.75" spans="1:34">
+      <c r="AE25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="48"/>
+    </row>
+    <row r="26" ht="17.75" spans="1:37">
       <c r="A26" s="29"/>
       <c r="B26" s="24" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F26" s="35">
         <v>0</v>
@@ -8544,32 +8761,32 @@
         <v>3</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J26" s="12">
         <v>3</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L26" s="12">
         <v>0</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N26" s="12">
         <v>1</v>
       </c>
       <c r="O26" s="12"/>
       <c r="P26" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R26" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S26" s="4">
         <v>0</v>
@@ -8577,11 +8794,11 @@
       <c r="T26" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U26" s="12">
-        <v>0</v>
-      </c>
-      <c r="V26" s="12">
-        <v>0</v>
+      <c r="U26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V26" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W26" s="12">
         <v>0</v>
@@ -8589,42 +8806,51 @@
       <c r="X26" s="12">
         <v>0</v>
       </c>
-      <c r="Y26" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z26" s="37">
+      <c r="Y26" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="12">
         <v>0</v>
       </c>
       <c r="AA26" s="12">
         <v>0</v>
       </c>
-      <c r="AB26" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="12">
+      <c r="AB26" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC26" s="37">
         <v>0</v>
       </c>
       <c r="AD26" s="12">
         <v>0</v>
       </c>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="48"/>
-    </row>
-    <row r="27" ht="17.75" spans="1:34">
+      <c r="AE26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="48"/>
+    </row>
+    <row r="27" ht="17.75" spans="1:37">
       <c r="A27" s="12"/>
       <c r="B27" s="24" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F27" s="35">
         <v>110</v>
@@ -8634,28 +8860,28 @@
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N27" s="12">
         <v>1</v>
       </c>
       <c r="O27" s="12"/>
       <c r="P27" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q27" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S27" s="12">
         <v>0</v>
@@ -8663,11 +8889,11 @@
       <c r="T27" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U27" s="12">
-        <v>0</v>
-      </c>
-      <c r="V27" s="12">
-        <v>0</v>
+      <c r="U27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V27" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W27" s="12">
         <v>0</v>
@@ -8675,42 +8901,51 @@
       <c r="X27" s="12">
         <v>0</v>
       </c>
-      <c r="Y27" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z27" s="37">
+      <c r="Y27" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="12">
         <v>0</v>
       </c>
       <c r="AA27" s="12">
         <v>0</v>
       </c>
-      <c r="AB27" s="12">
+      <c r="AB27" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC27" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="12">
         <v>-20</v>
       </c>
-      <c r="AC27" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="48"/>
-    </row>
-    <row r="28" ht="17.75" spans="1:34">
+      <c r="AF27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="48"/>
+    </row>
+    <row r="28" ht="17.75" spans="1:37">
       <c r="A28" s="12"/>
       <c r="B28" s="24" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F28" s="35">
         <v>70</v>
@@ -8720,28 +8955,28 @@
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L28" s="12"/>
       <c r="M28" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N28" s="12">
         <v>1</v>
       </c>
       <c r="O28" s="12"/>
       <c r="P28" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R28" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S28" s="4">
         <v>0</v>
@@ -8749,11 +8984,11 @@
       <c r="T28" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U28" s="12">
-        <v>0</v>
-      </c>
-      <c r="V28" s="12">
-        <v>0</v>
+      <c r="U28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W28" s="12">
         <v>0</v>
@@ -8761,42 +8996,51 @@
       <c r="X28" s="12">
         <v>0</v>
       </c>
-      <c r="Y28" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z28" s="37">
+      <c r="Y28" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="12">
         <v>0</v>
       </c>
       <c r="AA28" s="12">
         <v>0</v>
       </c>
-      <c r="AB28" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="12">
+      <c r="AB28" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC28" s="37">
         <v>0</v>
       </c>
       <c r="AD28" s="12">
         <v>0</v>
       </c>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="48"/>
-    </row>
-    <row r="29" ht="17.75" spans="1:34">
+      <c r="AE28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="48"/>
+    </row>
+    <row r="29" ht="17.75" spans="1:37">
       <c r="A29" s="12"/>
       <c r="B29" s="24" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F29" s="35">
         <v>60</v>
@@ -8806,28 +9050,28 @@
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L29" s="12"/>
       <c r="M29" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N29" s="12">
         <v>1</v>
       </c>
       <c r="O29" s="12"/>
       <c r="P29" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S29" s="12">
         <v>0</v>
@@ -8835,54 +9079,63 @@
       <c r="T29" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U29" s="12">
-        <v>0</v>
-      </c>
-      <c r="V29" s="12">
-        <v>0</v>
+      <c r="U29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V29" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W29" s="12">
         <v>0</v>
       </c>
       <c r="X29" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="12">
         <v>10</v>
       </c>
-      <c r="Y29" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z29" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="12">
+      <c r="AB29" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC29" s="37">
         <v>0</v>
       </c>
       <c r="AD29" s="12">
         <v>0</v>
       </c>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="48"/>
-    </row>
-    <row r="30" ht="17.75" spans="1:34">
+      <c r="AE29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="48"/>
+    </row>
+    <row r="30" ht="17.75" spans="1:37">
       <c r="A30" s="12"/>
       <c r="B30" s="24" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F30" s="35">
         <v>60</v>
@@ -8892,28 +9145,28 @@
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L30" s="12"/>
       <c r="M30" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N30" s="12">
         <v>1</v>
       </c>
       <c r="O30" s="12"/>
       <c r="P30" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q30" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R30" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S30" s="4">
         <v>0</v>
@@ -8921,11 +9174,11 @@
       <c r="T30" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U30" s="12">
-        <v>0</v>
-      </c>
-      <c r="V30" s="12">
-        <v>0</v>
+      <c r="U30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V30" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W30" s="12">
         <v>0</v>
@@ -8933,42 +9186,51 @@
       <c r="X30" s="12">
         <v>0</v>
       </c>
-      <c r="Y30" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z30" s="37">
+      <c r="Y30" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="12">
         <v>0</v>
       </c>
       <c r="AA30" s="12">
         <v>0</v>
       </c>
-      <c r="AB30" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="12">
+      <c r="AB30" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC30" s="37">
         <v>0</v>
       </c>
       <c r="AD30" s="12">
         <v>0</v>
       </c>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="48"/>
-    </row>
-    <row r="31" ht="17.75" spans="1:34">
+      <c r="AE30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="48"/>
+    </row>
+    <row r="31" ht="17.75" spans="1:37">
       <c r="A31" s="30"/>
       <c r="B31" s="24" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F31" s="35">
         <v>0</v>
@@ -8978,30 +9240,30 @@
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L31" s="12">
         <v>1</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="N31" s="12">
         <v>1</v>
       </c>
       <c r="O31" s="12"/>
       <c r="P31" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q31" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S31" s="12">
         <v>0</v>
@@ -9009,11 +9271,11 @@
       <c r="T31" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U31" s="12">
-        <v>0</v>
-      </c>
-      <c r="V31" s="12">
-        <v>0</v>
+      <c r="U31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W31" s="12">
         <v>0</v>
@@ -9021,42 +9283,51 @@
       <c r="X31" s="12">
         <v>0</v>
       </c>
-      <c r="Y31" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z31" s="37">
+      <c r="Y31" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="12">
         <v>0</v>
       </c>
       <c r="AA31" s="12">
         <v>0</v>
       </c>
-      <c r="AB31" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="12">
+      <c r="AB31" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC31" s="37">
         <v>0</v>
       </c>
       <c r="AD31" s="12">
         <v>0</v>
       </c>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="48"/>
-    </row>
-    <row r="32" ht="17.75" spans="1:34">
+      <c r="AE31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="48"/>
+    </row>
+    <row r="32" ht="17.75" spans="1:37">
       <c r="A32" s="12"/>
       <c r="B32" s="24" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F32" s="35">
         <v>50</v>
@@ -9066,28 +9337,28 @@
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L32" s="12"/>
       <c r="M32" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N32" s="12">
         <v>1</v>
       </c>
       <c r="O32" s="12"/>
       <c r="P32" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q32" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R32" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S32" s="4">
         <v>0</v>
@@ -9095,11 +9366,11 @@
       <c r="T32" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U32" s="12">
-        <v>0</v>
-      </c>
-      <c r="V32" s="12">
-        <v>0</v>
+      <c r="U32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V32" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W32" s="12">
         <v>0</v>
@@ -9107,42 +9378,51 @@
       <c r="X32" s="12">
         <v>0</v>
       </c>
-      <c r="Y32" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z32" s="37">
+      <c r="Y32" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="12">
         <v>0</v>
       </c>
       <c r="AA32" s="12">
         <v>0</v>
       </c>
-      <c r="AB32" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="12">
+      <c r="AB32" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC32" s="37">
         <v>0</v>
       </c>
       <c r="AD32" s="12">
         <v>0</v>
       </c>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="48"/>
-    </row>
-    <row r="33" ht="17.75" spans="1:34">
+      <c r="AE32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="48"/>
+    </row>
+    <row r="33" ht="17.75" spans="1:37">
       <c r="A33" s="12"/>
       <c r="B33" s="24" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F33" s="35">
         <v>20</v>
@@ -9152,30 +9432,30 @@
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L33" s="12"/>
       <c r="M33" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N33" s="12">
         <v>1</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q33" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S33" s="12">
         <v>0</v>
@@ -9183,11 +9463,11 @@
       <c r="T33" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U33" s="12">
-        <v>0</v>
-      </c>
-      <c r="V33" s="12">
-        <v>0</v>
+      <c r="U33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W33" s="12">
         <v>0</v>
@@ -9195,42 +9475,51 @@
       <c r="X33" s="12">
         <v>0</v>
       </c>
-      <c r="Y33" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z33" s="37">
+      <c r="Y33" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="12">
         <v>0</v>
       </c>
       <c r="AA33" s="12">
         <v>0</v>
       </c>
-      <c r="AB33" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="12">
+      <c r="AB33" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC33" s="37">
         <v>0</v>
       </c>
       <c r="AD33" s="12">
         <v>0</v>
       </c>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="48"/>
-    </row>
-    <row r="34" ht="17.75" spans="1:34">
+      <c r="AE33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="48"/>
+    </row>
+    <row r="34" ht="17.75" spans="1:37">
       <c r="A34" s="30"/>
       <c r="B34" s="24" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F34" s="35">
         <v>0</v>
@@ -9240,28 +9529,28 @@
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L34" s="12">
         <v>1</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q34" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R34" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S34" s="4">
         <v>0</v>
@@ -9269,11 +9558,11 @@
       <c r="T34" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U34" s="12">
-        <v>0</v>
-      </c>
-      <c r="V34" s="12">
-        <v>0</v>
+      <c r="U34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W34" s="12">
         <v>0</v>
@@ -9281,42 +9570,51 @@
       <c r="X34" s="12">
         <v>0</v>
       </c>
-      <c r="Y34" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z34" s="37">
+      <c r="Y34" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="12">
         <v>0</v>
       </c>
       <c r="AA34" s="12">
         <v>0</v>
       </c>
-      <c r="AB34" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="12">
+      <c r="AB34" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC34" s="37">
         <v>0</v>
       </c>
       <c r="AD34" s="12">
         <v>0</v>
       </c>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="48"/>
-    </row>
-    <row r="35" ht="17.75" spans="1:34">
+      <c r="AE34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="48"/>
+    </row>
+    <row r="35" ht="17.75" spans="1:37">
       <c r="A35" s="30"/>
       <c r="B35" s="24" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F35" s="35">
         <v>0</v>
@@ -9326,28 +9624,28 @@
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L35" s="12">
         <v>1</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q35" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S35" s="12">
         <v>0</v>
@@ -9355,11 +9653,11 @@
       <c r="T35" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U35" s="12">
-        <v>0</v>
-      </c>
-      <c r="V35" s="12">
-        <v>0</v>
+      <c r="U35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V35" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W35" s="12">
         <v>0</v>
@@ -9367,42 +9665,51 @@
       <c r="X35" s="12">
         <v>0</v>
       </c>
-      <c r="Y35" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z35" s="37">
+      <c r="Y35" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="12">
         <v>0</v>
       </c>
       <c r="AA35" s="12">
         <v>0</v>
       </c>
-      <c r="AB35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="12">
+      <c r="AB35" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC35" s="37">
         <v>0</v>
       </c>
       <c r="AD35" s="12">
         <v>0</v>
       </c>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="48"/>
-    </row>
-    <row r="36" ht="17.75" spans="1:34">
+      <c r="AE35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="48"/>
+    </row>
+    <row r="36" ht="17.75" spans="1:37">
       <c r="A36" s="30"/>
       <c r="B36" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="F36" s="35">
         <v>0</v>
@@ -9412,28 +9719,28 @@
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L36" s="12">
         <v>1</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q36" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R36" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S36" s="4">
         <v>0</v>
@@ -9441,11 +9748,11 @@
       <c r="T36" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U36" s="12">
-        <v>0</v>
-      </c>
-      <c r="V36" s="12">
-        <v>0</v>
+      <c r="U36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V36" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W36" s="12">
         <v>0</v>
@@ -9453,42 +9760,51 @@
       <c r="X36" s="12">
         <v>0</v>
       </c>
-      <c r="Y36" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z36" s="37">
+      <c r="Y36" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="12">
         <v>0</v>
       </c>
       <c r="AA36" s="12">
         <v>0</v>
       </c>
-      <c r="AB36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="12">
+      <c r="AB36" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC36" s="37">
         <v>0</v>
       </c>
       <c r="AD36" s="12">
         <v>0</v>
       </c>
-      <c r="AE36" s="12"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="48"/>
-    </row>
-    <row r="37" ht="17.75" spans="1:34">
+      <c r="AE36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="48"/>
+    </row>
+    <row r="37" ht="17.75" spans="1:37">
       <c r="A37" s="12"/>
       <c r="B37" s="24" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F37" s="35">
         <v>0</v>
@@ -9498,26 +9814,26 @@
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L37" s="12"/>
       <c r="M37" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
       <c r="P37" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q37" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S37" s="12">
         <v>0</v>
@@ -9525,11 +9841,11 @@
       <c r="T37" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U37" s="12">
-        <v>0</v>
-      </c>
-      <c r="V37" s="12">
-        <v>0</v>
+      <c r="U37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V37" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W37" s="12">
         <v>0</v>
@@ -9537,42 +9853,51 @@
       <c r="X37" s="12">
         <v>0</v>
       </c>
-      <c r="Y37" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z37" s="9">
+      <c r="Y37" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC37" s="9">
         <v>100</v>
       </c>
-      <c r="AA37" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="12">
-        <v>0</v>
-      </c>
       <c r="AD37" s="12">
         <v>0</v>
       </c>
-      <c r="AE37" s="12"/>
-      <c r="AF37" s="13"/>
-      <c r="AG37" s="13"/>
-      <c r="AH37" s="48"/>
-    </row>
-    <row r="38" ht="17.75" spans="1:34">
+      <c r="AE37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="13"/>
+      <c r="AJ37" s="13"/>
+      <c r="AK37" s="48"/>
+    </row>
+    <row r="38" ht="17.75" spans="1:37">
       <c r="A38" s="30"/>
       <c r="B38" s="24" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F38" s="35">
         <v>0</v>
@@ -9582,28 +9907,28 @@
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L38" s="36">
         <v>1</v>
       </c>
       <c r="M38" s="37" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q38" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R38" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S38" s="4">
         <v>0</v>
@@ -9611,11 +9936,11 @@
       <c r="T38" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U38" s="12">
-        <v>0</v>
-      </c>
-      <c r="V38" s="12">
-        <v>0</v>
+      <c r="U38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V38" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W38" s="12">
         <v>0</v>
@@ -9623,42 +9948,51 @@
       <c r="X38" s="12">
         <v>0</v>
       </c>
-      <c r="Y38" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z38" s="37">
+      <c r="Y38" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="12">
         <v>0</v>
       </c>
       <c r="AA38" s="12">
         <v>0</v>
       </c>
-      <c r="AB38" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="12">
+      <c r="AB38" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC38" s="37">
         <v>0</v>
       </c>
       <c r="AD38" s="12">
         <v>0</v>
       </c>
-      <c r="AE38" s="12"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="48"/>
-    </row>
-    <row r="39" ht="17.75" spans="1:34">
+      <c r="AE38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="48"/>
+    </row>
+    <row r="39" ht="17.75" spans="1:37">
       <c r="A39" s="30"/>
       <c r="B39" s="24" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F39" s="35">
         <v>0</v>
@@ -9668,24 +10002,24 @@
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
       <c r="P39" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q39" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S39" s="12">
         <v>0</v>
@@ -9693,11 +10027,11 @@
       <c r="T39" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U39" s="12">
-        <v>0</v>
-      </c>
-      <c r="V39" s="12">
-        <v>0</v>
+      <c r="U39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V39" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W39" s="12">
         <v>0</v>
@@ -9705,42 +10039,51 @@
       <c r="X39" s="12">
         <v>0</v>
       </c>
-      <c r="Y39" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z39" s="37">
+      <c r="Y39" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="12">
         <v>0</v>
       </c>
       <c r="AA39" s="12">
         <v>0</v>
       </c>
-      <c r="AB39" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="12">
+      <c r="AB39" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC39" s="37">
         <v>0</v>
       </c>
       <c r="AD39" s="12">
         <v>0</v>
       </c>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="48"/>
-    </row>
-    <row r="40" ht="17.75" spans="1:34">
+      <c r="AE39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="48"/>
+    </row>
+    <row r="40" ht="17.75" spans="1:37">
       <c r="A40" s="12"/>
       <c r="B40" s="24" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F40" s="35">
         <v>0</v>
@@ -9750,24 +10093,24 @@
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
       <c r="P40" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q40" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R40" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S40" s="4">
         <v>0</v>
@@ -9775,54 +10118,63 @@
       <c r="T40" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U40" s="12">
-        <v>0</v>
-      </c>
-      <c r="V40" s="12">
+      <c r="U40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V40" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="W40" s="12">
+        <v>0</v>
+      </c>
+      <c r="X40" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="12">
         <v>3</v>
       </c>
-      <c r="W40" s="12">
-        <v>0</v>
-      </c>
-      <c r="X40" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z40" s="37">
+      <c r="Z40" s="12">
         <v>0</v>
       </c>
       <c r="AA40" s="12">
         <v>0</v>
       </c>
-      <c r="AB40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="12">
+      <c r="AB40" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC40" s="37">
         <v>0</v>
       </c>
       <c r="AD40" s="12">
         <v>0</v>
       </c>
-      <c r="AE40" s="12"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="48"/>
-    </row>
-    <row r="41" ht="17.75" spans="1:34">
+      <c r="AE40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="48"/>
+    </row>
+    <row r="41" ht="17.75" spans="1:37">
       <c r="A41" s="30"/>
       <c r="B41" s="24" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F41" s="35">
         <v>0</v>
@@ -9832,24 +10184,24 @@
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
       <c r="P41" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q41" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S41" s="12">
         <v>0</v>
@@ -9857,11 +10209,11 @@
       <c r="T41" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U41" s="12">
-        <v>0</v>
-      </c>
-      <c r="V41" s="12">
-        <v>0</v>
+      <c r="U41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V41" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W41" s="12">
         <v>0</v>
@@ -9869,42 +10221,51 @@
       <c r="X41" s="12">
         <v>0</v>
       </c>
-      <c r="Y41" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z41" s="37">
+      <c r="Y41" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="12">
         <v>0</v>
       </c>
       <c r="AA41" s="12">
         <v>0</v>
       </c>
-      <c r="AB41" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="12">
+      <c r="AB41" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC41" s="37">
         <v>0</v>
       </c>
       <c r="AD41" s="12">
         <v>0</v>
       </c>
-      <c r="AE41" s="12"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="48"/>
-    </row>
-    <row r="42" ht="17.75" spans="1:34">
+      <c r="AE41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="13"/>
+      <c r="AJ41" s="13"/>
+      <c r="AK41" s="48"/>
+    </row>
+    <row r="42" ht="17.75" spans="1:37">
       <c r="A42" s="29"/>
       <c r="B42" s="24" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F42" s="35">
         <v>0</v>
@@ -9916,26 +10277,26 @@
         <v>1</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="J42" s="11">
         <v>1</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L42" s="12"/>
       <c r="M42" s="24"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
       <c r="P42" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q42" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R42" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S42" s="4">
         <v>0</v>
@@ -9943,11 +10304,11 @@
       <c r="T42" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U42" s="12">
-        <v>0</v>
-      </c>
-      <c r="V42" s="12">
-        <v>0</v>
+      <c r="U42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V42" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W42" s="12">
         <v>0</v>
@@ -9955,42 +10316,51 @@
       <c r="X42" s="12">
         <v>0</v>
       </c>
-      <c r="Y42" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z42" s="37">
+      <c r="Y42" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC42" s="37">
         <v>50</v>
       </c>
-      <c r="AA42" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="12">
-        <v>0</v>
-      </c>
       <c r="AD42" s="12">
         <v>0</v>
       </c>
-      <c r="AE42" s="12"/>
-      <c r="AF42" s="13"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="48"/>
-    </row>
-    <row r="43" ht="17.75" spans="1:34">
+      <c r="AE42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="13"/>
+      <c r="AJ42" s="13"/>
+      <c r="AK42" s="48"/>
+    </row>
+    <row r="43" ht="17.75" spans="1:37">
       <c r="A43" s="30"/>
       <c r="B43" s="24" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F43" s="35">
         <v>0</v>
@@ -10000,28 +10370,28 @@
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L43" s="12">
         <v>1</v>
       </c>
       <c r="M43" s="38" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
       <c r="P43" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q43" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="S43" s="4">
         <v>1</v>
@@ -10029,11 +10399,11 @@
       <c r="T43" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="U43" s="12">
-        <v>0</v>
-      </c>
-      <c r="V43" s="12">
-        <v>0</v>
+      <c r="U43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V43" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W43" s="12">
         <v>0</v>
@@ -10041,42 +10411,51 @@
       <c r="X43" s="12">
         <v>0</v>
       </c>
-      <c r="Y43" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z43" s="37">
+      <c r="Y43" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="12">
         <v>0</v>
       </c>
       <c r="AA43" s="12">
         <v>0</v>
       </c>
-      <c r="AB43" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="12">
+      <c r="AB43" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC43" s="37">
         <v>0</v>
       </c>
       <c r="AD43" s="12">
         <v>0</v>
       </c>
-      <c r="AE43" s="12"/>
-      <c r="AF43" s="13"/>
-      <c r="AG43" s="13"/>
-      <c r="AH43" s="48"/>
-    </row>
-    <row r="44" ht="17.75" spans="1:34">
+      <c r="AE43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="13"/>
+      <c r="AJ43" s="13"/>
+      <c r="AK43" s="48"/>
+    </row>
+    <row r="44" ht="17.75" spans="1:37">
       <c r="A44" s="32"/>
       <c r="B44" s="24" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F44" s="35">
         <v>0</v>
@@ -10086,28 +10465,28 @@
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L44" s="12">
         <v>1</v>
       </c>
       <c r="M44" s="21" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
       <c r="P44" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q44" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S44" s="12">
         <v>0</v>
@@ -10115,11 +10494,11 @@
       <c r="T44" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U44" s="12">
-        <v>0</v>
-      </c>
-      <c r="V44" s="12">
-        <v>0</v>
+      <c r="U44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V44" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W44" s="12">
         <v>0</v>
@@ -10127,42 +10506,51 @@
       <c r="X44" s="12">
         <v>0</v>
       </c>
-      <c r="Y44" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z44" s="37">
+      <c r="Y44" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="12">
         <v>0</v>
       </c>
       <c r="AA44" s="12">
         <v>0</v>
       </c>
-      <c r="AB44" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="12">
+      <c r="AB44" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC44" s="37">
         <v>0</v>
       </c>
       <c r="AD44" s="12">
         <v>0</v>
       </c>
-      <c r="AE44" s="12"/>
-      <c r="AF44" s="13"/>
-      <c r="AG44" s="13"/>
-      <c r="AH44" s="48"/>
-    </row>
-    <row r="45" ht="17.75" spans="1:34">
+      <c r="AE44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="13"/>
+      <c r="AJ44" s="13"/>
+      <c r="AK44" s="48"/>
+    </row>
+    <row r="45" ht="17.75" spans="1:37">
       <c r="A45" s="30"/>
       <c r="B45" s="24" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F45" s="35">
         <v>0</v>
@@ -10172,24 +10560,24 @@
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
       <c r="P45" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q45" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S45" s="12">
         <v>0</v>
@@ -10197,11 +10585,11 @@
       <c r="T45" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U45" s="12">
-        <v>0</v>
-      </c>
-      <c r="V45" s="12">
-        <v>0</v>
+      <c r="U45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V45" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W45" s="12">
         <v>0</v>
@@ -10209,42 +10597,51 @@
       <c r="X45" s="12">
         <v>0</v>
       </c>
-      <c r="Y45" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z45" s="37">
+      <c r="Y45" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="12">
         <v>0</v>
       </c>
       <c r="AA45" s="12">
         <v>0</v>
       </c>
-      <c r="AB45" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="12">
+      <c r="AB45" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC45" s="37">
         <v>0</v>
       </c>
       <c r="AD45" s="12">
         <v>0</v>
       </c>
-      <c r="AE45" s="12"/>
-      <c r="AF45" s="13"/>
-      <c r="AG45" s="13"/>
-      <c r="AH45" s="48"/>
-    </row>
-    <row r="46" ht="17.75" spans="1:34">
+      <c r="AE45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="13"/>
+      <c r="AJ45" s="13"/>
+      <c r="AK45" s="48"/>
+    </row>
+    <row r="46" ht="17.75" spans="1:37">
       <c r="A46" s="30"/>
       <c r="B46" s="24" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F46" s="35">
         <v>0</v>
@@ -10254,24 +10651,24 @@
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
       <c r="P46" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q46" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S46" s="12">
         <v>0</v>
@@ -10279,11 +10676,11 @@
       <c r="T46" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U46" s="12">
-        <v>0</v>
-      </c>
-      <c r="V46" s="12">
-        <v>0</v>
+      <c r="U46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V46" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W46" s="12">
         <v>0</v>
@@ -10291,42 +10688,51 @@
       <c r="X46" s="12">
         <v>0</v>
       </c>
-      <c r="Y46" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z46" s="37">
+      <c r="Y46" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="12">
         <v>0</v>
       </c>
       <c r="AA46" s="12">
         <v>0</v>
       </c>
-      <c r="AB46" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="12">
+      <c r="AB46" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC46" s="37">
         <v>0</v>
       </c>
       <c r="AD46" s="12">
         <v>0</v>
       </c>
-      <c r="AE46" s="12"/>
-      <c r="AF46" s="13"/>
-      <c r="AG46" s="13"/>
-      <c r="AH46" s="48"/>
-    </row>
-    <row r="47" ht="17.75" spans="1:34">
-      <c r="A47" s="30"/>
+      <c r="AE46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="13"/>
+      <c r="AJ46" s="13"/>
+      <c r="AK46" s="48"/>
+    </row>
+    <row r="47" ht="17.75" spans="1:37">
+      <c r="A47" s="12"/>
       <c r="B47" s="24" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F47" s="35">
         <v>0</v>
@@ -10336,24 +10742,24 @@
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J47" s="12"/>
       <c r="K47" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
       <c r="P47" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q47" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S47" s="12">
         <v>0</v>
@@ -10361,54 +10767,63 @@
       <c r="T47" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U47" s="12">
-        <v>0</v>
-      </c>
-      <c r="V47" s="12">
-        <v>0</v>
+      <c r="U47" s="4">
+        <v>5</v>
+      </c>
+      <c r="V47" s="38" t="s">
+        <v>271</v>
       </c>
       <c r="W47" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47" s="12">
         <v>0</v>
       </c>
-      <c r="Y47" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z47" s="37">
+      <c r="Y47" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="12">
         <v>0</v>
       </c>
       <c r="AA47" s="12">
         <v>0</v>
       </c>
-      <c r="AB47" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="12">
+      <c r="AB47" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC47" s="37">
         <v>0</v>
       </c>
       <c r="AD47" s="12">
         <v>0</v>
       </c>
-      <c r="AE47" s="12"/>
-      <c r="AF47" s="13"/>
-      <c r="AG47" s="13"/>
-      <c r="AH47" s="48"/>
-    </row>
-    <row r="48" ht="17.75" spans="1:34">
+      <c r="AE47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="13"/>
+      <c r="AJ47" s="13"/>
+      <c r="AK47" s="48"/>
+    </row>
+    <row r="48" ht="17.75" spans="1:37">
       <c r="A48" s="30"/>
       <c r="B48" s="24" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F48" s="35">
         <v>0</v>
@@ -10418,24 +10833,24 @@
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
       <c r="P48" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q48" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S48" s="12">
         <v>0</v>
@@ -10443,11 +10858,11 @@
       <c r="T48" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U48" s="12">
-        <v>0</v>
-      </c>
-      <c r="V48" s="12">
-        <v>0</v>
+      <c r="U48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V48" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W48" s="12">
         <v>0</v>
@@ -10455,42 +10870,51 @@
       <c r="X48" s="12">
         <v>0</v>
       </c>
-      <c r="Y48" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z48" s="37">
+      <c r="Y48" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="12">
         <v>0</v>
       </c>
       <c r="AA48" s="12">
         <v>0</v>
       </c>
-      <c r="AB48" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="12">
+      <c r="AB48" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC48" s="37">
         <v>0</v>
       </c>
       <c r="AD48" s="12">
         <v>0</v>
       </c>
-      <c r="AE48" s="12"/>
-      <c r="AF48" s="13"/>
-      <c r="AG48" s="13"/>
-      <c r="AH48" s="48"/>
-    </row>
-    <row r="49" ht="17" spans="1:34">
+      <c r="AE48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="12"/>
+      <c r="AI48" s="13"/>
+      <c r="AJ48" s="13"/>
+      <c r="AK48" s="48"/>
+    </row>
+    <row r="49" ht="17" spans="1:37">
       <c r="A49" s="30"/>
       <c r="B49" s="24" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F49" s="35">
         <v>0</v>
@@ -10500,24 +10924,24 @@
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
       <c r="P49" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q49" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S49" s="12">
         <v>0</v>
@@ -10525,11 +10949,11 @@
       <c r="T49" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U49" s="12">
-        <v>0</v>
-      </c>
-      <c r="V49" s="12">
-        <v>0</v>
+      <c r="U49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V49" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W49" s="12">
         <v>0</v>
@@ -10537,42 +10961,51 @@
       <c r="X49" s="12">
         <v>0</v>
       </c>
-      <c r="Y49" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z49" s="37">
+      <c r="Y49" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="12">
         <v>0</v>
       </c>
       <c r="AA49" s="12">
         <v>0</v>
       </c>
-      <c r="AB49" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="12">
+      <c r="AB49" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC49" s="37">
         <v>0</v>
       </c>
       <c r="AD49" s="12">
         <v>0</v>
       </c>
-      <c r="AE49" s="12"/>
-      <c r="AF49" s="13"/>
-      <c r="AG49" s="13"/>
-      <c r="AH49" s="48"/>
-    </row>
-    <row r="50" ht="17.75" spans="1:34">
+      <c r="AE49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="13"/>
+      <c r="AJ49" s="13"/>
+      <c r="AK49" s="48"/>
+    </row>
+    <row r="50" ht="17.75" spans="1:37">
       <c r="A50" s="30"/>
       <c r="B50" s="24" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F50" s="35">
         <v>0</v>
@@ -10582,24 +11015,24 @@
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
       <c r="O50" s="12"/>
       <c r="P50" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q50" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S50" s="12">
         <v>0</v>
@@ -10607,11 +11040,11 @@
       <c r="T50" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U50" s="12">
-        <v>0</v>
-      </c>
-      <c r="V50" s="12">
-        <v>0</v>
+      <c r="U50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V50" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W50" s="12">
         <v>0</v>
@@ -10619,42 +11052,51 @@
       <c r="X50" s="12">
         <v>0</v>
       </c>
-      <c r="Y50" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z50" s="37">
+      <c r="Y50" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="12">
         <v>0</v>
       </c>
       <c r="AA50" s="12">
         <v>0</v>
       </c>
-      <c r="AB50" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="12">
+      <c r="AB50" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC50" s="37">
         <v>0</v>
       </c>
       <c r="AD50" s="12">
         <v>0</v>
       </c>
-      <c r="AE50" s="12"/>
-      <c r="AF50" s="13"/>
-      <c r="AG50" s="13"/>
-      <c r="AH50" s="48"/>
-    </row>
-    <row r="51" ht="17.75" spans="1:34">
+      <c r="AE50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="13"/>
+      <c r="AJ50" s="13"/>
+      <c r="AK50" s="48"/>
+    </row>
+    <row r="51" ht="17.75" spans="1:37">
       <c r="A51" s="30"/>
       <c r="B51" s="24" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F51" s="35">
         <v>0</v>
@@ -10664,24 +11106,24 @@
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
       <c r="P51" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q51" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R51" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S51" s="12">
         <v>0</v>
@@ -10689,11 +11131,11 @@
       <c r="T51" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U51" s="12">
-        <v>0</v>
-      </c>
-      <c r="V51" s="12">
-        <v>0</v>
+      <c r="U51" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V51" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W51" s="12">
         <v>0</v>
@@ -10701,42 +11143,51 @@
       <c r="X51" s="12">
         <v>0</v>
       </c>
-      <c r="Y51" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z51" s="37">
+      <c r="Y51" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="12">
         <v>0</v>
       </c>
       <c r="AA51" s="12">
         <v>0</v>
       </c>
-      <c r="AB51" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="12">
+      <c r="AB51" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC51" s="37">
         <v>0</v>
       </c>
       <c r="AD51" s="12">
         <v>0</v>
       </c>
-      <c r="AE51" s="12"/>
-      <c r="AF51" s="13"/>
-      <c r="AG51" s="13"/>
-      <c r="AH51" s="48"/>
-    </row>
-    <row r="52" ht="17.75" spans="1:34">
+      <c r="AE51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="12"/>
+      <c r="AI51" s="13"/>
+      <c r="AJ51" s="13"/>
+      <c r="AK51" s="48"/>
+    </row>
+    <row r="52" ht="17.75" spans="1:37">
       <c r="A52" s="30"/>
       <c r="B52" s="24" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F52" s="35">
         <v>0</v>
@@ -10746,24 +11197,24 @@
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
       <c r="O52" s="12"/>
       <c r="P52" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q52" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R52" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S52" s="12">
         <v>0</v>
@@ -10771,11 +11222,11 @@
       <c r="T52" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U52" s="12">
-        <v>0</v>
-      </c>
-      <c r="V52" s="12">
-        <v>0</v>
+      <c r="U52" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V52" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W52" s="12">
         <v>0</v>
@@ -10783,42 +11234,51 @@
       <c r="X52" s="12">
         <v>0</v>
       </c>
-      <c r="Y52" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z52" s="37">
+      <c r="Y52" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="12">
         <v>0</v>
       </c>
       <c r="AA52" s="12">
         <v>0</v>
       </c>
-      <c r="AB52" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="12">
+      <c r="AB52" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC52" s="37">
         <v>0</v>
       </c>
       <c r="AD52" s="12">
         <v>0</v>
       </c>
-      <c r="AE52" s="12"/>
-      <c r="AF52" s="13"/>
-      <c r="AG52" s="13"/>
-      <c r="AH52" s="48"/>
-    </row>
-    <row r="53" ht="17.75" spans="1:34">
+      <c r="AE52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="13"/>
+      <c r="AJ52" s="13"/>
+      <c r="AK52" s="48"/>
+    </row>
+    <row r="53" ht="17.75" spans="1:37">
       <c r="A53" s="30"/>
       <c r="B53" s="24" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F53" s="35">
         <v>0</v>
@@ -10828,24 +11288,24 @@
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J53" s="12"/>
       <c r="K53" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
       <c r="P53" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q53" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R53" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S53" s="12">
         <v>0</v>
@@ -10853,11 +11313,11 @@
       <c r="T53" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U53" s="12">
-        <v>0</v>
-      </c>
-      <c r="V53" s="12">
-        <v>0</v>
+      <c r="U53" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V53" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W53" s="12">
         <v>0</v>
@@ -10865,42 +11325,51 @@
       <c r="X53" s="12">
         <v>0</v>
       </c>
-      <c r="Y53" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z53" s="37">
+      <c r="Y53" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="12">
         <v>0</v>
       </c>
       <c r="AA53" s="12">
         <v>0</v>
       </c>
-      <c r="AB53" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="12">
+      <c r="AB53" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC53" s="37">
         <v>0</v>
       </c>
       <c r="AD53" s="12">
         <v>0</v>
       </c>
-      <c r="AE53" s="12"/>
-      <c r="AF53" s="13"/>
-      <c r="AG53" s="13"/>
-      <c r="AH53" s="48"/>
-    </row>
-    <row r="54" ht="17.75" spans="1:34">
+      <c r="AE53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="13"/>
+      <c r="AJ53" s="13"/>
+      <c r="AK53" s="48"/>
+    </row>
+    <row r="54" ht="17.75" spans="1:37">
       <c r="A54" s="30"/>
       <c r="B54" s="24" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F54" s="35">
         <v>0</v>
@@ -10910,24 +11379,24 @@
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
       <c r="P54" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q54" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R54" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S54" s="12">
         <v>0</v>
@@ -10935,11 +11404,11 @@
       <c r="T54" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U54" s="12">
-        <v>0</v>
-      </c>
-      <c r="V54" s="12">
-        <v>0</v>
+      <c r="U54" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V54" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W54" s="12">
         <v>0</v>
@@ -10947,42 +11416,51 @@
       <c r="X54" s="12">
         <v>0</v>
       </c>
-      <c r="Y54" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z54" s="37">
+      <c r="Y54" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="12">
         <v>0</v>
       </c>
       <c r="AA54" s="12">
         <v>0</v>
       </c>
-      <c r="AB54" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="12">
+      <c r="AB54" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC54" s="37">
         <v>0</v>
       </c>
       <c r="AD54" s="12">
         <v>0</v>
       </c>
-      <c r="AE54" s="12"/>
-      <c r="AF54" s="13"/>
-      <c r="AG54" s="13"/>
-      <c r="AH54" s="48"/>
-    </row>
-    <row r="55" ht="17.75" spans="1:34">
+      <c r="AE54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="13"/>
+      <c r="AJ54" s="13"/>
+      <c r="AK54" s="48"/>
+    </row>
+    <row r="55" ht="17.75" spans="1:37">
       <c r="A55" s="30"/>
       <c r="B55" s="24" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F55" s="35">
         <v>0</v>
@@ -10992,24 +11470,24 @@
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J55" s="12"/>
       <c r="K55" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
       <c r="P55" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q55" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R55" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S55" s="12">
         <v>0</v>
@@ -11017,11 +11495,11 @@
       <c r="T55" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U55" s="12">
-        <v>0</v>
-      </c>
-      <c r="V55" s="12">
-        <v>0</v>
+      <c r="U55" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V55" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W55" s="12">
         <v>0</v>
@@ -11029,42 +11507,51 @@
       <c r="X55" s="12">
         <v>0</v>
       </c>
-      <c r="Y55" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z55" s="37">
+      <c r="Y55" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="12">
         <v>0</v>
       </c>
       <c r="AA55" s="12">
         <v>0</v>
       </c>
-      <c r="AB55" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="12">
+      <c r="AB55" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC55" s="37">
         <v>0</v>
       </c>
       <c r="AD55" s="12">
         <v>0</v>
       </c>
-      <c r="AE55" s="12"/>
-      <c r="AF55" s="13"/>
-      <c r="AG55" s="13"/>
-      <c r="AH55" s="48"/>
-    </row>
-    <row r="56" ht="17.75" spans="1:34">
+      <c r="AE55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="13"/>
+      <c r="AJ55" s="13"/>
+      <c r="AK55" s="48"/>
+    </row>
+    <row r="56" ht="17.75" spans="1:37">
       <c r="A56" s="30"/>
       <c r="B56" s="24" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F56" s="35">
         <v>0</v>
@@ -11074,24 +11561,24 @@
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J56" s="12"/>
       <c r="K56" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
       <c r="P56" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q56" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R56" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S56" s="12">
         <v>0</v>
@@ -11099,11 +11586,11 @@
       <c r="T56" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U56" s="12">
-        <v>0</v>
-      </c>
-      <c r="V56" s="12">
-        <v>0</v>
+      <c r="U56" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V56" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W56" s="12">
         <v>0</v>
@@ -11111,42 +11598,51 @@
       <c r="X56" s="12">
         <v>0</v>
       </c>
-      <c r="Y56" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z56" s="37">
+      <c r="Y56" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="12">
         <v>0</v>
       </c>
       <c r="AA56" s="12">
         <v>0</v>
       </c>
-      <c r="AB56" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="12">
+      <c r="AB56" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC56" s="37">
         <v>0</v>
       </c>
       <c r="AD56" s="12">
         <v>0</v>
       </c>
-      <c r="AE56" s="12"/>
-      <c r="AF56" s="13"/>
-      <c r="AG56" s="13"/>
-      <c r="AH56" s="48"/>
-    </row>
-    <row r="57" ht="17.75" spans="1:34">
+      <c r="AE56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="12"/>
+      <c r="AI56" s="13"/>
+      <c r="AJ56" s="13"/>
+      <c r="AK56" s="48"/>
+    </row>
+    <row r="57" ht="17.75" spans="1:37">
       <c r="A57" s="30"/>
       <c r="B57" s="24" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F57" s="35">
         <v>0</v>
@@ -11156,24 +11652,24 @@
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J57" s="12"/>
       <c r="K57" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
       <c r="P57" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q57" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R57" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S57" s="12">
         <v>0</v>
@@ -11181,11 +11677,11 @@
       <c r="T57" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U57" s="12">
-        <v>0</v>
-      </c>
-      <c r="V57" s="12">
-        <v>0</v>
+      <c r="U57" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V57" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W57" s="12">
         <v>0</v>
@@ -11193,42 +11689,51 @@
       <c r="X57" s="12">
         <v>0</v>
       </c>
-      <c r="Y57" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z57" s="37">
+      <c r="Y57" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="12">
         <v>0</v>
       </c>
       <c r="AA57" s="12">
         <v>0</v>
       </c>
-      <c r="AB57" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="12">
+      <c r="AB57" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC57" s="37">
         <v>0</v>
       </c>
       <c r="AD57" s="12">
         <v>0</v>
       </c>
-      <c r="AE57" s="12"/>
-      <c r="AF57" s="13"/>
-      <c r="AG57" s="13"/>
-      <c r="AH57" s="48"/>
-    </row>
-    <row r="58" ht="17.75" spans="1:34">
+      <c r="AE57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="12"/>
+      <c r="AI57" s="13"/>
+      <c r="AJ57" s="13"/>
+      <c r="AK57" s="48"/>
+    </row>
+    <row r="58" ht="17.75" spans="1:37">
       <c r="A58" s="30"/>
       <c r="B58" s="24" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F58" s="35">
         <v>0</v>
@@ -11238,24 +11743,24 @@
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J58" s="12"/>
       <c r="K58" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
       <c r="O58" s="12"/>
       <c r="P58" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q58" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R58" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S58" s="12">
         <v>0</v>
@@ -11263,11 +11768,11 @@
       <c r="T58" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U58" s="12">
-        <v>0</v>
-      </c>
-      <c r="V58" s="12">
-        <v>0</v>
+      <c r="U58" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V58" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W58" s="12">
         <v>0</v>
@@ -11275,42 +11780,51 @@
       <c r="X58" s="12">
         <v>0</v>
       </c>
-      <c r="Y58" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z58" s="37">
+      <c r="Y58" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="12">
         <v>0</v>
       </c>
       <c r="AA58" s="12">
         <v>0</v>
       </c>
-      <c r="AB58" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="12">
+      <c r="AB58" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC58" s="37">
         <v>0</v>
       </c>
       <c r="AD58" s="12">
         <v>0</v>
       </c>
-      <c r="AE58" s="12"/>
-      <c r="AF58" s="13"/>
-      <c r="AG58" s="13"/>
-      <c r="AH58" s="48"/>
-    </row>
-    <row r="59" ht="17.75" spans="1:34">
+      <c r="AE58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="12"/>
+      <c r="AI58" s="13"/>
+      <c r="AJ58" s="13"/>
+      <c r="AK58" s="48"/>
+    </row>
+    <row r="59" ht="17.75" spans="1:37">
       <c r="A59" s="30"/>
       <c r="B59" s="24" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F59" s="35">
         <v>0</v>
@@ -11320,24 +11834,24 @@
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J59" s="12"/>
       <c r="K59" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
       <c r="O59" s="12"/>
       <c r="P59" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q59" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R59" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S59" s="12">
         <v>0</v>
@@ -11345,11 +11859,11 @@
       <c r="T59" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U59" s="12">
-        <v>0</v>
-      </c>
-      <c r="V59" s="12">
-        <v>0</v>
+      <c r="U59" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V59" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W59" s="12">
         <v>0</v>
@@ -11357,42 +11871,51 @@
       <c r="X59" s="12">
         <v>0</v>
       </c>
-      <c r="Y59" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z59" s="37">
+      <c r="Y59" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="12">
         <v>0</v>
       </c>
       <c r="AA59" s="12">
         <v>0</v>
       </c>
-      <c r="AB59" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="12">
+      <c r="AB59" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC59" s="37">
         <v>0</v>
       </c>
       <c r="AD59" s="12">
         <v>0</v>
       </c>
-      <c r="AE59" s="12"/>
-      <c r="AF59" s="13"/>
-      <c r="AG59" s="13"/>
-      <c r="AH59" s="48"/>
-    </row>
-    <row r="60" ht="17.75" spans="1:34">
+      <c r="AE59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="12"/>
+      <c r="AI59" s="13"/>
+      <c r="AJ59" s="13"/>
+      <c r="AK59" s="48"/>
+    </row>
+    <row r="60" ht="17.75" spans="1:37">
       <c r="A60" s="30"/>
       <c r="B60" s="24" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F60" s="35">
         <v>0</v>
@@ -11402,24 +11925,24 @@
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J60" s="12"/>
       <c r="K60" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
       <c r="O60" s="12"/>
       <c r="P60" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q60" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R60" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S60" s="12">
         <v>0</v>
@@ -11427,11 +11950,11 @@
       <c r="T60" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U60" s="12">
-        <v>0</v>
-      </c>
-      <c r="V60" s="12">
-        <v>0</v>
+      <c r="U60" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V60" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W60" s="12">
         <v>0</v>
@@ -11439,42 +11962,51 @@
       <c r="X60" s="12">
         <v>0</v>
       </c>
-      <c r="Y60" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z60" s="37">
+      <c r="Y60" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="12">
         <v>0</v>
       </c>
       <c r="AA60" s="12">
         <v>0</v>
       </c>
-      <c r="AB60" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="12">
+      <c r="AB60" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC60" s="37">
         <v>0</v>
       </c>
       <c r="AD60" s="12">
         <v>0</v>
       </c>
-      <c r="AE60" s="12"/>
-      <c r="AF60" s="13"/>
-      <c r="AG60" s="13"/>
-      <c r="AH60" s="48"/>
-    </row>
-    <row r="61" ht="17.75" spans="1:34">
+      <c r="AE60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="12"/>
+      <c r="AI60" s="13"/>
+      <c r="AJ60" s="13"/>
+      <c r="AK60" s="48"/>
+    </row>
+    <row r="61" ht="17.75" spans="1:37">
       <c r="A61" s="30"/>
       <c r="B61" s="24" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F61" s="35">
         <v>0</v>
@@ -11484,24 +12016,24 @@
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J61" s="12"/>
       <c r="K61" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
       <c r="O61" s="12"/>
       <c r="P61" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q61" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R61" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S61" s="12">
         <v>0</v>
@@ -11509,11 +12041,11 @@
       <c r="T61" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U61" s="12">
-        <v>0</v>
-      </c>
-      <c r="V61" s="12">
-        <v>0</v>
+      <c r="U61" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V61" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W61" s="12">
         <v>0</v>
@@ -11521,42 +12053,51 @@
       <c r="X61" s="12">
         <v>0</v>
       </c>
-      <c r="Y61" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z61" s="37">
+      <c r="Y61" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="12">
         <v>0</v>
       </c>
       <c r="AA61" s="12">
         <v>0</v>
       </c>
-      <c r="AB61" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="12">
+      <c r="AB61" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC61" s="37">
         <v>0</v>
       </c>
       <c r="AD61" s="12">
         <v>0</v>
       </c>
-      <c r="AE61" s="12"/>
-      <c r="AF61" s="13"/>
-      <c r="AG61" s="13"/>
-      <c r="AH61" s="48"/>
-    </row>
-    <row r="62" ht="17.75" spans="1:34">
+      <c r="AE61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="12"/>
+      <c r="AI61" s="13"/>
+      <c r="AJ61" s="13"/>
+      <c r="AK61" s="48"/>
+    </row>
+    <row r="62" ht="17.75" spans="1:37">
       <c r="A62" s="30"/>
       <c r="B62" s="24" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F62" s="35">
         <v>0</v>
@@ -11566,24 +12107,24 @@
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J62" s="12"/>
       <c r="K62" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
       <c r="O62" s="12"/>
       <c r="P62" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q62" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R62" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S62" s="12">
         <v>0</v>
@@ -11591,11 +12132,11 @@
       <c r="T62" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U62" s="12">
-        <v>0</v>
-      </c>
-      <c r="V62" s="12">
-        <v>0</v>
+      <c r="U62" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V62" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W62" s="12">
         <v>0</v>
@@ -11603,42 +12144,51 @@
       <c r="X62" s="12">
         <v>0</v>
       </c>
-      <c r="Y62" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z62" s="37">
+      <c r="Y62" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="12">
         <v>0</v>
       </c>
       <c r="AA62" s="12">
         <v>0</v>
       </c>
-      <c r="AB62" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="12">
+      <c r="AB62" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC62" s="37">
         <v>0</v>
       </c>
       <c r="AD62" s="12">
         <v>0</v>
       </c>
-      <c r="AE62" s="12"/>
-      <c r="AF62" s="13"/>
-      <c r="AG62" s="13"/>
-      <c r="AH62" s="48"/>
-    </row>
-    <row r="63" ht="17" spans="1:34">
+      <c r="AE62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="13"/>
+      <c r="AJ62" s="13"/>
+      <c r="AK62" s="48"/>
+    </row>
+    <row r="63" ht="17" spans="1:37">
       <c r="A63" s="30"/>
       <c r="B63" s="24" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F63" s="35">
         <v>0</v>
@@ -11648,24 +12198,24 @@
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J63" s="12"/>
       <c r="K63" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
       <c r="O63" s="12"/>
       <c r="P63" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q63" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S63" s="12">
         <v>0</v>
@@ -11673,11 +12223,11 @@
       <c r="T63" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U63" s="12">
-        <v>0</v>
-      </c>
-      <c r="V63" s="12">
-        <v>0</v>
+      <c r="U63" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V63" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W63" s="12">
         <v>0</v>
@@ -11685,42 +12235,51 @@
       <c r="X63" s="12">
         <v>0</v>
       </c>
-      <c r="Y63" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z63" s="37">
+      <c r="Y63" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="12">
         <v>0</v>
       </c>
       <c r="AA63" s="12">
         <v>0</v>
       </c>
-      <c r="AB63" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="12">
+      <c r="AB63" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC63" s="37">
         <v>0</v>
       </c>
       <c r="AD63" s="12">
         <v>0</v>
       </c>
-      <c r="AE63" s="12"/>
-      <c r="AF63" s="13"/>
-      <c r="AG63" s="13"/>
-      <c r="AH63" s="48"/>
-    </row>
-    <row r="64" ht="17" spans="1:34">
+      <c r="AE63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="13"/>
+      <c r="AJ63" s="13"/>
+      <c r="AK63" s="48"/>
+    </row>
+    <row r="64" ht="17" spans="1:37">
       <c r="A64" s="12"/>
       <c r="B64" s="24" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F64" s="35">
         <v>0</v>
@@ -11730,24 +12289,24 @@
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J64" s="12"/>
       <c r="K64" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
       <c r="O64" s="12"/>
       <c r="P64" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q64" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R64" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S64" s="12">
         <v>0</v>
@@ -11755,54 +12314,63 @@
       <c r="T64" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U64" s="12">
+      <c r="U64" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V64" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="W64" s="12">
+        <v>0</v>
+      </c>
+      <c r="X64" s="12">
         <v>2</v>
       </c>
-      <c r="V64" s="12">
-        <v>0</v>
-      </c>
-      <c r="W64" s="12">
-        <v>0</v>
-      </c>
-      <c r="X64" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z64" s="37">
+      <c r="Y64" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="12">
         <v>0</v>
       </c>
       <c r="AA64" s="12">
         <v>0</v>
       </c>
-      <c r="AB64" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="12">
+      <c r="AB64" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC64" s="37">
         <v>0</v>
       </c>
       <c r="AD64" s="12">
         <v>0</v>
       </c>
-      <c r="AE64" s="12"/>
-      <c r="AF64" s="13"/>
-      <c r="AG64" s="13"/>
-      <c r="AH64" s="48"/>
-    </row>
-    <row r="65" ht="17" spans="1:34">
+      <c r="AE64" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="13"/>
+      <c r="AJ64" s="13"/>
+      <c r="AK64" s="48"/>
+    </row>
+    <row r="65" ht="17" spans="1:37">
       <c r="A65" s="12"/>
       <c r="B65" s="24" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F65" s="35">
         <v>0</v>
@@ -11812,24 +12380,24 @@
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J65" s="12"/>
       <c r="K65" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
       <c r="O65" s="12"/>
       <c r="P65" s="8" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q65" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R65" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S65" s="12">
         <v>0</v>
@@ -11837,11 +12405,11 @@
       <c r="T65" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U65" s="12">
-        <v>0</v>
-      </c>
-      <c r="V65" s="12">
-        <v>0</v>
+      <c r="U65" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V65" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W65" s="12">
         <v>0</v>
@@ -11849,42 +12417,51 @@
       <c r="X65" s="12">
         <v>0</v>
       </c>
-      <c r="Y65" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z65" s="37">
+      <c r="Y65" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="12">
         <v>0</v>
       </c>
       <c r="AA65" s="12">
         <v>0</v>
       </c>
-      <c r="AB65" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC65" s="12">
+      <c r="AB65" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC65" s="37">
         <v>0</v>
       </c>
       <c r="AD65" s="12">
         <v>0</v>
       </c>
-      <c r="AE65" s="12"/>
-      <c r="AF65" s="13"/>
-      <c r="AG65" s="13"/>
-      <c r="AH65" s="48"/>
-    </row>
-    <row r="66" ht="17" spans="1:34">
+      <c r="AE65" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="12"/>
+      <c r="AI65" s="13"/>
+      <c r="AJ65" s="13"/>
+      <c r="AK65" s="48"/>
+    </row>
+    <row r="66" ht="17" spans="1:37">
       <c r="A66" s="12"/>
       <c r="B66" s="24" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F66" s="35">
         <v>0</v>
@@ -11894,24 +12471,24 @@
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J66" s="12"/>
       <c r="K66" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
       <c r="P66" s="8" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q66" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R66" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S66" s="12">
         <v>0</v>
@@ -11919,11 +12496,11 @@
       <c r="T66" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U66" s="12">
-        <v>0</v>
-      </c>
-      <c r="V66" s="12">
-        <v>0</v>
+      <c r="U66" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V66" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W66" s="12">
         <v>0</v>
@@ -11931,42 +12508,51 @@
       <c r="X66" s="12">
         <v>0</v>
       </c>
-      <c r="Y66" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z66" s="37">
+      <c r="Y66" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="12">
         <v>0</v>
       </c>
       <c r="AA66" s="12">
         <v>0</v>
       </c>
-      <c r="AB66" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC66" s="12">
+      <c r="AB66" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC66" s="37">
         <v>0</v>
       </c>
       <c r="AD66" s="12">
         <v>0</v>
       </c>
-      <c r="AE66" s="12"/>
-      <c r="AF66" s="13"/>
-      <c r="AG66" s="13"/>
-      <c r="AH66" s="48"/>
-    </row>
-    <row r="67" ht="17" spans="1:34">
+      <c r="AE66" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="12"/>
+      <c r="AI66" s="13"/>
+      <c r="AJ66" s="13"/>
+      <c r="AK66" s="48"/>
+    </row>
+    <row r="67" ht="17" spans="1:37">
       <c r="A67" s="12"/>
       <c r="B67" s="24" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F67" s="35">
         <v>0</v>
@@ -11976,24 +12562,24 @@
       </c>
       <c r="H67" s="12"/>
       <c r="I67" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J67" s="12"/>
       <c r="K67" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
       <c r="P67" s="8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q67" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R67" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S67" s="12">
         <v>0</v>
@@ -12001,11 +12587,11 @@
       <c r="T67" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U67" s="12">
-        <v>0</v>
-      </c>
-      <c r="V67" s="12">
-        <v>0</v>
+      <c r="U67" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V67" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W67" s="12">
         <v>0</v>
@@ -12013,42 +12599,51 @@
       <c r="X67" s="12">
         <v>0</v>
       </c>
-      <c r="Y67" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z67" s="37">
+      <c r="Y67" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="12">
         <v>0</v>
       </c>
       <c r="AA67" s="12">
         <v>0</v>
       </c>
-      <c r="AB67" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC67" s="12">
+      <c r="AB67" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC67" s="37">
         <v>0</v>
       </c>
       <c r="AD67" s="12">
         <v>0</v>
       </c>
-      <c r="AE67" s="12"/>
-      <c r="AF67" s="13"/>
-      <c r="AG67" s="13"/>
-      <c r="AH67" s="48"/>
-    </row>
-    <row r="68" ht="17.75" spans="1:34">
+      <c r="AE67" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="13"/>
+      <c r="AJ67" s="13"/>
+      <c r="AK67" s="48"/>
+    </row>
+    <row r="68" ht="17.75" spans="1:37">
       <c r="A68" s="30"/>
       <c r="B68" s="24" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F68" s="35">
         <v>0</v>
@@ -12058,24 +12653,24 @@
       </c>
       <c r="H68" s="12"/>
       <c r="I68" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J68" s="12"/>
       <c r="K68" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
       <c r="N68" s="12"/>
       <c r="O68" s="12"/>
       <c r="P68" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q68" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R68" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S68" s="12">
         <v>0</v>
@@ -12083,11 +12678,11 @@
       <c r="T68" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U68" s="12">
-        <v>0</v>
-      </c>
-      <c r="V68" s="12">
-        <v>0</v>
+      <c r="U68" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V68" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W68" s="12">
         <v>0</v>
@@ -12095,42 +12690,51 @@
       <c r="X68" s="12">
         <v>0</v>
       </c>
-      <c r="Y68" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z68" s="37">
+      <c r="Y68" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="12">
         <v>0</v>
       </c>
       <c r="AA68" s="12">
         <v>0</v>
       </c>
-      <c r="AB68" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="12">
+      <c r="AB68" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC68" s="37">
         <v>0</v>
       </c>
       <c r="AD68" s="12">
         <v>0</v>
       </c>
-      <c r="AE68" s="12"/>
-      <c r="AF68" s="13"/>
-      <c r="AG68" s="13"/>
-      <c r="AH68" s="48"/>
-    </row>
-    <row r="69" ht="17.75" spans="1:34">
+      <c r="AE68" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="13"/>
+      <c r="AJ68" s="13"/>
+      <c r="AK68" s="48"/>
+    </row>
+    <row r="69" ht="17.75" spans="1:37">
       <c r="A69" s="30"/>
       <c r="B69" s="24" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F69" s="34">
         <v>0</v>
@@ -12140,24 +12744,24 @@
       </c>
       <c r="H69" s="12"/>
       <c r="I69" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J69" s="12"/>
       <c r="K69" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L69" s="12"/>
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
       <c r="O69" s="12"/>
       <c r="P69" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q69" s="8" t="b">
         <v>0</v>
       </c>
       <c r="R69" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S69" s="12">
         <v>0</v>
@@ -12165,11 +12769,11 @@
       <c r="T69" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="U69" s="12">
-        <v>0</v>
-      </c>
-      <c r="V69" s="12">
-        <v>0</v>
+      <c r="U69" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V69" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="W69" s="12">
         <v>0</v>
@@ -12177,41 +12781,50 @@
       <c r="X69" s="12">
         <v>0</v>
       </c>
-      <c r="Y69" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z69" s="37">
+      <c r="Y69" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="12">
         <v>0</v>
       </c>
       <c r="AA69" s="12">
         <v>0</v>
       </c>
-      <c r="AB69" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC69" s="12">
+      <c r="AB69" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC69" s="37">
         <v>0</v>
       </c>
       <c r="AD69" s="12">
         <v>0</v>
       </c>
-      <c r="AE69" s="12"/>
-      <c r="AF69" s="13"/>
-      <c r="AG69" s="13"/>
-      <c r="AH69" s="48"/>
-    </row>
-    <row r="70" spans="28:31">
-      <c r="AB70" s="4"/>
-      <c r="AC70" s="4"/>
-      <c r="AD70" s="4"/>
+      <c r="AE69" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="13"/>
+      <c r="AJ69" s="13"/>
+      <c r="AK69" s="48"/>
+    </row>
+    <row r="70" spans="31:34">
       <c r="AE70" s="4"/>
+      <c r="AF70" s="4"/>
+      <c r="AG70" s="4"/>
+      <c r="AH70" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="R1:W1"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="R3:W3"/>
+    <mergeCell ref="R4:W4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -12224,8 +12837,8 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -12249,13 +12862,13 @@
         <v>95</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -12307,22 +12920,22 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="15" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="12"/>
       <c r="B6" s="16" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D6" s="13">
         <v>-1</v>
@@ -12340,7 +12953,7 @@
         <v>74</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D7" s="13">
         <v>0</v>
@@ -12355,10 +12968,10 @@
     <row r="8" ht="17" spans="1:6">
       <c r="A8" s="13"/>
       <c r="B8" s="16" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D8" s="13">
         <v>0</v>
@@ -12376,7 +12989,7 @@
         <v>57</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -12391,10 +13004,10 @@
     <row r="10" ht="17" spans="1:6">
       <c r="A10" s="13"/>
       <c r="B10" s="20" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -12409,10 +13022,10 @@
     <row r="11" ht="17" spans="1:6">
       <c r="A11" s="13"/>
       <c r="B11" s="16" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D11" s="13">
         <v>0</v>
@@ -12427,10 +13040,10 @@
     <row r="12" ht="17" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="16" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D12" s="13">
         <v>0</v>
@@ -12445,10 +13058,10 @@
     <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="16" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D13" s="13">
         <v>-1</v>
@@ -12463,10 +13076,10 @@
     <row r="14" ht="17" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="16" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D14" s="13">
         <v>0</v>
@@ -12481,10 +13094,10 @@
     <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="16" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D15" s="13">
         <v>0</v>
@@ -12499,7 +13112,7 @@
     <row r="16" ht="17" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="24" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13">
@@ -12515,10 +13128,10 @@
     <row r="17" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="18" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D17" s="13">
         <v>-1</v>
@@ -12533,7 +13146,7 @@
     <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="25" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13">
@@ -12548,10 +13161,10 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C19" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -12565,10 +13178,10 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C20" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -12611,7 +13224,7 @@
         <v>95</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12656,35 +13269,35 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -12749,7 +13362,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -12758,7 +13371,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -12767,7 +13380,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -12776,7 +13389,7 @@
         <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -12785,7 +13398,7 @@
         <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -12794,7 +13407,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -12803,7 +13416,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -12812,7 +13425,7 @@
         <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -12821,7 +13434,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -12830,7 +13443,7 @@
         <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -12839,7 +13452,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -12848,7 +13461,7 @@
         <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D16" s="3"/>
     </row>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C35DCF6-EF6D-41EE-B192-5D1A9FECF734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722653D6-A4D2-4195-9326-597DCC5B243E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="375">
   <si>
     <t>##var</t>
   </si>
@@ -4354,14 +4354,22 @@
   </si>
   <si>
     <t>使用后抽牌数量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次一次使用风属性时速度提高20</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>规避弱点</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4414,6 +4422,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -4713,7 +4729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4843,6 +4859,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -5907,7 +5924,7 @@
       <c r="B20" s="36"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6027,7 +6044,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6036,8 +6053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AO70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R46" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView topLeftCell="L19" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10392,8 +10409,12 @@
       <c r="O41" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
+      <c r="P41" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>374</v>
+      </c>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
       <c r="T41" s="8" t="s">
@@ -12567,8 +12588,12 @@
       <c r="O62" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
+      <c r="P62" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="61" t="s">
+        <v>373</v>
+      </c>
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
       <c r="T62" s="8" t="s">
@@ -13372,7 +13397,7 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="V2:AA2"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -13380,10 +13405,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13811,8 +13836,25 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="61" t="s">
+        <v>373</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13918,7 +13960,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14082,7 +14124,7 @@
       <c r="D16" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722653D6-A4D2-4195-9326-597DCC5B243E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A3046A-68F8-4546-A3EA-654DCB96AF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="380">
   <si>
     <t>##var</t>
   </si>
@@ -4362,6 +4362,53 @@
   </si>
   <si>
     <t>规避弱点</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用喙啄时对方丢一张牌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>喙啄</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>技能造成的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变成优先级倍</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能造成的伤害变成优先级倍</t>
+  </si>
+  <si>
+    <t>迅雷</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -4369,7 +4416,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4454,6 +4501,47 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="16">
@@ -4729,7 +4817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4860,6 +4948,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -6053,8 +6148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AO70"/>
   <sheetViews>
-    <sheetView topLeftCell="L19" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView tabSelected="1" topLeftCell="L22" workbookViewId="0">
+      <selection activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11054,10 +11149,10 @@
         <v>0</v>
       </c>
       <c r="V47" s="8" t="s">
-        <v>174</v>
+        <v>379</v>
       </c>
       <c r="W47" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47" s="8" t="b">
         <v>0</v>
@@ -11312,7 +11407,7 @@
       <c r="AN49" s="11"/>
       <c r="AO49" s="33"/>
     </row>
-    <row r="50" spans="1:41" ht="15">
+    <row r="50" spans="1:41" ht="15.75" thickBot="1">
       <c r="A50" s="24"/>
       <c r="B50" s="18" t="s">
         <v>282</v>
@@ -11352,8 +11447,12 @@
       <c r="O50" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
+      <c r="P50" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="64" t="s">
+        <v>378</v>
+      </c>
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
       <c r="T50" s="8" t="s">
@@ -11415,7 +11514,7 @@
       <c r="AN50" s="11"/>
       <c r="AO50" s="33"/>
     </row>
-    <row r="51" spans="1:41" ht="15">
+    <row r="51" spans="1:41" ht="15.75" thickBot="1">
       <c r="A51" s="24"/>
       <c r="B51" s="18" t="s">
         <v>284</v>
@@ -11518,7 +11617,7 @@
       <c r="AN51" s="11"/>
       <c r="AO51" s="33"/>
     </row>
-    <row r="52" spans="1:41" ht="15">
+    <row r="52" spans="1:41" ht="15.75" thickBot="1">
       <c r="A52" s="24"/>
       <c r="B52" s="18" t="s">
         <v>286</v>
@@ -11558,8 +11657,12 @@
       <c r="O52" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
+      <c r="P52" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="61" t="s">
+        <v>375</v>
+      </c>
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
       <c r="T52" s="8" t="s">
@@ -11568,11 +11671,11 @@
       <c r="U52" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="V52" s="8" t="s">
-        <v>174</v>
+      <c r="V52" s="62" t="s">
+        <v>376</v>
       </c>
       <c r="W52" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" s="8" t="b">
         <v>0</v>
@@ -11621,7 +11724,7 @@
       <c r="AN52" s="11"/>
       <c r="AO52" s="33"/>
     </row>
-    <row r="53" spans="1:41" ht="15">
+    <row r="53" spans="1:41" ht="15.75" thickBot="1">
       <c r="A53" s="24"/>
       <c r="B53" s="18" t="s">
         <v>288</v>
@@ -13405,10 +13508,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13850,6 +13953,40 @@
         <v>1</v>
       </c>
       <c r="G22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="61" t="s">
+        <v>375</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="63" t="s">
+        <v>377</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A3046A-68F8-4546-A3EA-654DCB96AF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF4D478-D5D4-45CF-9B3A-432B9F5B8C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="382">
   <si>
     <t>##var</t>
   </si>
@@ -4410,6 +4410,13 @@
   <si>
     <t>迅雷</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对手弃牌时自己摸等量手牌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对手弃牌时自己摸等量手牌</t>
   </si>
 </sst>
 </file>
@@ -6148,8 +6155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AO70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L22" workbookViewId="0">
-      <selection activeCell="X47" sqref="X47"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12445,7 +12452,7 @@
       <c r="AN59" s="11"/>
       <c r="AO59" s="33"/>
     </row>
-    <row r="60" spans="1:41" ht="15">
+    <row r="60" spans="1:41" ht="15.75" thickBot="1">
       <c r="A60" s="24"/>
       <c r="B60" s="18" t="s">
         <v>302</v>
@@ -12548,7 +12555,7 @@
       <c r="AN60" s="11"/>
       <c r="AO60" s="33"/>
     </row>
-    <row r="61" spans="1:41" ht="15">
+    <row r="61" spans="1:41" ht="15.75" thickBot="1">
       <c r="A61" s="24"/>
       <c r="B61" s="18" t="s">
         <v>304</v>
@@ -12584,9 +12591,11 @@
       <c r="M61" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8" t="s">
-        <v>174</v>
+      <c r="N61" s="8">
+        <v>1</v>
+      </c>
+      <c r="O61" s="64" t="s">
+        <v>381</v>
       </c>
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
@@ -12651,7 +12660,7 @@
       <c r="AN61" s="11"/>
       <c r="AO61" s="33"/>
     </row>
-    <row r="62" spans="1:41" ht="15">
+    <row r="62" spans="1:41" ht="15.75" thickBot="1">
       <c r="A62" s="24"/>
       <c r="B62" s="18" t="s">
         <v>306</v>
@@ -13508,10 +13517,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13987,6 +13996,23 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="61" t="s">
+        <v>380</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97AD48A-6202-43EF-9B42-6879F89D8E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D06CA0-4E81-4788-A54E-90042508469B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="390">
   <si>
     <t>##var</t>
   </si>
@@ -4645,6 +4645,10 @@
       </rPr>
       <t>轰隆隆隆隆</t>
     </r>
+  </si>
+  <si>
+    <t>回合内消耗对手弃置的牌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6386,8 +6390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AO70"/>
   <sheetViews>
-    <sheetView topLeftCell="L28" workbookViewId="0">
-      <selection activeCell="Q59" sqref="Q59"/>
+    <sheetView topLeftCell="K28" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12410,9 +12414,11 @@
       <c r="M57" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="N57" s="44"/>
-      <c r="O57" s="44" t="s">
-        <v>161</v>
+      <c r="N57" s="44">
+        <v>1</v>
+      </c>
+      <c r="O57" s="42" t="s">
+        <v>389</v>
       </c>
       <c r="P57" s="44"/>
       <c r="Q57" s="44"/>
@@ -13752,10 +13758,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14259,6 +14265,29 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE94EC70-E459-4941-A106-BEB93CB42DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356340FE-77E6-4E4D-81DB-81F697179EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="401">
   <si>
     <t>##var</t>
   </si>
@@ -1695,18 +1695,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>本回合中，己方选手下一次使用技能卡后，回合不会结束，并且可以额外使用一张卡牌。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>偷吃</t>
     </r>
   </si>
@@ -2072,9 +2060,6 @@
   </si>
   <si>
     <t>remove_count_when_round_end</t>
-  </si>
-  <si>
-    <t>is_env_buff</t>
   </si>
   <si>
     <t>can_stack</t>
@@ -2113,20 +2098,6 @@
         <family val="1"/>
       </rPr>
       <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>是否是场地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman Regular"/>
-        <family val="1"/>
-      </rPr>
-      <t>buff</t>
     </r>
   </si>
   <si>
@@ -4499,18 +4470,6 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用该选手的速度代替攻击力进行伤害计算</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
@@ -4692,6 +4651,28 @@
   </si>
   <si>
     <t>自己受到伤害时攻击方也会受到等量伤害</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束后额外获得一个回合</t>
+  </si>
+  <si>
+    <t>回合结束后额外获得一个回合</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_trainer_buff</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>用速度代替攻击力进行伤害计算</t>
+  </si>
+  <si>
+    <t>用速度代替攻击力进行伤害计算</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -5119,7 +5100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5263,6 +5244,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -6456,8 +6441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AO70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P28" workbookViewId="0">
-      <selection activeCell="S51" sqref="S51"/>
+    <sheetView topLeftCell="F37" workbookViewId="0">
+      <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6830,7 +6815,7 @@
         <v>137</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F5" s="48" t="s">
         <v>138</v>
@@ -6839,34 +6824,34 @@
         <v>139</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L5" s="46" t="s">
         <v>140</v>
       </c>
       <c r="M5" s="46" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N5" s="46" t="s">
         <v>140</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P5" s="46" t="s">
         <v>140</v>
       </c>
       <c r="Q5" s="46" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="R5" s="46" t="s">
         <v>141</v>
@@ -6881,28 +6866,28 @@
         <v>144</v>
       </c>
       <c r="V5" s="46" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="W5" s="46" t="s">
         <v>140</v>
       </c>
       <c r="X5" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y5" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z5" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA5" s="46" t="s">
         <v>328</v>
-      </c>
-      <c r="Y5" s="46" t="s">
-        <v>329</v>
-      </c>
-      <c r="Z5" s="46" t="s">
-        <v>330</v>
-      </c>
-      <c r="AA5" s="46" t="s">
-        <v>331</v>
       </c>
       <c r="AB5" s="46" t="s">
         <v>145</v>
       </c>
       <c r="AC5" s="46" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AD5" s="46" t="s">
         <v>146</v>
@@ -6929,7 +6914,7 @@
         <v>153</v>
       </c>
       <c r="AL5" s="46" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AM5" s="46" t="s">
         <v>154</v>
@@ -7063,7 +7048,7 @@
         <v>158</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E7" s="46" t="s">
         <v>160</v>
@@ -7176,7 +7161,7 @@
         <v>158</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E8" s="46" t="s">
         <v>160</v>
@@ -7289,7 +7274,7 @@
         <v>158</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>160</v>
@@ -7515,7 +7500,7 @@
         <v>167</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E11" s="46" t="s">
         <v>160</v>
@@ -7741,7 +7726,7 @@
         <v>167</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E13" s="46" t="s">
         <v>160</v>
@@ -7854,7 +7839,7 @@
         <v>174</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E14" s="46" t="s">
         <v>175</v>
@@ -8076,7 +8061,7 @@
         <v>174</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E16" s="46" t="s">
         <v>160</v>
@@ -8187,7 +8172,7 @@
         <v>174</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>160</v>
@@ -8524,7 +8509,7 @@
         <v>181</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E20" s="46" t="s">
         <v>160</v>
@@ -8633,7 +8618,7 @@
         <v>181</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E21" s="46" t="s">
         <v>160</v>
@@ -8742,7 +8727,7 @@
         <v>181</v>
       </c>
       <c r="D22" s="58" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>160</v>
@@ -8853,7 +8838,7 @@
         <v>181</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E23" s="46" t="s">
         <v>160</v>
@@ -8962,7 +8947,7 @@
         <v>192</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E24" s="46" t="s">
         <v>160</v>
@@ -9176,7 +9161,7 @@
         <v>192</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E26" s="46" t="s">
         <v>175</v>
@@ -9289,7 +9274,7 @@
         <v>192</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>160</v>
@@ -9503,7 +9488,7 @@
         <v>200</v>
       </c>
       <c r="D29" s="58" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E29" s="46" t="s">
         <v>160</v>
@@ -9717,7 +9702,7 @@
         <v>183</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>175</v>
@@ -9826,7 +9811,7 @@
         <v>183</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E32" s="46" t="s">
         <v>160</v>
@@ -9933,7 +9918,7 @@
         <v>183</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E33" s="46" t="s">
         <v>160</v>
@@ -10042,7 +10027,7 @@
         <v>161</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E34" s="46" t="s">
         <v>210</v>
@@ -10149,7 +10134,7 @@
         <v>161</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E35" s="46" t="s">
         <v>210</v>
@@ -10256,7 +10241,7 @@
         <v>161</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E36" s="46" t="s">
         <v>210</v>
@@ -10363,7 +10348,7 @@
         <v>161</v>
       </c>
       <c r="D37" s="58" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E37" s="46" t="s">
         <v>210</v>
@@ -10781,7 +10766,7 @@
         <v>161</v>
       </c>
       <c r="D41" s="58" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E41" s="46" t="s">
         <v>210</v>
@@ -10816,7 +10801,7 @@
         <v>1</v>
       </c>
       <c r="Q41" s="46" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="R41" s="46"/>
       <c r="S41" s="46"/>
@@ -10888,7 +10873,7 @@
         <v>161</v>
       </c>
       <c r="D42" s="58" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E42" s="46" t="s">
         <v>210</v>
@@ -10995,7 +10980,7 @@
         <v>161</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E43" s="46" t="s">
         <v>210</v>
@@ -11030,7 +11015,7 @@
         <v>1</v>
       </c>
       <c r="Q43" s="46" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="R43" s="46"/>
       <c r="S43" s="46"/>
@@ -11041,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="46" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="W43" s="46">
         <v>1</v>
@@ -11209,7 +11194,7 @@
         <v>161</v>
       </c>
       <c r="D45" s="58" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E45" s="46" t="s">
         <v>210</v>
@@ -11224,13 +11209,13 @@
         <v>1</v>
       </c>
       <c r="I45" s="46" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J45" s="46">
         <v>1</v>
       </c>
       <c r="K45" s="61" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L45" s="46"/>
       <c r="M45" s="46" t="s">
@@ -11312,7 +11297,7 @@
         <v>161</v>
       </c>
       <c r="D46" s="58" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E46" s="46" t="s">
         <v>210</v>
@@ -11415,7 +11400,7 @@
         <v>161</v>
       </c>
       <c r="D47" s="58" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E47" s="46" t="s">
         <v>210</v>
@@ -11457,7 +11442,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="46" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="W47" s="46">
         <v>1</v>
@@ -11469,7 +11454,7 @@
         <v>5</v>
       </c>
       <c r="Z47" s="46" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AA47" s="46">
         <v>1</v>
@@ -11518,7 +11503,7 @@
         <v>161</v>
       </c>
       <c r="D48" s="58" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E48" s="46" t="s">
         <v>210</v>
@@ -11621,7 +11606,7 @@
         <v>161</v>
       </c>
       <c r="D49" s="58" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E49" s="46" t="s">
         <v>210</v>
@@ -11724,7 +11709,7 @@
         <v>161</v>
       </c>
       <c r="D50" s="58" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E50" s="46" t="s">
         <v>210</v>
@@ -11759,7 +11744,7 @@
         <v>1</v>
       </c>
       <c r="Q50" s="46" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="R50" s="46"/>
       <c r="S50" s="46"/>
@@ -11830,8 +11815,8 @@
       <c r="C51" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="D51" s="58" t="s">
-        <v>238</v>
+      <c r="D51" s="69" t="s">
+        <v>396</v>
       </c>
       <c r="E51" s="46" t="s">
         <v>210</v>
@@ -11858,9 +11843,11 @@
       <c r="M51" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="N51" s="46"/>
-      <c r="O51" s="46" t="s">
-        <v>161</v>
+      <c r="N51" s="46">
+        <v>1</v>
+      </c>
+      <c r="O51" s="69" t="s">
+        <v>396</v>
       </c>
       <c r="P51" s="46"/>
       <c r="Q51" s="46"/>
@@ -11928,13 +11915,13 @@
     <row r="52" spans="1:41" ht="15.75" thickBot="1">
       <c r="A52" s="63"/>
       <c r="B52" s="56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C52" s="57" t="s">
         <v>161</v>
       </c>
       <c r="D52" s="58" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E52" s="46" t="s">
         <v>210</v>
@@ -11969,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="61" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="R52" s="46"/>
       <c r="S52" s="46"/>
@@ -11980,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="54" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="W52" s="46">
         <v>1</v>
@@ -12035,13 +12022,13 @@
     <row r="53" spans="1:41" ht="15.75" thickBot="1">
       <c r="A53" s="63"/>
       <c r="B53" s="56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C53" s="57" t="s">
         <v>161</v>
       </c>
       <c r="D53" s="58" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E53" s="46" t="s">
         <v>210</v>
@@ -12138,13 +12125,13 @@
     <row r="54" spans="1:41" ht="15.75" thickBot="1">
       <c r="A54" s="63"/>
       <c r="B54" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="58" t="s">
         <v>241</v>
-      </c>
-      <c r="C54" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" s="58" t="s">
-        <v>242</v>
       </c>
       <c r="E54" s="46" t="s">
         <v>210</v>
@@ -12179,7 +12166,7 @@
         <v>1</v>
       </c>
       <c r="Q54" s="45" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R54" s="46"/>
       <c r="S54" s="46"/>
@@ -12245,13 +12232,13 @@
     <row r="55" spans="1:41" ht="15.75" thickBot="1">
       <c r="A55" s="63"/>
       <c r="B55" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C55" s="57" t="s">
         <v>161</v>
       </c>
       <c r="D55" s="58" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E55" s="46" t="s">
         <v>210</v>
@@ -12348,13 +12335,13 @@
     <row r="56" spans="1:41" ht="15.75" thickBot="1">
       <c r="A56" s="63"/>
       <c r="B56" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C56" s="57" t="s">
         <v>161</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E56" s="46" t="s">
         <v>210</v>
@@ -12389,7 +12376,7 @@
         <v>1</v>
       </c>
       <c r="Q56" s="45" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="R56" s="46"/>
       <c r="S56" s="46"/>
@@ -12455,13 +12442,13 @@
     <row r="57" spans="1:41" ht="15.75" thickBot="1">
       <c r="A57" s="63"/>
       <c r="B57" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="C57" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="58" t="s">
         <v>245</v>
-      </c>
-      <c r="C57" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="D57" s="58" t="s">
-        <v>246</v>
       </c>
       <c r="E57" s="46" t="s">
         <v>210</v>
@@ -12492,7 +12479,7 @@
         <v>1</v>
       </c>
       <c r="O57" s="42" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P57" s="46"/>
       <c r="Q57" s="46"/>
@@ -12560,13 +12547,13 @@
     <row r="58" spans="1:41" ht="15.75" thickBot="1">
       <c r="A58" s="63"/>
       <c r="B58" s="56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C58" s="57" t="s">
         <v>161</v>
       </c>
       <c r="D58" s="58" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E58" s="46" t="s">
         <v>210</v>
@@ -12601,7 +12588,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="68" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="R58" s="46"/>
       <c r="S58" s="46"/>
@@ -12612,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="68" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="W58" s="46">
         <v>1</v>
@@ -12667,13 +12654,13 @@
     <row r="59" spans="1:41" ht="15.75" thickBot="1">
       <c r="A59" s="46"/>
       <c r="B59" s="56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C59" s="57" t="s">
         <v>161</v>
       </c>
       <c r="D59" s="58" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E59" s="46" t="s">
         <v>210</v>
@@ -12707,8 +12694,8 @@
       <c r="P59" s="46">
         <v>1</v>
       </c>
-      <c r="Q59" s="46" t="s">
-        <v>381</v>
+      <c r="Q59" s="45" t="s">
+        <v>398</v>
       </c>
       <c r="R59" s="46"/>
       <c r="S59" s="46"/>
@@ -12719,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="V59" s="54" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="W59" s="46">
         <v>1</v>
@@ -12774,13 +12761,13 @@
     <row r="60" spans="1:41" ht="15.75" thickBot="1">
       <c r="A60" s="46"/>
       <c r="B60" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C60" s="57" t="s">
         <v>161</v>
       </c>
       <c r="D60" s="58" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E60" s="46" t="s">
         <v>210</v>
@@ -12815,7 +12802,7 @@
         <v>1</v>
       </c>
       <c r="Q60" s="45" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="R60" s="46"/>
       <c r="S60" s="46"/>
@@ -12881,13 +12868,13 @@
     <row r="61" spans="1:41" ht="15.75" thickBot="1">
       <c r="A61" s="46"/>
       <c r="B61" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C61" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="58" t="s">
         <v>250</v>
-      </c>
-      <c r="C61" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="D61" s="58" t="s">
-        <v>251</v>
       </c>
       <c r="E61" s="46" t="s">
         <v>210</v>
@@ -12918,7 +12905,7 @@
         <v>1</v>
       </c>
       <c r="O61" s="46" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P61" s="46"/>
       <c r="Q61" s="46"/>
@@ -12986,13 +12973,13 @@
     <row r="62" spans="1:41" ht="15.75" thickBot="1">
       <c r="A62" s="46"/>
       <c r="B62" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C62" s="57" t="s">
         <v>161</v>
       </c>
       <c r="D62" s="58" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E62" s="46" t="s">
         <v>210</v>
@@ -13027,7 +13014,7 @@
         <v>1</v>
       </c>
       <c r="Q62" s="61" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="R62" s="46"/>
       <c r="S62" s="46"/>
@@ -13038,7 +13025,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="43" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="W62" s="46">
         <v>1</v>
@@ -13093,13 +13080,13 @@
     <row r="63" spans="1:41" ht="15">
       <c r="A63" s="46"/>
       <c r="B63" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="C63" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="58" t="s">
         <v>253</v>
-      </c>
-      <c r="C63" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="D63" s="58" t="s">
-        <v>254</v>
       </c>
       <c r="E63" s="46" t="s">
         <v>210</v>
@@ -13196,13 +13183,13 @@
     <row r="64" spans="1:41" ht="15">
       <c r="A64" s="46"/>
       <c r="B64" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="C64" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="58" t="s">
         <v>255</v>
-      </c>
-      <c r="C64" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="D64" s="58" t="s">
-        <v>256</v>
       </c>
       <c r="E64" s="46" t="s">
         <v>210</v>
@@ -13299,13 +13286,13 @@
     <row r="65" spans="1:41" ht="15">
       <c r="A65" s="46"/>
       <c r="B65" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="58" t="s">
         <v>257</v>
-      </c>
-      <c r="C65" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="D65" s="58" t="s">
-        <v>258</v>
       </c>
       <c r="E65" s="46" t="s">
         <v>210</v>
@@ -13341,7 +13328,7 @@
       <c r="R65" s="46"/>
       <c r="S65" s="46"/>
       <c r="T65" s="46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U65" s="46" t="b">
         <v>0</v>
@@ -13402,13 +13389,13 @@
     <row r="66" spans="1:41" ht="15">
       <c r="A66" s="46"/>
       <c r="B66" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C66" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="58" t="s">
         <v>260</v>
-      </c>
-      <c r="C66" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="D66" s="58" t="s">
-        <v>261</v>
       </c>
       <c r="E66" s="46" t="s">
         <v>210</v>
@@ -13444,7 +13431,7 @@
       <c r="R66" s="46"/>
       <c r="S66" s="46"/>
       <c r="T66" s="46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U66" s="46" t="b">
         <v>0</v>
@@ -13505,13 +13492,13 @@
     <row r="67" spans="1:41" ht="15">
       <c r="A67" s="46"/>
       <c r="B67" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" s="58" t="s">
         <v>263</v>
-      </c>
-      <c r="C67" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="D67" s="58" t="s">
-        <v>264</v>
       </c>
       <c r="E67" s="46" t="s">
         <v>210</v>
@@ -13547,7 +13534,7 @@
       <c r="R67" s="46"/>
       <c r="S67" s="46"/>
       <c r="T67" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U67" s="46" t="b">
         <v>0</v>
@@ -13608,13 +13595,13 @@
     <row r="68" spans="1:41" ht="15">
       <c r="A68" s="46"/>
       <c r="B68" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="58" t="s">
         <v>266</v>
-      </c>
-      <c r="C68" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="D68" s="58" t="s">
-        <v>267</v>
       </c>
       <c r="E68" s="46" t="s">
         <v>210</v>
@@ -13711,13 +13698,13 @@
     <row r="69" spans="1:41" ht="15">
       <c r="A69" s="46"/>
       <c r="B69" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="C69" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="58" t="s">
         <v>268</v>
-      </c>
-      <c r="C69" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" s="58" t="s">
-        <v>269</v>
       </c>
       <c r="E69" s="46" t="s">
         <v>210</v>
@@ -13840,10 +13827,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13851,8 +13838,7 @@
     <col min="2" max="2" width="31.125" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
     <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
@@ -13866,16 +13852,16 @@
         <v>95</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" t="s">
-        <v>273</v>
+      <c r="G1" s="10" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15">
@@ -13886,7 +13872,6 @@
       <c r="C2" s="8"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="15">
       <c r="A3" s="8" t="s">
@@ -13904,11 +13889,11 @@
       <c r="E3" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" t="s">
         <v>133</v>
       </c>
-      <c r="G3" t="s">
-        <v>133</v>
+      <c r="G3" s="10" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15">
@@ -13919,7 +13904,6 @@
       <c r="C4" s="8"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="15">
       <c r="A5" s="8" t="s">
@@ -13930,25 +13914,22 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>391</v>
+        <v>273</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15">
       <c r="A6" s="8"/>
       <c r="B6" s="14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D6" s="11">
         <v>-1</v>
@@ -13956,10 +13937,10 @@
       <c r="E6" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13969,7 +13950,7 @@
         <v>74</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D7" s="11">
         <v>0</v>
@@ -13977,20 +13958,20 @@
       <c r="E7" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="70" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15">
       <c r="A8" s="11"/>
       <c r="B8" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
@@ -13998,10 +13979,10 @@
       <c r="E8" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="F8" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="b">
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14011,7 +13992,7 @@
         <v>57</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D9" s="11">
         <v>1</v>
@@ -14019,20 +14000,20 @@
       <c r="E9" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="11" t="b">
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="70" t="b">
         <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15">
       <c r="A10" s="11"/>
       <c r="B10" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D10" s="11">
         <v>1</v>
@@ -14040,20 +14021,20 @@
       <c r="E10" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="11" t="b">
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="70" t="b">
         <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
       <c r="A11" s="11"/>
       <c r="B11" s="14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -14061,20 +14042,20 @@
       <c r="E11" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="F11" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" t="b">
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="70" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
       <c r="A12" s="11"/>
       <c r="B12" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D12" s="11">
         <v>0</v>
@@ -14082,20 +14063,20 @@
       <c r="E12" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="F12" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="70" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15">
       <c r="A13" s="11"/>
       <c r="B13" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D13" s="11">
         <v>-1</v>
@@ -14103,20 +14084,20 @@
       <c r="E13" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="F13" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" t="b">
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="70" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15">
       <c r="A14" s="11"/>
       <c r="B14" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -14124,20 +14105,20 @@
       <c r="E14" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="F14" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="b">
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="70" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15">
       <c r="A15" s="11"/>
       <c r="B15" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D15" s="11">
         <v>0</v>
@@ -14145,10 +14126,10 @@
       <c r="E15" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="F15" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" t="b">
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14162,22 +14143,22 @@
         <v>-1</v>
       </c>
       <c r="E16" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="70" t="b">
         <v>1</v>
-      </c>
-      <c r="F16" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15">
       <c r="A17" s="11"/>
       <c r="B17" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D17" s="11">
         <v>-1</v>
@@ -14185,17 +14166,17 @@
       <c r="E17" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="F17" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" t="b">
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="70" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15">
       <c r="A18" s="11"/>
       <c r="B18" s="19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
@@ -14204,14 +14185,14 @@
       <c r="E18" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="F18" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15">
       <c r="B19" t="s">
         <v>225</v>
       </c>
@@ -14227,7 +14208,7 @@
       <c r="F19" t="b">
         <v>0</v>
       </c>
-      <c r="G19" t="b">
+      <c r="G19" s="70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14247,11 +14228,11 @@
       <c r="F20" t="b">
         <v>0</v>
       </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15">
       <c r="B21" s="3" t="s">
         <v>230</v>
       </c>
@@ -14262,35 +14243,35 @@
         <v>-1</v>
       </c>
       <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
         <v>1</v>
       </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15">
       <c r="B22" s="42" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D22">
         <v>-1</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15">
       <c r="B23" s="42" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -14301,13 +14282,13 @@
       <c r="F23" t="b">
         <v>0</v>
       </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15">
       <c r="B24" s="44" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -14318,13 +14299,13 @@
       <c r="F24" t="b">
         <v>0</v>
       </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15">
       <c r="B25" s="42" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D25">
         <v>-1</v>
@@ -14335,13 +14316,13 @@
       <c r="F25" t="b">
         <v>0</v>
       </c>
-      <c r="G25" t="b">
-        <v>0</v>
+      <c r="G25" s="70" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15">
-      <c r="B26" s="46" t="s">
-        <v>381</v>
+      <c r="B26" s="45" t="s">
+        <v>399</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -14352,13 +14333,13 @@
       <c r="F26" t="b">
         <v>0</v>
       </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15">
       <c r="B27" s="42" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D27">
         <v>-1</v>
@@ -14369,13 +14350,13 @@
       <c r="F27" t="b">
         <v>0</v>
       </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15">
       <c r="B28" s="66" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -14386,13 +14367,13 @@
       <c r="F28" t="b">
         <v>0</v>
       </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15">
       <c r="B29" s="67" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -14403,42 +14384,59 @@
       <c r="F29" t="b">
         <v>0</v>
       </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15">
       <c r="B30" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15">
+      <c r="B31" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15">
+      <c r="B32" t="s">
         <v>395</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="B31" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
+      <c r="D32">
+        <v>-1</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="70" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -14471,7 +14469,7 @@
         <v>95</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -14516,35 +14514,35 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -14608,7 +14606,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -14617,7 +14615,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -14626,7 +14624,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -14635,7 +14633,7 @@
         <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -14644,7 +14642,7 @@
         <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -14653,7 +14651,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -14662,7 +14660,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -14671,7 +14669,7 @@
         <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -14680,7 +14678,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -14689,7 +14687,7 @@
         <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -14698,7 +14696,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -14707,7 +14705,7 @@
         <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D16" s="3"/>
     </row>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356340FE-77E6-4E4D-81DB-81F697179EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9BD90F-E074-41E8-B020-A1C90E050195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="409">
   <si>
     <t>##var</t>
   </si>
@@ -4217,7 +4217,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>给对方手牌中的三张牌</t>
+      <t>从牌组中抽取一张</t>
     </r>
     <r>
       <rPr>
@@ -4236,7 +4236,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>下毒</t>
+      <t>吞吐</t>
     </r>
     <r>
       <rPr>
@@ -4255,7 +4255,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>。对方使用或弃置被下毒的牌时，敌方选手受到</t>
+      <t>。己方选手下一次使用技能的追加效果几率改为</t>
     </r>
     <r>
       <rPr>
@@ -4264,17 +4264,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点伤害，此伤害无视防御力和适应力。</t>
+      <t>100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
     </r>
   </si>
   <si>
@@ -4305,7 +4305,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>吞吐</t>
+      <t>吐火</t>
     </r>
     <r>
       <rPr>
@@ -4324,7 +4324,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>。己方选手下一次使用技能的追加效果几率改为</t>
+      <t>。己方选手下一次使用技能效果不好时，将伤害倍率改为</t>
     </r>
     <r>
       <rPr>
@@ -4333,7 +4333,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>100%</t>
+      <t>1.5</t>
     </r>
     <r>
       <rPr>
@@ -4374,7 +4374,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>吐火</t>
+      <t>轰隆隆隆隆</t>
     </r>
     <r>
       <rPr>
@@ -4393,7 +4393,19 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>。己方选手下一次使用技能效果不好时，将伤害倍率改为</t>
+      <t>。己方选手下一次使用技能时，用该选手的速度代替攻击力进行伤害计算。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从牌组中抽取一张</t>
     </r>
     <r>
       <rPr>
@@ -4402,29 +4414,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>1.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从牌组中抽取一张</t>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咚咚锵</t>
     </r>
     <r>
       <rPr>
@@ -4433,17 +4433,41 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轰隆隆隆隆</t>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。己方选手下一次使用技能时，必定会造成最多次伤害。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对手弃牌时自己摸等量手牌</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本回合中，己方选手下一次使用风属性技能时，该选手的速度提高</t>
     </r>
     <r>
       <rPr>
@@ -4452,29 +4476,29 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。己方选手下一次使用技能时，用该选手的速度代替攻击力进行伤害计算。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从牌组中抽取一张</t>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下次一次使用风属性时速度提高</t>
     </r>
     <r>
       <rPr>
@@ -4483,17 +4507,65 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>咚咚锵</t>
+      <t>20</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>喙啄</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>轰隆隆隆隆</t>
+    </r>
+  </si>
+  <si>
+    <t>回合内消耗对手弃置的牌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续技能必定打最多次</t>
+  </si>
+  <si>
+    <t>连续技能必定打最多次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>不保存，添加时就执行，不会记录</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>咚咚锵</t>
+  </si>
+  <si>
+    <t>技能效果不好时变成一点五倍</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐火</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一次技能让对方弃牌概率变成1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>下一次技能让对方弃牌概率变成</t>
     </r>
     <r>
       <rPr>
@@ -4502,177 +4574,139 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。己方选手下一次使用技能时，必定会造成最多次伤害。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>自己受到伤害时攻击方也会受到等量伤害</t>
+  </si>
+  <si>
+    <t>自己受到伤害时攻击方也会受到等量伤害</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束后额外获得一个回合</t>
+  </si>
+  <si>
+    <t>回合结束后额外获得一个回合</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_trainer_buff</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>用速度代替攻击力进行伤害计算</t>
+  </si>
+  <si>
+    <t>用速度代替攻击力进行伤害计算</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是给训练家的BUFF么</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对手弃牌时自己摸等量手牌</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本回合中，己方选手下一次使用风属性技能时，该选手的速度提高</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下次一次使用风属性时速度提高</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出牌时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>喙啄</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>概率受到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>轰隆隆隆隆</t>
-    </r>
-  </si>
-  <si>
-    <t>回合内消耗对手弃置的牌</t>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>伤害</t>
+    </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>连续技能必定打最多次</t>
-  </si>
-  <si>
-    <t>连续技能必定打最多次</t>
+    <t>本回合中，对方使用牌时，敌方选手有40%的概率受到50点伤害，此伤害无视防御力和适应力。</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>不保存，添加时就执行，不会记录</t>
+    <t>出牌时有40概率受到50点伤害</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>咚咚锵</t>
-  </si>
-  <si>
-    <t>技能效果不好时变成一点五倍</t>
+    <t>trigger_rate</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>吐火</t>
+    <t>float</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>下一次技能让对方弃牌概率变成1</t>
+    <t>触发概率</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>下一次技能让对方弃牌概率变成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>自己受到伤害时攻击方也会受到等量伤害</t>
-  </si>
-  <si>
-    <t>自己受到伤害时攻击方也会受到等量伤害</t>
+    <t>int</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>回合结束后额外获得一个回合</t>
-  </si>
-  <si>
-    <t>回合结束后额外获得一个回合</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_trainer_buff</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>用速度代替攻击力进行伤害计算</t>
-  </si>
-  <si>
-    <t>用速度代替攻击力进行伤害计算</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
+    <t>damage_for_current_pokemon</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -4680,7 +4714,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4824,6 +4858,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -5100,7 +5141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5248,6 +5289,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -6441,8 +6491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AO70"/>
   <sheetViews>
-    <sheetView topLeftCell="F37" workbookViewId="0">
-      <selection activeCell="Q54" sqref="Q54"/>
+    <sheetView topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11816,7 +11866,7 @@
         <v>161</v>
       </c>
       <c r="D51" s="69" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E51" s="46" t="s">
         <v>210</v>
@@ -11847,7 +11897,7 @@
         <v>1</v>
       </c>
       <c r="O51" s="69" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P51" s="46"/>
       <c r="Q51" s="46"/>
@@ -11967,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="54" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W52" s="46">
         <v>1</v>
@@ -12166,7 +12216,7 @@
         <v>1</v>
       </c>
       <c r="Q54" s="45" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R54" s="46"/>
       <c r="S54" s="46"/>
@@ -12237,8 +12287,8 @@
       <c r="C55" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="D55" s="58" t="s">
-        <v>374</v>
+      <c r="D55" s="72" t="s">
+        <v>402</v>
       </c>
       <c r="E55" s="46" t="s">
         <v>210</v>
@@ -12261,9 +12311,11 @@
       <c r="K55" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46" t="s">
-        <v>161</v>
+      <c r="L55" s="46">
+        <v>1</v>
+      </c>
+      <c r="M55" s="45" t="s">
+        <v>403</v>
       </c>
       <c r="N55" s="46"/>
       <c r="O55" s="46" t="s">
@@ -12341,7 +12393,7 @@
         <v>161</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E56" s="46" t="s">
         <v>210</v>
@@ -12376,7 +12428,7 @@
         <v>1</v>
       </c>
       <c r="Q56" s="45" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R56" s="46"/>
       <c r="S56" s="46"/>
@@ -12479,7 +12531,7 @@
         <v>1</v>
       </c>
       <c r="O57" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P57" s="46"/>
       <c r="Q57" s="46"/>
@@ -12553,7 +12605,7 @@
         <v>161</v>
       </c>
       <c r="D58" s="58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E58" s="46" t="s">
         <v>210</v>
@@ -12588,7 +12640,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="68" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R58" s="46"/>
       <c r="S58" s="46"/>
@@ -12599,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="W58" s="46">
         <v>1</v>
@@ -12660,7 +12712,7 @@
         <v>161</v>
       </c>
       <c r="D59" s="58" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E59" s="46" t="s">
         <v>210</v>
@@ -12695,7 +12747,7 @@
         <v>1</v>
       </c>
       <c r="Q59" s="45" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R59" s="46"/>
       <c r="S59" s="46"/>
@@ -12706,7 +12758,7 @@
         <v>0</v>
       </c>
       <c r="V59" s="54" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="W59" s="46">
         <v>1</v>
@@ -12767,7 +12819,7 @@
         <v>161</v>
       </c>
       <c r="D60" s="58" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E60" s="46" t="s">
         <v>210</v>
@@ -12802,7 +12854,7 @@
         <v>1</v>
       </c>
       <c r="Q60" s="45" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="R60" s="46"/>
       <c r="S60" s="46"/>
@@ -12905,7 +12957,7 @@
         <v>1</v>
       </c>
       <c r="O61" s="46" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P61" s="46"/>
       <c r="Q61" s="46"/>
@@ -12979,7 +13031,7 @@
         <v>161</v>
       </c>
       <c r="D62" s="58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E62" s="46" t="s">
         <v>210</v>
@@ -13014,7 +13066,7 @@
         <v>1</v>
       </c>
       <c r="Q62" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R62" s="46"/>
       <c r="S62" s="46"/>
@@ -13025,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="43" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W62" s="46">
         <v>1</v>
@@ -13592,7 +13644,7 @@
       <c r="AN67" s="61"/>
       <c r="AO67" s="53"/>
     </row>
-    <row r="68" spans="1:41" ht="15">
+    <row r="68" spans="1:41" ht="15.75" thickBot="1">
       <c r="A68" s="46"/>
       <c r="B68" s="56" t="s">
         <v>265</v>
@@ -13695,7 +13747,7 @@
       <c r="AN68" s="61"/>
       <c r="AO68" s="53"/>
     </row>
-    <row r="69" spans="1:41" ht="15">
+    <row r="69" spans="1:41" ht="15.75" thickBot="1">
       <c r="A69" s="46"/>
       <c r="B69" s="56" t="s">
         <v>267</v>
@@ -13709,7 +13761,7 @@
       <c r="E69" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="F69" s="48">
+      <c r="F69" s="71">
         <v>0</v>
       </c>
       <c r="G69" s="46">
@@ -13827,10 +13879,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13841,7 +13893,7 @@
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -13861,10 +13913,16 @@
         <v>271</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15">
+        <v>396</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -13873,7 +13931,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -13893,10 +13951,16 @@
         <v>133</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15">
+        <v>399</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
@@ -13905,7 +13969,7 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -13920,10 +13984,16 @@
         <v>273</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15">
+        <v>386</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="8"/>
       <c r="B6" s="14" t="s">
         <v>274</v>
@@ -13943,8 +14013,14 @@
       <c r="G6" s="70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="11"/>
       <c r="B7" s="14" t="s">
         <v>74</v>
@@ -13964,8 +14040,14 @@
       <c r="G7" s="70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="11"/>
       <c r="B8" s="14" t="s">
         <v>277</v>
@@ -13985,8 +14067,14 @@
       <c r="G8" s="70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="11"/>
       <c r="B9" s="14" t="s">
         <v>57</v>
@@ -14006,8 +14094,14 @@
       <c r="G9" s="70" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="11"/>
       <c r="B10" s="14" t="s">
         <v>280</v>
@@ -14027,8 +14121,14 @@
       <c r="G10" s="70" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="11"/>
       <c r="B11" s="14" t="s">
         <v>282</v>
@@ -14048,8 +14148,14 @@
       <c r="G11" s="70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="11"/>
       <c r="B12" s="14" t="s">
         <v>284</v>
@@ -14069,8 +14175,14 @@
       <c r="G12" s="70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="11"/>
       <c r="B13" s="14" t="s">
         <v>286</v>
@@ -14090,8 +14202,14 @@
       <c r="G13" s="70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="11"/>
       <c r="B14" s="14" t="s">
         <v>288</v>
@@ -14111,8 +14229,14 @@
       <c r="G14" s="70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="11"/>
       <c r="B15" s="14" t="s">
         <v>290</v>
@@ -14132,8 +14256,14 @@
       <c r="G15" s="70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="11"/>
       <c r="B16" s="18" t="s">
         <v>223</v>
@@ -14151,8 +14281,14 @@
       <c r="G16" s="70" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="11"/>
       <c r="B17" s="16" t="s">
         <v>292</v>
@@ -14172,8 +14308,14 @@
       <c r="G17" s="70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="11"/>
       <c r="B18" s="19" t="s">
         <v>294</v>
@@ -14191,8 +14333,14 @@
       <c r="G18" s="70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
       <c r="B19" t="s">
         <v>225</v>
       </c>
@@ -14211,8 +14359,14 @@
       <c r="G19" s="70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
         <v>231</v>
       </c>
@@ -14231,8 +14385,14 @@
       <c r="G20" s="42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15">
       <c r="B21" s="3" t="s">
         <v>230</v>
       </c>
@@ -14251,8 +14411,14 @@
       <c r="G21" s="70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15">
       <c r="B22" s="42" t="s">
         <v>313</v>
       </c>
@@ -14268,8 +14434,14 @@
       <c r="G22" s="70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15">
       <c r="B23" s="42" t="s">
         <v>314</v>
       </c>
@@ -14285,8 +14457,14 @@
       <c r="G23" s="70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15">
       <c r="B24" s="44" t="s">
         <v>315</v>
       </c>
@@ -14302,8 +14480,14 @@
       <c r="G24" s="70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15">
       <c r="B25" s="42" t="s">
         <v>316</v>
       </c>
@@ -14319,10 +14503,16 @@
       <c r="G25" s="70" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15">
       <c r="B26" s="45" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -14336,10 +14526,16 @@
       <c r="G26" s="70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15">
       <c r="B27" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D27">
         <v>-1</v>
@@ -14353,10 +14549,16 @@
       <c r="G27" s="70" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15">
       <c r="B28" s="66" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -14370,10 +14572,16 @@
       <c r="G28" s="70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15">
       <c r="B29" s="67" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -14387,10 +14595,16 @@
       <c r="G29" s="70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15">
       <c r="B30" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -14404,10 +14618,16 @@
       <c r="G30" s="70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15">
       <c r="B31" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -14421,10 +14641,16 @@
       <c r="G31" s="70" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15">
       <c r="B32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D32">
         <v>-1</v>
@@ -14437,6 +14663,35 @@
       </c>
       <c r="G32" s="70" t="b">
         <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15">
+      <c r="B33" s="73" t="s">
+        <v>401</v>
+      </c>
+      <c r="D33">
+        <v>-1</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0.4</v>
+      </c>
+      <c r="I33">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9BD90F-E074-41E8-B020-A1C90E050195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE3623D-B394-418B-A955-0DDB689C3461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="412">
   <si>
     <t>##var</t>
   </si>
@@ -4707,6 +4707,18 @@
   </si>
   <si>
     <t>damage_for_current_pokemon</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_discard_count</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用方弃牌数量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有手牌时当前宝可梦生命值归0</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -6489,10 +6501,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AO70"/>
+  <dimension ref="A1:AP70"/>
   <sheetViews>
-    <sheetView topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView topLeftCell="H22" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6532,14 +6544,14 @@
     <col min="34" max="34" width="14.375" customWidth="1"/>
     <col min="35" max="35" width="13.25" customWidth="1"/>
     <col min="36" max="36" width="17.875" customWidth="1"/>
-    <col min="37" max="37" width="19.5" customWidth="1"/>
-    <col min="38" max="38" width="18.875" customWidth="1"/>
-    <col min="39" max="39" width="12.75" customWidth="1"/>
-    <col min="40" max="40" width="16.25" customWidth="1"/>
-    <col min="41" max="41" width="15.75" style="20" customWidth="1"/>
+    <col min="37" max="38" width="19.5" customWidth="1"/>
+    <col min="39" max="39" width="18.875" customWidth="1"/>
+    <col min="40" max="40" width="12.75" customWidth="1"/>
+    <col min="41" max="41" width="16.25" customWidth="1"/>
+    <col min="42" max="42" width="15.75" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15">
+    <row r="1" spans="1:42" ht="15">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -6638,19 +6650,22 @@
         <v>121</v>
       </c>
       <c r="AL1" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="AM1" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="AM1" s="46" t="s">
+      <c r="AN1" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="48" t="s">
+      <c r="AO1" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="AO1" s="46" t="s">
+      <c r="AP1" s="46" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="15">
+    <row r="2" spans="1:42" ht="15">
       <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
@@ -6692,10 +6707,11 @@
       <c r="AK2" s="46"/>
       <c r="AL2" s="46"/>
       <c r="AM2" s="46"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="53"/>
-    </row>
-    <row r="3" spans="1:41" ht="15">
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="53"/>
+    </row>
+    <row r="3" spans="1:42" ht="15">
       <c r="A3" s="46" t="s">
         <v>16</v>
       </c>
@@ -6794,19 +6810,22 @@
         <v>21</v>
       </c>
       <c r="AL3" s="46" t="s">
-        <v>130</v>
+        <v>407</v>
       </c>
       <c r="AM3" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="AN3" s="48" t="s">
+      <c r="AN3" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="AO3" s="46" t="s">
+      <c r="AP3" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="15">
+    <row r="4" spans="1:42" ht="15">
       <c r="A4" s="46" t="s">
         <v>23</v>
       </c>
@@ -6848,10 +6867,11 @@
       <c r="AK4" s="46"/>
       <c r="AL4" s="46"/>
       <c r="AM4" s="46"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="53"/>
-    </row>
-    <row r="5" spans="1:41" ht="15">
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="53"/>
+    </row>
+    <row r="5" spans="1:42" ht="15">
       <c r="A5" s="46" t="s">
         <v>24</v>
       </c>
@@ -6963,20 +6983,23 @@
       <c r="AK5" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="AL5" s="46" t="s">
+      <c r="AL5" s="68" t="s">
+        <v>410</v>
+      </c>
+      <c r="AM5" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="AM5" s="46" t="s">
+      <c r="AN5" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="AN5" s="48" t="s">
+      <c r="AO5" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="AO5" s="53" t="s">
+      <c r="AP5" s="53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="15">
+    <row r="6" spans="1:42" ht="15">
       <c r="A6" s="46"/>
       <c r="B6" s="56" t="s">
         <v>157</v>
@@ -7082,14 +7105,15 @@
       <c r="AK6" s="46">
         <v>0</v>
       </c>
-      <c r="AL6" s="46">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="61"/>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="46">
+        <v>0</v>
+      </c>
       <c r="AN6" s="61"/>
-      <c r="AO6" s="53"/>
-    </row>
-    <row r="7" spans="1:41" ht="15">
+      <c r="AO6" s="61"/>
+      <c r="AP6" s="53"/>
+    </row>
+    <row r="7" spans="1:42" ht="15">
       <c r="A7" s="46"/>
       <c r="B7" s="56" t="s">
         <v>163</v>
@@ -7195,14 +7219,15 @@
       <c r="AK7" s="46">
         <v>0</v>
       </c>
-      <c r="AL7" s="46">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="61"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="46">
+        <v>0</v>
+      </c>
       <c r="AN7" s="61"/>
-      <c r="AO7" s="53"/>
-    </row>
-    <row r="8" spans="1:41" ht="15">
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="53"/>
+    </row>
+    <row r="8" spans="1:42" ht="15">
       <c r="A8" s="46"/>
       <c r="B8" s="56" t="s">
         <v>164</v>
@@ -7308,14 +7333,15 @@
       <c r="AK8" s="46">
         <v>0</v>
       </c>
-      <c r="AL8" s="46">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="61"/>
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="46">
+        <v>0</v>
+      </c>
       <c r="AN8" s="61"/>
-      <c r="AO8" s="53"/>
-    </row>
-    <row r="9" spans="1:41" ht="15">
+      <c r="AO8" s="61"/>
+      <c r="AP8" s="53"/>
+    </row>
+    <row r="9" spans="1:42" ht="15">
       <c r="A9" s="46"/>
       <c r="B9" s="56" t="s">
         <v>165</v>
@@ -7421,14 +7447,15 @@
       <c r="AK9" s="46">
         <v>2</v>
       </c>
-      <c r="AL9" s="46">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="61"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46">
+        <v>0</v>
+      </c>
       <c r="AN9" s="61"/>
-      <c r="AO9" s="53"/>
-    </row>
-    <row r="10" spans="1:41" ht="15">
+      <c r="AO9" s="61"/>
+      <c r="AP9" s="53"/>
+    </row>
+    <row r="10" spans="1:42" ht="15">
       <c r="A10" s="46"/>
       <c r="B10" s="56" t="s">
         <v>166</v>
@@ -7534,14 +7561,15 @@
       <c r="AK10" s="46">
         <v>0</v>
       </c>
-      <c r="AL10" s="46">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="61"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="46">
+        <v>0</v>
+      </c>
       <c r="AN10" s="61"/>
-      <c r="AO10" s="53"/>
-    </row>
-    <row r="11" spans="1:41" ht="15">
+      <c r="AO10" s="61"/>
+      <c r="AP10" s="53"/>
+    </row>
+    <row r="11" spans="1:42" ht="15">
       <c r="A11" s="46"/>
       <c r="B11" s="56" t="s">
         <v>169</v>
@@ -7647,14 +7675,15 @@
       <c r="AK11" s="46">
         <v>0</v>
       </c>
-      <c r="AL11" s="46">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="61"/>
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="46">
+        <v>0</v>
+      </c>
       <c r="AN11" s="61"/>
-      <c r="AO11" s="53"/>
-    </row>
-    <row r="12" spans="1:41" ht="15">
+      <c r="AO11" s="61"/>
+      <c r="AP11" s="53"/>
+    </row>
+    <row r="12" spans="1:42" ht="15">
       <c r="A12" s="46"/>
       <c r="B12" s="56" t="s">
         <v>170</v>
@@ -7760,14 +7789,15 @@
       <c r="AK12" s="46">
         <v>0</v>
       </c>
-      <c r="AL12" s="46">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="61"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46">
+        <v>0</v>
+      </c>
       <c r="AN12" s="61"/>
-      <c r="AO12" s="53"/>
-    </row>
-    <row r="13" spans="1:41" ht="15">
+      <c r="AO12" s="61"/>
+      <c r="AP12" s="53"/>
+    </row>
+    <row r="13" spans="1:42" ht="15">
       <c r="A13" s="46"/>
       <c r="B13" s="56" t="s">
         <v>172</v>
@@ -7873,14 +7903,15 @@
       <c r="AK13" s="46">
         <v>0</v>
       </c>
-      <c r="AL13" s="46">
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="46">
         <v>0.5</v>
       </c>
-      <c r="AM13" s="61"/>
       <c r="AN13" s="61"/>
-      <c r="AO13" s="53"/>
-    </row>
-    <row r="14" spans="1:41" ht="15">
+      <c r="AO13" s="61"/>
+      <c r="AP13" s="53"/>
+    </row>
+    <row r="14" spans="1:42" ht="15">
       <c r="A14" s="46"/>
       <c r="B14" s="56" t="s">
         <v>173</v>
@@ -7984,14 +8015,15 @@
       <c r="AK14" s="46">
         <v>0</v>
       </c>
-      <c r="AL14" s="46">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="61"/>
+      <c r="AL14" s="46"/>
+      <c r="AM14" s="46">
+        <v>0</v>
+      </c>
       <c r="AN14" s="61"/>
-      <c r="AO14" s="53"/>
-    </row>
-    <row r="15" spans="1:41" ht="15">
+      <c r="AO14" s="61"/>
+      <c r="AP14" s="53"/>
+    </row>
+    <row r="15" spans="1:42" ht="15">
       <c r="A15" s="46"/>
       <c r="B15" s="56" t="s">
         <v>176</v>
@@ -8095,14 +8127,15 @@
       <c r="AK15" s="46">
         <v>0</v>
       </c>
-      <c r="AL15" s="46">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="61"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="46">
+        <v>0</v>
+      </c>
       <c r="AN15" s="61"/>
-      <c r="AO15" s="53"/>
-    </row>
-    <row r="16" spans="1:41" ht="15">
+      <c r="AO15" s="61"/>
+      <c r="AP15" s="53"/>
+    </row>
+    <row r="16" spans="1:42" ht="15">
       <c r="A16" s="46"/>
       <c r="B16" s="56" t="s">
         <v>178</v>
@@ -8206,14 +8239,15 @@
       <c r="AK16" s="46">
         <v>0</v>
       </c>
-      <c r="AL16" s="46">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="61"/>
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="46">
+        <v>0</v>
+      </c>
       <c r="AN16" s="61"/>
-      <c r="AO16" s="53"/>
-    </row>
-    <row r="17" spans="1:41" ht="15">
+      <c r="AO16" s="61"/>
+      <c r="AP16" s="53"/>
+    </row>
+    <row r="17" spans="1:42" ht="15">
       <c r="A17" s="46"/>
       <c r="B17" s="56" t="s">
         <v>179</v>
@@ -8317,18 +8351,19 @@
       <c r="AK17" s="46">
         <v>0</v>
       </c>
-      <c r="AL17" s="46">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="61">
+      <c r="AL17" s="46"/>
+      <c r="AM17" s="46">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="61">
         <v>0.5</v>
       </c>
-      <c r="AN17" s="61"/>
-      <c r="AO17" s="53">
+      <c r="AO17" s="61"/>
+      <c r="AP17" s="53">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="15">
+    <row r="18" spans="1:42" ht="15">
       <c r="A18" s="46"/>
       <c r="B18" s="56" t="s">
         <v>180</v>
@@ -8432,16 +8467,17 @@
       <c r="AK18" s="46">
         <v>0</v>
       </c>
-      <c r="AL18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="61"/>
-      <c r="AN18" s="61" t="s">
+      <c r="AL18" s="46"/>
+      <c r="AM18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="AO18" s="53"/>
-    </row>
-    <row r="19" spans="1:41" ht="15">
+      <c r="AP18" s="53"/>
+    </row>
+    <row r="19" spans="1:42" ht="15">
       <c r="A19" s="46"/>
       <c r="B19" s="56" t="s">
         <v>184</v>
@@ -8546,11 +8582,12 @@
         <v>0</v>
       </c>
       <c r="AL19" s="46"/>
-      <c r="AM19" s="61"/>
+      <c r="AM19" s="46"/>
       <c r="AN19" s="61"/>
-      <c r="AO19" s="53"/>
-    </row>
-    <row r="20" spans="1:41" ht="15">
+      <c r="AO19" s="61"/>
+      <c r="AP19" s="53"/>
+    </row>
+    <row r="20" spans="1:42" ht="15">
       <c r="A20" s="46"/>
       <c r="B20" s="56" t="s">
         <v>186</v>
@@ -8655,11 +8692,12 @@
         <v>0</v>
       </c>
       <c r="AL20" s="46"/>
-      <c r="AM20" s="61"/>
+      <c r="AM20" s="46"/>
       <c r="AN20" s="61"/>
-      <c r="AO20" s="53"/>
-    </row>
-    <row r="21" spans="1:41" ht="15">
+      <c r="AO20" s="61"/>
+      <c r="AP20" s="53"/>
+    </row>
+    <row r="21" spans="1:42" ht="15">
       <c r="A21" s="46"/>
       <c r="B21" s="56" t="s">
         <v>187</v>
@@ -8764,11 +8802,12 @@
         <v>0</v>
       </c>
       <c r="AL21" s="46"/>
-      <c r="AM21" s="61"/>
+      <c r="AM21" s="46"/>
       <c r="AN21" s="61"/>
-      <c r="AO21" s="53"/>
-    </row>
-    <row r="22" spans="1:41" ht="15">
+      <c r="AO21" s="61"/>
+      <c r="AP21" s="53"/>
+    </row>
+    <row r="22" spans="1:42" ht="15">
       <c r="A22" s="46"/>
       <c r="B22" s="56" t="s">
         <v>188</v>
@@ -8875,11 +8914,12 @@
         <v>0</v>
       </c>
       <c r="AL22" s="46"/>
-      <c r="AM22" s="61"/>
+      <c r="AM22" s="46"/>
       <c r="AN22" s="61"/>
-      <c r="AO22" s="53"/>
-    </row>
-    <row r="23" spans="1:41" ht="15">
+      <c r="AO22" s="61"/>
+      <c r="AP22" s="53"/>
+    </row>
+    <row r="23" spans="1:42" ht="15">
       <c r="A23" s="46"/>
       <c r="B23" s="56" t="s">
         <v>190</v>
@@ -8984,11 +9024,12 @@
         <v>0</v>
       </c>
       <c r="AL23" s="46"/>
-      <c r="AM23" s="61"/>
+      <c r="AM23" s="46"/>
       <c r="AN23" s="61"/>
-      <c r="AO23" s="53"/>
-    </row>
-    <row r="24" spans="1:41" ht="15">
+      <c r="AO23" s="61"/>
+      <c r="AP23" s="53"/>
+    </row>
+    <row r="24" spans="1:42" ht="15">
       <c r="A24" s="46"/>
       <c r="B24" s="56" t="s">
         <v>191</v>
@@ -9091,11 +9132,12 @@
         <v>0</v>
       </c>
       <c r="AL24" s="46"/>
-      <c r="AM24" s="61"/>
+      <c r="AM24" s="46"/>
       <c r="AN24" s="61"/>
-      <c r="AO24" s="53"/>
-    </row>
-    <row r="25" spans="1:41" ht="15">
+      <c r="AO24" s="61"/>
+      <c r="AP24" s="53"/>
+    </row>
+    <row r="25" spans="1:42" ht="15">
       <c r="A25" s="46"/>
       <c r="B25" s="56" t="s">
         <v>193</v>
@@ -9198,11 +9240,12 @@
         <v>0</v>
       </c>
       <c r="AL25" s="46"/>
-      <c r="AM25" s="61"/>
+      <c r="AM25" s="46"/>
       <c r="AN25" s="61"/>
-      <c r="AO25" s="53"/>
-    </row>
-    <row r="26" spans="1:41" ht="15">
+      <c r="AO25" s="61"/>
+      <c r="AP25" s="53"/>
+    </row>
+    <row r="26" spans="1:42" ht="15">
       <c r="A26" s="62"/>
       <c r="B26" s="56" t="s">
         <v>195</v>
@@ -9311,11 +9354,12 @@
         <v>0</v>
       </c>
       <c r="AL26" s="46"/>
-      <c r="AM26" s="61"/>
+      <c r="AM26" s="46"/>
       <c r="AN26" s="61"/>
-      <c r="AO26" s="53"/>
-    </row>
-    <row r="27" spans="1:41" ht="15">
+      <c r="AO26" s="61"/>
+      <c r="AP26" s="53"/>
+    </row>
+    <row r="27" spans="1:42" ht="15">
       <c r="A27" s="46"/>
       <c r="B27" s="56" t="s">
         <v>198</v>
@@ -9418,11 +9462,12 @@
         <v>0</v>
       </c>
       <c r="AL27" s="46"/>
-      <c r="AM27" s="61"/>
+      <c r="AM27" s="46"/>
       <c r="AN27" s="61"/>
-      <c r="AO27" s="53"/>
-    </row>
-    <row r="28" spans="1:41" ht="15">
+      <c r="AO27" s="61"/>
+      <c r="AP27" s="53"/>
+    </row>
+    <row r="28" spans="1:42" ht="15">
       <c r="A28" s="46"/>
       <c r="B28" s="56" t="s">
         <v>199</v>
@@ -9525,11 +9570,12 @@
         <v>0</v>
       </c>
       <c r="AL28" s="46"/>
-      <c r="AM28" s="61"/>
+      <c r="AM28" s="46"/>
       <c r="AN28" s="61"/>
-      <c r="AO28" s="53"/>
-    </row>
-    <row r="29" spans="1:41" ht="15">
+      <c r="AO28" s="61"/>
+      <c r="AP28" s="53"/>
+    </row>
+    <row r="29" spans="1:42" ht="15">
       <c r="A29" s="46"/>
       <c r="B29" s="56" t="s">
         <v>202</v>
@@ -9632,11 +9678,12 @@
         <v>0</v>
       </c>
       <c r="AL29" s="46"/>
-      <c r="AM29" s="61"/>
+      <c r="AM29" s="46"/>
       <c r="AN29" s="61"/>
-      <c r="AO29" s="53"/>
-    </row>
-    <row r="30" spans="1:41" ht="15">
+      <c r="AO29" s="61"/>
+      <c r="AP29" s="53"/>
+    </row>
+    <row r="30" spans="1:42" ht="15">
       <c r="A30" s="46"/>
       <c r="B30" s="56" t="s">
         <v>203</v>
@@ -9739,11 +9786,12 @@
         <v>0</v>
       </c>
       <c r="AL30" s="46"/>
-      <c r="AM30" s="61"/>
+      <c r="AM30" s="46"/>
       <c r="AN30" s="61"/>
-      <c r="AO30" s="53"/>
-    </row>
-    <row r="31" spans="1:41" ht="15">
+      <c r="AO30" s="61"/>
+      <c r="AP30" s="53"/>
+    </row>
+    <row r="31" spans="1:42" ht="15">
       <c r="A31" s="63"/>
       <c r="B31" s="56" t="s">
         <v>205</v>
@@ -9848,11 +9896,12 @@
         <v>0</v>
       </c>
       <c r="AL31" s="46"/>
-      <c r="AM31" s="61"/>
+      <c r="AM31" s="46"/>
       <c r="AN31" s="61"/>
-      <c r="AO31" s="53"/>
-    </row>
-    <row r="32" spans="1:41" ht="15">
+      <c r="AO31" s="61"/>
+      <c r="AP31" s="53"/>
+    </row>
+    <row r="32" spans="1:42" ht="15">
       <c r="A32" s="46"/>
       <c r="B32" s="56" t="s">
         <v>206</v>
@@ -9955,11 +10004,12 @@
         <v>0</v>
       </c>
       <c r="AL32" s="46"/>
-      <c r="AM32" s="61"/>
+      <c r="AM32" s="46"/>
       <c r="AN32" s="61"/>
-      <c r="AO32" s="53"/>
-    </row>
-    <row r="33" spans="1:41" ht="15">
+      <c r="AO32" s="61"/>
+      <c r="AP32" s="53"/>
+    </row>
+    <row r="33" spans="1:42" ht="15">
       <c r="A33" s="46"/>
       <c r="B33" s="56" t="s">
         <v>207</v>
@@ -10064,11 +10114,12 @@
         <v>0</v>
       </c>
       <c r="AL33" s="46"/>
-      <c r="AM33" s="61"/>
+      <c r="AM33" s="46"/>
       <c r="AN33" s="61"/>
-      <c r="AO33" s="53"/>
-    </row>
-    <row r="34" spans="1:41" ht="15">
+      <c r="AO33" s="61"/>
+      <c r="AP33" s="53"/>
+    </row>
+    <row r="34" spans="1:42" ht="15">
       <c r="A34" s="63"/>
       <c r="B34" s="56" t="s">
         <v>209</v>
@@ -10171,11 +10222,12 @@
         <v>0</v>
       </c>
       <c r="AL34" s="46"/>
-      <c r="AM34" s="61"/>
+      <c r="AM34" s="46"/>
       <c r="AN34" s="61"/>
-      <c r="AO34" s="53"/>
-    </row>
-    <row r="35" spans="1:41" ht="15">
+      <c r="AO34" s="61"/>
+      <c r="AP34" s="53"/>
+    </row>
+    <row r="35" spans="1:42" ht="15">
       <c r="A35" s="63"/>
       <c r="B35" s="56" t="s">
         <v>211</v>
@@ -10278,11 +10330,12 @@
         <v>0</v>
       </c>
       <c r="AL35" s="46"/>
-      <c r="AM35" s="61"/>
+      <c r="AM35" s="46"/>
       <c r="AN35" s="61"/>
-      <c r="AO35" s="53"/>
-    </row>
-    <row r="36" spans="1:41" ht="15">
+      <c r="AO35" s="61"/>
+      <c r="AP35" s="53"/>
+    </row>
+    <row r="36" spans="1:42" ht="15">
       <c r="A36" s="63"/>
       <c r="B36" s="56" t="s">
         <v>212</v>
@@ -10385,11 +10438,12 @@
         <v>0</v>
       </c>
       <c r="AL36" s="46"/>
-      <c r="AM36" s="61"/>
+      <c r="AM36" s="46"/>
       <c r="AN36" s="61"/>
-      <c r="AO36" s="53"/>
-    </row>
-    <row r="37" spans="1:41" ht="15">
+      <c r="AO36" s="61"/>
+      <c r="AP36" s="53"/>
+    </row>
+    <row r="37" spans="1:42" ht="15">
       <c r="A37" s="46"/>
       <c r="B37" s="56" t="s">
         <v>213</v>
@@ -10490,11 +10544,12 @@
         <v>0</v>
       </c>
       <c r="AL37" s="46"/>
-      <c r="AM37" s="61"/>
+      <c r="AM37" s="46"/>
       <c r="AN37" s="61"/>
-      <c r="AO37" s="53"/>
-    </row>
-    <row r="38" spans="1:41" ht="15">
+      <c r="AO37" s="61"/>
+      <c r="AP37" s="53"/>
+    </row>
+    <row r="38" spans="1:42" ht="15">
       <c r="A38" s="63"/>
       <c r="B38" s="56" t="s">
         <v>215</v>
@@ -10597,11 +10652,12 @@
         <v>0</v>
       </c>
       <c r="AL38" s="46"/>
-      <c r="AM38" s="61"/>
+      <c r="AM38" s="46"/>
       <c r="AN38" s="61"/>
-      <c r="AO38" s="53"/>
-    </row>
-    <row r="39" spans="1:41" ht="15">
+      <c r="AO38" s="61"/>
+      <c r="AP38" s="53"/>
+    </row>
+    <row r="39" spans="1:42" ht="15">
       <c r="A39" s="63"/>
       <c r="B39" s="56" t="s">
         <v>217</v>
@@ -10700,11 +10756,12 @@
         <v>0</v>
       </c>
       <c r="AL39" s="46"/>
-      <c r="AM39" s="61"/>
+      <c r="AM39" s="46"/>
       <c r="AN39" s="61"/>
-      <c r="AO39" s="53"/>
-    </row>
-    <row r="40" spans="1:41" ht="15">
+      <c r="AO39" s="61"/>
+      <c r="AP39" s="53"/>
+    </row>
+    <row r="40" spans="1:42" ht="15">
       <c r="A40" s="46"/>
       <c r="B40" s="56" t="s">
         <v>219</v>
@@ -10803,11 +10860,12 @@
         <v>0</v>
       </c>
       <c r="AL40" s="46"/>
-      <c r="AM40" s="61"/>
+      <c r="AM40" s="46"/>
       <c r="AN40" s="61"/>
-      <c r="AO40" s="53"/>
-    </row>
-    <row r="41" spans="1:41" ht="15">
+      <c r="AO40" s="61"/>
+      <c r="AP40" s="53"/>
+    </row>
+    <row r="41" spans="1:42" ht="15">
       <c r="A41" s="63"/>
       <c r="B41" s="56" t="s">
         <v>221</v>
@@ -10910,11 +10968,12 @@
         <v>0</v>
       </c>
       <c r="AL41" s="46"/>
-      <c r="AM41" s="61"/>
+      <c r="AM41" s="46"/>
       <c r="AN41" s="61"/>
-      <c r="AO41" s="53"/>
-    </row>
-    <row r="42" spans="1:41" ht="15">
+      <c r="AO41" s="61"/>
+      <c r="AP41" s="53"/>
+    </row>
+    <row r="42" spans="1:42" ht="15">
       <c r="A42" s="62"/>
       <c r="B42" s="56" t="s">
         <v>222</v>
@@ -11017,11 +11076,12 @@
         <v>0</v>
       </c>
       <c r="AL42" s="46"/>
-      <c r="AM42" s="61"/>
+      <c r="AM42" s="46"/>
       <c r="AN42" s="61"/>
-      <c r="AO42" s="53"/>
-    </row>
-    <row r="43" spans="1:41" ht="15">
+      <c r="AO42" s="61"/>
+      <c r="AP42" s="53"/>
+    </row>
+    <row r="43" spans="1:42" ht="15">
       <c r="A43" s="63"/>
       <c r="B43" s="56" t="s">
         <v>224</v>
@@ -11124,11 +11184,12 @@
         <v>0</v>
       </c>
       <c r="AL43" s="46"/>
-      <c r="AM43" s="61"/>
+      <c r="AM43" s="46"/>
       <c r="AN43" s="61"/>
-      <c r="AO43" s="53"/>
-    </row>
-    <row r="44" spans="1:41" ht="15">
+      <c r="AO43" s="61"/>
+      <c r="AP43" s="53"/>
+    </row>
+    <row r="44" spans="1:42" ht="15">
       <c r="A44" s="65"/>
       <c r="B44" s="56" t="s">
         <v>226</v>
@@ -11231,11 +11292,12 @@
         <v>0</v>
       </c>
       <c r="AL44" s="46"/>
-      <c r="AM44" s="61"/>
+      <c r="AM44" s="46"/>
       <c r="AN44" s="61"/>
-      <c r="AO44" s="53"/>
-    </row>
-    <row r="45" spans="1:41" ht="15">
+      <c r="AO44" s="61"/>
+      <c r="AP44" s="53"/>
+    </row>
+    <row r="45" spans="1:42" ht="15">
       <c r="A45" s="63"/>
       <c r="B45" s="56" t="s">
         <v>229</v>
@@ -11334,11 +11396,12 @@
         <v>0</v>
       </c>
       <c r="AL45" s="46"/>
-      <c r="AM45" s="61"/>
+      <c r="AM45" s="46"/>
       <c r="AN45" s="61"/>
-      <c r="AO45" s="53"/>
-    </row>
-    <row r="46" spans="1:41" ht="15">
+      <c r="AO45" s="61"/>
+      <c r="AP45" s="53"/>
+    </row>
+    <row r="46" spans="1:42" ht="15">
       <c r="A46" s="63"/>
       <c r="B46" s="56" t="s">
         <v>232</v>
@@ -11437,11 +11500,12 @@
         <v>0</v>
       </c>
       <c r="AL46" s="46"/>
-      <c r="AM46" s="61"/>
+      <c r="AM46" s="46"/>
       <c r="AN46" s="61"/>
-      <c r="AO46" s="53"/>
-    </row>
-    <row r="47" spans="1:41" ht="15">
+      <c r="AO46" s="61"/>
+      <c r="AP46" s="53"/>
+    </row>
+    <row r="47" spans="1:42" ht="15">
       <c r="A47" s="46"/>
       <c r="B47" s="56" t="s">
         <v>233</v>
@@ -11540,11 +11604,12 @@
         <v>0</v>
       </c>
       <c r="AL47" s="46"/>
-      <c r="AM47" s="61"/>
+      <c r="AM47" s="46"/>
       <c r="AN47" s="61"/>
-      <c r="AO47" s="53"/>
-    </row>
-    <row r="48" spans="1:41" ht="15">
+      <c r="AO47" s="61"/>
+      <c r="AP47" s="53"/>
+    </row>
+    <row r="48" spans="1:42" ht="15">
       <c r="A48" s="63"/>
       <c r="B48" s="56" t="s">
         <v>234</v>
@@ -11643,11 +11708,12 @@
         <v>0</v>
       </c>
       <c r="AL48" s="46"/>
-      <c r="AM48" s="61"/>
+      <c r="AM48" s="46"/>
       <c r="AN48" s="61"/>
-      <c r="AO48" s="53"/>
-    </row>
-    <row r="49" spans="1:41" ht="15">
+      <c r="AO48" s="61"/>
+      <c r="AP48" s="53"/>
+    </row>
+    <row r="49" spans="1:42" ht="15">
       <c r="A49" s="63"/>
       <c r="B49" s="56" t="s">
         <v>235</v>
@@ -11746,11 +11812,12 @@
         <v>0</v>
       </c>
       <c r="AL49" s="46"/>
-      <c r="AM49" s="61"/>
+      <c r="AM49" s="46"/>
       <c r="AN49" s="61"/>
-      <c r="AO49" s="53"/>
-    </row>
-    <row r="50" spans="1:41" ht="15.75" thickBot="1">
+      <c r="AO49" s="61"/>
+      <c r="AP49" s="53"/>
+    </row>
+    <row r="50" spans="1:42" ht="15.75" thickBot="1">
       <c r="A50" s="63"/>
       <c r="B50" s="56" t="s">
         <v>236</v>
@@ -11853,11 +11920,12 @@
         <v>0</v>
       </c>
       <c r="AL50" s="46"/>
-      <c r="AM50" s="61"/>
+      <c r="AM50" s="46"/>
       <c r="AN50" s="61"/>
-      <c r="AO50" s="53"/>
-    </row>
-    <row r="51" spans="1:41" ht="15.75" thickBot="1">
+      <c r="AO50" s="61"/>
+      <c r="AP50" s="53"/>
+    </row>
+    <row r="51" spans="1:42" ht="15.75" thickBot="1">
       <c r="A51" s="63"/>
       <c r="B51" s="56" t="s">
         <v>237</v>
@@ -11958,11 +12026,12 @@
         <v>0</v>
       </c>
       <c r="AL51" s="46"/>
-      <c r="AM51" s="61"/>
+      <c r="AM51" s="46"/>
       <c r="AN51" s="61"/>
-      <c r="AO51" s="53"/>
-    </row>
-    <row r="52" spans="1:41" ht="15.75" thickBot="1">
+      <c r="AO51" s="61"/>
+      <c r="AP51" s="53"/>
+    </row>
+    <row r="52" spans="1:42" ht="15.75" thickBot="1">
       <c r="A52" s="63"/>
       <c r="B52" s="56" t="s">
         <v>238</v>
@@ -12065,11 +12134,12 @@
         <v>0</v>
       </c>
       <c r="AL52" s="46"/>
-      <c r="AM52" s="61"/>
+      <c r="AM52" s="46"/>
       <c r="AN52" s="61"/>
-      <c r="AO52" s="53"/>
-    </row>
-    <row r="53" spans="1:41" ht="15.75" thickBot="1">
+      <c r="AO52" s="61"/>
+      <c r="AP52" s="53"/>
+    </row>
+    <row r="53" spans="1:42" ht="15.75" thickBot="1">
       <c r="A53" s="63"/>
       <c r="B53" s="56" t="s">
         <v>239</v>
@@ -12101,9 +12171,11 @@
       <c r="K53" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46" t="s">
-        <v>161</v>
+      <c r="L53" s="46">
+        <v>1</v>
+      </c>
+      <c r="M53" s="68" t="s">
+        <v>411</v>
       </c>
       <c r="N53" s="46"/>
       <c r="O53" s="46" t="s">
@@ -12162,17 +12234,20 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK53" s="46">
-        <v>0</v>
-      </c>
-      <c r="AL53" s="46"/>
-      <c r="AM53" s="61"/>
+        <v>2</v>
+      </c>
+      <c r="AL53" s="46">
+        <v>2</v>
+      </c>
+      <c r="AM53" s="46"/>
       <c r="AN53" s="61"/>
-      <c r="AO53" s="53"/>
-    </row>
-    <row r="54" spans="1:41" ht="15.75" thickBot="1">
+      <c r="AO53" s="61"/>
+      <c r="AP53" s="53"/>
+    </row>
+    <row r="54" spans="1:42" ht="15.75" thickBot="1">
       <c r="A54" s="63"/>
       <c r="B54" s="56" t="s">
         <v>240</v>
@@ -12275,11 +12350,12 @@
         <v>0</v>
       </c>
       <c r="AL54" s="46"/>
-      <c r="AM54" s="61"/>
+      <c r="AM54" s="46"/>
       <c r="AN54" s="61"/>
-      <c r="AO54" s="53"/>
-    </row>
-    <row r="55" spans="1:41" ht="15.75" thickBot="1">
+      <c r="AO54" s="61"/>
+      <c r="AP54" s="53"/>
+    </row>
+    <row r="55" spans="1:42" ht="15.75" thickBot="1">
       <c r="A55" s="63"/>
       <c r="B55" s="56" t="s">
         <v>242</v>
@@ -12380,11 +12456,12 @@
         <v>0</v>
       </c>
       <c r="AL55" s="46"/>
-      <c r="AM55" s="61"/>
+      <c r="AM55" s="46"/>
       <c r="AN55" s="61"/>
-      <c r="AO55" s="53"/>
-    </row>
-    <row r="56" spans="1:41" ht="15.75" thickBot="1">
+      <c r="AO55" s="61"/>
+      <c r="AP55" s="53"/>
+    </row>
+    <row r="56" spans="1:42" ht="15.75" thickBot="1">
       <c r="A56" s="63"/>
       <c r="B56" s="56" t="s">
         <v>243</v>
@@ -12487,11 +12564,12 @@
         <v>0</v>
       </c>
       <c r="AL56" s="46"/>
-      <c r="AM56" s="61"/>
+      <c r="AM56" s="46"/>
       <c r="AN56" s="61"/>
-      <c r="AO56" s="53"/>
-    </row>
-    <row r="57" spans="1:41" ht="15.75" thickBot="1">
+      <c r="AO56" s="61"/>
+      <c r="AP56" s="53"/>
+    </row>
+    <row r="57" spans="1:42" ht="15.75" thickBot="1">
       <c r="A57" s="63"/>
       <c r="B57" s="56" t="s">
         <v>244</v>
@@ -12592,11 +12670,12 @@
         <v>0</v>
       </c>
       <c r="AL57" s="46"/>
-      <c r="AM57" s="61"/>
+      <c r="AM57" s="46"/>
       <c r="AN57" s="61"/>
-      <c r="AO57" s="53"/>
-    </row>
-    <row r="58" spans="1:41" ht="15.75" thickBot="1">
+      <c r="AO57" s="61"/>
+      <c r="AP57" s="53"/>
+    </row>
+    <row r="58" spans="1:42" ht="15.75" thickBot="1">
       <c r="A58" s="63"/>
       <c r="B58" s="56" t="s">
         <v>246</v>
@@ -12699,11 +12778,12 @@
         <v>0</v>
       </c>
       <c r="AL58" s="46"/>
-      <c r="AM58" s="61"/>
+      <c r="AM58" s="46"/>
       <c r="AN58" s="61"/>
-      <c r="AO58" s="53"/>
-    </row>
-    <row r="59" spans="1:41" ht="15.75" thickBot="1">
+      <c r="AO58" s="61"/>
+      <c r="AP58" s="53"/>
+    </row>
+    <row r="59" spans="1:42" ht="15.75" thickBot="1">
       <c r="A59" s="46"/>
       <c r="B59" s="56" t="s">
         <v>247</v>
@@ -12806,11 +12886,12 @@
         <v>0</v>
       </c>
       <c r="AL59" s="46"/>
-      <c r="AM59" s="61"/>
+      <c r="AM59" s="46"/>
       <c r="AN59" s="61"/>
-      <c r="AO59" s="53"/>
-    </row>
-    <row r="60" spans="1:41" ht="15.75" thickBot="1">
+      <c r="AO59" s="61"/>
+      <c r="AP59" s="53"/>
+    </row>
+    <row r="60" spans="1:42" ht="15.75" thickBot="1">
       <c r="A60" s="46"/>
       <c r="B60" s="56" t="s">
         <v>248</v>
@@ -12913,11 +12994,12 @@
         <v>0</v>
       </c>
       <c r="AL60" s="46"/>
-      <c r="AM60" s="61"/>
+      <c r="AM60" s="46"/>
       <c r="AN60" s="61"/>
-      <c r="AO60" s="53"/>
-    </row>
-    <row r="61" spans="1:41" ht="15.75" thickBot="1">
+      <c r="AO60" s="61"/>
+      <c r="AP60" s="53"/>
+    </row>
+    <row r="61" spans="1:42" ht="15.75" thickBot="1">
       <c r="A61" s="46"/>
       <c r="B61" s="56" t="s">
         <v>249</v>
@@ -13018,11 +13100,12 @@
         <v>0</v>
       </c>
       <c r="AL61" s="46"/>
-      <c r="AM61" s="61"/>
+      <c r="AM61" s="46"/>
       <c r="AN61" s="61"/>
-      <c r="AO61" s="53"/>
-    </row>
-    <row r="62" spans="1:41" ht="15.75" thickBot="1">
+      <c r="AO61" s="61"/>
+      <c r="AP61" s="53"/>
+    </row>
+    <row r="62" spans="1:42" ht="15.75" thickBot="1">
       <c r="A62" s="46"/>
       <c r="B62" s="56" t="s">
         <v>251</v>
@@ -13125,11 +13208,12 @@
         <v>0</v>
       </c>
       <c r="AL62" s="46"/>
-      <c r="AM62" s="61"/>
+      <c r="AM62" s="46"/>
       <c r="AN62" s="61"/>
-      <c r="AO62" s="53"/>
-    </row>
-    <row r="63" spans="1:41" ht="15">
+      <c r="AO62" s="61"/>
+      <c r="AP62" s="53"/>
+    </row>
+    <row r="63" spans="1:42" ht="15">
       <c r="A63" s="46"/>
       <c r="B63" s="56" t="s">
         <v>252</v>
@@ -13228,11 +13312,12 @@
         <v>0</v>
       </c>
       <c r="AL63" s="46"/>
-      <c r="AM63" s="61"/>
+      <c r="AM63" s="46"/>
       <c r="AN63" s="61"/>
-      <c r="AO63" s="53"/>
-    </row>
-    <row r="64" spans="1:41" ht="15">
+      <c r="AO63" s="61"/>
+      <c r="AP63" s="53"/>
+    </row>
+    <row r="64" spans="1:42" ht="15">
       <c r="A64" s="46"/>
       <c r="B64" s="56" t="s">
         <v>254</v>
@@ -13331,11 +13416,12 @@
         <v>0</v>
       </c>
       <c r="AL64" s="46"/>
-      <c r="AM64" s="61"/>
+      <c r="AM64" s="46"/>
       <c r="AN64" s="61"/>
-      <c r="AO64" s="53"/>
-    </row>
-    <row r="65" spans="1:41" ht="15">
+      <c r="AO64" s="61"/>
+      <c r="AP64" s="53"/>
+    </row>
+    <row r="65" spans="1:42" ht="15">
       <c r="A65" s="46"/>
       <c r="B65" s="56" t="s">
         <v>256</v>
@@ -13434,11 +13520,12 @@
         <v>0</v>
       </c>
       <c r="AL65" s="46"/>
-      <c r="AM65" s="61"/>
+      <c r="AM65" s="46"/>
       <c r="AN65" s="61"/>
-      <c r="AO65" s="53"/>
-    </row>
-    <row r="66" spans="1:41" ht="15">
+      <c r="AO65" s="61"/>
+      <c r="AP65" s="53"/>
+    </row>
+    <row r="66" spans="1:42" ht="15">
       <c r="A66" s="46"/>
       <c r="B66" s="56" t="s">
         <v>259</v>
@@ -13537,11 +13624,12 @@
         <v>0</v>
       </c>
       <c r="AL66" s="46"/>
-      <c r="AM66" s="61"/>
+      <c r="AM66" s="46"/>
       <c r="AN66" s="61"/>
-      <c r="AO66" s="53"/>
-    </row>
-    <row r="67" spans="1:41" ht="15">
+      <c r="AO66" s="61"/>
+      <c r="AP66" s="53"/>
+    </row>
+    <row r="67" spans="1:42" ht="15">
       <c r="A67" s="46"/>
       <c r="B67" s="56" t="s">
         <v>262</v>
@@ -13640,11 +13728,12 @@
         <v>0</v>
       </c>
       <c r="AL67" s="46"/>
-      <c r="AM67" s="61"/>
+      <c r="AM67" s="46"/>
       <c r="AN67" s="61"/>
-      <c r="AO67" s="53"/>
-    </row>
-    <row r="68" spans="1:41" ht="15.75" thickBot="1">
+      <c r="AO67" s="61"/>
+      <c r="AP67" s="53"/>
+    </row>
+    <row r="68" spans="1:42" ht="15.75" thickBot="1">
       <c r="A68" s="46"/>
       <c r="B68" s="56" t="s">
         <v>265</v>
@@ -13743,11 +13832,12 @@
         <v>0</v>
       </c>
       <c r="AL68" s="46"/>
-      <c r="AM68" s="61"/>
+      <c r="AM68" s="46"/>
       <c r="AN68" s="61"/>
-      <c r="AO68" s="53"/>
-    </row>
-    <row r="69" spans="1:41" ht="15.75" thickBot="1">
+      <c r="AO68" s="61"/>
+      <c r="AP68" s="53"/>
+    </row>
+    <row r="69" spans="1:42" ht="15.75" thickBot="1">
       <c r="A69" s="46"/>
       <c r="B69" s="56" t="s">
         <v>267</v>
@@ -13846,15 +13936,17 @@
         <v>0</v>
       </c>
       <c r="AL69" s="46"/>
-      <c r="AM69" s="61"/>
+      <c r="AM69" s="46"/>
       <c r="AN69" s="61"/>
-      <c r="AO69" s="53"/>
-    </row>
-    <row r="70" spans="1:41">
+      <c r="AO69" s="61"/>
+      <c r="AP69" s="53"/>
+    </row>
+    <row r="70" spans="1:42">
       <c r="AI70" s="4"/>
       <c r="AJ70" s="4"/>
       <c r="AK70" s="4"/>
       <c r="AL70" s="4"/>
+      <c r="AM70" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -13879,10 +13971,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14692,6 +14784,29 @@
       </c>
       <c r="I33">
         <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="15">
+      <c r="B34" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="D34">
+        <v>-1</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61508695-8122-479D-8100-0D83D6F5D8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C66AB4-BDAE-4134-85EE-4259F0147281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="414">
   <si>
     <t>##var</t>
   </si>
@@ -6487,8 +6487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AQ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+    <sheetView topLeftCell="F31" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14159,10 +14159,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14995,6 +14995,26 @@
       </c>
       <c r="I34">
         <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="15">
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C66AB4-BDAE-4134-85EE-4259F0147281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C8AEF3-66AF-4D75-84D9-839651BA2232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="421">
   <si>
     <t>##var</t>
   </si>
@@ -483,12 +483,6 @@
   </si>
   <si>
     <t>percentage_damage_by_self</t>
-  </si>
-  <si>
-    <t>change_element_after_use</t>
-  </si>
-  <si>
-    <t>increase_damage_point_when_grass_env</t>
   </si>
   <si>
     <t>ActiveSkillEnum</t>
@@ -4702,6 +4696,42 @@
   </si>
   <si>
     <t>下一次技能让对方受伤时弃牌概率变成1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityTuple</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>when_spped_less_than_buff</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_element_after_use</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>increase_damage_point_when_grass_env</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>加十点适应力</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_stack</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多叠加数量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足条件后可以获得的Buff</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -4955,7 +4985,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -5126,6 +5156,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5136,7 +5175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5293,6 +5332,25 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6485,10 +6543,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AQ70"/>
+  <dimension ref="A1:AT70"/>
   <sheetViews>
-    <sheetView topLeftCell="F31" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="AF28" workbookViewId="0">
+      <selection activeCell="AQ48" sqref="AQ48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6529,13 +6587,13 @@
     <col min="35" max="35" width="13.25" customWidth="1"/>
     <col min="36" max="36" width="17.875" customWidth="1"/>
     <col min="37" max="39" width="19.5" customWidth="1"/>
-    <col min="40" max="40" width="18.875" customWidth="1"/>
-    <col min="41" max="41" width="12.75" customWidth="1"/>
-    <col min="42" max="42" width="16.25" customWidth="1"/>
-    <col min="43" max="43" width="15.75" style="20" customWidth="1"/>
+    <col min="43" max="43" width="18.875" customWidth="1"/>
+    <col min="44" max="44" width="12.75" customWidth="1"/>
+    <col min="45" max="45" width="16.25" customWidth="1"/>
+    <col min="46" max="46" width="15.75" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15">
+    <row r="1" spans="1:46" ht="15">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -6628,31 +6686,36 @@
         <v>119</v>
       </c>
       <c r="AJ1" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="AK1" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="AL1" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="AM1" s="47" t="s">
         <v>409</v>
       </c>
-      <c r="AK1" s="47" t="s">
-        <v>408</v>
-      </c>
-      <c r="AL1" s="47" t="s">
-        <v>410</v>
-      </c>
-      <c r="AM1" s="47" t="s">
-        <v>411</v>
-      </c>
-      <c r="AN1" s="47" t="s">
+      <c r="AN1" s="78" t="s">
+        <v>413</v>
+      </c>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="AO1" s="47" t="s">
+      <c r="AR1" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="AP1" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ1" s="47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" ht="15">
+      <c r="AS1" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="AT1" s="47" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" ht="15">
       <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
@@ -6694,17 +6757,20 @@
       <c r="AK2" s="47"/>
       <c r="AL2" s="47"/>
       <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="54"/>
-    </row>
-    <row r="3" spans="1:43" ht="15">
+      <c r="AN2" s="77"/>
+      <c r="AO2" s="77"/>
+      <c r="AP2" s="77"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="54"/>
+    </row>
+    <row r="3" spans="1:46" ht="15">
       <c r="A3" s="47" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>20</v>
@@ -6713,7 +6779,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F3" s="49" t="s">
         <v>21</v>
@@ -6722,45 +6788,45 @@
         <v>21</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I3" s="51"/>
       <c r="J3" s="50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K3" s="51"/>
       <c r="L3" s="47" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N3" s="47" t="s">
         <v>21</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P3" s="47" t="s">
         <v>21</v>
       </c>
       <c r="Q3" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="R3" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="R3" s="47" t="s">
+      <c r="T3" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="S3" s="47" t="s">
+      <c r="U3" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="T3" s="55" t="s">
+      <c r="V3" s="56" t="s">
         <v>130</v>
-      </c>
-      <c r="U3" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="V3" s="56" t="s">
-        <v>132</v>
       </c>
       <c r="W3" s="56"/>
       <c r="X3" s="56"/>
@@ -6774,25 +6840,25 @@
         <v>21</v>
       </c>
       <c r="AD3" s="47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AE3" s="47" t="s">
         <v>21</v>
       </c>
       <c r="AF3" s="48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AG3" s="48" t="s">
         <v>21</v>
       </c>
       <c r="AH3" s="47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AI3" s="47" t="s">
         <v>21</v>
       </c>
       <c r="AJ3" s="47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK3" s="47" t="s">
         <v>21</v>
@@ -6801,22 +6867,27 @@
         <v>21</v>
       </c>
       <c r="AM3" s="47" t="s">
-        <v>401</v>
-      </c>
-      <c r="AN3" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO3" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP3" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="AN3" s="75" t="s">
+        <v>412</v>
+      </c>
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR3" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AQ3" s="47" t="s">
+      <c r="AT3" s="47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="15">
+    <row r="4" spans="1:46" ht="15">
       <c r="A4" s="47" t="s">
         <v>23</v>
       </c>
@@ -6858,12 +6929,15 @@
       <c r="AK4" s="47"/>
       <c r="AL4" s="47"/>
       <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="54"/>
-    </row>
-    <row r="5" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="54"/>
+    </row>
+    <row r="5" spans="1:46" ht="15.75" thickBot="1">
       <c r="A5" s="47" t="s">
         <v>24</v>
       </c>
@@ -6871,142 +6945,147 @@
         <v>1</v>
       </c>
       <c r="C5" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="G5" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="H5" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="I5" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="J5" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="L5" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="M5" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="O5" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="P5" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q5" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="R5" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>315</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="L5" s="47" t="s">
+      <c r="S5" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="M5" s="47" t="s">
-        <v>317</v>
-      </c>
-      <c r="N5" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="O5" s="47" t="s">
+      <c r="T5" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="U5" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="V5" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="P5" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q5" s="47" t="s">
+      <c r="W5" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="X5" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="R5" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="S5" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="T5" s="47" t="s">
+      <c r="Y5" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z5" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA5" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB5" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="U5" s="47" t="s">
+      <c r="AC5" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="AD5" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="V5" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="W5" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="X5" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y5" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z5" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA5" s="47" t="s">
+      <c r="AE5" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF5" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG5" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH5" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI5" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ5" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="AK5" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="AL5" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="AM5" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="AN5" s="80" t="s">
+        <v>420</v>
+      </c>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="81"/>
+      <c r="AQ5" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="AB5" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC5" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD5" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE5" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF5" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG5" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH5" s="47" t="s">
+      <c r="AR5" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="AI5" s="47" t="s">
+      <c r="AS5" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="AJ5" s="42" t="s">
-        <v>406</v>
-      </c>
-      <c r="AK5" s="42" t="s">
-        <v>407</v>
-      </c>
-      <c r="AL5" s="42" t="s">
-        <v>405</v>
-      </c>
-      <c r="AM5" s="69" t="s">
-        <v>403</v>
-      </c>
-      <c r="AN5" s="47" t="s">
-        <v>326</v>
-      </c>
-      <c r="AO5" s="47" t="s">
+      <c r="AT5" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="AP5" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ5" s="54" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" ht="15.75" thickBot="1">
+    </row>
+    <row r="6" spans="1:46" ht="15.75" thickBot="1">
       <c r="A6" s="47"/>
       <c r="B6" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="E6" s="47" t="s">
         <v>154</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>156</v>
       </c>
       <c r="F6" s="60">
         <v>90</v>
@@ -7018,42 +7097,42 @@
         <v>0</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J6" s="47">
         <v>0</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L6" s="47">
         <v>0</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N6" s="47"/>
       <c r="O6" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P6" s="47">
         <v>0</v>
       </c>
       <c r="Q6" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R6" s="47">
         <v>1</v>
       </c>
       <c r="S6" s="47"/>
       <c r="T6" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U6" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V6" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W6" s="47">
         <v>0</v>
@@ -7065,7 +7144,7 @@
         <v>-1</v>
       </c>
       <c r="Z6" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA6" s="47">
         <v>0</v>
@@ -7083,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG6" s="55">
         <v>0</v>
@@ -7104,26 +7183,35 @@
         <v>0</v>
       </c>
       <c r="AM6" s="47"/>
-      <c r="AN6" s="47">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="62"/>
-      <c r="AP6" s="62"/>
-      <c r="AQ6" s="54"/>
-    </row>
-    <row r="7" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN6">
+        <v>-1</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ6" s="47">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="62"/>
+      <c r="AS6" s="62"/>
+      <c r="AT6" s="54"/>
+    </row>
+    <row r="7" spans="1:46" ht="15.75" thickBot="1">
       <c r="A7" s="47"/>
       <c r="B7" s="57" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C7" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" s="47" t="s">
         <v>154</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>327</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>156</v>
       </c>
       <c r="F7" s="60">
         <v>50</v>
@@ -7135,42 +7223,42 @@
         <v>0</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J7" s="47">
         <v>0</v>
       </c>
       <c r="K7" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L7" s="47">
         <v>0</v>
       </c>
       <c r="M7" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N7" s="47"/>
       <c r="O7" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P7" s="47">
         <v>0</v>
       </c>
       <c r="Q7" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R7" s="47">
         <v>1</v>
       </c>
       <c r="S7" s="47"/>
       <c r="T7" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U7" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V7" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W7" s="47">
         <v>0</v>
@@ -7182,7 +7270,7 @@
         <v>-1</v>
       </c>
       <c r="Z7" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA7" s="47">
         <v>0</v>
@@ -7200,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG7" s="55">
         <v>0</v>
@@ -7221,26 +7309,35 @@
         <v>0</v>
       </c>
       <c r="AM7" s="47"/>
-      <c r="AN7" s="47">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="62"/>
-      <c r="AP7" s="62"/>
-      <c r="AQ7" s="54"/>
-    </row>
-    <row r="8" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN7">
+        <v>-1</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ7" s="47">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="62"/>
+      <c r="AT7" s="54"/>
+    </row>
+    <row r="8" spans="1:46" ht="15.75" thickBot="1">
       <c r="A8" s="47"/>
       <c r="B8" s="57" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C8" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" s="47" t="s">
         <v>154</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>328</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>156</v>
       </c>
       <c r="F8" s="60">
         <v>60</v>
@@ -7252,42 +7349,42 @@
         <v>0</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J8" s="47">
         <v>0</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L8" s="47">
         <v>0</v>
       </c>
       <c r="M8" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N8" s="47"/>
       <c r="O8" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P8" s="47">
         <v>0</v>
       </c>
       <c r="Q8" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R8" s="47">
         <v>1</v>
       </c>
       <c r="S8" s="47"/>
       <c r="T8" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U8" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V8" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W8" s="47">
         <v>0</v>
@@ -7299,7 +7396,7 @@
         <v>-1</v>
       </c>
       <c r="Z8" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA8" s="47">
         <v>0</v>
@@ -7317,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG8" s="55">
         <v>0</v>
@@ -7338,26 +7435,35 @@
         <v>0</v>
       </c>
       <c r="AM8" s="47"/>
-      <c r="AN8" s="47">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="62"/>
-      <c r="AP8" s="62"/>
-      <c r="AQ8" s="54"/>
-    </row>
-    <row r="9" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN8">
+        <v>-1</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ8" s="47">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="62"/>
+      <c r="AT8" s="54"/>
+    </row>
+    <row r="9" spans="1:46" ht="15.75" thickBot="1">
       <c r="A9" s="47"/>
       <c r="B9" s="57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C9" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>327</v>
+      </c>
+      <c r="E9" s="47" t="s">
         <v>154</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>329</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>156</v>
       </c>
       <c r="F9" s="60">
         <v>40</v>
@@ -7369,42 +7475,42 @@
         <v>0</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J9" s="47">
         <v>0</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L9" s="47">
         <v>0</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N9" s="47"/>
       <c r="O9" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P9" s="47">
         <v>0</v>
       </c>
       <c r="Q9" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R9" s="47">
         <v>1</v>
       </c>
       <c r="S9" s="47"/>
       <c r="T9" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U9" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V9" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W9" s="47">
         <v>0</v>
@@ -7416,7 +7522,7 @@
         <v>-1</v>
       </c>
       <c r="Z9" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA9" s="47">
         <v>0</v>
@@ -7434,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG9" s="55">
         <v>0</v>
@@ -7455,26 +7561,35 @@
         <v>0</v>
       </c>
       <c r="AM9" s="47"/>
-      <c r="AN9" s="47">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="62"/>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="54"/>
-    </row>
-    <row r="10" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN9">
+        <v>-1</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ9" s="47">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="62"/>
+      <c r="AS9" s="62"/>
+      <c r="AT9" s="54"/>
+    </row>
+    <row r="10" spans="1:46" ht="15.75" thickBot="1">
       <c r="A10" s="47"/>
       <c r="B10" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>164</v>
-      </c>
       <c r="E10" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F10" s="60">
         <v>90</v>
@@ -7486,42 +7601,42 @@
         <v>0</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J10" s="47">
         <v>0</v>
       </c>
       <c r="K10" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L10" s="47">
         <v>0</v>
       </c>
       <c r="M10" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N10" s="47"/>
       <c r="O10" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P10" s="47">
         <v>0</v>
       </c>
       <c r="Q10" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R10" s="47">
         <v>1</v>
       </c>
       <c r="S10" s="47"/>
       <c r="T10" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U10" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V10" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W10" s="47">
         <v>0</v>
@@ -7533,7 +7648,7 @@
         <v>-1</v>
       </c>
       <c r="Z10" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA10" s="47">
         <v>0</v>
@@ -7551,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG10" s="55">
         <v>0</v>
@@ -7572,26 +7687,35 @@
         <v>0</v>
       </c>
       <c r="AM10" s="47"/>
-      <c r="AN10" s="47">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="62"/>
-      <c r="AP10" s="62"/>
-      <c r="AQ10" s="54"/>
-    </row>
-    <row r="11" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN10">
+        <v>-1</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ10" s="47">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="62"/>
+      <c r="AS10" s="62"/>
+      <c r="AT10" s="54"/>
+    </row>
+    <row r="11" spans="1:46" ht="15.75" thickBot="1">
       <c r="A11" s="47"/>
       <c r="B11" s="57" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D11" s="59" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F11" s="60">
         <v>60</v>
@@ -7603,42 +7727,42 @@
         <v>0</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J11" s="47">
         <v>0</v>
       </c>
       <c r="K11" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L11" s="47">
         <v>0</v>
       </c>
       <c r="M11" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N11" s="47"/>
       <c r="O11" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P11" s="47">
         <v>0</v>
       </c>
       <c r="Q11" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R11" s="47">
         <v>1</v>
       </c>
       <c r="S11" s="47"/>
       <c r="T11" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U11" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V11" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W11" s="47">
         <v>0</v>
@@ -7650,7 +7774,7 @@
         <v>-1</v>
       </c>
       <c r="Z11" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA11" s="47">
         <v>0</v>
@@ -7668,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG11" s="55">
         <v>0</v>
@@ -7689,26 +7813,35 @@
         <v>0</v>
       </c>
       <c r="AM11" s="47"/>
-      <c r="AN11" s="47">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="62"/>
-      <c r="AP11" s="62"/>
-      <c r="AQ11" s="54"/>
-    </row>
-    <row r="12" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN11">
+        <v>-1</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ11" s="47">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="62"/>
+      <c r="AS11" s="62"/>
+      <c r="AT11" s="54"/>
+    </row>
+    <row r="12" spans="1:46" ht="15.75" thickBot="1">
       <c r="A12" s="47"/>
       <c r="B12" s="57" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F12" s="60">
         <v>110</v>
@@ -7720,42 +7853,42 @@
         <v>0</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J12" s="47">
         <v>0</v>
       </c>
       <c r="K12" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L12" s="47">
         <v>0</v>
       </c>
       <c r="M12" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N12" s="47"/>
       <c r="O12" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P12" s="47">
         <v>0</v>
       </c>
       <c r="Q12" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R12" s="47">
         <v>1</v>
       </c>
       <c r="S12" s="47"/>
       <c r="T12" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U12" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V12" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W12" s="47">
         <v>0</v>
@@ -7767,7 +7900,7 @@
         <v>-1</v>
       </c>
       <c r="Z12" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA12" s="47">
         <v>0</v>
@@ -7785,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG12" s="55">
         <v>0</v>
@@ -7806,26 +7939,35 @@
         <v>0</v>
       </c>
       <c r="AM12" s="47"/>
-      <c r="AN12" s="47">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="62"/>
-      <c r="AP12" s="62"/>
-      <c r="AQ12" s="54"/>
-    </row>
-    <row r="13" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN12">
+        <v>-1</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ12" s="47">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="62"/>
+      <c r="AS12" s="62"/>
+      <c r="AT12" s="54"/>
+    </row>
+    <row r="13" spans="1:46" ht="15.75" thickBot="1">
       <c r="A13" s="47"/>
       <c r="B13" s="57" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F13" s="60">
         <v>80</v>
@@ -7837,42 +7979,42 @@
         <v>0</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J13" s="47">
         <v>0</v>
       </c>
       <c r="K13" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L13" s="47">
         <v>0</v>
       </c>
       <c r="M13" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N13" s="47"/>
       <c r="O13" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P13" s="47">
         <v>0</v>
       </c>
       <c r="Q13" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R13" s="47">
         <v>1</v>
       </c>
       <c r="S13" s="47"/>
       <c r="T13" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U13" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V13" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W13" s="47">
         <v>0</v>
@@ -7884,7 +8026,7 @@
         <v>-1</v>
       </c>
       <c r="Z13" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA13" s="47">
         <v>0</v>
@@ -7902,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="AF13" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG13" s="55">
         <v>0</v>
@@ -7923,27 +8065,36 @@
         <v>0</v>
       </c>
       <c r="AM13" s="47"/>
-      <c r="AN13" s="47">
+      <c r="AN13">
+        <v>-1</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ13" s="47">
         <v>0.5</v>
       </c>
-      <c r="AO13" s="62"/>
-      <c r="AP13" s="62"/>
-      <c r="AQ13" s="54"/>
-    </row>
-    <row r="14" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AR13" s="62"/>
+      <c r="AS13" s="62"/>
+      <c r="AT13" s="54"/>
+    </row>
+    <row r="14" spans="1:46" ht="15.75" thickBot="1">
       <c r="A14" s="47"/>
       <c r="B14" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>332</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>171</v>
-      </c>
       <c r="F14" s="60">
         <v>0</v>
       </c>
@@ -7954,40 +8105,40 @@
         <v>0</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J14" s="47">
         <v>0</v>
       </c>
       <c r="K14" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L14" s="47"/>
       <c r="M14" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N14" s="47"/>
       <c r="O14" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P14" s="47">
         <v>0</v>
       </c>
       <c r="Q14" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R14" s="47">
         <v>1</v>
       </c>
       <c r="S14" s="47"/>
       <c r="T14" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U14" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V14" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W14" s="47">
         <v>0</v>
@@ -7999,7 +8150,7 @@
         <v>-1</v>
       </c>
       <c r="Z14" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA14" s="47">
         <v>0</v>
@@ -8017,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG14" s="55">
         <v>0</v>
@@ -8038,26 +8189,35 @@
         <v>0</v>
       </c>
       <c r="AM14" s="47"/>
-      <c r="AN14" s="47">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="62"/>
-      <c r="AP14" s="62"/>
-      <c r="AQ14" s="54"/>
-    </row>
-    <row r="15" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN14">
+        <v>-1</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ14" s="47">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="62"/>
+      <c r="AS14" s="62"/>
+      <c r="AT14" s="54"/>
+    </row>
+    <row r="15" spans="1:46" ht="15.75" thickBot="1">
       <c r="A15" s="47"/>
       <c r="B15" s="57" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F15" s="60">
         <v>70</v>
@@ -8069,40 +8229,40 @@
         <v>0</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J15" s="47">
         <v>0</v>
       </c>
       <c r="K15" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L15" s="47"/>
       <c r="M15" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N15" s="47"/>
       <c r="O15" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P15" s="47">
         <v>0</v>
       </c>
       <c r="Q15" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R15" s="47">
         <v>1</v>
       </c>
       <c r="S15" s="47"/>
       <c r="T15" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U15" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V15" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W15" s="47">
         <v>0</v>
@@ -8114,7 +8274,7 @@
         <v>-1</v>
       </c>
       <c r="Z15" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA15" s="47">
         <v>0</v>
@@ -8132,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG15" s="55">
         <v>0</v>
@@ -8153,26 +8313,35 @@
         <v>0</v>
       </c>
       <c r="AM15" s="47"/>
-      <c r="AN15" s="47">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="62"/>
-      <c r="AP15" s="62"/>
-      <c r="AQ15" s="54"/>
-    </row>
-    <row r="16" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN15">
+        <v>-1</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="62"/>
+      <c r="AS15" s="62"/>
+      <c r="AT15" s="54"/>
+    </row>
+    <row r="16" spans="1:46" ht="15.75" thickBot="1">
       <c r="A16" s="47"/>
       <c r="B16" s="57" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F16" s="60">
         <v>100</v>
@@ -8184,40 +8353,40 @@
         <v>0</v>
       </c>
       <c r="I16" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J16" s="47">
         <v>0</v>
       </c>
       <c r="K16" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L16" s="47"/>
       <c r="M16" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N16" s="47"/>
       <c r="O16" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P16" s="47">
         <v>0</v>
       </c>
       <c r="Q16" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R16" s="47">
         <v>1</v>
       </c>
       <c r="S16" s="47"/>
       <c r="T16" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U16" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V16" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W16" s="47">
         <v>0</v>
@@ -8229,7 +8398,7 @@
         <v>-1</v>
       </c>
       <c r="Z16" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA16" s="47">
         <v>0</v>
@@ -8247,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG16" s="55">
         <v>0</v>
@@ -8268,26 +8437,35 @@
         <v>0</v>
       </c>
       <c r="AM16" s="47"/>
-      <c r="AN16" s="47">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="62"/>
-      <c r="AP16" s="62"/>
-      <c r="AQ16" s="54"/>
-    </row>
-    <row r="17" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN16">
+        <v>-1</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="62"/>
+      <c r="AS16" s="62"/>
+      <c r="AT16" s="54"/>
+    </row>
+    <row r="17" spans="1:46" ht="15.75" thickBot="1">
       <c r="A17" s="47"/>
       <c r="B17" s="57" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F17" s="60">
         <v>90</v>
@@ -8299,40 +8477,40 @@
         <v>0</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J17" s="47">
         <v>0</v>
       </c>
       <c r="K17" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L17" s="47"/>
       <c r="M17" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N17" s="47"/>
       <c r="O17" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P17" s="47">
         <v>0</v>
       </c>
       <c r="Q17" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R17" s="47">
         <v>1</v>
       </c>
       <c r="S17" s="47"/>
       <c r="T17" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U17" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V17" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W17" s="47">
         <v>0</v>
@@ -8344,7 +8522,7 @@
         <v>-1</v>
       </c>
       <c r="Z17" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA17" s="47">
         <v>0</v>
@@ -8362,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="AF17" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG17" s="55">
         <v>0</v>
@@ -8383,30 +8561,39 @@
         <v>0</v>
       </c>
       <c r="AM17" s="47"/>
-      <c r="AN17" s="47">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="62">
+      <c r="AN17">
+        <v>-1</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="62">
         <v>0.5</v>
       </c>
-      <c r="AP17" s="62"/>
-      <c r="AQ17" s="54">
+      <c r="AS17" s="62"/>
+      <c r="AT17" s="54">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:43" ht="15.75" thickBot="1">
+    <row r="18" spans="1:46" ht="15.75" thickBot="1">
       <c r="A18" s="47"/>
       <c r="B18" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>178</v>
-      </c>
       <c r="E18" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F18" s="60">
         <v>110</v>
@@ -8418,40 +8605,40 @@
         <v>0</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J18" s="47">
         <v>0</v>
       </c>
       <c r="K18" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L18" s="47"/>
       <c r="M18" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N18" s="47"/>
       <c r="O18" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P18" s="47">
         <v>0</v>
       </c>
       <c r="Q18" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R18" s="47">
         <v>1</v>
       </c>
       <c r="S18" s="47"/>
       <c r="T18" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U18" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V18" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W18" s="47">
         <v>0</v>
@@ -8463,7 +8650,7 @@
         <v>-1</v>
       </c>
       <c r="Z18" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA18" s="47">
         <v>0</v>
@@ -8481,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="AF18" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG18" s="55">
         <v>0</v>
@@ -8502,28 +8689,37 @@
         <v>0</v>
       </c>
       <c r="AM18" s="47"/>
-      <c r="AN18" s="47">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="62"/>
-      <c r="AP18" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="AQ18" s="54"/>
-    </row>
-    <row r="19" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN18">
+        <v>-1</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ18" s="47">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="62"/>
+      <c r="AS18" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT18" s="54"/>
+    </row>
+    <row r="19" spans="1:46" ht="15.75" thickBot="1">
       <c r="A19" s="47"/>
       <c r="B19" s="57" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F19" s="60">
         <v>60</v>
@@ -8535,40 +8731,40 @@
         <v>0</v>
       </c>
       <c r="I19" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J19" s="47">
         <v>0</v>
       </c>
       <c r="K19" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L19" s="47"/>
       <c r="M19" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N19" s="47"/>
       <c r="O19" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P19" s="47">
         <v>0</v>
       </c>
       <c r="Q19" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R19" s="47">
         <v>1</v>
       </c>
       <c r="S19" s="47"/>
       <c r="T19" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U19" s="47" t="b">
         <v>1</v>
       </c>
       <c r="V19" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W19" s="47">
         <v>0</v>
@@ -8580,7 +8776,7 @@
         <v>-1</v>
       </c>
       <c r="Z19" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA19" s="47">
         <v>0</v>
@@ -8598,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG19" s="55">
         <v>0</v>
@@ -8619,24 +8815,33 @@
         <v>0</v>
       </c>
       <c r="AM19" s="47"/>
-      <c r="AN19" s="47"/>
-      <c r="AO19" s="62"/>
-      <c r="AP19" s="62"/>
-      <c r="AQ19" s="54"/>
-    </row>
-    <row r="20" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN19">
+        <v>-1</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="62"/>
+      <c r="AS19" s="62"/>
+      <c r="AT19" s="54"/>
+    </row>
+    <row r="20" spans="1:46" ht="15.75" thickBot="1">
       <c r="A20" s="47"/>
       <c r="B20" s="57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F20" s="60">
         <v>120</v>
@@ -8648,40 +8853,40 @@
         <v>0</v>
       </c>
       <c r="I20" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J20" s="47">
         <v>0</v>
       </c>
       <c r="K20" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L20" s="47"/>
       <c r="M20" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N20" s="47"/>
       <c r="O20" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P20" s="47">
         <v>0</v>
       </c>
       <c r="Q20" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R20" s="47">
         <v>0.6</v>
       </c>
       <c r="S20" s="47"/>
       <c r="T20" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U20" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V20" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W20" s="47">
         <v>0</v>
@@ -8693,7 +8898,7 @@
         <v>-1</v>
       </c>
       <c r="Z20" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA20" s="47">
         <v>0</v>
@@ -8711,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG20" s="55">
         <v>0</v>
@@ -8732,24 +8937,33 @@
         <v>0</v>
       </c>
       <c r="AM20" s="47"/>
-      <c r="AN20" s="47"/>
-      <c r="AO20" s="62"/>
-      <c r="AP20" s="62"/>
-      <c r="AQ20" s="54"/>
-    </row>
-    <row r="21" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN20">
+        <v>-1</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ20" s="47"/>
+      <c r="AR20" s="62"/>
+      <c r="AS20" s="62"/>
+      <c r="AT20" s="54"/>
+    </row>
+    <row r="21" spans="1:46" ht="15.75" thickBot="1">
       <c r="A21" s="47"/>
       <c r="B21" s="57" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F21" s="60">
         <v>50</v>
@@ -8761,40 +8975,40 @@
         <v>0</v>
       </c>
       <c r="I21" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J21" s="47">
         <v>0</v>
       </c>
       <c r="K21" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L21" s="47"/>
       <c r="M21" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N21" s="47"/>
       <c r="O21" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P21" s="47">
         <v>0</v>
       </c>
       <c r="Q21" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R21" s="47">
         <v>1</v>
       </c>
       <c r="S21" s="47"/>
       <c r="T21" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U21" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V21" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W21" s="47">
         <v>0</v>
@@ -8806,7 +9020,7 @@
         <v>-1</v>
       </c>
       <c r="Z21" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA21" s="47">
         <v>0</v>
@@ -8824,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG21" s="55">
         <v>0</v>
@@ -8845,24 +9059,33 @@
         <v>0</v>
       </c>
       <c r="AM21" s="47"/>
-      <c r="AN21" s="47"/>
-      <c r="AO21" s="62"/>
-      <c r="AP21" s="62"/>
-      <c r="AQ21" s="54"/>
-    </row>
-    <row r="22" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN21">
+        <v>-1</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ21" s="47"/>
+      <c r="AR21" s="62"/>
+      <c r="AS21" s="62"/>
+      <c r="AT21" s="54"/>
+    </row>
+    <row r="22" spans="1:46" ht="15.75" thickBot="1">
       <c r="A22" s="47"/>
       <c r="B22" s="57" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F22" s="60">
         <v>30</v>
@@ -8874,42 +9097,42 @@
         <v>0</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J22" s="47">
         <v>0</v>
       </c>
       <c r="K22" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L22" s="47"/>
       <c r="M22" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N22" s="47"/>
       <c r="O22" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P22" s="47">
         <v>0</v>
       </c>
       <c r="Q22" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R22" s="47">
         <v>1</v>
       </c>
       <c r="S22" s="47" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="T22" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U22" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V22" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W22" s="47">
         <v>0</v>
@@ -8921,7 +9144,7 @@
         <v>-1</v>
       </c>
       <c r="Z22" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA22" s="47">
         <v>0</v>
@@ -8939,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG22" s="55">
         <v>0</v>
@@ -8960,24 +9183,33 @@
         <v>0</v>
       </c>
       <c r="AM22" s="47"/>
-      <c r="AN22" s="47"/>
-      <c r="AO22" s="62"/>
-      <c r="AP22" s="62"/>
-      <c r="AQ22" s="54"/>
-    </row>
-    <row r="23" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN22">
+        <v>-1</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ22" s="47"/>
+      <c r="AR22" s="62"/>
+      <c r="AS22" s="62"/>
+      <c r="AT22" s="54"/>
+    </row>
+    <row r="23" spans="1:46" ht="15.75" thickBot="1">
       <c r="A23" s="47"/>
       <c r="B23" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F23" s="60">
         <v>80</v>
@@ -8989,40 +9221,40 @@
         <v>0</v>
       </c>
       <c r="I23" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J23" s="47">
         <v>0</v>
       </c>
       <c r="K23" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L23" s="47"/>
       <c r="M23" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N23" s="47"/>
       <c r="O23" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P23" s="47">
         <v>0</v>
       </c>
       <c r="Q23" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R23" s="47">
         <v>1</v>
       </c>
       <c r="S23" s="47"/>
       <c r="T23" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U23" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V23" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W23" s="47">
         <v>0</v>
@@ -9034,7 +9266,7 @@
         <v>-1</v>
       </c>
       <c r="Z23" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA23" s="47">
         <v>0</v>
@@ -9052,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="AF23" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG23" s="55">
         <v>0</v>
@@ -9073,24 +9305,33 @@
         <v>0</v>
       </c>
       <c r="AM23" s="47"/>
-      <c r="AN23" s="47"/>
-      <c r="AO23" s="62"/>
-      <c r="AP23" s="62"/>
-      <c r="AQ23" s="54"/>
-    </row>
-    <row r="24" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN23">
+        <v>-1</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ23" s="47"/>
+      <c r="AR23" s="62"/>
+      <c r="AS23" s="62"/>
+      <c r="AT23" s="54"/>
+    </row>
+    <row r="24" spans="1:46" ht="15.75" thickBot="1">
       <c r="A24" s="47"/>
       <c r="B24" s="57" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D24" s="59" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F24" s="60">
         <v>60</v>
@@ -9102,38 +9343,38 @@
         <v>0</v>
       </c>
       <c r="I24" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J24" s="47">
         <v>0</v>
       </c>
       <c r="K24" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L24" s="47"/>
       <c r="M24" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N24" s="47"/>
       <c r="O24" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P24" s="47"/>
       <c r="Q24" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R24" s="47">
         <v>1</v>
       </c>
       <c r="S24" s="47"/>
       <c r="T24" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U24" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V24" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W24" s="47">
         <v>0</v>
@@ -9145,7 +9386,7 @@
         <v>-1</v>
       </c>
       <c r="Z24" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA24" s="47">
         <v>0</v>
@@ -9163,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG24" s="55">
         <v>0</v>
@@ -9184,24 +9425,33 @@
         <v>0</v>
       </c>
       <c r="AM24" s="47"/>
-      <c r="AN24" s="47"/>
-      <c r="AO24" s="62"/>
-      <c r="AP24" s="62"/>
-      <c r="AQ24" s="54"/>
-    </row>
-    <row r="25" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN24">
+        <v>-1</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ24" s="47"/>
+      <c r="AR24" s="62"/>
+      <c r="AS24" s="62"/>
+      <c r="AT24" s="54"/>
+    </row>
+    <row r="25" spans="1:46" ht="15.75" thickBot="1">
       <c r="A25" s="47"/>
       <c r="B25" s="57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C25" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="D25" s="59" t="s">
-        <v>190</v>
-      </c>
       <c r="E25" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F25" s="60">
         <v>90</v>
@@ -9213,38 +9463,38 @@
         <v>0</v>
       </c>
       <c r="I25" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J25" s="47">
         <v>0</v>
       </c>
       <c r="K25" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L25" s="47"/>
       <c r="M25" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N25" s="47"/>
       <c r="O25" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P25" s="47"/>
       <c r="Q25" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R25" s="47">
         <v>1</v>
       </c>
       <c r="S25" s="47"/>
       <c r="T25" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U25" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V25" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W25" s="47">
         <v>0</v>
@@ -9256,7 +9506,7 @@
         <v>-1</v>
       </c>
       <c r="Z25" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA25" s="47">
         <v>0</v>
@@ -9274,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="AF25" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG25" s="55">
         <v>0</v>
@@ -9295,24 +9545,33 @@
         <v>0</v>
       </c>
       <c r="AM25" s="47"/>
-      <c r="AN25" s="47"/>
-      <c r="AO25" s="62"/>
-      <c r="AP25" s="62"/>
-      <c r="AQ25" s="54"/>
-    </row>
-    <row r="26" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN25">
+        <v>-1</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ25" s="47"/>
+      <c r="AR25" s="62"/>
+      <c r="AS25" s="62"/>
+      <c r="AT25" s="54"/>
+    </row>
+    <row r="26" spans="1:46" ht="15.75" thickBot="1">
       <c r="A26" s="63"/>
       <c r="B26" s="57" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D26" s="59" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F26" s="60">
         <v>0</v>
@@ -9324,44 +9583,44 @@
         <v>0</v>
       </c>
       <c r="I26" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J26" s="47">
         <v>0</v>
       </c>
       <c r="K26" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L26" s="47">
         <v>3</v>
       </c>
       <c r="M26" s="47" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N26" s="47">
         <v>3</v>
       </c>
       <c r="O26" s="47" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P26" s="47">
         <v>0</v>
       </c>
       <c r="Q26" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R26" s="47">
         <v>1</v>
       </c>
       <c r="S26" s="47"/>
       <c r="T26" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U26" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V26" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W26" s="47">
         <v>0</v>
@@ -9373,7 +9632,7 @@
         <v>-1</v>
       </c>
       <c r="Z26" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA26" s="47">
         <v>0</v>
@@ -9391,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG26" s="55">
         <v>0</v>
@@ -9412,24 +9671,33 @@
         <v>0</v>
       </c>
       <c r="AM26" s="47"/>
-      <c r="AN26" s="47"/>
-      <c r="AO26" s="62"/>
-      <c r="AP26" s="62"/>
-      <c r="AQ26" s="54"/>
-    </row>
-    <row r="27" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN26">
+        <v>-1</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ26" s="47"/>
+      <c r="AR26" s="62"/>
+      <c r="AS26" s="62"/>
+      <c r="AT26" s="54"/>
+    </row>
+    <row r="27" spans="1:46" ht="15.75" thickBot="1">
       <c r="A27" s="47"/>
       <c r="B27" s="57" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D27" s="59" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F27" s="60">
         <v>110</v>
@@ -9441,38 +9709,38 @@
         <v>0</v>
       </c>
       <c r="I27" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J27" s="47">
         <v>0</v>
       </c>
       <c r="K27" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L27" s="47"/>
       <c r="M27" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N27" s="47"/>
       <c r="O27" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P27" s="47"/>
       <c r="Q27" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R27" s="47">
         <v>1</v>
       </c>
       <c r="S27" s="47"/>
       <c r="T27" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U27" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V27" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W27" s="47">
         <v>0</v>
@@ -9484,7 +9752,7 @@
         <v>-1</v>
       </c>
       <c r="Z27" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA27" s="47">
         <v>0</v>
@@ -9502,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="AF27" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG27" s="55">
         <v>0</v>
@@ -9523,24 +9791,33 @@
         <v>0</v>
       </c>
       <c r="AM27" s="47"/>
-      <c r="AN27" s="47"/>
-      <c r="AO27" s="62"/>
-      <c r="AP27" s="62"/>
-      <c r="AQ27" s="54"/>
-    </row>
-    <row r="28" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN27">
+        <v>-1</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ27" s="47"/>
+      <c r="AR27" s="62"/>
+      <c r="AS27" s="62"/>
+      <c r="AT27" s="54"/>
+    </row>
+    <row r="28" spans="1:46" ht="15.75" thickBot="1">
       <c r="A28" s="47"/>
       <c r="B28" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="C28" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>197</v>
-      </c>
       <c r="E28" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F28" s="60">
         <v>70</v>
@@ -9552,38 +9829,38 @@
         <v>0</v>
       </c>
       <c r="I28" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J28" s="47">
         <v>0</v>
       </c>
       <c r="K28" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L28" s="47"/>
       <c r="M28" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N28" s="47"/>
       <c r="O28" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P28" s="47"/>
       <c r="Q28" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R28" s="47">
         <v>1</v>
       </c>
       <c r="S28" s="47"/>
       <c r="T28" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U28" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V28" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W28" s="47">
         <v>0</v>
@@ -9595,7 +9872,7 @@
         <v>-1</v>
       </c>
       <c r="Z28" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA28" s="47">
         <v>0</v>
@@ -9613,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="AF28" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG28" s="55">
         <v>0</v>
@@ -9634,24 +9911,33 @@
         <v>0</v>
       </c>
       <c r="AM28" s="47"/>
-      <c r="AN28" s="47"/>
-      <c r="AO28" s="62"/>
-      <c r="AP28" s="62"/>
-      <c r="AQ28" s="54"/>
-    </row>
-    <row r="29" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN28">
+        <v>-1</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ28" s="47"/>
+      <c r="AR28" s="62"/>
+      <c r="AS28" s="62"/>
+      <c r="AT28" s="54"/>
+    </row>
+    <row r="29" spans="1:46" ht="15.75" thickBot="1">
       <c r="A29" s="47"/>
       <c r="B29" s="57" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F29" s="60">
         <v>60</v>
@@ -9663,38 +9949,38 @@
         <v>0</v>
       </c>
       <c r="I29" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J29" s="47">
         <v>0</v>
       </c>
       <c r="K29" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L29" s="47"/>
       <c r="M29" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N29" s="47"/>
       <c r="O29" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P29" s="47"/>
       <c r="Q29" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R29" s="47">
         <v>1</v>
       </c>
       <c r="S29" s="47"/>
       <c r="T29" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U29" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V29" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W29" s="47">
         <v>0</v>
@@ -9706,7 +9992,7 @@
         <v>-1</v>
       </c>
       <c r="Z29" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA29" s="47">
         <v>0</v>
@@ -9724,7 +10010,7 @@
         <v>10</v>
       </c>
       <c r="AF29" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG29" s="55">
         <v>0</v>
@@ -9745,24 +10031,33 @@
         <v>0</v>
       </c>
       <c r="AM29" s="47"/>
-      <c r="AN29" s="47"/>
-      <c r="AO29" s="62"/>
-      <c r="AP29" s="62"/>
-      <c r="AQ29" s="54"/>
-    </row>
-    <row r="30" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN29">
+        <v>-1</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ29" s="47"/>
+      <c r="AR29" s="62"/>
+      <c r="AS29" s="62"/>
+      <c r="AT29" s="54"/>
+    </row>
+    <row r="30" spans="1:46" ht="15.75" thickBot="1">
       <c r="A30" s="47"/>
       <c r="B30" s="57" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D30" s="59" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F30" s="60">
         <v>60</v>
@@ -9774,38 +10069,38 @@
         <v>0</v>
       </c>
       <c r="I30" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J30" s="47">
         <v>0</v>
       </c>
       <c r="K30" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L30" s="47"/>
       <c r="M30" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N30" s="47"/>
       <c r="O30" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P30" s="47"/>
       <c r="Q30" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R30" s="47">
         <v>1</v>
       </c>
       <c r="S30" s="47"/>
       <c r="T30" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U30" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V30" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W30" s="47">
         <v>0</v>
@@ -9817,7 +10112,7 @@
         <v>-1</v>
       </c>
       <c r="Z30" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA30" s="47">
         <v>0</v>
@@ -9835,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG30" s="55">
         <v>0</v>
@@ -9856,24 +10151,33 @@
         <v>0</v>
       </c>
       <c r="AM30" s="47"/>
-      <c r="AN30" s="47"/>
-      <c r="AO30" s="62"/>
-      <c r="AP30" s="62"/>
-      <c r="AQ30" s="54"/>
-    </row>
-    <row r="31" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN30">
+        <v>-1</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ30" s="47"/>
+      <c r="AR30" s="62"/>
+      <c r="AS30" s="62"/>
+      <c r="AT30" s="54"/>
+    </row>
+    <row r="31" spans="1:46" ht="15.75" thickBot="1">
       <c r="A31" s="64"/>
       <c r="B31" s="57" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D31" s="59" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F31" s="60">
         <v>0</v>
@@ -9885,40 +10189,40 @@
         <v>0</v>
       </c>
       <c r="I31" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J31" s="47">
         <v>0</v>
       </c>
       <c r="K31" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L31" s="47"/>
       <c r="M31" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N31" s="47"/>
       <c r="O31" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P31" s="47">
         <v>1</v>
       </c>
       <c r="Q31" s="47" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R31" s="47">
         <v>1</v>
       </c>
       <c r="S31" s="47"/>
       <c r="T31" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U31" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V31" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W31" s="47">
         <v>0</v>
@@ -9930,7 +10234,7 @@
         <v>-1</v>
       </c>
       <c r="Z31" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA31" s="47">
         <v>0</v>
@@ -9948,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG31" s="55">
         <v>0</v>
@@ -9969,24 +10273,33 @@
         <v>0</v>
       </c>
       <c r="AM31" s="47"/>
-      <c r="AN31" s="47"/>
-      <c r="AO31" s="62"/>
-      <c r="AP31" s="62"/>
-      <c r="AQ31" s="54"/>
-    </row>
-    <row r="32" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN31">
+        <v>-1</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ31" s="47"/>
+      <c r="AR31" s="62"/>
+      <c r="AS31" s="62"/>
+      <c r="AT31" s="54"/>
+    </row>
+    <row r="32" spans="1:46" ht="15.75" thickBot="1">
       <c r="A32" s="47"/>
       <c r="B32" s="57" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F32" s="60">
         <v>50</v>
@@ -9998,38 +10311,38 @@
         <v>0</v>
       </c>
       <c r="I32" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J32" s="47">
         <v>0</v>
       </c>
       <c r="K32" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L32" s="47"/>
       <c r="M32" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N32" s="47"/>
       <c r="O32" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P32" s="47"/>
       <c r="Q32" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R32" s="47">
         <v>1</v>
       </c>
       <c r="S32" s="47"/>
       <c r="T32" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U32" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V32" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W32" s="47">
         <v>0</v>
@@ -10041,7 +10354,7 @@
         <v>-1</v>
       </c>
       <c r="Z32" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA32" s="47">
         <v>0</v>
@@ -10059,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AF32" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG32" s="55">
         <v>0</v>
@@ -10080,24 +10393,33 @@
         <v>0</v>
       </c>
       <c r="AM32" s="47"/>
-      <c r="AN32" s="47"/>
-      <c r="AO32" s="62"/>
-      <c r="AP32" s="62"/>
-      <c r="AQ32" s="54"/>
-    </row>
-    <row r="33" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN32">
+        <v>-1</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ32" s="47"/>
+      <c r="AR32" s="62"/>
+      <c r="AS32" s="62"/>
+      <c r="AT32" s="54"/>
+    </row>
+    <row r="33" spans="1:46" ht="15.75" thickBot="1">
       <c r="A33" s="47"/>
       <c r="B33" s="57" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F33" s="60">
         <v>20</v>
@@ -10109,40 +10431,40 @@
         <v>0</v>
       </c>
       <c r="I33" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J33" s="47">
         <v>0</v>
       </c>
       <c r="K33" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L33" s="47"/>
       <c r="M33" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N33" s="47"/>
       <c r="O33" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P33" s="47"/>
       <c r="Q33" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R33" s="47">
         <v>1</v>
       </c>
       <c r="S33" s="47" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="T33" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U33" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V33" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W33" s="47">
         <v>0</v>
@@ -10154,7 +10476,7 @@
         <v>-1</v>
       </c>
       <c r="Z33" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA33" s="47">
         <v>0</v>
@@ -10172,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG33" s="55">
         <v>0</v>
@@ -10193,24 +10515,33 @@
         <v>0</v>
       </c>
       <c r="AM33" s="47"/>
-      <c r="AN33" s="47"/>
-      <c r="AO33" s="62"/>
-      <c r="AP33" s="62"/>
-      <c r="AQ33" s="54"/>
-    </row>
-    <row r="34" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN33">
+        <v>-1</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ33" s="47"/>
+      <c r="AR33" s="62"/>
+      <c r="AS33" s="62"/>
+      <c r="AT33" s="54"/>
+    </row>
+    <row r="34" spans="1:46" ht="15.75" thickBot="1">
       <c r="A34" s="64"/>
       <c r="B34" s="57" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D34" s="59" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F34" s="60">
         <v>0</v>
@@ -10222,38 +10553,38 @@
         <v>0</v>
       </c>
       <c r="I34" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J34" s="47">
         <v>0</v>
       </c>
       <c r="K34" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L34" s="47"/>
       <c r="M34" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N34" s="47"/>
       <c r="O34" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P34" s="47">
         <v>1</v>
       </c>
       <c r="Q34" s="47" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R34" s="47"/>
       <c r="S34" s="47"/>
       <c r="T34" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U34" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V34" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W34" s="47">
         <v>0</v>
@@ -10265,7 +10596,7 @@
         <v>-1</v>
       </c>
       <c r="Z34" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA34" s="47">
         <v>0</v>
@@ -10283,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG34" s="55">
         <v>0</v>
@@ -10304,24 +10635,33 @@
         <v>0</v>
       </c>
       <c r="AM34" s="47"/>
-      <c r="AN34" s="47"/>
-      <c r="AO34" s="62"/>
-      <c r="AP34" s="62"/>
-      <c r="AQ34" s="54"/>
-    </row>
-    <row r="35" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN34">
+        <v>-1</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ34" s="47"/>
+      <c r="AR34" s="62"/>
+      <c r="AS34" s="62"/>
+      <c r="AT34" s="54"/>
+    </row>
+    <row r="35" spans="1:46" ht="15.75" thickBot="1">
       <c r="A35" s="64"/>
       <c r="B35" s="57" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D35" s="59" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F35" s="60">
         <v>0</v>
@@ -10333,38 +10673,38 @@
         <v>0</v>
       </c>
       <c r="I35" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J35" s="47">
         <v>0</v>
       </c>
       <c r="K35" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L35" s="47"/>
       <c r="M35" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N35" s="47"/>
       <c r="O35" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P35" s="47">
         <v>1</v>
       </c>
       <c r="Q35" s="47" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R35" s="47"/>
       <c r="S35" s="47"/>
       <c r="T35" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U35" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V35" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W35" s="47">
         <v>0</v>
@@ -10376,7 +10716,7 @@
         <v>-1</v>
       </c>
       <c r="Z35" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA35" s="47">
         <v>0</v>
@@ -10394,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="AF35" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG35" s="55">
         <v>0</v>
@@ -10415,24 +10755,33 @@
         <v>0</v>
       </c>
       <c r="AM35" s="47"/>
-      <c r="AN35" s="47"/>
-      <c r="AO35" s="62"/>
-      <c r="AP35" s="62"/>
-      <c r="AQ35" s="54"/>
-    </row>
-    <row r="36" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN35">
+        <v>-1</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ35" s="47"/>
+      <c r="AR35" s="62"/>
+      <c r="AS35" s="62"/>
+      <c r="AT35" s="54"/>
+    </row>
+    <row r="36" spans="1:46" ht="15.75" thickBot="1">
       <c r="A36" s="64"/>
       <c r="B36" s="57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D36" s="59" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F36" s="60">
         <v>0</v>
@@ -10444,38 +10793,38 @@
         <v>0</v>
       </c>
       <c r="I36" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J36" s="47">
         <v>0</v>
       </c>
       <c r="K36" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L36" s="47"/>
       <c r="M36" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N36" s="47"/>
       <c r="O36" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P36" s="47">
         <v>1</v>
       </c>
       <c r="Q36" s="47" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R36" s="47"/>
       <c r="S36" s="47"/>
       <c r="T36" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U36" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V36" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W36" s="47">
         <v>0</v>
@@ -10487,7 +10836,7 @@
         <v>-1</v>
       </c>
       <c r="Z36" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA36" s="47">
         <v>0</v>
@@ -10505,7 +10854,7 @@
         <v>0</v>
       </c>
       <c r="AF36" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG36" s="55">
         <v>0</v>
@@ -10526,24 +10875,33 @@
         <v>0</v>
       </c>
       <c r="AM36" s="47"/>
-      <c r="AN36" s="47"/>
-      <c r="AO36" s="62"/>
-      <c r="AP36" s="62"/>
-      <c r="AQ36" s="54"/>
-    </row>
-    <row r="37" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN36">
+        <v>-1</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ36" s="47"/>
+      <c r="AR36" s="62"/>
+      <c r="AS36" s="62"/>
+      <c r="AT36" s="54"/>
+    </row>
+    <row r="37" spans="1:46" ht="15.75" thickBot="1">
       <c r="A37" s="47"/>
       <c r="B37" s="57" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D37" s="59" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F37" s="60">
         <v>0</v>
@@ -10555,36 +10913,36 @@
         <v>0</v>
       </c>
       <c r="I37" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J37" s="47">
         <v>0</v>
       </c>
       <c r="K37" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L37" s="47"/>
       <c r="M37" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N37" s="47"/>
       <c r="O37" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P37" s="47"/>
       <c r="Q37" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R37" s="47"/>
       <c r="S37" s="47"/>
       <c r="T37" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U37" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V37" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W37" s="47">
         <v>0</v>
@@ -10596,7 +10954,7 @@
         <v>-1</v>
       </c>
       <c r="Z37" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA37" s="47">
         <v>0</v>
@@ -10614,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="AF37" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG37" s="48">
         <v>100</v>
@@ -10635,24 +10993,33 @@
         <v>0</v>
       </c>
       <c r="AM37" s="47"/>
-      <c r="AN37" s="47"/>
-      <c r="AO37" s="62"/>
-      <c r="AP37" s="62"/>
-      <c r="AQ37" s="54"/>
-    </row>
-    <row r="38" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN37">
+        <v>-1</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ37" s="47"/>
+      <c r="AR37" s="62"/>
+      <c r="AS37" s="62"/>
+      <c r="AT37" s="54"/>
+    </row>
+    <row r="38" spans="1:46" ht="15.75" thickBot="1">
       <c r="A38" s="64"/>
       <c r="B38" s="57" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D38" s="59" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F38" s="60">
         <v>0</v>
@@ -10664,38 +11031,38 @@
         <v>0</v>
       </c>
       <c r="I38" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J38" s="47">
         <v>0</v>
       </c>
       <c r="K38" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L38" s="47"/>
       <c r="M38" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N38" s="47"/>
       <c r="O38" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P38" s="65">
         <v>1</v>
       </c>
       <c r="Q38" s="55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R38" s="47"/>
       <c r="S38" s="47"/>
       <c r="T38" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U38" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V38" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W38" s="47">
         <v>0</v>
@@ -10707,7 +11074,7 @@
         <v>-1</v>
       </c>
       <c r="Z38" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA38" s="47">
         <v>0</v>
@@ -10725,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="AF38" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG38" s="55">
         <v>0</v>
@@ -10746,24 +11113,33 @@
         <v>0</v>
       </c>
       <c r="AM38" s="47"/>
-      <c r="AN38" s="47"/>
-      <c r="AO38" s="62"/>
-      <c r="AP38" s="62"/>
-      <c r="AQ38" s="54"/>
-    </row>
-    <row r="39" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN38">
+        <v>-1</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ38" s="47"/>
+      <c r="AR38" s="62"/>
+      <c r="AS38" s="62"/>
+      <c r="AT38" s="54"/>
+    </row>
+    <row r="39" spans="1:46" ht="15.75" thickBot="1">
       <c r="A39" s="64"/>
       <c r="B39" s="57" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D39" s="59" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F39" s="60">
         <v>0</v>
@@ -10775,34 +11151,34 @@
         <v>0</v>
       </c>
       <c r="I39" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J39" s="47">
         <v>0</v>
       </c>
       <c r="K39" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L39" s="47"/>
       <c r="M39" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N39" s="47"/>
       <c r="O39" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P39" s="47"/>
       <c r="Q39" s="47"/>
       <c r="R39" s="47"/>
       <c r="S39" s="47"/>
       <c r="T39" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U39" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V39" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W39" s="47">
         <v>0</v>
@@ -10814,7 +11190,7 @@
         <v>-1</v>
       </c>
       <c r="Z39" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA39" s="47">
         <v>0</v>
@@ -10832,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="AF39" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG39" s="55">
         <v>0</v>
@@ -10853,24 +11229,33 @@
         <v>0</v>
       </c>
       <c r="AM39" s="47"/>
-      <c r="AN39" s="47"/>
-      <c r="AO39" s="62"/>
-      <c r="AP39" s="62"/>
-      <c r="AQ39" s="54"/>
-    </row>
-    <row r="40" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN39">
+        <v>-1</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ39" s="47"/>
+      <c r="AR39" s="62"/>
+      <c r="AS39" s="62"/>
+      <c r="AT39" s="54"/>
+    </row>
+    <row r="40" spans="1:46" ht="15.75" thickBot="1">
       <c r="A40" s="47"/>
       <c r="B40" s="57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D40" s="59" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F40" s="60">
         <v>0</v>
@@ -10882,34 +11267,34 @@
         <v>0</v>
       </c>
       <c r="I40" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J40" s="47">
         <v>0</v>
       </c>
       <c r="K40" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L40" s="47"/>
       <c r="M40" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N40" s="47"/>
       <c r="O40" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P40" s="47"/>
       <c r="Q40" s="47"/>
       <c r="R40" s="47"/>
       <c r="S40" s="47"/>
       <c r="T40" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U40" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V40" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W40" s="47">
         <v>0</v>
@@ -10921,7 +11306,7 @@
         <v>-1</v>
       </c>
       <c r="Z40" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA40" s="47">
         <v>0</v>
@@ -10939,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="AF40" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG40" s="55">
         <v>0</v>
@@ -10960,24 +11345,33 @@
         <v>0</v>
       </c>
       <c r="AM40" s="47"/>
-      <c r="AN40" s="47"/>
-      <c r="AO40" s="62"/>
-      <c r="AP40" s="62"/>
-      <c r="AQ40" s="54"/>
-    </row>
-    <row r="41" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN40">
+        <v>-1</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ40" s="47"/>
+      <c r="AR40" s="62"/>
+      <c r="AS40" s="62"/>
+      <c r="AT40" s="54"/>
+    </row>
+    <row r="41" spans="1:46" ht="15.75" thickBot="1">
       <c r="A41" s="64"/>
       <c r="B41" s="57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C41" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D41" s="59" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F41" s="60">
         <v>0</v>
@@ -10989,38 +11383,38 @@
         <v>0</v>
       </c>
       <c r="I41" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J41" s="47">
         <v>0</v>
       </c>
       <c r="K41" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L41" s="47"/>
       <c r="M41" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N41" s="47"/>
       <c r="O41" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P41" s="47">
         <v>1</v>
       </c>
       <c r="Q41" s="47" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="R41" s="47"/>
       <c r="S41" s="47"/>
       <c r="T41" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U41" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V41" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W41" s="47">
         <v>0</v>
@@ -11032,7 +11426,7 @@
         <v>-1</v>
       </c>
       <c r="Z41" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA41" s="47">
         <v>0</v>
@@ -11050,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG41" s="55">
         <v>0</v>
@@ -11071,24 +11465,33 @@
         <v>0</v>
       </c>
       <c r="AM41" s="47"/>
-      <c r="AN41" s="47"/>
-      <c r="AO41" s="62"/>
-      <c r="AP41" s="62"/>
-      <c r="AQ41" s="54"/>
-    </row>
-    <row r="42" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN41">
+        <v>-1</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ41" s="47"/>
+      <c r="AR41" s="62"/>
+      <c r="AS41" s="62"/>
+      <c r="AT41" s="54"/>
+    </row>
+    <row r="42" spans="1:46" ht="15.75" thickBot="1">
       <c r="A42" s="63"/>
       <c r="B42" s="57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D42" s="59" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F42" s="60">
         <v>0</v>
@@ -11100,38 +11503,38 @@
         <v>0</v>
       </c>
       <c r="I42" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J42" s="47">
         <v>0</v>
       </c>
       <c r="K42" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L42" s="48">
         <v>1</v>
       </c>
       <c r="M42" s="57" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N42" s="48">
         <v>1</v>
       </c>
       <c r="O42" s="57" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P42" s="47"/>
       <c r="Q42" s="57"/>
       <c r="R42" s="47"/>
       <c r="S42" s="47"/>
       <c r="T42" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U42" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V42" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W42" s="47">
         <v>0</v>
@@ -11143,7 +11546,7 @@
         <v>-1</v>
       </c>
       <c r="Z42" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA42" s="47">
         <v>0</v>
@@ -11161,7 +11564,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG42" s="55">
         <v>50</v>
@@ -11182,24 +11585,33 @@
         <v>0</v>
       </c>
       <c r="AM42" s="47"/>
-      <c r="AN42" s="47"/>
-      <c r="AO42" s="62"/>
-      <c r="AP42" s="62"/>
-      <c r="AQ42" s="54"/>
-    </row>
-    <row r="43" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN42">
+        <v>-1</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ42" s="47"/>
+      <c r="AR42" s="62"/>
+      <c r="AS42" s="62"/>
+      <c r="AT42" s="54"/>
+    </row>
+    <row r="43" spans="1:46" ht="15.75" thickBot="1">
       <c r="A43" s="64"/>
       <c r="B43" s="57" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D43" s="59" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F43" s="60">
         <v>0</v>
@@ -11211,38 +11623,38 @@
         <v>0</v>
       </c>
       <c r="I43" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J43" s="47">
         <v>0</v>
       </c>
       <c r="K43" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L43" s="47"/>
       <c r="M43" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N43" s="47"/>
       <c r="O43" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P43" s="47">
         <v>1</v>
       </c>
       <c r="Q43" s="47" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="R43" s="47"/>
       <c r="S43" s="47"/>
       <c r="T43" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U43" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V43" s="47" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="W43" s="47">
         <v>1</v>
@@ -11254,7 +11666,7 @@
         <v>-1</v>
       </c>
       <c r="Z43" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA43" s="47">
         <v>0</v>
@@ -11272,7 +11684,7 @@
         <v>0</v>
       </c>
       <c r="AF43" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG43" s="55">
         <v>0</v>
@@ -11293,24 +11705,33 @@
         <v>0</v>
       </c>
       <c r="AM43" s="47"/>
-      <c r="AN43" s="47"/>
-      <c r="AO43" s="62"/>
-      <c r="AP43" s="62"/>
-      <c r="AQ43" s="54"/>
-    </row>
-    <row r="44" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN43">
+        <v>-1</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ43" s="47"/>
+      <c r="AR43" s="62"/>
+      <c r="AS43" s="62"/>
+      <c r="AT43" s="54"/>
+    </row>
+    <row r="44" spans="1:46" ht="15.75" thickBot="1">
       <c r="A44" s="66"/>
       <c r="B44" s="57" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D44" s="59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E44" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F44" s="60">
         <v>0</v>
@@ -11322,38 +11743,38 @@
         <v>0</v>
       </c>
       <c r="I44" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J44" s="47">
         <v>0</v>
       </c>
       <c r="K44" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L44" s="47"/>
       <c r="M44" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N44" s="47"/>
       <c r="O44" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P44" s="47">
         <v>1</v>
       </c>
       <c r="Q44" s="62" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="R44" s="47"/>
       <c r="S44" s="47"/>
       <c r="T44" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U44" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V44" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W44" s="47">
         <v>0</v>
@@ -11365,7 +11786,7 @@
         <v>-1</v>
       </c>
       <c r="Z44" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA44" s="47">
         <v>0</v>
@@ -11383,7 +11804,7 @@
         <v>0</v>
       </c>
       <c r="AF44" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG44" s="55">
         <v>0</v>
@@ -11404,24 +11825,33 @@
         <v>0</v>
       </c>
       <c r="AM44" s="47"/>
-      <c r="AN44" s="47"/>
-      <c r="AO44" s="62"/>
-      <c r="AP44" s="62"/>
-      <c r="AQ44" s="54"/>
-    </row>
-    <row r="45" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN44">
+        <v>-1</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ44" s="47"/>
+      <c r="AR44" s="62"/>
+      <c r="AS44" s="62"/>
+      <c r="AT44" s="54"/>
+    </row>
+    <row r="45" spans="1:46" ht="15.75" thickBot="1">
       <c r="A45" s="64"/>
       <c r="B45" s="57" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D45" s="59" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E45" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F45" s="60">
         <v>0</v>
@@ -11433,34 +11863,34 @@
         <v>1</v>
       </c>
       <c r="I45" s="47" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J45" s="47">
         <v>1</v>
       </c>
       <c r="K45" s="62" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L45" s="47"/>
       <c r="M45" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N45" s="47"/>
       <c r="O45" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P45" s="47"/>
       <c r="Q45" s="47"/>
       <c r="R45" s="47"/>
       <c r="S45" s="47"/>
       <c r="T45" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U45" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V45" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W45" s="47">
         <v>0</v>
@@ -11472,7 +11902,7 @@
         <v>-1</v>
       </c>
       <c r="Z45" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA45" s="47">
         <v>0</v>
@@ -11490,7 +11920,7 @@
         <v>0</v>
       </c>
       <c r="AF45" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG45" s="55">
         <v>0</v>
@@ -11511,24 +11941,33 @@
         <v>0</v>
       </c>
       <c r="AM45" s="47"/>
-      <c r="AN45" s="47"/>
-      <c r="AO45" s="62"/>
-      <c r="AP45" s="62"/>
-      <c r="AQ45" s="54"/>
-    </row>
-    <row r="46" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN45">
+        <v>-1</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ45" s="47"/>
+      <c r="AR45" s="62"/>
+      <c r="AS45" s="62"/>
+      <c r="AT45" s="54"/>
+    </row>
+    <row r="46" spans="1:46" ht="15.75" thickBot="1">
       <c r="A46" s="64"/>
       <c r="B46" s="57" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D46" s="59" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E46" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F46" s="60">
         <v>0</v>
@@ -11540,34 +11979,34 @@
         <v>0</v>
       </c>
       <c r="I46" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J46" s="47">
         <v>0</v>
       </c>
       <c r="K46" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L46" s="47"/>
       <c r="M46" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N46" s="47"/>
       <c r="O46" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P46" s="47"/>
       <c r="Q46" s="47"/>
       <c r="R46" s="47"/>
       <c r="S46" s="47"/>
       <c r="T46" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U46" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V46" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W46" s="47">
         <v>0</v>
@@ -11579,7 +12018,7 @@
         <v>-1</v>
       </c>
       <c r="Z46" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA46" s="47">
         <v>0</v>
@@ -11597,7 +12036,7 @@
         <v>0</v>
       </c>
       <c r="AF46" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG46" s="55">
         <v>0</v>
@@ -11618,24 +12057,33 @@
         <v>0</v>
       </c>
       <c r="AM46" s="47"/>
-      <c r="AN46" s="47"/>
-      <c r="AO46" s="62"/>
-      <c r="AP46" s="62"/>
-      <c r="AQ46" s="54"/>
-    </row>
-    <row r="47" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN46">
+        <v>-1</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ46" s="47"/>
+      <c r="AR46" s="62"/>
+      <c r="AS46" s="62"/>
+      <c r="AT46" s="54"/>
+    </row>
+    <row r="47" spans="1:46" ht="15.75" thickBot="1">
       <c r="A47" s="47"/>
       <c r="B47" s="57" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D47" s="59" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E47" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F47" s="60">
         <v>0</v>
@@ -11647,34 +12095,34 @@
         <v>0</v>
       </c>
       <c r="I47" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J47" s="47">
         <v>0</v>
       </c>
       <c r="K47" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L47" s="47"/>
       <c r="M47" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N47" s="47"/>
       <c r="O47" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P47" s="47"/>
       <c r="Q47" s="47"/>
       <c r="R47" s="47"/>
       <c r="S47" s="47"/>
       <c r="T47" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U47" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V47" s="47" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="W47" s="47">
         <v>1</v>
@@ -11686,7 +12134,7 @@
         <v>5</v>
       </c>
       <c r="Z47" s="47" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AA47" s="47">
         <v>1</v>
@@ -11704,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="AF47" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG47" s="55">
         <v>0</v>
@@ -11725,24 +12173,33 @@
         <v>0</v>
       </c>
       <c r="AM47" s="47"/>
-      <c r="AN47" s="47"/>
-      <c r="AO47" s="62"/>
-      <c r="AP47" s="62"/>
-      <c r="AQ47" s="54"/>
-    </row>
-    <row r="48" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN47">
+        <v>-1</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ47" s="47"/>
+      <c r="AR47" s="62"/>
+      <c r="AS47" s="62"/>
+      <c r="AT47" s="54"/>
+    </row>
+    <row r="48" spans="1:46" ht="15.75" thickBot="1">
       <c r="A48" s="64"/>
       <c r="B48" s="57" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C48" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D48" s="59" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F48" s="60">
         <v>0</v>
@@ -11754,34 +12211,34 @@
         <v>0</v>
       </c>
       <c r="I48" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J48" s="47">
         <v>0</v>
       </c>
       <c r="K48" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L48" s="47"/>
       <c r="M48" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N48" s="47"/>
       <c r="O48" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P48" s="47"/>
       <c r="Q48" s="47"/>
       <c r="R48" s="47"/>
       <c r="S48" s="47"/>
       <c r="T48" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U48" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V48" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W48" s="47">
         <v>0</v>
@@ -11793,7 +12250,7 @@
         <v>-1</v>
       </c>
       <c r="Z48" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA48" s="47">
         <v>0</v>
@@ -11811,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AF48" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG48" s="55">
         <v>0</v>
@@ -11832,24 +12289,33 @@
         <v>0</v>
       </c>
       <c r="AM48" s="47"/>
-      <c r="AN48" s="47"/>
-      <c r="AO48" s="62"/>
-      <c r="AP48" s="62"/>
-      <c r="AQ48" s="54"/>
-    </row>
-    <row r="49" spans="1:43" ht="15">
+      <c r="AN48">
+        <v>-1</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ48" s="47"/>
+      <c r="AR48" s="62"/>
+      <c r="AS48" s="62"/>
+      <c r="AT48" s="54"/>
+    </row>
+    <row r="49" spans="1:46" ht="15">
       <c r="A49" s="64"/>
       <c r="B49" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C49" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D49" s="59" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E49" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F49" s="60">
         <v>0</v>
@@ -11861,34 +12327,36 @@
         <v>0</v>
       </c>
       <c r="I49" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J49" s="47">
         <v>0</v>
       </c>
       <c r="K49" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L49" s="47"/>
       <c r="M49" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
+      </c>
+      <c r="N49" s="47">
+        <v>1</v>
+      </c>
+      <c r="O49" s="57" t="s">
+        <v>217</v>
       </c>
       <c r="P49" s="47"/>
       <c r="Q49" s="47"/>
       <c r="R49" s="47"/>
       <c r="S49" s="47"/>
       <c r="T49" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U49" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V49" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W49" s="47">
         <v>0</v>
@@ -11900,7 +12368,7 @@
         <v>-1</v>
       </c>
       <c r="Z49" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA49" s="47">
         <v>0</v>
@@ -11918,7 +12386,7 @@
         <v>0</v>
       </c>
       <c r="AF49" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG49" s="55">
         <v>0</v>
@@ -11939,24 +12407,33 @@
         <v>0</v>
       </c>
       <c r="AM49" s="47"/>
-      <c r="AN49" s="47"/>
-      <c r="AO49" s="62"/>
-      <c r="AP49" s="62"/>
-      <c r="AQ49" s="54"/>
-    </row>
-    <row r="50" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN49" s="79">
+        <v>20</v>
+      </c>
+      <c r="AO49" s="79">
+        <v>0</v>
+      </c>
+      <c r="AP49" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="AQ49" s="47"/>
+      <c r="AR49" s="62"/>
+      <c r="AS49" s="62"/>
+      <c r="AT49" s="54"/>
+    </row>
+    <row r="50" spans="1:46" ht="15.75" thickBot="1">
       <c r="A50" s="64"/>
       <c r="B50" s="57" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="59" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F50" s="60">
         <v>0</v>
@@ -11968,38 +12445,38 @@
         <v>0</v>
       </c>
       <c r="I50" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J50" s="47">
         <v>0</v>
       </c>
       <c r="K50" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L50" s="47"/>
       <c r="M50" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N50" s="47"/>
       <c r="O50" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P50" s="47">
         <v>1</v>
       </c>
       <c r="Q50" s="47" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="R50" s="47"/>
       <c r="S50" s="47"/>
       <c r="T50" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U50" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V50" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W50" s="47">
         <v>0</v>
@@ -12011,7 +12488,7 @@
         <v>-1</v>
       </c>
       <c r="Z50" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA50" s="47">
         <v>0</v>
@@ -12029,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="AF50" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG50" s="55">
         <v>0</v>
@@ -12050,24 +12527,33 @@
         <v>0</v>
       </c>
       <c r="AM50" s="47"/>
-      <c r="AN50" s="47"/>
-      <c r="AO50" s="62"/>
-      <c r="AP50" s="62"/>
-      <c r="AQ50" s="54"/>
-    </row>
-    <row r="51" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN50">
+        <v>-1</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ50" s="47"/>
+      <c r="AR50" s="62"/>
+      <c r="AS50" s="62"/>
+      <c r="AT50" s="54"/>
+    </row>
+    <row r="51" spans="1:46" ht="15.75" thickBot="1">
       <c r="A51" s="64"/>
       <c r="B51" s="57" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="70" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E51" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F51" s="60">
         <v>0</v>
@@ -12079,36 +12565,36 @@
         <v>0</v>
       </c>
       <c r="I51" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J51" s="47">
         <v>0</v>
       </c>
       <c r="K51" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L51" s="47"/>
       <c r="M51" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N51" s="47">
         <v>1</v>
       </c>
       <c r="O51" s="70" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P51" s="47"/>
       <c r="Q51" s="47"/>
       <c r="R51" s="47"/>
       <c r="S51" s="47"/>
       <c r="T51" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U51" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V51" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W51" s="47">
         <v>0</v>
@@ -12120,7 +12606,7 @@
         <v>-1</v>
       </c>
       <c r="Z51" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA51" s="47">
         <v>0</v>
@@ -12138,7 +12624,7 @@
         <v>0</v>
       </c>
       <c r="AF51" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG51" s="55">
         <v>0</v>
@@ -12159,24 +12645,33 @@
         <v>0</v>
       </c>
       <c r="AM51" s="47"/>
-      <c r="AN51" s="47"/>
-      <c r="AO51" s="62"/>
-      <c r="AP51" s="62"/>
-      <c r="AQ51" s="54"/>
-    </row>
-    <row r="52" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN51">
+        <v>-1</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ51" s="47"/>
+      <c r="AR51" s="62"/>
+      <c r="AS51" s="62"/>
+      <c r="AT51" s="54"/>
+    </row>
+    <row r="52" spans="1:46" ht="15.75" thickBot="1">
       <c r="A52" s="64"/>
       <c r="B52" s="57" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="59" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E52" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F52" s="60">
         <v>0</v>
@@ -12188,38 +12683,38 @@
         <v>0</v>
       </c>
       <c r="I52" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J52" s="47">
         <v>0</v>
       </c>
       <c r="K52" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L52" s="47"/>
       <c r="M52" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N52" s="47"/>
       <c r="O52" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P52" s="47">
         <v>1</v>
       </c>
       <c r="Q52" s="62" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="R52" s="47"/>
       <c r="S52" s="47"/>
       <c r="T52" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U52" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V52" s="55" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="W52" s="47">
         <v>1</v>
@@ -12231,7 +12726,7 @@
         <v>-1</v>
       </c>
       <c r="Z52" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA52" s="47">
         <v>0</v>
@@ -12249,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="AF52" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG52" s="55">
         <v>0</v>
@@ -12270,24 +12765,33 @@
         <v>0</v>
       </c>
       <c r="AM52" s="47"/>
-      <c r="AN52" s="47"/>
-      <c r="AO52" s="62"/>
-      <c r="AP52" s="62"/>
-      <c r="AQ52" s="54"/>
-    </row>
-    <row r="53" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN52">
+        <v>-1</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ52" s="47"/>
+      <c r="AR52" s="62"/>
+      <c r="AS52" s="62"/>
+      <c r="AT52" s="54"/>
+    </row>
+    <row r="53" spans="1:46" ht="15.75" thickBot="1">
       <c r="A53" s="64"/>
       <c r="B53" s="57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="59" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E53" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F53" s="60">
         <v>0</v>
@@ -12299,36 +12803,36 @@
         <v>0</v>
       </c>
       <c r="I53" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J53" s="47">
         <v>0</v>
       </c>
       <c r="K53" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L53" s="47">
         <v>1</v>
       </c>
       <c r="M53" s="69" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N53" s="47"/>
       <c r="O53" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P53" s="47"/>
       <c r="Q53" s="47"/>
       <c r="R53" s="47"/>
       <c r="S53" s="47"/>
       <c r="T53" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U53" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V53" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W53" s="47">
         <v>0</v>
@@ -12340,7 +12844,7 @@
         <v>-1</v>
       </c>
       <c r="Z53" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA53" s="47">
         <v>0</v>
@@ -12358,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="AF53" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG53" s="55">
         <v>0</v>
@@ -12381,24 +12885,33 @@
       <c r="AM53" s="47">
         <v>2</v>
       </c>
-      <c r="AN53" s="47"/>
-      <c r="AO53" s="62"/>
-      <c r="AP53" s="62"/>
-      <c r="AQ53" s="54"/>
-    </row>
-    <row r="54" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN53">
+        <v>-1</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ53" s="47"/>
+      <c r="AR53" s="62"/>
+      <c r="AS53" s="62"/>
+      <c r="AT53" s="54"/>
+    </row>
+    <row r="54" spans="1:46" ht="15.75" thickBot="1">
       <c r="A54" s="64"/>
       <c r="B54" s="57" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="59" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E54" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F54" s="60">
         <v>0</v>
@@ -12410,38 +12923,38 @@
         <v>0</v>
       </c>
       <c r="I54" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J54" s="47">
         <v>0</v>
       </c>
       <c r="K54" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L54" s="47"/>
       <c r="M54" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N54" s="47"/>
       <c r="O54" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P54" s="47">
         <v>1</v>
       </c>
       <c r="Q54" s="46" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="R54" s="47"/>
       <c r="S54" s="47"/>
       <c r="T54" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U54" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V54" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W54" s="47">
         <v>0</v>
@@ -12453,7 +12966,7 @@
         <v>-1</v>
       </c>
       <c r="Z54" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA54" s="47">
         <v>0</v>
@@ -12471,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="AF54" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG54" s="55">
         <v>0</v>
@@ -12492,24 +13005,33 @@
         <v>0</v>
       </c>
       <c r="AM54" s="47"/>
-      <c r="AN54" s="47"/>
-      <c r="AO54" s="62"/>
-      <c r="AP54" s="62"/>
-      <c r="AQ54" s="54"/>
-    </row>
-    <row r="55" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN54">
+        <v>-1</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ54" s="47"/>
+      <c r="AR54" s="62"/>
+      <c r="AS54" s="62"/>
+      <c r="AT54" s="54"/>
+    </row>
+    <row r="55" spans="1:46" ht="15.75" thickBot="1">
       <c r="A55" s="64"/>
       <c r="B55" s="57" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C55" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D55" s="73" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E55" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F55" s="60">
         <v>0</v>
@@ -12521,36 +13043,36 @@
         <v>0</v>
       </c>
       <c r="I55" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J55" s="47">
         <v>0</v>
       </c>
       <c r="K55" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L55" s="47">
         <v>1</v>
       </c>
       <c r="M55" s="46" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N55" s="47"/>
       <c r="O55" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P55" s="47"/>
       <c r="Q55" s="47"/>
       <c r="R55" s="47"/>
       <c r="S55" s="47"/>
       <c r="T55" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U55" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V55" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W55" s="47">
         <v>0</v>
@@ -12562,7 +13084,7 @@
         <v>-1</v>
       </c>
       <c r="Z55" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA55" s="47">
         <v>0</v>
@@ -12580,7 +13102,7 @@
         <v>0</v>
       </c>
       <c r="AF55" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG55" s="55">
         <v>0</v>
@@ -12601,24 +13123,33 @@
         <v>0</v>
       </c>
       <c r="AM55" s="47"/>
-      <c r="AN55" s="47"/>
-      <c r="AO55" s="62"/>
-      <c r="AP55" s="62"/>
-      <c r="AQ55" s="54"/>
-    </row>
-    <row r="56" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN55">
+        <v>-1</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ55" s="47"/>
+      <c r="AR55" s="62"/>
+      <c r="AS55" s="62"/>
+      <c r="AT55" s="54"/>
+    </row>
+    <row r="56" spans="1:46" ht="15.75" thickBot="1">
       <c r="A56" s="64"/>
       <c r="B56" s="57" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C56" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D56" s="59" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E56" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F56" s="60">
         <v>0</v>
@@ -12630,38 +13161,38 @@
         <v>0</v>
       </c>
       <c r="I56" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J56" s="47">
         <v>0</v>
       </c>
       <c r="K56" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L56" s="47"/>
       <c r="M56" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N56" s="47"/>
       <c r="O56" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P56" s="47">
         <v>1</v>
       </c>
       <c r="Q56" s="46" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R56" s="47"/>
       <c r="S56" s="47"/>
       <c r="T56" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U56" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V56" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W56" s="47">
         <v>0</v>
@@ -12673,7 +13204,7 @@
         <v>-1</v>
       </c>
       <c r="Z56" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA56" s="47">
         <v>0</v>
@@ -12691,7 +13222,7 @@
         <v>0</v>
       </c>
       <c r="AF56" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG56" s="55">
         <v>0</v>
@@ -12712,24 +13243,33 @@
         <v>0</v>
       </c>
       <c r="AM56" s="47"/>
-      <c r="AN56" s="47"/>
-      <c r="AO56" s="62"/>
-      <c r="AP56" s="62"/>
-      <c r="AQ56" s="54"/>
-    </row>
-    <row r="57" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN56">
+        <v>-1</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ56" s="47"/>
+      <c r="AR56" s="62"/>
+      <c r="AS56" s="62"/>
+      <c r="AT56" s="54"/>
+    </row>
+    <row r="57" spans="1:46" ht="15.75" thickBot="1">
       <c r="A57" s="64"/>
       <c r="B57" s="57" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C57" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D57" s="59" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E57" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F57" s="60">
         <v>0</v>
@@ -12741,36 +13281,36 @@
         <v>0</v>
       </c>
       <c r="I57" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J57" s="47">
         <v>0</v>
       </c>
       <c r="K57" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L57" s="47"/>
       <c r="M57" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N57" s="47">
         <v>1</v>
       </c>
       <c r="O57" s="43" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P57" s="47"/>
       <c r="Q57" s="47"/>
       <c r="R57" s="47"/>
       <c r="S57" s="47"/>
       <c r="T57" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U57" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V57" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W57" s="47">
         <v>0</v>
@@ -12782,7 +13322,7 @@
         <v>-1</v>
       </c>
       <c r="Z57" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA57" s="47">
         <v>0</v>
@@ -12800,7 +13340,7 @@
         <v>0</v>
       </c>
       <c r="AF57" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG57" s="55">
         <v>0</v>
@@ -12821,24 +13361,33 @@
         <v>0</v>
       </c>
       <c r="AM57" s="47"/>
-      <c r="AN57" s="47"/>
-      <c r="AO57" s="62"/>
-      <c r="AP57" s="62"/>
-      <c r="AQ57" s="54"/>
-    </row>
-    <row r="58" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN57">
+        <v>-1</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ57" s="47"/>
+      <c r="AR57" s="62"/>
+      <c r="AS57" s="62"/>
+      <c r="AT57" s="54"/>
+    </row>
+    <row r="58" spans="1:46" ht="15.75" thickBot="1">
       <c r="A58" s="64"/>
       <c r="B58" s="57" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C58" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D58" s="59" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E58" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F58" s="60">
         <v>0</v>
@@ -12850,38 +13399,38 @@
         <v>0</v>
       </c>
       <c r="I58" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J58" s="47">
         <v>0</v>
       </c>
       <c r="K58" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L58" s="47"/>
       <c r="M58" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N58" s="47"/>
       <c r="O58" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P58" s="47">
         <v>1</v>
       </c>
       <c r="Q58" s="69" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="R58" s="47"/>
       <c r="S58" s="47"/>
       <c r="T58" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U58" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V58" s="69" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="W58" s="47">
         <v>1</v>
@@ -12893,7 +13442,7 @@
         <v>-1</v>
       </c>
       <c r="Z58" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA58" s="47">
         <v>0</v>
@@ -12911,7 +13460,7 @@
         <v>0</v>
       </c>
       <c r="AF58" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG58" s="55">
         <v>0</v>
@@ -12932,24 +13481,33 @@
         <v>0</v>
       </c>
       <c r="AM58" s="47"/>
-      <c r="AN58" s="47"/>
-      <c r="AO58" s="62"/>
-      <c r="AP58" s="62"/>
-      <c r="AQ58" s="54"/>
-    </row>
-    <row r="59" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN58">
+        <v>-1</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ58" s="47"/>
+      <c r="AR58" s="62"/>
+      <c r="AS58" s="62"/>
+      <c r="AT58" s="54"/>
+    </row>
+    <row r="59" spans="1:46" ht="15.75" thickBot="1">
       <c r="A59" s="47"/>
       <c r="B59" s="57" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C59" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D59" s="59" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E59" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F59" s="60">
         <v>0</v>
@@ -12961,38 +13519,38 @@
         <v>0</v>
       </c>
       <c r="I59" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J59" s="47">
         <v>0</v>
       </c>
       <c r="K59" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L59" s="47"/>
       <c r="M59" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N59" s="47"/>
       <c r="O59" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P59" s="47">
         <v>1</v>
       </c>
       <c r="Q59" s="46" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="R59" s="47"/>
       <c r="S59" s="47"/>
       <c r="T59" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U59" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V59" s="55" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="W59" s="47">
         <v>1</v>
@@ -13004,7 +13562,7 @@
         <v>-1</v>
       </c>
       <c r="Z59" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA59" s="47">
         <v>0</v>
@@ -13022,7 +13580,7 @@
         <v>0</v>
       </c>
       <c r="AF59" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG59" s="55">
         <v>0</v>
@@ -13043,24 +13601,33 @@
         <v>0</v>
       </c>
       <c r="AM59" s="47"/>
-      <c r="AN59" s="47"/>
-      <c r="AO59" s="62"/>
-      <c r="AP59" s="62"/>
-      <c r="AQ59" s="54"/>
-    </row>
-    <row r="60" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN59">
+        <v>-1</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ59" s="47"/>
+      <c r="AR59" s="62"/>
+      <c r="AS59" s="62"/>
+      <c r="AT59" s="54"/>
+    </row>
+    <row r="60" spans="1:46" ht="15.75" thickBot="1">
       <c r="A60" s="47"/>
       <c r="B60" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C60" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D60" s="59" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F60" s="60">
         <v>0</v>
@@ -13072,38 +13639,38 @@
         <v>0</v>
       </c>
       <c r="I60" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J60" s="47">
         <v>0</v>
       </c>
       <c r="K60" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L60" s="47"/>
       <c r="M60" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N60" s="47"/>
       <c r="O60" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P60" s="47">
         <v>1</v>
       </c>
       <c r="Q60" s="46" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="R60" s="47"/>
       <c r="S60" s="47"/>
       <c r="T60" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U60" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V60" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W60" s="47">
         <v>0</v>
@@ -13115,7 +13682,7 @@
         <v>-1</v>
       </c>
       <c r="Z60" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA60" s="47">
         <v>0</v>
@@ -13133,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="AF60" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG60" s="55">
         <v>0</v>
@@ -13154,24 +13721,33 @@
         <v>0</v>
       </c>
       <c r="AM60" s="47"/>
-      <c r="AN60" s="47"/>
-      <c r="AO60" s="62"/>
-      <c r="AP60" s="62"/>
-      <c r="AQ60" s="54"/>
-    </row>
-    <row r="61" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN60">
+        <v>-1</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ60" s="47"/>
+      <c r="AR60" s="62"/>
+      <c r="AS60" s="62"/>
+      <c r="AT60" s="54"/>
+    </row>
+    <row r="61" spans="1:46" ht="15.75" thickBot="1">
       <c r="A61" s="47"/>
       <c r="B61" s="57" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C61" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D61" s="59" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E61" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F61" s="60">
         <v>0</v>
@@ -13183,36 +13759,36 @@
         <v>0</v>
       </c>
       <c r="I61" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J61" s="47">
         <v>0</v>
       </c>
       <c r="K61" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L61" s="47"/>
       <c r="M61" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N61" s="47">
         <v>1</v>
       </c>
       <c r="O61" s="47" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P61" s="47"/>
       <c r="Q61" s="47"/>
       <c r="R61" s="47"/>
       <c r="S61" s="47"/>
       <c r="T61" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U61" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V61" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W61" s="47">
         <v>0</v>
@@ -13224,7 +13800,7 @@
         <v>-1</v>
       </c>
       <c r="Z61" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA61" s="47">
         <v>0</v>
@@ -13242,7 +13818,7 @@
         <v>0</v>
       </c>
       <c r="AF61" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG61" s="55">
         <v>0</v>
@@ -13263,24 +13839,33 @@
         <v>0</v>
       </c>
       <c r="AM61" s="47"/>
-      <c r="AN61" s="47"/>
-      <c r="AO61" s="62"/>
-      <c r="AP61" s="62"/>
-      <c r="AQ61" s="54"/>
-    </row>
-    <row r="62" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN61">
+        <v>-1</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ61" s="47"/>
+      <c r="AR61" s="62"/>
+      <c r="AS61" s="62"/>
+      <c r="AT61" s="54"/>
+    </row>
+    <row r="62" spans="1:46" ht="15.75" thickBot="1">
       <c r="A62" s="47"/>
       <c r="B62" s="57" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C62" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D62" s="59" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E62" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F62" s="60">
         <v>0</v>
@@ -13292,38 +13877,38 @@
         <v>0</v>
       </c>
       <c r="I62" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J62" s="47">
         <v>0</v>
       </c>
       <c r="K62" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L62" s="47"/>
       <c r="M62" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N62" s="47"/>
       <c r="O62" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P62" s="47">
         <v>1</v>
       </c>
       <c r="Q62" s="62" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R62" s="47"/>
       <c r="S62" s="47"/>
       <c r="T62" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U62" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V62" s="44" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W62" s="47">
         <v>1</v>
@@ -13335,7 +13920,7 @@
         <v>-1</v>
       </c>
       <c r="Z62" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA62" s="47">
         <v>0</v>
@@ -13353,7 +13938,7 @@
         <v>0</v>
       </c>
       <c r="AF62" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG62" s="55">
         <v>0</v>
@@ -13374,24 +13959,33 @@
         <v>0</v>
       </c>
       <c r="AM62" s="47"/>
-      <c r="AN62" s="47"/>
-      <c r="AO62" s="62"/>
-      <c r="AP62" s="62"/>
-      <c r="AQ62" s="54"/>
-    </row>
-    <row r="63" spans="1:43" ht="15">
+      <c r="AN62">
+        <v>-1</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+      <c r="AP62" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ62" s="47"/>
+      <c r="AR62" s="62"/>
+      <c r="AS62" s="62"/>
+      <c r="AT62" s="54"/>
+    </row>
+    <row r="63" spans="1:46" ht="15">
       <c r="A63" s="47"/>
       <c r="B63" s="57" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C63" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D63" s="59" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E63" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F63" s="60">
         <v>0</v>
@@ -13403,34 +13997,34 @@
         <v>0</v>
       </c>
       <c r="I63" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J63" s="47">
         <v>0</v>
       </c>
       <c r="K63" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L63" s="47"/>
       <c r="M63" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N63" s="47"/>
       <c r="O63" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P63" s="47"/>
       <c r="Q63" s="47"/>
       <c r="R63" s="47"/>
       <c r="S63" s="47"/>
       <c r="T63" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U63" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V63" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W63" s="47">
         <v>0</v>
@@ -13442,7 +14036,7 @@
         <v>-1</v>
       </c>
       <c r="Z63" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA63" s="47">
         <v>0</v>
@@ -13460,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="AF63" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG63" s="55">
         <v>0</v>
@@ -13481,24 +14075,33 @@
         <v>0</v>
       </c>
       <c r="AM63" s="47"/>
-      <c r="AN63" s="47"/>
-      <c r="AO63" s="62"/>
-      <c r="AP63" s="62"/>
-      <c r="AQ63" s="54"/>
-    </row>
-    <row r="64" spans="1:43" ht="15">
+      <c r="AN63">
+        <v>-1</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AP63" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ63" s="47"/>
+      <c r="AR63" s="62"/>
+      <c r="AS63" s="62"/>
+      <c r="AT63" s="54"/>
+    </row>
+    <row r="64" spans="1:46" ht="15">
       <c r="A64" s="47"/>
       <c r="B64" s="57" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C64" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D64" s="59" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E64" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F64" s="60">
         <v>0</v>
@@ -13510,34 +14113,34 @@
         <v>0</v>
       </c>
       <c r="I64" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J64" s="47">
         <v>0</v>
       </c>
       <c r="K64" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L64" s="47"/>
       <c r="M64" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N64" s="47"/>
       <c r="O64" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P64" s="47"/>
       <c r="Q64" s="47"/>
       <c r="R64" s="47"/>
       <c r="S64" s="47"/>
       <c r="T64" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U64" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V64" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W64" s="47">
         <v>0</v>
@@ -13549,7 +14152,7 @@
         <v>-1</v>
       </c>
       <c r="Z64" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA64" s="47">
         <v>0</v>
@@ -13567,7 +14170,7 @@
         <v>0</v>
       </c>
       <c r="AF64" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG64" s="55">
         <v>0</v>
@@ -13588,24 +14191,33 @@
         <v>0</v>
       </c>
       <c r="AM64" s="47"/>
-      <c r="AN64" s="47"/>
-      <c r="AO64" s="62"/>
-      <c r="AP64" s="62"/>
-      <c r="AQ64" s="54"/>
-    </row>
-    <row r="65" spans="1:43" ht="15">
+      <c r="AN64">
+        <v>-1</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ64" s="47"/>
+      <c r="AR64" s="62"/>
+      <c r="AS64" s="62"/>
+      <c r="AT64" s="54"/>
+    </row>
+    <row r="65" spans="1:46" ht="15">
       <c r="A65" s="47"/>
       <c r="B65" s="57" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C65" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D65" s="59" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E65" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F65" s="60">
         <v>0</v>
@@ -13617,34 +14229,34 @@
         <v>0</v>
       </c>
       <c r="I65" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J65" s="47">
         <v>0</v>
       </c>
       <c r="K65" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L65" s="47"/>
       <c r="M65" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N65" s="47"/>
       <c r="O65" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P65" s="47"/>
       <c r="Q65" s="47"/>
       <c r="R65" s="47"/>
       <c r="S65" s="47"/>
       <c r="T65" s="47" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U65" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V65" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W65" s="47">
         <v>0</v>
@@ -13656,7 +14268,7 @@
         <v>-1</v>
       </c>
       <c r="Z65" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA65" s="47">
         <v>0</v>
@@ -13674,7 +14286,7 @@
         <v>0</v>
       </c>
       <c r="AF65" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG65" s="55">
         <v>0</v>
@@ -13695,24 +14307,33 @@
         <v>0</v>
       </c>
       <c r="AM65" s="47"/>
-      <c r="AN65" s="47"/>
-      <c r="AO65" s="62"/>
-      <c r="AP65" s="62"/>
-      <c r="AQ65" s="54"/>
-    </row>
-    <row r="66" spans="1:43" ht="15">
+      <c r="AN65">
+        <v>-1</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ65" s="47"/>
+      <c r="AR65" s="62"/>
+      <c r="AS65" s="62"/>
+      <c r="AT65" s="54"/>
+    </row>
+    <row r="66" spans="1:46" ht="15">
       <c r="A66" s="47"/>
       <c r="B66" s="57" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C66" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D66" s="59" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E66" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F66" s="60">
         <v>0</v>
@@ -13724,34 +14345,34 @@
         <v>0</v>
       </c>
       <c r="I66" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J66" s="47">
         <v>0</v>
       </c>
       <c r="K66" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L66" s="47"/>
       <c r="M66" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N66" s="47"/>
       <c r="O66" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P66" s="47"/>
       <c r="Q66" s="47"/>
       <c r="R66" s="47"/>
       <c r="S66" s="47"/>
       <c r="T66" s="47" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="U66" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V66" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W66" s="47">
         <v>0</v>
@@ -13763,7 +14384,7 @@
         <v>-1</v>
       </c>
       <c r="Z66" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA66" s="47">
         <v>0</v>
@@ -13781,7 +14402,7 @@
         <v>0</v>
       </c>
       <c r="AF66" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG66" s="55">
         <v>0</v>
@@ -13802,24 +14423,33 @@
         <v>0</v>
       </c>
       <c r="AM66" s="47"/>
-      <c r="AN66" s="47"/>
-      <c r="AO66" s="62"/>
-      <c r="AP66" s="62"/>
-      <c r="AQ66" s="54"/>
-    </row>
-    <row r="67" spans="1:43" ht="15">
+      <c r="AN66">
+        <v>-1</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+      <c r="AP66" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ66" s="47"/>
+      <c r="AR66" s="62"/>
+      <c r="AS66" s="62"/>
+      <c r="AT66" s="54"/>
+    </row>
+    <row r="67" spans="1:46" ht="15">
       <c r="A67" s="47"/>
       <c r="B67" s="57" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C67" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D67" s="59" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E67" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F67" s="60">
         <v>0</v>
@@ -13831,34 +14461,34 @@
         <v>0</v>
       </c>
       <c r="I67" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J67" s="47">
         <v>0</v>
       </c>
       <c r="K67" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L67" s="47"/>
       <c r="M67" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N67" s="47"/>
       <c r="O67" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P67" s="47"/>
       <c r="Q67" s="47"/>
       <c r="R67" s="47"/>
       <c r="S67" s="47"/>
       <c r="T67" s="47" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="U67" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V67" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W67" s="47">
         <v>0</v>
@@ -13870,7 +14500,7 @@
         <v>-1</v>
       </c>
       <c r="Z67" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA67" s="47">
         <v>0</v>
@@ -13888,7 +14518,7 @@
         <v>0</v>
       </c>
       <c r="AF67" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG67" s="55">
         <v>0</v>
@@ -13909,24 +14539,33 @@
         <v>0</v>
       </c>
       <c r="AM67" s="47"/>
-      <c r="AN67" s="47"/>
-      <c r="AO67" s="62"/>
-      <c r="AP67" s="62"/>
-      <c r="AQ67" s="54"/>
-    </row>
-    <row r="68" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN67">
+        <v>-1</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ67" s="47"/>
+      <c r="AR67" s="62"/>
+      <c r="AS67" s="62"/>
+      <c r="AT67" s="54"/>
+    </row>
+    <row r="68" spans="1:46" ht="15.75" thickBot="1">
       <c r="A68" s="47"/>
       <c r="B68" s="57" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C68" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D68" s="59" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E68" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F68" s="60">
         <v>0</v>
@@ -13938,34 +14577,34 @@
         <v>0</v>
       </c>
       <c r="I68" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J68" s="47">
         <v>0</v>
       </c>
       <c r="K68" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L68" s="47"/>
       <c r="M68" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N68" s="47"/>
       <c r="O68" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P68" s="47"/>
       <c r="Q68" s="47"/>
       <c r="R68" s="47"/>
       <c r="S68" s="47"/>
       <c r="T68" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U68" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V68" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W68" s="47">
         <v>0</v>
@@ -13977,7 +14616,7 @@
         <v>-1</v>
       </c>
       <c r="Z68" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA68" s="47">
         <v>0</v>
@@ -13995,7 +14634,7 @@
         <v>0</v>
       </c>
       <c r="AF68" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG68" s="55">
         <v>0</v>
@@ -14016,24 +14655,33 @@
         <v>0</v>
       </c>
       <c r="AM68" s="47"/>
-      <c r="AN68" s="47"/>
-      <c r="AO68" s="62"/>
-      <c r="AP68" s="62"/>
-      <c r="AQ68" s="54"/>
-    </row>
-    <row r="69" spans="1:43" ht="15.75" thickBot="1">
+      <c r="AN68">
+        <v>-1</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ68" s="47"/>
+      <c r="AR68" s="62"/>
+      <c r="AS68" s="62"/>
+      <c r="AT68" s="54"/>
+    </row>
+    <row r="69" spans="1:46" ht="15.75" thickBot="1">
       <c r="A69" s="47"/>
       <c r="B69" s="57" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C69" s="58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D69" s="59" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E69" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F69" s="72">
         <v>0</v>
@@ -14045,34 +14693,34 @@
         <v>0</v>
       </c>
       <c r="I69" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J69" s="47">
         <v>0</v>
       </c>
       <c r="K69" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L69" s="47"/>
       <c r="M69" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N69" s="47"/>
       <c r="O69" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P69" s="47"/>
       <c r="Q69" s="47"/>
       <c r="R69" s="47"/>
       <c r="S69" s="47"/>
       <c r="T69" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U69" s="47" t="b">
         <v>0</v>
       </c>
       <c r="V69" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W69" s="47">
         <v>0</v>
@@ -14084,7 +14732,7 @@
         <v>-1</v>
       </c>
       <c r="Z69" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA69" s="47">
         <v>0</v>
@@ -14102,7 +14750,7 @@
         <v>0</v>
       </c>
       <c r="AF69" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AG69" s="55">
         <v>0</v>
@@ -14123,21 +14771,35 @@
         <v>0</v>
       </c>
       <c r="AM69" s="47"/>
-      <c r="AN69" s="47"/>
-      <c r="AO69" s="62"/>
-      <c r="AP69" s="62"/>
-      <c r="AQ69" s="54"/>
-    </row>
-    <row r="70" spans="1:43">
+      <c r="AN69">
+        <v>-1</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ69" s="47"/>
+      <c r="AR69" s="62"/>
+      <c r="AS69" s="62"/>
+      <c r="AT69" s="54"/>
+    </row>
+    <row r="70" spans="1:46">
       <c r="AI70" s="4"/>
       <c r="AJ70" s="4"/>
       <c r="AK70" s="4"/>
       <c r="AL70" s="4"/>
       <c r="AM70" s="4"/>
-      <c r="AN70" s="4"/>
+      <c r="AQ70" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AN5:AP5"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="V3:AA3"/>
@@ -14159,10 +14821,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14173,7 +14835,7 @@
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -14184,25 +14846,28 @@
         <v>95</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" t="s">
         <v>265</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="F1" t="s">
-        <v>267</v>
-      </c>
       <c r="G1" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15">
+        <v>400</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -14211,12 +14876,12 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:10" ht="15">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>18</v>
@@ -14225,22 +14890,25 @@
         <v>21</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15">
+      <c r="J3" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
@@ -14249,7 +14917,7 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:10" ht="15">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -14258,28 +14926,31 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15">
+        <v>398</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15">
       <c r="A6" s="8"/>
       <c r="B6" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D6" s="11">
         <v>-1</v>
@@ -14299,14 +14970,17 @@
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15">
+      <c r="J6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15">
       <c r="A7" s="11"/>
       <c r="B7" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D7" s="11">
         <v>0</v>
@@ -14326,14 +15000,17 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15">
+      <c r="J7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="11"/>
       <c r="B8" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
@@ -14353,14 +15030,17 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15">
+      <c r="J8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" s="11"/>
       <c r="B9" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D9" s="11">
         <v>1</v>
@@ -14380,14 +15060,17 @@
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15">
+      <c r="J9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="11"/>
       <c r="B10" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D10" s="11">
         <v>1</v>
@@ -14407,14 +15090,17 @@
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15">
+      <c r="J10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15">
       <c r="A11" s="11"/>
       <c r="B11" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -14434,14 +15120,17 @@
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
+      <c r="J11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="11"/>
       <c r="B12" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D12" s="11">
         <v>0</v>
@@ -14461,14 +15150,17 @@
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
+      <c r="J12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="11"/>
       <c r="B13" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D13" s="11">
         <v>-1</v>
@@ -14488,14 +15180,17 @@
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
+      <c r="J13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="11"/>
       <c r="B14" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -14515,14 +15210,17 @@
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
+      <c r="J14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="11"/>
       <c r="B15" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D15" s="11">
         <v>0</v>
@@ -14542,11 +15240,14 @@
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
+      <c r="J15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="11"/>
       <c r="B16" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
@@ -14567,14 +15268,17 @@
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
+      <c r="J16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15">
       <c r="A17" s="11"/>
       <c r="B17" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D17" s="11">
         <v>-1</v>
@@ -14594,11 +15298,14 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
+      <c r="J17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15">
       <c r="A18" s="11"/>
       <c r="B18" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
@@ -14619,13 +15326,16 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15">
+      <c r="J18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15">
       <c r="B19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -14645,13 +15355,16 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="B20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -14671,13 +15384,16 @@
       <c r="I20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15">
+      <c r="J20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15">
       <c r="B21" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D21">
         <v>-1</v>
@@ -14697,10 +15413,13 @@
       <c r="I21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15">
+      <c r="J21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15">
       <c r="B22" s="43" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D22">
         <v>-1</v>
@@ -14720,10 +15439,13 @@
       <c r="I22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15">
+      <c r="J22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15">
       <c r="B23" s="43" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -14743,10 +15465,13 @@
       <c r="I23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15">
+      <c r="J23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15">
       <c r="B24" s="45" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -14766,10 +15491,13 @@
       <c r="I24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="15">
+      <c r="J24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15">
       <c r="B25" s="43" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D25">
         <v>-1</v>
@@ -14789,10 +15517,13 @@
       <c r="I25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="15">
+      <c r="J25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15">
       <c r="B26" s="46" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -14812,10 +15543,13 @@
       <c r="I26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="15">
+      <c r="J26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15">
       <c r="B27" s="43" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D27">
         <v>-1</v>
@@ -14835,10 +15569,13 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="15">
+      <c r="J27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15">
       <c r="B28" s="67" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -14858,10 +15595,13 @@
       <c r="I28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="15">
+      <c r="J28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15">
       <c r="B29" s="68" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -14881,10 +15621,13 @@
       <c r="I29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="15">
+      <c r="J29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15">
       <c r="B30" s="43" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -14904,10 +15647,13 @@
       <c r="I30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="15">
+      <c r="J30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15">
       <c r="B31" s="43" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -14927,10 +15673,13 @@
       <c r="I31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="15">
+      <c r="J31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15">
       <c r="B32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D32">
         <v>-1</v>
@@ -14950,10 +15699,13 @@
       <c r="I32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" ht="15">
+      <c r="J32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="15">
       <c r="B33" s="74" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D33">
         <v>-1</v>
@@ -14973,10 +15725,13 @@
       <c r="I33">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" ht="15">
+      <c r="J33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="15">
       <c r="B34" s="43" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D34">
         <v>-1</v>
@@ -14996,8 +15751,11 @@
       <c r="I34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" ht="15">
+      <c r="J34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="15">
       <c r="B35" t="s">
         <v>77</v>
       </c>
@@ -15015,6 +15773,38 @@
       </c>
       <c r="H35">
         <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15">
+      <c r="B36" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -15047,7 +15837,7 @@
         <v>95</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -15063,7 +15853,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
@@ -15092,35 +15882,35 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -15184,7 +15974,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -15193,7 +15983,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -15202,7 +15992,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -15211,7 +16001,7 @@
         <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -15220,7 +16010,7 @@
         <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -15229,7 +16019,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -15238,7 +16028,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -15247,7 +16037,7 @@
         <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -15256,7 +16046,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -15265,7 +16055,7 @@
         <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -15274,7 +16064,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -15283,7 +16073,7 @@
         <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D16" s="3"/>
     </row>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C8AEF3-66AF-4D75-84D9-839651BA2232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F989408-C5D8-459C-B895-B6C06773F842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="423">
   <si>
     <t>##var</t>
   </si>
@@ -4732,6 +4732,14 @@
   </si>
   <si>
     <t>满足条件后可以获得的Buff</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>when_adap_geater_than_buff</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一次技能伤害两倍</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -6543,10 +6551,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AT70"/>
+  <dimension ref="A1:AW70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF28" workbookViewId="0">
-      <selection activeCell="AQ48" sqref="AQ48"/>
+    <sheetView tabSelected="1" topLeftCell="AG22" workbookViewId="0">
+      <selection activeCell="AP48" sqref="AP48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6587,13 +6595,14 @@
     <col min="35" max="35" width="13.25" customWidth="1"/>
     <col min="36" max="36" width="17.875" customWidth="1"/>
     <col min="37" max="39" width="19.5" customWidth="1"/>
-    <col min="43" max="43" width="18.875" customWidth="1"/>
-    <col min="44" max="44" width="12.75" customWidth="1"/>
-    <col min="45" max="45" width="16.25" customWidth="1"/>
-    <col min="46" max="46" width="15.75" style="20" customWidth="1"/>
+    <col min="42" max="42" width="20.875" customWidth="1"/>
+    <col min="46" max="46" width="18.875" customWidth="1"/>
+    <col min="47" max="47" width="12.75" customWidth="1"/>
+    <col min="48" max="48" width="16.25" customWidth="1"/>
+    <col min="49" max="49" width="15.75" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15">
+    <row r="1" spans="1:49" ht="15">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -6698,24 +6707,29 @@
         <v>409</v>
       </c>
       <c r="AN1" s="78" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="AO1" s="77"/>
       <c r="AP1" s="77"/>
-      <c r="AQ1" s="47" t="s">
+      <c r="AQ1" s="78" t="s">
+        <v>413</v>
+      </c>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="AR1" s="47" t="s">
+      <c r="AU1" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="AS1" s="49" t="s">
+      <c r="AV1" s="49" t="s">
         <v>415</v>
       </c>
-      <c r="AT1" s="47" t="s">
+      <c r="AW1" s="47" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="15">
+    <row r="2" spans="1:49" ht="15">
       <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
@@ -6760,12 +6774,15 @@
       <c r="AN2" s="77"/>
       <c r="AO2" s="77"/>
       <c r="AP2" s="77"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="54"/>
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="77"/>
+      <c r="AS2" s="77"/>
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="54"/>
     </row>
-    <row r="3" spans="1:46" ht="15">
+    <row r="3" spans="1:49" ht="15">
       <c r="A3" s="47" t="s">
         <v>16</v>
       </c>
@@ -6874,20 +6891,25 @@
       </c>
       <c r="AO3" s="76"/>
       <c r="AP3" s="76"/>
-      <c r="AQ3" s="47" t="s">
+      <c r="AQ3" s="75" t="s">
+        <v>412</v>
+      </c>
+      <c r="AR3" s="76"/>
+      <c r="AS3" s="76"/>
+      <c r="AT3" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="AR3" s="47" t="s">
+      <c r="AU3" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="AS3" s="49" t="s">
+      <c r="AV3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AT3" s="47" t="s">
+      <c r="AW3" s="47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="15">
+    <row r="4" spans="1:49" ht="15">
       <c r="A4" s="47" t="s">
         <v>23</v>
       </c>
@@ -6932,12 +6954,15 @@
       <c r="AN4" s="77"/>
       <c r="AO4" s="77"/>
       <c r="AP4" s="77"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="47"/>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="54"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="54"/>
     </row>
-    <row r="5" spans="1:46" ht="15.75" thickBot="1">
+    <row r="5" spans="1:49" ht="15.75" thickBot="1">
       <c r="A5" s="47" t="s">
         <v>24</v>
       </c>
@@ -7060,20 +7085,25 @@
       </c>
       <c r="AO5" s="78"/>
       <c r="AP5" s="81"/>
-      <c r="AQ5" s="47" t="s">
+      <c r="AQ5" s="80" t="s">
+        <v>420</v>
+      </c>
+      <c r="AR5" s="78"/>
+      <c r="AS5" s="81"/>
+      <c r="AT5" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="AR5" s="47" t="s">
+      <c r="AU5" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="AS5" s="49" t="s">
+      <c r="AV5" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="AT5" s="54" t="s">
+      <c r="AW5" s="54" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="15.75" thickBot="1">
+    <row r="6" spans="1:49" ht="15.75" thickBot="1">
       <c r="A6" s="47"/>
       <c r="B6" s="57" t="s">
         <v>151</v>
@@ -7192,14 +7222,23 @@
       <c r="AP6" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ6" s="47">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="62"/>
-      <c r="AS6" s="62"/>
-      <c r="AT6" s="54"/>
+      <c r="AQ6">
+        <v>-1</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT6" s="47">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="62"/>
+      <c r="AV6" s="62"/>
+      <c r="AW6" s="54"/>
     </row>
-    <row r="7" spans="1:46" ht="15.75" thickBot="1">
+    <row r="7" spans="1:49" ht="15.75" thickBot="1">
       <c r="A7" s="47"/>
       <c r="B7" s="57" t="s">
         <v>157</v>
@@ -7318,14 +7357,23 @@
       <c r="AP7" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ7" s="47">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="62"/>
-      <c r="AS7" s="62"/>
-      <c r="AT7" s="54"/>
+      <c r="AQ7">
+        <v>-1</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT7" s="47">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="62"/>
+      <c r="AV7" s="62"/>
+      <c r="AW7" s="54"/>
     </row>
-    <row r="8" spans="1:46" ht="15.75" thickBot="1">
+    <row r="8" spans="1:49" ht="15.75" thickBot="1">
       <c r="A8" s="47"/>
       <c r="B8" s="57" t="s">
         <v>158</v>
@@ -7444,14 +7492,23 @@
       <c r="AP8" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ8" s="47">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="62"/>
-      <c r="AT8" s="54"/>
+      <c r="AQ8">
+        <v>-1</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT8" s="47">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="62"/>
+      <c r="AV8" s="62"/>
+      <c r="AW8" s="54"/>
     </row>
-    <row r="9" spans="1:46" ht="15.75" thickBot="1">
+    <row r="9" spans="1:49" ht="15.75" thickBot="1">
       <c r="A9" s="47"/>
       <c r="B9" s="57" t="s">
         <v>159</v>
@@ -7570,14 +7627,23 @@
       <c r="AP9" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ9" s="47">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="62"/>
-      <c r="AS9" s="62"/>
-      <c r="AT9" s="54"/>
+      <c r="AQ9">
+        <v>-1</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT9" s="47">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="62"/>
+      <c r="AV9" s="62"/>
+      <c r="AW9" s="54"/>
     </row>
-    <row r="10" spans="1:46" ht="15.75" thickBot="1">
+    <row r="10" spans="1:49" ht="15.75" thickBot="1">
       <c r="A10" s="47"/>
       <c r="B10" s="57" t="s">
         <v>160</v>
@@ -7696,14 +7762,23 @@
       <c r="AP10" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ10" s="47">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="62"/>
-      <c r="AS10" s="62"/>
-      <c r="AT10" s="54"/>
+      <c r="AQ10">
+        <v>-1</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT10" s="47">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="62"/>
+      <c r="AV10" s="62"/>
+      <c r="AW10" s="54"/>
     </row>
-    <row r="11" spans="1:46" ht="15.75" thickBot="1">
+    <row r="11" spans="1:49" ht="15.75" thickBot="1">
       <c r="A11" s="47"/>
       <c r="B11" s="57" t="s">
         <v>163</v>
@@ -7822,14 +7897,23 @@
       <c r="AP11" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ11" s="47">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="62"/>
-      <c r="AS11" s="62"/>
-      <c r="AT11" s="54"/>
+      <c r="AQ11">
+        <v>-1</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT11" s="47">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="62"/>
+      <c r="AV11" s="62"/>
+      <c r="AW11" s="54"/>
     </row>
-    <row r="12" spans="1:46" ht="15.75" thickBot="1">
+    <row r="12" spans="1:49" ht="15.75" thickBot="1">
       <c r="A12" s="47"/>
       <c r="B12" s="57" t="s">
         <v>164</v>
@@ -7948,14 +8032,23 @@
       <c r="AP12" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ12" s="47">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="62"/>
-      <c r="AS12" s="62"/>
-      <c r="AT12" s="54"/>
+      <c r="AQ12">
+        <v>-1</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT12" s="47">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="62"/>
+      <c r="AV12" s="62"/>
+      <c r="AW12" s="54"/>
     </row>
-    <row r="13" spans="1:46" ht="15.75" thickBot="1">
+    <row r="13" spans="1:49" ht="15.75" thickBot="1">
       <c r="A13" s="47"/>
       <c r="B13" s="57" t="s">
         <v>166</v>
@@ -8074,14 +8167,23 @@
       <c r="AP13" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ13" s="47">
+      <c r="AQ13">
+        <v>-1</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT13" s="47">
         <v>0.5</v>
       </c>
-      <c r="AR13" s="62"/>
-      <c r="AS13" s="62"/>
-      <c r="AT13" s="54"/>
+      <c r="AU13" s="62"/>
+      <c r="AV13" s="62"/>
+      <c r="AW13" s="54"/>
     </row>
-    <row r="14" spans="1:46" ht="15.75" thickBot="1">
+    <row r="14" spans="1:49" ht="15.75" thickBot="1">
       <c r="A14" s="47"/>
       <c r="B14" s="57" t="s">
         <v>167</v>
@@ -8198,14 +8300,23 @@
       <c r="AP14" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ14" s="47">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="62"/>
-      <c r="AS14" s="62"/>
-      <c r="AT14" s="54"/>
+      <c r="AQ14">
+        <v>-1</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT14" s="47">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="62"/>
+      <c r="AV14" s="62"/>
+      <c r="AW14" s="54"/>
     </row>
-    <row r="15" spans="1:46" ht="15.75" thickBot="1">
+    <row r="15" spans="1:49" ht="15.75" thickBot="1">
       <c r="A15" s="47"/>
       <c r="B15" s="57" t="s">
         <v>170</v>
@@ -8322,14 +8433,23 @@
       <c r="AP15" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ15" s="47">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="62"/>
-      <c r="AS15" s="62"/>
-      <c r="AT15" s="54"/>
+      <c r="AQ15">
+        <v>-1</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="62"/>
+      <c r="AV15" s="62"/>
+      <c r="AW15" s="54"/>
     </row>
-    <row r="16" spans="1:46" ht="15.75" thickBot="1">
+    <row r="16" spans="1:49" ht="15.75" thickBot="1">
       <c r="A16" s="47"/>
       <c r="B16" s="57" t="s">
         <v>172</v>
@@ -8446,14 +8566,23 @@
       <c r="AP16" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ16" s="47">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="62"/>
-      <c r="AS16" s="62"/>
-      <c r="AT16" s="54"/>
+      <c r="AQ16">
+        <v>-1</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="62"/>
+      <c r="AV16" s="62"/>
+      <c r="AW16" s="54"/>
     </row>
-    <row r="17" spans="1:46" ht="15.75" thickBot="1">
+    <row r="17" spans="1:49" ht="15.75" thickBot="1">
       <c r="A17" s="47"/>
       <c r="B17" s="57" t="s">
         <v>173</v>
@@ -8570,18 +8699,27 @@
       <c r="AP17" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ17" s="47">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="62">
+      <c r="AQ17">
+        <v>-1</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="62">
         <v>0.5</v>
       </c>
-      <c r="AS17" s="62"/>
-      <c r="AT17" s="54">
+      <c r="AV17" s="62"/>
+      <c r="AW17" s="54">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:46" ht="15.75" thickBot="1">
+    <row r="18" spans="1:49" ht="15.75" thickBot="1">
       <c r="A18" s="47"/>
       <c r="B18" s="57" t="s">
         <v>174</v>
@@ -8698,16 +8836,25 @@
       <c r="AP18" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ18" s="47">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="62"/>
-      <c r="AS18" s="62" t="s">
+      <c r="AQ18">
+        <v>-1</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT18" s="47">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="62"/>
+      <c r="AV18" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="AT18" s="54"/>
+      <c r="AW18" s="54"/>
     </row>
-    <row r="19" spans="1:46" ht="15.75" thickBot="1">
+    <row r="19" spans="1:49" ht="15.75" thickBot="1">
       <c r="A19" s="47"/>
       <c r="B19" s="57" t="s">
         <v>178</v>
@@ -8824,12 +8971,21 @@
       <c r="AP19" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ19" s="47"/>
-      <c r="AR19" s="62"/>
-      <c r="AS19" s="62"/>
-      <c r="AT19" s="54"/>
+      <c r="AQ19">
+        <v>-1</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="62"/>
+      <c r="AV19" s="62"/>
+      <c r="AW19" s="54"/>
     </row>
-    <row r="20" spans="1:46" ht="15.75" thickBot="1">
+    <row r="20" spans="1:49" ht="15.75" thickBot="1">
       <c r="A20" s="47"/>
       <c r="B20" s="57" t="s">
         <v>180</v>
@@ -8946,12 +9102,21 @@
       <c r="AP20" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ20" s="47"/>
-      <c r="AR20" s="62"/>
-      <c r="AS20" s="62"/>
-      <c r="AT20" s="54"/>
+      <c r="AQ20">
+        <v>-1</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT20" s="47"/>
+      <c r="AU20" s="62"/>
+      <c r="AV20" s="62"/>
+      <c r="AW20" s="54"/>
     </row>
-    <row r="21" spans="1:46" ht="15.75" thickBot="1">
+    <row r="21" spans="1:49" ht="15.75" thickBot="1">
       <c r="A21" s="47"/>
       <c r="B21" s="57" t="s">
         <v>181</v>
@@ -9068,12 +9233,21 @@
       <c r="AP21" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ21" s="47"/>
-      <c r="AR21" s="62"/>
-      <c r="AS21" s="62"/>
-      <c r="AT21" s="54"/>
+      <c r="AQ21">
+        <v>-1</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT21" s="47"/>
+      <c r="AU21" s="62"/>
+      <c r="AV21" s="62"/>
+      <c r="AW21" s="54"/>
     </row>
-    <row r="22" spans="1:46" ht="15.75" thickBot="1">
+    <row r="22" spans="1:49" ht="15.75" thickBot="1">
       <c r="A22" s="47"/>
       <c r="B22" s="57" t="s">
         <v>182</v>
@@ -9192,12 +9366,21 @@
       <c r="AP22" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ22" s="47"/>
-      <c r="AR22" s="62"/>
-      <c r="AS22" s="62"/>
-      <c r="AT22" s="54"/>
+      <c r="AQ22">
+        <v>-1</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT22" s="47"/>
+      <c r="AU22" s="62"/>
+      <c r="AV22" s="62"/>
+      <c r="AW22" s="54"/>
     </row>
-    <row r="23" spans="1:46" ht="15.75" thickBot="1">
+    <row r="23" spans="1:49" ht="15.75" thickBot="1">
       <c r="A23" s="47"/>
       <c r="B23" s="57" t="s">
         <v>184</v>
@@ -9314,12 +9497,21 @@
       <c r="AP23" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ23" s="47"/>
-      <c r="AR23" s="62"/>
-      <c r="AS23" s="62"/>
-      <c r="AT23" s="54"/>
+      <c r="AQ23">
+        <v>-1</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT23" s="47"/>
+      <c r="AU23" s="62"/>
+      <c r="AV23" s="62"/>
+      <c r="AW23" s="54"/>
     </row>
-    <row r="24" spans="1:46" ht="15.75" thickBot="1">
+    <row r="24" spans="1:49" ht="15.75" thickBot="1">
       <c r="A24" s="47"/>
       <c r="B24" s="57" t="s">
         <v>185</v>
@@ -9434,12 +9626,21 @@
       <c r="AP24" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ24" s="47"/>
-      <c r="AR24" s="62"/>
-      <c r="AS24" s="62"/>
-      <c r="AT24" s="54"/>
+      <c r="AQ24">
+        <v>-1</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT24" s="47"/>
+      <c r="AU24" s="62"/>
+      <c r="AV24" s="62"/>
+      <c r="AW24" s="54"/>
     </row>
-    <row r="25" spans="1:46" ht="15.75" thickBot="1">
+    <row r="25" spans="1:49" ht="15.75" thickBot="1">
       <c r="A25" s="47"/>
       <c r="B25" s="57" t="s">
         <v>187</v>
@@ -9554,12 +9755,21 @@
       <c r="AP25" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ25" s="47"/>
-      <c r="AR25" s="62"/>
-      <c r="AS25" s="62"/>
-      <c r="AT25" s="54"/>
+      <c r="AQ25">
+        <v>-1</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT25" s="47"/>
+      <c r="AU25" s="62"/>
+      <c r="AV25" s="62"/>
+      <c r="AW25" s="54"/>
     </row>
-    <row r="26" spans="1:46" ht="15.75" thickBot="1">
+    <row r="26" spans="1:49" ht="15.75" thickBot="1">
       <c r="A26" s="63"/>
       <c r="B26" s="57" t="s">
         <v>189</v>
@@ -9680,12 +9890,21 @@
       <c r="AP26" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ26" s="47"/>
-      <c r="AR26" s="62"/>
-      <c r="AS26" s="62"/>
-      <c r="AT26" s="54"/>
+      <c r="AQ26">
+        <v>-1</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT26" s="47"/>
+      <c r="AU26" s="62"/>
+      <c r="AV26" s="62"/>
+      <c r="AW26" s="54"/>
     </row>
-    <row r="27" spans="1:46" ht="15.75" thickBot="1">
+    <row r="27" spans="1:49" ht="15.75" thickBot="1">
       <c r="A27" s="47"/>
       <c r="B27" s="57" t="s">
         <v>192</v>
@@ -9800,12 +10019,21 @@
       <c r="AP27" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ27" s="47"/>
-      <c r="AR27" s="62"/>
-      <c r="AS27" s="62"/>
-      <c r="AT27" s="54"/>
+      <c r="AQ27">
+        <v>-1</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT27" s="47"/>
+      <c r="AU27" s="62"/>
+      <c r="AV27" s="62"/>
+      <c r="AW27" s="54"/>
     </row>
-    <row r="28" spans="1:46" ht="15.75" thickBot="1">
+    <row r="28" spans="1:49" ht="15.75" thickBot="1">
       <c r="A28" s="47"/>
       <c r="B28" s="57" t="s">
         <v>193</v>
@@ -9920,12 +10148,21 @@
       <c r="AP28" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ28" s="47"/>
-      <c r="AR28" s="62"/>
-      <c r="AS28" s="62"/>
-      <c r="AT28" s="54"/>
+      <c r="AQ28">
+        <v>-1</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT28" s="47"/>
+      <c r="AU28" s="62"/>
+      <c r="AV28" s="62"/>
+      <c r="AW28" s="54"/>
     </row>
-    <row r="29" spans="1:46" ht="15.75" thickBot="1">
+    <row r="29" spans="1:49" ht="15.75" thickBot="1">
       <c r="A29" s="47"/>
       <c r="B29" s="57" t="s">
         <v>196</v>
@@ -10040,12 +10277,21 @@
       <c r="AP29" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ29" s="47"/>
-      <c r="AR29" s="62"/>
-      <c r="AS29" s="62"/>
-      <c r="AT29" s="54"/>
+      <c r="AQ29">
+        <v>-1</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT29" s="47"/>
+      <c r="AU29" s="62"/>
+      <c r="AV29" s="62"/>
+      <c r="AW29" s="54"/>
     </row>
-    <row r="30" spans="1:46" ht="15.75" thickBot="1">
+    <row r="30" spans="1:49" ht="15.75" thickBot="1">
       <c r="A30" s="47"/>
       <c r="B30" s="57" t="s">
         <v>197</v>
@@ -10160,12 +10406,21 @@
       <c r="AP30" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ30" s="47"/>
-      <c r="AR30" s="62"/>
-      <c r="AS30" s="62"/>
-      <c r="AT30" s="54"/>
+      <c r="AQ30">
+        <v>-1</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT30" s="47"/>
+      <c r="AU30" s="62"/>
+      <c r="AV30" s="62"/>
+      <c r="AW30" s="54"/>
     </row>
-    <row r="31" spans="1:46" ht="15.75" thickBot="1">
+    <row r="31" spans="1:49" ht="15.75" thickBot="1">
       <c r="A31" s="64"/>
       <c r="B31" s="57" t="s">
         <v>199</v>
@@ -10282,12 +10537,21 @@
       <c r="AP31" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ31" s="47"/>
-      <c r="AR31" s="62"/>
-      <c r="AS31" s="62"/>
-      <c r="AT31" s="54"/>
+      <c r="AQ31">
+        <v>-1</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT31" s="47"/>
+      <c r="AU31" s="62"/>
+      <c r="AV31" s="62"/>
+      <c r="AW31" s="54"/>
     </row>
-    <row r="32" spans="1:46" ht="15.75" thickBot="1">
+    <row r="32" spans="1:49" ht="15.75" thickBot="1">
       <c r="A32" s="47"/>
       <c r="B32" s="57" t="s">
         <v>200</v>
@@ -10402,12 +10666,21 @@
       <c r="AP32" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ32" s="47"/>
-      <c r="AR32" s="62"/>
-      <c r="AS32" s="62"/>
-      <c r="AT32" s="54"/>
+      <c r="AQ32">
+        <v>-1</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT32" s="47"/>
+      <c r="AU32" s="62"/>
+      <c r="AV32" s="62"/>
+      <c r="AW32" s="54"/>
     </row>
-    <row r="33" spans="1:46" ht="15.75" thickBot="1">
+    <row r="33" spans="1:49" ht="15.75" thickBot="1">
       <c r="A33" s="47"/>
       <c r="B33" s="57" t="s">
         <v>201</v>
@@ -10524,12 +10797,21 @@
       <c r="AP33" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ33" s="47"/>
-      <c r="AR33" s="62"/>
-      <c r="AS33" s="62"/>
-      <c r="AT33" s="54"/>
+      <c r="AQ33">
+        <v>-1</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT33" s="47"/>
+      <c r="AU33" s="62"/>
+      <c r="AV33" s="62"/>
+      <c r="AW33" s="54"/>
     </row>
-    <row r="34" spans="1:46" ht="15.75" thickBot="1">
+    <row r="34" spans="1:49" ht="15.75" thickBot="1">
       <c r="A34" s="64"/>
       <c r="B34" s="57" t="s">
         <v>203</v>
@@ -10644,12 +10926,21 @@
       <c r="AP34" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ34" s="47"/>
-      <c r="AR34" s="62"/>
-      <c r="AS34" s="62"/>
-      <c r="AT34" s="54"/>
+      <c r="AQ34">
+        <v>-1</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT34" s="47"/>
+      <c r="AU34" s="62"/>
+      <c r="AV34" s="62"/>
+      <c r="AW34" s="54"/>
     </row>
-    <row r="35" spans="1:46" ht="15.75" thickBot="1">
+    <row r="35" spans="1:49" ht="15.75" thickBot="1">
       <c r="A35" s="64"/>
       <c r="B35" s="57" t="s">
         <v>205</v>
@@ -10764,12 +11055,21 @@
       <c r="AP35" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ35" s="47"/>
-      <c r="AR35" s="62"/>
-      <c r="AS35" s="62"/>
-      <c r="AT35" s="54"/>
+      <c r="AQ35">
+        <v>-1</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT35" s="47"/>
+      <c r="AU35" s="62"/>
+      <c r="AV35" s="62"/>
+      <c r="AW35" s="54"/>
     </row>
-    <row r="36" spans="1:46" ht="15.75" thickBot="1">
+    <row r="36" spans="1:49" ht="15.75" thickBot="1">
       <c r="A36" s="64"/>
       <c r="B36" s="57" t="s">
         <v>206</v>
@@ -10884,12 +11184,21 @@
       <c r="AP36" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ36" s="47"/>
-      <c r="AR36" s="62"/>
-      <c r="AS36" s="62"/>
-      <c r="AT36" s="54"/>
+      <c r="AQ36">
+        <v>-1</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT36" s="47"/>
+      <c r="AU36" s="62"/>
+      <c r="AV36" s="62"/>
+      <c r="AW36" s="54"/>
     </row>
-    <row r="37" spans="1:46" ht="15.75" thickBot="1">
+    <row r="37" spans="1:49" ht="15.75" thickBot="1">
       <c r="A37" s="47"/>
       <c r="B37" s="57" t="s">
         <v>207</v>
@@ -11002,12 +11311,21 @@
       <c r="AP37" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ37" s="47"/>
-      <c r="AR37" s="62"/>
-      <c r="AS37" s="62"/>
-      <c r="AT37" s="54"/>
+      <c r="AQ37">
+        <v>-1</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT37" s="47"/>
+      <c r="AU37" s="62"/>
+      <c r="AV37" s="62"/>
+      <c r="AW37" s="54"/>
     </row>
-    <row r="38" spans="1:46" ht="15.75" thickBot="1">
+    <row r="38" spans="1:49" ht="15.75" thickBot="1">
       <c r="A38" s="64"/>
       <c r="B38" s="57" t="s">
         <v>209</v>
@@ -11122,12 +11440,21 @@
       <c r="AP38" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ38" s="47"/>
-      <c r="AR38" s="62"/>
-      <c r="AS38" s="62"/>
-      <c r="AT38" s="54"/>
+      <c r="AQ38">
+        <v>-1</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT38" s="47"/>
+      <c r="AU38" s="62"/>
+      <c r="AV38" s="62"/>
+      <c r="AW38" s="54"/>
     </row>
-    <row r="39" spans="1:46" ht="15.75" thickBot="1">
+    <row r="39" spans="1:49" ht="15.75" thickBot="1">
       <c r="A39" s="64"/>
       <c r="B39" s="57" t="s">
         <v>211</v>
@@ -11238,12 +11565,21 @@
       <c r="AP39" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ39" s="47"/>
-      <c r="AR39" s="62"/>
-      <c r="AS39" s="62"/>
-      <c r="AT39" s="54"/>
+      <c r="AQ39">
+        <v>-1</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT39" s="47"/>
+      <c r="AU39" s="62"/>
+      <c r="AV39" s="62"/>
+      <c r="AW39" s="54"/>
     </row>
-    <row r="40" spans="1:46" ht="15.75" thickBot="1">
+    <row r="40" spans="1:49" ht="15.75" thickBot="1">
       <c r="A40" s="47"/>
       <c r="B40" s="57" t="s">
         <v>213</v>
@@ -11354,12 +11690,21 @@
       <c r="AP40" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ40" s="47"/>
-      <c r="AR40" s="62"/>
-      <c r="AS40" s="62"/>
-      <c r="AT40" s="54"/>
+      <c r="AQ40">
+        <v>-1</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT40" s="47"/>
+      <c r="AU40" s="62"/>
+      <c r="AV40" s="62"/>
+      <c r="AW40" s="54"/>
     </row>
-    <row r="41" spans="1:46" ht="15.75" thickBot="1">
+    <row r="41" spans="1:49" ht="15.75" thickBot="1">
       <c r="A41" s="64"/>
       <c r="B41" s="57" t="s">
         <v>215</v>
@@ -11474,12 +11819,21 @@
       <c r="AP41" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ41" s="47"/>
-      <c r="AR41" s="62"/>
-      <c r="AS41" s="62"/>
-      <c r="AT41" s="54"/>
+      <c r="AQ41">
+        <v>-1</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT41" s="47"/>
+      <c r="AU41" s="62"/>
+      <c r="AV41" s="62"/>
+      <c r="AW41" s="54"/>
     </row>
-    <row r="42" spans="1:46" ht="15.75" thickBot="1">
+    <row r="42" spans="1:49" ht="15.75" thickBot="1">
       <c r="A42" s="63"/>
       <c r="B42" s="57" t="s">
         <v>216</v>
@@ -11594,12 +11948,21 @@
       <c r="AP42" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ42" s="47"/>
-      <c r="AR42" s="62"/>
-      <c r="AS42" s="62"/>
-      <c r="AT42" s="54"/>
+      <c r="AQ42">
+        <v>-1</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT42" s="47"/>
+      <c r="AU42" s="62"/>
+      <c r="AV42" s="62"/>
+      <c r="AW42" s="54"/>
     </row>
-    <row r="43" spans="1:46" ht="15.75" thickBot="1">
+    <row r="43" spans="1:49" ht="15.75" thickBot="1">
       <c r="A43" s="64"/>
       <c r="B43" s="57" t="s">
         <v>218</v>
@@ -11714,12 +12077,21 @@
       <c r="AP43" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ43" s="47"/>
-      <c r="AR43" s="62"/>
-      <c r="AS43" s="62"/>
-      <c r="AT43" s="54"/>
+      <c r="AQ43">
+        <v>-1</v>
+      </c>
+      <c r="AR43">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT43" s="47"/>
+      <c r="AU43" s="62"/>
+      <c r="AV43" s="62"/>
+      <c r="AW43" s="54"/>
     </row>
-    <row r="44" spans="1:46" ht="15.75" thickBot="1">
+    <row r="44" spans="1:49" ht="15.75" thickBot="1">
       <c r="A44" s="66"/>
       <c r="B44" s="57" t="s">
         <v>220</v>
@@ -11834,12 +12206,21 @@
       <c r="AP44" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ44" s="47"/>
-      <c r="AR44" s="62"/>
-      <c r="AS44" s="62"/>
-      <c r="AT44" s="54"/>
+      <c r="AQ44">
+        <v>-1</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT44" s="47"/>
+      <c r="AU44" s="62"/>
+      <c r="AV44" s="62"/>
+      <c r="AW44" s="54"/>
     </row>
-    <row r="45" spans="1:46" ht="15.75" thickBot="1">
+    <row r="45" spans="1:49" ht="15.75" thickBot="1">
       <c r="A45" s="64"/>
       <c r="B45" s="57" t="s">
         <v>223</v>
@@ -11950,12 +12331,21 @@
       <c r="AP45" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ45" s="47"/>
-      <c r="AR45" s="62"/>
-      <c r="AS45" s="62"/>
-      <c r="AT45" s="54"/>
+      <c r="AQ45">
+        <v>-1</v>
+      </c>
+      <c r="AR45">
+        <v>0</v>
+      </c>
+      <c r="AS45" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT45" s="47"/>
+      <c r="AU45" s="62"/>
+      <c r="AV45" s="62"/>
+      <c r="AW45" s="54"/>
     </row>
-    <row r="46" spans="1:46" ht="15.75" thickBot="1">
+    <row r="46" spans="1:49" ht="15.75" thickBot="1">
       <c r="A46" s="64"/>
       <c r="B46" s="57" t="s">
         <v>226</v>
@@ -12066,12 +12456,21 @@
       <c r="AP46" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ46" s="47"/>
-      <c r="AR46" s="62"/>
-      <c r="AS46" s="62"/>
-      <c r="AT46" s="54"/>
+      <c r="AQ46">
+        <v>-1</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT46" s="47"/>
+      <c r="AU46" s="62"/>
+      <c r="AV46" s="62"/>
+      <c r="AW46" s="54"/>
     </row>
-    <row r="47" spans="1:46" ht="15.75" thickBot="1">
+    <row r="47" spans="1:49" ht="15.75" thickBot="1">
       <c r="A47" s="47"/>
       <c r="B47" s="57" t="s">
         <v>227</v>
@@ -12182,12 +12581,21 @@
       <c r="AP47" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ47" s="47"/>
-      <c r="AR47" s="62"/>
-      <c r="AS47" s="62"/>
-      <c r="AT47" s="54"/>
+      <c r="AQ47">
+        <v>-1</v>
+      </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
+      <c r="AS47" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT47" s="47"/>
+      <c r="AU47" s="62"/>
+      <c r="AV47" s="62"/>
+      <c r="AW47" s="54"/>
     </row>
-    <row r="48" spans="1:46" ht="15.75" thickBot="1">
+    <row r="48" spans="1:49" ht="15.75" thickBot="1">
       <c r="A48" s="64"/>
       <c r="B48" s="57" t="s">
         <v>228</v>
@@ -12290,20 +12698,29 @@
       </c>
       <c r="AM48" s="47"/>
       <c r="AN48">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="AO48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AP48" s="43" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ48">
+        <v>-1</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ48" s="47"/>
-      <c r="AR48" s="62"/>
-      <c r="AS48" s="62"/>
-      <c r="AT48" s="54"/>
+      <c r="AT48" s="47"/>
+      <c r="AU48" s="62"/>
+      <c r="AV48" s="62"/>
+      <c r="AW48" s="54"/>
     </row>
-    <row r="49" spans="1:46" ht="15">
+    <row r="49" spans="1:49" ht="15">
       <c r="A49" s="64"/>
       <c r="B49" s="57" t="s">
         <v>229</v>
@@ -12408,20 +12825,29 @@
       </c>
       <c r="AM49" s="47"/>
       <c r="AN49" s="79">
+        <v>-1</v>
+      </c>
+      <c r="AO49" s="79">
+        <v>0</v>
+      </c>
+      <c r="AP49" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ49" s="79">
         <v>20</v>
       </c>
-      <c r="AO49" s="79">
-        <v>0</v>
-      </c>
-      <c r="AP49" s="43" t="s">
+      <c r="AR49" s="79">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="AQ49" s="47"/>
-      <c r="AR49" s="62"/>
-      <c r="AS49" s="62"/>
-      <c r="AT49" s="54"/>
+      <c r="AT49" s="47"/>
+      <c r="AU49" s="62"/>
+      <c r="AV49" s="62"/>
+      <c r="AW49" s="54"/>
     </row>
-    <row r="50" spans="1:46" ht="15.75" thickBot="1">
+    <row r="50" spans="1:49" ht="15.75" thickBot="1">
       <c r="A50" s="64"/>
       <c r="B50" s="57" t="s">
         <v>230</v>
@@ -12536,12 +12962,21 @@
       <c r="AP50" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ50" s="47"/>
-      <c r="AR50" s="62"/>
-      <c r="AS50" s="62"/>
-      <c r="AT50" s="54"/>
+      <c r="AQ50">
+        <v>-1</v>
+      </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
+      <c r="AS50" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT50" s="47"/>
+      <c r="AU50" s="62"/>
+      <c r="AV50" s="62"/>
+      <c r="AW50" s="54"/>
     </row>
-    <row r="51" spans="1:46" ht="15.75" thickBot="1">
+    <row r="51" spans="1:49" ht="15.75" thickBot="1">
       <c r="A51" s="64"/>
       <c r="B51" s="57" t="s">
         <v>231</v>
@@ -12654,12 +13089,21 @@
       <c r="AP51" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ51" s="47"/>
-      <c r="AR51" s="62"/>
-      <c r="AS51" s="62"/>
-      <c r="AT51" s="54"/>
+      <c r="AQ51">
+        <v>-1</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+      <c r="AS51" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT51" s="47"/>
+      <c r="AU51" s="62"/>
+      <c r="AV51" s="62"/>
+      <c r="AW51" s="54"/>
     </row>
-    <row r="52" spans="1:46" ht="15.75" thickBot="1">
+    <row r="52" spans="1:49" ht="15.75" thickBot="1">
       <c r="A52" s="64"/>
       <c r="B52" s="57" t="s">
         <v>232</v>
@@ -12774,12 +13218,21 @@
       <c r="AP52" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ52" s="47"/>
-      <c r="AR52" s="62"/>
-      <c r="AS52" s="62"/>
-      <c r="AT52" s="54"/>
+      <c r="AQ52">
+        <v>-1</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT52" s="47"/>
+      <c r="AU52" s="62"/>
+      <c r="AV52" s="62"/>
+      <c r="AW52" s="54"/>
     </row>
-    <row r="53" spans="1:46" ht="15.75" thickBot="1">
+    <row r="53" spans="1:49" ht="15.75" thickBot="1">
       <c r="A53" s="64"/>
       <c r="B53" s="57" t="s">
         <v>233</v>
@@ -12894,12 +13347,21 @@
       <c r="AP53" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ53" s="47"/>
-      <c r="AR53" s="62"/>
-      <c r="AS53" s="62"/>
-      <c r="AT53" s="54"/>
+      <c r="AQ53">
+        <v>-1</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT53" s="47"/>
+      <c r="AU53" s="62"/>
+      <c r="AV53" s="62"/>
+      <c r="AW53" s="54"/>
     </row>
-    <row r="54" spans="1:46" ht="15.75" thickBot="1">
+    <row r="54" spans="1:49" ht="15.75" thickBot="1">
       <c r="A54" s="64"/>
       <c r="B54" s="57" t="s">
         <v>234</v>
@@ -13014,12 +13476,21 @@
       <c r="AP54" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ54" s="47"/>
-      <c r="AR54" s="62"/>
-      <c r="AS54" s="62"/>
-      <c r="AT54" s="54"/>
+      <c r="AQ54">
+        <v>-1</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT54" s="47"/>
+      <c r="AU54" s="62"/>
+      <c r="AV54" s="62"/>
+      <c r="AW54" s="54"/>
     </row>
-    <row r="55" spans="1:46" ht="15.75" thickBot="1">
+    <row r="55" spans="1:49" ht="15.75" thickBot="1">
       <c r="A55" s="64"/>
       <c r="B55" s="57" t="s">
         <v>236</v>
@@ -13132,12 +13603,21 @@
       <c r="AP55" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ55" s="47"/>
-      <c r="AR55" s="62"/>
-      <c r="AS55" s="62"/>
-      <c r="AT55" s="54"/>
+      <c r="AQ55">
+        <v>-1</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT55" s="47"/>
+      <c r="AU55" s="62"/>
+      <c r="AV55" s="62"/>
+      <c r="AW55" s="54"/>
     </row>
-    <row r="56" spans="1:46" ht="15.75" thickBot="1">
+    <row r="56" spans="1:49" ht="15.75" thickBot="1">
       <c r="A56" s="64"/>
       <c r="B56" s="57" t="s">
         <v>237</v>
@@ -13252,12 +13732,21 @@
       <c r="AP56" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ56" s="47"/>
-      <c r="AR56" s="62"/>
-      <c r="AS56" s="62"/>
-      <c r="AT56" s="54"/>
+      <c r="AQ56">
+        <v>-1</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT56" s="47"/>
+      <c r="AU56" s="62"/>
+      <c r="AV56" s="62"/>
+      <c r="AW56" s="54"/>
     </row>
-    <row r="57" spans="1:46" ht="15.75" thickBot="1">
+    <row r="57" spans="1:49" ht="15.75" thickBot="1">
       <c r="A57" s="64"/>
       <c r="B57" s="57" t="s">
         <v>238</v>
@@ -13370,12 +13859,21 @@
       <c r="AP57" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ57" s="47"/>
-      <c r="AR57" s="62"/>
-      <c r="AS57" s="62"/>
-      <c r="AT57" s="54"/>
+      <c r="AQ57">
+        <v>-1</v>
+      </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT57" s="47"/>
+      <c r="AU57" s="62"/>
+      <c r="AV57" s="62"/>
+      <c r="AW57" s="54"/>
     </row>
-    <row r="58" spans="1:46" ht="15.75" thickBot="1">
+    <row r="58" spans="1:49" ht="15.75" thickBot="1">
       <c r="A58" s="64"/>
       <c r="B58" s="57" t="s">
         <v>240</v>
@@ -13490,12 +13988,21 @@
       <c r="AP58" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ58" s="47"/>
-      <c r="AR58" s="62"/>
-      <c r="AS58" s="62"/>
-      <c r="AT58" s="54"/>
+      <c r="AQ58">
+        <v>-1</v>
+      </c>
+      <c r="AR58">
+        <v>0</v>
+      </c>
+      <c r="AS58" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT58" s="47"/>
+      <c r="AU58" s="62"/>
+      <c r="AV58" s="62"/>
+      <c r="AW58" s="54"/>
     </row>
-    <row r="59" spans="1:46" ht="15.75" thickBot="1">
+    <row r="59" spans="1:49" ht="15.75" thickBot="1">
       <c r="A59" s="47"/>
       <c r="B59" s="57" t="s">
         <v>241</v>
@@ -13610,12 +14117,21 @@
       <c r="AP59" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ59" s="47"/>
-      <c r="AR59" s="62"/>
-      <c r="AS59" s="62"/>
-      <c r="AT59" s="54"/>
+      <c r="AQ59">
+        <v>-1</v>
+      </c>
+      <c r="AR59">
+        <v>0</v>
+      </c>
+      <c r="AS59" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT59" s="47"/>
+      <c r="AU59" s="62"/>
+      <c r="AV59" s="62"/>
+      <c r="AW59" s="54"/>
     </row>
-    <row r="60" spans="1:46" ht="15.75" thickBot="1">
+    <row r="60" spans="1:49" ht="15.75" thickBot="1">
       <c r="A60" s="47"/>
       <c r="B60" s="57" t="s">
         <v>242</v>
@@ -13730,12 +14246,21 @@
       <c r="AP60" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ60" s="47"/>
-      <c r="AR60" s="62"/>
-      <c r="AS60" s="62"/>
-      <c r="AT60" s="54"/>
+      <c r="AQ60">
+        <v>-1</v>
+      </c>
+      <c r="AR60">
+        <v>0</v>
+      </c>
+      <c r="AS60" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT60" s="47"/>
+      <c r="AU60" s="62"/>
+      <c r="AV60" s="62"/>
+      <c r="AW60" s="54"/>
     </row>
-    <row r="61" spans="1:46" ht="15.75" thickBot="1">
+    <row r="61" spans="1:49" ht="15.75" thickBot="1">
       <c r="A61" s="47"/>
       <c r="B61" s="57" t="s">
         <v>243</v>
@@ -13848,12 +14373,21 @@
       <c r="AP61" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ61" s="47"/>
-      <c r="AR61" s="62"/>
-      <c r="AS61" s="62"/>
-      <c r="AT61" s="54"/>
+      <c r="AQ61">
+        <v>-1</v>
+      </c>
+      <c r="AR61">
+        <v>0</v>
+      </c>
+      <c r="AS61" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT61" s="47"/>
+      <c r="AU61" s="62"/>
+      <c r="AV61" s="62"/>
+      <c r="AW61" s="54"/>
     </row>
-    <row r="62" spans="1:46" ht="15.75" thickBot="1">
+    <row r="62" spans="1:49" ht="15.75" thickBot="1">
       <c r="A62" s="47"/>
       <c r="B62" s="57" t="s">
         <v>245</v>
@@ -13968,12 +14502,21 @@
       <c r="AP62" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ62" s="47"/>
-      <c r="AR62" s="62"/>
-      <c r="AS62" s="62"/>
-      <c r="AT62" s="54"/>
+      <c r="AQ62">
+        <v>-1</v>
+      </c>
+      <c r="AR62">
+        <v>0</v>
+      </c>
+      <c r="AS62" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT62" s="47"/>
+      <c r="AU62" s="62"/>
+      <c r="AV62" s="62"/>
+      <c r="AW62" s="54"/>
     </row>
-    <row r="63" spans="1:46" ht="15">
+    <row r="63" spans="1:49" ht="15">
       <c r="A63" s="47"/>
       <c r="B63" s="57" t="s">
         <v>246</v>
@@ -14084,12 +14627,21 @@
       <c r="AP63" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ63" s="47"/>
-      <c r="AR63" s="62"/>
-      <c r="AS63" s="62"/>
-      <c r="AT63" s="54"/>
+      <c r="AQ63">
+        <v>-1</v>
+      </c>
+      <c r="AR63">
+        <v>0</v>
+      </c>
+      <c r="AS63" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT63" s="47"/>
+      <c r="AU63" s="62"/>
+      <c r="AV63" s="62"/>
+      <c r="AW63" s="54"/>
     </row>
-    <row r="64" spans="1:46" ht="15">
+    <row r="64" spans="1:49" ht="15">
       <c r="A64" s="47"/>
       <c r="B64" s="57" t="s">
         <v>248</v>
@@ -14200,12 +14752,21 @@
       <c r="AP64" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ64" s="47"/>
-      <c r="AR64" s="62"/>
-      <c r="AS64" s="62"/>
-      <c r="AT64" s="54"/>
+      <c r="AQ64">
+        <v>-1</v>
+      </c>
+      <c r="AR64">
+        <v>0</v>
+      </c>
+      <c r="AS64" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT64" s="47"/>
+      <c r="AU64" s="62"/>
+      <c r="AV64" s="62"/>
+      <c r="AW64" s="54"/>
     </row>
-    <row r="65" spans="1:46" ht="15">
+    <row r="65" spans="1:49" ht="15">
       <c r="A65" s="47"/>
       <c r="B65" s="57" t="s">
         <v>250</v>
@@ -14316,12 +14877,21 @@
       <c r="AP65" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ65" s="47"/>
-      <c r="AR65" s="62"/>
-      <c r="AS65" s="62"/>
-      <c r="AT65" s="54"/>
+      <c r="AQ65">
+        <v>-1</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AS65" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT65" s="47"/>
+      <c r="AU65" s="62"/>
+      <c r="AV65" s="62"/>
+      <c r="AW65" s="54"/>
     </row>
-    <row r="66" spans="1:46" ht="15">
+    <row r="66" spans="1:49" ht="15">
       <c r="A66" s="47"/>
       <c r="B66" s="57" t="s">
         <v>253</v>
@@ -14432,12 +15002,21 @@
       <c r="AP66" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ66" s="47"/>
-      <c r="AR66" s="62"/>
-      <c r="AS66" s="62"/>
-      <c r="AT66" s="54"/>
+      <c r="AQ66">
+        <v>-1</v>
+      </c>
+      <c r="AR66">
+        <v>0</v>
+      </c>
+      <c r="AS66" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT66" s="47"/>
+      <c r="AU66" s="62"/>
+      <c r="AV66" s="62"/>
+      <c r="AW66" s="54"/>
     </row>
-    <row r="67" spans="1:46" ht="15">
+    <row r="67" spans="1:49" ht="15">
       <c r="A67" s="47"/>
       <c r="B67" s="57" t="s">
         <v>256</v>
@@ -14548,12 +15127,21 @@
       <c r="AP67" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ67" s="47"/>
-      <c r="AR67" s="62"/>
-      <c r="AS67" s="62"/>
-      <c r="AT67" s="54"/>
+      <c r="AQ67">
+        <v>-1</v>
+      </c>
+      <c r="AR67">
+        <v>0</v>
+      </c>
+      <c r="AS67" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT67" s="47"/>
+      <c r="AU67" s="62"/>
+      <c r="AV67" s="62"/>
+      <c r="AW67" s="54"/>
     </row>
-    <row r="68" spans="1:46" ht="15.75" thickBot="1">
+    <row r="68" spans="1:49" ht="15.75" thickBot="1">
       <c r="A68" s="47"/>
       <c r="B68" s="57" t="s">
         <v>259</v>
@@ -14664,12 +15252,21 @@
       <c r="AP68" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ68" s="47"/>
-      <c r="AR68" s="62"/>
-      <c r="AS68" s="62"/>
-      <c r="AT68" s="54"/>
+      <c r="AQ68">
+        <v>-1</v>
+      </c>
+      <c r="AR68">
+        <v>0</v>
+      </c>
+      <c r="AS68" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT68" s="47"/>
+      <c r="AU68" s="62"/>
+      <c r="AV68" s="62"/>
+      <c r="AW68" s="54"/>
     </row>
-    <row r="69" spans="1:46" ht="15.75" thickBot="1">
+    <row r="69" spans="1:49" ht="15.75" thickBot="1">
       <c r="A69" s="47"/>
       <c r="B69" s="57" t="s">
         <v>261</v>
@@ -14780,26 +15377,40 @@
       <c r="AP69" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ69" s="47"/>
-      <c r="AR69" s="62"/>
-      <c r="AS69" s="62"/>
-      <c r="AT69" s="54"/>
+      <c r="AQ69">
+        <v>-1</v>
+      </c>
+      <c r="AR69">
+        <v>0</v>
+      </c>
+      <c r="AS69" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT69" s="47"/>
+      <c r="AU69" s="62"/>
+      <c r="AV69" s="62"/>
+      <c r="AW69" s="54"/>
     </row>
-    <row r="70" spans="1:46">
+    <row r="70" spans="1:49">
       <c r="AI70" s="4"/>
       <c r="AJ70" s="4"/>
       <c r="AK70" s="4"/>
       <c r="AL70" s="4"/>
       <c r="AM70" s="4"/>
-      <c r="AQ70" s="4"/>
+      <c r="AT70" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="AN3:AP3"/>
+  <mergeCells count="22">
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="AN4:AP4"/>
     <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="AQ5:AS5"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="V3:AA3"/>
@@ -14824,7 +15435,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15360,8 +15971,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="B20" t="s">
-        <v>225</v>
+      <c r="B20" s="43" t="s">
+        <v>422</v>
       </c>
       <c r="C20" t="s">
         <v>225</v>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F989408-C5D8-459C-B895-B6C06773F842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C493D283-C466-46E8-94F9-DB1B5596BB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="428">
   <si>
     <t>##var</t>
   </si>
@@ -4740,6 +4740,26 @@
   </si>
   <si>
     <t>下一次技能伤害两倍</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一次伤害加80</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuple3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗牌 然后获得Buff</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害技能|变化技能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume_self_card_buff_config</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -6551,10 +6571,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AW70"/>
+  <dimension ref="A1:AZ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG22" workbookViewId="0">
-      <selection activeCell="AP48" sqref="AP48"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2:AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6595,14 +6615,16 @@
     <col min="35" max="35" width="13.25" customWidth="1"/>
     <col min="36" max="36" width="17.875" customWidth="1"/>
     <col min="37" max="39" width="19.5" customWidth="1"/>
-    <col min="42" max="42" width="20.875" customWidth="1"/>
-    <col min="46" max="46" width="18.875" customWidth="1"/>
-    <col min="47" max="47" width="12.75" customWidth="1"/>
-    <col min="48" max="48" width="16.25" customWidth="1"/>
-    <col min="49" max="49" width="15.75" style="20" customWidth="1"/>
+    <col min="41" max="41" width="29.5" customWidth="1"/>
+    <col min="42" max="42" width="20.625" customWidth="1"/>
+    <col min="45" max="45" width="14" customWidth="1"/>
+    <col min="49" max="49" width="18.875" customWidth="1"/>
+    <col min="50" max="50" width="12.75" customWidth="1"/>
+    <col min="51" max="51" width="16.25" customWidth="1"/>
+    <col min="52" max="52" width="15.75" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="15">
+    <row r="1" spans="1:52" ht="15">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -6707,29 +6729,34 @@
         <v>409</v>
       </c>
       <c r="AN1" s="78" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="AO1" s="77"/>
       <c r="AP1" s="77"/>
       <c r="AQ1" s="78" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="AR1" s="77"/>
       <c r="AS1" s="77"/>
-      <c r="AT1" s="47" t="s">
+      <c r="AT1" s="78" t="s">
+        <v>413</v>
+      </c>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="AU1" s="47" t="s">
+      <c r="AX1" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="AV1" s="49" t="s">
+      <c r="AY1" s="49" t="s">
         <v>415</v>
       </c>
-      <c r="AW1" s="47" t="s">
+      <c r="AZ1" s="47" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="15">
+    <row r="2" spans="1:52" ht="15">
       <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
@@ -6777,12 +6804,15 @@
       <c r="AQ2" s="77"/>
       <c r="AR2" s="77"/>
       <c r="AS2" s="77"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="54"/>
+      <c r="AT2" s="77"/>
+      <c r="AU2" s="77"/>
+      <c r="AV2" s="77"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="54"/>
     </row>
-    <row r="3" spans="1:49" ht="15">
+    <row r="3" spans="1:52" ht="15">
       <c r="A3" s="47" t="s">
         <v>16</v>
       </c>
@@ -6887,7 +6917,7 @@
         <v>399</v>
       </c>
       <c r="AN3" s="75" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="AO3" s="76"/>
       <c r="AP3" s="76"/>
@@ -6896,20 +6926,25 @@
       </c>
       <c r="AR3" s="76"/>
       <c r="AS3" s="76"/>
-      <c r="AT3" s="47" t="s">
+      <c r="AT3" s="75" t="s">
+        <v>412</v>
+      </c>
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="76"/>
+      <c r="AW3" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="AU3" s="47" t="s">
+      <c r="AX3" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="AV3" s="49" t="s">
+      <c r="AY3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AW3" s="47" t="s">
+      <c r="AZ3" s="47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="15">
+    <row r="4" spans="1:52" ht="15">
       <c r="A4" s="47" t="s">
         <v>23</v>
       </c>
@@ -6957,12 +6992,15 @@
       <c r="AQ4" s="77"/>
       <c r="AR4" s="77"/>
       <c r="AS4" s="77"/>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="47"/>
-      <c r="AV4" s="49"/>
-      <c r="AW4" s="54"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="54"/>
     </row>
-    <row r="5" spans="1:49" ht="15.75" thickBot="1">
+    <row r="5" spans="1:52" ht="15.75" thickBot="1">
       <c r="A5" s="47" t="s">
         <v>24</v>
       </c>
@@ -7081,7 +7119,7 @@
         <v>401</v>
       </c>
       <c r="AN5" s="80" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="AO5" s="78"/>
       <c r="AP5" s="81"/>
@@ -7090,20 +7128,25 @@
       </c>
       <c r="AR5" s="78"/>
       <c r="AS5" s="81"/>
-      <c r="AT5" s="47" t="s">
+      <c r="AT5" s="80" t="s">
+        <v>420</v>
+      </c>
+      <c r="AU5" s="78"/>
+      <c r="AV5" s="81"/>
+      <c r="AW5" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="AU5" s="47" t="s">
+      <c r="AX5" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="AV5" s="49" t="s">
+      <c r="AY5" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="AW5" s="54" t="s">
+      <c r="AZ5" s="54" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="15.75" thickBot="1">
+    <row r="6" spans="1:52" ht="15.75" thickBot="1">
       <c r="A6" s="47"/>
       <c r="B6" s="57" t="s">
         <v>151</v>
@@ -7214,10 +7257,10 @@
       </c>
       <c r="AM6" s="47"/>
       <c r="AN6">
-        <v>-1</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP6" s="43" t="s">
         <v>414</v>
@@ -7231,14 +7274,23 @@
       <c r="AS6" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT6" s="47">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="62"/>
-      <c r="AV6" s="62"/>
-      <c r="AW6" s="54"/>
+      <c r="AT6">
+        <v>-1</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW6" s="47">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="62"/>
+      <c r="AY6" s="62"/>
+      <c r="AZ6" s="54"/>
     </row>
-    <row r="7" spans="1:49" ht="15.75" thickBot="1">
+    <row r="7" spans="1:52" ht="15.75" thickBot="1">
       <c r="A7" s="47"/>
       <c r="B7" s="57" t="s">
         <v>157</v>
@@ -7349,10 +7401,10 @@
       </c>
       <c r="AM7" s="47"/>
       <c r="AN7">
-        <v>-1</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP7" s="43" t="s">
         <v>414</v>
@@ -7366,14 +7418,23 @@
       <c r="AS7" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT7" s="47">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="62"/>
-      <c r="AV7" s="62"/>
-      <c r="AW7" s="54"/>
+      <c r="AT7">
+        <v>-1</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW7" s="47">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="62"/>
+      <c r="AY7" s="62"/>
+      <c r="AZ7" s="54"/>
     </row>
-    <row r="8" spans="1:49" ht="15.75" thickBot="1">
+    <row r="8" spans="1:52" ht="15.75" thickBot="1">
       <c r="A8" s="47"/>
       <c r="B8" s="57" t="s">
         <v>158</v>
@@ -7484,10 +7545,10 @@
       </c>
       <c r="AM8" s="47"/>
       <c r="AN8">
-        <v>-1</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP8" s="43" t="s">
         <v>414</v>
@@ -7501,14 +7562,23 @@
       <c r="AS8" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT8" s="47">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="62"/>
-      <c r="AV8" s="62"/>
-      <c r="AW8" s="54"/>
+      <c r="AT8">
+        <v>-1</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW8" s="47">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="62"/>
+      <c r="AY8" s="62"/>
+      <c r="AZ8" s="54"/>
     </row>
-    <row r="9" spans="1:49" ht="15.75" thickBot="1">
+    <row r="9" spans="1:52" ht="15.75" thickBot="1">
       <c r="A9" s="47"/>
       <c r="B9" s="57" t="s">
         <v>159</v>
@@ -7619,10 +7689,10 @@
       </c>
       <c r="AM9" s="47"/>
       <c r="AN9">
-        <v>-1</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP9" s="43" t="s">
         <v>414</v>
@@ -7636,14 +7706,23 @@
       <c r="AS9" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT9" s="47">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="62"/>
-      <c r="AV9" s="62"/>
-      <c r="AW9" s="54"/>
+      <c r="AT9">
+        <v>-1</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW9" s="47">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="62"/>
+      <c r="AY9" s="62"/>
+      <c r="AZ9" s="54"/>
     </row>
-    <row r="10" spans="1:49" ht="15.75" thickBot="1">
+    <row r="10" spans="1:52" ht="15.75" thickBot="1">
       <c r="A10" s="47"/>
       <c r="B10" s="57" t="s">
         <v>160</v>
@@ -7754,10 +7833,10 @@
       </c>
       <c r="AM10" s="47"/>
       <c r="AN10">
-        <v>-1</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP10" s="43" t="s">
         <v>414</v>
@@ -7771,14 +7850,23 @@
       <c r="AS10" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT10" s="47">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="62"/>
-      <c r="AV10" s="62"/>
-      <c r="AW10" s="54"/>
+      <c r="AT10">
+        <v>-1</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW10" s="47">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="62"/>
+      <c r="AY10" s="62"/>
+      <c r="AZ10" s="54"/>
     </row>
-    <row r="11" spans="1:49" ht="15.75" thickBot="1">
+    <row r="11" spans="1:52" ht="15.75" thickBot="1">
       <c r="A11" s="47"/>
       <c r="B11" s="57" t="s">
         <v>163</v>
@@ -7889,10 +7977,10 @@
       </c>
       <c r="AM11" s="47"/>
       <c r="AN11">
-        <v>-1</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP11" s="43" t="s">
         <v>414</v>
@@ -7906,14 +7994,23 @@
       <c r="AS11" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT11" s="47">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="62"/>
-      <c r="AV11" s="62"/>
-      <c r="AW11" s="54"/>
+      <c r="AT11">
+        <v>-1</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW11" s="47">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="62"/>
+      <c r="AY11" s="62"/>
+      <c r="AZ11" s="54"/>
     </row>
-    <row r="12" spans="1:49" ht="15.75" thickBot="1">
+    <row r="12" spans="1:52" ht="15.75" thickBot="1">
       <c r="A12" s="47"/>
       <c r="B12" s="57" t="s">
         <v>164</v>
@@ -8024,10 +8121,10 @@
       </c>
       <c r="AM12" s="47"/>
       <c r="AN12">
-        <v>-1</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP12" s="43" t="s">
         <v>414</v>
@@ -8041,14 +8138,23 @@
       <c r="AS12" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT12" s="47">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="62"/>
-      <c r="AV12" s="62"/>
-      <c r="AW12" s="54"/>
+      <c r="AT12">
+        <v>-1</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW12" s="47">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="62"/>
+      <c r="AY12" s="62"/>
+      <c r="AZ12" s="54"/>
     </row>
-    <row r="13" spans="1:49" ht="15.75" thickBot="1">
+    <row r="13" spans="1:52" ht="15.75" thickBot="1">
       <c r="A13" s="47"/>
       <c r="B13" s="57" t="s">
         <v>166</v>
@@ -8159,10 +8265,10 @@
       </c>
       <c r="AM13" s="47"/>
       <c r="AN13">
-        <v>-1</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP13" s="43" t="s">
         <v>414</v>
@@ -8176,14 +8282,23 @@
       <c r="AS13" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT13" s="47">
+      <c r="AT13">
+        <v>-1</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW13" s="47">
         <v>0.5</v>
       </c>
-      <c r="AU13" s="62"/>
-      <c r="AV13" s="62"/>
-      <c r="AW13" s="54"/>
+      <c r="AX13" s="62"/>
+      <c r="AY13" s="62"/>
+      <c r="AZ13" s="54"/>
     </row>
-    <row r="14" spans="1:49" ht="15.75" thickBot="1">
+    <row r="14" spans="1:52" ht="15.75" thickBot="1">
       <c r="A14" s="47"/>
       <c r="B14" s="57" t="s">
         <v>167</v>
@@ -8292,10 +8407,10 @@
       </c>
       <c r="AM14" s="47"/>
       <c r="AN14">
-        <v>-1</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP14" s="43" t="s">
         <v>414</v>
@@ -8309,14 +8424,23 @@
       <c r="AS14" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT14" s="47">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="62"/>
-      <c r="AV14" s="62"/>
-      <c r="AW14" s="54"/>
+      <c r="AT14">
+        <v>-1</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW14" s="47">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="62"/>
+      <c r="AY14" s="62"/>
+      <c r="AZ14" s="54"/>
     </row>
-    <row r="15" spans="1:49" ht="15.75" thickBot="1">
+    <row r="15" spans="1:52" ht="15.75" thickBot="1">
       <c r="A15" s="47"/>
       <c r="B15" s="57" t="s">
         <v>170</v>
@@ -8425,10 +8549,10 @@
       </c>
       <c r="AM15" s="47"/>
       <c r="AN15">
-        <v>-1</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP15" s="43" t="s">
         <v>414</v>
@@ -8442,14 +8566,23 @@
       <c r="AS15" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT15" s="47">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="62"/>
-      <c r="AV15" s="62"/>
-      <c r="AW15" s="54"/>
+      <c r="AT15">
+        <v>-1</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="62"/>
+      <c r="AY15" s="62"/>
+      <c r="AZ15" s="54"/>
     </row>
-    <row r="16" spans="1:49" ht="15.75" thickBot="1">
+    <row r="16" spans="1:52" ht="15.75" thickBot="1">
       <c r="A16" s="47"/>
       <c r="B16" s="57" t="s">
         <v>172</v>
@@ -8558,10 +8691,10 @@
       </c>
       <c r="AM16" s="47"/>
       <c r="AN16">
-        <v>-1</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP16" s="43" t="s">
         <v>414</v>
@@ -8575,14 +8708,23 @@
       <c r="AS16" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT16" s="47">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="62"/>
-      <c r="AV16" s="62"/>
-      <c r="AW16" s="54"/>
+      <c r="AT16">
+        <v>-1</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="62"/>
+      <c r="AY16" s="62"/>
+      <c r="AZ16" s="54"/>
     </row>
-    <row r="17" spans="1:49" ht="15.75" thickBot="1">
+    <row r="17" spans="1:52" ht="15.75" thickBot="1">
       <c r="A17" s="47"/>
       <c r="B17" s="57" t="s">
         <v>173</v>
@@ -8691,10 +8833,10 @@
       </c>
       <c r="AM17" s="47"/>
       <c r="AN17">
-        <v>-1</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP17" s="43" t="s">
         <v>414</v>
@@ -8708,18 +8850,27 @@
       <c r="AS17" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT17" s="47">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="62">
+      <c r="AT17">
+        <v>-1</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="62">
         <v>0.5</v>
       </c>
-      <c r="AV17" s="62"/>
-      <c r="AW17" s="54">
+      <c r="AY17" s="62"/>
+      <c r="AZ17" s="54">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:49" ht="15.75" thickBot="1">
+    <row r="18" spans="1:52" ht="15.75" thickBot="1">
       <c r="A18" s="47"/>
       <c r="B18" s="57" t="s">
         <v>174</v>
@@ -8828,10 +8979,10 @@
       </c>
       <c r="AM18" s="47"/>
       <c r="AN18">
-        <v>-1</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP18" s="43" t="s">
         <v>414</v>
@@ -8845,16 +8996,25 @@
       <c r="AS18" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT18" s="47">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="62"/>
-      <c r="AV18" s="62" t="s">
+      <c r="AT18">
+        <v>-1</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW18" s="47">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="62"/>
+      <c r="AY18" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="AW18" s="54"/>
+      <c r="AZ18" s="54"/>
     </row>
-    <row r="19" spans="1:49" ht="15.75" thickBot="1">
+    <row r="19" spans="1:52" ht="15.75" thickBot="1">
       <c r="A19" s="47"/>
       <c r="B19" s="57" t="s">
         <v>178</v>
@@ -8963,10 +9123,10 @@
       </c>
       <c r="AM19" s="47"/>
       <c r="AN19">
-        <v>-1</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP19" s="43" t="s">
         <v>414</v>
@@ -8980,12 +9140,21 @@
       <c r="AS19" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT19" s="47"/>
-      <c r="AU19" s="62"/>
-      <c r="AV19" s="62"/>
-      <c r="AW19" s="54"/>
+      <c r="AT19">
+        <v>-1</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW19" s="47"/>
+      <c r="AX19" s="62"/>
+      <c r="AY19" s="62"/>
+      <c r="AZ19" s="54"/>
     </row>
-    <row r="20" spans="1:49" ht="15.75" thickBot="1">
+    <row r="20" spans="1:52" ht="15.75" thickBot="1">
       <c r="A20" s="47"/>
       <c r="B20" s="57" t="s">
         <v>180</v>
@@ -9094,10 +9263,10 @@
       </c>
       <c r="AM20" s="47"/>
       <c r="AN20">
-        <v>-1</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO20" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP20" s="43" t="s">
         <v>414</v>
@@ -9111,12 +9280,21 @@
       <c r="AS20" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT20" s="47"/>
-      <c r="AU20" s="62"/>
-      <c r="AV20" s="62"/>
-      <c r="AW20" s="54"/>
+      <c r="AT20">
+        <v>-1</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW20" s="47"/>
+      <c r="AX20" s="62"/>
+      <c r="AY20" s="62"/>
+      <c r="AZ20" s="54"/>
     </row>
-    <row r="21" spans="1:49" ht="15.75" thickBot="1">
+    <row r="21" spans="1:52" ht="15.75" thickBot="1">
       <c r="A21" s="47"/>
       <c r="B21" s="57" t="s">
         <v>181</v>
@@ -9225,10 +9403,10 @@
       </c>
       <c r="AM21" s="47"/>
       <c r="AN21">
-        <v>-1</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP21" s="43" t="s">
         <v>414</v>
@@ -9242,12 +9420,21 @@
       <c r="AS21" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT21" s="47"/>
-      <c r="AU21" s="62"/>
-      <c r="AV21" s="62"/>
-      <c r="AW21" s="54"/>
+      <c r="AT21">
+        <v>-1</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW21" s="47"/>
+      <c r="AX21" s="62"/>
+      <c r="AY21" s="62"/>
+      <c r="AZ21" s="54"/>
     </row>
-    <row r="22" spans="1:49" ht="15.75" thickBot="1">
+    <row r="22" spans="1:52" ht="15.75" thickBot="1">
       <c r="A22" s="47"/>
       <c r="B22" s="57" t="s">
         <v>182</v>
@@ -9358,10 +9545,10 @@
       </c>
       <c r="AM22" s="47"/>
       <c r="AN22">
-        <v>-1</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP22" s="43" t="s">
         <v>414</v>
@@ -9375,12 +9562,21 @@
       <c r="AS22" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT22" s="47"/>
-      <c r="AU22" s="62"/>
-      <c r="AV22" s="62"/>
-      <c r="AW22" s="54"/>
+      <c r="AT22">
+        <v>-1</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW22" s="47"/>
+      <c r="AX22" s="62"/>
+      <c r="AY22" s="62"/>
+      <c r="AZ22" s="54"/>
     </row>
-    <row r="23" spans="1:49" ht="15.75" thickBot="1">
+    <row r="23" spans="1:52" ht="15.75" thickBot="1">
       <c r="A23" s="47"/>
       <c r="B23" s="57" t="s">
         <v>184</v>
@@ -9489,10 +9685,10 @@
       </c>
       <c r="AM23" s="47"/>
       <c r="AN23">
-        <v>-1</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO23" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP23" s="43" t="s">
         <v>414</v>
@@ -9506,12 +9702,21 @@
       <c r="AS23" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT23" s="47"/>
-      <c r="AU23" s="62"/>
-      <c r="AV23" s="62"/>
-      <c r="AW23" s="54"/>
+      <c r="AT23">
+        <v>-1</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW23" s="47"/>
+      <c r="AX23" s="62"/>
+      <c r="AY23" s="62"/>
+      <c r="AZ23" s="54"/>
     </row>
-    <row r="24" spans="1:49" ht="15.75" thickBot="1">
+    <row r="24" spans="1:52" ht="15.75" thickBot="1">
       <c r="A24" s="47"/>
       <c r="B24" s="57" t="s">
         <v>185</v>
@@ -9618,10 +9823,10 @@
       </c>
       <c r="AM24" s="47"/>
       <c r="AN24">
-        <v>-1</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO24" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP24" s="43" t="s">
         <v>414</v>
@@ -9635,12 +9840,21 @@
       <c r="AS24" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT24" s="47"/>
-      <c r="AU24" s="62"/>
-      <c r="AV24" s="62"/>
-      <c r="AW24" s="54"/>
+      <c r="AT24">
+        <v>-1</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW24" s="47"/>
+      <c r="AX24" s="62"/>
+      <c r="AY24" s="62"/>
+      <c r="AZ24" s="54"/>
     </row>
-    <row r="25" spans="1:49" ht="15.75" thickBot="1">
+    <row r="25" spans="1:52" ht="15.75" thickBot="1">
       <c r="A25" s="47"/>
       <c r="B25" s="57" t="s">
         <v>187</v>
@@ -9747,10 +9961,10 @@
       </c>
       <c r="AM25" s="47"/>
       <c r="AN25">
-        <v>-1</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO25" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP25" s="43" t="s">
         <v>414</v>
@@ -9764,12 +9978,21 @@
       <c r="AS25" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT25" s="47"/>
-      <c r="AU25" s="62"/>
-      <c r="AV25" s="62"/>
-      <c r="AW25" s="54"/>
+      <c r="AT25">
+        <v>-1</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW25" s="47"/>
+      <c r="AX25" s="62"/>
+      <c r="AY25" s="62"/>
+      <c r="AZ25" s="54"/>
     </row>
-    <row r="26" spans="1:49" ht="15.75" thickBot="1">
+    <row r="26" spans="1:52" ht="15.75" thickBot="1">
       <c r="A26" s="63"/>
       <c r="B26" s="57" t="s">
         <v>189</v>
@@ -9882,10 +10105,10 @@
       </c>
       <c r="AM26" s="47"/>
       <c r="AN26">
-        <v>-1</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO26" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP26" s="43" t="s">
         <v>414</v>
@@ -9899,12 +10122,21 @@
       <c r="AS26" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT26" s="47"/>
-      <c r="AU26" s="62"/>
-      <c r="AV26" s="62"/>
-      <c r="AW26" s="54"/>
+      <c r="AT26">
+        <v>-1</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW26" s="47"/>
+      <c r="AX26" s="62"/>
+      <c r="AY26" s="62"/>
+      <c r="AZ26" s="54"/>
     </row>
-    <row r="27" spans="1:49" ht="15.75" thickBot="1">
+    <row r="27" spans="1:52" ht="15.75" thickBot="1">
       <c r="A27" s="47"/>
       <c r="B27" s="57" t="s">
         <v>192</v>
@@ -10011,10 +10243,10 @@
       </c>
       <c r="AM27" s="47"/>
       <c r="AN27">
-        <v>-1</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO27" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP27" s="43" t="s">
         <v>414</v>
@@ -10028,12 +10260,21 @@
       <c r="AS27" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT27" s="47"/>
-      <c r="AU27" s="62"/>
-      <c r="AV27" s="62"/>
-      <c r="AW27" s="54"/>
+      <c r="AT27">
+        <v>-1</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW27" s="47"/>
+      <c r="AX27" s="62"/>
+      <c r="AY27" s="62"/>
+      <c r="AZ27" s="54"/>
     </row>
-    <row r="28" spans="1:49" ht="15.75" thickBot="1">
+    <row r="28" spans="1:52" ht="15.75" thickBot="1">
       <c r="A28" s="47"/>
       <c r="B28" s="57" t="s">
         <v>193</v>
@@ -10140,10 +10381,10 @@
       </c>
       <c r="AM28" s="47"/>
       <c r="AN28">
-        <v>-1</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO28" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP28" s="43" t="s">
         <v>414</v>
@@ -10157,12 +10398,21 @@
       <c r="AS28" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT28" s="47"/>
-      <c r="AU28" s="62"/>
-      <c r="AV28" s="62"/>
-      <c r="AW28" s="54"/>
+      <c r="AT28">
+        <v>-1</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW28" s="47"/>
+      <c r="AX28" s="62"/>
+      <c r="AY28" s="62"/>
+      <c r="AZ28" s="54"/>
     </row>
-    <row r="29" spans="1:49" ht="15.75" thickBot="1">
+    <row r="29" spans="1:52" ht="15.75" thickBot="1">
       <c r="A29" s="47"/>
       <c r="B29" s="57" t="s">
         <v>196</v>
@@ -10269,10 +10519,10 @@
       </c>
       <c r="AM29" s="47"/>
       <c r="AN29">
-        <v>-1</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO29" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP29" s="43" t="s">
         <v>414</v>
@@ -10286,12 +10536,21 @@
       <c r="AS29" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT29" s="47"/>
-      <c r="AU29" s="62"/>
-      <c r="AV29" s="62"/>
-      <c r="AW29" s="54"/>
+      <c r="AT29">
+        <v>-1</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW29" s="47"/>
+      <c r="AX29" s="62"/>
+      <c r="AY29" s="62"/>
+      <c r="AZ29" s="54"/>
     </row>
-    <row r="30" spans="1:49" ht="15.75" thickBot="1">
+    <row r="30" spans="1:52" ht="15.75" thickBot="1">
       <c r="A30" s="47"/>
       <c r="B30" s="57" t="s">
         <v>197</v>
@@ -10398,10 +10657,10 @@
       </c>
       <c r="AM30" s="47"/>
       <c r="AN30">
-        <v>-1</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO30" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP30" s="43" t="s">
         <v>414</v>
@@ -10415,12 +10674,21 @@
       <c r="AS30" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT30" s="47"/>
-      <c r="AU30" s="62"/>
-      <c r="AV30" s="62"/>
-      <c r="AW30" s="54"/>
+      <c r="AT30">
+        <v>-1</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW30" s="47"/>
+      <c r="AX30" s="62"/>
+      <c r="AY30" s="62"/>
+      <c r="AZ30" s="54"/>
     </row>
-    <row r="31" spans="1:49" ht="15.75" thickBot="1">
+    <row r="31" spans="1:52" ht="15.75" thickBot="1">
       <c r="A31" s="64"/>
       <c r="B31" s="57" t="s">
         <v>199</v>
@@ -10529,10 +10797,10 @@
       </c>
       <c r="AM31" s="47"/>
       <c r="AN31">
-        <v>-1</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO31" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP31" s="43" t="s">
         <v>414</v>
@@ -10546,12 +10814,21 @@
       <c r="AS31" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT31" s="47"/>
-      <c r="AU31" s="62"/>
-      <c r="AV31" s="62"/>
-      <c r="AW31" s="54"/>
+      <c r="AT31">
+        <v>-1</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW31" s="47"/>
+      <c r="AX31" s="62"/>
+      <c r="AY31" s="62"/>
+      <c r="AZ31" s="54"/>
     </row>
-    <row r="32" spans="1:49" ht="15.75" thickBot="1">
+    <row r="32" spans="1:52" ht="15.75" thickBot="1">
       <c r="A32" s="47"/>
       <c r="B32" s="57" t="s">
         <v>200</v>
@@ -10658,10 +10935,10 @@
       </c>
       <c r="AM32" s="47"/>
       <c r="AN32">
-        <v>-1</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO32" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP32" s="43" t="s">
         <v>414</v>
@@ -10675,12 +10952,21 @@
       <c r="AS32" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT32" s="47"/>
-      <c r="AU32" s="62"/>
-      <c r="AV32" s="62"/>
-      <c r="AW32" s="54"/>
+      <c r="AT32">
+        <v>-1</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW32" s="47"/>
+      <c r="AX32" s="62"/>
+      <c r="AY32" s="62"/>
+      <c r="AZ32" s="54"/>
     </row>
-    <row r="33" spans="1:49" ht="15.75" thickBot="1">
+    <row r="33" spans="1:52" ht="15.75" thickBot="1">
       <c r="A33" s="47"/>
       <c r="B33" s="57" t="s">
         <v>201</v>
@@ -10789,10 +11075,10 @@
       </c>
       <c r="AM33" s="47"/>
       <c r="AN33">
-        <v>-1</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO33" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP33" s="43" t="s">
         <v>414</v>
@@ -10806,12 +11092,21 @@
       <c r="AS33" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT33" s="47"/>
-      <c r="AU33" s="62"/>
-      <c r="AV33" s="62"/>
-      <c r="AW33" s="54"/>
+      <c r="AT33">
+        <v>-1</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW33" s="47"/>
+      <c r="AX33" s="62"/>
+      <c r="AY33" s="62"/>
+      <c r="AZ33" s="54"/>
     </row>
-    <row r="34" spans="1:49" ht="15.75" thickBot="1">
+    <row r="34" spans="1:52" ht="15.75" thickBot="1">
       <c r="A34" s="64"/>
       <c r="B34" s="57" t="s">
         <v>203</v>
@@ -10918,10 +11213,10 @@
       </c>
       <c r="AM34" s="47"/>
       <c r="AN34">
-        <v>-1</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO34" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP34" s="43" t="s">
         <v>414</v>
@@ -10935,12 +11230,21 @@
       <c r="AS34" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT34" s="47"/>
-      <c r="AU34" s="62"/>
-      <c r="AV34" s="62"/>
-      <c r="AW34" s="54"/>
+      <c r="AT34">
+        <v>-1</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW34" s="47"/>
+      <c r="AX34" s="62"/>
+      <c r="AY34" s="62"/>
+      <c r="AZ34" s="54"/>
     </row>
-    <row r="35" spans="1:49" ht="15.75" thickBot="1">
+    <row r="35" spans="1:52" ht="15.75" thickBot="1">
       <c r="A35" s="64"/>
       <c r="B35" s="57" t="s">
         <v>205</v>
@@ -11047,10 +11351,10 @@
       </c>
       <c r="AM35" s="47"/>
       <c r="AN35">
-        <v>-1</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO35" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP35" s="43" t="s">
         <v>414</v>
@@ -11064,12 +11368,21 @@
       <c r="AS35" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT35" s="47"/>
-      <c r="AU35" s="62"/>
-      <c r="AV35" s="62"/>
-      <c r="AW35" s="54"/>
+      <c r="AT35">
+        <v>-1</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW35" s="47"/>
+      <c r="AX35" s="62"/>
+      <c r="AY35" s="62"/>
+      <c r="AZ35" s="54"/>
     </row>
-    <row r="36" spans="1:49" ht="15.75" thickBot="1">
+    <row r="36" spans="1:52" ht="15.75" thickBot="1">
       <c r="A36" s="64"/>
       <c r="B36" s="57" t="s">
         <v>206</v>
@@ -11176,10 +11489,10 @@
       </c>
       <c r="AM36" s="47"/>
       <c r="AN36">
-        <v>-1</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO36" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP36" s="43" t="s">
         <v>414</v>
@@ -11193,12 +11506,21 @@
       <c r="AS36" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT36" s="47"/>
-      <c r="AU36" s="62"/>
-      <c r="AV36" s="62"/>
-      <c r="AW36" s="54"/>
+      <c r="AT36">
+        <v>-1</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW36" s="47"/>
+      <c r="AX36" s="62"/>
+      <c r="AY36" s="62"/>
+      <c r="AZ36" s="54"/>
     </row>
-    <row r="37" spans="1:49" ht="15.75" thickBot="1">
+    <row r="37" spans="1:52" ht="15.75" thickBot="1">
       <c r="A37" s="47"/>
       <c r="B37" s="57" t="s">
         <v>207</v>
@@ -11303,10 +11625,10 @@
       </c>
       <c r="AM37" s="47"/>
       <c r="AN37">
-        <v>-1</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO37" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP37" s="43" t="s">
         <v>414</v>
@@ -11320,12 +11642,21 @@
       <c r="AS37" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT37" s="47"/>
-      <c r="AU37" s="62"/>
-      <c r="AV37" s="62"/>
-      <c r="AW37" s="54"/>
+      <c r="AT37">
+        <v>-1</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW37" s="47"/>
+      <c r="AX37" s="62"/>
+      <c r="AY37" s="62"/>
+      <c r="AZ37" s="54"/>
     </row>
-    <row r="38" spans="1:49" ht="15.75" thickBot="1">
+    <row r="38" spans="1:52" ht="15.75" thickBot="1">
       <c r="A38" s="64"/>
       <c r="B38" s="57" t="s">
         <v>209</v>
@@ -11432,10 +11763,10 @@
       </c>
       <c r="AM38" s="47"/>
       <c r="AN38">
-        <v>-1</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO38" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP38" s="43" t="s">
         <v>414</v>
@@ -11449,12 +11780,21 @@
       <c r="AS38" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT38" s="47"/>
-      <c r="AU38" s="62"/>
-      <c r="AV38" s="62"/>
-      <c r="AW38" s="54"/>
+      <c r="AT38">
+        <v>-1</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW38" s="47"/>
+      <c r="AX38" s="62"/>
+      <c r="AY38" s="62"/>
+      <c r="AZ38" s="54"/>
     </row>
-    <row r="39" spans="1:49" ht="15.75" thickBot="1">
+    <row r="39" spans="1:52" ht="15.75" thickBot="1">
       <c r="A39" s="64"/>
       <c r="B39" s="57" t="s">
         <v>211</v>
@@ -11557,10 +11897,10 @@
       </c>
       <c r="AM39" s="47"/>
       <c r="AN39">
-        <v>-1</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO39" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP39" s="43" t="s">
         <v>414</v>
@@ -11574,12 +11914,21 @@
       <c r="AS39" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT39" s="47"/>
-      <c r="AU39" s="62"/>
-      <c r="AV39" s="62"/>
-      <c r="AW39" s="54"/>
+      <c r="AT39">
+        <v>-1</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW39" s="47"/>
+      <c r="AX39" s="62"/>
+      <c r="AY39" s="62"/>
+      <c r="AZ39" s="54"/>
     </row>
-    <row r="40" spans="1:49" ht="15.75" thickBot="1">
+    <row r="40" spans="1:52" ht="15.75" thickBot="1">
       <c r="A40" s="47"/>
       <c r="B40" s="57" t="s">
         <v>213</v>
@@ -11682,10 +12031,10 @@
       </c>
       <c r="AM40" s="47"/>
       <c r="AN40">
-        <v>-1</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO40" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP40" s="43" t="s">
         <v>414</v>
@@ -11699,12 +12048,21 @@
       <c r="AS40" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT40" s="47"/>
-      <c r="AU40" s="62"/>
-      <c r="AV40" s="62"/>
-      <c r="AW40" s="54"/>
+      <c r="AT40">
+        <v>-1</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW40" s="47"/>
+      <c r="AX40" s="62"/>
+      <c r="AY40" s="62"/>
+      <c r="AZ40" s="54"/>
     </row>
-    <row r="41" spans="1:49" ht="15.75" thickBot="1">
+    <row r="41" spans="1:52" ht="15.75" thickBot="1">
       <c r="A41" s="64"/>
       <c r="B41" s="57" t="s">
         <v>215</v>
@@ -11811,10 +12169,10 @@
       </c>
       <c r="AM41" s="47"/>
       <c r="AN41">
-        <v>-1</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO41" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP41" s="43" t="s">
         <v>414</v>
@@ -11828,12 +12186,21 @@
       <c r="AS41" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT41" s="47"/>
-      <c r="AU41" s="62"/>
-      <c r="AV41" s="62"/>
-      <c r="AW41" s="54"/>
+      <c r="AT41">
+        <v>-1</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW41" s="47"/>
+      <c r="AX41" s="62"/>
+      <c r="AY41" s="62"/>
+      <c r="AZ41" s="54"/>
     </row>
-    <row r="42" spans="1:49" ht="15.75" thickBot="1">
+    <row r="42" spans="1:52" ht="15.75" thickBot="1">
       <c r="A42" s="63"/>
       <c r="B42" s="57" t="s">
         <v>216</v>
@@ -11940,10 +12307,10 @@
       </c>
       <c r="AM42" s="47"/>
       <c r="AN42">
-        <v>-1</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO42" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP42" s="43" t="s">
         <v>414</v>
@@ -11957,12 +12324,21 @@
       <c r="AS42" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT42" s="47"/>
-      <c r="AU42" s="62"/>
-      <c r="AV42" s="62"/>
-      <c r="AW42" s="54"/>
+      <c r="AT42">
+        <v>-1</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW42" s="47"/>
+      <c r="AX42" s="62"/>
+      <c r="AY42" s="62"/>
+      <c r="AZ42" s="54"/>
     </row>
-    <row r="43" spans="1:49" ht="15.75" thickBot="1">
+    <row r="43" spans="1:52" ht="15.75" thickBot="1">
       <c r="A43" s="64"/>
       <c r="B43" s="57" t="s">
         <v>218</v>
@@ -12069,10 +12445,10 @@
       </c>
       <c r="AM43" s="47"/>
       <c r="AN43">
-        <v>-1</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO43" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP43" s="43" t="s">
         <v>414</v>
@@ -12086,12 +12462,21 @@
       <c r="AS43" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT43" s="47"/>
-      <c r="AU43" s="62"/>
-      <c r="AV43" s="62"/>
-      <c r="AW43" s="54"/>
+      <c r="AT43">
+        <v>-1</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW43" s="47"/>
+      <c r="AX43" s="62"/>
+      <c r="AY43" s="62"/>
+      <c r="AZ43" s="54"/>
     </row>
-    <row r="44" spans="1:49" ht="15.75" thickBot="1">
+    <row r="44" spans="1:52" ht="15.75" thickBot="1">
       <c r="A44" s="66"/>
       <c r="B44" s="57" t="s">
         <v>220</v>
@@ -12198,10 +12583,10 @@
       </c>
       <c r="AM44" s="47"/>
       <c r="AN44">
-        <v>-1</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO44" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP44" s="43" t="s">
         <v>414</v>
@@ -12215,12 +12600,21 @@
       <c r="AS44" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT44" s="47"/>
-      <c r="AU44" s="62"/>
-      <c r="AV44" s="62"/>
-      <c r="AW44" s="54"/>
+      <c r="AT44">
+        <v>-1</v>
+      </c>
+      <c r="AU44">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW44" s="47"/>
+      <c r="AX44" s="62"/>
+      <c r="AY44" s="62"/>
+      <c r="AZ44" s="54"/>
     </row>
-    <row r="45" spans="1:49" ht="15.75" thickBot="1">
+    <row r="45" spans="1:52" ht="15.75" thickBot="1">
       <c r="A45" s="64"/>
       <c r="B45" s="57" t="s">
         <v>223</v>
@@ -12323,10 +12717,10 @@
       </c>
       <c r="AM45" s="47"/>
       <c r="AN45">
-        <v>-1</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO45" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP45" s="43" t="s">
         <v>414</v>
@@ -12340,12 +12734,21 @@
       <c r="AS45" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT45" s="47"/>
-      <c r="AU45" s="62"/>
-      <c r="AV45" s="62"/>
-      <c r="AW45" s="54"/>
+      <c r="AT45">
+        <v>-1</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW45" s="47"/>
+      <c r="AX45" s="62"/>
+      <c r="AY45" s="62"/>
+      <c r="AZ45" s="54"/>
     </row>
-    <row r="46" spans="1:49" ht="15.75" thickBot="1">
+    <row r="46" spans="1:52" ht="15.75" thickBot="1">
       <c r="A46" s="64"/>
       <c r="B46" s="57" t="s">
         <v>226</v>
@@ -12450,11 +12853,11 @@
       <c r="AN46">
         <v>-1</v>
       </c>
-      <c r="AO46">
-        <v>0</v>
+      <c r="AO46" s="43" t="s">
+        <v>426</v>
       </c>
       <c r="AP46" s="43" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="AQ46">
         <v>-1</v>
@@ -12465,12 +12868,21 @@
       <c r="AS46" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT46" s="47"/>
-      <c r="AU46" s="62"/>
-      <c r="AV46" s="62"/>
-      <c r="AW46" s="54"/>
+      <c r="AT46">
+        <v>-1</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW46" s="47"/>
+      <c r="AX46" s="62"/>
+      <c r="AY46" s="62"/>
+      <c r="AZ46" s="54"/>
     </row>
-    <row r="47" spans="1:49" ht="15.75" thickBot="1">
+    <row r="47" spans="1:52" ht="15.75" thickBot="1">
       <c r="A47" s="47"/>
       <c r="B47" s="57" t="s">
         <v>227</v>
@@ -12573,10 +12985,10 @@
       </c>
       <c r="AM47" s="47"/>
       <c r="AN47">
-        <v>-1</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO47" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP47" s="43" t="s">
         <v>414</v>
@@ -12590,12 +13002,21 @@
       <c r="AS47" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT47" s="47"/>
-      <c r="AU47" s="62"/>
-      <c r="AV47" s="62"/>
-      <c r="AW47" s="54"/>
+      <c r="AT47">
+        <v>-1</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW47" s="47"/>
+      <c r="AX47" s="62"/>
+      <c r="AY47" s="62"/>
+      <c r="AZ47" s="54"/>
     </row>
-    <row r="48" spans="1:49" ht="15.75" thickBot="1">
+    <row r="48" spans="1:52" ht="15.75" thickBot="1">
       <c r="A48" s="64"/>
       <c r="B48" s="57" t="s">
         <v>228</v>
@@ -12698,29 +13119,38 @@
       </c>
       <c r="AM48" s="47"/>
       <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AP48" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ48">
         <v>50</v>
       </c>
-      <c r="AO48">
+      <c r="AR48">
         <v>50</v>
       </c>
-      <c r="AP48" s="43" t="s">
+      <c r="AS48" s="43" t="s">
         <v>422</v>
       </c>
-      <c r="AQ48">
-        <v>-1</v>
-      </c>
-      <c r="AR48">
-        <v>0</v>
-      </c>
-      <c r="AS48" s="43" t="s">
-        <v>414</v>
-      </c>
-      <c r="AT48" s="47"/>
-      <c r="AU48" s="62"/>
-      <c r="AV48" s="62"/>
-      <c r="AW48" s="54"/>
+      <c r="AT48">
+        <v>-1</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW48" s="47"/>
+      <c r="AX48" s="62"/>
+      <c r="AY48" s="62"/>
+      <c r="AZ48" s="54"/>
     </row>
-    <row r="49" spans="1:49" ht="15">
+    <row r="49" spans="1:52" ht="15">
       <c r="A49" s="64"/>
       <c r="B49" s="57" t="s">
         <v>229</v>
@@ -12824,30 +13254,39 @@
         <v>0</v>
       </c>
       <c r="AM49" s="47"/>
-      <c r="AN49" s="79">
-        <v>-1</v>
-      </c>
-      <c r="AO49" s="79">
-        <v>0</v>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP49" s="43" t="s">
         <v>414</v>
       </c>
       <c r="AQ49" s="79">
+        <v>-1</v>
+      </c>
+      <c r="AR49" s="79">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT49" s="79">
         <v>20</v>
       </c>
-      <c r="AR49" s="79">
-        <v>0</v>
-      </c>
-      <c r="AS49" s="43" t="s">
+      <c r="AU49" s="79">
+        <v>0</v>
+      </c>
+      <c r="AV49" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="AT49" s="47"/>
-      <c r="AU49" s="62"/>
-      <c r="AV49" s="62"/>
-      <c r="AW49" s="54"/>
+      <c r="AW49" s="47"/>
+      <c r="AX49" s="62"/>
+      <c r="AY49" s="62"/>
+      <c r="AZ49" s="54"/>
     </row>
-    <row r="50" spans="1:49" ht="15.75" thickBot="1">
+    <row r="50" spans="1:52" ht="15.75" thickBot="1">
       <c r="A50" s="64"/>
       <c r="B50" s="57" t="s">
         <v>230</v>
@@ -12954,10 +13393,10 @@
       </c>
       <c r="AM50" s="47"/>
       <c r="AN50">
-        <v>-1</v>
-      </c>
-      <c r="AO50">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO50" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP50" s="43" t="s">
         <v>414</v>
@@ -12971,12 +13410,21 @@
       <c r="AS50" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT50" s="47"/>
-      <c r="AU50" s="62"/>
-      <c r="AV50" s="62"/>
-      <c r="AW50" s="54"/>
+      <c r="AT50">
+        <v>-1</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW50" s="47"/>
+      <c r="AX50" s="62"/>
+      <c r="AY50" s="62"/>
+      <c r="AZ50" s="54"/>
     </row>
-    <row r="51" spans="1:49" ht="15.75" thickBot="1">
+    <row r="51" spans="1:52" ht="15.75" thickBot="1">
       <c r="A51" s="64"/>
       <c r="B51" s="57" t="s">
         <v>231</v>
@@ -13081,10 +13529,10 @@
       </c>
       <c r="AM51" s="47"/>
       <c r="AN51">
-        <v>-1</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO51" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP51" s="43" t="s">
         <v>414</v>
@@ -13098,12 +13546,21 @@
       <c r="AS51" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT51" s="47"/>
-      <c r="AU51" s="62"/>
-      <c r="AV51" s="62"/>
-      <c r="AW51" s="54"/>
+      <c r="AT51">
+        <v>-1</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW51" s="47"/>
+      <c r="AX51" s="62"/>
+      <c r="AY51" s="62"/>
+      <c r="AZ51" s="54"/>
     </row>
-    <row r="52" spans="1:49" ht="15.75" thickBot="1">
+    <row r="52" spans="1:52" ht="15.75" thickBot="1">
       <c r="A52" s="64"/>
       <c r="B52" s="57" t="s">
         <v>232</v>
@@ -13210,10 +13667,10 @@
       </c>
       <c r="AM52" s="47"/>
       <c r="AN52">
-        <v>-1</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO52" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP52" s="43" t="s">
         <v>414</v>
@@ -13227,12 +13684,21 @@
       <c r="AS52" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT52" s="47"/>
-      <c r="AU52" s="62"/>
-      <c r="AV52" s="62"/>
-      <c r="AW52" s="54"/>
+      <c r="AT52">
+        <v>-1</v>
+      </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AV52" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW52" s="47"/>
+      <c r="AX52" s="62"/>
+      <c r="AY52" s="62"/>
+      <c r="AZ52" s="54"/>
     </row>
-    <row r="53" spans="1:49" ht="15.75" thickBot="1">
+    <row r="53" spans="1:52" ht="15.75" thickBot="1">
       <c r="A53" s="64"/>
       <c r="B53" s="57" t="s">
         <v>233</v>
@@ -13339,10 +13805,10 @@
         <v>2</v>
       </c>
       <c r="AN53">
-        <v>-1</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO53" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP53" s="43" t="s">
         <v>414</v>
@@ -13356,12 +13822,21 @@
       <c r="AS53" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT53" s="47"/>
-      <c r="AU53" s="62"/>
-      <c r="AV53" s="62"/>
-      <c r="AW53" s="54"/>
+      <c r="AT53">
+        <v>-1</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW53" s="47"/>
+      <c r="AX53" s="62"/>
+      <c r="AY53" s="62"/>
+      <c r="AZ53" s="54"/>
     </row>
-    <row r="54" spans="1:49" ht="15.75" thickBot="1">
+    <row r="54" spans="1:52" ht="15.75" thickBot="1">
       <c r="A54" s="64"/>
       <c r="B54" s="57" t="s">
         <v>234</v>
@@ -13468,10 +13943,10 @@
       </c>
       <c r="AM54" s="47"/>
       <c r="AN54">
-        <v>-1</v>
-      </c>
-      <c r="AO54">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO54" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP54" s="43" t="s">
         <v>414</v>
@@ -13485,12 +13960,21 @@
       <c r="AS54" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT54" s="47"/>
-      <c r="AU54" s="62"/>
-      <c r="AV54" s="62"/>
-      <c r="AW54" s="54"/>
+      <c r="AT54">
+        <v>-1</v>
+      </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AV54" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW54" s="47"/>
+      <c r="AX54" s="62"/>
+      <c r="AY54" s="62"/>
+      <c r="AZ54" s="54"/>
     </row>
-    <row r="55" spans="1:49" ht="15.75" thickBot="1">
+    <row r="55" spans="1:52" ht="15.75" thickBot="1">
       <c r="A55" s="64"/>
       <c r="B55" s="57" t="s">
         <v>236</v>
@@ -13595,10 +14079,10 @@
       </c>
       <c r="AM55" s="47"/>
       <c r="AN55">
-        <v>-1</v>
-      </c>
-      <c r="AO55">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO55" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP55" s="43" t="s">
         <v>414</v>
@@ -13612,12 +14096,21 @@
       <c r="AS55" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT55" s="47"/>
-      <c r="AU55" s="62"/>
-      <c r="AV55" s="62"/>
-      <c r="AW55" s="54"/>
+      <c r="AT55">
+        <v>-1</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW55" s="47"/>
+      <c r="AX55" s="62"/>
+      <c r="AY55" s="62"/>
+      <c r="AZ55" s="54"/>
     </row>
-    <row r="56" spans="1:49" ht="15.75" thickBot="1">
+    <row r="56" spans="1:52" ht="15.75" thickBot="1">
       <c r="A56" s="64"/>
       <c r="B56" s="57" t="s">
         <v>237</v>
@@ -13724,10 +14217,10 @@
       </c>
       <c r="AM56" s="47"/>
       <c r="AN56">
-        <v>-1</v>
-      </c>
-      <c r="AO56">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO56" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP56" s="43" t="s">
         <v>414</v>
@@ -13741,12 +14234,21 @@
       <c r="AS56" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT56" s="47"/>
-      <c r="AU56" s="62"/>
-      <c r="AV56" s="62"/>
-      <c r="AW56" s="54"/>
+      <c r="AT56">
+        <v>-1</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW56" s="47"/>
+      <c r="AX56" s="62"/>
+      <c r="AY56" s="62"/>
+      <c r="AZ56" s="54"/>
     </row>
-    <row r="57" spans="1:49" ht="15.75" thickBot="1">
+    <row r="57" spans="1:52" ht="15.75" thickBot="1">
       <c r="A57" s="64"/>
       <c r="B57" s="57" t="s">
         <v>238</v>
@@ -13851,10 +14353,10 @@
       </c>
       <c r="AM57" s="47"/>
       <c r="AN57">
-        <v>-1</v>
-      </c>
-      <c r="AO57">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO57" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP57" s="43" t="s">
         <v>414</v>
@@ -13868,12 +14370,21 @@
       <c r="AS57" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT57" s="47"/>
-      <c r="AU57" s="62"/>
-      <c r="AV57" s="62"/>
-      <c r="AW57" s="54"/>
+      <c r="AT57">
+        <v>-1</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW57" s="47"/>
+      <c r="AX57" s="62"/>
+      <c r="AY57" s="62"/>
+      <c r="AZ57" s="54"/>
     </row>
-    <row r="58" spans="1:49" ht="15.75" thickBot="1">
+    <row r="58" spans="1:52" ht="15.75" thickBot="1">
       <c r="A58" s="64"/>
       <c r="B58" s="57" t="s">
         <v>240</v>
@@ -13980,10 +14491,10 @@
       </c>
       <c r="AM58" s="47"/>
       <c r="AN58">
-        <v>-1</v>
-      </c>
-      <c r="AO58">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO58" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP58" s="43" t="s">
         <v>414</v>
@@ -13997,12 +14508,21 @@
       <c r="AS58" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT58" s="47"/>
-      <c r="AU58" s="62"/>
-      <c r="AV58" s="62"/>
-      <c r="AW58" s="54"/>
+      <c r="AT58">
+        <v>-1</v>
+      </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AV58" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW58" s="47"/>
+      <c r="AX58" s="62"/>
+      <c r="AY58" s="62"/>
+      <c r="AZ58" s="54"/>
     </row>
-    <row r="59" spans="1:49" ht="15.75" thickBot="1">
+    <row r="59" spans="1:52" ht="15.75" thickBot="1">
       <c r="A59" s="47"/>
       <c r="B59" s="57" t="s">
         <v>241</v>
@@ -14109,10 +14629,10 @@
       </c>
       <c r="AM59" s="47"/>
       <c r="AN59">
-        <v>-1</v>
-      </c>
-      <c r="AO59">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO59" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP59" s="43" t="s">
         <v>414</v>
@@ -14126,12 +14646,21 @@
       <c r="AS59" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT59" s="47"/>
-      <c r="AU59" s="62"/>
-      <c r="AV59" s="62"/>
-      <c r="AW59" s="54"/>
+      <c r="AT59">
+        <v>-1</v>
+      </c>
+      <c r="AU59">
+        <v>0</v>
+      </c>
+      <c r="AV59" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW59" s="47"/>
+      <c r="AX59" s="62"/>
+      <c r="AY59" s="62"/>
+      <c r="AZ59" s="54"/>
     </row>
-    <row r="60" spans="1:49" ht="15.75" thickBot="1">
+    <row r="60" spans="1:52" ht="15.75" thickBot="1">
       <c r="A60" s="47"/>
       <c r="B60" s="57" t="s">
         <v>242</v>
@@ -14238,10 +14767,10 @@
       </c>
       <c r="AM60" s="47"/>
       <c r="AN60">
-        <v>-1</v>
-      </c>
-      <c r="AO60">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO60" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP60" s="43" t="s">
         <v>414</v>
@@ -14255,12 +14784,21 @@
       <c r="AS60" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT60" s="47"/>
-      <c r="AU60" s="62"/>
-      <c r="AV60" s="62"/>
-      <c r="AW60" s="54"/>
+      <c r="AT60">
+        <v>-1</v>
+      </c>
+      <c r="AU60">
+        <v>0</v>
+      </c>
+      <c r="AV60" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW60" s="47"/>
+      <c r="AX60" s="62"/>
+      <c r="AY60" s="62"/>
+      <c r="AZ60" s="54"/>
     </row>
-    <row r="61" spans="1:49" ht="15.75" thickBot="1">
+    <row r="61" spans="1:52" ht="15.75" thickBot="1">
       <c r="A61" s="47"/>
       <c r="B61" s="57" t="s">
         <v>243</v>
@@ -14365,10 +14903,10 @@
       </c>
       <c r="AM61" s="47"/>
       <c r="AN61">
-        <v>-1</v>
-      </c>
-      <c r="AO61">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO61" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP61" s="43" t="s">
         <v>414</v>
@@ -14382,12 +14920,21 @@
       <c r="AS61" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT61" s="47"/>
-      <c r="AU61" s="62"/>
-      <c r="AV61" s="62"/>
-      <c r="AW61" s="54"/>
+      <c r="AT61">
+        <v>-1</v>
+      </c>
+      <c r="AU61">
+        <v>0</v>
+      </c>
+      <c r="AV61" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW61" s="47"/>
+      <c r="AX61" s="62"/>
+      <c r="AY61" s="62"/>
+      <c r="AZ61" s="54"/>
     </row>
-    <row r="62" spans="1:49" ht="15.75" thickBot="1">
+    <row r="62" spans="1:52" ht="15.75" thickBot="1">
       <c r="A62" s="47"/>
       <c r="B62" s="57" t="s">
         <v>245</v>
@@ -14494,10 +15041,10 @@
       </c>
       <c r="AM62" s="47"/>
       <c r="AN62">
-        <v>-1</v>
-      </c>
-      <c r="AO62">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO62" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP62" s="43" t="s">
         <v>414</v>
@@ -14511,12 +15058,21 @@
       <c r="AS62" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT62" s="47"/>
-      <c r="AU62" s="62"/>
-      <c r="AV62" s="62"/>
-      <c r="AW62" s="54"/>
+      <c r="AT62">
+        <v>-1</v>
+      </c>
+      <c r="AU62">
+        <v>0</v>
+      </c>
+      <c r="AV62" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW62" s="47"/>
+      <c r="AX62" s="62"/>
+      <c r="AY62" s="62"/>
+      <c r="AZ62" s="54"/>
     </row>
-    <row r="63" spans="1:49" ht="15">
+    <row r="63" spans="1:52" ht="15">
       <c r="A63" s="47"/>
       <c r="B63" s="57" t="s">
         <v>246</v>
@@ -14619,10 +15175,10 @@
       </c>
       <c r="AM63" s="47"/>
       <c r="AN63">
-        <v>-1</v>
-      </c>
-      <c r="AO63">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO63" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP63" s="43" t="s">
         <v>414</v>
@@ -14636,12 +15192,21 @@
       <c r="AS63" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT63" s="47"/>
-      <c r="AU63" s="62"/>
-      <c r="AV63" s="62"/>
-      <c r="AW63" s="54"/>
+      <c r="AT63">
+        <v>-1</v>
+      </c>
+      <c r="AU63">
+        <v>0</v>
+      </c>
+      <c r="AV63" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW63" s="47"/>
+      <c r="AX63" s="62"/>
+      <c r="AY63" s="62"/>
+      <c r="AZ63" s="54"/>
     </row>
-    <row r="64" spans="1:49" ht="15">
+    <row r="64" spans="1:52" ht="15">
       <c r="A64" s="47"/>
       <c r="B64" s="57" t="s">
         <v>248</v>
@@ -14744,10 +15309,10 @@
       </c>
       <c r="AM64" s="47"/>
       <c r="AN64">
-        <v>-1</v>
-      </c>
-      <c r="AO64">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO64" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP64" s="43" t="s">
         <v>414</v>
@@ -14761,12 +15326,21 @@
       <c r="AS64" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT64" s="47"/>
-      <c r="AU64" s="62"/>
-      <c r="AV64" s="62"/>
-      <c r="AW64" s="54"/>
+      <c r="AT64">
+        <v>-1</v>
+      </c>
+      <c r="AU64">
+        <v>0</v>
+      </c>
+      <c r="AV64" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW64" s="47"/>
+      <c r="AX64" s="62"/>
+      <c r="AY64" s="62"/>
+      <c r="AZ64" s="54"/>
     </row>
-    <row r="65" spans="1:49" ht="15">
+    <row r="65" spans="1:52" ht="15">
       <c r="A65" s="47"/>
       <c r="B65" s="57" t="s">
         <v>250</v>
@@ -14869,10 +15443,10 @@
       </c>
       <c r="AM65" s="47"/>
       <c r="AN65">
-        <v>-1</v>
-      </c>
-      <c r="AO65">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO65" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP65" s="43" t="s">
         <v>414</v>
@@ -14886,12 +15460,21 @@
       <c r="AS65" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT65" s="47"/>
-      <c r="AU65" s="62"/>
-      <c r="AV65" s="62"/>
-      <c r="AW65" s="54"/>
+      <c r="AT65">
+        <v>-1</v>
+      </c>
+      <c r="AU65">
+        <v>0</v>
+      </c>
+      <c r="AV65" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW65" s="47"/>
+      <c r="AX65" s="62"/>
+      <c r="AY65" s="62"/>
+      <c r="AZ65" s="54"/>
     </row>
-    <row r="66" spans="1:49" ht="15">
+    <row r="66" spans="1:52" ht="15">
       <c r="A66" s="47"/>
       <c r="B66" s="57" t="s">
         <v>253</v>
@@ -14994,10 +15577,10 @@
       </c>
       <c r="AM66" s="47"/>
       <c r="AN66">
-        <v>-1</v>
-      </c>
-      <c r="AO66">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO66" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP66" s="43" t="s">
         <v>414</v>
@@ -15011,12 +15594,21 @@
       <c r="AS66" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT66" s="47"/>
-      <c r="AU66" s="62"/>
-      <c r="AV66" s="62"/>
-      <c r="AW66" s="54"/>
+      <c r="AT66">
+        <v>-1</v>
+      </c>
+      <c r="AU66">
+        <v>0</v>
+      </c>
+      <c r="AV66" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW66" s="47"/>
+      <c r="AX66" s="62"/>
+      <c r="AY66" s="62"/>
+      <c r="AZ66" s="54"/>
     </row>
-    <row r="67" spans="1:49" ht="15">
+    <row r="67" spans="1:52" ht="15">
       <c r="A67" s="47"/>
       <c r="B67" s="57" t="s">
         <v>256</v>
@@ -15119,10 +15711,10 @@
       </c>
       <c r="AM67" s="47"/>
       <c r="AN67">
-        <v>-1</v>
-      </c>
-      <c r="AO67">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO67" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP67" s="43" t="s">
         <v>414</v>
@@ -15136,12 +15728,21 @@
       <c r="AS67" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT67" s="47"/>
-      <c r="AU67" s="62"/>
-      <c r="AV67" s="62"/>
-      <c r="AW67" s="54"/>
+      <c r="AT67">
+        <v>-1</v>
+      </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
+      <c r="AV67" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW67" s="47"/>
+      <c r="AX67" s="62"/>
+      <c r="AY67" s="62"/>
+      <c r="AZ67" s="54"/>
     </row>
-    <row r="68" spans="1:49" ht="15.75" thickBot="1">
+    <row r="68" spans="1:52" ht="15.75" thickBot="1">
       <c r="A68" s="47"/>
       <c r="B68" s="57" t="s">
         <v>259</v>
@@ -15244,10 +15845,10 @@
       </c>
       <c r="AM68" s="47"/>
       <c r="AN68">
-        <v>-1</v>
-      </c>
-      <c r="AO68">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO68" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP68" s="43" t="s">
         <v>414</v>
@@ -15261,12 +15862,21 @@
       <c r="AS68" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT68" s="47"/>
-      <c r="AU68" s="62"/>
-      <c r="AV68" s="62"/>
-      <c r="AW68" s="54"/>
+      <c r="AT68">
+        <v>-1</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+      <c r="AV68" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW68" s="47"/>
+      <c r="AX68" s="62"/>
+      <c r="AY68" s="62"/>
+      <c r="AZ68" s="54"/>
     </row>
-    <row r="69" spans="1:49" ht="15.75" thickBot="1">
+    <row r="69" spans="1:52" ht="15.75" thickBot="1">
       <c r="A69" s="47"/>
       <c r="B69" s="57" t="s">
         <v>261</v>
@@ -15369,10 +15979,10 @@
       </c>
       <c r="AM69" s="47"/>
       <c r="AN69">
-        <v>-1</v>
-      </c>
-      <c r="AO69">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO69" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="AP69" s="43" t="s">
         <v>414</v>
@@ -15386,31 +15996,45 @@
       <c r="AS69" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT69" s="47"/>
-      <c r="AU69" s="62"/>
-      <c r="AV69" s="62"/>
-      <c r="AW69" s="54"/>
+      <c r="AT69">
+        <v>-1</v>
+      </c>
+      <c r="AU69">
+        <v>0</v>
+      </c>
+      <c r="AV69" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW69" s="47"/>
+      <c r="AX69" s="62"/>
+      <c r="AY69" s="62"/>
+      <c r="AZ69" s="54"/>
     </row>
-    <row r="70" spans="1:49">
+    <row r="70" spans="1:52">
       <c r="AI70" s="4"/>
       <c r="AJ70" s="4"/>
       <c r="AK70" s="4"/>
       <c r="AL70" s="4"/>
       <c r="AM70" s="4"/>
-      <c r="AT70" s="4"/>
+      <c r="AW70" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="AN2:AP2"/>
     <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="AN4:AP4"/>
     <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="AQ3:AS3"/>
     <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AQ3:AS3"/>
     <mergeCell ref="AQ4:AS4"/>
     <mergeCell ref="AQ5:AS5"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="AT5:AV5"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="V3:AA3"/>
@@ -15432,10 +16056,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15444,6 +16068,7 @@
     <col min="3" max="3" width="33.5" customWidth="1"/>
     <col min="4" max="4" width="25.75" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
@@ -16416,6 +17041,32 @@
       </c>
       <c r="J36">
         <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="15">
+      <c r="B37" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C493D283-C466-46E8-94F9-DB1B5596BB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC275F0-A8A1-46A1-B8F9-0D5EC12D3D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="432">
   <si>
     <t>##var</t>
   </si>
@@ -4760,6 +4760,22 @@
   </si>
   <si>
     <t>consume_self_card_buff_config</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒火喷发</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -4767,7 +4783,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4919,6 +4935,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="16">
@@ -5203,7 +5227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5309,19 +5333,9 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5343,7 +5357,6 @@
     <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5351,35 +5364,52 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -5663,24 +5693,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="9.625" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="35.5" customWidth="1"/>
+    <col min="3" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5693,44 +5723,47 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="83" t="s">
+        <v>431</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5749,8 +5782,9 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -5763,11 +5797,11 @@
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="83" t="s">
+        <v>430</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>21</v>
@@ -5797,10 +5831,13 @@
         <v>21</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -5819,8 +5856,9 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="25" t="s">
         <v>24</v>
       </c>
@@ -5833,91 +5871,95 @@
       <c r="D5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="82" t="s">
+        <v>429</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="G5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="H5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="I5" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="J5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="K5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="L5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="M5" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="N5" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="O5" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="P5" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="Q5" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="B6" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="80" t="s">
+        <v>428</v>
+      </c>
+      <c r="E6" s="81"/>
+      <c r="F6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="33">
+      <c r="G6" s="33">
         <v>320</v>
       </c>
-      <c r="G6" s="33">
+      <c r="H6" s="33">
         <v>400</v>
       </c>
-      <c r="H6" s="34">
+      <c r="I6" s="34">
         <v>65</v>
       </c>
-      <c r="I6" s="34">
+      <c r="J6" s="34">
         <v>85</v>
       </c>
-      <c r="J6" s="37">
+      <c r="K6" s="37">
         <v>40</v>
       </c>
-      <c r="K6" s="37">
+      <c r="L6" s="37">
         <v>80</v>
       </c>
-      <c r="L6" s="38">
+      <c r="M6" s="38">
         <v>100</v>
       </c>
-      <c r="M6" s="38">
+      <c r="N6" s="38">
         <v>160</v>
       </c>
-      <c r="N6" s="40">
-        <v>0</v>
-      </c>
       <c r="O6" s="40">
+        <v>0</v>
+      </c>
+      <c r="P6" s="40">
         <v>30</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="Q6" s="27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="B7" s="27" t="s">
         <v>44</v>
       </c>
@@ -5927,44 +5969,45 @@
       <c r="D7" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="33">
+      <c r="G7" s="33">
         <v>220</v>
       </c>
-      <c r="G7" s="33">
+      <c r="H7" s="33">
         <v>320</v>
       </c>
-      <c r="H7" s="34">
+      <c r="I7" s="34">
         <v>100</v>
       </c>
-      <c r="I7" s="34">
+      <c r="J7" s="34">
         <v>150</v>
       </c>
-      <c r="J7" s="37">
+      <c r="K7" s="37">
         <v>20</v>
       </c>
-      <c r="K7" s="37">
+      <c r="L7" s="37">
         <v>50</v>
       </c>
-      <c r="L7" s="38">
+      <c r="M7" s="38">
         <v>120</v>
       </c>
-      <c r="M7" s="38">
+      <c r="N7" s="38">
         <v>200</v>
       </c>
-      <c r="N7" s="40">
-        <v>0</v>
-      </c>
       <c r="O7" s="40">
+        <v>0</v>
+      </c>
+      <c r="P7" s="40">
         <v>10</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="Q7" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="B8" s="27" t="s">
         <v>48</v>
       </c>
@@ -5974,44 +6017,45 @@
       <c r="D8" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="33">
+      <c r="G8" s="33">
         <v>350</v>
       </c>
-      <c r="G8" s="33">
+      <c r="H8" s="33">
         <v>510</v>
       </c>
-      <c r="H8" s="34">
+      <c r="I8" s="34">
         <v>40</v>
       </c>
-      <c r="I8" s="34">
+      <c r="J8" s="34">
         <v>80</v>
       </c>
-      <c r="J8" s="37">
+      <c r="K8" s="37">
         <v>65</v>
       </c>
-      <c r="K8" s="37">
+      <c r="L8" s="37">
         <v>140</v>
       </c>
-      <c r="L8" s="38">
+      <c r="M8" s="38">
         <v>20</v>
       </c>
-      <c r="M8" s="38">
+      <c r="N8" s="38">
         <v>45</v>
       </c>
-      <c r="N8" s="40">
-        <v>0</v>
-      </c>
       <c r="O8" s="40">
+        <v>0</v>
+      </c>
+      <c r="P8" s="40">
         <v>40</v>
       </c>
-      <c r="P8" s="27" t="s">
+      <c r="Q8" s="27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="B9" s="27" t="s">
         <v>52</v>
       </c>
@@ -6021,44 +6065,45 @@
       <c r="D9" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="33">
+      <c r="G9" s="33">
         <v>220</v>
       </c>
-      <c r="G9" s="33">
+      <c r="H9" s="33">
         <v>340</v>
       </c>
-      <c r="H9" s="34">
+      <c r="I9" s="34">
         <v>90</v>
       </c>
-      <c r="I9" s="34">
+      <c r="J9" s="34">
         <v>150</v>
       </c>
-      <c r="J9" s="37">
+      <c r="K9" s="37">
         <v>10</v>
       </c>
-      <c r="K9" s="37">
+      <c r="L9" s="37">
         <v>30</v>
       </c>
-      <c r="L9" s="38">
+      <c r="M9" s="38">
         <v>121</v>
       </c>
-      <c r="M9" s="38">
+      <c r="N9" s="38">
         <v>200</v>
       </c>
-      <c r="N9" s="40">
-        <v>0</v>
-      </c>
       <c r="O9" s="40">
+        <v>0</v>
+      </c>
+      <c r="P9" s="40">
         <v>10</v>
       </c>
-      <c r="P9" s="27" t="s">
+      <c r="Q9" s="27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="B10" s="27" t="s">
         <v>56</v>
       </c>
@@ -6068,44 +6113,45 @@
       <c r="D10" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="27"/>
+      <c r="F10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="33">
+      <c r="G10" s="33">
         <v>260</v>
       </c>
-      <c r="G10" s="33">
+      <c r="H10" s="33">
         <v>480</v>
       </c>
-      <c r="H10" s="34">
+      <c r="I10" s="34">
         <v>50</v>
       </c>
-      <c r="I10" s="34">
+      <c r="J10" s="34">
         <v>90</v>
       </c>
-      <c r="J10" s="37">
+      <c r="K10" s="37">
         <v>30</v>
       </c>
-      <c r="K10" s="37">
+      <c r="L10" s="37">
         <v>90</v>
       </c>
-      <c r="L10" s="38">
+      <c r="M10" s="38">
         <v>90</v>
       </c>
-      <c r="M10" s="38">
+      <c r="N10" s="38">
         <v>180</v>
       </c>
-      <c r="N10" s="40">
-        <v>0</v>
-      </c>
       <c r="O10" s="40">
+        <v>0</v>
+      </c>
+      <c r="P10" s="40">
         <v>30</v>
       </c>
-      <c r="P10" s="27" t="s">
+      <c r="Q10" s="27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="B11" s="27" t="s">
         <v>60</v>
       </c>
@@ -6115,44 +6161,45 @@
       <c r="D11" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="27"/>
+      <c r="F11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="33">
+      <c r="G11" s="33">
         <v>490</v>
       </c>
-      <c r="G11" s="33">
+      <c r="H11" s="33">
         <v>540</v>
       </c>
-      <c r="H11" s="34">
+      <c r="I11" s="34">
         <v>25</v>
       </c>
-      <c r="I11" s="34">
+      <c r="J11" s="34">
         <v>60</v>
       </c>
-      <c r="J11" s="37">
+      <c r="K11" s="37">
         <v>90</v>
       </c>
-      <c r="K11" s="37">
+      <c r="L11" s="37">
         <v>150</v>
       </c>
-      <c r="L11" s="38">
+      <c r="M11" s="38">
         <v>5</v>
       </c>
-      <c r="M11" s="38">
+      <c r="N11" s="38">
         <v>25</v>
       </c>
-      <c r="N11" s="40">
-        <v>0</v>
-      </c>
       <c r="O11" s="40">
+        <v>0</v>
+      </c>
+      <c r="P11" s="40">
         <v>50</v>
       </c>
-      <c r="P11" s="27" t="s">
+      <c r="Q11" s="27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="B12" s="27" t="s">
         <v>64</v>
       </c>
@@ -6162,44 +6209,45 @@
       <c r="D12" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="27"/>
+      <c r="F12" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="33">
+      <c r="G12" s="33">
         <v>550</v>
       </c>
-      <c r="G12" s="33">
+      <c r="H12" s="33">
         <v>600</v>
       </c>
-      <c r="H12" s="34">
+      <c r="I12" s="34">
         <v>10</v>
       </c>
-      <c r="I12" s="34">
+      <c r="J12" s="34">
         <v>30</v>
       </c>
-      <c r="J12" s="37">
+      <c r="K12" s="37">
         <v>120</v>
       </c>
-      <c r="K12" s="37">
+      <c r="L12" s="37">
         <v>150</v>
       </c>
-      <c r="L12" s="38">
+      <c r="M12" s="38">
         <v>5</v>
       </c>
-      <c r="M12" s="38">
+      <c r="N12" s="38">
         <v>20</v>
       </c>
-      <c r="N12" s="40">
+      <c r="O12" s="40">
         <v>10</v>
       </c>
-      <c r="O12" s="40">
+      <c r="P12" s="40">
         <v>50</v>
       </c>
-      <c r="P12" s="27" t="s">
+      <c r="Q12" s="27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="B13" s="27" t="s">
         <v>67</v>
       </c>
@@ -6209,44 +6257,45 @@
       <c r="D13" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="33">
+      <c r="G13" s="33">
         <v>310</v>
       </c>
-      <c r="G13" s="33">
+      <c r="H13" s="33">
         <v>400</v>
       </c>
-      <c r="H13" s="34">
+      <c r="I13" s="34">
         <v>80</v>
       </c>
-      <c r="I13" s="34">
+      <c r="J13" s="34">
         <v>110</v>
       </c>
-      <c r="J13" s="37">
+      <c r="K13" s="37">
         <v>30</v>
       </c>
-      <c r="K13" s="37">
+      <c r="L13" s="37">
         <v>80</v>
       </c>
-      <c r="L13" s="38">
+      <c r="M13" s="38">
         <v>60</v>
       </c>
-      <c r="M13" s="38">
+      <c r="N13" s="38">
         <v>90</v>
       </c>
-      <c r="N13" s="40">
-        <v>0</v>
-      </c>
       <c r="O13" s="40">
+        <v>0</v>
+      </c>
+      <c r="P13" s="40">
         <v>25</v>
       </c>
-      <c r="P13" s="27" t="s">
+      <c r="Q13" s="27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="B14" s="27" t="s">
         <v>70</v>
       </c>
@@ -6256,44 +6305,45 @@
       <c r="D14" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="27"/>
+      <c r="F14" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="33">
+      <c r="G14" s="33">
         <v>400</v>
       </c>
-      <c r="G14" s="33">
+      <c r="H14" s="33">
         <v>460</v>
       </c>
-      <c r="H14" s="34">
+      <c r="I14" s="34">
         <v>60</v>
       </c>
-      <c r="I14" s="34">
+      <c r="J14" s="34">
         <v>95</v>
       </c>
-      <c r="J14" s="37">
+      <c r="K14" s="37">
         <v>30</v>
       </c>
-      <c r="K14" s="37">
+      <c r="L14" s="37">
         <v>90</v>
       </c>
-      <c r="L14" s="38">
+      <c r="M14" s="38">
         <v>45</v>
       </c>
-      <c r="M14" s="38">
+      <c r="N14" s="38">
         <v>90</v>
       </c>
-      <c r="N14" s="40">
-        <v>0</v>
-      </c>
       <c r="O14" s="40">
+        <v>0</v>
+      </c>
+      <c r="P14" s="40">
         <v>20</v>
       </c>
-      <c r="P14" s="27" t="s">
+      <c r="Q14" s="27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="B15" s="27" t="s">
         <v>73</v>
       </c>
@@ -6303,44 +6353,45 @@
       <c r="D15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="27"/>
+      <c r="F15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="33">
+      <c r="G15" s="33">
         <v>140</v>
       </c>
-      <c r="G15" s="33">
+      <c r="H15" s="33">
         <v>280</v>
       </c>
-      <c r="H15" s="34">
+      <c r="I15" s="34">
         <v>55</v>
       </c>
-      <c r="I15" s="34">
+      <c r="J15" s="34">
         <v>110</v>
       </c>
-      <c r="J15" s="37">
+      <c r="K15" s="37">
         <v>20</v>
       </c>
-      <c r="K15" s="37">
+      <c r="L15" s="37">
         <v>40</v>
       </c>
-      <c r="L15" s="38">
+      <c r="M15" s="38">
         <v>100</v>
       </c>
-      <c r="M15" s="38">
+      <c r="N15" s="38">
         <v>200</v>
       </c>
-      <c r="N15" s="40">
+      <c r="O15" s="40">
         <v>10</v>
       </c>
-      <c r="O15" s="40">
+      <c r="P15" s="40">
         <v>20</v>
       </c>
-      <c r="P15" s="27" t="s">
+      <c r="Q15" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="B16" s="27" t="s">
         <v>76</v>
       </c>
@@ -6350,44 +6401,45 @@
       <c r="D16" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="27"/>
+      <c r="F16" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="33">
+      <c r="G16" s="33">
         <v>150</v>
       </c>
-      <c r="G16" s="33">
+      <c r="H16" s="33">
         <v>220</v>
       </c>
-      <c r="H16" s="34">
+      <c r="I16" s="34">
         <v>100</v>
       </c>
-      <c r="I16" s="34">
+      <c r="J16" s="34">
         <v>120</v>
       </c>
-      <c r="J16" s="37">
-        <v>0</v>
-      </c>
       <c r="K16" s="37">
+        <v>0</v>
+      </c>
+      <c r="L16" s="37">
         <v>40</v>
-      </c>
-      <c r="L16" s="38">
-        <v>200</v>
       </c>
       <c r="M16" s="38">
         <v>200</v>
       </c>
-      <c r="N16" s="40">
-        <v>0</v>
+      <c r="N16" s="38">
+        <v>200</v>
       </c>
       <c r="O16" s="40">
+        <v>0</v>
+      </c>
+      <c r="P16" s="40">
         <v>50</v>
       </c>
-      <c r="P16" s="27" t="s">
+      <c r="Q16" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:17">
       <c r="B17" s="27" t="s">
         <v>79</v>
       </c>
@@ -6397,50 +6449,51 @@
       <c r="D17" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="27"/>
+      <c r="F17" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="33">
+      <c r="G17" s="33">
         <v>200</v>
       </c>
-      <c r="G17" s="33">
+      <c r="H17" s="33">
         <v>270</v>
       </c>
-      <c r="H17" s="34">
+      <c r="I17" s="34">
         <v>70</v>
       </c>
-      <c r="I17" s="34">
+      <c r="J17" s="34">
         <v>90</v>
       </c>
-      <c r="J17" s="37">
+      <c r="K17" s="37">
         <v>10</v>
       </c>
-      <c r="K17" s="37">
+      <c r="L17" s="37">
         <v>50</v>
       </c>
-      <c r="L17" s="38">
+      <c r="M17" s="38">
         <v>110</v>
       </c>
-      <c r="M17" s="38">
+      <c r="N17" s="38">
         <v>120</v>
       </c>
-      <c r="N17" s="40">
-        <v>0</v>
-      </c>
       <c r="O17" s="40">
+        <v>0</v>
+      </c>
+      <c r="P17" s="40">
         <v>35</v>
       </c>
-      <c r="P17" s="27" t="s">
+      <c r="Q17" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:17">
       <c r="B18" s="23"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:17">
       <c r="B19" s="23"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:17">
       <c r="B20" s="23"/>
     </row>
   </sheetData>
@@ -6573,7 +6626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AN2" sqref="AN2:AP2"/>
     </sheetView>
   </sheetViews>
@@ -6646,14 +6699,14 @@
       <c r="G1" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="50" t="s">
+      <c r="I1" s="76"/>
+      <c r="J1" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="51"/>
+      <c r="K1" s="76"/>
       <c r="L1" s="47" t="s">
         <v>101</v>
       </c>
@@ -6684,14 +6737,14 @@
       <c r="U1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="V1" s="50" t="s">
+      <c r="V1" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="53"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="78"/>
       <c r="AB1" s="47" t="s">
         <v>112</v>
       </c>
@@ -6728,21 +6781,21 @@
       <c r="AM1" s="47" t="s">
         <v>409</v>
       </c>
-      <c r="AN1" s="78" t="s">
+      <c r="AN1" s="69" t="s">
         <v>427</v>
       </c>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="78" t="s">
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="69" t="s">
         <v>421</v>
       </c>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="78" t="s">
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="69" t="s">
         <v>413</v>
       </c>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="70"/>
       <c r="AW1" s="47" t="s">
         <v>120</v>
       </c>
@@ -6766,10 +6819,10 @@
       <c r="E2" s="47"/>
       <c r="F2" s="49"/>
       <c r="G2" s="47"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="53"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="78"/>
       <c r="L2" s="47"/>
       <c r="M2" s="47"/>
       <c r="N2" s="47"/>
@@ -6780,12 +6833,12 @@
       <c r="S2" s="47"/>
       <c r="T2" s="47"/>
       <c r="U2" s="47"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="53"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="78"/>
       <c r="AB2" s="47"/>
       <c r="AC2" s="47"/>
       <c r="AD2" s="47"/>
@@ -6798,19 +6851,19 @@
       <c r="AK2" s="47"/>
       <c r="AL2" s="47"/>
       <c r="AM2" s="47"/>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77"/>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="77"/>
-      <c r="AV2" s="77"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
       <c r="AW2" s="47"/>
       <c r="AX2" s="47"/>
       <c r="AY2" s="49"/>
-      <c r="AZ2" s="54"/>
+      <c r="AZ2" s="51"/>
     </row>
     <row r="3" spans="1:52" ht="15">
       <c r="A3" s="47" t="s">
@@ -6834,14 +6887,14 @@
       <c r="G3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="76"/>
+      <c r="J3" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="51"/>
+      <c r="K3" s="76"/>
       <c r="L3" s="47" t="s">
         <v>21</v>
       </c>
@@ -6866,20 +6919,20 @@
       <c r="S3" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="T3" s="55" t="s">
+      <c r="T3" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="U3" s="55" t="s">
+      <c r="U3" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="V3" s="56" t="s">
+      <c r="V3" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
       <c r="AB3" s="47" t="s">
         <v>21</v>
       </c>
@@ -6916,21 +6969,21 @@
       <c r="AM3" s="47" t="s">
         <v>399</v>
       </c>
-      <c r="AN3" s="75" t="s">
+      <c r="AN3" s="71" t="s">
         <v>424</v>
       </c>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="76"/>
-      <c r="AQ3" s="75" t="s">
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="71" t="s">
         <v>412</v>
       </c>
-      <c r="AR3" s="76"/>
-      <c r="AS3" s="76"/>
-      <c r="AT3" s="75" t="s">
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="71" t="s">
         <v>412</v>
       </c>
-      <c r="AU3" s="76"/>
-      <c r="AV3" s="76"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
       <c r="AW3" s="47" t="s">
         <v>126</v>
       </c>
@@ -6954,10 +7007,10 @@
       <c r="E4" s="47"/>
       <c r="F4" s="49"/>
       <c r="G4" s="47"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="53"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="78"/>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
       <c r="N4" s="47"/>
@@ -6968,12 +7021,12 @@
       <c r="S4" s="47"/>
       <c r="T4" s="47"/>
       <c r="U4" s="47"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="53"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="78"/>
       <c r="AB4" s="47"/>
       <c r="AC4" s="47"/>
       <c r="AD4" s="47"/>
@@ -6986,19 +7039,19 @@
       <c r="AK4" s="47"/>
       <c r="AL4" s="47"/>
       <c r="AM4" s="47"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="77"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
+      <c r="AN4" s="70"/>
+      <c r="AO4" s="70"/>
+      <c r="AP4" s="70"/>
+      <c r="AQ4" s="70"/>
+      <c r="AR4" s="70"/>
+      <c r="AS4" s="70"/>
+      <c r="AT4" s="70"/>
+      <c r="AU4" s="70"/>
+      <c r="AV4" s="70"/>
       <c r="AW4" s="47"/>
       <c r="AX4" s="47"/>
       <c r="AY4" s="49"/>
-      <c r="AZ4" s="54"/>
+      <c r="AZ4" s="51"/>
     </row>
     <row r="5" spans="1:52" ht="15.75" thickBot="1">
       <c r="A5" s="47" t="s">
@@ -7115,24 +7168,24 @@
       <c r="AL5" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AM5" s="69" t="s">
+      <c r="AM5" s="64" t="s">
         <v>401</v>
       </c>
-      <c r="AN5" s="80" t="s">
+      <c r="AN5" s="73" t="s">
         <v>425</v>
       </c>
-      <c r="AO5" s="78"/>
-      <c r="AP5" s="81"/>
-      <c r="AQ5" s="80" t="s">
+      <c r="AO5" s="69"/>
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="73" t="s">
         <v>420</v>
       </c>
-      <c r="AR5" s="78"/>
-      <c r="AS5" s="81"/>
-      <c r="AT5" s="80" t="s">
+      <c r="AR5" s="69"/>
+      <c r="AS5" s="74"/>
+      <c r="AT5" s="73" t="s">
         <v>420</v>
       </c>
-      <c r="AU5" s="78"/>
-      <c r="AV5" s="81"/>
+      <c r="AU5" s="69"/>
+      <c r="AV5" s="74"/>
       <c r="AW5" s="47" t="s">
         <v>324</v>
       </c>
@@ -7142,25 +7195,25 @@
       <c r="AY5" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="AZ5" s="54" t="s">
+      <c r="AZ5" s="51" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:52" ht="15.75" thickBot="1">
       <c r="A6" s="47"/>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="55" t="s">
         <v>153</v>
       </c>
       <c r="E6" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="56">
         <v>90</v>
       </c>
       <c r="G6" s="47">
@@ -7234,10 +7287,10 @@
       <c r="AE6" s="47">
         <v>0</v>
       </c>
-      <c r="AF6" s="61" t="s">
+      <c r="AF6" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG6" s="55">
+      <c r="AG6" s="52">
         <v>0</v>
       </c>
       <c r="AH6" s="47">
@@ -7286,25 +7339,25 @@
       <c r="AW6" s="47">
         <v>0</v>
       </c>
-      <c r="AX6" s="62"/>
-      <c r="AY6" s="62"/>
-      <c r="AZ6" s="54"/>
+      <c r="AX6" s="58"/>
+      <c r="AY6" s="58"/>
+      <c r="AZ6" s="51"/>
     </row>
     <row r="7" spans="1:52" ht="15.75" thickBot="1">
       <c r="A7" s="47"/>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="55" t="s">
         <v>325</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="56">
         <v>50</v>
       </c>
       <c r="G7" s="47">
@@ -7378,10 +7431,10 @@
       <c r="AE7" s="47">
         <v>0</v>
       </c>
-      <c r="AF7" s="61" t="s">
+      <c r="AF7" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG7" s="55">
+      <c r="AG7" s="52">
         <v>0</v>
       </c>
       <c r="AH7" s="47">
@@ -7430,25 +7483,25 @@
       <c r="AW7" s="47">
         <v>0</v>
       </c>
-      <c r="AX7" s="62"/>
-      <c r="AY7" s="62"/>
-      <c r="AZ7" s="54"/>
+      <c r="AX7" s="58"/>
+      <c r="AY7" s="58"/>
+      <c r="AZ7" s="51"/>
     </row>
     <row r="8" spans="1:52" ht="15.75" thickBot="1">
       <c r="A8" s="47"/>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>326</v>
       </c>
       <c r="E8" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="56">
         <v>60</v>
       </c>
       <c r="G8" s="47">
@@ -7522,10 +7575,10 @@
       <c r="AE8" s="47">
         <v>0</v>
       </c>
-      <c r="AF8" s="61" t="s">
+      <c r="AF8" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG8" s="55">
+      <c r="AG8" s="52">
         <v>0</v>
       </c>
       <c r="AH8" s="47">
@@ -7574,25 +7627,25 @@
       <c r="AW8" s="47">
         <v>0</v>
       </c>
-      <c r="AX8" s="62"/>
-      <c r="AY8" s="62"/>
-      <c r="AZ8" s="54"/>
+      <c r="AX8" s="58"/>
+      <c r="AY8" s="58"/>
+      <c r="AZ8" s="51"/>
     </row>
     <row r="9" spans="1:52" ht="15.75" thickBot="1">
       <c r="A9" s="47"/>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="55" t="s">
         <v>327</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="56">
         <v>40</v>
       </c>
       <c r="G9" s="47">
@@ -7666,10 +7719,10 @@
       <c r="AE9" s="47">
         <v>0</v>
       </c>
-      <c r="AF9" s="61" t="s">
+      <c r="AF9" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG9" s="55">
+      <c r="AG9" s="52">
         <v>0</v>
       </c>
       <c r="AH9" s="47">
@@ -7718,25 +7771,25 @@
       <c r="AW9" s="47">
         <v>0</v>
       </c>
-      <c r="AX9" s="62"/>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="54"/>
+      <c r="AX9" s="58"/>
+      <c r="AY9" s="58"/>
+      <c r="AZ9" s="51"/>
     </row>
     <row r="10" spans="1:52" ht="15.75" thickBot="1">
       <c r="A10" s="47"/>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="55" t="s">
         <v>162</v>
       </c>
       <c r="E10" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="56">
         <v>90</v>
       </c>
       <c r="G10" s="47">
@@ -7810,10 +7863,10 @@
       <c r="AE10" s="47">
         <v>0</v>
       </c>
-      <c r="AF10" s="61" t="s">
+      <c r="AF10" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG10" s="55">
+      <c r="AG10" s="52">
         <v>0</v>
       </c>
       <c r="AH10" s="47">
@@ -7862,25 +7915,25 @@
       <c r="AW10" s="47">
         <v>0</v>
       </c>
-      <c r="AX10" s="62"/>
-      <c r="AY10" s="62"/>
-      <c r="AZ10" s="54"/>
+      <c r="AX10" s="58"/>
+      <c r="AY10" s="58"/>
+      <c r="AZ10" s="51"/>
     </row>
     <row r="11" spans="1:52" ht="15.75" thickBot="1">
       <c r="A11" s="47"/>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="55" t="s">
         <v>328</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="56">
         <v>60</v>
       </c>
       <c r="G11" s="47">
@@ -7954,10 +8007,10 @@
       <c r="AE11" s="47">
         <v>0</v>
       </c>
-      <c r="AF11" s="61" t="s">
+      <c r="AF11" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG11" s="55">
+      <c r="AG11" s="52">
         <v>0</v>
       </c>
       <c r="AH11" s="47">
@@ -8006,25 +8059,25 @@
       <c r="AW11" s="47">
         <v>0</v>
       </c>
-      <c r="AX11" s="62"/>
-      <c r="AY11" s="62"/>
-      <c r="AZ11" s="54"/>
+      <c r="AX11" s="58"/>
+      <c r="AY11" s="58"/>
+      <c r="AZ11" s="51"/>
     </row>
     <row r="12" spans="1:52" ht="15.75" thickBot="1">
       <c r="A12" s="47"/>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="55" t="s">
         <v>165</v>
       </c>
       <c r="E12" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="56">
         <v>110</v>
       </c>
       <c r="G12" s="47">
@@ -8098,10 +8151,10 @@
       <c r="AE12" s="47">
         <v>0</v>
       </c>
-      <c r="AF12" s="61" t="s">
+      <c r="AF12" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG12" s="55">
+      <c r="AG12" s="52">
         <v>0</v>
       </c>
       <c r="AH12" s="47">
@@ -8150,25 +8203,25 @@
       <c r="AW12" s="47">
         <v>0</v>
       </c>
-      <c r="AX12" s="62"/>
-      <c r="AY12" s="62"/>
-      <c r="AZ12" s="54"/>
+      <c r="AX12" s="58"/>
+      <c r="AY12" s="58"/>
+      <c r="AZ12" s="51"/>
     </row>
     <row r="13" spans="1:52" ht="15.75" thickBot="1">
       <c r="A13" s="47"/>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="55" t="s">
         <v>329</v>
       </c>
       <c r="E13" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="56">
         <v>80</v>
       </c>
       <c r="G13" s="47">
@@ -8242,10 +8295,10 @@
       <c r="AE13" s="47">
         <v>0</v>
       </c>
-      <c r="AF13" s="61" t="s">
+      <c r="AF13" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG13" s="55">
+      <c r="AG13" s="52">
         <v>0</v>
       </c>
       <c r="AH13" s="47">
@@ -8294,25 +8347,25 @@
       <c r="AW13" s="47">
         <v>0.5</v>
       </c>
-      <c r="AX13" s="62"/>
-      <c r="AY13" s="62"/>
-      <c r="AZ13" s="54"/>
+      <c r="AX13" s="58"/>
+      <c r="AY13" s="58"/>
+      <c r="AZ13" s="51"/>
     </row>
     <row r="14" spans="1:52" ht="15.75" thickBot="1">
       <c r="A14" s="47"/>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="55" t="s">
         <v>330</v>
       </c>
       <c r="E14" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="56">
         <v>0</v>
       </c>
       <c r="G14" s="47">
@@ -8384,10 +8437,10 @@
       <c r="AE14" s="47">
         <v>0</v>
       </c>
-      <c r="AF14" s="61" t="s">
+      <c r="AF14" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG14" s="55">
+      <c r="AG14" s="52">
         <v>0</v>
       </c>
       <c r="AH14" s="47">
@@ -8436,25 +8489,25 @@
       <c r="AW14" s="47">
         <v>0</v>
       </c>
-      <c r="AX14" s="62"/>
-      <c r="AY14" s="62"/>
-      <c r="AZ14" s="54"/>
+      <c r="AX14" s="58"/>
+      <c r="AY14" s="58"/>
+      <c r="AZ14" s="51"/>
     </row>
     <row r="15" spans="1:52" ht="15.75" thickBot="1">
       <c r="A15" s="47"/>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="55" t="s">
         <v>171</v>
       </c>
       <c r="E15" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="56">
         <v>70</v>
       </c>
       <c r="G15" s="47">
@@ -8526,10 +8579,10 @@
       <c r="AE15" s="47">
         <v>0</v>
       </c>
-      <c r="AF15" s="61" t="s">
+      <c r="AF15" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG15" s="55">
+      <c r="AG15" s="52">
         <v>0</v>
       </c>
       <c r="AH15" s="47">
@@ -8578,25 +8631,25 @@
       <c r="AW15" s="47">
         <v>0</v>
       </c>
-      <c r="AX15" s="62"/>
-      <c r="AY15" s="62"/>
-      <c r="AZ15" s="54"/>
+      <c r="AX15" s="58"/>
+      <c r="AY15" s="58"/>
+      <c r="AZ15" s="51"/>
     </row>
     <row r="16" spans="1:52" ht="15.75" thickBot="1">
       <c r="A16" s="47"/>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="55" t="s">
         <v>331</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="56">
         <v>100</v>
       </c>
       <c r="G16" s="47">
@@ -8668,10 +8721,10 @@
       <c r="AE16" s="47">
         <v>0</v>
       </c>
-      <c r="AF16" s="61" t="s">
+      <c r="AF16" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG16" s="55">
+      <c r="AG16" s="52">
         <v>0</v>
       </c>
       <c r="AH16" s="47">
@@ -8720,25 +8773,25 @@
       <c r="AW16" s="47">
         <v>0</v>
       </c>
-      <c r="AX16" s="62"/>
-      <c r="AY16" s="62"/>
-      <c r="AZ16" s="54"/>
+      <c r="AX16" s="58"/>
+      <c r="AY16" s="58"/>
+      <c r="AZ16" s="51"/>
     </row>
     <row r="17" spans="1:52" ht="15.75" thickBot="1">
       <c r="A17" s="47"/>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="55" t="s">
         <v>332</v>
       </c>
       <c r="E17" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="56">
         <v>90</v>
       </c>
       <c r="G17" s="47">
@@ -8810,10 +8863,10 @@
       <c r="AE17" s="47">
         <v>0</v>
       </c>
-      <c r="AF17" s="61" t="s">
+      <c r="AF17" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG17" s="55">
+      <c r="AG17" s="52">
         <v>0</v>
       </c>
       <c r="AH17" s="47">
@@ -8862,29 +8915,29 @@
       <c r="AW17" s="47">
         <v>0</v>
       </c>
-      <c r="AX17" s="62">
+      <c r="AX17" s="58">
         <v>0.5</v>
       </c>
-      <c r="AY17" s="62"/>
-      <c r="AZ17" s="54">
+      <c r="AY17" s="58"/>
+      <c r="AZ17" s="51">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:52" ht="15.75" thickBot="1">
       <c r="A18" s="47"/>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="55" t="s">
         <v>176</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="56">
         <v>110</v>
       </c>
       <c r="G18" s="47">
@@ -8956,10 +9009,10 @@
       <c r="AE18" s="47">
         <v>0</v>
       </c>
-      <c r="AF18" s="61" t="s">
+      <c r="AF18" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG18" s="55">
+      <c r="AG18" s="52">
         <v>0</v>
       </c>
       <c r="AH18" s="47">
@@ -9008,27 +9061,27 @@
       <c r="AW18" s="47">
         <v>0</v>
       </c>
-      <c r="AX18" s="62"/>
-      <c r="AY18" s="62" t="s">
+      <c r="AX18" s="58"/>
+      <c r="AY18" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="AZ18" s="54"/>
+      <c r="AZ18" s="51"/>
     </row>
     <row r="19" spans="1:52" ht="15.75" thickBot="1">
       <c r="A19" s="47"/>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="55" t="s">
         <v>179</v>
       </c>
       <c r="E19" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="56">
         <v>60</v>
       </c>
       <c r="G19" s="47">
@@ -9100,10 +9153,10 @@
       <c r="AE19" s="47">
         <v>0</v>
       </c>
-      <c r="AF19" s="61" t="s">
+      <c r="AF19" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG19" s="55">
+      <c r="AG19" s="52">
         <v>0</v>
       </c>
       <c r="AH19" s="47">
@@ -9150,25 +9203,25 @@
         <v>414</v>
       </c>
       <c r="AW19" s="47"/>
-      <c r="AX19" s="62"/>
-      <c r="AY19" s="62"/>
-      <c r="AZ19" s="54"/>
+      <c r="AX19" s="58"/>
+      <c r="AY19" s="58"/>
+      <c r="AZ19" s="51"/>
     </row>
     <row r="20" spans="1:52" ht="15.75" thickBot="1">
       <c r="A20" s="47"/>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="55" t="s">
         <v>333</v>
       </c>
       <c r="E20" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F20" s="60">
+      <c r="F20" s="56">
         <v>120</v>
       </c>
       <c r="G20" s="47">
@@ -9240,10 +9293,10 @@
       <c r="AE20" s="47">
         <v>0</v>
       </c>
-      <c r="AF20" s="61" t="s">
+      <c r="AF20" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG20" s="55">
+      <c r="AG20" s="52">
         <v>0</v>
       </c>
       <c r="AH20" s="47">
@@ -9290,25 +9343,25 @@
         <v>414</v>
       </c>
       <c r="AW20" s="47"/>
-      <c r="AX20" s="62"/>
-      <c r="AY20" s="62"/>
-      <c r="AZ20" s="54"/>
+      <c r="AX20" s="58"/>
+      <c r="AY20" s="58"/>
+      <c r="AZ20" s="51"/>
     </row>
     <row r="21" spans="1:52" ht="15.75" thickBot="1">
       <c r="A21" s="47"/>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="55" t="s">
         <v>334</v>
       </c>
       <c r="E21" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="60">
+      <c r="F21" s="56">
         <v>50</v>
       </c>
       <c r="G21" s="47">
@@ -9380,10 +9433,10 @@
       <c r="AE21" s="47">
         <v>0</v>
       </c>
-      <c r="AF21" s="61" t="s">
+      <c r="AF21" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG21" s="55">
+      <c r="AG21" s="52">
         <v>0</v>
       </c>
       <c r="AH21" s="47">
@@ -9430,25 +9483,25 @@
         <v>414</v>
       </c>
       <c r="AW21" s="47"/>
-      <c r="AX21" s="62"/>
-      <c r="AY21" s="62"/>
-      <c r="AZ21" s="54"/>
+      <c r="AX21" s="58"/>
+      <c r="AY21" s="58"/>
+      <c r="AZ21" s="51"/>
     </row>
     <row r="22" spans="1:52" ht="15.75" thickBot="1">
       <c r="A22" s="47"/>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="55" t="s">
         <v>335</v>
       </c>
       <c r="E22" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F22" s="60">
+      <c r="F22" s="56">
         <v>30</v>
       </c>
       <c r="G22" s="47">
@@ -9522,10 +9575,10 @@
       <c r="AE22" s="47">
         <v>0</v>
       </c>
-      <c r="AF22" s="61" t="s">
+      <c r="AF22" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG22" s="55">
+      <c r="AG22" s="52">
         <v>0</v>
       </c>
       <c r="AH22" s="47">
@@ -9572,25 +9625,25 @@
         <v>414</v>
       </c>
       <c r="AW22" s="47"/>
-      <c r="AX22" s="62"/>
-      <c r="AY22" s="62"/>
-      <c r="AZ22" s="54"/>
+      <c r="AX22" s="58"/>
+      <c r="AY22" s="58"/>
+      <c r="AZ22" s="51"/>
     </row>
     <row r="23" spans="1:52" ht="15.75" thickBot="1">
       <c r="A23" s="47"/>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="55" t="s">
         <v>336</v>
       </c>
       <c r="E23" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="60">
+      <c r="F23" s="56">
         <v>80</v>
       </c>
       <c r="G23" s="47">
@@ -9662,10 +9715,10 @@
       <c r="AE23" s="47">
         <v>0</v>
       </c>
-      <c r="AF23" s="61" t="s">
+      <c r="AF23" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG23" s="55">
+      <c r="AG23" s="52">
         <v>0</v>
       </c>
       <c r="AH23" s="47">
@@ -9712,25 +9765,25 @@
         <v>414</v>
       </c>
       <c r="AW23" s="47"/>
-      <c r="AX23" s="62"/>
-      <c r="AY23" s="62"/>
-      <c r="AZ23" s="54"/>
+      <c r="AX23" s="58"/>
+      <c r="AY23" s="58"/>
+      <c r="AZ23" s="51"/>
     </row>
     <row r="24" spans="1:52" ht="15.75" thickBot="1">
       <c r="A24" s="47"/>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="55" t="s">
         <v>337</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="60">
+      <c r="F24" s="56">
         <v>60</v>
       </c>
       <c r="G24" s="47">
@@ -9800,10 +9853,10 @@
       <c r="AE24" s="47">
         <v>0</v>
       </c>
-      <c r="AF24" s="61" t="s">
+      <c r="AF24" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG24" s="55">
+      <c r="AG24" s="52">
         <v>0</v>
       </c>
       <c r="AH24" s="47">
@@ -9850,25 +9903,25 @@
         <v>414</v>
       </c>
       <c r="AW24" s="47"/>
-      <c r="AX24" s="62"/>
-      <c r="AY24" s="62"/>
-      <c r="AZ24" s="54"/>
+      <c r="AX24" s="58"/>
+      <c r="AY24" s="58"/>
+      <c r="AZ24" s="51"/>
     </row>
     <row r="25" spans="1:52" ht="15.75" thickBot="1">
       <c r="A25" s="47"/>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="55" t="s">
         <v>188</v>
       </c>
       <c r="E25" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F25" s="56">
         <v>90</v>
       </c>
       <c r="G25" s="47">
@@ -9938,10 +9991,10 @@
       <c r="AE25" s="47">
         <v>0</v>
       </c>
-      <c r="AF25" s="61" t="s">
+      <c r="AF25" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG25" s="55">
+      <c r="AG25" s="52">
         <v>0</v>
       </c>
       <c r="AH25" s="47">
@@ -9988,25 +10041,25 @@
         <v>414</v>
       </c>
       <c r="AW25" s="47"/>
-      <c r="AX25" s="62"/>
-      <c r="AY25" s="62"/>
-      <c r="AZ25" s="54"/>
+      <c r="AX25" s="58"/>
+      <c r="AY25" s="58"/>
+      <c r="AZ25" s="51"/>
     </row>
     <row r="26" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="57" t="s">
+      <c r="A26" s="59"/>
+      <c r="B26" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="55" t="s">
         <v>338</v>
       </c>
       <c r="E26" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="60">
+      <c r="F26" s="56">
         <v>0</v>
       </c>
       <c r="G26" s="47">
@@ -10082,10 +10135,10 @@
       <c r="AE26" s="47">
         <v>0</v>
       </c>
-      <c r="AF26" s="61" t="s">
+      <c r="AF26" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG26" s="55">
+      <c r="AG26" s="52">
         <v>0</v>
       </c>
       <c r="AH26" s="47">
@@ -10132,25 +10185,25 @@
         <v>414</v>
       </c>
       <c r="AW26" s="47"/>
-      <c r="AX26" s="62"/>
-      <c r="AY26" s="62"/>
-      <c r="AZ26" s="54"/>
+      <c r="AX26" s="58"/>
+      <c r="AY26" s="58"/>
+      <c r="AZ26" s="51"/>
     </row>
     <row r="27" spans="1:52" ht="15.75" thickBot="1">
       <c r="A27" s="47"/>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="55" t="s">
         <v>339</v>
       </c>
       <c r="E27" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="60">
+      <c r="F27" s="56">
         <v>110</v>
       </c>
       <c r="G27" s="47">
@@ -10220,10 +10273,10 @@
       <c r="AE27" s="47">
         <v>0</v>
       </c>
-      <c r="AF27" s="61" t="s">
+      <c r="AF27" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG27" s="55">
+      <c r="AG27" s="52">
         <v>0</v>
       </c>
       <c r="AH27" s="47">
@@ -10270,25 +10323,25 @@
         <v>414</v>
       </c>
       <c r="AW27" s="47"/>
-      <c r="AX27" s="62"/>
-      <c r="AY27" s="62"/>
-      <c r="AZ27" s="54"/>
+      <c r="AX27" s="58"/>
+      <c r="AY27" s="58"/>
+      <c r="AZ27" s="51"/>
     </row>
     <row r="28" spans="1:52" ht="15.75" thickBot="1">
       <c r="A28" s="47"/>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="55" t="s">
         <v>195</v>
       </c>
       <c r="E28" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="60">
+      <c r="F28" s="56">
         <v>70</v>
       </c>
       <c r="G28" s="47">
@@ -10358,10 +10411,10 @@
       <c r="AE28" s="47">
         <v>0</v>
       </c>
-      <c r="AF28" s="61" t="s">
+      <c r="AF28" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG28" s="55">
+      <c r="AG28" s="52">
         <v>0</v>
       </c>
       <c r="AH28" s="47">
@@ -10408,25 +10461,25 @@
         <v>414</v>
       </c>
       <c r="AW28" s="47"/>
-      <c r="AX28" s="62"/>
-      <c r="AY28" s="62"/>
-      <c r="AZ28" s="54"/>
+      <c r="AX28" s="58"/>
+      <c r="AY28" s="58"/>
+      <c r="AZ28" s="51"/>
     </row>
     <row r="29" spans="1:52" ht="15.75" thickBot="1">
       <c r="A29" s="47"/>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="55" t="s">
         <v>340</v>
       </c>
       <c r="E29" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="60">
+      <c r="F29" s="56">
         <v>60</v>
       </c>
       <c r="G29" s="47">
@@ -10496,10 +10549,10 @@
       <c r="AE29" s="47">
         <v>10</v>
       </c>
-      <c r="AF29" s="61" t="s">
+      <c r="AF29" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG29" s="55">
+      <c r="AG29" s="52">
         <v>0</v>
       </c>
       <c r="AH29" s="47">
@@ -10546,25 +10599,25 @@
         <v>414</v>
       </c>
       <c r="AW29" s="47"/>
-      <c r="AX29" s="62"/>
-      <c r="AY29" s="62"/>
-      <c r="AZ29" s="54"/>
+      <c r="AX29" s="58"/>
+      <c r="AY29" s="58"/>
+      <c r="AZ29" s="51"/>
     </row>
     <row r="30" spans="1:52" ht="15.75" thickBot="1">
       <c r="A30" s="47"/>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="55" t="s">
         <v>198</v>
       </c>
       <c r="E30" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="60">
+      <c r="F30" s="56">
         <v>60</v>
       </c>
       <c r="G30" s="47">
@@ -10634,10 +10687,10 @@
       <c r="AE30" s="47">
         <v>0</v>
       </c>
-      <c r="AF30" s="61" t="s">
+      <c r="AF30" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG30" s="55">
+      <c r="AG30" s="52">
         <v>0</v>
       </c>
       <c r="AH30" s="47">
@@ -10684,25 +10737,25 @@
         <v>414</v>
       </c>
       <c r="AW30" s="47"/>
-      <c r="AX30" s="62"/>
-      <c r="AY30" s="62"/>
-      <c r="AZ30" s="54"/>
+      <c r="AX30" s="58"/>
+      <c r="AY30" s="58"/>
+      <c r="AZ30" s="51"/>
     </row>
     <row r="31" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A31" s="64"/>
-      <c r="B31" s="57" t="s">
+      <c r="A31" s="60"/>
+      <c r="B31" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="55" t="s">
         <v>341</v>
       </c>
       <c r="E31" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F31" s="60">
+      <c r="F31" s="56">
         <v>0</v>
       </c>
       <c r="G31" s="47">
@@ -10774,10 +10827,10 @@
       <c r="AE31" s="47">
         <v>0</v>
       </c>
-      <c r="AF31" s="61" t="s">
+      <c r="AF31" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG31" s="55">
+      <c r="AG31" s="52">
         <v>0</v>
       </c>
       <c r="AH31" s="47">
@@ -10824,25 +10877,25 @@
         <v>414</v>
       </c>
       <c r="AW31" s="47"/>
-      <c r="AX31" s="62"/>
-      <c r="AY31" s="62"/>
-      <c r="AZ31" s="54"/>
+      <c r="AX31" s="58"/>
+      <c r="AY31" s="58"/>
+      <c r="AZ31" s="51"/>
     </row>
     <row r="32" spans="1:52" ht="15.75" thickBot="1">
       <c r="A32" s="47"/>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="55" t="s">
         <v>342</v>
       </c>
       <c r="E32" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F32" s="60">
+      <c r="F32" s="56">
         <v>50</v>
       </c>
       <c r="G32" s="47">
@@ -10912,10 +10965,10 @@
       <c r="AE32" s="47">
         <v>0</v>
       </c>
-      <c r="AF32" s="61" t="s">
+      <c r="AF32" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG32" s="55">
+      <c r="AG32" s="52">
         <v>0</v>
       </c>
       <c r="AH32" s="47">
@@ -10962,25 +11015,25 @@
         <v>414</v>
       </c>
       <c r="AW32" s="47"/>
-      <c r="AX32" s="62"/>
-      <c r="AY32" s="62"/>
-      <c r="AZ32" s="54"/>
+      <c r="AX32" s="58"/>
+      <c r="AY32" s="58"/>
+      <c r="AZ32" s="51"/>
     </row>
     <row r="33" spans="1:52" ht="15.75" thickBot="1">
       <c r="A33" s="47"/>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="55" t="s">
         <v>343</v>
       </c>
       <c r="E33" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="F33" s="60">
+      <c r="F33" s="56">
         <v>20</v>
       </c>
       <c r="G33" s="47">
@@ -11052,10 +11105,10 @@
       <c r="AE33" s="47">
         <v>0</v>
       </c>
-      <c r="AF33" s="61" t="s">
+      <c r="AF33" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG33" s="55">
+      <c r="AG33" s="52">
         <v>0</v>
       </c>
       <c r="AH33" s="47">
@@ -11102,25 +11155,25 @@
         <v>414</v>
       </c>
       <c r="AW33" s="47"/>
-      <c r="AX33" s="62"/>
-      <c r="AY33" s="62"/>
-      <c r="AZ33" s="54"/>
+      <c r="AX33" s="58"/>
+      <c r="AY33" s="58"/>
+      <c r="AZ33" s="51"/>
     </row>
     <row r="34" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="57" t="s">
+      <c r="A34" s="60"/>
+      <c r="B34" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="C34" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="59" t="s">
+      <c r="C34" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="55" t="s">
         <v>344</v>
       </c>
       <c r="E34" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F34" s="60">
+      <c r="F34" s="56">
         <v>0</v>
       </c>
       <c r="G34" s="47">
@@ -11190,10 +11243,10 @@
       <c r="AE34" s="47">
         <v>0</v>
       </c>
-      <c r="AF34" s="61" t="s">
+      <c r="AF34" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG34" s="55">
+      <c r="AG34" s="52">
         <v>0</v>
       </c>
       <c r="AH34" s="47">
@@ -11240,25 +11293,25 @@
         <v>414</v>
       </c>
       <c r="AW34" s="47"/>
-      <c r="AX34" s="62"/>
-      <c r="AY34" s="62"/>
-      <c r="AZ34" s="54"/>
+      <c r="AX34" s="58"/>
+      <c r="AY34" s="58"/>
+      <c r="AZ34" s="51"/>
     </row>
     <row r="35" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A35" s="64"/>
-      <c r="B35" s="57" t="s">
+      <c r="A35" s="60"/>
+      <c r="B35" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="C35" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="59" t="s">
+      <c r="C35" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="55" t="s">
         <v>345</v>
       </c>
       <c r="E35" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F35" s="60">
+      <c r="F35" s="56">
         <v>0</v>
       </c>
       <c r="G35" s="47">
@@ -11328,10 +11381,10 @@
       <c r="AE35" s="47">
         <v>0</v>
       </c>
-      <c r="AF35" s="61" t="s">
+      <c r="AF35" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG35" s="55">
+      <c r="AG35" s="52">
         <v>0</v>
       </c>
       <c r="AH35" s="47">
@@ -11378,25 +11431,25 @@
         <v>414</v>
       </c>
       <c r="AW35" s="47"/>
-      <c r="AX35" s="62"/>
-      <c r="AY35" s="62"/>
-      <c r="AZ35" s="54"/>
+      <c r="AX35" s="58"/>
+      <c r="AY35" s="58"/>
+      <c r="AZ35" s="51"/>
     </row>
     <row r="36" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A36" s="64"/>
-      <c r="B36" s="57" t="s">
+      <c r="A36" s="60"/>
+      <c r="B36" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="C36" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="59" t="s">
+      <c r="C36" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="55" t="s">
         <v>346</v>
       </c>
       <c r="E36" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F36" s="60">
+      <c r="F36" s="56">
         <v>0</v>
       </c>
       <c r="G36" s="47">
@@ -11466,10 +11519,10 @@
       <c r="AE36" s="47">
         <v>0</v>
       </c>
-      <c r="AF36" s="61" t="s">
+      <c r="AF36" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG36" s="55">
+      <c r="AG36" s="52">
         <v>0</v>
       </c>
       <c r="AH36" s="47">
@@ -11516,25 +11569,25 @@
         <v>414</v>
       </c>
       <c r="AW36" s="47"/>
-      <c r="AX36" s="62"/>
-      <c r="AY36" s="62"/>
-      <c r="AZ36" s="54"/>
+      <c r="AX36" s="58"/>
+      <c r="AY36" s="58"/>
+      <c r="AZ36" s="51"/>
     </row>
     <row r="37" spans="1:52" ht="15.75" thickBot="1">
       <c r="A37" s="47"/>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="C37" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="59" t="s">
+      <c r="C37" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="55" t="s">
         <v>347</v>
       </c>
       <c r="E37" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F37" s="60">
+      <c r="F37" s="56">
         <v>0</v>
       </c>
       <c r="G37" s="47">
@@ -11652,25 +11705,25 @@
         <v>414</v>
       </c>
       <c r="AW37" s="47"/>
-      <c r="AX37" s="62"/>
-      <c r="AY37" s="62"/>
-      <c r="AZ37" s="54"/>
+      <c r="AX37" s="58"/>
+      <c r="AY37" s="58"/>
+      <c r="AZ37" s="51"/>
     </row>
     <row r="38" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A38" s="64"/>
-      <c r="B38" s="57" t="s">
+      <c r="A38" s="60"/>
+      <c r="B38" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="C38" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D38" s="59" t="s">
+      <c r="C38" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="55" t="s">
         <v>210</v>
       </c>
       <c r="E38" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F38" s="60">
+      <c r="F38" s="56">
         <v>0</v>
       </c>
       <c r="G38" s="47">
@@ -11696,10 +11749,10 @@
       <c r="O38" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="P38" s="65">
+      <c r="P38" s="61">
         <v>1</v>
       </c>
-      <c r="Q38" s="55" t="s">
+      <c r="Q38" s="52" t="s">
         <v>209</v>
       </c>
       <c r="R38" s="47"/>
@@ -11740,10 +11793,10 @@
       <c r="AE38" s="47">
         <v>0</v>
       </c>
-      <c r="AF38" s="61" t="s">
+      <c r="AF38" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG38" s="55">
+      <c r="AG38" s="52">
         <v>0</v>
       </c>
       <c r="AH38" s="47">
@@ -11790,25 +11843,25 @@
         <v>414</v>
       </c>
       <c r="AW38" s="47"/>
-      <c r="AX38" s="62"/>
-      <c r="AY38" s="62"/>
-      <c r="AZ38" s="54"/>
+      <c r="AX38" s="58"/>
+      <c r="AY38" s="58"/>
+      <c r="AZ38" s="51"/>
     </row>
     <row r="39" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A39" s="64"/>
-      <c r="B39" s="57" t="s">
+      <c r="A39" s="60"/>
+      <c r="B39" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" s="59" t="s">
+      <c r="C39" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="55" t="s">
         <v>212</v>
       </c>
       <c r="E39" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F39" s="60">
+      <c r="F39" s="56">
         <v>0</v>
       </c>
       <c r="G39" s="47">
@@ -11874,10 +11927,10 @@
       <c r="AE39" s="47">
         <v>0</v>
       </c>
-      <c r="AF39" s="61" t="s">
+      <c r="AF39" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG39" s="55">
+      <c r="AG39" s="52">
         <v>0</v>
       </c>
       <c r="AH39" s="47">
@@ -11924,25 +11977,25 @@
         <v>414</v>
       </c>
       <c r="AW39" s="47"/>
-      <c r="AX39" s="62"/>
-      <c r="AY39" s="62"/>
-      <c r="AZ39" s="54"/>
+      <c r="AX39" s="58"/>
+      <c r="AY39" s="58"/>
+      <c r="AZ39" s="51"/>
     </row>
     <row r="40" spans="1:52" ht="15.75" thickBot="1">
       <c r="A40" s="47"/>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="C40" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="59" t="s">
+      <c r="C40" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="55" t="s">
         <v>214</v>
       </c>
       <c r="E40" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F40" s="60">
+      <c r="F40" s="56">
         <v>0</v>
       </c>
       <c r="G40" s="47">
@@ -12011,7 +12064,7 @@
       <c r="AF40" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="AG40" s="55">
+      <c r="AG40" s="52">
         <v>0</v>
       </c>
       <c r="AH40" s="47">
@@ -12058,25 +12111,25 @@
         <v>414</v>
       </c>
       <c r="AW40" s="47"/>
-      <c r="AX40" s="62"/>
-      <c r="AY40" s="62"/>
-      <c r="AZ40" s="54"/>
+      <c r="AX40" s="58"/>
+      <c r="AY40" s="58"/>
+      <c r="AZ40" s="51"/>
     </row>
     <row r="41" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A41" s="64"/>
-      <c r="B41" s="57" t="s">
+      <c r="A41" s="60"/>
+      <c r="B41" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="C41" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" s="59" t="s">
+      <c r="C41" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="55" t="s">
         <v>348</v>
       </c>
       <c r="E41" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F41" s="60">
+      <c r="F41" s="56">
         <v>0</v>
       </c>
       <c r="G41" s="47">
@@ -12146,10 +12199,10 @@
       <c r="AE41" s="47">
         <v>0</v>
       </c>
-      <c r="AF41" s="61" t="s">
+      <c r="AF41" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG41" s="55">
+      <c r="AG41" s="52">
         <v>0</v>
       </c>
       <c r="AH41" s="47">
@@ -12196,25 +12249,25 @@
         <v>414</v>
       </c>
       <c r="AW41" s="47"/>
-      <c r="AX41" s="62"/>
-      <c r="AY41" s="62"/>
-      <c r="AZ41" s="54"/>
+      <c r="AX41" s="58"/>
+      <c r="AY41" s="58"/>
+      <c r="AZ41" s="51"/>
     </row>
     <row r="42" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A42" s="63"/>
-      <c r="B42" s="57" t="s">
+      <c r="A42" s="59"/>
+      <c r="B42" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="C42" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="59" t="s">
+      <c r="C42" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="55" t="s">
         <v>350</v>
       </c>
       <c r="E42" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F42" s="60">
+      <c r="F42" s="56">
         <v>0</v>
       </c>
       <c r="G42" s="47">
@@ -12235,17 +12288,17 @@
       <c r="L42" s="48">
         <v>1</v>
       </c>
-      <c r="M42" s="57" t="s">
+      <c r="M42" s="53" t="s">
         <v>217</v>
       </c>
       <c r="N42" s="48">
         <v>1</v>
       </c>
-      <c r="O42" s="57" t="s">
+      <c r="O42" s="53" t="s">
         <v>217</v>
       </c>
       <c r="P42" s="47"/>
-      <c r="Q42" s="57"/>
+      <c r="Q42" s="53"/>
       <c r="R42" s="47"/>
       <c r="S42" s="47"/>
       <c r="T42" s="47" t="s">
@@ -12287,7 +12340,7 @@
       <c r="AF42" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="AG42" s="55">
+      <c r="AG42" s="52">
         <v>50</v>
       </c>
       <c r="AH42" s="47">
@@ -12334,25 +12387,25 @@
         <v>414</v>
       </c>
       <c r="AW42" s="47"/>
-      <c r="AX42" s="62"/>
-      <c r="AY42" s="62"/>
-      <c r="AZ42" s="54"/>
+      <c r="AX42" s="58"/>
+      <c r="AY42" s="58"/>
+      <c r="AZ42" s="51"/>
     </row>
     <row r="43" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A43" s="64"/>
-      <c r="B43" s="57" t="s">
+      <c r="A43" s="60"/>
+      <c r="B43" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="C43" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="59" t="s">
+      <c r="C43" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="55" t="s">
         <v>351</v>
       </c>
       <c r="E43" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F43" s="60">
+      <c r="F43" s="56">
         <v>0</v>
       </c>
       <c r="G43" s="47">
@@ -12422,10 +12475,10 @@
       <c r="AE43" s="47">
         <v>0</v>
       </c>
-      <c r="AF43" s="61" t="s">
+      <c r="AF43" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG43" s="55">
+      <c r="AG43" s="52">
         <v>0</v>
       </c>
       <c r="AH43" s="47">
@@ -12472,25 +12525,25 @@
         <v>414</v>
       </c>
       <c r="AW43" s="47"/>
-      <c r="AX43" s="62"/>
-      <c r="AY43" s="62"/>
-      <c r="AZ43" s="54"/>
+      <c r="AX43" s="58"/>
+      <c r="AY43" s="58"/>
+      <c r="AZ43" s="51"/>
     </row>
     <row r="44" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A44" s="66"/>
-      <c r="B44" s="57" t="s">
+      <c r="A44" s="62"/>
+      <c r="B44" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="C44" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="59" t="s">
+      <c r="C44" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="55" t="s">
         <v>221</v>
       </c>
       <c r="E44" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F44" s="60">
+      <c r="F44" s="56">
         <v>0</v>
       </c>
       <c r="G44" s="47">
@@ -12519,7 +12572,7 @@
       <c r="P44" s="47">
         <v>1</v>
       </c>
-      <c r="Q44" s="62" t="s">
+      <c r="Q44" s="58" t="s">
         <v>222</v>
       </c>
       <c r="R44" s="47"/>
@@ -12563,7 +12616,7 @@
       <c r="AF44" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="AG44" s="55">
+      <c r="AG44" s="52">
         <v>0</v>
       </c>
       <c r="AH44" s="47">
@@ -12610,25 +12663,25 @@
         <v>414</v>
       </c>
       <c r="AW44" s="47"/>
-      <c r="AX44" s="62"/>
-      <c r="AY44" s="62"/>
-      <c r="AZ44" s="54"/>
+      <c r="AX44" s="58"/>
+      <c r="AY44" s="58"/>
+      <c r="AZ44" s="51"/>
     </row>
     <row r="45" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A45" s="64"/>
-      <c r="B45" s="57" t="s">
+      <c r="A45" s="60"/>
+      <c r="B45" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="59" t="s">
+      <c r="C45" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="55" t="s">
         <v>354</v>
       </c>
       <c r="E45" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F45" s="60">
+      <c r="F45" s="56">
         <v>0</v>
       </c>
       <c r="G45" s="47">
@@ -12643,7 +12696,7 @@
       <c r="J45" s="47">
         <v>1</v>
       </c>
-      <c r="K45" s="62" t="s">
+      <c r="K45" s="58" t="s">
         <v>356</v>
       </c>
       <c r="L45" s="47"/>
@@ -12694,10 +12747,10 @@
       <c r="AE45" s="47">
         <v>0</v>
       </c>
-      <c r="AF45" s="61" t="s">
+      <c r="AF45" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG45" s="55">
+      <c r="AG45" s="52">
         <v>0</v>
       </c>
       <c r="AH45" s="47">
@@ -12744,25 +12797,25 @@
         <v>414</v>
       </c>
       <c r="AW45" s="47"/>
-      <c r="AX45" s="62"/>
-      <c r="AY45" s="62"/>
-      <c r="AZ45" s="54"/>
+      <c r="AX45" s="58"/>
+      <c r="AY45" s="58"/>
+      <c r="AZ45" s="51"/>
     </row>
     <row r="46" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A46" s="64"/>
-      <c r="B46" s="57" t="s">
+      <c r="A46" s="60"/>
+      <c r="B46" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="C46" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" s="59" t="s">
+      <c r="C46" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="55" t="s">
         <v>357</v>
       </c>
       <c r="E46" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F46" s="60">
+      <c r="F46" s="56">
         <v>0</v>
       </c>
       <c r="G46" s="47">
@@ -12828,10 +12881,10 @@
       <c r="AE46" s="47">
         <v>0</v>
       </c>
-      <c r="AF46" s="61" t="s">
+      <c r="AF46" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG46" s="55">
+      <c r="AG46" s="52">
         <v>0</v>
       </c>
       <c r="AH46" s="47">
@@ -12878,25 +12931,25 @@
         <v>414</v>
       </c>
       <c r="AW46" s="47"/>
-      <c r="AX46" s="62"/>
-      <c r="AY46" s="62"/>
-      <c r="AZ46" s="54"/>
+      <c r="AX46" s="58"/>
+      <c r="AY46" s="58"/>
+      <c r="AZ46" s="51"/>
     </row>
     <row r="47" spans="1:52" ht="15.75" thickBot="1">
       <c r="A47" s="47"/>
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="C47" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" s="59" t="s">
+      <c r="C47" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="55" t="s">
         <v>358</v>
       </c>
       <c r="E47" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F47" s="60">
+      <c r="F47" s="56">
         <v>0</v>
       </c>
       <c r="G47" s="47">
@@ -12962,10 +13015,10 @@
       <c r="AE47" s="47">
         <v>0</v>
       </c>
-      <c r="AF47" s="61" t="s">
+      <c r="AF47" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG47" s="55">
+      <c r="AG47" s="52">
         <v>0</v>
       </c>
       <c r="AH47" s="47">
@@ -13012,25 +13065,25 @@
         <v>414</v>
       </c>
       <c r="AW47" s="47"/>
-      <c r="AX47" s="62"/>
-      <c r="AY47" s="62"/>
-      <c r="AZ47" s="54"/>
+      <c r="AX47" s="58"/>
+      <c r="AY47" s="58"/>
+      <c r="AZ47" s="51"/>
     </row>
     <row r="48" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A48" s="64"/>
-      <c r="B48" s="57" t="s">
+      <c r="A48" s="60"/>
+      <c r="B48" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="C48" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" s="59" t="s">
+      <c r="C48" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="55" t="s">
         <v>361</v>
       </c>
       <c r="E48" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F48" s="60">
+      <c r="F48" s="56">
         <v>0</v>
       </c>
       <c r="G48" s="47">
@@ -13096,10 +13149,10 @@
       <c r="AE48" s="47">
         <v>0</v>
       </c>
-      <c r="AF48" s="61" t="s">
+      <c r="AF48" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG48" s="55">
+      <c r="AG48" s="52">
         <v>0</v>
       </c>
       <c r="AH48" s="47">
@@ -13146,25 +13199,25 @@
         <v>414</v>
       </c>
       <c r="AW48" s="47"/>
-      <c r="AX48" s="62"/>
-      <c r="AY48" s="62"/>
-      <c r="AZ48" s="54"/>
+      <c r="AX48" s="58"/>
+      <c r="AY48" s="58"/>
+      <c r="AZ48" s="51"/>
     </row>
     <row r="49" spans="1:52" ht="15">
-      <c r="A49" s="64"/>
-      <c r="B49" s="57" t="s">
+      <c r="A49" s="60"/>
+      <c r="B49" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="C49" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D49" s="59" t="s">
+      <c r="C49" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="55" t="s">
         <v>362</v>
       </c>
       <c r="E49" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F49" s="60">
+      <c r="F49" s="56">
         <v>0</v>
       </c>
       <c r="G49" s="47">
@@ -13189,7 +13242,7 @@
       <c r="N49" s="47">
         <v>1</v>
       </c>
-      <c r="O49" s="57" t="s">
+      <c r="O49" s="53" t="s">
         <v>217</v>
       </c>
       <c r="P49" s="47"/>
@@ -13235,7 +13288,7 @@
       <c r="AF49" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="AG49" s="55">
+      <c r="AG49" s="52">
         <v>0</v>
       </c>
       <c r="AH49" s="47">
@@ -13263,44 +13316,44 @@
       <c r="AP49" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AQ49" s="79">
-        <v>-1</v>
-      </c>
-      <c r="AR49" s="79">
+      <c r="AQ49" s="68">
+        <v>-1</v>
+      </c>
+      <c r="AR49" s="68">
         <v>0</v>
       </c>
       <c r="AS49" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="AT49" s="79">
+      <c r="AT49" s="68">
         <v>20</v>
       </c>
-      <c r="AU49" s="79">
+      <c r="AU49" s="68">
         <v>0</v>
       </c>
       <c r="AV49" s="43" t="s">
         <v>417</v>
       </c>
       <c r="AW49" s="47"/>
-      <c r="AX49" s="62"/>
-      <c r="AY49" s="62"/>
-      <c r="AZ49" s="54"/>
+      <c r="AX49" s="58"/>
+      <c r="AY49" s="58"/>
+      <c r="AZ49" s="51"/>
     </row>
     <row r="50" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A50" s="64"/>
-      <c r="B50" s="57" t="s">
+      <c r="A50" s="60"/>
+      <c r="B50" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="C50" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D50" s="59" t="s">
+      <c r="C50" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" s="55" t="s">
         <v>363</v>
       </c>
       <c r="E50" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F50" s="60">
+      <c r="F50" s="56">
         <v>0</v>
       </c>
       <c r="G50" s="47">
@@ -13373,7 +13426,7 @@
       <c r="AF50" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="AG50" s="55">
+      <c r="AG50" s="52">
         <v>0</v>
       </c>
       <c r="AH50" s="47">
@@ -13420,25 +13473,25 @@
         <v>414</v>
       </c>
       <c r="AW50" s="47"/>
-      <c r="AX50" s="62"/>
-      <c r="AY50" s="62"/>
-      <c r="AZ50" s="54"/>
+      <c r="AX50" s="58"/>
+      <c r="AY50" s="58"/>
+      <c r="AZ50" s="51"/>
     </row>
     <row r="51" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A51" s="64"/>
-      <c r="B51" s="57" t="s">
+      <c r="A51" s="60"/>
+      <c r="B51" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="C51" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51" s="70" t="s">
+      <c r="C51" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="65" t="s">
         <v>387</v>
       </c>
       <c r="E51" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F51" s="60">
+      <c r="F51" s="56">
         <v>0</v>
       </c>
       <c r="G51" s="47">
@@ -13463,7 +13516,7 @@
       <c r="N51" s="47">
         <v>1</v>
       </c>
-      <c r="O51" s="70" t="s">
+      <c r="O51" s="65" t="s">
         <v>387</v>
       </c>
       <c r="P51" s="47"/>
@@ -13506,10 +13559,10 @@
       <c r="AE51" s="47">
         <v>0</v>
       </c>
-      <c r="AF51" s="61" t="s">
+      <c r="AF51" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG51" s="55">
+      <c r="AG51" s="52">
         <v>0</v>
       </c>
       <c r="AH51" s="47">
@@ -13556,25 +13609,25 @@
         <v>414</v>
       </c>
       <c r="AW51" s="47"/>
-      <c r="AX51" s="62"/>
-      <c r="AY51" s="62"/>
-      <c r="AZ51" s="54"/>
+      <c r="AX51" s="58"/>
+      <c r="AY51" s="58"/>
+      <c r="AZ51" s="51"/>
     </row>
     <row r="52" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A52" s="64"/>
-      <c r="B52" s="57" t="s">
+      <c r="A52" s="60"/>
+      <c r="B52" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="C52" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D52" s="59" t="s">
+      <c r="C52" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="55" t="s">
         <v>365</v>
       </c>
       <c r="E52" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F52" s="60">
+      <c r="F52" s="56">
         <v>0</v>
       </c>
       <c r="G52" s="47">
@@ -13603,7 +13656,7 @@
       <c r="P52" s="47">
         <v>1</v>
       </c>
-      <c r="Q52" s="62" t="s">
+      <c r="Q52" s="58" t="s">
         <v>366</v>
       </c>
       <c r="R52" s="47"/>
@@ -13614,7 +13667,7 @@
       <c r="U52" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="V52" s="55" t="s">
+      <c r="V52" s="52" t="s">
         <v>375</v>
       </c>
       <c r="W52" s="47">
@@ -13644,10 +13697,10 @@
       <c r="AE52" s="47">
         <v>0</v>
       </c>
-      <c r="AF52" s="61" t="s">
+      <c r="AF52" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG52" s="55">
+      <c r="AG52" s="52">
         <v>0</v>
       </c>
       <c r="AH52" s="47">
@@ -13694,25 +13747,25 @@
         <v>414</v>
       </c>
       <c r="AW52" s="47"/>
-      <c r="AX52" s="62"/>
-      <c r="AY52" s="62"/>
-      <c r="AZ52" s="54"/>
+      <c r="AX52" s="58"/>
+      <c r="AY52" s="58"/>
+      <c r="AZ52" s="51"/>
     </row>
     <row r="53" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A53" s="64"/>
-      <c r="B53" s="57" t="s">
+      <c r="A53" s="60"/>
+      <c r="B53" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="C53" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" s="59" t="s">
+      <c r="C53" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="55" t="s">
         <v>367</v>
       </c>
       <c r="E53" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F53" s="60">
+      <c r="F53" s="56">
         <v>0</v>
       </c>
       <c r="G53" s="47">
@@ -13733,7 +13786,7 @@
       <c r="L53" s="47">
         <v>1</v>
       </c>
-      <c r="M53" s="69" t="s">
+      <c r="M53" s="64" t="s">
         <v>402</v>
       </c>
       <c r="N53" s="47"/>
@@ -13783,7 +13836,7 @@
       <c r="AF53" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="AG53" s="55">
+      <c r="AG53" s="52">
         <v>0</v>
       </c>
       <c r="AH53" s="47">
@@ -13832,25 +13885,25 @@
         <v>414</v>
       </c>
       <c r="AW53" s="47"/>
-      <c r="AX53" s="62"/>
-      <c r="AY53" s="62"/>
-      <c r="AZ53" s="54"/>
+      <c r="AX53" s="58"/>
+      <c r="AY53" s="58"/>
+      <c r="AZ53" s="51"/>
     </row>
     <row r="54" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A54" s="64"/>
-      <c r="B54" s="57" t="s">
+      <c r="A54" s="60"/>
+      <c r="B54" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="C54" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" s="59" t="s">
+      <c r="C54" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="55" t="s">
         <v>235</v>
       </c>
       <c r="E54" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F54" s="60">
+      <c r="F54" s="56">
         <v>0</v>
       </c>
       <c r="G54" s="47">
@@ -13920,10 +13973,10 @@
       <c r="AE54" s="47">
         <v>0</v>
       </c>
-      <c r="AF54" s="61" t="s">
+      <c r="AF54" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG54" s="55">
+      <c r="AG54" s="52">
         <v>0</v>
       </c>
       <c r="AH54" s="47">
@@ -13970,25 +14023,25 @@
         <v>414</v>
       </c>
       <c r="AW54" s="47"/>
-      <c r="AX54" s="62"/>
-      <c r="AY54" s="62"/>
-      <c r="AZ54" s="54"/>
+      <c r="AX54" s="58"/>
+      <c r="AY54" s="58"/>
+      <c r="AZ54" s="51"/>
     </row>
     <row r="55" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A55" s="64"/>
-      <c r="B55" s="57" t="s">
+      <c r="A55" s="60"/>
+      <c r="B55" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="C55" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D55" s="73" t="s">
+      <c r="C55" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="66" t="s">
         <v>394</v>
       </c>
       <c r="E55" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F55" s="60">
+      <c r="F55" s="56">
         <v>0</v>
       </c>
       <c r="G55" s="47">
@@ -14056,10 +14109,10 @@
       <c r="AE55" s="47">
         <v>0</v>
       </c>
-      <c r="AF55" s="61" t="s">
+      <c r="AF55" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG55" s="55">
+      <c r="AG55" s="52">
         <v>0</v>
       </c>
       <c r="AH55" s="47">
@@ -14106,25 +14159,25 @@
         <v>414</v>
       </c>
       <c r="AW55" s="47"/>
-      <c r="AX55" s="62"/>
-      <c r="AY55" s="62"/>
-      <c r="AZ55" s="54"/>
+      <c r="AX55" s="58"/>
+      <c r="AY55" s="58"/>
+      <c r="AZ55" s="51"/>
     </row>
     <row r="56" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A56" s="64"/>
-      <c r="B56" s="57" t="s">
+      <c r="A56" s="60"/>
+      <c r="B56" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="C56" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D56" s="59" t="s">
+      <c r="C56" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="55" t="s">
         <v>368</v>
       </c>
       <c r="E56" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="60">
+      <c r="F56" s="56">
         <v>0</v>
       </c>
       <c r="G56" s="47">
@@ -14194,10 +14247,10 @@
       <c r="AE56" s="47">
         <v>0</v>
       </c>
-      <c r="AF56" s="61" t="s">
+      <c r="AF56" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG56" s="55">
+      <c r="AG56" s="52">
         <v>0</v>
       </c>
       <c r="AH56" s="47">
@@ -14244,25 +14297,25 @@
         <v>414</v>
       </c>
       <c r="AW56" s="47"/>
-      <c r="AX56" s="62"/>
-      <c r="AY56" s="62"/>
-      <c r="AZ56" s="54"/>
+      <c r="AX56" s="58"/>
+      <c r="AY56" s="58"/>
+      <c r="AZ56" s="51"/>
     </row>
     <row r="57" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A57" s="64"/>
-      <c r="B57" s="57" t="s">
+      <c r="A57" s="60"/>
+      <c r="B57" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="C57" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D57" s="59" t="s">
+      <c r="C57" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="55" t="s">
         <v>239</v>
       </c>
       <c r="E57" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F57" s="60">
+      <c r="F57" s="56">
         <v>0</v>
       </c>
       <c r="G57" s="47">
@@ -14330,10 +14383,10 @@
       <c r="AE57" s="47">
         <v>0</v>
       </c>
-      <c r="AF57" s="61" t="s">
+      <c r="AF57" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG57" s="55">
+      <c r="AG57" s="52">
         <v>0</v>
       </c>
       <c r="AH57" s="47">
@@ -14380,25 +14433,25 @@
         <v>414</v>
       </c>
       <c r="AW57" s="47"/>
-      <c r="AX57" s="62"/>
-      <c r="AY57" s="62"/>
-      <c r="AZ57" s="54"/>
+      <c r="AX57" s="58"/>
+      <c r="AY57" s="58"/>
+      <c r="AZ57" s="51"/>
     </row>
     <row r="58" spans="1:52" ht="15.75" thickBot="1">
-      <c r="A58" s="64"/>
-      <c r="B58" s="57" t="s">
+      <c r="A58" s="60"/>
+      <c r="B58" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="C58" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D58" s="59" t="s">
+      <c r="C58" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="55" t="s">
         <v>369</v>
       </c>
       <c r="E58" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F58" s="60">
+      <c r="F58" s="56">
         <v>0</v>
       </c>
       <c r="G58" s="47">
@@ -14427,7 +14480,7 @@
       <c r="P58" s="47">
         <v>1</v>
       </c>
-      <c r="Q58" s="69" t="s">
+      <c r="Q58" s="64" t="s">
         <v>382</v>
       </c>
       <c r="R58" s="47"/>
@@ -14438,7 +14491,7 @@
       <c r="U58" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="V58" s="69" t="s">
+      <c r="V58" s="64" t="s">
         <v>383</v>
       </c>
       <c r="W58" s="47">
@@ -14468,10 +14521,10 @@
       <c r="AE58" s="47">
         <v>0</v>
       </c>
-      <c r="AF58" s="61" t="s">
+      <c r="AF58" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG58" s="55">
+      <c r="AG58" s="52">
         <v>0</v>
       </c>
       <c r="AH58" s="47">
@@ -14518,25 +14571,25 @@
         <v>414</v>
       </c>
       <c r="AW58" s="47"/>
-      <c r="AX58" s="62"/>
-      <c r="AY58" s="62"/>
-      <c r="AZ58" s="54"/>
+      <c r="AX58" s="58"/>
+      <c r="AY58" s="58"/>
+      <c r="AZ58" s="51"/>
     </row>
     <row r="59" spans="1:52" ht="15.75" thickBot="1">
       <c r="A59" s="47"/>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="C59" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D59" s="59" t="s">
+      <c r="C59" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="55" t="s">
         <v>370</v>
       </c>
       <c r="E59" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F59" s="60">
+      <c r="F59" s="56">
         <v>0</v>
       </c>
       <c r="G59" s="47">
@@ -14576,7 +14629,7 @@
       <c r="U59" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="V59" s="55" t="s">
+      <c r="V59" s="52" t="s">
         <v>376</v>
       </c>
       <c r="W59" s="47">
@@ -14606,10 +14659,10 @@
       <c r="AE59" s="47">
         <v>0</v>
       </c>
-      <c r="AF59" s="61" t="s">
+      <c r="AF59" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG59" s="55">
+      <c r="AG59" s="52">
         <v>0</v>
       </c>
       <c r="AH59" s="47">
@@ -14656,25 +14709,25 @@
         <v>414</v>
       </c>
       <c r="AW59" s="47"/>
-      <c r="AX59" s="62"/>
-      <c r="AY59" s="62"/>
-      <c r="AZ59" s="54"/>
+      <c r="AX59" s="58"/>
+      <c r="AY59" s="58"/>
+      <c r="AZ59" s="51"/>
     </row>
     <row r="60" spans="1:52" ht="15.75" thickBot="1">
       <c r="A60" s="47"/>
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="C60" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D60" s="59" t="s">
+      <c r="C60" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="55" t="s">
         <v>371</v>
       </c>
       <c r="E60" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F60" s="60">
+      <c r="F60" s="56">
         <v>0</v>
       </c>
       <c r="G60" s="47">
@@ -14744,10 +14797,10 @@
       <c r="AE60" s="47">
         <v>0</v>
       </c>
-      <c r="AF60" s="61" t="s">
+      <c r="AF60" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG60" s="55">
+      <c r="AG60" s="52">
         <v>0</v>
       </c>
       <c r="AH60" s="47">
@@ -14794,25 +14847,25 @@
         <v>414</v>
       </c>
       <c r="AW60" s="47"/>
-      <c r="AX60" s="62"/>
-      <c r="AY60" s="62"/>
-      <c r="AZ60" s="54"/>
+      <c r="AX60" s="58"/>
+      <c r="AY60" s="58"/>
+      <c r="AZ60" s="51"/>
     </row>
     <row r="61" spans="1:52" ht="15.75" thickBot="1">
       <c r="A61" s="47"/>
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="C61" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D61" s="59" t="s">
+      <c r="C61" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="55" t="s">
         <v>244</v>
       </c>
       <c r="E61" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F61" s="60">
+      <c r="F61" s="56">
         <v>0</v>
       </c>
       <c r="G61" s="47">
@@ -14880,10 +14933,10 @@
       <c r="AE61" s="47">
         <v>0</v>
       </c>
-      <c r="AF61" s="61" t="s">
+      <c r="AF61" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG61" s="55">
+      <c r="AG61" s="52">
         <v>0</v>
       </c>
       <c r="AH61" s="47">
@@ -14930,25 +14983,25 @@
         <v>414</v>
       </c>
       <c r="AW61" s="47"/>
-      <c r="AX61" s="62"/>
-      <c r="AY61" s="62"/>
-      <c r="AZ61" s="54"/>
+      <c r="AX61" s="58"/>
+      <c r="AY61" s="58"/>
+      <c r="AZ61" s="51"/>
     </row>
     <row r="62" spans="1:52" ht="15.75" thickBot="1">
       <c r="A62" s="47"/>
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="C62" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D62" s="59" t="s">
+      <c r="C62" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" s="55" t="s">
         <v>373</v>
       </c>
       <c r="E62" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F62" s="60">
+      <c r="F62" s="56">
         <v>0</v>
       </c>
       <c r="G62" s="47">
@@ -14977,7 +15030,7 @@
       <c r="P62" s="47">
         <v>1</v>
       </c>
-      <c r="Q62" s="62" t="s">
+      <c r="Q62" s="58" t="s">
         <v>374</v>
       </c>
       <c r="R62" s="47"/>
@@ -15018,10 +15071,10 @@
       <c r="AE62" s="47">
         <v>0</v>
       </c>
-      <c r="AF62" s="61" t="s">
+      <c r="AF62" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG62" s="55">
+      <c r="AG62" s="52">
         <v>0</v>
       </c>
       <c r="AH62" s="47">
@@ -15068,25 +15121,25 @@
         <v>414</v>
       </c>
       <c r="AW62" s="47"/>
-      <c r="AX62" s="62"/>
-      <c r="AY62" s="62"/>
-      <c r="AZ62" s="54"/>
+      <c r="AX62" s="58"/>
+      <c r="AY62" s="58"/>
+      <c r="AZ62" s="51"/>
     </row>
     <row r="63" spans="1:52" ht="15">
       <c r="A63" s="47"/>
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="C63" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D63" s="59" t="s">
+      <c r="C63" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="55" t="s">
         <v>247</v>
       </c>
       <c r="E63" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F63" s="60">
+      <c r="F63" s="56">
         <v>0</v>
       </c>
       <c r="G63" s="47">
@@ -15155,7 +15208,7 @@
       <c r="AF63" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="AG63" s="55">
+      <c r="AG63" s="52">
         <v>0</v>
       </c>
       <c r="AH63" s="47">
@@ -15202,25 +15255,25 @@
         <v>414</v>
       </c>
       <c r="AW63" s="47"/>
-      <c r="AX63" s="62"/>
-      <c r="AY63" s="62"/>
-      <c r="AZ63" s="54"/>
+      <c r="AX63" s="58"/>
+      <c r="AY63" s="58"/>
+      <c r="AZ63" s="51"/>
     </row>
     <row r="64" spans="1:52" ht="15">
       <c r="A64" s="47"/>
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="C64" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D64" s="59" t="s">
+      <c r="C64" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" s="55" t="s">
         <v>249</v>
       </c>
       <c r="E64" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F64" s="60">
+      <c r="F64" s="56">
         <v>0</v>
       </c>
       <c r="G64" s="47">
@@ -15289,7 +15342,7 @@
       <c r="AF64" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="AG64" s="55">
+      <c r="AG64" s="52">
         <v>0</v>
       </c>
       <c r="AH64" s="47">
@@ -15336,25 +15389,25 @@
         <v>414</v>
       </c>
       <c r="AW64" s="47"/>
-      <c r="AX64" s="62"/>
-      <c r="AY64" s="62"/>
-      <c r="AZ64" s="54"/>
+      <c r="AX64" s="58"/>
+      <c r="AY64" s="58"/>
+      <c r="AZ64" s="51"/>
     </row>
     <row r="65" spans="1:52" ht="15">
       <c r="A65" s="47"/>
-      <c r="B65" s="57" t="s">
+      <c r="B65" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="C65" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D65" s="59" t="s">
+      <c r="C65" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" s="55" t="s">
         <v>251</v>
       </c>
       <c r="E65" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F65" s="60">
+      <c r="F65" s="56">
         <v>0</v>
       </c>
       <c r="G65" s="47">
@@ -15423,7 +15476,7 @@
       <c r="AF65" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="AG65" s="55">
+      <c r="AG65" s="52">
         <v>0</v>
       </c>
       <c r="AH65" s="47">
@@ -15470,25 +15523,25 @@
         <v>414</v>
       </c>
       <c r="AW65" s="47"/>
-      <c r="AX65" s="62"/>
-      <c r="AY65" s="62"/>
-      <c r="AZ65" s="54"/>
+      <c r="AX65" s="58"/>
+      <c r="AY65" s="58"/>
+      <c r="AZ65" s="51"/>
     </row>
     <row r="66" spans="1:52" ht="15">
       <c r="A66" s="47"/>
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="C66" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D66" s="59" t="s">
+      <c r="C66" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="55" t="s">
         <v>254</v>
       </c>
       <c r="E66" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F66" s="60">
+      <c r="F66" s="56">
         <v>0</v>
       </c>
       <c r="G66" s="47">
@@ -15557,7 +15610,7 @@
       <c r="AF66" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="AG66" s="55">
+      <c r="AG66" s="52">
         <v>0</v>
       </c>
       <c r="AH66" s="47">
@@ -15604,25 +15657,25 @@
         <v>414</v>
       </c>
       <c r="AW66" s="47"/>
-      <c r="AX66" s="62"/>
-      <c r="AY66" s="62"/>
-      <c r="AZ66" s="54"/>
+      <c r="AX66" s="58"/>
+      <c r="AY66" s="58"/>
+      <c r="AZ66" s="51"/>
     </row>
     <row r="67" spans="1:52" ht="15">
       <c r="A67" s="47"/>
-      <c r="B67" s="57" t="s">
+      <c r="B67" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="C67" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D67" s="59" t="s">
+      <c r="C67" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="55" t="s">
         <v>257</v>
       </c>
       <c r="E67" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F67" s="60">
+      <c r="F67" s="56">
         <v>0</v>
       </c>
       <c r="G67" s="47">
@@ -15691,7 +15744,7 @@
       <c r="AF67" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="AG67" s="55">
+      <c r="AG67" s="52">
         <v>0</v>
       </c>
       <c r="AH67" s="47">
@@ -15738,25 +15791,25 @@
         <v>414</v>
       </c>
       <c r="AW67" s="47"/>
-      <c r="AX67" s="62"/>
-      <c r="AY67" s="62"/>
-      <c r="AZ67" s="54"/>
+      <c r="AX67" s="58"/>
+      <c r="AY67" s="58"/>
+      <c r="AZ67" s="51"/>
     </row>
     <row r="68" spans="1:52" ht="15.75" thickBot="1">
       <c r="A68" s="47"/>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="C68" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D68" s="59" t="s">
+      <c r="C68" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" s="55" t="s">
         <v>260</v>
       </c>
       <c r="E68" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F68" s="60">
+      <c r="F68" s="56">
         <v>0</v>
       </c>
       <c r="G68" s="47">
@@ -15825,7 +15878,7 @@
       <c r="AF68" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="AG68" s="55">
+      <c r="AG68" s="52">
         <v>0</v>
       </c>
       <c r="AH68" s="47">
@@ -15872,25 +15925,25 @@
         <v>414</v>
       </c>
       <c r="AW68" s="47"/>
-      <c r="AX68" s="62"/>
-      <c r="AY68" s="62"/>
-      <c r="AZ68" s="54"/>
+      <c r="AX68" s="58"/>
+      <c r="AY68" s="58"/>
+      <c r="AZ68" s="51"/>
     </row>
     <row r="69" spans="1:52" ht="15.75" thickBot="1">
       <c r="A69" s="47"/>
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="C69" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D69" s="59" t="s">
+      <c r="C69" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" s="55" t="s">
         <v>262</v>
       </c>
       <c r="E69" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F69" s="72">
+      <c r="F69" s="50">
         <v>0</v>
       </c>
       <c r="G69" s="47">
@@ -15956,10 +16009,10 @@
       <c r="AE69" s="47">
         <v>0</v>
       </c>
-      <c r="AF69" s="61" t="s">
+      <c r="AF69" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AG69" s="55">
+      <c r="AG69" s="52">
         <v>0</v>
       </c>
       <c r="AH69" s="47">
@@ -16006,9 +16059,9 @@
         <v>414</v>
       </c>
       <c r="AW69" s="47"/>
-      <c r="AX69" s="62"/>
-      <c r="AY69" s="62"/>
-      <c r="AZ69" s="54"/>
+      <c r="AX69" s="58"/>
+      <c r="AY69" s="58"/>
+      <c r="AZ69" s="51"/>
     </row>
     <row r="70" spans="1:52">
       <c r="AI70" s="4"/>
@@ -16020,33 +16073,33 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="AQ5:AS5"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="AT4:AV4"/>
-    <mergeCell ref="AT5:AV5"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="V2:AA2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="V3:AA3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="V4:AA4"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="AT5:AV5"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="AQ5:AS5"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AN5:AP5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16197,7 +16250,7 @@
       <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="71" t="b">
+      <c r="G6" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H6">
@@ -16227,7 +16280,7 @@
       <c r="F7" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="71" t="b">
+      <c r="G7" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H7">
@@ -16257,7 +16310,7 @@
       <c r="F8" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="71" t="b">
+      <c r="G8" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H8">
@@ -16287,7 +16340,7 @@
       <c r="F9" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="71" t="b">
+      <c r="G9" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H9">
@@ -16317,7 +16370,7 @@
       <c r="F10" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="71" t="b">
+      <c r="G10" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H10">
@@ -16347,7 +16400,7 @@
       <c r="F11" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="71" t="b">
+      <c r="G11" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H11">
@@ -16377,7 +16430,7 @@
       <c r="F12" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="71" t="b">
+      <c r="G12" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H12">
@@ -16407,7 +16460,7 @@
       <c r="F13" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="71" t="b">
+      <c r="G13" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H13">
@@ -16437,7 +16490,7 @@
       <c r="F14" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="71" t="b">
+      <c r="G14" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H14">
@@ -16467,7 +16520,7 @@
       <c r="F15" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="71" t="b">
+      <c r="G15" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H15">
@@ -16495,7 +16548,7 @@
       <c r="F16" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="71" t="b">
+      <c r="G16" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H16">
@@ -16525,7 +16578,7 @@
       <c r="F17" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="71" t="b">
+      <c r="G17" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H17">
@@ -16553,7 +16606,7 @@
       <c r="F18" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="71" t="b">
+      <c r="G18" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H18">
@@ -16582,7 +16635,7 @@
       <c r="F19" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="71" t="b">
+      <c r="G19" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H19">
@@ -16640,7 +16693,7 @@
       <c r="F21" t="b">
         <v>1</v>
       </c>
-      <c r="G21" s="71" t="b">
+      <c r="G21" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H21">
@@ -16666,7 +16719,7 @@
       <c r="F22" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="71" t="b">
+      <c r="G22" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H22">
@@ -16692,7 +16745,7 @@
       <c r="F23" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="71" t="b">
+      <c r="G23" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H23">
@@ -16718,7 +16771,7 @@
       <c r="F24" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="71" t="b">
+      <c r="G24" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H24">
@@ -16744,7 +16797,7 @@
       <c r="F25" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="71" t="b">
+      <c r="G25" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H25">
@@ -16770,7 +16823,7 @@
       <c r="F26" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="71" t="b">
+      <c r="G26" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H26">
@@ -16796,7 +16849,7 @@
       <c r="F27" t="b">
         <v>0</v>
       </c>
-      <c r="G27" s="71" t="b">
+      <c r="G27" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H27">
@@ -16810,7 +16863,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15">
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="43" t="s">
         <v>379</v>
       </c>
       <c r="D28">
@@ -16822,7 +16875,7 @@
       <c r="F28" t="b">
         <v>0</v>
       </c>
-      <c r="G28" s="71" t="b">
+      <c r="G28" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H28">
@@ -16836,7 +16889,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15">
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="63" t="s">
         <v>382</v>
       </c>
       <c r="D29">
@@ -16848,7 +16901,7 @@
       <c r="F29" t="b">
         <v>0</v>
       </c>
-      <c r="G29" s="71" t="b">
+      <c r="G29" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H29">
@@ -16874,7 +16927,7 @@
       <c r="F30" t="b">
         <v>0</v>
       </c>
-      <c r="G30" s="71" t="b">
+      <c r="G30" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H30">
@@ -16900,7 +16953,7 @@
       <c r="F31" t="b">
         <v>0</v>
       </c>
-      <c r="G31" s="71" t="b">
+      <c r="G31" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H31">
@@ -16926,7 +16979,7 @@
       <c r="F32" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G32" s="71" t="b">
+      <c r="G32" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H32">
@@ -16940,7 +16993,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="15">
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="67" t="s">
         <v>393</v>
       </c>
       <c r="D33">
@@ -16952,7 +17005,7 @@
       <c r="F33" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G33" s="71" t="b">
+      <c r="G33" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H33">
@@ -16978,7 +17031,7 @@
       <c r="F34" t="b">
         <v>0</v>
       </c>
-      <c r="G34" s="71" t="b">
+      <c r="G34" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H34">
@@ -17004,7 +17057,7 @@
       <c r="F35" t="b">
         <v>0</v>
       </c>
-      <c r="G35" s="71" t="b">
+      <c r="G35" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H35">
@@ -17030,7 +17083,7 @@
       <c r="F36" t="b">
         <v>0</v>
       </c>
-      <c r="G36" s="71" t="b">
+      <c r="G36" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H36">
@@ -17056,7 +17109,7 @@
       <c r="F37" t="b">
         <v>0</v>
       </c>
-      <c r="G37" s="71" t="b">
+      <c r="G37" s="11" t="b">
         <v>0</v>
       </c>
       <c r="H37">

--- a/Excels/Datas/config1.xlsx
+++ b/Excels/Datas/config1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5015A46B-5146-4CF7-9C1C-53017E05EC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12980" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hulu_table" sheetId="1" r:id="rId1"/>
@@ -23,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,18 +36,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>chenjun</author>
   </authors>
   <commentList>
-    <comment ref="A26" authorId="0">
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>chenjun:</t>
@@ -52,6 +57,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -60,13 +66,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="A42" authorId="0">
+    <comment ref="A42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>chenjun:</t>
@@ -75,6 +82,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -347,6 +355,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -357,6 +366,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -582,6 +592,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>属性</t>
@@ -593,6 +604,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>描述</t>
@@ -604,6 +616,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>类型（指挥</t>
@@ -613,7 +626,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/</t>
     </r>
@@ -622,6 +635,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>技能）</t>
@@ -633,6 +647,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>伤害值</t>
@@ -644,6 +659,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>优先级</t>
@@ -675,7 +691,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Buff</t>
     </r>
@@ -695,7 +711,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Buff</t>
     </r>
@@ -706,6 +722,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>数量</t>
@@ -717,6 +734,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>给对面训练家的</t>
@@ -726,7 +744,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>buff</t>
     </r>
@@ -737,6 +755,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>给自己训练家上的</t>
@@ -746,7 +765,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Buff</t>
     </r>
@@ -757,6 +776,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>使用后给自己增加的</t>
@@ -766,7 +786,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Buff</t>
     </r>
@@ -777,6 +797,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>命中率</t>
@@ -788,6 +809,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>多次攻击次数</t>
@@ -799,6 +821,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>使用后变更的场地</t>
@@ -810,6 +833,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是否使用防御力代替攻击力计算伤害</t>
@@ -821,6 +845,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>目标牌</t>
@@ -854,6 +879,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>添加的技能牌</t>
@@ -876,6 +902,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>使用后抽指挥牌的数量</t>
@@ -887,6 +914,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>使用后抽牌数量</t>
@@ -898,6 +926,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>会心率</t>
@@ -909,6 +938,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>使用后增加的防御点数</t>
@@ -920,6 +950,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>牌的使用类型</t>
@@ -931,6 +962,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>使用后恢复生命的点数</t>
@@ -942,6 +974,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>使用后恢复生命的百分比</t>
@@ -953,6 +986,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>使用后增加的速度值</t>
@@ -982,6 +1016,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>满血时</t>
@@ -991,7 +1026,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>baseValue</t>
     </r>
@@ -1000,6 +1035,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>加成</t>
@@ -1011,6 +1047,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>受到自己造成伤害的百分比</t>
@@ -1022,6 +1059,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>使用后修改自己的属性</t>
@@ -1033,6 +1071,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>在草属性场地的威力加成</t>
@@ -1044,6 +1083,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>冲浪</t>
@@ -1055,6 +1095,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>水</t>
@@ -1066,6 +1107,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>操控着惊涛骇浪拍击对手。</t>
@@ -1077,6 +1119,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>伤害技能</t>
@@ -1094,6 +1137,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>水柱冲击</t>
@@ -1105,6 +1149,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>技能优先度：</t>
@@ -1114,7 +1159,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1123,6 +1168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。快速地吐出水柱喷向对手。</t>
@@ -1134,6 +1180,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>水流喷射</t>
@@ -1145,6 +1192,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>技能优先度：</t>
@@ -1154,7 +1202,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1163,6 +1211,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。控制周围的水流涌向对手。</t>
@@ -1174,6 +1223,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>吞吐</t>
@@ -1185,6 +1235,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>吞下对手，然后再将其吐出来。有</t>
@@ -1194,7 +1245,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>40%</t>
     </r>
@@ -1203,6 +1254,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的几率会使对手弃置</t>
@@ -1212,7 +1264,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1221,6 +1273,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张牌。</t>
@@ -1232,6 +1285,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>喷射火焰</t>
@@ -1243,6 +1297,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>火</t>
@@ -1254,6 +1309,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>喷射出高温的火柱袭击敌人。</t>
@@ -1265,6 +1321,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>火焰冲</t>
@@ -1276,6 +1333,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>凝聚全身的火焰快速地冲向对手。将自己的速度提高</t>
@@ -1285,7 +1343,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>10</t>
     </r>
@@ -1294,6 +1352,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点。</t>
@@ -1305,6 +1364,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大地之力</t>
@@ -1316,6 +1376,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>从地面中爆发出灼热的岩浆袭击对手。</t>
@@ -1327,6 +1388,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>吐火</t>
@@ -1338,6 +1400,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>从体内吐出火焰席卷敌人。满血时会造成</t>
@@ -1347,7 +1410,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1.5</t>
     </r>
@@ -1356,6 +1419,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>倍伤害。</t>
@@ -1367,6 +1431,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>光合作用</t>
@@ -1378,6 +1443,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>草</t>
@@ -1389,6 +1455,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>恢复最大生命值的</t>
@@ -1398,7 +1465,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>20%</t>
     </r>
@@ -1407,6 +1474,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -1421,6 +1489,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>变化技能</t>
@@ -1432,6 +1501,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鞭打</t>
@@ -1443,6 +1513,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>舞动长长的鞭子击打对手。</t>
@@ -1454,6 +1525,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>扎根</t>
@@ -1465,6 +1537,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>将自己的根伸入地下，然后突然袭击敌人。将自己的速度降低</t>
@@ -1474,7 +1547,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>10</t>
     </r>
@@ -1483,6 +1556,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点。</t>
@@ -1494,6 +1568,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>轰隆隆隆隆</t>
@@ -1505,6 +1580,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>不管不顾地向前冲击，自己也会受到造成的伤害的</t>
@@ -1514,7 +1590,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>50%</t>
     </r>
@@ -1523,6 +1599,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的伤害。处于草地战场时，招式威力增加</t>
@@ -1532,7 +1609,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>30</t>
     </r>
@@ -1541,6 +1618,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点。</t>
@@ -1552,6 +1630,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>放电</t>
@@ -1563,6 +1642,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电</t>
@@ -1574,6 +1654,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>将自己身体里的电流释放出去。使用后自己会变成普通属性。</t>
@@ -1585,6 +1666,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>普通</t>
@@ -1596,6 +1678,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电流猛扑</t>
@@ -1607,6 +1690,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>身体上布满电流，猛然向敌人扑过去。用自己的防御力代替攻击力进行伤害计算。</t>
@@ -1618,6 +1702,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电闪雷鸣</t>
@@ -1629,6 +1714,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>引动雷电共同攻击。有</t>
@@ -1638,7 +1724,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>40%</t>
     </r>
@@ -1647,6 +1733,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的几率不会造成伤害。</t>
@@ -1658,6 +1745,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迅雷</t>
@@ -1669,6 +1757,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>技能优先度：</t>
@@ -1678,7 +1767,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1687,6 +1776,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。如同闪电一样迅速攻击。</t>
@@ -1698,6 +1788,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>咚咚锵</t>
@@ -1709,6 +1800,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>将电流像音乐一样有节奏地发射出来。可能会造成</t>
@@ -1718,7 +1810,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1~3</t>
     </r>
@@ -1727,6 +1819,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>次伤害。</t>
@@ -1741,6 +1834,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>闪电飞盘</t>
@@ -1752,6 +1846,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>闪电如同飞盘一样发射出去。将自己的速度提高</t>
@@ -1761,7 +1856,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>10</t>
     </r>
@@ -1770,6 +1865,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点。</t>
@@ -1781,6 +1877,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>喙啄</t>
@@ -1792,6 +1889,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>风</t>
@@ -1803,6 +1901,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>用自己尖锐的喙敲击敌人的脑袋。有</t>
@@ -1812,7 +1911,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>20%</t>
     </r>
@@ -1821,6 +1920,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的几率造成</t>
@@ -1830,7 +1930,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1.5</t>
     </r>
@@ -1839,6 +1939,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>倍伤害。</t>
@@ -1850,6 +1951,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>暴风</t>
@@ -1861,6 +1963,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>利用气旋形成猛烈地风暴席卷敌人。</t>
@@ -1872,6 +1975,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>起风</t>
@@ -1883,6 +1987,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>挂起猛烈的风。接下来</t>
@@ -1892,7 +1997,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1901,6 +2006,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回合中，将己方选手的速度提高</t>
@@ -1910,7 +2016,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>10</t>
     </r>
@@ -1919,6 +2025,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点，敌方选手的速度降低</t>
@@ -1928,7 +2035,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>10</t>
     </r>
@@ -1937,6 +2044,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点。</t>
@@ -1951,6 +2059,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>逆风</t>
@@ -1962,6 +2071,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>顺风</t>
@@ -1973,6 +2083,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>狂风</t>
@@ -1984,6 +2095,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>空气中的气流与身体产生共鸣，进而引发强劲的风。将自己的速度降低</t>
@@ -1993,7 +2105,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>20</t>
     </r>
@@ -2002,6 +2114,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点。</t>
@@ -2013,6 +2126,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>毒牙</t>
@@ -2024,6 +2138,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>毒</t>
@@ -2035,6 +2150,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>伸出锋利的毒牙撕咬对手。</t>
@@ -2046,6 +2162,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>滚动</t>
@@ -2057,6 +2174,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>将自己的身体滚成一个球，一边喷洒毒液一边保护自己。将自己的防御力增加</t>
@@ -2066,7 +2184,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>10</t>
     </r>
@@ -2075,6 +2193,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点。</t>
@@ -2086,6 +2205,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>冲击</t>
@@ -2097,6 +2217,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>利用身体优势撞向对手。</t>
@@ -2108,6 +2229,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>守护</t>
@@ -2119,6 +2241,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>技能优先度：</t>
@@ -2128,7 +2251,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>5</t>
     </r>
@@ -2137,6 +2260,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。在自己面前张开屏障保护自己，本回合不会受到伤害。</t>
@@ -2151,6 +2275,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>快速攻击</t>
@@ -2162,6 +2287,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>技能优先度：</t>
@@ -2171,7 +2297,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -2180,6 +2306,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。迅速地攻向敌人。</t>
@@ -2191,6 +2318,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>挥爪</t>
@@ -2202,6 +2330,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>挥舞爪子快速进攻。可能会造成</t>
@@ -2211,7 +2340,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>0~5</t>
     </r>
@@ -2220,6 +2349,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>次伤害。</t>
@@ -2234,6 +2364,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>寻找弱点</t>
@@ -2245,6 +2376,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>己方选手下一次使用技能造成伤害变为</t>
@@ -2254,7 +2386,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1.5</t>
     </r>
@@ -2263,6 +2395,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>倍。</t>
@@ -2274,6 +2407,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>指挥</t>
@@ -2285,6 +2419,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>快躲开</t>
@@ -2296,6 +2431,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>己方选手下一次被技能攻击时有</t>
@@ -2305,7 +2441,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>60%</t>
     </r>
@@ -2314,6 +2450,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的几率不会受到伤害。</t>
@@ -2325,6 +2462,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>站起来</t>
@@ -2336,6 +2474,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>己方选手本回合中不会被击败，最小生命值为</t>
@@ -2345,7 +2484,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -2354,6 +2493,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -2365,6 +2505,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疗伤药膏</t>
@@ -2376,6 +2517,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>消耗。己方选手恢复</t>
@@ -2385,7 +2527,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>100</t>
     </r>
@@ -2394,6 +2536,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点生命值。</t>
@@ -2405,6 +2548,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>消耗</t>
@@ -2416,6 +2560,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>轮滑技巧</t>
@@ -2427,6 +2572,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>己方选手下一次使用技能必定优先攻击。</t>
@@ -2438,6 +2584,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>重整思路</t>
@@ -2449,6 +2596,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>弃置所有手牌，然后抽取等量手牌。</t>
@@ -2460,6 +2608,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战斗灵感</t>
@@ -2471,6 +2620,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>消耗。抽三张牌。</t>
@@ -2482,6 +2632,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>规避弱点</t>
@@ -2493,6 +2644,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>己方选手本回合中受到的伤害变为</t>
@@ -2502,7 +2654,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>0.5</t>
     </r>
@@ -2511,6 +2663,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>倍。</t>
@@ -2522,7 +2675,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>规避弱点</t>
     </r>
@@ -2533,6 +2686,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>喝茶</t>
@@ -2544,6 +2698,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>消耗。本回合中双方玩家都不能使用牌，己方选手恢复</t>
@@ -2553,7 +2708,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>50</t>
     </r>
@@ -2562,6 +2717,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点生命值。</t>
@@ -2573,6 +2729,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>结束回合</t>
@@ -2584,6 +2741,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙之返照</t>
@@ -2595,6 +2753,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>己方选手恢复若干点生命，直到满血；己方回合结束时，受到等量伤害。从牌组中抽取一张</t>
@@ -2604,6 +2763,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>“</t>
@@ -2613,6 +2773,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>水流喷射</t>
@@ -2622,6 +2783,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>”</t>
@@ -2631,6 +2793,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；如果牌组中没有</t>
@@ -2640,6 +2803,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>“</t>
@@ -2649,6 +2813,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>水流喷射</t>
@@ -2658,6 +2823,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>”</t>
@@ -2667,6 +2833,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，你抽一张牌。</t>
@@ -2689,7 +2856,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>水流喷射</t>
     </r>
@@ -2700,6 +2867,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>竖起逆鳞</t>
@@ -2711,6 +2879,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>消耗。本回合中，己方选手不会受到己方卡牌造成伤害。</t>
@@ -2733,6 +2902,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>海洋的宝藏</t>
@@ -2744,6 +2914,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果己方选手处于满血状态，己方选手下一次使用技能造成伤害变为</t>
@@ -2753,7 +2924,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -2762,6 +2933,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>倍；否则你抽两张牌。</t>
@@ -2784,6 +2956,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>下一次技能伤害两倍</t>
@@ -2795,6 +2968,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>击打地面</t>
@@ -2806,6 +2980,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>消耗手牌中的所有技能牌。每消耗一张技能牌，己方选手下一次造成的伤害便增加</t>
@@ -2815,7 +2990,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>80</t>
     </r>
@@ -2824,6 +2999,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点。</t>
@@ -2841,6 +3017,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>共鸣</t>
@@ -2852,6 +3029,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>从牌组中抽取一张</t>
@@ -2861,7 +3039,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>“</t>
     </r>
@@ -2870,6 +3048,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大地之力</t>
@@ -2879,7 +3058,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>”</t>
     </r>
@@ -2888,6 +3067,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；如果牌组中的技能牌数量不大于</t>
@@ -2897,7 +3077,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>4</t>
     </r>
@@ -2906,6 +3086,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张，向你的牌组中添加一张</t>
@@ -2915,7 +3096,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>“</t>
     </r>
@@ -2924,6 +3105,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大地之力</t>
@@ -2933,7 +3115,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>”</t>
     </r>
@@ -2942,6 +3124,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -2953,7 +3136,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>迅雷</t>
     </r>
@@ -2975,6 +3158,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>生命绽放</t>
@@ -2986,6 +3170,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果己方选手的适应力不小于</t>
@@ -2995,7 +3180,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>50</t>
     </r>
@@ -3004,6 +3189,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点，己方选手下一次使用技能造成的伤害变为</t>
@@ -3013,7 +3199,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -3022,6 +3208,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>倍；否则恢复</t>
@@ -3031,7 +3218,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>50</t>
     </r>
@@ -3040,6 +3227,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点生命值。</t>
@@ -3054,6 +3242,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>种树</t>
@@ -3065,6 +3254,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>消耗。如果己方选手的速度小于</t>
@@ -3074,7 +3264,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>20</t>
     </r>
@@ -3083,6 +3273,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，己方选手的适应力增加</t>
@@ -3092,7 +3283,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>10</t>
     </r>
@@ -3101,6 +3292,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点，最多可以叠加到</t>
@@ -3110,7 +3302,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>20</t>
     </r>
@@ -3119,6 +3311,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点，并且不计入己方选手的最大适应力。然后结束当前回合。</t>
@@ -3133,6 +3326,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>穷追猛打</t>
@@ -3144,6 +3338,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>消耗。从牌组中抽取一张</t>
@@ -3153,7 +3348,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>“</t>
     </r>
@@ -3162,6 +3357,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迅雷</t>
@@ -3171,7 +3367,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>”</t>
     </r>
@@ -3180,6 +3376,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，己方选手下一次使用技能造成的伤害变为</t>
@@ -3189,7 +3386,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>X</t>
     </r>
@@ -3198,6 +3395,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>倍，</t>
@@ -3207,7 +3405,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>X</t>
     </r>
@@ -3216,6 +3414,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>为该技能的技能优先级。</t>
@@ -3227,6 +3426,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>技能造成的伤害变成优先级倍</t>
@@ -3238,6 +3438,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>后继有力</t>
@@ -3252,6 +3453,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>偷吃</t>
@@ -3263,6 +3465,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>从牌组中抽取一张</t>
@@ -3272,7 +3475,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>“</t>
     </r>
@@ -3281,6 +3484,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>喙啄</t>
@@ -3290,7 +3494,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>”</t>
     </r>
@@ -3299,6 +3503,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。本回合中，己方选手使用</t>
@@ -3308,7 +3513,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>“</t>
     </r>
@@ -3317,6 +3522,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>喙啄</t>
@@ -3326,7 +3532,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>”</t>
     </r>
@@ -3335,6 +3541,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>时，对手弃置一张手牌。</t>
@@ -3346,6 +3553,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>使用喙啄时对方丢一张牌</t>
@@ -3357,7 +3565,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>喙啄</t>
     </r>
@@ -3368,6 +3576,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>吹飞</t>
@@ -3379,6 +3588,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>消耗。双方玩家各弃置两张手牌，然后若对手的手牌数量不大于</t>
@@ -3388,7 +3598,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>0</t>
     </r>
@@ -3397,6 +3607,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，直接击败敌方选手。然后结束当前回合。</t>
@@ -3411,6 +3622,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>涂毒</t>
@@ -3422,6 +3634,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>己方选手下一次受到伤害时，敌方选手也会受到等量伤害。</t>
@@ -3436,6 +3649,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>下毒</t>
@@ -3453,6 +3667,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张开大嘴</t>
@@ -3464,6 +3679,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>从牌组中抽取一张</t>
@@ -3473,7 +3689,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>“</t>
     </r>
@@ -3482,6 +3698,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>吞吐</t>
@@ -3491,7 +3708,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>”</t>
     </r>
@@ -3500,6 +3717,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。己方选手下一次使用技能的追加效果几率改为</t>
@@ -3509,7 +3727,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>100%</t>
     </r>
@@ -3518,6 +3736,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -3532,6 +3751,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>咽下去</t>
@@ -3543,6 +3763,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>本回合中，消耗对手弃置的牌。</t>
@@ -3557,6 +3778,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>压制</t>
@@ -3568,6 +3790,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>从牌组中抽取一张</t>
@@ -3577,7 +3800,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>“</t>
     </r>
@@ -3586,6 +3809,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>吐火</t>
@@ -3595,7 +3819,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>”</t>
     </r>
@@ -3604,6 +3828,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。己方选手下一次使用技能效果不好时，将伤害倍率改为</t>
@@ -3613,7 +3838,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1.5</t>
     </r>
@@ -3622,6 +3847,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -3639,6 +3865,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>永不停歇</t>
@@ -3650,6 +3877,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>从牌组中抽取一张</t>
@@ -3659,7 +3887,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>“</t>
     </r>
@@ -3668,6 +3896,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
